--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-23.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1271"/>
+  <dimension ref="A1:H1251"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28703,10 +28703,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H877" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H877" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="878">
@@ -28741,10 +28739,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H878" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H878" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="879">
@@ -28783,10 +28779,8 @@
           <t>$ 85B</t>
         </is>
       </c>
-      <c r="H879" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H879" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="880">
@@ -28825,10 +28819,8 @@
           <t>7.1%</t>
         </is>
       </c>
-      <c r="H880" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H880" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="881">
@@ -28867,10 +28859,8 @@
           <t>-2%</t>
         </is>
       </c>
-      <c r="H881" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H881" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="882">
@@ -28893,10 +28883,8 @@
       <c r="E882" t="inlineStr"/>
       <c r="F882" t="inlineStr"/>
       <c r="G882" t="inlineStr"/>
-      <c r="H882" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H882" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="883">
@@ -28945,10 +28933,8 @@
           <t>$-3.4B</t>
         </is>
       </c>
-      <c r="H884" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H884" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="885">
@@ -28979,10 +28965,8 @@
           <t>0%</t>
         </is>
       </c>
-      <c r="H885" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H885" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="886">
@@ -29013,10 +28997,8 @@
           <t>14.1%</t>
         </is>
       </c>
-      <c r="H886" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H886" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="887">
@@ -29043,10 +29025,8 @@
       </c>
       <c r="F887" t="inlineStr"/>
       <c r="G887" t="inlineStr"/>
-      <c r="H887" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H887" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="888">
@@ -29073,10 +29053,8 @@
       </c>
       <c r="F888" t="inlineStr"/>
       <c r="G888" t="inlineStr"/>
-      <c r="H888" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H888" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="889">
@@ -29103,10 +29081,8 @@
       </c>
       <c r="F889" t="inlineStr"/>
       <c r="G889" t="inlineStr"/>
-      <c r="H889" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H889" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="890">
@@ -29141,10 +29117,8 @@
           <t>5.2%</t>
         </is>
       </c>
-      <c r="H890" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H890" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="891">
@@ -29175,10 +29149,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H891" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H891" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="892">
@@ -29209,10 +29181,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H892" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H892" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="893">
@@ -29243,10 +29213,8 @@
           <t>-2.5%</t>
         </is>
       </c>
-      <c r="H893" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H893" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="894">
@@ -29273,10 +29241,8 @@
       </c>
       <c r="F894" t="inlineStr"/>
       <c r="G894" t="inlineStr"/>
-      <c r="H894" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H894" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="895">
@@ -29303,10 +29269,8 @@
       </c>
       <c r="F895" t="inlineStr"/>
       <c r="G895" t="inlineStr"/>
-      <c r="H895" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H895" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="896">
@@ -29333,10 +29297,8 @@
       </c>
       <c r="F896" t="inlineStr"/>
       <c r="G896" t="inlineStr"/>
-      <c r="H896" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H896" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="897">
@@ -29367,10 +29329,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H897" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H897" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="898">
@@ -29397,10 +29357,8 @@
       </c>
       <c r="F898" t="inlineStr"/>
       <c r="G898" t="inlineStr"/>
-      <c r="H898" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H898" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="899">
@@ -29427,10 +29385,8 @@
       </c>
       <c r="F899" t="inlineStr"/>
       <c r="G899" t="inlineStr"/>
-      <c r="H899" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H899" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="900">
@@ -29465,10 +29421,8 @@
           <t>$-220.0B</t>
         </is>
       </c>
-      <c r="H900" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H900" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="901">
@@ -29495,10 +29449,8 @@
       </c>
       <c r="F901" t="inlineStr"/>
       <c r="G901" t="inlineStr"/>
-      <c r="H901" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H901" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="902">
@@ -29525,10 +29477,8 @@
       </c>
       <c r="F902" t="inlineStr"/>
       <c r="G902" t="inlineStr"/>
-      <c r="H902" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H902" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="903">
@@ -29563,10 +29513,8 @@
           <t>¥1990.0B</t>
         </is>
       </c>
-      <c r="H903" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H903" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="904">
@@ -29601,10 +29549,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H904" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H904" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="905">
@@ -29635,10 +29581,8 @@
         </is>
       </c>
       <c r="G905" t="inlineStr"/>
-      <c r="H905" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H905" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="906">
@@ -29669,10 +29613,8 @@
         </is>
       </c>
       <c r="G906" t="inlineStr"/>
-      <c r="H906" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H906" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="907">
@@ -29699,10 +29641,8 @@
       </c>
       <c r="F907" t="inlineStr"/>
       <c r="G907" t="inlineStr"/>
-      <c r="H907" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H907" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="908">
@@ -29725,10 +29665,8 @@
       </c>
       <c r="F908" t="inlineStr"/>
       <c r="G908" t="inlineStr"/>
-      <c r="H908" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H908" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="909">
@@ -29755,10 +29693,8 @@
           <t>-19.0%</t>
         </is>
       </c>
-      <c r="H909" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H909" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="910">
@@ -29785,10 +29721,8 @@
           <t>-4.0%</t>
         </is>
       </c>
-      <c r="H910" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H910" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="911">
@@ -29815,10 +29749,8 @@
           <t>6.4%</t>
         </is>
       </c>
-      <c r="H911" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H911" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="912">
@@ -29849,10 +29781,8 @@
           <t>CNY690.0B</t>
         </is>
       </c>
-      <c r="H912" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H912" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="913">
@@ -29879,10 +29809,8 @@
         </is>
       </c>
       <c r="G913" t="inlineStr"/>
-      <c r="H913" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H913" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="914">
@@ -29913,10 +29841,8 @@
           <t>7.5%</t>
         </is>
       </c>
-      <c r="H914" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H914" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="915">
@@ -29947,10 +29873,8 @@
           <t>CNY1850.0B</t>
         </is>
       </c>
-      <c r="H915" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H915" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="916">
@@ -29973,10 +29897,8 @@
       </c>
       <c r="F916" t="inlineStr"/>
       <c r="G916" t="inlineStr"/>
-      <c r="H916" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H916" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="917">
@@ -29995,10 +29917,8 @@
       <c r="E917" t="inlineStr"/>
       <c r="F917" t="inlineStr"/>
       <c r="G917" t="inlineStr"/>
-      <c r="H917" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H917" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="918">
@@ -30047,10 +29967,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H919" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H919" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="920">
@@ -30081,10 +29999,8 @@
           <t>49.6</t>
         </is>
       </c>
-      <c r="H920" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H920" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="921">
@@ -30111,10 +30027,8 @@
       </c>
       <c r="F921" t="inlineStr"/>
       <c r="G921" t="inlineStr"/>
-      <c r="H921" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H921" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="922">
@@ -30141,10 +30055,8 @@
       </c>
       <c r="F922" t="inlineStr"/>
       <c r="G922" t="inlineStr"/>
-      <c r="H922" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H922" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="923">
@@ -30175,10 +30087,8 @@
           <t>10.2%</t>
         </is>
       </c>
-      <c r="H923" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H923" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="924">
@@ -30209,10 +30119,8 @@
           <t>-3.2%</t>
         </is>
       </c>
-      <c r="H924" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H924" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="925">
@@ -30247,10 +30155,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H925" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H925" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="926">
@@ -30281,10 +30187,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H926" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H926" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="927">
@@ -30307,10 +30211,8 @@
       <c r="E927" t="inlineStr"/>
       <c r="F927" t="inlineStr"/>
       <c r="G927" t="inlineStr"/>
-      <c r="H927" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H927" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="928">
@@ -30341,10 +30243,8 @@
           <t>€-162.0B</t>
         </is>
       </c>
-      <c r="H928" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H928" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="929">
@@ -30367,10 +30267,8 @@
       <c r="E929" t="inlineStr"/>
       <c r="F929" t="inlineStr"/>
       <c r="G929" t="inlineStr"/>
-      <c r="H929" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H929" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="930">
@@ -30405,10 +30303,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H930" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H930" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="931">
@@ -30439,10 +30335,8 @@
           <t>-3.3%</t>
         </is>
       </c>
-      <c r="H931" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H931" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="932">
@@ -30469,10 +30363,8 @@
       </c>
       <c r="F932" t="inlineStr"/>
       <c r="G932" t="inlineStr"/>
-      <c r="H932" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H932" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="933">
@@ -30499,10 +30391,8 @@
       </c>
       <c r="F933" t="inlineStr"/>
       <c r="G933" t="inlineStr"/>
-      <c r="H933" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H933" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="934">
@@ -30529,10 +30419,8 @@
       </c>
       <c r="F934" t="inlineStr"/>
       <c r="G934" t="inlineStr"/>
-      <c r="H934" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H934" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="935">
@@ -30559,10 +30447,8 @@
       </c>
       <c r="F935" t="inlineStr"/>
       <c r="G935" t="inlineStr"/>
-      <c r="H935" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H935" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="936">
@@ -30585,10 +30471,8 @@
       <c r="E936" t="inlineStr"/>
       <c r="F936" t="inlineStr"/>
       <c r="G936" t="inlineStr"/>
-      <c r="H936" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H936" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="937">
@@ -30623,10 +30507,8 @@
           <t>102</t>
         </is>
       </c>
-      <c r="H937" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H937" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="938">
@@ -30657,10 +30539,8 @@
           <t>$615.0B</t>
         </is>
       </c>
-      <c r="H938" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H938" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="939">
@@ -30695,10 +30575,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H939" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H939" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="940">
@@ -30733,10 +30611,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H940" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H940" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="941">
@@ -30771,10 +30647,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H941" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H941" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="942">
@@ -30805,10 +30679,8 @@
           <t>146.8</t>
         </is>
       </c>
-      <c r="H942" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H942" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="943">
@@ -30839,10 +30711,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H943" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H943" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="944">
@@ -30873,10 +30743,8 @@
           <t>3.5%</t>
         </is>
       </c>
-      <c r="H944" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H944" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="945">
@@ -30911,10 +30779,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H945" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H945" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="946">
@@ -30941,10 +30807,8 @@
       </c>
       <c r="F946" t="inlineStr"/>
       <c r="G946" t="inlineStr"/>
-      <c r="H946" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H946" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="947">
@@ -30967,10 +30831,8 @@
       <c r="E947" t="inlineStr"/>
       <c r="F947" t="inlineStr"/>
       <c r="G947" t="inlineStr"/>
-      <c r="H947" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H947" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="948">
@@ -31005,10 +30867,8 @@
           <t>54.2</t>
         </is>
       </c>
-      <c r="H948" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H948" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="949">
@@ -31035,10 +30895,8 @@
       </c>
       <c r="F949" t="inlineStr"/>
       <c r="G949" t="inlineStr"/>
-      <c r="H949" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H949" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="950">
@@ -31069,10 +30927,8 @@
           <t>2.0%</t>
         </is>
       </c>
-      <c r="H950" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H950" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="951">
@@ -31103,10 +30959,8 @@
           <t>116.0%</t>
         </is>
       </c>
-      <c r="H951" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H951" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="952">
@@ -31129,10 +30983,8 @@
       <c r="E952" t="inlineStr"/>
       <c r="F952" t="inlineStr"/>
       <c r="G952" t="inlineStr"/>
-      <c r="H952" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H952" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="953">
@@ -31163,10 +31015,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H953" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H953" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="954">
@@ -31197,10 +31047,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H954" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H954" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="955">
@@ -31227,10 +31075,8 @@
       </c>
       <c r="F955" t="inlineStr"/>
       <c r="G955" t="inlineStr"/>
-      <c r="H955" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H955" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="956">
@@ -31261,10 +31107,8 @@
           <t>3</t>
         </is>
       </c>
-      <c r="H956" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H956" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="957">
@@ -31287,10 +31131,8 @@
       <c r="E957" t="inlineStr"/>
       <c r="F957" t="inlineStr"/>
       <c r="G957" t="inlineStr"/>
-      <c r="H957" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H957" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="958">
@@ -31325,10 +31167,8 @@
           <t>$ 2.8B</t>
         </is>
       </c>
-      <c r="H958" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H958" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="959">
@@ -31359,10 +31199,8 @@
         </is>
       </c>
       <c r="G959" t="inlineStr"/>
-      <c r="H959" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H959" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="960">
@@ -31393,10 +31231,8 @@
         </is>
       </c>
       <c r="G960" t="inlineStr"/>
-      <c r="H960" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H960" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="961">
@@ -31419,10 +31255,8 @@
       </c>
       <c r="F961" t="inlineStr"/>
       <c r="G961" t="inlineStr"/>
-      <c r="H961" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H961" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="962">
@@ -31445,10 +31279,8 @@
       </c>
       <c r="F962" t="inlineStr"/>
       <c r="G962" t="inlineStr"/>
-      <c r="H962" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H962" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="963">
@@ -31497,10 +31329,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H964" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H964" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="965">
@@ -31535,10 +31365,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H965" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H965" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="966">
@@ -31569,10 +31397,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H966" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H966" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="967">
@@ -31607,10 +31433,8 @@
           <t>2.7%</t>
         </is>
       </c>
-      <c r="H967" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H967" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="968">
@@ -31645,10 +31469,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H968" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H968" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="969">
@@ -31679,10 +31501,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H969" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H969" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="970">
@@ -31713,10 +31533,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H970" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H970" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="971">
@@ -31747,10 +31565,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H971" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H971" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="972">
@@ -31781,10 +31597,8 @@
           <t>2.1%</t>
         </is>
       </c>
-      <c r="H972" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H972" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="973">
@@ -31819,10 +31633,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H973" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H973" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="974">
@@ -31853,10 +31665,8 @@
           <t>-1%</t>
         </is>
       </c>
-      <c r="H974" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H974" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="975">
@@ -31891,10 +31701,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H975" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H975" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="976">
@@ -31925,10 +31733,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H976" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H976" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="977">
@@ -31959,10 +31765,8 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H977" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H977" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="978">
@@ -31997,10 +31801,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H978" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H978" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="979">
@@ -32031,10 +31833,8 @@
           <t>10%</t>
         </is>
       </c>
-      <c r="H979" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H979" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="980">
@@ -32065,10 +31865,8 @@
           <t>6%</t>
         </is>
       </c>
-      <c r="H980" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H980" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="981">
@@ -32099,10 +31897,8 @@
           <t>5.25%</t>
         </is>
       </c>
-      <c r="H981" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H981" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="982">
@@ -32133,10 +31929,8 @@
           <t>6.75%</t>
         </is>
       </c>
-      <c r="H982" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H982" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="983">
@@ -32171,10 +31965,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H983" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H983" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="984">
@@ -32209,10 +32001,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H984" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H984" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="985">
@@ -32247,10 +32037,8 @@
           <t>1.8%</t>
         </is>
       </c>
-      <c r="H985" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H985" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="986">
@@ -32285,10 +32073,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H986" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H986" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="987">
@@ -32311,10 +32097,8 @@
       <c r="E987" t="inlineStr"/>
       <c r="F987" t="inlineStr"/>
       <c r="G987" t="inlineStr"/>
-      <c r="H987" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H987" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="988">
@@ -32349,10 +32133,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H988" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H988" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="989">
@@ -32387,10 +32169,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H989" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H989" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="990">
@@ -32425,10 +32205,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H990" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H990" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="991">
@@ -32463,10 +32241,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H991" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H991" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="992">
@@ -32501,10 +32277,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H992" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H992" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="993">
@@ -32527,10 +32301,8 @@
       <c r="E993" t="inlineStr"/>
       <c r="F993" t="inlineStr"/>
       <c r="G993" t="inlineStr"/>
-      <c r="H993" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H993" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="994">
@@ -32565,10 +32337,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H994" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H994" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="995">
@@ -32603,10 +32373,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H995" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H995" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="996">
@@ -32641,10 +32409,8 @@
           <t>-1.5%</t>
         </is>
       </c>
-      <c r="H996" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H996" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="997">
@@ -32671,10 +32437,8 @@
       </c>
       <c r="F997" t="inlineStr"/>
       <c r="G997" t="inlineStr"/>
-      <c r="H997" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H997" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="998">
@@ -32701,10 +32465,8 @@
       </c>
       <c r="F998" t="inlineStr"/>
       <c r="G998" t="inlineStr"/>
-      <c r="H998" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H998" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="999">
@@ -32735,10 +32497,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H999" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H999" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1000">
@@ -32769,10 +32529,8 @@
           <t>-5.0%</t>
         </is>
       </c>
-      <c r="H1000" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1000" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1001">
@@ -32799,10 +32557,8 @@
       </c>
       <c r="F1001" t="inlineStr"/>
       <c r="G1001" t="inlineStr"/>
-      <c r="H1001" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1001" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1002">
@@ -32829,10 +32585,8 @@
       </c>
       <c r="F1002" t="inlineStr"/>
       <c r="G1002" t="inlineStr"/>
-      <c r="H1002" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1002" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1003">
@@ -32859,10 +32613,8 @@
       </c>
       <c r="F1003" t="inlineStr"/>
       <c r="G1003" t="inlineStr"/>
-      <c r="H1003" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1003" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1004">
@@ -32889,10 +32641,8 @@
       </c>
       <c r="F1004" t="inlineStr"/>
       <c r="G1004" t="inlineStr"/>
-      <c r="H1004" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1004" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1005">
@@ -32919,10 +32669,8 @@
       </c>
       <c r="F1005" t="inlineStr"/>
       <c r="G1005" t="inlineStr"/>
-      <c r="H1005" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1005" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1006">
@@ -32957,10 +32705,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1006" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1006" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1007">
@@ -32987,10 +32733,8 @@
       </c>
       <c r="F1007" t="inlineStr"/>
       <c r="G1007" t="inlineStr"/>
-      <c r="H1007" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1007" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1008">
@@ -33025,10 +32769,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H1008" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1008" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1009">
@@ -33063,10 +32805,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1009" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1009" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1010">
@@ -33101,10 +32841,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H1010" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1010" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1011">
@@ -33139,10 +32877,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1011" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1011" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1012">
@@ -33177,10 +32913,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H1012" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1012" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1013">
@@ -33211,10 +32945,8 @@
           <t>315.6</t>
         </is>
       </c>
-      <c r="H1013" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1013" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1014">
@@ -33245,10 +32977,8 @@
           <t>317.4</t>
         </is>
       </c>
-      <c r="H1014" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1014" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1015">
@@ -33283,10 +33013,8 @@
           <t>0.15</t>
         </is>
       </c>
-      <c r="H1015" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1015" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1016">
@@ -33309,10 +33037,8 @@
       <c r="E1016" t="inlineStr"/>
       <c r="F1016" t="inlineStr"/>
       <c r="G1016" t="inlineStr"/>
-      <c r="H1016" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1016" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1017">
@@ -33335,10 +33061,8 @@
       <c r="E1017" t="inlineStr"/>
       <c r="F1017" t="inlineStr"/>
       <c r="G1017" t="inlineStr"/>
-      <c r="H1017" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1017" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1018">
@@ -33365,10 +33089,8 @@
       </c>
       <c r="F1018" t="inlineStr"/>
       <c r="G1018" t="inlineStr"/>
-      <c r="H1018" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1018" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1019">
@@ -33395,10 +33117,8 @@
       </c>
       <c r="F1019" t="inlineStr"/>
       <c r="G1019" t="inlineStr"/>
-      <c r="H1019" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1019" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1020">
@@ -33425,10 +33145,8 @@
       </c>
       <c r="F1020" t="inlineStr"/>
       <c r="G1020" t="inlineStr"/>
-      <c r="H1020" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1020" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1021">
@@ -33455,10 +33173,8 @@
       </c>
       <c r="F1021" t="inlineStr"/>
       <c r="G1021" t="inlineStr"/>
-      <c r="H1021" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1021" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1022">
@@ -33485,10 +33201,8 @@
       </c>
       <c r="F1022" t="inlineStr"/>
       <c r="G1022" t="inlineStr"/>
-      <c r="H1022" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1022" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1023">
@@ -33515,10 +33229,8 @@
       </c>
       <c r="F1023" t="inlineStr"/>
       <c r="G1023" t="inlineStr"/>
-      <c r="H1023" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1023" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1024">
@@ -33545,10 +33257,8 @@
       </c>
       <c r="F1024" t="inlineStr"/>
       <c r="G1024" t="inlineStr"/>
-      <c r="H1024" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1024" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1025">
@@ -33575,10 +33285,8 @@
       </c>
       <c r="F1025" t="inlineStr"/>
       <c r="G1025" t="inlineStr"/>
-      <c r="H1025" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1025" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1026">
@@ -33605,10 +33313,8 @@
       </c>
       <c r="F1026" t="inlineStr"/>
       <c r="G1026" t="inlineStr"/>
-      <c r="H1026" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1026" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1027">
@@ -33643,10 +33349,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1027" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1027" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1028">
@@ -33681,10 +33385,8 @@
           <t>9.5%</t>
         </is>
       </c>
-      <c r="H1028" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1028" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1029">
@@ -33707,10 +33409,8 @@
       <c r="E1029" t="inlineStr"/>
       <c r="F1029" t="inlineStr"/>
       <c r="G1029" t="inlineStr"/>
-      <c r="H1029" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1029" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1030">
@@ -33737,10 +33437,8 @@
       </c>
       <c r="F1030" t="inlineStr"/>
       <c r="G1030" t="inlineStr"/>
-      <c r="H1030" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1030" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1031">
@@ -33771,10 +33469,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H1031" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1031" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1032">
@@ -33801,10 +33497,8 @@
       </c>
       <c r="F1032" t="inlineStr"/>
       <c r="G1032" t="inlineStr"/>
-      <c r="H1032" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1032" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1033">
@@ -33827,10 +33521,8 @@
       <c r="E1033" t="inlineStr"/>
       <c r="F1033" t="inlineStr"/>
       <c r="G1033" t="inlineStr"/>
-      <c r="H1033" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1033" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1034">
@@ -33853,10 +33545,8 @@
       <c r="E1034" t="inlineStr"/>
       <c r="F1034" t="inlineStr"/>
       <c r="G1034" t="inlineStr"/>
-      <c r="H1034" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1034" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1035">
@@ -33879,10 +33569,8 @@
       <c r="E1035" t="inlineStr"/>
       <c r="F1035" t="inlineStr"/>
       <c r="G1035" t="inlineStr"/>
-      <c r="H1035" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1035" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1036">
@@ -33913,10 +33601,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H1036" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1036" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1037">
@@ -33947,10 +33633,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1037" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1037" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1038">
@@ -33985,10 +33669,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H1038" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1038" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1039">
@@ -34023,10 +33705,8 @@
           <t>26.0%</t>
         </is>
       </c>
-      <c r="H1039" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1039" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1040">
@@ -34061,10 +33741,8 @@
           <t>3.9%</t>
         </is>
       </c>
-      <c r="H1040" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1040" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1041">
@@ -34099,10 +33777,8 @@
           <t>25.1K</t>
         </is>
       </c>
-      <c r="H1041" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1041" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1042">
@@ -34129,10 +33805,8 @@
       </c>
       <c r="F1042" t="inlineStr"/>
       <c r="G1042" t="inlineStr"/>
-      <c r="H1042" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1042" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1043">
@@ -34159,10 +33833,8 @@
       </c>
       <c r="F1043" t="inlineStr"/>
       <c r="G1043" t="inlineStr"/>
-      <c r="H1043" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1043" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1044">
@@ -34197,10 +33869,8 @@
           <t>66.8%</t>
         </is>
       </c>
-      <c r="H1044" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1044" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1045">
@@ -34235,10 +33905,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H1045" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1045" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1046">
@@ -34265,10 +33933,8 @@
       </c>
       <c r="F1046" t="inlineStr"/>
       <c r="G1046" t="inlineStr"/>
-      <c r="H1046" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1046" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1047">
@@ -34295,10 +33961,8 @@
       </c>
       <c r="F1047" t="inlineStr"/>
       <c r="G1047" t="inlineStr"/>
-      <c r="H1047" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1047" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1048">
@@ -34325,10 +33989,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1048" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1048" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1049">
@@ -34355,10 +34017,8 @@
           <t>2%</t>
         </is>
       </c>
-      <c r="H1049" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1049" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1050">
@@ -34385,10 +34045,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H1050" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1050" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1051">
@@ -34411,10 +34069,8 @@
       </c>
       <c r="F1051" t="inlineStr"/>
       <c r="G1051" t="inlineStr"/>
-      <c r="H1051" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1051" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1052">
@@ -34433,10 +34089,8 @@
       <c r="E1052" t="inlineStr"/>
       <c r="F1052" t="inlineStr"/>
       <c r="G1052" t="inlineStr"/>
-      <c r="H1052" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1052" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1053">
@@ -34463,10 +34117,8 @@
           <t>$ -38.0B</t>
         </is>
       </c>
-      <c r="H1053" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1053" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1054">
@@ -34493,10 +34145,8 @@
           <t>$ 32.5B</t>
         </is>
       </c>
-      <c r="H1054" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1054" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1055">
@@ -34523,10 +34173,8 @@
           <t>$ 70.5B</t>
         </is>
       </c>
-      <c r="H1055" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1055" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1056">
@@ -34567,10 +34215,8 @@
       </c>
       <c r="F1057" t="inlineStr"/>
       <c r="G1057" t="inlineStr"/>
-      <c r="H1057" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1057" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1058">
@@ -34605,10 +34251,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1058" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1058" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1059">
@@ -34643,10 +34287,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H1059" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1059" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1060">
@@ -34681,10 +34323,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H1060" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1060" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1061">
@@ -34719,10 +34359,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H1061" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1061" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1062">
@@ -34757,10 +34395,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1062" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1062" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1063">
@@ -34791,10 +34427,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1063" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1063" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1064">
@@ -34829,10 +34463,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1064" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1064" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1065">
@@ -34867,10 +34499,8 @@
           <t>£-17.0B</t>
         </is>
       </c>
-      <c r="H1065" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1065" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1066">
@@ -34901,10 +34531,8 @@
           <t>£-6.8B</t>
         </is>
       </c>
-      <c r="H1066" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1066" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1067">
@@ -34939,10 +34567,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1067" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1067" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1068">
@@ -34977,10 +34603,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1068" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1068" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1069">
@@ -35011,10 +34635,8 @@
           <t>£-3.9B</t>
         </is>
       </c>
-      <c r="H1069" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1069" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1070">
@@ -35045,10 +34667,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1070" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1070" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1071">
@@ -35083,10 +34703,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H1071" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1071" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1072">
@@ -35121,10 +34739,8 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H1072" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1072" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1073">
@@ -35159,10 +34775,8 @@
           <t>€3.2B</t>
         </is>
       </c>
-      <c r="H1073" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1073" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1074">
@@ -35197,10 +34811,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1074" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1074" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1075">
@@ -35235,10 +34847,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H1075" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1075" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1076">
@@ -35273,10 +34883,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H1076" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1076" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1077">
@@ -35311,10 +34919,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1077" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1077" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1078">
@@ -35337,10 +34943,8 @@
       <c r="E1078" t="inlineStr"/>
       <c r="F1078" t="inlineStr"/>
       <c r="G1078" t="inlineStr"/>
-      <c r="H1078" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1078" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1079">
@@ -35367,10 +34971,8 @@
       </c>
       <c r="F1079" t="inlineStr"/>
       <c r="G1079" t="inlineStr"/>
-      <c r="H1079" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1079" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1080">
@@ -35393,10 +34995,8 @@
       <c r="E1080" t="inlineStr"/>
       <c r="F1080" t="inlineStr"/>
       <c r="G1080" t="inlineStr"/>
-      <c r="H1080" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1080" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1081">
@@ -35423,10 +35023,8 @@
       </c>
       <c r="F1081" t="inlineStr"/>
       <c r="G1081" t="inlineStr"/>
-      <c r="H1081" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1081" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1082">
@@ -35461,10 +35059,8 @@
           <t>€1.8B</t>
         </is>
       </c>
-      <c r="H1082" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1082" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1083">
@@ -35491,10 +35087,8 @@
       </c>
       <c r="F1083" t="inlineStr"/>
       <c r="G1083" t="inlineStr"/>
-      <c r="H1083" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1083" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1084">
@@ -35525,10 +35119,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1084" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1084" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1085">
@@ -35551,10 +35143,8 @@
       <c r="E1085" t="inlineStr"/>
       <c r="F1085" t="inlineStr"/>
       <c r="G1085" t="inlineStr"/>
-      <c r="H1085" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1085" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1086">
@@ -35585,10 +35175,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1086" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1086" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1087">
@@ -35623,10 +35211,8 @@
           <t>240.0K</t>
         </is>
       </c>
-      <c r="H1087" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1087" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1088">
@@ -35661,10 +35247,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1088" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1088" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1089">
@@ -35695,10 +35279,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1089" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1089" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1090">
@@ -35733,10 +35315,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1090" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1090" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1091">
@@ -35771,10 +35351,8 @@
           <t>209.0K</t>
         </is>
       </c>
-      <c r="H1091" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1091" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1092">
@@ -35809,10 +35387,8 @@
           <t>-10</t>
         </is>
       </c>
-      <c r="H1092" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1092" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1093">
@@ -35847,10 +35423,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1093" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1093" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1094">
@@ -35881,10 +35455,8 @@
           <t>1870.0K</t>
         </is>
       </c>
-      <c r="H1094" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1094" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1095">
@@ -35915,10 +35487,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H1095" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1095" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1096">
@@ -35949,10 +35519,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1096" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1096" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1097">
@@ -35983,10 +35551,8 @@
           <t>215.0K</t>
         </is>
       </c>
-      <c r="H1097" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1097" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1098">
@@ -36013,10 +35579,8 @@
       </c>
       <c r="F1098" t="inlineStr"/>
       <c r="G1098" t="inlineStr"/>
-      <c r="H1098" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1098" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1099">
@@ -36043,10 +35607,8 @@
       </c>
       <c r="F1099" t="inlineStr"/>
       <c r="G1099" t="inlineStr"/>
-      <c r="H1099" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1099" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1100">
@@ -36073,10 +35635,8 @@
       </c>
       <c r="F1100" t="inlineStr"/>
       <c r="G1100" t="inlineStr"/>
-      <c r="H1100" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1100" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1101">
@@ -36103,10 +35663,8 @@
       </c>
       <c r="F1101" t="inlineStr"/>
       <c r="G1101" t="inlineStr"/>
-      <c r="H1101" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1101" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1102">
@@ -36133,10 +35691,8 @@
       </c>
       <c r="F1102" t="inlineStr"/>
       <c r="G1102" t="inlineStr"/>
-      <c r="H1102" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1102" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1103">
@@ -36167,10 +35723,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1103" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1103" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1104">
@@ -36201,10 +35755,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H1104" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1104" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1105">
@@ -36239,10 +35791,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1105" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1105" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1106">
@@ -36277,10 +35827,8 @@
           <t>45</t>
         </is>
       </c>
-      <c r="H1106" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1106" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1107">
@@ -36315,10 +35863,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1107" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1107" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1108">
@@ -36345,10 +35891,8 @@
       </c>
       <c r="F1108" t="inlineStr"/>
       <c r="G1108" t="inlineStr"/>
-      <c r="H1108" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1108" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1109">
@@ -36375,10 +35919,8 @@
       </c>
       <c r="F1109" t="inlineStr"/>
       <c r="G1109" t="inlineStr"/>
-      <c r="H1109" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1109" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1110">
@@ -36405,10 +35947,8 @@
       </c>
       <c r="F1110" t="inlineStr"/>
       <c r="G1110" t="inlineStr"/>
-      <c r="H1110" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1110" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1111">
@@ -36435,10 +35975,8 @@
       </c>
       <c r="F1111" t="inlineStr"/>
       <c r="G1111" t="inlineStr"/>
-      <c r="H1111" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1111" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1112">
@@ -36465,10 +36003,8 @@
       </c>
       <c r="F1112" t="inlineStr"/>
       <c r="G1112" t="inlineStr"/>
-      <c r="H1112" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1112" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1113">
@@ -36491,10 +36027,8 @@
       <c r="E1113" t="inlineStr"/>
       <c r="F1113" t="inlineStr"/>
       <c r="G1113" t="inlineStr"/>
-      <c r="H1113" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1113" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1114">
@@ -36521,10 +36055,8 @@
       </c>
       <c r="F1114" t="inlineStr"/>
       <c r="G1114" t="inlineStr"/>
-      <c r="H1114" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1114" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1115">
@@ -36551,10 +36083,8 @@
       </c>
       <c r="F1115" t="inlineStr"/>
       <c r="G1115" t="inlineStr"/>
-      <c r="H1115" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1115" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1116">
@@ -36581,10 +36111,8 @@
       </c>
       <c r="F1116" t="inlineStr"/>
       <c r="G1116" t="inlineStr"/>
-      <c r="H1116" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1116" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1117">
@@ -36615,10 +36143,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1117" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1117" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1118">
@@ -36653,10 +36179,8 @@
           <t>7.5%</t>
         </is>
       </c>
-      <c r="H1118" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1118" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1119">
@@ -36683,10 +36207,8 @@
       </c>
       <c r="F1119" t="inlineStr"/>
       <c r="G1119" t="inlineStr"/>
-      <c r="H1119" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1119" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1120">
@@ -36717,10 +36239,8 @@
           <t>-5.8%</t>
         </is>
       </c>
-      <c r="H1120" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1120" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1121">
@@ -36751,10 +36271,8 @@
           <t>$ 3.6B</t>
         </is>
       </c>
-      <c r="H1121" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1121" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1122">
@@ -36789,10 +36307,8 @@
           <t>5%</t>
         </is>
       </c>
-      <c r="H1122" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1122" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1123">
@@ -36827,10 +36343,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="H1123" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1123" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1124">
@@ -36865,10 +36379,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H1124" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1124" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1125">
@@ -36903,10 +36415,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H1125" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1125" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1126">
@@ -36941,10 +36451,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1126" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1126" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1127">
@@ -36975,10 +36483,8 @@
           <t>75.3%</t>
         </is>
       </c>
-      <c r="H1127" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1127" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1128">
@@ -37013,10 +36519,8 @@
           <t>5.00%</t>
         </is>
       </c>
-      <c r="H1128" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1128" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1129">
@@ -37043,94 +36547,108 @@
       </c>
       <c r="F1129" t="inlineStr"/>
       <c r="G1129" t="inlineStr"/>
-      <c r="H1129" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1129" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1130">
       <c r="A1130" t="inlineStr">
         <is>
-          <t>Friday January 17 2025</t>
-        </is>
-      </c>
-      <c r="B1130" t="inlineStr"/>
-      <c r="C1130" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B1130" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1130" t="inlineStr">
+        <is>
+          <t>Building Permits MoM PrelDEC</t>
+        </is>
+      </c>
       <c r="D1130" t="inlineStr"/>
-      <c r="E1130" t="inlineStr"/>
+      <c r="E1130" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="F1130" t="inlineStr"/>
-      <c r="G1130" t="inlineStr"/>
-      <c r="H1130" t="inlineStr"/>
+      <c r="G1130" t="inlineStr">
+        <is>
+          <t>-0.9%</t>
+        </is>
+      </c>
+      <c r="H1130" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1131">
       <c r="A1131" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1131" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1131" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Housing Starts MoMDEC</t>
         </is>
       </c>
       <c r="D1131" t="inlineStr"/>
       <c r="E1131" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F1131" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>-1.8%</t>
+        </is>
+      </c>
+      <c r="F1131" t="inlineStr"/>
       <c r="G1131" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H1131" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1132">
       <c r="A1132" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1132" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1132" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D1132" t="inlineStr"/>
       <c r="E1132" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F1132" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G1132" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="H1132" t="inlineStr">
@@ -37142,29 +36660,33 @@
     <row r="1133">
       <c r="A1133" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1133" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1133" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel MoMDEC</t>
+          <t>Capacity UtilizationDEC</t>
         </is>
       </c>
       <c r="D1133" t="inlineStr"/>
       <c r="E1133" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1133" t="inlineStr"/>
+          <t>76.8%</t>
+        </is>
+      </c>
+      <c r="F1133" t="inlineStr">
+        <is>
+          <t>77.6%</t>
+        </is>
+      </c>
       <c r="G1133" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>76.9%</t>
         </is>
       </c>
       <c r="H1133" t="inlineStr">
@@ -37176,29 +36698,29 @@
     <row r="1134">
       <c r="A1134" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1134" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1134" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel YoYDEC</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D1134" t="inlineStr"/>
       <c r="E1134" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="F1134" t="inlineStr"/>
       <c r="G1134" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="H1134" t="inlineStr">
@@ -37210,29 +36732,29 @@
     <row r="1135">
       <c r="A1135" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1135" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1135" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Manufacturing Production MoMDEC</t>
         </is>
       </c>
       <c r="D1135" t="inlineStr"/>
       <c r="E1135" t="inlineStr">
         <is>
-          <t>€32B</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1135" t="inlineStr"/>
       <c r="G1135" t="inlineStr">
         <is>
-          <t>€33.0B</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1135" t="inlineStr">
@@ -37244,31 +36766,31 @@
     <row r="1136">
       <c r="A1136" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1136" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1136" t="inlineStr">
         <is>
-          <t>Current Account s.aNOV</t>
+          <t>Manufacturing Production YoYDEC</t>
         </is>
       </c>
       <c r="D1136" t="inlineStr"/>
       <c r="E1136" t="inlineStr">
         <is>
-          <t>€33.5B</t>
-        </is>
-      </c>
-      <c r="F1136" t="inlineStr">
-        <is>
-          <t>€28B</t>
-        </is>
-      </c>
-      <c r="G1136" t="inlineStr"/>
+          <t>-1%</t>
+        </is>
+      </c>
+      <c r="F1136" t="inlineStr"/>
+      <c r="G1136" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="H1136" t="inlineStr">
         <is>
           <t>3</t>
@@ -37278,145 +36800,117 @@
     <row r="1137">
       <c r="A1137" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1137" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1137" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Baker Hughes Oil Rig CountJAN/17</t>
         </is>
       </c>
       <c r="D1137" t="inlineStr"/>
       <c r="E1137" t="inlineStr">
         <is>
-          <t>€-3.93B</t>
+          <t>480</t>
         </is>
       </c>
       <c r="F1137" t="inlineStr"/>
-      <c r="G1137" t="inlineStr">
-        <is>
-          <t>€-4.2B</t>
-        </is>
-      </c>
+      <c r="G1137" t="inlineStr"/>
       <c r="H1137" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1138">
       <c r="A1138" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1138" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1138" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>Baker Hughes Total Rigs CountJAN/17</t>
         </is>
       </c>
       <c r="D1138" t="inlineStr"/>
       <c r="E1138" t="inlineStr">
         <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="F1138" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="G1138" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
+          <t>584</t>
+        </is>
+      </c>
+      <c r="F1138" t="inlineStr"/>
+      <c r="G1138" t="inlineStr"/>
       <c r="H1138" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1139">
       <c r="A1139" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1139" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1139" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FinalDEC</t>
+          <t>Net Long-term TIC FlowsNOV</t>
         </is>
       </c>
       <c r="D1139" t="inlineStr"/>
       <c r="E1139" t="inlineStr">
         <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F1139" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="G1139" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+          <t>$152.3B</t>
+        </is>
+      </c>
+      <c r="F1139" t="inlineStr"/>
+      <c r="G1139" t="inlineStr"/>
       <c r="H1139" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1140">
       <c r="A1140" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1140" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1140" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FinalDEC</t>
+          <t>Foreign Bond InvestmentNOV</t>
         </is>
       </c>
       <c r="D1140" t="inlineStr"/>
       <c r="E1140" t="inlineStr">
         <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F1140" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G1140" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>$92.1B</t>
+        </is>
+      </c>
+      <c r="F1140" t="inlineStr"/>
+      <c r="G1140" t="inlineStr"/>
       <c r="H1140" t="inlineStr">
         <is>
           <t>3</t>
@@ -37426,35 +36920,27 @@
     <row r="1141">
       <c r="A1141" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1141" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1141" t="inlineStr">
         <is>
-          <t>CPI FinalDEC</t>
+          <t>Overall Net Capital FlowsNOV</t>
         </is>
       </c>
       <c r="D1141" t="inlineStr"/>
       <c r="E1141" t="inlineStr">
         <is>
-          <t>126.62</t>
-        </is>
-      </c>
-      <c r="F1141" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
-      <c r="G1141" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
+          <t>$203.6B</t>
+        </is>
+      </c>
+      <c r="F1141" t="inlineStr"/>
+      <c r="G1141" t="inlineStr"/>
       <c r="H1141" t="inlineStr">
         <is>
           <t>3</t>
@@ -37462,23 +36948,23 @@
       </c>
     </row>
     <row r="1142">
-      <c r="A1142" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
+      <c r="A1142" t="inlineStr"/>
       <c r="B1142" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1142" t="inlineStr">
         <is>
-          <t>Bundesbank Nagel Speech</t>
+          <t>50-Year KTB Auction</t>
         </is>
       </c>
       <c r="D1142" t="inlineStr"/>
-      <c r="E1142" t="inlineStr"/>
+      <c r="E1142" t="inlineStr">
+        <is>
+          <t>2.40%</t>
+        </is>
+      </c>
       <c r="F1142" t="inlineStr"/>
       <c r="G1142" t="inlineStr"/>
       <c r="H1142" t="inlineStr">
@@ -37490,173 +36976,165 @@
     <row r="1143">
       <c r="A1143" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B1143" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1143" t="inlineStr">
-        <is>
-          <t>Current AccountNOV</t>
-        </is>
-      </c>
+          <t>Sunday January 19 2025</t>
+        </is>
+      </c>
+      <c r="B1143" t="inlineStr"/>
+      <c r="C1143" t="inlineStr"/>
       <c r="D1143" t="inlineStr"/>
-      <c r="E1143" t="inlineStr">
-        <is>
-          <t>€5628M</t>
-        </is>
-      </c>
+      <c r="E1143" t="inlineStr"/>
       <c r="F1143" t="inlineStr"/>
-      <c r="G1143" t="inlineStr">
-        <is>
-          <t>€2900.0M</t>
-        </is>
-      </c>
-      <c r="H1143" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1143" t="inlineStr"/>
+      <c r="H1143" t="inlineStr"/>
     </row>
     <row r="1144">
       <c r="A1144" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1144" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1144" t="inlineStr">
         <is>
-          <t>ECB Cipollone Speech</t>
+          <t>Machinery Orders MoMNOV</t>
         </is>
       </c>
       <c r="D1144" t="inlineStr"/>
-      <c r="E1144" t="inlineStr"/>
+      <c r="E1144" t="inlineStr">
+        <is>
+          <t>2.1%</t>
+        </is>
+      </c>
       <c r="F1144" t="inlineStr"/>
-      <c r="G1144" t="inlineStr"/>
+      <c r="G1144" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1144" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1145">
       <c r="A1145" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1145" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1145" t="inlineStr">
         <is>
-          <t>Bank Loan Growth YoYJAN/03</t>
+          <t>Machinery Orders YoYNOV</t>
         </is>
       </c>
       <c r="D1145" t="inlineStr"/>
       <c r="E1145" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>5.6%</t>
         </is>
       </c>
       <c r="F1145" t="inlineStr"/>
-      <c r="G1145" t="inlineStr"/>
+      <c r="G1145" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
       <c r="H1145" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1146">
       <c r="A1146" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1146" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1146" t="inlineStr">
         <is>
-          <t>Deposit Growth YoYJAN/03</t>
+          <t>Loan Prime Rate 1Y</t>
         </is>
       </c>
       <c r="D1146" t="inlineStr"/>
       <c r="E1146" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="F1146" t="inlineStr"/>
       <c r="G1146" t="inlineStr"/>
       <c r="H1146" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1147">
       <c r="A1147" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1147" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1147" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/10</t>
+          <t>Loan Prime Rate 5YJAN</t>
         </is>
       </c>
       <c r="D1147" t="inlineStr"/>
       <c r="E1147" t="inlineStr">
         <is>
-          <t>$634.59B</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="F1147" t="inlineStr"/>
       <c r="G1147" t="inlineStr"/>
       <c r="H1147" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1148">
       <c r="A1148" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1148" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1148" t="inlineStr">
         <is>
-          <t>Foreign Securities PurchasesNOV</t>
+          <t>Capacity Utilization MoMNOV</t>
         </is>
       </c>
       <c r="D1148" t="inlineStr"/>
       <c r="E1148" t="inlineStr">
         <is>
-          <t>C$21.55B</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F1148" t="inlineStr"/>
@@ -37670,27 +37148,35 @@
     <row r="1149">
       <c r="A1149" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1149" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1149" t="inlineStr">
         <is>
-          <t>Foreign Securities Purchases by CanadiansNOV</t>
+          <t>Industrial Production MoM FinalNOV</t>
         </is>
       </c>
       <c r="D1149" t="inlineStr"/>
       <c r="E1149" t="inlineStr">
         <is>
-          <t>C$-2.65B</t>
-        </is>
-      </c>
-      <c r="F1149" t="inlineStr"/>
-      <c r="G1149" t="inlineStr"/>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="F1149" t="inlineStr">
+        <is>
+          <t>-2.3%</t>
+        </is>
+      </c>
+      <c r="G1149" t="inlineStr">
+        <is>
+          <t>-2.3%</t>
+        </is>
+      </c>
       <c r="H1149" t="inlineStr">
         <is>
           <t>3</t>
@@ -37700,177 +37186,129 @@
     <row r="1150">
       <c r="A1150" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1150" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1150" t="inlineStr">
         <is>
-          <t>Building Permits PrelDEC</t>
+          <t>Industrial Production YoY FinalNOV</t>
         </is>
       </c>
       <c r="D1150" t="inlineStr"/>
       <c r="E1150" t="inlineStr">
         <is>
-          <t>1.493M</t>
-        </is>
-      </c>
-      <c r="F1150" t="inlineStr">
-        <is>
-          <t>1.46M</t>
-        </is>
-      </c>
+          <t>1.4%</t>
+        </is>
+      </c>
+      <c r="F1150" t="inlineStr"/>
       <c r="G1150" t="inlineStr">
         <is>
-          <t>1.48M</t>
+          <t>-2.8%</t>
         </is>
       </c>
       <c r="H1150" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1151">
       <c r="A1151" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1151" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1151" t="inlineStr">
         <is>
-          <t>Housing StartsDEC</t>
+          <t>Tertiary Industry Index MoMNOV</t>
         </is>
       </c>
       <c r="D1151" t="inlineStr"/>
       <c r="E1151" t="inlineStr">
         <is>
-          <t>1.289M</t>
-        </is>
-      </c>
-      <c r="F1151" t="inlineStr">
-        <is>
-          <t>1.31M</t>
-        </is>
-      </c>
-      <c r="G1151" t="inlineStr">
-        <is>
-          <t>1.32M</t>
-        </is>
-      </c>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F1151" t="inlineStr"/>
+      <c r="G1151" t="inlineStr"/>
       <c r="H1151" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1152">
-      <c r="A1152" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A1152" t="inlineStr"/>
       <c r="B1152" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1152" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelDEC</t>
+          <t>Eurogroup Meeting</t>
         </is>
       </c>
       <c r="D1152" t="inlineStr"/>
-      <c r="E1152" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="E1152" t="inlineStr"/>
       <c r="F1152" t="inlineStr"/>
-      <c r="G1152" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
+      <c r="G1152" t="inlineStr"/>
       <c r="H1152" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1153">
       <c r="A1153" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1153" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1153" t="inlineStr">
-        <is>
-          <t>Housing Starts MoMDEC</t>
-        </is>
-      </c>
+          <t>Monday January 20 2025</t>
+        </is>
+      </c>
+      <c r="B1153" t="inlineStr"/>
+      <c r="C1153" t="inlineStr"/>
       <c r="D1153" t="inlineStr"/>
-      <c r="E1153" t="inlineStr">
-        <is>
-          <t>-1.8%</t>
-        </is>
-      </c>
+      <c r="E1153" t="inlineStr"/>
       <c r="F1153" t="inlineStr"/>
-      <c r="G1153" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="H1153" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G1153" t="inlineStr"/>
+      <c r="H1153" t="inlineStr"/>
     </row>
     <row r="1154">
       <c r="A1154" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1154" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1154" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1154" t="inlineStr"/>
       <c r="E1154" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F1154" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="F1154" t="inlineStr"/>
       <c r="G1154" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1154" t="inlineStr">
@@ -37882,33 +37320,29 @@
     <row r="1155">
       <c r="A1155" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1155" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1155" t="inlineStr">
         <is>
-          <t>Capacity UtilizationDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1155" t="inlineStr"/>
       <c r="E1155" t="inlineStr">
         <is>
-          <t>76.8%</t>
-        </is>
-      </c>
-      <c r="F1155" t="inlineStr">
-        <is>
-          <t>77.6%</t>
-        </is>
-      </c>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F1155" t="inlineStr"/>
       <c r="G1155" t="inlineStr">
         <is>
-          <t>76.9%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="H1155" t="inlineStr">
@@ -37920,29 +37354,29 @@
     <row r="1156">
       <c r="A1156" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>04:15 AM</t>
         </is>
       </c>
       <c r="B1156" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1156" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D1156" t="inlineStr"/>
       <c r="E1156" t="inlineStr">
         <is>
-          <t>-0.9%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="F1156" t="inlineStr"/>
       <c r="G1156" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1156" t="inlineStr">
@@ -37954,17 +37388,17 @@
     <row r="1157">
       <c r="A1157" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1157" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1157" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMDEC</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D1157" t="inlineStr"/>
@@ -37974,11 +37408,7 @@
         </is>
       </c>
       <c r="F1157" t="inlineStr"/>
-      <c r="G1157" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G1157" t="inlineStr"/>
       <c r="H1157" t="inlineStr">
         <is>
           <t>3</t>
@@ -37988,31 +37418,23 @@
     <row r="1158">
       <c r="A1158" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1158" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1158" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYDEC</t>
+          <t>3-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D1158" t="inlineStr"/>
-      <c r="E1158" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
+      <c r="E1158" t="inlineStr"/>
       <c r="F1158" t="inlineStr"/>
-      <c r="G1158" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="G1158" t="inlineStr"/>
       <c r="H1158" t="inlineStr">
         <is>
           <t>3</t>
@@ -38022,25 +37444,21 @@
     <row r="1159">
       <c r="A1159" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1159" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1159" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/17</t>
+          <t>9-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D1159" t="inlineStr"/>
-      <c r="E1159" t="inlineStr">
-        <is>
-          <t>480</t>
-        </is>
-      </c>
+      <c r="E1159" t="inlineStr"/>
       <c r="F1159" t="inlineStr"/>
       <c r="G1159" t="inlineStr"/>
       <c r="H1159" t="inlineStr">
@@ -38052,23 +37470,23 @@
     <row r="1160">
       <c r="A1160" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1160" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1160" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/17</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D1160" t="inlineStr"/>
       <c r="E1160" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>$9.1B</t>
         </is>
       </c>
       <c r="F1160" t="inlineStr"/>
@@ -38082,55 +37500,55 @@
     <row r="1161">
       <c r="A1161" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1161" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1161" t="inlineStr">
         <is>
-          <t>Net Long-term TIC FlowsNOV</t>
+          <t>Current AccountQ4</t>
         </is>
       </c>
       <c r="D1161" t="inlineStr"/>
       <c r="E1161" t="inlineStr">
         <is>
-          <t>$152.3B</t>
+          <t>$9.1B</t>
         </is>
       </c>
       <c r="F1161" t="inlineStr"/>
-      <c r="G1161" t="inlineStr"/>
+      <c r="G1161" t="inlineStr">
+        <is>
+          <t>$ 10B</t>
+        </is>
+      </c>
       <c r="H1161" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1162">
       <c r="A1162" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1162" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1162" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentNOV</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1162" t="inlineStr"/>
-      <c r="E1162" t="inlineStr">
-        <is>
-          <t>$92.1B</t>
-        </is>
-      </c>
+      <c r="E1162" t="inlineStr"/>
       <c r="F1162" t="inlineStr"/>
       <c r="G1162" t="inlineStr"/>
       <c r="H1162" t="inlineStr">
@@ -38142,25 +37560,21 @@
     <row r="1163">
       <c r="A1163" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1163" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1163" t="inlineStr">
         <is>
-          <t>Overall Net Capital FlowsNOV</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1163" t="inlineStr"/>
-      <c r="E1163" t="inlineStr">
-        <is>
-          <t>$203.6B</t>
-        </is>
-      </c>
+      <c r="E1163" t="inlineStr"/>
       <c r="F1163" t="inlineStr"/>
       <c r="G1163" t="inlineStr"/>
       <c r="H1163" t="inlineStr">
@@ -38170,23 +37584,23 @@
       </c>
     </row>
     <row r="1164">
-      <c r="A1164" t="inlineStr"/>
+      <c r="A1164" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B1164" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1164" t="inlineStr">
         <is>
-          <t>50-Year KTB Auction</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1164" t="inlineStr"/>
-      <c r="E1164" t="inlineStr">
-        <is>
-          <t>2.40%</t>
-        </is>
-      </c>
+      <c r="E1164" t="inlineStr"/>
       <c r="F1164" t="inlineStr"/>
       <c r="G1164" t="inlineStr"/>
       <c r="H1164" t="inlineStr">
@@ -38198,169 +37612,189 @@
     <row r="1165">
       <c r="A1165" t="inlineStr">
         <is>
-          <t>Sunday January 19 2025</t>
-        </is>
-      </c>
-      <c r="B1165" t="inlineStr"/>
-      <c r="C1165" t="inlineStr"/>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B1165" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C1165" t="inlineStr">
+        <is>
+          <t>BoC Business Outlook Survey</t>
+        </is>
+      </c>
       <c r="D1165" t="inlineStr"/>
       <c r="E1165" t="inlineStr"/>
       <c r="F1165" t="inlineStr"/>
       <c r="G1165" t="inlineStr"/>
-      <c r="H1165" t="inlineStr"/>
+      <c r="H1165" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1166">
       <c r="A1166" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1166" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1166" t="inlineStr">
         <is>
-          <t>Machinery Orders MoMNOV</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1166" t="inlineStr"/>
       <c r="E1166" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="F1166" t="inlineStr"/>
       <c r="G1166" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="H1166" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1167">
       <c r="A1167" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1167" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1167" t="inlineStr">
         <is>
-          <t>Machinery Orders YoYNOV</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1167" t="inlineStr"/>
       <c r="E1167" t="inlineStr">
         <is>
-          <t>5.6%</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="F1167" t="inlineStr"/>
       <c r="G1167" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>4.4%</t>
         </is>
       </c>
       <c r="H1167" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1168">
       <c r="A1168" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1168" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1168" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 1Y</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D1168" t="inlineStr"/>
       <c r="E1168" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>$1234M</t>
         </is>
       </c>
       <c r="F1168" t="inlineStr"/>
-      <c r="G1168" t="inlineStr"/>
+      <c r="G1168" t="inlineStr">
+        <is>
+          <t>$ 1463M</t>
+        </is>
+      </c>
       <c r="H1168" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1169">
       <c r="A1169" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1169" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1169" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 5YJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1169" t="inlineStr"/>
-      <c r="E1169" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
+      <c r="E1169" t="inlineStr"/>
       <c r="F1169" t="inlineStr"/>
-      <c r="G1169" t="inlineStr"/>
+      <c r="G1169" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1169" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1170">
       <c r="A1170" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1170" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1170" t="inlineStr">
         <is>
-          <t>Capacity Utilization MoMNOV</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1170" t="inlineStr"/>
       <c r="E1170" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F1170" t="inlineStr"/>
-      <c r="G1170" t="inlineStr"/>
+      <c r="G1170" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
       <c r="H1170" t="inlineStr">
         <is>
           <t>3</t>
@@ -38370,7 +37804,7 @@
     <row r="1171">
       <c r="A1171" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B1171" t="inlineStr">
@@ -38380,25 +37814,17 @@
       </c>
       <c r="C1171" t="inlineStr">
         <is>
-          <t>Industrial Production MoM FinalNOV</t>
+          <t>40-Year JGB Auction</t>
         </is>
       </c>
       <c r="D1171" t="inlineStr"/>
       <c r="E1171" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F1171" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
-      <c r="G1171" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
+          <t>2.550%</t>
+        </is>
+      </c>
+      <c r="F1171" t="inlineStr"/>
+      <c r="G1171" t="inlineStr"/>
       <c r="H1171" t="inlineStr">
         <is>
           <t>3</t>
@@ -38406,33 +37832,25 @@
       </c>
     </row>
     <row r="1172">
-      <c r="A1172" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
+      <c r="A1172" t="inlineStr"/>
       <c r="B1172" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1172" t="inlineStr">
         <is>
-          <t>Industrial Production YoY FinalNOV</t>
+          <t>10-Year KTB Auction</t>
         </is>
       </c>
       <c r="D1172" t="inlineStr"/>
       <c r="E1172" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>2.665%</t>
         </is>
       </c>
       <c r="F1172" t="inlineStr"/>
-      <c r="G1172" t="inlineStr">
-        <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
+      <c r="G1172" t="inlineStr"/>
       <c r="H1172" t="inlineStr">
         <is>
           <t>3</t>
@@ -38440,25 +37858,21 @@
       </c>
     </row>
     <row r="1173">
-      <c r="A1173" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
+      <c r="A1173" t="inlineStr"/>
       <c r="B1173" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1173" t="inlineStr">
         <is>
-          <t>Tertiary Industry Index MoMNOV</t>
+          <t>FDI (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D1173" t="inlineStr"/>
       <c r="E1173" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>-27.9%</t>
         </is>
       </c>
       <c r="F1173" t="inlineStr"/>
@@ -38473,18 +37887,22 @@
       <c r="A1174" t="inlineStr"/>
       <c r="B1174" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1174" t="inlineStr">
         <is>
-          <t>Eurogroup Meeting</t>
+          <t>Consumer ConfidenceDEC</t>
         </is>
       </c>
       <c r="D1174" t="inlineStr"/>
       <c r="E1174" t="inlineStr"/>
       <c r="F1174" t="inlineStr"/>
-      <c r="G1174" t="inlineStr"/>
+      <c r="G1174" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
       <c r="H1174" t="inlineStr">
         <is>
           <t>3</t>
@@ -38492,81 +37910,81 @@
       </c>
     </row>
     <row r="1175">
-      <c r="A1175" t="inlineStr">
-        <is>
-          <t>Monday January 20 2025</t>
-        </is>
-      </c>
-      <c r="B1175" t="inlineStr"/>
-      <c r="C1175" t="inlineStr"/>
+      <c r="A1175" t="inlineStr"/>
+      <c r="B1175" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C1175" t="inlineStr">
+        <is>
+          <t>Leading Indicator MoMDEC</t>
+        </is>
+      </c>
       <c r="D1175" t="inlineStr"/>
-      <c r="E1175" t="inlineStr"/>
+      <c r="E1175" t="inlineStr">
+        <is>
+          <t>1.44%</t>
+        </is>
+      </c>
       <c r="F1175" t="inlineStr"/>
-      <c r="G1175" t="inlineStr"/>
-      <c r="H1175" t="inlineStr"/>
+      <c r="G1175" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
+      <c r="H1175" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1176">
-      <c r="A1176" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
+      <c r="A1176" t="inlineStr"/>
       <c r="B1176" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1176" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Central Government DebtDEC</t>
         </is>
       </c>
       <c r="D1176" t="inlineStr"/>
       <c r="E1176" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>TRY9.005T</t>
         </is>
       </c>
       <c r="F1176" t="inlineStr"/>
       <c r="G1176" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>TRY 9.0T</t>
         </is>
       </c>
       <c r="H1176" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1177">
-      <c r="A1177" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
+      <c r="A1177" t="inlineStr"/>
       <c r="B1177" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1177" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>ECOFIN Meeting</t>
         </is>
       </c>
       <c r="D1177" t="inlineStr"/>
-      <c r="E1177" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="E1177" t="inlineStr"/>
       <c r="F1177" t="inlineStr"/>
-      <c r="G1177" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
+      <c r="G1177" t="inlineStr"/>
       <c r="H1177" t="inlineStr">
         <is>
           <t>3</t>
@@ -38576,59 +37994,35 @@
     <row r="1178">
       <c r="A1178" t="inlineStr">
         <is>
-          <t>04:15 AM</t>
-        </is>
-      </c>
-      <c r="B1178" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1178" t="inlineStr">
-        <is>
-          <t>Construction Output YoYNOV</t>
-        </is>
-      </c>
+          <t>Tuesday January 21 2025</t>
+        </is>
+      </c>
+      <c r="B1178" t="inlineStr"/>
+      <c r="C1178" t="inlineStr"/>
       <c r="D1178" t="inlineStr"/>
-      <c r="E1178" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
+      <c r="E1178" t="inlineStr"/>
       <c r="F1178" t="inlineStr"/>
-      <c r="G1178" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="H1178" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1178" t="inlineStr"/>
+      <c r="H1178" t="inlineStr"/>
     </row>
     <row r="1179">
       <c r="A1179" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1179" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1179" t="inlineStr">
         <is>
-          <t>Construction Output YoYNOV</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1179" t="inlineStr"/>
-      <c r="E1179" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1179" t="inlineStr"/>
       <c r="F1179" t="inlineStr"/>
       <c r="G1179" t="inlineStr"/>
       <c r="H1179" t="inlineStr">
@@ -38640,17 +38034,17 @@
     <row r="1180">
       <c r="A1180" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1180" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1180" t="inlineStr">
         <is>
-          <t>3-Month Bubill Auction</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1180" t="inlineStr"/>
@@ -38666,139 +38060,159 @@
     <row r="1181">
       <c r="A1181" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1181" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1181" t="inlineStr">
         <is>
-          <t>9-Month Bubill Auction</t>
+          <t>New Car Registrations YoYDEC</t>
         </is>
       </c>
       <c r="D1181" t="inlineStr"/>
-      <c r="E1181" t="inlineStr"/>
+      <c r="E1181" t="inlineStr">
+        <is>
+          <t>-1.9%</t>
+        </is>
+      </c>
       <c r="F1181" t="inlineStr"/>
       <c r="G1181" t="inlineStr"/>
       <c r="H1181" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1182">
       <c r="A1182" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1182" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1182" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Unemployment RateNOV</t>
         </is>
       </c>
       <c r="D1182" t="inlineStr"/>
       <c r="E1182" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F1182" t="inlineStr"/>
-      <c r="G1182" t="inlineStr"/>
+      <c r="G1182" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="H1182" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1183">
       <c r="A1183" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1183" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1183" t="inlineStr">
         <is>
-          <t>Current AccountQ4</t>
+          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D1183" t="inlineStr"/>
       <c r="E1183" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F1183" t="inlineStr"/>
       <c r="G1183" t="inlineStr">
         <is>
-          <t>$ 10B</t>
+          <t>4.9%</t>
         </is>
       </c>
       <c r="H1183" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1184">
       <c r="A1184" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1184" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1184" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>Employment ChangeNOV</t>
         </is>
       </c>
       <c r="D1184" t="inlineStr"/>
-      <c r="E1184" t="inlineStr"/>
+      <c r="E1184" t="inlineStr">
+        <is>
+          <t>173K</t>
+        </is>
+      </c>
       <c r="F1184" t="inlineStr"/>
       <c r="G1184" t="inlineStr"/>
       <c r="H1184" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1185">
       <c r="A1185" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1185" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1185" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D1185" t="inlineStr"/>
-      <c r="E1185" t="inlineStr"/>
+      <c r="E1185" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="F1185" t="inlineStr"/>
-      <c r="G1185" t="inlineStr"/>
+      <c r="G1185" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
       <c r="H1185" t="inlineStr">
         <is>
           <t>3</t>
@@ -38808,23 +38222,31 @@
     <row r="1186">
       <c r="A1186" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1186" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1186" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>Claimant Count ChangeDEC</t>
         </is>
       </c>
       <c r="D1186" t="inlineStr"/>
-      <c r="E1186" t="inlineStr"/>
+      <c r="E1186" t="inlineStr">
+        <is>
+          <t>0.3K</t>
+        </is>
+      </c>
       <c r="F1186" t="inlineStr"/>
-      <c r="G1186" t="inlineStr"/>
+      <c r="G1186" t="inlineStr">
+        <is>
+          <t>-5K</t>
+        </is>
+      </c>
       <c r="H1186" t="inlineStr">
         <is>
           <t>3</t>
@@ -38834,57 +38256,61 @@
     <row r="1187">
       <c r="A1187" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1187" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1187" t="inlineStr">
         <is>
-          <t>BoC Business Outlook Survey</t>
+          <t>HMRC Payrolls ChangeDEC</t>
         </is>
       </c>
       <c r="D1187" t="inlineStr"/>
-      <c r="E1187" t="inlineStr"/>
+      <c r="E1187" t="inlineStr">
+        <is>
+          <t>-35K</t>
+        </is>
+      </c>
       <c r="F1187" t="inlineStr"/>
-      <c r="G1187" t="inlineStr"/>
+      <c r="G1187" t="inlineStr">
+        <is>
+          <t>20K</t>
+        </is>
+      </c>
       <c r="H1187" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1188">
       <c r="A1188" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1188" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1188" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Gold Production YoYNOV</t>
         </is>
       </c>
       <c r="D1188" t="inlineStr"/>
       <c r="E1188" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>-3.4%</t>
         </is>
       </c>
       <c r="F1188" t="inlineStr"/>
-      <c r="G1188" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G1188" t="inlineStr"/>
       <c r="H1188" t="inlineStr">
         <is>
           <t>3</t>
@@ -38894,31 +38320,27 @@
     <row r="1189">
       <c r="A1189" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1189" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1189" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Mining Production MoMNOV</t>
         </is>
       </c>
       <c r="D1189" t="inlineStr"/>
       <c r="E1189" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F1189" t="inlineStr"/>
-      <c r="G1189" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
+      <c r="G1189" t="inlineStr"/>
       <c r="H1189" t="inlineStr">
         <is>
           <t>3</t>
@@ -38928,31 +38350,27 @@
     <row r="1190">
       <c r="A1190" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1190" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1190" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Mining Production YoYNOV</t>
         </is>
       </c>
       <c r="D1190" t="inlineStr"/>
       <c r="E1190" t="inlineStr">
         <is>
-          <t>$1234M</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F1190" t="inlineStr"/>
-      <c r="G1190" t="inlineStr">
-        <is>
-          <t>$ 1463M</t>
-        </is>
-      </c>
+      <c r="G1190" t="inlineStr"/>
       <c r="H1190" t="inlineStr">
         <is>
           <t>3</t>
@@ -38962,87 +38380,83 @@
     <row r="1191">
       <c r="A1191" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1191" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1191" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D1191" t="inlineStr"/>
-      <c r="E1191" t="inlineStr"/>
+      <c r="E1191" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
       <c r="F1191" t="inlineStr"/>
-      <c r="G1191" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G1191" t="inlineStr"/>
       <c r="H1191" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1192">
       <c r="A1192" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1192" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1192" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D1192" t="inlineStr"/>
       <c r="E1192" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>15.7</t>
         </is>
       </c>
       <c r="F1192" t="inlineStr"/>
-      <c r="G1192" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="G1192" t="inlineStr"/>
       <c r="H1192" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1193">
       <c r="A1193" t="inlineStr">
         <is>
-          <t>10:35 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1193" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1193" t="inlineStr">
         <is>
-          <t>40-Year JGB Auction</t>
+          <t>ZEW Current ConditionsJAN</t>
         </is>
       </c>
       <c r="D1193" t="inlineStr"/>
       <c r="E1193" t="inlineStr">
         <is>
-          <t>2.550%</t>
+          <t>-93.1</t>
         </is>
       </c>
       <c r="F1193" t="inlineStr"/>
@@ -39054,23 +38468,23 @@
       </c>
     </row>
     <row r="1194">
-      <c r="A1194" t="inlineStr"/>
+      <c r="A1194" t="inlineStr">
+        <is>
+          <t>05:30 AM</t>
+        </is>
+      </c>
       <c r="B1194" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1194" t="inlineStr">
         <is>
-          <t>10-Year KTB Auction</t>
+          <t>Bund/g Auction</t>
         </is>
       </c>
       <c r="D1194" t="inlineStr"/>
-      <c r="E1194" t="inlineStr">
-        <is>
-          <t>2.665%</t>
-        </is>
-      </c>
+      <c r="E1194" t="inlineStr"/>
       <c r="F1194" t="inlineStr"/>
       <c r="G1194" t="inlineStr"/>
       <c r="H1194" t="inlineStr">
@@ -39080,21 +38494,25 @@
       </c>
     </row>
     <row r="1195">
-      <c r="A1195" t="inlineStr"/>
+      <c r="A1195" t="inlineStr">
+        <is>
+          <t>07:00 AM</t>
+        </is>
+      </c>
       <c r="B1195" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1195" t="inlineStr">
         <is>
-          <t>FDI (YTD) YoYDEC</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D1195" t="inlineStr"/>
       <c r="E1195" t="inlineStr">
         <is>
-          <t>-27.9%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F1195" t="inlineStr"/>
@@ -39106,25 +38524,29 @@
       </c>
     </row>
     <row r="1196">
-      <c r="A1196" t="inlineStr"/>
+      <c r="A1196" t="inlineStr">
+        <is>
+          <t>07:00 AM</t>
+        </is>
+      </c>
       <c r="B1196" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1196" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceDEC</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1196" t="inlineStr"/>
-      <c r="E1196" t="inlineStr"/>
+      <c r="E1196" t="inlineStr">
+        <is>
+          <t>-1.2%</t>
+        </is>
+      </c>
       <c r="F1196" t="inlineStr"/>
-      <c r="G1196" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
+      <c r="G1196" t="inlineStr"/>
       <c r="H1196" t="inlineStr">
         <is>
           <t>3</t>
@@ -39132,121 +38554,169 @@
       </c>
     </row>
     <row r="1197">
-      <c r="A1197" t="inlineStr"/>
+      <c r="A1197" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B1197" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1197" t="inlineStr">
         <is>
-          <t>Leading Indicator MoMDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1197" t="inlineStr"/>
       <c r="E1197" t="inlineStr">
         <is>
-          <t>1.44%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="F1197" t="inlineStr"/>
       <c r="G1197" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="H1197" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1198">
-      <c r="A1198" t="inlineStr"/>
+      <c r="A1198" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B1198" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1198" t="inlineStr">
         <is>
-          <t>Central Government DebtDEC</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1198" t="inlineStr"/>
       <c r="E1198" t="inlineStr">
         <is>
-          <t>TRY9.005T</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F1198" t="inlineStr"/>
       <c r="G1198" t="inlineStr">
         <is>
-          <t>TRY 9.0T</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="H1198" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1199">
-      <c r="A1199" t="inlineStr"/>
+      <c r="A1199" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B1199" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1199" t="inlineStr">
         <is>
-          <t>ECOFIN Meeting</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1199" t="inlineStr"/>
-      <c r="E1199" t="inlineStr"/>
+      <c r="E1199" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="F1199" t="inlineStr"/>
-      <c r="G1199" t="inlineStr"/>
+      <c r="G1199" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1199" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1200">
       <c r="A1200" t="inlineStr">
         <is>
-          <t>Tuesday January 21 2025</t>
-        </is>
-      </c>
-      <c r="B1200" t="inlineStr"/>
-      <c r="C1200" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B1200" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C1200" t="inlineStr">
+        <is>
+          <t>CPI Median YoYDEC</t>
+        </is>
+      </c>
       <c r="D1200" t="inlineStr"/>
-      <c r="E1200" t="inlineStr"/>
+      <c r="E1200" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="F1200" t="inlineStr"/>
-      <c r="G1200" t="inlineStr"/>
-      <c r="H1200" t="inlineStr"/>
+      <c r="G1200" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
+      <c r="H1200" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1201">
       <c r="A1201" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1201" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1201" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>CPI Trimmed-Mean YoYDEC</t>
         </is>
       </c>
       <c r="D1201" t="inlineStr"/>
-      <c r="E1201" t="inlineStr"/>
+      <c r="E1201" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="F1201" t="inlineStr"/>
-      <c r="G1201" t="inlineStr"/>
+      <c r="G1201" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H1201" t="inlineStr">
         <is>
           <t>3</t>
@@ -39256,23 +38726,27 @@
     <row r="1202">
       <c r="A1202" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1202" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1202" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1202" t="inlineStr"/>
       <c r="E1202" t="inlineStr"/>
       <c r="F1202" t="inlineStr"/>
-      <c r="G1202" t="inlineStr"/>
+      <c r="G1202" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1202" t="inlineStr">
         <is>
           <t>3</t>
@@ -39282,257 +38756,209 @@
     <row r="1203">
       <c r="A1203" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:55 AM</t>
         </is>
       </c>
       <c r="B1203" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1203" t="inlineStr">
         <is>
-          <t>New Car Registrations YoYDEC</t>
+          <t>Redbook YoYJAN/18</t>
         </is>
       </c>
       <c r="D1203" t="inlineStr"/>
-      <c r="E1203" t="inlineStr">
-        <is>
-          <t>-1.9%</t>
-        </is>
-      </c>
+      <c r="E1203" t="inlineStr"/>
       <c r="F1203" t="inlineStr"/>
       <c r="G1203" t="inlineStr"/>
       <c r="H1203" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1204">
       <c r="A1204" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1204" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1204" t="inlineStr">
         <is>
-          <t>Unemployment RateNOV</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1204" t="inlineStr"/>
-      <c r="E1204" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="E1204" t="inlineStr"/>
       <c r="F1204" t="inlineStr"/>
-      <c r="G1204" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="G1204" t="inlineStr"/>
       <c r="H1204" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1205">
       <c r="A1205" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1205" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1205" t="inlineStr">
         <is>
-          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
+          <t>52-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1205" t="inlineStr"/>
-      <c r="E1205" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="E1205" t="inlineStr"/>
       <c r="F1205" t="inlineStr"/>
-      <c r="G1205" t="inlineStr">
-        <is>
-          <t>4.9%</t>
-        </is>
-      </c>
+      <c r="G1205" t="inlineStr"/>
       <c r="H1205" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1206">
       <c r="A1206" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1206" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1206" t="inlineStr">
         <is>
-          <t>Employment ChangeNOV</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1206" t="inlineStr"/>
-      <c r="E1206" t="inlineStr">
-        <is>
-          <t>173K</t>
-        </is>
-      </c>
+      <c r="E1206" t="inlineStr"/>
       <c r="F1206" t="inlineStr"/>
       <c r="G1206" t="inlineStr"/>
       <c r="H1206" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1207">
       <c r="A1207" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1207" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1207" t="inlineStr">
         <is>
-          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1207" t="inlineStr"/>
       <c r="E1207" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>88.4</t>
         </is>
       </c>
       <c r="F1207" t="inlineStr"/>
       <c r="G1207" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H1207" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1208">
       <c r="A1208" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1208" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1208" t="inlineStr">
         <is>
-          <t>Claimant Count ChangeDEC</t>
+          <t>API Crude Oil Stock ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1208" t="inlineStr"/>
-      <c r="E1208" t="inlineStr">
-        <is>
-          <t>0.3K</t>
-        </is>
-      </c>
+      <c r="E1208" t="inlineStr"/>
       <c r="F1208" t="inlineStr"/>
-      <c r="G1208" t="inlineStr">
-        <is>
-          <t>-5K</t>
-        </is>
-      </c>
+      <c r="G1208" t="inlineStr"/>
       <c r="H1208" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1209">
       <c r="A1209" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1209" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C1209" t="inlineStr">
-        <is>
-          <t>HMRC Payrolls ChangeDEC</t>
-        </is>
-      </c>
+          <t>Wednesday January 22 2025</t>
+        </is>
+      </c>
+      <c r="B1209" t="inlineStr"/>
+      <c r="C1209" t="inlineStr"/>
       <c r="D1209" t="inlineStr"/>
-      <c r="E1209" t="inlineStr">
-        <is>
-          <t>-35K</t>
-        </is>
-      </c>
+      <c r="E1209" t="inlineStr"/>
       <c r="F1209" t="inlineStr"/>
-      <c r="G1209" t="inlineStr">
-        <is>
-          <t>20K</t>
-        </is>
-      </c>
-      <c r="H1209" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1209" t="inlineStr"/>
+      <c r="H1209" t="inlineStr"/>
     </row>
     <row r="1210">
       <c r="A1210" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1210" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1210" t="inlineStr">
         <is>
-          <t>Gold Production YoYNOV</t>
+          <t>Public Sector Net Borrowing Ex BanksDEC</t>
         </is>
       </c>
       <c r="D1210" t="inlineStr"/>
       <c r="E1210" t="inlineStr">
         <is>
-          <t>-3.4%</t>
+          <t>£-11.25B</t>
         </is>
       </c>
       <c r="F1210" t="inlineStr"/>
-      <c r="G1210" t="inlineStr"/>
+      <c r="G1210" t="inlineStr">
+        <is>
+          <t>£ -11.3B</t>
+        </is>
+      </c>
       <c r="H1210" t="inlineStr">
         <is>
           <t>3</t>
@@ -39542,7 +38968,7 @@
     <row r="1211">
       <c r="A1211" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1211" t="inlineStr">
@@ -39552,27 +38978,31 @@
       </c>
       <c r="C1211" t="inlineStr">
         <is>
-          <t>Mining Production MoMNOV</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1211" t="inlineStr"/>
       <c r="E1211" t="inlineStr">
         <is>
-          <t>-3%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F1211" t="inlineStr"/>
-      <c r="G1211" t="inlineStr"/>
+      <c r="G1211" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H1211" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1212">
       <c r="A1212" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1212" t="inlineStr">
@@ -39582,87 +39012,99 @@
       </c>
       <c r="C1212" t="inlineStr">
         <is>
-          <t>Mining Production YoYNOV</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1212" t="inlineStr"/>
       <c r="E1212" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>2.9%</t>
         </is>
       </c>
       <c r="F1212" t="inlineStr"/>
-      <c r="G1212" t="inlineStr"/>
+      <c r="G1212" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
       <c r="H1212" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1213">
       <c r="A1213" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1213" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1213" t="inlineStr">
         <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1213" t="inlineStr"/>
       <c r="E1213" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="F1213" t="inlineStr"/>
-      <c r="G1213" t="inlineStr"/>
+      <c r="G1213" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="H1213" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1214">
       <c r="A1214" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1214" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1214" t="inlineStr">
         <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1214" t="inlineStr"/>
       <c r="E1214" t="inlineStr">
         <is>
-          <t>15.7</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F1214" t="inlineStr"/>
-      <c r="G1214" t="inlineStr"/>
+      <c r="G1214" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1214" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1215">
       <c r="A1215" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1215" t="inlineStr">
@@ -39672,15 +39114,11 @@
       </c>
       <c r="C1215" t="inlineStr">
         <is>
-          <t>ZEW Current ConditionsJAN</t>
+          <t>15-Year Bund Auction</t>
         </is>
       </c>
       <c r="D1215" t="inlineStr"/>
-      <c r="E1215" t="inlineStr">
-        <is>
-          <t>-93.1</t>
-        </is>
-      </c>
+      <c r="E1215" t="inlineStr"/>
       <c r="F1215" t="inlineStr"/>
       <c r="G1215" t="inlineStr"/>
       <c r="H1215" t="inlineStr">
@@ -39692,23 +39130,31 @@
     <row r="1216">
       <c r="A1216" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1216" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1216" t="inlineStr">
         <is>
-          <t>Bund/g Auction</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D1216" t="inlineStr"/>
-      <c r="E1216" t="inlineStr"/>
+      <c r="E1216" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="F1216" t="inlineStr"/>
-      <c r="G1216" t="inlineStr"/>
+      <c r="G1216" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H1216" t="inlineStr">
         <is>
           <t>3</t>
@@ -39718,23 +39164,23 @@
     <row r="1217">
       <c r="A1217" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1217" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1217" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1217" t="inlineStr"/>
       <c r="E1217" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>6.3%</t>
         </is>
       </c>
       <c r="F1217" t="inlineStr"/>
@@ -39748,25 +39194,21 @@
     <row r="1218">
       <c r="A1218" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>06:10 AM</t>
         </is>
       </c>
       <c r="B1218" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1218" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1218" t="inlineStr"/>
-      <c r="E1218" t="inlineStr">
-        <is>
-          <t>-1.2%</t>
-        </is>
-      </c>
+      <c r="E1218" t="inlineStr"/>
       <c r="F1218" t="inlineStr"/>
       <c r="G1218" t="inlineStr"/>
       <c r="H1218" t="inlineStr">
@@ -39778,99 +39220,79 @@
     <row r="1219">
       <c r="A1219" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>06:10 AM</t>
         </is>
       </c>
       <c r="B1219" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1219" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1219" t="inlineStr"/>
-      <c r="E1219" t="inlineStr">
-        <is>
-          <t>1,9%</t>
-        </is>
-      </c>
+      <c r="E1219" t="inlineStr"/>
       <c r="F1219" t="inlineStr"/>
-      <c r="G1219" t="inlineStr">
-        <is>
-          <t>1.8%</t>
-        </is>
-      </c>
+      <c r="G1219" t="inlineStr"/>
       <c r="H1219" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1220">
       <c r="A1220" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1220" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1220" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>M3 Money Supply YoYJAN/10</t>
         </is>
       </c>
       <c r="D1220" t="inlineStr"/>
       <c r="E1220" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>9.3%</t>
         </is>
       </c>
       <c r="F1220" t="inlineStr"/>
-      <c r="G1220" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
+      <c r="G1220" t="inlineStr"/>
       <c r="H1220" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1221">
       <c r="A1221" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1221" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1221" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>MBA 30-Year Mortgage RateJAN/17</t>
         </is>
       </c>
       <c r="D1221" t="inlineStr"/>
-      <c r="E1221" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+      <c r="E1221" t="inlineStr"/>
       <c r="F1221" t="inlineStr"/>
-      <c r="G1221" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1221" t="inlineStr"/>
       <c r="H1221" t="inlineStr">
         <is>
           <t>2</t>
@@ -39880,31 +39302,23 @@
     <row r="1222">
       <c r="A1222" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1222" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1222" t="inlineStr">
         <is>
-          <t>CPI Median YoYDEC</t>
+          <t>MBA Mortgage ApplicationsJAN/17</t>
         </is>
       </c>
       <c r="D1222" t="inlineStr"/>
-      <c r="E1222" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+      <c r="E1222" t="inlineStr"/>
       <c r="F1222" t="inlineStr"/>
-      <c r="G1222" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="G1222" t="inlineStr"/>
       <c r="H1222" t="inlineStr">
         <is>
           <t>3</t>
@@ -39914,31 +39328,23 @@
     <row r="1223">
       <c r="A1223" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1223" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1223" t="inlineStr">
         <is>
-          <t>CPI Trimmed-Mean YoYDEC</t>
+          <t>MBA Mortgage Market IndexJAN/17</t>
         </is>
       </c>
       <c r="D1223" t="inlineStr"/>
-      <c r="E1223" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="E1223" t="inlineStr"/>
       <c r="F1223" t="inlineStr"/>
-      <c r="G1223" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+      <c r="G1223" t="inlineStr"/>
       <c r="H1223" t="inlineStr">
         <is>
           <t>3</t>
@@ -39948,27 +39354,23 @@
     <row r="1224">
       <c r="A1224" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1224" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1224" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMDEC</t>
+          <t>MBA Mortgage Refinance IndexJAN/17</t>
         </is>
       </c>
       <c r="D1224" t="inlineStr"/>
       <c r="E1224" t="inlineStr"/>
       <c r="F1224" t="inlineStr"/>
-      <c r="G1224" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1224" t="inlineStr"/>
       <c r="H1224" t="inlineStr">
         <is>
           <t>3</t>
@@ -39978,7 +39380,7 @@
     <row r="1225">
       <c r="A1225" t="inlineStr">
         <is>
-          <t>08:55 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1225" t="inlineStr">
@@ -39988,7 +39390,7 @@
       </c>
       <c r="C1225" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/18</t>
+          <t>MBA Purchase IndexJAN/17</t>
         </is>
       </c>
       <c r="D1225" t="inlineStr"/>
@@ -40004,23 +39406,31 @@
     <row r="1226">
       <c r="A1226" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1226" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1226" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1226" t="inlineStr"/>
-      <c r="E1226" t="inlineStr"/>
+      <c r="E1226" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="F1226" t="inlineStr"/>
-      <c r="G1226" t="inlineStr"/>
+      <c r="G1226" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1226" t="inlineStr">
         <is>
           <t>3</t>
@@ -40030,23 +39440,31 @@
     <row r="1227">
       <c r="A1227" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1227" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1227" t="inlineStr">
         <is>
-          <t>52-Week Bill Auction</t>
+          <t>Raw Materials Prices MoMDEC</t>
         </is>
       </c>
       <c r="D1227" t="inlineStr"/>
-      <c r="E1227" t="inlineStr"/>
+      <c r="E1227" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
       <c r="F1227" t="inlineStr"/>
-      <c r="G1227" t="inlineStr"/>
+      <c r="G1227" t="inlineStr">
+        <is>
+          <t>1.0%</t>
+        </is>
+      </c>
       <c r="H1227" t="inlineStr">
         <is>
           <t>3</t>
@@ -40056,23 +39474,31 @@
     <row r="1228">
       <c r="A1228" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1228" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1228" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Raw Materials Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1228" t="inlineStr"/>
-      <c r="E1228" t="inlineStr"/>
+      <c r="E1228" t="inlineStr">
+        <is>
+          <t>2%</t>
+        </is>
+      </c>
       <c r="F1228" t="inlineStr"/>
-      <c r="G1228" t="inlineStr"/>
+      <c r="G1228" t="inlineStr">
+        <is>
+          <t>-2.8%</t>
+        </is>
+      </c>
       <c r="H1228" t="inlineStr">
         <is>
           <t>3</t>
@@ -40082,41 +39508,37 @@
     <row r="1229">
       <c r="A1229" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1229" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1229" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>CB Leading Index MoMDEC</t>
         </is>
       </c>
       <c r="D1229" t="inlineStr"/>
       <c r="E1229" t="inlineStr">
         <is>
-          <t>88.4</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F1229" t="inlineStr"/>
-      <c r="G1229" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
+      <c r="G1229" t="inlineStr"/>
       <c r="H1229" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1230">
       <c r="A1230" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1230" t="inlineStr">
@@ -40126,7 +39548,7 @@
       </c>
       <c r="C1230" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/17</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1230" t="inlineStr"/>
@@ -40135,50 +39557,62 @@
       <c r="G1230" t="inlineStr"/>
       <c r="H1230" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1231">
       <c r="A1231" t="inlineStr">
         <is>
-          <t>Wednesday January 22 2025</t>
-        </is>
-      </c>
-      <c r="B1231" t="inlineStr"/>
-      <c r="C1231" t="inlineStr"/>
+          <t>01:00 PM</t>
+        </is>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>20-Year Bond Auction</t>
+        </is>
+      </c>
       <c r="D1231" t="inlineStr"/>
       <c r="E1231" t="inlineStr"/>
       <c r="F1231" t="inlineStr"/>
       <c r="G1231" t="inlineStr"/>
-      <c r="H1231" t="inlineStr"/>
+      <c r="H1231" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1232">
       <c r="A1232" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1232" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1232" t="inlineStr">
         <is>
-          <t>Public Sector Net Borrowing Ex BanksDEC</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1232" t="inlineStr"/>
       <c r="E1232" t="inlineStr">
         <is>
-          <t>£-11.25B</t>
+          <t>127.1%</t>
         </is>
       </c>
       <c r="F1232" t="inlineStr"/>
       <c r="G1232" t="inlineStr">
         <is>
-          <t>£ -11.3B</t>
+          <t>115.0%</t>
         </is>
       </c>
       <c r="H1232" t="inlineStr">
@@ -40190,29 +39624,25 @@
     <row r="1233">
       <c r="A1233" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1233" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1233" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1233" t="inlineStr"/>
-      <c r="E1233" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+      <c r="E1233" t="inlineStr"/>
       <c r="F1233" t="inlineStr"/>
       <c r="G1233" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>60</t>
         </is>
       </c>
       <c r="H1233" t="inlineStr">
@@ -40224,29 +39654,29 @@
     <row r="1234">
       <c r="A1234" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1234" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1234" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>GDP Growth Rate QoQ AdvQ4</t>
         </is>
       </c>
       <c r="D1234" t="inlineStr"/>
       <c r="E1234" t="inlineStr">
         <is>
-          <t>2.9%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F1234" t="inlineStr"/>
       <c r="G1234" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1234" t="inlineStr">
@@ -40258,29 +39688,29 @@
     <row r="1235">
       <c r="A1235" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1235" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1235" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>GDP Growth Rate YoY AdvQ4</t>
         </is>
       </c>
       <c r="D1235" t="inlineStr"/>
       <c r="E1235" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="F1235" t="inlineStr"/>
       <c r="G1235" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H1235" t="inlineStr">
@@ -40292,91 +39722,87 @@
     <row r="1236">
       <c r="A1236" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1236" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1236" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMDEC</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D1236" t="inlineStr"/>
       <c r="E1236" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>¥-117.6B</t>
         </is>
       </c>
       <c r="F1236" t="inlineStr"/>
       <c r="G1236" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>¥ 100B</t>
         </is>
       </c>
       <c r="H1236" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1237">
       <c r="A1237" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1237" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1237" t="inlineStr">
         <is>
-          <t>15-Year Bund Auction</t>
+          <t>Exports YoYDEC</t>
         </is>
       </c>
       <c r="D1237" t="inlineStr"/>
-      <c r="E1237" t="inlineStr"/>
+      <c r="E1237" t="inlineStr">
+        <is>
+          <t>3.8%</t>
+        </is>
+      </c>
       <c r="F1237" t="inlineStr"/>
       <c r="G1237" t="inlineStr"/>
       <c r="H1237" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1238">
       <c r="A1238" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1238" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1238" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>Foreign Bond InvestmentJAN/18</t>
         </is>
       </c>
       <c r="D1238" t="inlineStr"/>
-      <c r="E1238" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+      <c r="E1238" t="inlineStr"/>
       <c r="F1238" t="inlineStr"/>
-      <c r="G1238" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G1238" t="inlineStr"/>
       <c r="H1238" t="inlineStr">
         <is>
           <t>3</t>
@@ -40386,23 +39812,23 @@
     <row r="1239">
       <c r="A1239" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1239" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1239" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>Imports YoYDEC</t>
         </is>
       </c>
       <c r="D1239" t="inlineStr"/>
       <c r="E1239" t="inlineStr">
         <is>
-          <t>6.3%</t>
+          <t>-3.8%</t>
         </is>
       </c>
       <c r="F1239" t="inlineStr"/>
@@ -40416,17 +39842,17 @@
     <row r="1240">
       <c r="A1240" t="inlineStr">
         <is>
-          <t>06:10 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1240" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1240" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Stock Investment by ForeignersJAN/18</t>
         </is>
       </c>
       <c r="D1240" t="inlineStr"/>
@@ -40442,49 +39868,57 @@
     <row r="1241">
       <c r="A1241" t="inlineStr">
         <is>
-          <t>06:10 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1241" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1241" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>NAB Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D1241" t="inlineStr"/>
-      <c r="E1241" t="inlineStr"/>
+      <c r="E1241" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
       <c r="F1241" t="inlineStr"/>
-      <c r="G1241" t="inlineStr"/>
+      <c r="G1241" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="H1241" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1242">
       <c r="A1242" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1242" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C1242" t="inlineStr">
         <is>
-          <t>M3 Money Supply YoYJAN/10</t>
+          <t>M2 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D1242" t="inlineStr"/>
       <c r="E1242" t="inlineStr">
         <is>
-          <t>9.3%</t>
+          <t>7%</t>
         </is>
       </c>
       <c r="F1242" t="inlineStr"/>
@@ -40498,17 +39932,17 @@
     <row r="1243">
       <c r="A1243" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B1243" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1243" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJAN/17</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1243" t="inlineStr"/>
@@ -40517,54 +39951,46 @@
       <c r="G1243" t="inlineStr"/>
       <c r="H1243" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1244">
       <c r="A1244" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1244" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1244" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsJAN/17</t>
-        </is>
-      </c>
+          <t>Thursday January 23 2025</t>
+        </is>
+      </c>
+      <c r="B1244" t="inlineStr"/>
+      <c r="C1244" t="inlineStr"/>
       <c r="D1244" t="inlineStr"/>
       <c r="E1244" t="inlineStr"/>
       <c r="F1244" t="inlineStr"/>
       <c r="G1244" t="inlineStr"/>
-      <c r="H1244" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1244" t="inlineStr"/>
     </row>
     <row r="1245">
       <c r="A1245" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1245" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1245" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJAN/17</t>
+          <t>1-Year T-Bill Auction</t>
         </is>
       </c>
       <c r="D1245" t="inlineStr"/>
-      <c r="E1245" t="inlineStr"/>
+      <c r="E1245" t="inlineStr">
+        <is>
+          <t>2.71%</t>
+        </is>
+      </c>
       <c r="F1245" t="inlineStr"/>
       <c r="G1245" t="inlineStr"/>
       <c r="H1245" t="inlineStr">
@@ -40576,23 +40002,31 @@
     <row r="1246">
       <c r="A1246" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1246" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1246" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexJAN/17</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1246" t="inlineStr"/>
-      <c r="E1246" t="inlineStr"/>
+      <c r="E1246" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
       <c r="F1246" t="inlineStr"/>
-      <c r="G1246" t="inlineStr"/>
+      <c r="G1246" t="inlineStr">
+        <is>
+          <t>2.5%</t>
+        </is>
+      </c>
       <c r="H1246" t="inlineStr">
         <is>
           <t>3</t>
@@ -40602,23 +40036,31 @@
     <row r="1247">
       <c r="A1247" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1247" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1247" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexJAN/17</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1247" t="inlineStr"/>
-      <c r="E1247" t="inlineStr"/>
+      <c r="E1247" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
       <c r="F1247" t="inlineStr"/>
-      <c r="G1247" t="inlineStr"/>
+      <c r="G1247" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1247" t="inlineStr">
         <is>
           <t>3</t>
@@ -40628,29 +40070,29 @@
     <row r="1248">
       <c r="A1248" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1248" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1248" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1248" t="inlineStr"/>
       <c r="E1248" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F1248" t="inlineStr"/>
       <c r="G1248" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="H1248" t="inlineStr">
@@ -40662,31 +40104,27 @@
     <row r="1249">
       <c r="A1249" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1249" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1249" t="inlineStr">
         <is>
-          <t>Raw Materials Prices MoMDEC</t>
+          <t>Leading Business Cycle Indicator MoMNOV</t>
         </is>
       </c>
       <c r="D1249" t="inlineStr"/>
       <c r="E1249" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="F1249" t="inlineStr"/>
-      <c r="G1249" t="inlineStr">
-        <is>
-          <t>1.0%</t>
-        </is>
-      </c>
+      <c r="G1249" t="inlineStr"/>
       <c r="H1249" t="inlineStr">
         <is>
           <t>3</t>
@@ -40696,656 +40134,56 @@
     <row r="1250">
       <c r="A1250" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1250" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1250" t="inlineStr">
         <is>
-          <t>Raw Materials Prices YoYDEC</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1250" t="inlineStr"/>
       <c r="E1250" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>81.3</t>
         </is>
       </c>
       <c r="F1250" t="inlineStr"/>
-      <c r="G1250" t="inlineStr">
-        <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
+      <c r="G1250" t="inlineStr"/>
       <c r="H1250" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1251">
-      <c r="A1251" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A1251" t="inlineStr"/>
       <c r="B1251" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1251" t="inlineStr">
         <is>
-          <t>CB Leading Index MoMDEC</t>
+          <t>20-Year KTB Auction</t>
         </is>
       </c>
       <c r="D1251" t="inlineStr"/>
       <c r="E1251" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>2.750%</t>
         </is>
       </c>
       <c r="F1251" t="inlineStr"/>
       <c r="G1251" t="inlineStr"/>
       <c r="H1251" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1252">
-      <c r="A1252" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B1252" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1252" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1252" t="inlineStr"/>
-      <c r="E1252" t="inlineStr"/>
-      <c r="F1252" t="inlineStr"/>
-      <c r="G1252" t="inlineStr"/>
-      <c r="H1252" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1253">
-      <c r="A1253" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B1253" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1253" t="inlineStr">
-        <is>
-          <t>20-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="D1253" t="inlineStr"/>
-      <c r="E1253" t="inlineStr"/>
-      <c r="F1253" t="inlineStr"/>
-      <c r="G1253" t="inlineStr"/>
-      <c r="H1253" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1254">
-      <c r="A1254" t="inlineStr">
-        <is>
-          <t>02:00 PM</t>
-        </is>
-      </c>
-      <c r="B1254" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C1254" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYNOV</t>
-        </is>
-      </c>
-      <c r="D1254" t="inlineStr"/>
-      <c r="E1254" t="inlineStr">
-        <is>
-          <t>127.1%</t>
-        </is>
-      </c>
-      <c r="F1254" t="inlineStr"/>
-      <c r="G1254" t="inlineStr">
-        <is>
-          <t>115.0%</t>
-        </is>
-      </c>
-      <c r="H1254" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1255">
-      <c r="A1255" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B1255" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C1255" t="inlineStr">
-        <is>
-          <t>Business ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D1255" t="inlineStr"/>
-      <c r="E1255" t="inlineStr"/>
-      <c r="F1255" t="inlineStr"/>
-      <c r="G1255" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="H1255" t="inlineStr">
-        <is>
           <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1256">
-      <c r="A1256" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1256" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C1256" t="inlineStr">
-        <is>
-          <t>GDP Growth Rate QoQ AdvQ4</t>
-        </is>
-      </c>
-      <c r="D1256" t="inlineStr"/>
-      <c r="E1256" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F1256" t="inlineStr"/>
-      <c r="G1256" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H1256" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1257">
-      <c r="A1257" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1257" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C1257" t="inlineStr">
-        <is>
-          <t>GDP Growth Rate YoY AdvQ4</t>
-        </is>
-      </c>
-      <c r="D1257" t="inlineStr"/>
-      <c r="E1257" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="F1257" t="inlineStr"/>
-      <c r="G1257" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
-      <c r="H1257" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1258">
-      <c r="A1258" t="inlineStr">
-        <is>
-          <t>06:50 PM</t>
-        </is>
-      </c>
-      <c r="B1258" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C1258" t="inlineStr">
-        <is>
-          <t>Balance of TradeDEC</t>
-        </is>
-      </c>
-      <c r="D1258" t="inlineStr"/>
-      <c r="E1258" t="inlineStr">
-        <is>
-          <t>¥-117.6B</t>
-        </is>
-      </c>
-      <c r="F1258" t="inlineStr"/>
-      <c r="G1258" t="inlineStr">
-        <is>
-          <t>¥ 100B</t>
-        </is>
-      </c>
-      <c r="H1258" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1259">
-      <c r="A1259" t="inlineStr">
-        <is>
-          <t>06:50 PM</t>
-        </is>
-      </c>
-      <c r="B1259" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C1259" t="inlineStr">
-        <is>
-          <t>Exports YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1259" t="inlineStr"/>
-      <c r="E1259" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
-      <c r="F1259" t="inlineStr"/>
-      <c r="G1259" t="inlineStr"/>
-      <c r="H1259" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1260">
-      <c r="A1260" t="inlineStr">
-        <is>
-          <t>06:50 PM</t>
-        </is>
-      </c>
-      <c r="B1260" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C1260" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentJAN/18</t>
-        </is>
-      </c>
-      <c r="D1260" t="inlineStr"/>
-      <c r="E1260" t="inlineStr"/>
-      <c r="F1260" t="inlineStr"/>
-      <c r="G1260" t="inlineStr"/>
-      <c r="H1260" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1261">
-      <c r="A1261" t="inlineStr">
-        <is>
-          <t>06:50 PM</t>
-        </is>
-      </c>
-      <c r="B1261" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C1261" t="inlineStr">
-        <is>
-          <t>Imports YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1261" t="inlineStr"/>
-      <c r="E1261" t="inlineStr">
-        <is>
-          <t>-3.8%</t>
-        </is>
-      </c>
-      <c r="F1261" t="inlineStr"/>
-      <c r="G1261" t="inlineStr"/>
-      <c r="H1261" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1262">
-      <c r="A1262" t="inlineStr">
-        <is>
-          <t>06:50 PM</t>
-        </is>
-      </c>
-      <c r="B1262" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C1262" t="inlineStr">
-        <is>
-          <t>Stock Investment by ForeignersJAN/18</t>
-        </is>
-      </c>
-      <c r="D1262" t="inlineStr"/>
-      <c r="E1262" t="inlineStr"/>
-      <c r="F1262" t="inlineStr"/>
-      <c r="G1262" t="inlineStr"/>
-      <c r="H1262" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1263">
-      <c r="A1263" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1263" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1263" t="inlineStr">
-        <is>
-          <t>NAB Business ConfidenceDEC</t>
-        </is>
-      </c>
-      <c r="D1263" t="inlineStr"/>
-      <c r="E1263" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="F1263" t="inlineStr"/>
-      <c r="G1263" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H1263" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1264">
-      <c r="A1264" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B1264" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="C1264" t="inlineStr">
-        <is>
-          <t>M2 Money Supply YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1264" t="inlineStr"/>
-      <c r="E1264" t="inlineStr">
-        <is>
-          <t>7%</t>
-        </is>
-      </c>
-      <c r="F1264" t="inlineStr"/>
-      <c r="G1264" t="inlineStr"/>
-      <c r="H1264" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1265">
-      <c r="A1265" t="inlineStr">
-        <is>
-          <t>10:35 PM</t>
-        </is>
-      </c>
-      <c r="B1265" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C1265" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1265" t="inlineStr"/>
-      <c r="E1265" t="inlineStr"/>
-      <c r="F1265" t="inlineStr"/>
-      <c r="G1265" t="inlineStr"/>
-      <c r="H1265" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1266">
-      <c r="A1266" t="inlineStr">
-        <is>
-          <t>Thursday January 23 2025</t>
-        </is>
-      </c>
-      <c r="B1266" t="inlineStr"/>
-      <c r="C1266" t="inlineStr"/>
-      <c r="D1266" t="inlineStr"/>
-      <c r="E1266" t="inlineStr"/>
-      <c r="F1266" t="inlineStr"/>
-      <c r="G1266" t="inlineStr"/>
-      <c r="H1266" t="inlineStr"/>
-    </row>
-    <row r="1267">
-      <c r="A1267" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B1267" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C1267" t="inlineStr">
-        <is>
-          <t>1-Year T-Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1267" t="inlineStr"/>
-      <c r="E1267" t="inlineStr">
-        <is>
-          <t>2.71%</t>
-        </is>
-      </c>
-      <c r="F1267" t="inlineStr"/>
-      <c r="G1267" t="inlineStr"/>
-      <c r="H1267" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1268">
-      <c r="A1268" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B1268" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C1268" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1268" t="inlineStr"/>
-      <c r="E1268" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="F1268" t="inlineStr"/>
-      <c r="G1268" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="H1268" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1269">
-      <c r="A1269" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B1269" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C1269" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1269" t="inlineStr"/>
-      <c r="E1269" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="F1269" t="inlineStr"/>
-      <c r="G1269" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H1269" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1270">
-      <c r="A1270" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B1270" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C1270" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1270" t="inlineStr"/>
-      <c r="E1270" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="F1270" t="inlineStr"/>
-      <c r="G1270" t="inlineStr">
-        <is>
-          <t>1.8%</t>
-        </is>
-      </c>
-      <c r="H1270" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1271">
-      <c r="A1271" t="inlineStr"/>
-      <c r="B1271" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C1271" t="inlineStr">
-        <is>
-          <t>20-Year KTB Auction</t>
-        </is>
-      </c>
-      <c r="D1271" t="inlineStr"/>
-      <c r="E1271" t="inlineStr">
-        <is>
-          <t>2.750%</t>
-        </is>
-      </c>
-      <c r="F1271" t="inlineStr"/>
-      <c r="G1271" t="inlineStr"/>
-      <c r="H1271" t="inlineStr">
-        <is>
-          <t>3</t>
         </is>
       </c>
     </row>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-23.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1272"/>
+  <dimension ref="A1:H1250"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28919,10 +28919,8 @@
           <t>-19.0%</t>
         </is>
       </c>
-      <c r="H883" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H883" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="884">
@@ -28961,10 +28959,8 @@
           <t>$-3.4B</t>
         </is>
       </c>
-      <c r="H884" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H884" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="885">
@@ -28999,10 +28995,8 @@
           <t>0%</t>
         </is>
       </c>
-      <c r="H885" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H885" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="886">
@@ -29037,10 +29031,8 @@
           <t>14.1%</t>
         </is>
       </c>
-      <c r="H886" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H886" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="887">
@@ -29075,10 +29067,8 @@
           <t>-4.0%</t>
         </is>
       </c>
-      <c r="H887" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H887" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="888">
@@ -29105,10 +29095,8 @@
       </c>
       <c r="F888" t="inlineStr"/>
       <c r="G888" t="inlineStr"/>
-      <c r="H888" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H888" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="889">
@@ -29135,10 +29123,8 @@
       </c>
       <c r="F889" t="inlineStr"/>
       <c r="G889" t="inlineStr"/>
-      <c r="H889" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H889" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="890">
@@ -29165,10 +29151,8 @@
       </c>
       <c r="F890" t="inlineStr"/>
       <c r="G890" t="inlineStr"/>
-      <c r="H890" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H890" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="891">
@@ -29203,10 +29187,8 @@
           <t>5.2%</t>
         </is>
       </c>
-      <c r="H891" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H891" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="892">
@@ -29237,10 +29219,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H892" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H892" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="893">
@@ -29271,10 +29251,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H893" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H893" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="894">
@@ -29305,10 +29283,8 @@
           <t>-2.5%</t>
         </is>
       </c>
-      <c r="H894" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H894" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="895">
@@ -29335,10 +29311,8 @@
       </c>
       <c r="F895" t="inlineStr"/>
       <c r="G895" t="inlineStr"/>
-      <c r="H895" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H895" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="896">
@@ -29365,10 +29339,8 @@
       </c>
       <c r="F896" t="inlineStr"/>
       <c r="G896" t="inlineStr"/>
-      <c r="H896" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H896" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="897">
@@ -29395,10 +29367,8 @@
       </c>
       <c r="F897" t="inlineStr"/>
       <c r="G897" t="inlineStr"/>
-      <c r="H897" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H897" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="898">
@@ -29429,10 +29399,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H898" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H898" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="899">
@@ -29459,10 +29427,8 @@
       </c>
       <c r="F899" t="inlineStr"/>
       <c r="G899" t="inlineStr"/>
-      <c r="H899" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H899" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="900">
@@ -29489,10 +29455,8 @@
       </c>
       <c r="F900" t="inlineStr"/>
       <c r="G900" t="inlineStr"/>
-      <c r="H900" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H900" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="901">
@@ -29527,10 +29491,8 @@
           <t>$-220.0B</t>
         </is>
       </c>
-      <c r="H901" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H901" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="902">
@@ -29557,10 +29519,8 @@
       </c>
       <c r="F902" t="inlineStr"/>
       <c r="G902" t="inlineStr"/>
-      <c r="H902" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H902" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="903">
@@ -29587,10 +29547,8 @@
       </c>
       <c r="F903" t="inlineStr"/>
       <c r="G903" t="inlineStr"/>
-      <c r="H903" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H903" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="904">
@@ -29625,10 +29583,8 @@
           <t>¥1990.0B</t>
         </is>
       </c>
-      <c r="H904" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H904" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="905">
@@ -29663,10 +29619,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H905" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H905" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="906">
@@ -29697,10 +29651,8 @@
         </is>
       </c>
       <c r="G906" t="inlineStr"/>
-      <c r="H906" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H906" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="907">
@@ -29731,10 +29683,8 @@
         </is>
       </c>
       <c r="G907" t="inlineStr"/>
-      <c r="H907" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H907" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="908">
@@ -29761,10 +29711,8 @@
       </c>
       <c r="F908" t="inlineStr"/>
       <c r="G908" t="inlineStr"/>
-      <c r="H908" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H908" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="909">
@@ -29795,10 +29743,8 @@
           <t>CNY690.0B</t>
         </is>
       </c>
-      <c r="H909" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H909" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="910">
@@ -29825,10 +29771,8 @@
         </is>
       </c>
       <c r="G910" t="inlineStr"/>
-      <c r="H910" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H910" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="911">
@@ -29859,10 +29803,8 @@
           <t>7.5%</t>
         </is>
       </c>
-      <c r="H911" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H911" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="912">
@@ -29893,10 +29835,8 @@
           <t>CNY1850.0B</t>
         </is>
       </c>
-      <c r="H912" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H912" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="913">
@@ -29919,10 +29859,8 @@
       </c>
       <c r="F913" t="inlineStr"/>
       <c r="G913" t="inlineStr"/>
-      <c r="H913" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H913" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="914">
@@ -29941,10 +29879,8 @@
       <c r="E914" t="inlineStr"/>
       <c r="F914" t="inlineStr"/>
       <c r="G914" t="inlineStr"/>
-      <c r="H914" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H914" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="915">
@@ -29993,10 +29929,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H916" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H916" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="917">
@@ -30027,10 +29961,8 @@
           <t>49.6</t>
         </is>
       </c>
-      <c r="H917" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H917" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="918">
@@ -30057,10 +29989,8 @@
       </c>
       <c r="F918" t="inlineStr"/>
       <c r="G918" t="inlineStr"/>
-      <c r="H918" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H918" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="919">
@@ -30087,10 +30017,8 @@
       </c>
       <c r="F919" t="inlineStr"/>
       <c r="G919" t="inlineStr"/>
-      <c r="H919" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H919" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="920">
@@ -30121,10 +30049,8 @@
           <t>10.2%</t>
         </is>
       </c>
-      <c r="H920" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H920" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="921">
@@ -30155,10 +30081,8 @@
           <t>-3.2%</t>
         </is>
       </c>
-      <c r="H921" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H921" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="922">
@@ -30193,10 +30117,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H922" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H922" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="923">
@@ -30227,10 +30149,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H923" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H923" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="924">
@@ -30253,10 +30173,8 @@
       <c r="E924" t="inlineStr"/>
       <c r="F924" t="inlineStr"/>
       <c r="G924" t="inlineStr"/>
-      <c r="H924" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H924" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="925">
@@ -30287,10 +30205,8 @@
           <t>€-162.0B</t>
         </is>
       </c>
-      <c r="H925" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H925" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="926">
@@ -30313,10 +30229,8 @@
       <c r="E926" t="inlineStr"/>
       <c r="F926" t="inlineStr"/>
       <c r="G926" t="inlineStr"/>
-      <c r="H926" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H926" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="927">
@@ -30351,10 +30265,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H927" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H927" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="928">
@@ -30385,10 +30297,8 @@
           <t>-3.3%</t>
         </is>
       </c>
-      <c r="H928" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H928" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="929">
@@ -30415,10 +30325,8 @@
       </c>
       <c r="F929" t="inlineStr"/>
       <c r="G929" t="inlineStr"/>
-      <c r="H929" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H929" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="930">
@@ -30445,10 +30353,8 @@
       </c>
       <c r="F930" t="inlineStr"/>
       <c r="G930" t="inlineStr"/>
-      <c r="H930" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H930" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="931">
@@ -30475,10 +30381,8 @@
       </c>
       <c r="F931" t="inlineStr"/>
       <c r="G931" t="inlineStr"/>
-      <c r="H931" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H931" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="932">
@@ -30505,10 +30409,8 @@
       </c>
       <c r="F932" t="inlineStr"/>
       <c r="G932" t="inlineStr"/>
-      <c r="H932" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H932" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="933">
@@ -30531,10 +30433,8 @@
       <c r="E933" t="inlineStr"/>
       <c r="F933" t="inlineStr"/>
       <c r="G933" t="inlineStr"/>
-      <c r="H933" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H933" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="934">
@@ -30569,10 +30469,8 @@
           <t>102</t>
         </is>
       </c>
-      <c r="H934" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H934" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="935">
@@ -30603,10 +30501,8 @@
           <t>$615.0B</t>
         </is>
       </c>
-      <c r="H935" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H935" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="936">
@@ -30641,10 +30537,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H936" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H936" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="937">
@@ -30679,10 +30573,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H937" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H937" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="938">
@@ -30717,10 +30609,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H938" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H938" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="939">
@@ -30751,10 +30641,8 @@
           <t>146.8</t>
         </is>
       </c>
-      <c r="H939" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H939" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="940">
@@ -30785,10 +30673,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H940" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H940" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="941">
@@ -30819,10 +30705,8 @@
           <t>3.5%</t>
         </is>
       </c>
-      <c r="H941" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H941" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="942">
@@ -30857,10 +30741,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H942" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H942" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="943">
@@ -30887,10 +30769,8 @@
       </c>
       <c r="F943" t="inlineStr"/>
       <c r="G943" t="inlineStr"/>
-      <c r="H943" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H943" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="944">
@@ -30913,10 +30793,8 @@
       <c r="E944" t="inlineStr"/>
       <c r="F944" t="inlineStr"/>
       <c r="G944" t="inlineStr"/>
-      <c r="H944" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H944" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="945">
@@ -30951,10 +30829,8 @@
           <t>54.2</t>
         </is>
       </c>
-      <c r="H945" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H945" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="946">
@@ -30981,10 +30857,8 @@
       </c>
       <c r="F946" t="inlineStr"/>
       <c r="G946" t="inlineStr"/>
-      <c r="H946" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H946" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="947">
@@ -31015,10 +30889,8 @@
           <t>2.0%</t>
         </is>
       </c>
-      <c r="H947" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H947" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="948">
@@ -31049,10 +30921,8 @@
           <t>116.0%</t>
         </is>
       </c>
-      <c r="H948" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H948" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="949">
@@ -31075,10 +30945,8 @@
       <c r="E949" t="inlineStr"/>
       <c r="F949" t="inlineStr"/>
       <c r="G949" t="inlineStr"/>
-      <c r="H949" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H949" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="950">
@@ -31109,10 +30977,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H950" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H950" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="951">
@@ -31143,10 +31009,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H951" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H951" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="952">
@@ -31173,10 +31037,8 @@
       </c>
       <c r="F952" t="inlineStr"/>
       <c r="G952" t="inlineStr"/>
-      <c r="H952" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H952" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="953">
@@ -31207,10 +31069,8 @@
           <t>3</t>
         </is>
       </c>
-      <c r="H953" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H953" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="954">
@@ -31233,10 +31093,8 @@
       <c r="E954" t="inlineStr"/>
       <c r="F954" t="inlineStr"/>
       <c r="G954" t="inlineStr"/>
-      <c r="H954" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H954" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="955">
@@ -31271,10 +31129,8 @@
           <t>$ 2.8B</t>
         </is>
       </c>
-      <c r="H955" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H955" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="956">
@@ -31305,10 +31161,8 @@
         </is>
       </c>
       <c r="G956" t="inlineStr"/>
-      <c r="H956" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H956" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="957">
@@ -31339,10 +31193,8 @@
         </is>
       </c>
       <c r="G957" t="inlineStr"/>
-      <c r="H957" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H957" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="958">
@@ -31365,10 +31217,8 @@
       </c>
       <c r="F958" t="inlineStr"/>
       <c r="G958" t="inlineStr"/>
-      <c r="H958" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H958" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="959">
@@ -31391,10 +31241,8 @@
       </c>
       <c r="F959" t="inlineStr"/>
       <c r="G959" t="inlineStr"/>
-      <c r="H959" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H959" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="960">
@@ -31443,10 +31291,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H961" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H961" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="962">
@@ -31481,10 +31327,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H962" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H962" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="963">
@@ -31515,10 +31359,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H963" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H963" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="964">
@@ -31553,10 +31395,8 @@
           <t>2.7%</t>
         </is>
       </c>
-      <c r="H964" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H964" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="965">
@@ -31591,10 +31431,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H965" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H965" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="966">
@@ -31625,10 +31463,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H966" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H966" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="967">
@@ -31659,10 +31495,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H967" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H967" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="968">
@@ -31693,10 +31527,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H968" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H968" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="969">
@@ -31727,10 +31559,8 @@
           <t>2.1%</t>
         </is>
       </c>
-      <c r="H969" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H969" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="970">
@@ -31765,10 +31595,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H970" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H970" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="971">
@@ -31799,10 +31627,8 @@
           <t>-1%</t>
         </is>
       </c>
-      <c r="H971" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H971" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="972">
@@ -31837,10 +31663,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H972" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H972" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="973">
@@ -31871,10 +31695,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H973" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H973" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="974">
@@ -31905,10 +31727,8 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H974" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H974" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="975">
@@ -31943,10 +31763,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H975" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H975" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="976">
@@ -31977,10 +31795,8 @@
           <t>10%</t>
         </is>
       </c>
-      <c r="H976" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H976" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="977">
@@ -32011,10 +31827,8 @@
           <t>6%</t>
         </is>
       </c>
-      <c r="H977" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H977" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="978">
@@ -32045,10 +31859,8 @@
           <t>5.25%</t>
         </is>
       </c>
-      <c r="H978" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H978" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="979">
@@ -32079,10 +31891,8 @@
           <t>6.75%</t>
         </is>
       </c>
-      <c r="H979" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H979" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="980">
@@ -32117,10 +31927,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H980" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H980" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="981">
@@ -32155,10 +31963,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H981" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H981" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="982">
@@ -32193,10 +31999,8 @@
           <t>1.8%</t>
         </is>
       </c>
-      <c r="H982" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H982" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="983">
@@ -32231,10 +32035,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H983" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H983" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="984">
@@ -32257,10 +32059,8 @@
       <c r="E984" t="inlineStr"/>
       <c r="F984" t="inlineStr"/>
       <c r="G984" t="inlineStr"/>
-      <c r="H984" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H984" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="985">
@@ -32295,10 +32095,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H985" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H985" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="986">
@@ -32333,10 +32131,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H986" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H986" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="987">
@@ -32371,10 +32167,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H987" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H987" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="988">
@@ -32409,10 +32203,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H988" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H988" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="989">
@@ -32447,10 +32239,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H989" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H989" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="990">
@@ -32473,10 +32263,8 @@
       <c r="E990" t="inlineStr"/>
       <c r="F990" t="inlineStr"/>
       <c r="G990" t="inlineStr"/>
-      <c r="H990" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H990" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="991">
@@ -32511,10 +32299,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H991" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H991" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="992">
@@ -32549,10 +32335,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H992" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H992" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="993">
@@ -32587,10 +32371,8 @@
           <t>-1.5%</t>
         </is>
       </c>
-      <c r="H993" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H993" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="994">
@@ -32617,10 +32399,8 @@
       </c>
       <c r="F994" t="inlineStr"/>
       <c r="G994" t="inlineStr"/>
-      <c r="H994" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H994" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="995">
@@ -32647,10 +32427,8 @@
       </c>
       <c r="F995" t="inlineStr"/>
       <c r="G995" t="inlineStr"/>
-      <c r="H995" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H995" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="996">
@@ -32681,10 +32459,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H996" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H996" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="997">
@@ -32715,10 +32491,8 @@
           <t>-5.0%</t>
         </is>
       </c>
-      <c r="H997" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H997" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="998">
@@ -32745,10 +32519,8 @@
       </c>
       <c r="F998" t="inlineStr"/>
       <c r="G998" t="inlineStr"/>
-      <c r="H998" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H998" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="999">
@@ -32775,10 +32547,8 @@
       </c>
       <c r="F999" t="inlineStr"/>
       <c r="G999" t="inlineStr"/>
-      <c r="H999" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H999" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1000">
@@ -32805,10 +32575,8 @@
       </c>
       <c r="F1000" t="inlineStr"/>
       <c r="G1000" t="inlineStr"/>
-      <c r="H1000" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1000" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1001">
@@ -32835,10 +32603,8 @@
       </c>
       <c r="F1001" t="inlineStr"/>
       <c r="G1001" t="inlineStr"/>
-      <c r="H1001" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1001" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1002">
@@ -32865,10 +32631,8 @@
       </c>
       <c r="F1002" t="inlineStr"/>
       <c r="G1002" t="inlineStr"/>
-      <c r="H1002" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1002" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1003">
@@ -32903,10 +32667,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1003" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1003" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1004">
@@ -32933,10 +32695,8 @@
       </c>
       <c r="F1004" t="inlineStr"/>
       <c r="G1004" t="inlineStr"/>
-      <c r="H1004" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1004" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1005">
@@ -32971,10 +32731,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H1005" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1005" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1006">
@@ -33009,10 +32767,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1006" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1006" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1007">
@@ -33047,10 +32803,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H1007" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1007" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1008">
@@ -33085,10 +32839,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1008" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1008" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1009">
@@ -33123,10 +32875,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H1009" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1009" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1010">
@@ -33157,10 +32907,8 @@
           <t>315.6</t>
         </is>
       </c>
-      <c r="H1010" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1010" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1011">
@@ -33191,10 +32939,8 @@
           <t>317.4</t>
         </is>
       </c>
-      <c r="H1011" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1011" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1012">
@@ -33229,10 +32975,8 @@
           <t>0.15</t>
         </is>
       </c>
-      <c r="H1012" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1012" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1013">
@@ -33255,10 +32999,8 @@
       <c r="E1013" t="inlineStr"/>
       <c r="F1013" t="inlineStr"/>
       <c r="G1013" t="inlineStr"/>
-      <c r="H1013" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1013" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1014">
@@ -33281,10 +33023,8 @@
       <c r="E1014" t="inlineStr"/>
       <c r="F1014" t="inlineStr"/>
       <c r="G1014" t="inlineStr"/>
-      <c r="H1014" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1014" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1015">
@@ -33311,10 +33051,8 @@
       </c>
       <c r="F1015" t="inlineStr"/>
       <c r="G1015" t="inlineStr"/>
-      <c r="H1015" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1015" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1016">
@@ -33341,10 +33079,8 @@
       </c>
       <c r="F1016" t="inlineStr"/>
       <c r="G1016" t="inlineStr"/>
-      <c r="H1016" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1016" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1017">
@@ -33371,10 +33107,8 @@
       </c>
       <c r="F1017" t="inlineStr"/>
       <c r="G1017" t="inlineStr"/>
-      <c r="H1017" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1017" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1018">
@@ -33401,10 +33135,8 @@
       </c>
       <c r="F1018" t="inlineStr"/>
       <c r="G1018" t="inlineStr"/>
-      <c r="H1018" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1018" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1019">
@@ -33431,10 +33163,8 @@
       </c>
       <c r="F1019" t="inlineStr"/>
       <c r="G1019" t="inlineStr"/>
-      <c r="H1019" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1019" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1020">
@@ -33461,10 +33191,8 @@
       </c>
       <c r="F1020" t="inlineStr"/>
       <c r="G1020" t="inlineStr"/>
-      <c r="H1020" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1020" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1021">
@@ -33491,10 +33219,8 @@
       </c>
       <c r="F1021" t="inlineStr"/>
       <c r="G1021" t="inlineStr"/>
-      <c r="H1021" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1021" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1022">
@@ -33521,10 +33247,8 @@
       </c>
       <c r="F1022" t="inlineStr"/>
       <c r="G1022" t="inlineStr"/>
-      <c r="H1022" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1022" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1023">
@@ -33551,10 +33275,8 @@
       </c>
       <c r="F1023" t="inlineStr"/>
       <c r="G1023" t="inlineStr"/>
-      <c r="H1023" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1023" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1024">
@@ -33589,10 +33311,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1024" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1024" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1025">
@@ -33627,10 +33347,8 @@
           <t>9.5%</t>
         </is>
       </c>
-      <c r="H1025" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1025" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1026">
@@ -33653,10 +33371,8 @@
       <c r="E1026" t="inlineStr"/>
       <c r="F1026" t="inlineStr"/>
       <c r="G1026" t="inlineStr"/>
-      <c r="H1026" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1026" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1027">
@@ -33683,10 +33399,8 @@
       </c>
       <c r="F1027" t="inlineStr"/>
       <c r="G1027" t="inlineStr"/>
-      <c r="H1027" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1027" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1028">
@@ -33717,10 +33431,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H1028" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1028" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1029">
@@ -33747,10 +33459,8 @@
       </c>
       <c r="F1029" t="inlineStr"/>
       <c r="G1029" t="inlineStr"/>
-      <c r="H1029" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1029" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1030">
@@ -33773,10 +33483,8 @@
       <c r="E1030" t="inlineStr"/>
       <c r="F1030" t="inlineStr"/>
       <c r="G1030" t="inlineStr"/>
-      <c r="H1030" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1030" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1031">
@@ -33799,10 +33507,8 @@
       <c r="E1031" t="inlineStr"/>
       <c r="F1031" t="inlineStr"/>
       <c r="G1031" t="inlineStr"/>
-      <c r="H1031" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1031" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1032">
@@ -33825,10 +33531,8 @@
       <c r="E1032" t="inlineStr"/>
       <c r="F1032" t="inlineStr"/>
       <c r="G1032" t="inlineStr"/>
-      <c r="H1032" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1032" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1033">
@@ -33859,10 +33563,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H1033" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1033" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1034">
@@ -33893,10 +33595,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1034" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1034" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1035">
@@ -33931,10 +33631,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H1035" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1035" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1036">
@@ -33969,10 +33667,8 @@
           <t>26.0%</t>
         </is>
       </c>
-      <c r="H1036" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1036" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1037">
@@ -34007,10 +33703,8 @@
           <t>3.9%</t>
         </is>
       </c>
-      <c r="H1037" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1037" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1038">
@@ -34045,10 +33739,8 @@
           <t>25.1K</t>
         </is>
       </c>
-      <c r="H1038" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1038" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1039">
@@ -34075,10 +33767,8 @@
       </c>
       <c r="F1039" t="inlineStr"/>
       <c r="G1039" t="inlineStr"/>
-      <c r="H1039" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1039" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1040">
@@ -34105,10 +33795,8 @@
       </c>
       <c r="F1040" t="inlineStr"/>
       <c r="G1040" t="inlineStr"/>
-      <c r="H1040" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1040" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1041">
@@ -34143,10 +33831,8 @@
           <t>66.8%</t>
         </is>
       </c>
-      <c r="H1041" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1041" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1042">
@@ -34181,10 +33867,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H1042" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1042" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1043">
@@ -34211,10 +33895,8 @@
       </c>
       <c r="F1043" t="inlineStr"/>
       <c r="G1043" t="inlineStr"/>
-      <c r="H1043" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1043" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1044">
@@ -34241,10 +33923,8 @@
       </c>
       <c r="F1044" t="inlineStr"/>
       <c r="G1044" t="inlineStr"/>
-      <c r="H1044" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1044" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1045">
@@ -34271,10 +33951,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1045" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1045" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1046">
@@ -34301,10 +33979,8 @@
           <t>2%</t>
         </is>
       </c>
-      <c r="H1046" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1046" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1047">
@@ -34331,10 +34007,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H1047" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1047" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1048">
@@ -34357,10 +34031,8 @@
       </c>
       <c r="F1048" t="inlineStr"/>
       <c r="G1048" t="inlineStr"/>
-      <c r="H1048" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1048" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1049">
@@ -34379,10 +34051,8 @@
       <c r="E1049" t="inlineStr"/>
       <c r="F1049" t="inlineStr"/>
       <c r="G1049" t="inlineStr"/>
-      <c r="H1049" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1049" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1050">
@@ -34409,10 +34079,8 @@
           <t>$ -38.0B</t>
         </is>
       </c>
-      <c r="H1050" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1050" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1051">
@@ -34439,10 +34107,8 @@
           <t>$ 32.5B</t>
         </is>
       </c>
-      <c r="H1051" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1051" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1052">
@@ -34469,10 +34135,8 @@
           <t>$ 70.5B</t>
         </is>
       </c>
-      <c r="H1052" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1052" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1053">
@@ -34513,10 +34177,8 @@
       </c>
       <c r="F1054" t="inlineStr"/>
       <c r="G1054" t="inlineStr"/>
-      <c r="H1054" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1054" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1055">
@@ -34551,10 +34213,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1055" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1055" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1056">
@@ -34589,10 +34249,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H1056" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1056" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1057">
@@ -34627,10 +34285,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H1057" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1057" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1058">
@@ -34665,10 +34321,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H1058" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1058" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1059">
@@ -34703,10 +34357,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1059" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1059" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1060">
@@ -34737,10 +34389,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1060" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1060" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1061">
@@ -34775,10 +34425,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1061" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1061" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1062">
@@ -34813,10 +34461,8 @@
           <t>£-17.0B</t>
         </is>
       </c>
-      <c r="H1062" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1062" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1063">
@@ -34847,10 +34493,8 @@
           <t>£-6.8B</t>
         </is>
       </c>
-      <c r="H1063" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1063" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1064">
@@ -34885,10 +34529,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1064" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1064" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1065">
@@ -34923,10 +34565,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1065" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1065" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1066">
@@ -34957,10 +34597,8 @@
           <t>£-3.9B</t>
         </is>
       </c>
-      <c r="H1066" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1066" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1067">
@@ -34991,10 +34629,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1067" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1067" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1068">
@@ -35029,10 +34665,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H1068" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1068" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1069">
@@ -35067,10 +34701,8 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H1069" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1069" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1070">
@@ -35105,10 +34737,8 @@
           <t>€3.2B</t>
         </is>
       </c>
-      <c r="H1070" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1070" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1071">
@@ -35143,10 +34773,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1071" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1071" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1072">
@@ -35181,10 +34809,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H1072" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1072" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1073">
@@ -35219,10 +34845,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H1073" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1073" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1074">
@@ -35257,10 +34881,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1074" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1074" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1075">
@@ -35283,10 +34905,8 @@
       <c r="E1075" t="inlineStr"/>
       <c r="F1075" t="inlineStr"/>
       <c r="G1075" t="inlineStr"/>
-      <c r="H1075" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1075" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1076">
@@ -35313,10 +34933,8 @@
       </c>
       <c r="F1076" t="inlineStr"/>
       <c r="G1076" t="inlineStr"/>
-      <c r="H1076" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1076" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1077">
@@ -35339,10 +34957,8 @@
       <c r="E1077" t="inlineStr"/>
       <c r="F1077" t="inlineStr"/>
       <c r="G1077" t="inlineStr"/>
-      <c r="H1077" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1077" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1078">
@@ -35369,10 +34985,8 @@
       </c>
       <c r="F1078" t="inlineStr"/>
       <c r="G1078" t="inlineStr"/>
-      <c r="H1078" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1078" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1079">
@@ -35407,10 +35021,8 @@
           <t>€1.8B</t>
         </is>
       </c>
-      <c r="H1079" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1079" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1080">
@@ -35437,10 +35049,8 @@
       </c>
       <c r="F1080" t="inlineStr"/>
       <c r="G1080" t="inlineStr"/>
-      <c r="H1080" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1080" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1081">
@@ -35471,10 +35081,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1081" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1081" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1082">
@@ -35497,10 +35105,8 @@
       <c r="E1082" t="inlineStr"/>
       <c r="F1082" t="inlineStr"/>
       <c r="G1082" t="inlineStr"/>
-      <c r="H1082" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1082" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1083">
@@ -35531,10 +35137,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1083" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1083" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1084">
@@ -35569,10 +35173,8 @@
           <t>240.0K</t>
         </is>
       </c>
-      <c r="H1084" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1084" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1085">
@@ -35607,10 +35209,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1085" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1085" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1086">
@@ -35641,10 +35241,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1086" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1086" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1087">
@@ -35679,10 +35277,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1087" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1087" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1088">
@@ -35717,10 +35313,8 @@
           <t>209.0K</t>
         </is>
       </c>
-      <c r="H1088" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1088" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1089">
@@ -35755,10 +35349,8 @@
           <t>-10</t>
         </is>
       </c>
-      <c r="H1089" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1089" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1090">
@@ -35793,10 +35385,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1090" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1090" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1091">
@@ -35827,10 +35417,8 @@
           <t>1870.0K</t>
         </is>
       </c>
-      <c r="H1091" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1091" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1092">
@@ -35861,10 +35449,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H1092" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1092" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1093">
@@ -35895,10 +35481,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1093" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1093" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1094">
@@ -35929,10 +35513,8 @@
           <t>215.0K</t>
         </is>
       </c>
-      <c r="H1094" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1094" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1095">
@@ -35959,10 +35541,8 @@
       </c>
       <c r="F1095" t="inlineStr"/>
       <c r="G1095" t="inlineStr"/>
-      <c r="H1095" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1095" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1096">
@@ -35989,10 +35569,8 @@
       </c>
       <c r="F1096" t="inlineStr"/>
       <c r="G1096" t="inlineStr"/>
-      <c r="H1096" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1096" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1097">
@@ -36019,10 +35597,8 @@
       </c>
       <c r="F1097" t="inlineStr"/>
       <c r="G1097" t="inlineStr"/>
-      <c r="H1097" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1097" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1098">
@@ -36049,10 +35625,8 @@
       </c>
       <c r="F1098" t="inlineStr"/>
       <c r="G1098" t="inlineStr"/>
-      <c r="H1098" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1098" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1099">
@@ -36079,10 +35653,8 @@
       </c>
       <c r="F1099" t="inlineStr"/>
       <c r="G1099" t="inlineStr"/>
-      <c r="H1099" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1099" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1100">
@@ -36113,10 +35685,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1100" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1100" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1101">
@@ -36147,10 +35717,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H1101" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1101" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1102">
@@ -36185,10 +35753,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1102" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1102" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1103">
@@ -36223,10 +35789,8 @@
           <t>45</t>
         </is>
       </c>
-      <c r="H1103" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1103" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1104">
@@ -36261,10 +35825,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1104" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1104" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1105">
@@ -36291,10 +35853,8 @@
       </c>
       <c r="F1105" t="inlineStr"/>
       <c r="G1105" t="inlineStr"/>
-      <c r="H1105" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1105" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1106">
@@ -36321,10 +35881,8 @@
       </c>
       <c r="F1106" t="inlineStr"/>
       <c r="G1106" t="inlineStr"/>
-      <c r="H1106" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1106" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1107">
@@ -36351,10 +35909,8 @@
       </c>
       <c r="F1107" t="inlineStr"/>
       <c r="G1107" t="inlineStr"/>
-      <c r="H1107" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1107" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1108">
@@ -36381,10 +35937,8 @@
       </c>
       <c r="F1108" t="inlineStr"/>
       <c r="G1108" t="inlineStr"/>
-      <c r="H1108" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1108" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1109">
@@ -36411,10 +35965,8 @@
       </c>
       <c r="F1109" t="inlineStr"/>
       <c r="G1109" t="inlineStr"/>
-      <c r="H1109" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1109" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1110">
@@ -36437,10 +35989,8 @@
       <c r="E1110" t="inlineStr"/>
       <c r="F1110" t="inlineStr"/>
       <c r="G1110" t="inlineStr"/>
-      <c r="H1110" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1110" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1111">
@@ -36467,10 +36017,8 @@
       </c>
       <c r="F1111" t="inlineStr"/>
       <c r="G1111" t="inlineStr"/>
-      <c r="H1111" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1111" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1112">
@@ -36497,10 +36045,8 @@
       </c>
       <c r="F1112" t="inlineStr"/>
       <c r="G1112" t="inlineStr"/>
-      <c r="H1112" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1112" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1113">
@@ -36527,10 +36073,8 @@
       </c>
       <c r="F1113" t="inlineStr"/>
       <c r="G1113" t="inlineStr"/>
-      <c r="H1113" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1113" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1114">
@@ -36561,10 +36105,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1114" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1114" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1115">
@@ -36599,10 +36141,8 @@
           <t>7.5%</t>
         </is>
       </c>
-      <c r="H1115" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1115" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1116">
@@ -36629,10 +36169,8 @@
       </c>
       <c r="F1116" t="inlineStr"/>
       <c r="G1116" t="inlineStr"/>
-      <c r="H1116" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1116" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1117">
@@ -36663,10 +36201,8 @@
           <t>-5.8%</t>
         </is>
       </c>
-      <c r="H1117" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1117" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1118">
@@ -36697,10 +36233,8 @@
           <t>$ 3.6B</t>
         </is>
       </c>
-      <c r="H1118" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1118" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1119">
@@ -36735,10 +36269,8 @@
           <t>5%</t>
         </is>
       </c>
-      <c r="H1119" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1119" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1120">
@@ -36773,10 +36305,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="H1120" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1120" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1121">
@@ -36811,10 +36341,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H1121" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1121" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1122">
@@ -36849,10 +36377,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H1122" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1122" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1123">
@@ -36887,10 +36413,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1123" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1123" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1124">
@@ -36921,10 +36445,8 @@
           <t>75.3%</t>
         </is>
       </c>
-      <c r="H1124" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1124" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1125">
@@ -36959,10 +36481,8 @@
           <t>5.00%</t>
         </is>
       </c>
-      <c r="H1125" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1125" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1126">
@@ -36989,94 +36509,108 @@
       </c>
       <c r="F1126" t="inlineStr"/>
       <c r="G1126" t="inlineStr"/>
-      <c r="H1126" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1126" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1127">
       <c r="A1127" t="inlineStr">
         <is>
-          <t>Friday January 17 2025</t>
-        </is>
-      </c>
-      <c r="B1127" t="inlineStr"/>
-      <c r="C1127" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B1127" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1127" t="inlineStr">
+        <is>
+          <t>Building Permits MoM PrelDEC</t>
+        </is>
+      </c>
       <c r="D1127" t="inlineStr"/>
-      <c r="E1127" t="inlineStr"/>
+      <c r="E1127" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="F1127" t="inlineStr"/>
-      <c r="G1127" t="inlineStr"/>
-      <c r="H1127" t="inlineStr"/>
+      <c r="G1127" t="inlineStr">
+        <is>
+          <t>-0.9%</t>
+        </is>
+      </c>
+      <c r="H1127" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1128">
       <c r="A1128" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1128" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1128" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Housing Starts MoMDEC</t>
         </is>
       </c>
       <c r="D1128" t="inlineStr"/>
       <c r="E1128" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F1128" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>-1.8%</t>
+        </is>
+      </c>
+      <c r="F1128" t="inlineStr"/>
       <c r="G1128" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H1128" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1129">
       <c r="A1129" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1129" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1129" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D1129" t="inlineStr"/>
       <c r="E1129" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F1129" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G1129" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="H1129" t="inlineStr">
@@ -37088,29 +36622,33 @@
     <row r="1130">
       <c r="A1130" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1130" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1130" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel MoMDEC</t>
+          <t>Capacity UtilizationDEC</t>
         </is>
       </c>
       <c r="D1130" t="inlineStr"/>
       <c r="E1130" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1130" t="inlineStr"/>
+          <t>76.8%</t>
+        </is>
+      </c>
+      <c r="F1130" t="inlineStr">
+        <is>
+          <t>77.6%</t>
+        </is>
+      </c>
       <c r="G1130" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>76.9%</t>
         </is>
       </c>
       <c r="H1130" t="inlineStr">
@@ -37122,29 +36660,29 @@
     <row r="1131">
       <c r="A1131" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1131" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1131" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel YoYDEC</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D1131" t="inlineStr"/>
       <c r="E1131" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="F1131" t="inlineStr"/>
       <c r="G1131" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="H1131" t="inlineStr">
@@ -37156,29 +36694,29 @@
     <row r="1132">
       <c r="A1132" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1132" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1132" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Manufacturing Production MoMDEC</t>
         </is>
       </c>
       <c r="D1132" t="inlineStr"/>
       <c r="E1132" t="inlineStr">
         <is>
-          <t>€32B</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1132" t="inlineStr"/>
       <c r="G1132" t="inlineStr">
         <is>
-          <t>€33.0B</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1132" t="inlineStr">
@@ -37190,31 +36728,31 @@
     <row r="1133">
       <c r="A1133" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1133" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1133" t="inlineStr">
         <is>
-          <t>Current Account s.aNOV</t>
+          <t>Manufacturing Production YoYDEC</t>
         </is>
       </c>
       <c r="D1133" t="inlineStr"/>
       <c r="E1133" t="inlineStr">
         <is>
-          <t>€33.5B</t>
-        </is>
-      </c>
-      <c r="F1133" t="inlineStr">
-        <is>
-          <t>€28B</t>
-        </is>
-      </c>
-      <c r="G1133" t="inlineStr"/>
+          <t>-1%</t>
+        </is>
+      </c>
+      <c r="F1133" t="inlineStr"/>
+      <c r="G1133" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="H1133" t="inlineStr">
         <is>
           <t>3</t>
@@ -37224,145 +36762,117 @@
     <row r="1134">
       <c r="A1134" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1134" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1134" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Baker Hughes Oil Rig CountJAN/17</t>
         </is>
       </c>
       <c r="D1134" t="inlineStr"/>
       <c r="E1134" t="inlineStr">
         <is>
-          <t>€-3.93B</t>
+          <t>480</t>
         </is>
       </c>
       <c r="F1134" t="inlineStr"/>
-      <c r="G1134" t="inlineStr">
-        <is>
-          <t>€-4.2B</t>
-        </is>
-      </c>
+      <c r="G1134" t="inlineStr"/>
       <c r="H1134" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1135">
       <c r="A1135" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1135" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1135" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>Baker Hughes Total Rigs CountJAN/17</t>
         </is>
       </c>
       <c r="D1135" t="inlineStr"/>
       <c r="E1135" t="inlineStr">
         <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="F1135" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="G1135" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
+          <t>584</t>
+        </is>
+      </c>
+      <c r="F1135" t="inlineStr"/>
+      <c r="G1135" t="inlineStr"/>
       <c r="H1135" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1136">
       <c r="A1136" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1136" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1136" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FinalDEC</t>
+          <t>Net Long-term TIC FlowsNOV</t>
         </is>
       </c>
       <c r="D1136" t="inlineStr"/>
       <c r="E1136" t="inlineStr">
         <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F1136" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="G1136" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+          <t>$152.3B</t>
+        </is>
+      </c>
+      <c r="F1136" t="inlineStr"/>
+      <c r="G1136" t="inlineStr"/>
       <c r="H1136" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1137">
       <c r="A1137" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1137" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1137" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FinalDEC</t>
+          <t>Foreign Bond InvestmentNOV</t>
         </is>
       </c>
       <c r="D1137" t="inlineStr"/>
       <c r="E1137" t="inlineStr">
         <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F1137" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G1137" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>$92.1B</t>
+        </is>
+      </c>
+      <c r="F1137" t="inlineStr"/>
+      <c r="G1137" t="inlineStr"/>
       <c r="H1137" t="inlineStr">
         <is>
           <t>3</t>
@@ -37372,35 +36882,27 @@
     <row r="1138">
       <c r="A1138" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1138" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1138" t="inlineStr">
         <is>
-          <t>CPI FinalDEC</t>
+          <t>Overall Net Capital FlowsNOV</t>
         </is>
       </c>
       <c r="D1138" t="inlineStr"/>
       <c r="E1138" t="inlineStr">
         <is>
-          <t>126.62</t>
-        </is>
-      </c>
-      <c r="F1138" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
-      <c r="G1138" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
+          <t>$203.6B</t>
+        </is>
+      </c>
+      <c r="F1138" t="inlineStr"/>
+      <c r="G1138" t="inlineStr"/>
       <c r="H1138" t="inlineStr">
         <is>
           <t>3</t>
@@ -37408,23 +36910,23 @@
       </c>
     </row>
     <row r="1139">
-      <c r="A1139" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
+      <c r="A1139" t="inlineStr"/>
       <c r="B1139" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1139" t="inlineStr">
         <is>
-          <t>Bundesbank Nagel Speech</t>
+          <t>50-Year KTB Auction</t>
         </is>
       </c>
       <c r="D1139" t="inlineStr"/>
-      <c r="E1139" t="inlineStr"/>
+      <c r="E1139" t="inlineStr">
+        <is>
+          <t>2.40%</t>
+        </is>
+      </c>
       <c r="F1139" t="inlineStr"/>
       <c r="G1139" t="inlineStr"/>
       <c r="H1139" t="inlineStr">
@@ -37436,173 +36938,165 @@
     <row r="1140">
       <c r="A1140" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B1140" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1140" t="inlineStr">
-        <is>
-          <t>Current AccountNOV</t>
-        </is>
-      </c>
+          <t>Sunday January 19 2025</t>
+        </is>
+      </c>
+      <c r="B1140" t="inlineStr"/>
+      <c r="C1140" t="inlineStr"/>
       <c r="D1140" t="inlineStr"/>
-      <c r="E1140" t="inlineStr">
-        <is>
-          <t>€5628M</t>
-        </is>
-      </c>
+      <c r="E1140" t="inlineStr"/>
       <c r="F1140" t="inlineStr"/>
-      <c r="G1140" t="inlineStr">
-        <is>
-          <t>€2900.0M</t>
-        </is>
-      </c>
-      <c r="H1140" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1140" t="inlineStr"/>
+      <c r="H1140" t="inlineStr"/>
     </row>
     <row r="1141">
       <c r="A1141" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1141" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1141" t="inlineStr">
         <is>
-          <t>ECB Cipollone Speech</t>
+          <t>Machinery Orders MoMNOV</t>
         </is>
       </c>
       <c r="D1141" t="inlineStr"/>
-      <c r="E1141" t="inlineStr"/>
+      <c r="E1141" t="inlineStr">
+        <is>
+          <t>2.1%</t>
+        </is>
+      </c>
       <c r="F1141" t="inlineStr"/>
-      <c r="G1141" t="inlineStr"/>
+      <c r="G1141" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1141" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1142">
       <c r="A1142" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1142" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1142" t="inlineStr">
         <is>
-          <t>Bank Loan Growth YoYJAN/03</t>
+          <t>Machinery Orders YoYNOV</t>
         </is>
       </c>
       <c r="D1142" t="inlineStr"/>
       <c r="E1142" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>5.6%</t>
         </is>
       </c>
       <c r="F1142" t="inlineStr"/>
-      <c r="G1142" t="inlineStr"/>
+      <c r="G1142" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
       <c r="H1142" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1143">
       <c r="A1143" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1143" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1143" t="inlineStr">
         <is>
-          <t>Deposit Growth YoYJAN/03</t>
+          <t>Loan Prime Rate 1Y</t>
         </is>
       </c>
       <c r="D1143" t="inlineStr"/>
       <c r="E1143" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="F1143" t="inlineStr"/>
       <c r="G1143" t="inlineStr"/>
       <c r="H1143" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1144">
       <c r="A1144" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1144" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1144" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/10</t>
+          <t>Loan Prime Rate 5YJAN</t>
         </is>
       </c>
       <c r="D1144" t="inlineStr"/>
       <c r="E1144" t="inlineStr">
         <is>
-          <t>$634.59B</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="F1144" t="inlineStr"/>
       <c r="G1144" t="inlineStr"/>
       <c r="H1144" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1145">
       <c r="A1145" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1145" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1145" t="inlineStr">
         <is>
-          <t>Foreign Securities PurchasesNOV</t>
+          <t>Capacity Utilization MoMNOV</t>
         </is>
       </c>
       <c r="D1145" t="inlineStr"/>
       <c r="E1145" t="inlineStr">
         <is>
-          <t>C$21.55B</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F1145" t="inlineStr"/>
@@ -37616,27 +37110,35 @@
     <row r="1146">
       <c r="A1146" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1146" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1146" t="inlineStr">
         <is>
-          <t>Foreign Securities Purchases by CanadiansNOV</t>
+          <t>Industrial Production MoM FinalNOV</t>
         </is>
       </c>
       <c r="D1146" t="inlineStr"/>
       <c r="E1146" t="inlineStr">
         <is>
-          <t>C$-2.65B</t>
-        </is>
-      </c>
-      <c r="F1146" t="inlineStr"/>
-      <c r="G1146" t="inlineStr"/>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="F1146" t="inlineStr">
+        <is>
+          <t>-2.3%</t>
+        </is>
+      </c>
+      <c r="G1146" t="inlineStr">
+        <is>
+          <t>-2.3%</t>
+        </is>
+      </c>
       <c r="H1146" t="inlineStr">
         <is>
           <t>3</t>
@@ -37646,177 +37148,129 @@
     <row r="1147">
       <c r="A1147" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1147" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1147" t="inlineStr">
         <is>
-          <t>Building Permits PrelDEC</t>
+          <t>Industrial Production YoY FinalNOV</t>
         </is>
       </c>
       <c r="D1147" t="inlineStr"/>
       <c r="E1147" t="inlineStr">
         <is>
-          <t>1.493M</t>
-        </is>
-      </c>
-      <c r="F1147" t="inlineStr">
-        <is>
-          <t>1.46M</t>
-        </is>
-      </c>
+          <t>1.4%</t>
+        </is>
+      </c>
+      <c r="F1147" t="inlineStr"/>
       <c r="G1147" t="inlineStr">
         <is>
-          <t>1.48M</t>
+          <t>-2.8%</t>
         </is>
       </c>
       <c r="H1147" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1148">
       <c r="A1148" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1148" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1148" t="inlineStr">
         <is>
-          <t>Housing StartsDEC</t>
+          <t>Tertiary Industry Index MoMNOV</t>
         </is>
       </c>
       <c r="D1148" t="inlineStr"/>
       <c r="E1148" t="inlineStr">
         <is>
-          <t>1.289M</t>
-        </is>
-      </c>
-      <c r="F1148" t="inlineStr">
-        <is>
-          <t>1.31M</t>
-        </is>
-      </c>
-      <c r="G1148" t="inlineStr">
-        <is>
-          <t>1.32M</t>
-        </is>
-      </c>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F1148" t="inlineStr"/>
+      <c r="G1148" t="inlineStr"/>
       <c r="H1148" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1149">
-      <c r="A1149" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A1149" t="inlineStr"/>
       <c r="B1149" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1149" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelDEC</t>
+          <t>Eurogroup Meeting</t>
         </is>
       </c>
       <c r="D1149" t="inlineStr"/>
-      <c r="E1149" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="E1149" t="inlineStr"/>
       <c r="F1149" t="inlineStr"/>
-      <c r="G1149" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
+      <c r="G1149" t="inlineStr"/>
       <c r="H1149" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1150">
       <c r="A1150" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1150" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1150" t="inlineStr">
-        <is>
-          <t>Housing Starts MoMDEC</t>
-        </is>
-      </c>
+          <t>Monday January 20 2025</t>
+        </is>
+      </c>
+      <c r="B1150" t="inlineStr"/>
+      <c r="C1150" t="inlineStr"/>
       <c r="D1150" t="inlineStr"/>
-      <c r="E1150" t="inlineStr">
-        <is>
-          <t>-1.8%</t>
-        </is>
-      </c>
+      <c r="E1150" t="inlineStr"/>
       <c r="F1150" t="inlineStr"/>
-      <c r="G1150" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="H1150" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G1150" t="inlineStr"/>
+      <c r="H1150" t="inlineStr"/>
     </row>
     <row r="1151">
       <c r="A1151" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1151" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1151" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1151" t="inlineStr"/>
       <c r="E1151" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F1151" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="F1151" t="inlineStr"/>
       <c r="G1151" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1151" t="inlineStr">
@@ -37828,33 +37282,29 @@
     <row r="1152">
       <c r="A1152" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1152" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1152" t="inlineStr">
         <is>
-          <t>Capacity UtilizationDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1152" t="inlineStr"/>
       <c r="E1152" t="inlineStr">
         <is>
-          <t>76.8%</t>
-        </is>
-      </c>
-      <c r="F1152" t="inlineStr">
-        <is>
-          <t>77.6%</t>
-        </is>
-      </c>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F1152" t="inlineStr"/>
       <c r="G1152" t="inlineStr">
         <is>
-          <t>76.9%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="H1152" t="inlineStr">
@@ -37866,29 +37316,29 @@
     <row r="1153">
       <c r="A1153" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>04:15 AM</t>
         </is>
       </c>
       <c r="B1153" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1153" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D1153" t="inlineStr"/>
       <c r="E1153" t="inlineStr">
         <is>
-          <t>-0.9%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="F1153" t="inlineStr"/>
       <c r="G1153" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1153" t="inlineStr">
@@ -37900,17 +37350,17 @@
     <row r="1154">
       <c r="A1154" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1154" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1154" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMDEC</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D1154" t="inlineStr"/>
@@ -37920,11 +37370,7 @@
         </is>
       </c>
       <c r="F1154" t="inlineStr"/>
-      <c r="G1154" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G1154" t="inlineStr"/>
       <c r="H1154" t="inlineStr">
         <is>
           <t>3</t>
@@ -37934,31 +37380,23 @@
     <row r="1155">
       <c r="A1155" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1155" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1155" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYDEC</t>
+          <t>3-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D1155" t="inlineStr"/>
-      <c r="E1155" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
+      <c r="E1155" t="inlineStr"/>
       <c r="F1155" t="inlineStr"/>
-      <c r="G1155" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="G1155" t="inlineStr"/>
       <c r="H1155" t="inlineStr">
         <is>
           <t>3</t>
@@ -37968,25 +37406,21 @@
     <row r="1156">
       <c r="A1156" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1156" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1156" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/17</t>
+          <t>9-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D1156" t="inlineStr"/>
-      <c r="E1156" t="inlineStr">
-        <is>
-          <t>480</t>
-        </is>
-      </c>
+      <c r="E1156" t="inlineStr"/>
       <c r="F1156" t="inlineStr"/>
       <c r="G1156" t="inlineStr"/>
       <c r="H1156" t="inlineStr">
@@ -37998,23 +37432,23 @@
     <row r="1157">
       <c r="A1157" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1157" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1157" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/17</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D1157" t="inlineStr"/>
       <c r="E1157" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>$9.1B</t>
         </is>
       </c>
       <c r="F1157" t="inlineStr"/>
@@ -38028,55 +37462,55 @@
     <row r="1158">
       <c r="A1158" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1158" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1158" t="inlineStr">
         <is>
-          <t>Net Long-term TIC FlowsNOV</t>
+          <t>Current AccountQ4</t>
         </is>
       </c>
       <c r="D1158" t="inlineStr"/>
       <c r="E1158" t="inlineStr">
         <is>
-          <t>$152.3B</t>
+          <t>$9.1B</t>
         </is>
       </c>
       <c r="F1158" t="inlineStr"/>
-      <c r="G1158" t="inlineStr"/>
+      <c r="G1158" t="inlineStr">
+        <is>
+          <t>$ 10B</t>
+        </is>
+      </c>
       <c r="H1158" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1159">
       <c r="A1159" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1159" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1159" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentNOV</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1159" t="inlineStr"/>
-      <c r="E1159" t="inlineStr">
-        <is>
-          <t>$92.1B</t>
-        </is>
-      </c>
+      <c r="E1159" t="inlineStr"/>
       <c r="F1159" t="inlineStr"/>
       <c r="G1159" t="inlineStr"/>
       <c r="H1159" t="inlineStr">
@@ -38088,25 +37522,21 @@
     <row r="1160">
       <c r="A1160" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1160" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1160" t="inlineStr">
         <is>
-          <t>Overall Net Capital FlowsNOV</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1160" t="inlineStr"/>
-      <c r="E1160" t="inlineStr">
-        <is>
-          <t>$203.6B</t>
-        </is>
-      </c>
+      <c r="E1160" t="inlineStr"/>
       <c r="F1160" t="inlineStr"/>
       <c r="G1160" t="inlineStr"/>
       <c r="H1160" t="inlineStr">
@@ -38116,23 +37546,23 @@
       </c>
     </row>
     <row r="1161">
-      <c r="A1161" t="inlineStr"/>
+      <c r="A1161" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B1161" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1161" t="inlineStr">
         <is>
-          <t>50-Year KTB Auction</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1161" t="inlineStr"/>
-      <c r="E1161" t="inlineStr">
-        <is>
-          <t>2.40%</t>
-        </is>
-      </c>
+      <c r="E1161" t="inlineStr"/>
       <c r="F1161" t="inlineStr"/>
       <c r="G1161" t="inlineStr"/>
       <c r="H1161" t="inlineStr">
@@ -38144,169 +37574,189 @@
     <row r="1162">
       <c r="A1162" t="inlineStr">
         <is>
-          <t>Sunday January 19 2025</t>
-        </is>
-      </c>
-      <c r="B1162" t="inlineStr"/>
-      <c r="C1162" t="inlineStr"/>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B1162" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C1162" t="inlineStr">
+        <is>
+          <t>BoC Business Outlook Survey</t>
+        </is>
+      </c>
       <c r="D1162" t="inlineStr"/>
       <c r="E1162" t="inlineStr"/>
       <c r="F1162" t="inlineStr"/>
       <c r="G1162" t="inlineStr"/>
-      <c r="H1162" t="inlineStr"/>
+      <c r="H1162" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1163">
       <c r="A1163" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1163" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1163" t="inlineStr">
         <is>
-          <t>Machinery Orders MoMNOV</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1163" t="inlineStr"/>
       <c r="E1163" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="F1163" t="inlineStr"/>
       <c r="G1163" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="H1163" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1164">
       <c r="A1164" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1164" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1164" t="inlineStr">
         <is>
-          <t>Machinery Orders YoYNOV</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1164" t="inlineStr"/>
       <c r="E1164" t="inlineStr">
         <is>
-          <t>5.6%</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="F1164" t="inlineStr"/>
       <c r="G1164" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>4.4%</t>
         </is>
       </c>
       <c r="H1164" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1165">
       <c r="A1165" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1165" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1165" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 1Y</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D1165" t="inlineStr"/>
       <c r="E1165" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>$1234M</t>
         </is>
       </c>
       <c r="F1165" t="inlineStr"/>
-      <c r="G1165" t="inlineStr"/>
+      <c r="G1165" t="inlineStr">
+        <is>
+          <t>$ 1463M</t>
+        </is>
+      </c>
       <c r="H1165" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1166">
       <c r="A1166" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1166" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1166" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 5YJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1166" t="inlineStr"/>
-      <c r="E1166" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
+      <c r="E1166" t="inlineStr"/>
       <c r="F1166" t="inlineStr"/>
-      <c r="G1166" t="inlineStr"/>
+      <c r="G1166" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1166" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1167">
       <c r="A1167" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1167" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1167" t="inlineStr">
         <is>
-          <t>Capacity Utilization MoMNOV</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1167" t="inlineStr"/>
       <c r="E1167" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F1167" t="inlineStr"/>
-      <c r="G1167" t="inlineStr"/>
+      <c r="G1167" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
       <c r="H1167" t="inlineStr">
         <is>
           <t>3</t>
@@ -38316,7 +37766,7 @@
     <row r="1168">
       <c r="A1168" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B1168" t="inlineStr">
@@ -38326,25 +37776,17 @@
       </c>
       <c r="C1168" t="inlineStr">
         <is>
-          <t>Industrial Production MoM FinalNOV</t>
+          <t>40-Year JGB Auction</t>
         </is>
       </c>
       <c r="D1168" t="inlineStr"/>
       <c r="E1168" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F1168" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
-      <c r="G1168" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
+          <t>2.550%</t>
+        </is>
+      </c>
+      <c r="F1168" t="inlineStr"/>
+      <c r="G1168" t="inlineStr"/>
       <c r="H1168" t="inlineStr">
         <is>
           <t>3</t>
@@ -38352,33 +37794,25 @@
       </c>
     </row>
     <row r="1169">
-      <c r="A1169" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
+      <c r="A1169" t="inlineStr"/>
       <c r="B1169" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1169" t="inlineStr">
         <is>
-          <t>Industrial Production YoY FinalNOV</t>
+          <t>10-Year KTB Auction</t>
         </is>
       </c>
       <c r="D1169" t="inlineStr"/>
       <c r="E1169" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>2.665%</t>
         </is>
       </c>
       <c r="F1169" t="inlineStr"/>
-      <c r="G1169" t="inlineStr">
-        <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
+      <c r="G1169" t="inlineStr"/>
       <c r="H1169" t="inlineStr">
         <is>
           <t>3</t>
@@ -38386,25 +37820,21 @@
       </c>
     </row>
     <row r="1170">
-      <c r="A1170" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
+      <c r="A1170" t="inlineStr"/>
       <c r="B1170" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1170" t="inlineStr">
         <is>
-          <t>Tertiary Industry Index MoMNOV</t>
+          <t>FDI (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D1170" t="inlineStr"/>
       <c r="E1170" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>-27.9%</t>
         </is>
       </c>
       <c r="F1170" t="inlineStr"/>
@@ -38419,18 +37849,22 @@
       <c r="A1171" t="inlineStr"/>
       <c r="B1171" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1171" t="inlineStr">
         <is>
-          <t>Eurogroup Meeting</t>
+          <t>Consumer ConfidenceDEC</t>
         </is>
       </c>
       <c r="D1171" t="inlineStr"/>
       <c r="E1171" t="inlineStr"/>
       <c r="F1171" t="inlineStr"/>
-      <c r="G1171" t="inlineStr"/>
+      <c r="G1171" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
       <c r="H1171" t="inlineStr">
         <is>
           <t>3</t>
@@ -38438,81 +37872,81 @@
       </c>
     </row>
     <row r="1172">
-      <c r="A1172" t="inlineStr">
-        <is>
-          <t>Monday January 20 2025</t>
-        </is>
-      </c>
-      <c r="B1172" t="inlineStr"/>
-      <c r="C1172" t="inlineStr"/>
+      <c r="A1172" t="inlineStr"/>
+      <c r="B1172" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C1172" t="inlineStr">
+        <is>
+          <t>Leading Indicator MoMDEC</t>
+        </is>
+      </c>
       <c r="D1172" t="inlineStr"/>
-      <c r="E1172" t="inlineStr"/>
+      <c r="E1172" t="inlineStr">
+        <is>
+          <t>1.44%</t>
+        </is>
+      </c>
       <c r="F1172" t="inlineStr"/>
-      <c r="G1172" t="inlineStr"/>
-      <c r="H1172" t="inlineStr"/>
+      <c r="G1172" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
+      <c r="H1172" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1173">
-      <c r="A1173" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
+      <c r="A1173" t="inlineStr"/>
       <c r="B1173" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1173" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Central Government DebtDEC</t>
         </is>
       </c>
       <c r="D1173" t="inlineStr"/>
       <c r="E1173" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>TRY9.005T</t>
         </is>
       </c>
       <c r="F1173" t="inlineStr"/>
       <c r="G1173" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>TRY 9.0T</t>
         </is>
       </c>
       <c r="H1173" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1174">
-      <c r="A1174" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
+      <c r="A1174" t="inlineStr"/>
       <c r="B1174" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1174" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>ECOFIN Meeting</t>
         </is>
       </c>
       <c r="D1174" t="inlineStr"/>
-      <c r="E1174" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="E1174" t="inlineStr"/>
       <c r="F1174" t="inlineStr"/>
-      <c r="G1174" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
+      <c r="G1174" t="inlineStr"/>
       <c r="H1174" t="inlineStr">
         <is>
           <t>3</t>
@@ -38522,59 +37956,35 @@
     <row r="1175">
       <c r="A1175" t="inlineStr">
         <is>
-          <t>04:15 AM</t>
-        </is>
-      </c>
-      <c r="B1175" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1175" t="inlineStr">
-        <is>
-          <t>Construction Output YoYNOV</t>
-        </is>
-      </c>
+          <t>Tuesday January 21 2025</t>
+        </is>
+      </c>
+      <c r="B1175" t="inlineStr"/>
+      <c r="C1175" t="inlineStr"/>
       <c r="D1175" t="inlineStr"/>
-      <c r="E1175" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
+      <c r="E1175" t="inlineStr"/>
       <c r="F1175" t="inlineStr"/>
-      <c r="G1175" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="H1175" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1175" t="inlineStr"/>
+      <c r="H1175" t="inlineStr"/>
     </row>
     <row r="1176">
       <c r="A1176" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1176" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1176" t="inlineStr">
         <is>
-          <t>Construction Output YoYNOV</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1176" t="inlineStr"/>
-      <c r="E1176" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1176" t="inlineStr"/>
       <c r="F1176" t="inlineStr"/>
       <c r="G1176" t="inlineStr"/>
       <c r="H1176" t="inlineStr">
@@ -38586,17 +37996,17 @@
     <row r="1177">
       <c r="A1177" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1177" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1177" t="inlineStr">
         <is>
-          <t>3-Month Bubill Auction</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1177" t="inlineStr"/>
@@ -38612,139 +38022,159 @@
     <row r="1178">
       <c r="A1178" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1178" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1178" t="inlineStr">
         <is>
-          <t>9-Month Bubill Auction</t>
+          <t>New Car Registrations YoYDEC</t>
         </is>
       </c>
       <c r="D1178" t="inlineStr"/>
-      <c r="E1178" t="inlineStr"/>
+      <c r="E1178" t="inlineStr">
+        <is>
+          <t>-1.9%</t>
+        </is>
+      </c>
       <c r="F1178" t="inlineStr"/>
       <c r="G1178" t="inlineStr"/>
       <c r="H1178" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1179">
       <c r="A1179" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1179" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1179" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Unemployment RateNOV</t>
         </is>
       </c>
       <c r="D1179" t="inlineStr"/>
       <c r="E1179" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F1179" t="inlineStr"/>
-      <c r="G1179" t="inlineStr"/>
+      <c r="G1179" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="H1179" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1180">
       <c r="A1180" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1180" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1180" t="inlineStr">
         <is>
-          <t>Current AccountQ4</t>
+          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D1180" t="inlineStr"/>
       <c r="E1180" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F1180" t="inlineStr"/>
       <c r="G1180" t="inlineStr">
         <is>
-          <t>$ 10B</t>
+          <t>4.9%</t>
         </is>
       </c>
       <c r="H1180" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1181">
       <c r="A1181" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1181" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1181" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>Employment ChangeNOV</t>
         </is>
       </c>
       <c r="D1181" t="inlineStr"/>
-      <c r="E1181" t="inlineStr"/>
+      <c r="E1181" t="inlineStr">
+        <is>
+          <t>173K</t>
+        </is>
+      </c>
       <c r="F1181" t="inlineStr"/>
       <c r="G1181" t="inlineStr"/>
       <c r="H1181" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1182">
       <c r="A1182" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1182" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1182" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D1182" t="inlineStr"/>
-      <c r="E1182" t="inlineStr"/>
+      <c r="E1182" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="F1182" t="inlineStr"/>
-      <c r="G1182" t="inlineStr"/>
+      <c r="G1182" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
       <c r="H1182" t="inlineStr">
         <is>
           <t>3</t>
@@ -38754,23 +38184,31 @@
     <row r="1183">
       <c r="A1183" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1183" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1183" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>Claimant Count ChangeDEC</t>
         </is>
       </c>
       <c r="D1183" t="inlineStr"/>
-      <c r="E1183" t="inlineStr"/>
+      <c r="E1183" t="inlineStr">
+        <is>
+          <t>0.3K</t>
+        </is>
+      </c>
       <c r="F1183" t="inlineStr"/>
-      <c r="G1183" t="inlineStr"/>
+      <c r="G1183" t="inlineStr">
+        <is>
+          <t>-5K</t>
+        </is>
+      </c>
       <c r="H1183" t="inlineStr">
         <is>
           <t>3</t>
@@ -38780,57 +38218,61 @@
     <row r="1184">
       <c r="A1184" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1184" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1184" t="inlineStr">
         <is>
-          <t>BoC Business Outlook Survey</t>
+          <t>HMRC Payrolls ChangeDEC</t>
         </is>
       </c>
       <c r="D1184" t="inlineStr"/>
-      <c r="E1184" t="inlineStr"/>
+      <c r="E1184" t="inlineStr">
+        <is>
+          <t>-35K</t>
+        </is>
+      </c>
       <c r="F1184" t="inlineStr"/>
-      <c r="G1184" t="inlineStr"/>
+      <c r="G1184" t="inlineStr">
+        <is>
+          <t>20K</t>
+        </is>
+      </c>
       <c r="H1184" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1185">
       <c r="A1185" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1185" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1185" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Gold Production YoYNOV</t>
         </is>
       </c>
       <c r="D1185" t="inlineStr"/>
       <c r="E1185" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>-3.4%</t>
         </is>
       </c>
       <c r="F1185" t="inlineStr"/>
-      <c r="G1185" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G1185" t="inlineStr"/>
       <c r="H1185" t="inlineStr">
         <is>
           <t>3</t>
@@ -38840,31 +38282,27 @@
     <row r="1186">
       <c r="A1186" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1186" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1186" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Mining Production MoMNOV</t>
         </is>
       </c>
       <c r="D1186" t="inlineStr"/>
       <c r="E1186" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F1186" t="inlineStr"/>
-      <c r="G1186" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
+      <c r="G1186" t="inlineStr"/>
       <c r="H1186" t="inlineStr">
         <is>
           <t>3</t>
@@ -38874,31 +38312,27 @@
     <row r="1187">
       <c r="A1187" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1187" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1187" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Mining Production YoYNOV</t>
         </is>
       </c>
       <c r="D1187" t="inlineStr"/>
       <c r="E1187" t="inlineStr">
         <is>
-          <t>$1234M</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F1187" t="inlineStr"/>
-      <c r="G1187" t="inlineStr">
-        <is>
-          <t>$ 1463M</t>
-        </is>
-      </c>
+      <c r="G1187" t="inlineStr"/>
       <c r="H1187" t="inlineStr">
         <is>
           <t>3</t>
@@ -38908,87 +38342,83 @@
     <row r="1188">
       <c r="A1188" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1188" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1188" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D1188" t="inlineStr"/>
-      <c r="E1188" t="inlineStr"/>
+      <c r="E1188" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
       <c r="F1188" t="inlineStr"/>
-      <c r="G1188" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G1188" t="inlineStr"/>
       <c r="H1188" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1189">
       <c r="A1189" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1189" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1189" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D1189" t="inlineStr"/>
       <c r="E1189" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>15.7</t>
         </is>
       </c>
       <c r="F1189" t="inlineStr"/>
-      <c r="G1189" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="G1189" t="inlineStr"/>
       <c r="H1189" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1190">
       <c r="A1190" t="inlineStr">
         <is>
-          <t>10:35 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1190" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1190" t="inlineStr">
         <is>
-          <t>40-Year JGB Auction</t>
+          <t>ZEW Current ConditionsJAN</t>
         </is>
       </c>
       <c r="D1190" t="inlineStr"/>
       <c r="E1190" t="inlineStr">
         <is>
-          <t>2.550%</t>
+          <t>-93.1</t>
         </is>
       </c>
       <c r="F1190" t="inlineStr"/>
@@ -39000,23 +38430,23 @@
       </c>
     </row>
     <row r="1191">
-      <c r="A1191" t="inlineStr"/>
+      <c r="A1191" t="inlineStr">
+        <is>
+          <t>05:30 AM</t>
+        </is>
+      </c>
       <c r="B1191" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1191" t="inlineStr">
         <is>
-          <t>10-Year KTB Auction</t>
+          <t>Bund/g Auction</t>
         </is>
       </c>
       <c r="D1191" t="inlineStr"/>
-      <c r="E1191" t="inlineStr">
-        <is>
-          <t>2.665%</t>
-        </is>
-      </c>
+      <c r="E1191" t="inlineStr"/>
       <c r="F1191" t="inlineStr"/>
       <c r="G1191" t="inlineStr"/>
       <c r="H1191" t="inlineStr">
@@ -39026,21 +38456,25 @@
       </c>
     </row>
     <row r="1192">
-      <c r="A1192" t="inlineStr"/>
+      <c r="A1192" t="inlineStr">
+        <is>
+          <t>07:00 AM</t>
+        </is>
+      </c>
       <c r="B1192" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1192" t="inlineStr">
         <is>
-          <t>FDI (YTD) YoYDEC</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D1192" t="inlineStr"/>
       <c r="E1192" t="inlineStr">
         <is>
-          <t>-27.9%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F1192" t="inlineStr"/>
@@ -39052,25 +38486,29 @@
       </c>
     </row>
     <row r="1193">
-      <c r="A1193" t="inlineStr"/>
+      <c r="A1193" t="inlineStr">
+        <is>
+          <t>07:00 AM</t>
+        </is>
+      </c>
       <c r="B1193" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1193" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceDEC</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1193" t="inlineStr"/>
-      <c r="E1193" t="inlineStr"/>
+      <c r="E1193" t="inlineStr">
+        <is>
+          <t>-1.2%</t>
+        </is>
+      </c>
       <c r="F1193" t="inlineStr"/>
-      <c r="G1193" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
+      <c r="G1193" t="inlineStr"/>
       <c r="H1193" t="inlineStr">
         <is>
           <t>3</t>
@@ -39078,121 +38516,169 @@
       </c>
     </row>
     <row r="1194">
-      <c r="A1194" t="inlineStr"/>
+      <c r="A1194" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B1194" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1194" t="inlineStr">
         <is>
-          <t>Leading Indicator MoMDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1194" t="inlineStr"/>
       <c r="E1194" t="inlineStr">
         <is>
-          <t>1.44%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="F1194" t="inlineStr"/>
       <c r="G1194" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="H1194" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1195">
-      <c r="A1195" t="inlineStr"/>
+      <c r="A1195" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B1195" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1195" t="inlineStr">
         <is>
-          <t>Central Government DebtDEC</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1195" t="inlineStr"/>
       <c r="E1195" t="inlineStr">
         <is>
-          <t>TRY9.005T</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F1195" t="inlineStr"/>
       <c r="G1195" t="inlineStr">
         <is>
-          <t>TRY 9.0T</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="H1195" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1196">
-      <c r="A1196" t="inlineStr"/>
+      <c r="A1196" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B1196" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1196" t="inlineStr">
         <is>
-          <t>ECOFIN Meeting</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1196" t="inlineStr"/>
-      <c r="E1196" t="inlineStr"/>
+      <c r="E1196" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="F1196" t="inlineStr"/>
-      <c r="G1196" t="inlineStr"/>
+      <c r="G1196" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1196" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1197">
       <c r="A1197" t="inlineStr">
         <is>
-          <t>Tuesday January 21 2025</t>
-        </is>
-      </c>
-      <c r="B1197" t="inlineStr"/>
-      <c r="C1197" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B1197" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C1197" t="inlineStr">
+        <is>
+          <t>CPI Median YoYDEC</t>
+        </is>
+      </c>
       <c r="D1197" t="inlineStr"/>
-      <c r="E1197" t="inlineStr"/>
+      <c r="E1197" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="F1197" t="inlineStr"/>
-      <c r="G1197" t="inlineStr"/>
-      <c r="H1197" t="inlineStr"/>
+      <c r="G1197" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
+      <c r="H1197" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1198">
       <c r="A1198" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1198" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1198" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>CPI Trimmed-Mean YoYDEC</t>
         </is>
       </c>
       <c r="D1198" t="inlineStr"/>
-      <c r="E1198" t="inlineStr"/>
+      <c r="E1198" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="F1198" t="inlineStr"/>
-      <c r="G1198" t="inlineStr"/>
+      <c r="G1198" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H1198" t="inlineStr">
         <is>
           <t>3</t>
@@ -39202,23 +38688,27 @@
     <row r="1199">
       <c r="A1199" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1199" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1199" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1199" t="inlineStr"/>
       <c r="E1199" t="inlineStr"/>
       <c r="F1199" t="inlineStr"/>
-      <c r="G1199" t="inlineStr"/>
+      <c r="G1199" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1199" t="inlineStr">
         <is>
           <t>3</t>
@@ -39228,257 +38718,209 @@
     <row r="1200">
       <c r="A1200" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:55 AM</t>
         </is>
       </c>
       <c r="B1200" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1200" t="inlineStr">
         <is>
-          <t>New Car Registrations YoYDEC</t>
+          <t>Redbook YoYJAN/18</t>
         </is>
       </c>
       <c r="D1200" t="inlineStr"/>
-      <c r="E1200" t="inlineStr">
-        <is>
-          <t>-1.9%</t>
-        </is>
-      </c>
+      <c r="E1200" t="inlineStr"/>
       <c r="F1200" t="inlineStr"/>
       <c r="G1200" t="inlineStr"/>
       <c r="H1200" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1201">
       <c r="A1201" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1201" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1201" t="inlineStr">
         <is>
-          <t>Unemployment RateNOV</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1201" t="inlineStr"/>
-      <c r="E1201" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="E1201" t="inlineStr"/>
       <c r="F1201" t="inlineStr"/>
-      <c r="G1201" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="G1201" t="inlineStr"/>
       <c r="H1201" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1202">
       <c r="A1202" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1202" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1202" t="inlineStr">
         <is>
-          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
+          <t>52-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1202" t="inlineStr"/>
-      <c r="E1202" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="E1202" t="inlineStr"/>
       <c r="F1202" t="inlineStr"/>
-      <c r="G1202" t="inlineStr">
-        <is>
-          <t>4.9%</t>
-        </is>
-      </c>
+      <c r="G1202" t="inlineStr"/>
       <c r="H1202" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1203">
       <c r="A1203" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1203" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1203" t="inlineStr">
         <is>
-          <t>Employment ChangeNOV</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1203" t="inlineStr"/>
-      <c r="E1203" t="inlineStr">
-        <is>
-          <t>173K</t>
-        </is>
-      </c>
+      <c r="E1203" t="inlineStr"/>
       <c r="F1203" t="inlineStr"/>
       <c r="G1203" t="inlineStr"/>
       <c r="H1203" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1204">
       <c r="A1204" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1204" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1204" t="inlineStr">
         <is>
-          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1204" t="inlineStr"/>
       <c r="E1204" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>88.4</t>
         </is>
       </c>
       <c r="F1204" t="inlineStr"/>
       <c r="G1204" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H1204" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1205">
       <c r="A1205" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1205" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1205" t="inlineStr">
         <is>
-          <t>Claimant Count ChangeDEC</t>
+          <t>API Crude Oil Stock ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1205" t="inlineStr"/>
-      <c r="E1205" t="inlineStr">
-        <is>
-          <t>0.3K</t>
-        </is>
-      </c>
+      <c r="E1205" t="inlineStr"/>
       <c r="F1205" t="inlineStr"/>
-      <c r="G1205" t="inlineStr">
-        <is>
-          <t>-5K</t>
-        </is>
-      </c>
+      <c r="G1205" t="inlineStr"/>
       <c r="H1205" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1206">
       <c r="A1206" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1206" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C1206" t="inlineStr">
-        <is>
-          <t>HMRC Payrolls ChangeDEC</t>
-        </is>
-      </c>
+          <t>Wednesday January 22 2025</t>
+        </is>
+      </c>
+      <c r="B1206" t="inlineStr"/>
+      <c r="C1206" t="inlineStr"/>
       <c r="D1206" t="inlineStr"/>
-      <c r="E1206" t="inlineStr">
-        <is>
-          <t>-35K</t>
-        </is>
-      </c>
+      <c r="E1206" t="inlineStr"/>
       <c r="F1206" t="inlineStr"/>
-      <c r="G1206" t="inlineStr">
-        <is>
-          <t>20K</t>
-        </is>
-      </c>
-      <c r="H1206" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1206" t="inlineStr"/>
+      <c r="H1206" t="inlineStr"/>
     </row>
     <row r="1207">
       <c r="A1207" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1207" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1207" t="inlineStr">
         <is>
-          <t>Gold Production YoYNOV</t>
+          <t>Public Sector Net Borrowing Ex BanksDEC</t>
         </is>
       </c>
       <c r="D1207" t="inlineStr"/>
       <c r="E1207" t="inlineStr">
         <is>
-          <t>-3.4%</t>
+          <t>£-11.25B</t>
         </is>
       </c>
       <c r="F1207" t="inlineStr"/>
-      <c r="G1207" t="inlineStr"/>
+      <c r="G1207" t="inlineStr">
+        <is>
+          <t>£ -11.3B</t>
+        </is>
+      </c>
       <c r="H1207" t="inlineStr">
         <is>
           <t>3</t>
@@ -39488,7 +38930,7 @@
     <row r="1208">
       <c r="A1208" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1208" t="inlineStr">
@@ -39498,27 +38940,31 @@
       </c>
       <c r="C1208" t="inlineStr">
         <is>
-          <t>Mining Production MoMNOV</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1208" t="inlineStr"/>
       <c r="E1208" t="inlineStr">
         <is>
-          <t>-3%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F1208" t="inlineStr"/>
-      <c r="G1208" t="inlineStr"/>
+      <c r="G1208" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H1208" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1209">
       <c r="A1209" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1209" t="inlineStr">
@@ -39528,87 +38974,99 @@
       </c>
       <c r="C1209" t="inlineStr">
         <is>
-          <t>Mining Production YoYNOV</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1209" t="inlineStr"/>
       <c r="E1209" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>2.9%</t>
         </is>
       </c>
       <c r="F1209" t="inlineStr"/>
-      <c r="G1209" t="inlineStr"/>
+      <c r="G1209" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
       <c r="H1209" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1210">
       <c r="A1210" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1210" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1210" t="inlineStr">
         <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1210" t="inlineStr"/>
       <c r="E1210" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="F1210" t="inlineStr"/>
-      <c r="G1210" t="inlineStr"/>
+      <c r="G1210" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="H1210" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1211">
       <c r="A1211" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1211" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1211" t="inlineStr">
         <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1211" t="inlineStr"/>
       <c r="E1211" t="inlineStr">
         <is>
-          <t>15.7</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F1211" t="inlineStr"/>
-      <c r="G1211" t="inlineStr"/>
+      <c r="G1211" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1211" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1212">
       <c r="A1212" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1212" t="inlineStr">
@@ -39618,15 +39076,11 @@
       </c>
       <c r="C1212" t="inlineStr">
         <is>
-          <t>ZEW Current ConditionsJAN</t>
+          <t>15-Year Bund Auction</t>
         </is>
       </c>
       <c r="D1212" t="inlineStr"/>
-      <c r="E1212" t="inlineStr">
-        <is>
-          <t>-93.1</t>
-        </is>
-      </c>
+      <c r="E1212" t="inlineStr"/>
       <c r="F1212" t="inlineStr"/>
       <c r="G1212" t="inlineStr"/>
       <c r="H1212" t="inlineStr">
@@ -39638,23 +39092,31 @@
     <row r="1213">
       <c r="A1213" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1213" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1213" t="inlineStr">
         <is>
-          <t>Bund/g Auction</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D1213" t="inlineStr"/>
-      <c r="E1213" t="inlineStr"/>
+      <c r="E1213" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="F1213" t="inlineStr"/>
-      <c r="G1213" t="inlineStr"/>
+      <c r="G1213" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H1213" t="inlineStr">
         <is>
           <t>3</t>
@@ -39664,23 +39126,23 @@
     <row r="1214">
       <c r="A1214" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1214" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1214" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1214" t="inlineStr"/>
       <c r="E1214" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>6.3%</t>
         </is>
       </c>
       <c r="F1214" t="inlineStr"/>
@@ -39694,25 +39156,21 @@
     <row r="1215">
       <c r="A1215" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>06:10 AM</t>
         </is>
       </c>
       <c r="B1215" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1215" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1215" t="inlineStr"/>
-      <c r="E1215" t="inlineStr">
-        <is>
-          <t>-1.2%</t>
-        </is>
-      </c>
+      <c r="E1215" t="inlineStr"/>
       <c r="F1215" t="inlineStr"/>
       <c r="G1215" t="inlineStr"/>
       <c r="H1215" t="inlineStr">
@@ -39724,99 +39182,79 @@
     <row r="1216">
       <c r="A1216" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>06:10 AM</t>
         </is>
       </c>
       <c r="B1216" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1216" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1216" t="inlineStr"/>
-      <c r="E1216" t="inlineStr">
-        <is>
-          <t>1,9%</t>
-        </is>
-      </c>
+      <c r="E1216" t="inlineStr"/>
       <c r="F1216" t="inlineStr"/>
-      <c r="G1216" t="inlineStr">
-        <is>
-          <t>1.8%</t>
-        </is>
-      </c>
+      <c r="G1216" t="inlineStr"/>
       <c r="H1216" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1217">
       <c r="A1217" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1217" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1217" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>M3 Money Supply YoYJAN/10</t>
         </is>
       </c>
       <c r="D1217" t="inlineStr"/>
       <c r="E1217" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>9.3%</t>
         </is>
       </c>
       <c r="F1217" t="inlineStr"/>
-      <c r="G1217" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
+      <c r="G1217" t="inlineStr"/>
       <c r="H1217" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1218">
       <c r="A1218" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1218" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1218" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>MBA 30-Year Mortgage RateJAN/17</t>
         </is>
       </c>
       <c r="D1218" t="inlineStr"/>
-      <c r="E1218" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+      <c r="E1218" t="inlineStr"/>
       <c r="F1218" t="inlineStr"/>
-      <c r="G1218" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1218" t="inlineStr"/>
       <c r="H1218" t="inlineStr">
         <is>
           <t>2</t>
@@ -39826,31 +39264,23 @@
     <row r="1219">
       <c r="A1219" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1219" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1219" t="inlineStr">
         <is>
-          <t>CPI Median YoYDEC</t>
+          <t>MBA Mortgage ApplicationsJAN/17</t>
         </is>
       </c>
       <c r="D1219" t="inlineStr"/>
-      <c r="E1219" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+      <c r="E1219" t="inlineStr"/>
       <c r="F1219" t="inlineStr"/>
-      <c r="G1219" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="G1219" t="inlineStr"/>
       <c r="H1219" t="inlineStr">
         <is>
           <t>3</t>
@@ -39860,31 +39290,23 @@
     <row r="1220">
       <c r="A1220" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1220" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1220" t="inlineStr">
         <is>
-          <t>CPI Trimmed-Mean YoYDEC</t>
+          <t>MBA Mortgage Market IndexJAN/17</t>
         </is>
       </c>
       <c r="D1220" t="inlineStr"/>
-      <c r="E1220" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="E1220" t="inlineStr"/>
       <c r="F1220" t="inlineStr"/>
-      <c r="G1220" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+      <c r="G1220" t="inlineStr"/>
       <c r="H1220" t="inlineStr">
         <is>
           <t>3</t>
@@ -39894,27 +39316,23 @@
     <row r="1221">
       <c r="A1221" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1221" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1221" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMDEC</t>
+          <t>MBA Mortgage Refinance IndexJAN/17</t>
         </is>
       </c>
       <c r="D1221" t="inlineStr"/>
       <c r="E1221" t="inlineStr"/>
       <c r="F1221" t="inlineStr"/>
-      <c r="G1221" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1221" t="inlineStr"/>
       <c r="H1221" t="inlineStr">
         <is>
           <t>3</t>
@@ -39924,7 +39342,7 @@
     <row r="1222">
       <c r="A1222" t="inlineStr">
         <is>
-          <t>08:55 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1222" t="inlineStr">
@@ -39934,7 +39352,7 @@
       </c>
       <c r="C1222" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/18</t>
+          <t>MBA Purchase IndexJAN/17</t>
         </is>
       </c>
       <c r="D1222" t="inlineStr"/>
@@ -39950,23 +39368,31 @@
     <row r="1223">
       <c r="A1223" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1223" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1223" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1223" t="inlineStr"/>
-      <c r="E1223" t="inlineStr"/>
+      <c r="E1223" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="F1223" t="inlineStr"/>
-      <c r="G1223" t="inlineStr"/>
+      <c r="G1223" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1223" t="inlineStr">
         <is>
           <t>3</t>
@@ -39976,23 +39402,31 @@
     <row r="1224">
       <c r="A1224" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1224" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1224" t="inlineStr">
         <is>
-          <t>52-Week Bill Auction</t>
+          <t>Raw Materials Prices MoMDEC</t>
         </is>
       </c>
       <c r="D1224" t="inlineStr"/>
-      <c r="E1224" t="inlineStr"/>
+      <c r="E1224" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
       <c r="F1224" t="inlineStr"/>
-      <c r="G1224" t="inlineStr"/>
+      <c r="G1224" t="inlineStr">
+        <is>
+          <t>1.0%</t>
+        </is>
+      </c>
       <c r="H1224" t="inlineStr">
         <is>
           <t>3</t>
@@ -40002,23 +39436,31 @@
     <row r="1225">
       <c r="A1225" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1225" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1225" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Raw Materials Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1225" t="inlineStr"/>
-      <c r="E1225" t="inlineStr"/>
+      <c r="E1225" t="inlineStr">
+        <is>
+          <t>2%</t>
+        </is>
+      </c>
       <c r="F1225" t="inlineStr"/>
-      <c r="G1225" t="inlineStr"/>
+      <c r="G1225" t="inlineStr">
+        <is>
+          <t>-2.8%</t>
+        </is>
+      </c>
       <c r="H1225" t="inlineStr">
         <is>
           <t>3</t>
@@ -40028,41 +39470,37 @@
     <row r="1226">
       <c r="A1226" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1226" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1226" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>CB Leading Index MoMDEC</t>
         </is>
       </c>
       <c r="D1226" t="inlineStr"/>
       <c r="E1226" t="inlineStr">
         <is>
-          <t>88.4</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F1226" t="inlineStr"/>
-      <c r="G1226" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
+      <c r="G1226" t="inlineStr"/>
       <c r="H1226" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1227">
       <c r="A1227" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1227" t="inlineStr">
@@ -40072,7 +39510,7 @@
       </c>
       <c r="C1227" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/17</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1227" t="inlineStr"/>
@@ -40081,50 +39519,62 @@
       <c r="G1227" t="inlineStr"/>
       <c r="H1227" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1228">
       <c r="A1228" t="inlineStr">
         <is>
-          <t>Wednesday January 22 2025</t>
-        </is>
-      </c>
-      <c r="B1228" t="inlineStr"/>
-      <c r="C1228" t="inlineStr"/>
+          <t>01:00 PM</t>
+        </is>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>20-Year Bond Auction</t>
+        </is>
+      </c>
       <c r="D1228" t="inlineStr"/>
       <c r="E1228" t="inlineStr"/>
       <c r="F1228" t="inlineStr"/>
       <c r="G1228" t="inlineStr"/>
-      <c r="H1228" t="inlineStr"/>
+      <c r="H1228" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1229">
       <c r="A1229" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1229" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1229" t="inlineStr">
         <is>
-          <t>Public Sector Net Borrowing Ex BanksDEC</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1229" t="inlineStr"/>
       <c r="E1229" t="inlineStr">
         <is>
-          <t>£-11.25B</t>
+          <t>127.1%</t>
         </is>
       </c>
       <c r="F1229" t="inlineStr"/>
       <c r="G1229" t="inlineStr">
         <is>
-          <t>£ -11.3B</t>
+          <t>115.0%</t>
         </is>
       </c>
       <c r="H1229" t="inlineStr">
@@ -40136,29 +39586,25 @@
     <row r="1230">
       <c r="A1230" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1230" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1230" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1230" t="inlineStr"/>
-      <c r="E1230" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+      <c r="E1230" t="inlineStr"/>
       <c r="F1230" t="inlineStr"/>
       <c r="G1230" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>60</t>
         </is>
       </c>
       <c r="H1230" t="inlineStr">
@@ -40170,29 +39616,29 @@
     <row r="1231">
       <c r="A1231" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1231" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1231" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>GDP Growth Rate QoQ AdvQ4</t>
         </is>
       </c>
       <c r="D1231" t="inlineStr"/>
       <c r="E1231" t="inlineStr">
         <is>
-          <t>2.9%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F1231" t="inlineStr"/>
       <c r="G1231" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1231" t="inlineStr">
@@ -40204,29 +39650,29 @@
     <row r="1232">
       <c r="A1232" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1232" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1232" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>GDP Growth Rate YoY AdvQ4</t>
         </is>
       </c>
       <c r="D1232" t="inlineStr"/>
       <c r="E1232" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="F1232" t="inlineStr"/>
       <c r="G1232" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H1232" t="inlineStr">
@@ -40238,91 +39684,87 @@
     <row r="1233">
       <c r="A1233" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1233" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1233" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMDEC</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D1233" t="inlineStr"/>
       <c r="E1233" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>¥-117.6B</t>
         </is>
       </c>
       <c r="F1233" t="inlineStr"/>
       <c r="G1233" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>¥ 100B</t>
         </is>
       </c>
       <c r="H1233" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1234">
       <c r="A1234" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1234" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1234" t="inlineStr">
         <is>
-          <t>15-Year Bund Auction</t>
+          <t>Exports YoYDEC</t>
         </is>
       </c>
       <c r="D1234" t="inlineStr"/>
-      <c r="E1234" t="inlineStr"/>
+      <c r="E1234" t="inlineStr">
+        <is>
+          <t>3.8%</t>
+        </is>
+      </c>
       <c r="F1234" t="inlineStr"/>
       <c r="G1234" t="inlineStr"/>
       <c r="H1234" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1235">
       <c r="A1235" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1235" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1235" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>Foreign Bond InvestmentJAN/18</t>
         </is>
       </c>
       <c r="D1235" t="inlineStr"/>
-      <c r="E1235" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+      <c r="E1235" t="inlineStr"/>
       <c r="F1235" t="inlineStr"/>
-      <c r="G1235" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G1235" t="inlineStr"/>
       <c r="H1235" t="inlineStr">
         <is>
           <t>3</t>
@@ -40332,23 +39774,23 @@
     <row r="1236">
       <c r="A1236" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1236" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1236" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>Imports YoYDEC</t>
         </is>
       </c>
       <c r="D1236" t="inlineStr"/>
       <c r="E1236" t="inlineStr">
         <is>
-          <t>6.3%</t>
+          <t>-3.8%</t>
         </is>
       </c>
       <c r="F1236" t="inlineStr"/>
@@ -40362,17 +39804,17 @@
     <row r="1237">
       <c r="A1237" t="inlineStr">
         <is>
-          <t>06:10 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1237" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1237" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Stock Investment by ForeignersJAN/18</t>
         </is>
       </c>
       <c r="D1237" t="inlineStr"/>
@@ -40388,49 +39830,57 @@
     <row r="1238">
       <c r="A1238" t="inlineStr">
         <is>
-          <t>06:10 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1238" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1238" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>NAB Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D1238" t="inlineStr"/>
-      <c r="E1238" t="inlineStr"/>
+      <c r="E1238" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
       <c r="F1238" t="inlineStr"/>
-      <c r="G1238" t="inlineStr"/>
+      <c r="G1238" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="H1238" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1239">
       <c r="A1239" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1239" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C1239" t="inlineStr">
         <is>
-          <t>M3 Money Supply YoYJAN/10</t>
+          <t>M2 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D1239" t="inlineStr"/>
       <c r="E1239" t="inlineStr">
         <is>
-          <t>9.3%</t>
+          <t>7%</t>
         </is>
       </c>
       <c r="F1239" t="inlineStr"/>
@@ -40444,17 +39894,17 @@
     <row r="1240">
       <c r="A1240" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B1240" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1240" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJAN/17</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1240" t="inlineStr"/>
@@ -40463,54 +39913,46 @@
       <c r="G1240" t="inlineStr"/>
       <c r="H1240" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1241">
       <c r="A1241" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1241" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1241" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsJAN/17</t>
-        </is>
-      </c>
+          <t>Thursday January 23 2025</t>
+        </is>
+      </c>
+      <c r="B1241" t="inlineStr"/>
+      <c r="C1241" t="inlineStr"/>
       <c r="D1241" t="inlineStr"/>
       <c r="E1241" t="inlineStr"/>
       <c r="F1241" t="inlineStr"/>
       <c r="G1241" t="inlineStr"/>
-      <c r="H1241" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1241" t="inlineStr"/>
     </row>
     <row r="1242">
       <c r="A1242" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1242" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1242" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJAN/17</t>
+          <t>1-Year T-Bill Auction</t>
         </is>
       </c>
       <c r="D1242" t="inlineStr"/>
-      <c r="E1242" t="inlineStr"/>
+      <c r="E1242" t="inlineStr">
+        <is>
+          <t>2.71%</t>
+        </is>
+      </c>
       <c r="F1242" t="inlineStr"/>
       <c r="G1242" t="inlineStr"/>
       <c r="H1242" t="inlineStr">
@@ -40522,23 +39964,31 @@
     <row r="1243">
       <c r="A1243" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1243" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1243" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexJAN/17</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1243" t="inlineStr"/>
-      <c r="E1243" t="inlineStr"/>
+      <c r="E1243" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
       <c r="F1243" t="inlineStr"/>
-      <c r="G1243" t="inlineStr"/>
+      <c r="G1243" t="inlineStr">
+        <is>
+          <t>2.5%</t>
+        </is>
+      </c>
       <c r="H1243" t="inlineStr">
         <is>
           <t>3</t>
@@ -40548,23 +39998,31 @@
     <row r="1244">
       <c r="A1244" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1244" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1244" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexJAN/17</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1244" t="inlineStr"/>
-      <c r="E1244" t="inlineStr"/>
+      <c r="E1244" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
       <c r="F1244" t="inlineStr"/>
-      <c r="G1244" t="inlineStr"/>
+      <c r="G1244" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1244" t="inlineStr">
         <is>
           <t>3</t>
@@ -40574,29 +40032,29 @@
     <row r="1245">
       <c r="A1245" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1245" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1245" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1245" t="inlineStr"/>
       <c r="E1245" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F1245" t="inlineStr"/>
       <c r="G1245" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="H1245" t="inlineStr">
@@ -40608,31 +40066,27 @@
     <row r="1246">
       <c r="A1246" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1246" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1246" t="inlineStr">
         <is>
-          <t>Raw Materials Prices MoMDEC</t>
+          <t>Leading Business Cycle Indicator MoMNOV</t>
         </is>
       </c>
       <c r="D1246" t="inlineStr"/>
       <c r="E1246" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="F1246" t="inlineStr"/>
-      <c r="G1246" t="inlineStr">
-        <is>
-          <t>1.0%</t>
-        </is>
-      </c>
+      <c r="G1246" t="inlineStr"/>
       <c r="H1246" t="inlineStr">
         <is>
           <t>3</t>
@@ -40642,85 +40096,85 @@
     <row r="1247">
       <c r="A1247" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1247" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1247" t="inlineStr">
         <is>
-          <t>Raw Materials Prices YoYDEC</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1247" t="inlineStr"/>
       <c r="E1247" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>81.3</t>
         </is>
       </c>
       <c r="F1247" t="inlineStr"/>
-      <c r="G1247" t="inlineStr">
-        <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
+      <c r="G1247" t="inlineStr"/>
       <c r="H1247" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1248">
       <c r="A1248" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B1248" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1248" t="inlineStr">
         <is>
-          <t>CB Leading Index MoMDEC</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1248" t="inlineStr"/>
       <c r="E1248" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>97</t>
         </is>
       </c>
       <c r="F1248" t="inlineStr"/>
       <c r="G1248" t="inlineStr"/>
       <c r="H1248" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1249">
       <c r="A1249" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B1249" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1249" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>Business Climate IndicatorJAN</t>
         </is>
       </c>
       <c r="D1249" t="inlineStr"/>
-      <c r="E1249" t="inlineStr"/>
+      <c r="E1249" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
       <c r="F1249" t="inlineStr"/>
       <c r="G1249" t="inlineStr"/>
       <c r="H1249" t="inlineStr">
@@ -40730,686 +40184,26 @@
       </c>
     </row>
     <row r="1250">
-      <c r="A1250" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
+      <c r="A1250" t="inlineStr"/>
       <c r="B1250" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1250" t="inlineStr">
         <is>
-          <t>20-Year Bond Auction</t>
+          <t>20-Year KTB Auction</t>
         </is>
       </c>
       <c r="D1250" t="inlineStr"/>
-      <c r="E1250" t="inlineStr"/>
+      <c r="E1250" t="inlineStr">
+        <is>
+          <t>2.750%</t>
+        </is>
+      </c>
       <c r="F1250" t="inlineStr"/>
       <c r="G1250" t="inlineStr"/>
       <c r="H1250" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1251">
-      <c r="A1251" t="inlineStr">
-        <is>
-          <t>02:00 PM</t>
-        </is>
-      </c>
-      <c r="B1251" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C1251" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYNOV</t>
-        </is>
-      </c>
-      <c r="D1251" t="inlineStr"/>
-      <c r="E1251" t="inlineStr">
-        <is>
-          <t>127.1%</t>
-        </is>
-      </c>
-      <c r="F1251" t="inlineStr"/>
-      <c r="G1251" t="inlineStr">
-        <is>
-          <t>115.0%</t>
-        </is>
-      </c>
-      <c r="H1251" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1252">
-      <c r="A1252" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B1252" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C1252" t="inlineStr">
-        <is>
-          <t>Business ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D1252" t="inlineStr"/>
-      <c r="E1252" t="inlineStr"/>
-      <c r="F1252" t="inlineStr"/>
-      <c r="G1252" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="H1252" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1253">
-      <c r="A1253" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1253" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C1253" t="inlineStr">
-        <is>
-          <t>GDP Growth Rate QoQ AdvQ4</t>
-        </is>
-      </c>
-      <c r="D1253" t="inlineStr"/>
-      <c r="E1253" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F1253" t="inlineStr"/>
-      <c r="G1253" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H1253" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1254">
-      <c r="A1254" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1254" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C1254" t="inlineStr">
-        <is>
-          <t>GDP Growth Rate YoY AdvQ4</t>
-        </is>
-      </c>
-      <c r="D1254" t="inlineStr"/>
-      <c r="E1254" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="F1254" t="inlineStr"/>
-      <c r="G1254" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
-      <c r="H1254" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1255">
-      <c r="A1255" t="inlineStr">
-        <is>
-          <t>06:50 PM</t>
-        </is>
-      </c>
-      <c r="B1255" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C1255" t="inlineStr">
-        <is>
-          <t>Balance of TradeDEC</t>
-        </is>
-      </c>
-      <c r="D1255" t="inlineStr"/>
-      <c r="E1255" t="inlineStr">
-        <is>
-          <t>¥-117.6B</t>
-        </is>
-      </c>
-      <c r="F1255" t="inlineStr"/>
-      <c r="G1255" t="inlineStr">
-        <is>
-          <t>¥ 100B</t>
-        </is>
-      </c>
-      <c r="H1255" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1256">
-      <c r="A1256" t="inlineStr">
-        <is>
-          <t>06:50 PM</t>
-        </is>
-      </c>
-      <c r="B1256" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C1256" t="inlineStr">
-        <is>
-          <t>Exports YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1256" t="inlineStr"/>
-      <c r="E1256" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
-      <c r="F1256" t="inlineStr"/>
-      <c r="G1256" t="inlineStr"/>
-      <c r="H1256" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1257">
-      <c r="A1257" t="inlineStr">
-        <is>
-          <t>06:50 PM</t>
-        </is>
-      </c>
-      <c r="B1257" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C1257" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentJAN/18</t>
-        </is>
-      </c>
-      <c r="D1257" t="inlineStr"/>
-      <c r="E1257" t="inlineStr"/>
-      <c r="F1257" t="inlineStr"/>
-      <c r="G1257" t="inlineStr"/>
-      <c r="H1257" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1258">
-      <c r="A1258" t="inlineStr">
-        <is>
-          <t>06:50 PM</t>
-        </is>
-      </c>
-      <c r="B1258" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C1258" t="inlineStr">
-        <is>
-          <t>Imports YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1258" t="inlineStr"/>
-      <c r="E1258" t="inlineStr">
-        <is>
-          <t>-3.8%</t>
-        </is>
-      </c>
-      <c r="F1258" t="inlineStr"/>
-      <c r="G1258" t="inlineStr"/>
-      <c r="H1258" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1259">
-      <c r="A1259" t="inlineStr">
-        <is>
-          <t>06:50 PM</t>
-        </is>
-      </c>
-      <c r="B1259" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C1259" t="inlineStr">
-        <is>
-          <t>Stock Investment by ForeignersJAN/18</t>
-        </is>
-      </c>
-      <c r="D1259" t="inlineStr"/>
-      <c r="E1259" t="inlineStr"/>
-      <c r="F1259" t="inlineStr"/>
-      <c r="G1259" t="inlineStr"/>
-      <c r="H1259" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1260">
-      <c r="A1260" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1260" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1260" t="inlineStr">
-        <is>
-          <t>NAB Business ConfidenceDEC</t>
-        </is>
-      </c>
-      <c r="D1260" t="inlineStr"/>
-      <c r="E1260" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="F1260" t="inlineStr"/>
-      <c r="G1260" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H1260" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1261">
-      <c r="A1261" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B1261" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="C1261" t="inlineStr">
-        <is>
-          <t>M2 Money Supply YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1261" t="inlineStr"/>
-      <c r="E1261" t="inlineStr">
-        <is>
-          <t>7%</t>
-        </is>
-      </c>
-      <c r="F1261" t="inlineStr"/>
-      <c r="G1261" t="inlineStr"/>
-      <c r="H1261" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1262">
-      <c r="A1262" t="inlineStr">
-        <is>
-          <t>10:35 PM</t>
-        </is>
-      </c>
-      <c r="B1262" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C1262" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1262" t="inlineStr"/>
-      <c r="E1262" t="inlineStr"/>
-      <c r="F1262" t="inlineStr"/>
-      <c r="G1262" t="inlineStr"/>
-      <c r="H1262" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1263">
-      <c r="A1263" t="inlineStr">
-        <is>
-          <t>Thursday January 23 2025</t>
-        </is>
-      </c>
-      <c r="B1263" t="inlineStr"/>
-      <c r="C1263" t="inlineStr"/>
-      <c r="D1263" t="inlineStr"/>
-      <c r="E1263" t="inlineStr"/>
-      <c r="F1263" t="inlineStr"/>
-      <c r="G1263" t="inlineStr"/>
-      <c r="H1263" t="inlineStr"/>
-    </row>
-    <row r="1264">
-      <c r="A1264" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B1264" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C1264" t="inlineStr">
-        <is>
-          <t>1-Year T-Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1264" t="inlineStr"/>
-      <c r="E1264" t="inlineStr">
-        <is>
-          <t>2.71%</t>
-        </is>
-      </c>
-      <c r="F1264" t="inlineStr"/>
-      <c r="G1264" t="inlineStr"/>
-      <c r="H1264" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1265">
-      <c r="A1265" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B1265" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C1265" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1265" t="inlineStr"/>
-      <c r="E1265" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="F1265" t="inlineStr"/>
-      <c r="G1265" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="H1265" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1266">
-      <c r="A1266" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B1266" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C1266" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1266" t="inlineStr"/>
-      <c r="E1266" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="F1266" t="inlineStr"/>
-      <c r="G1266" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H1266" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1267">
-      <c r="A1267" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B1267" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C1267" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1267" t="inlineStr"/>
-      <c r="E1267" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="F1267" t="inlineStr"/>
-      <c r="G1267" t="inlineStr">
-        <is>
-          <t>1.8%</t>
-        </is>
-      </c>
-      <c r="H1267" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1268">
-      <c r="A1268" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1268" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1268" t="inlineStr">
-        <is>
-          <t>Leading Business Cycle Indicator MoMNOV</t>
-        </is>
-      </c>
-      <c r="D1268" t="inlineStr"/>
-      <c r="E1268" t="inlineStr">
-        <is>
-          <t>1.1%</t>
-        </is>
-      </c>
-      <c r="F1268" t="inlineStr"/>
-      <c r="G1268" t="inlineStr"/>
-      <c r="H1268" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1269">
-      <c r="A1269" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1269" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C1269" t="inlineStr">
-        <is>
-          <t>Consumer ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D1269" t="inlineStr"/>
-      <c r="E1269" t="inlineStr">
-        <is>
-          <t>81.3</t>
-        </is>
-      </c>
-      <c r="F1269" t="inlineStr"/>
-      <c r="G1269" t="inlineStr"/>
-      <c r="H1269" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1270">
-      <c r="A1270" t="inlineStr">
-        <is>
-          <t>02:45 AM</t>
-        </is>
-      </c>
-      <c r="B1270" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C1270" t="inlineStr">
-        <is>
-          <t>Business ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D1270" t="inlineStr"/>
-      <c r="E1270" t="inlineStr">
-        <is>
-          <t>97</t>
-        </is>
-      </c>
-      <c r="F1270" t="inlineStr"/>
-      <c r="G1270" t="inlineStr"/>
-      <c r="H1270" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1271">
-      <c r="A1271" t="inlineStr">
-        <is>
-          <t>02:45 AM</t>
-        </is>
-      </c>
-      <c r="B1271" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C1271" t="inlineStr">
-        <is>
-          <t>Business Climate IndicatorJAN</t>
-        </is>
-      </c>
-      <c r="D1271" t="inlineStr"/>
-      <c r="E1271" t="inlineStr">
-        <is>
-          <t>94</t>
-        </is>
-      </c>
-      <c r="F1271" t="inlineStr"/>
-      <c r="G1271" t="inlineStr"/>
-      <c r="H1271" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1272">
-      <c r="A1272" t="inlineStr"/>
-      <c r="B1272" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C1272" t="inlineStr">
-        <is>
-          <t>20-Year KTB Auction</t>
-        </is>
-      </c>
-      <c r="D1272" t="inlineStr"/>
-      <c r="E1272" t="inlineStr">
-        <is>
-          <t>2.750%</t>
-        </is>
-      </c>
-      <c r="F1272" t="inlineStr"/>
-      <c r="G1272" t="inlineStr"/>
-      <c r="H1272" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-23.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1250"/>
+  <dimension ref="A1:H1230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36541,10 +36541,8 @@
           <t>-0.9%</t>
         </is>
       </c>
-      <c r="H1127" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1127" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1128">
@@ -36575,10 +36573,8 @@
           <t>2%</t>
         </is>
       </c>
-      <c r="H1128" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1128" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1129">
@@ -36613,10 +36609,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1129" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1129" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1130">
@@ -36651,10 +36645,8 @@
           <t>76.9%</t>
         </is>
       </c>
-      <c r="H1130" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1130" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1131">
@@ -36685,10 +36677,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H1131" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1131" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1132">
@@ -36719,10 +36709,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1132" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1132" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1133">
@@ -36753,10 +36741,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H1133" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1133" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1134">
@@ -36783,10 +36769,8 @@
       </c>
       <c r="F1134" t="inlineStr"/>
       <c r="G1134" t="inlineStr"/>
-      <c r="H1134" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1134" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1135">
@@ -36813,10 +36797,8 @@
       </c>
       <c r="F1135" t="inlineStr"/>
       <c r="G1135" t="inlineStr"/>
-      <c r="H1135" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1135" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1136">
@@ -36843,10 +36825,8 @@
       </c>
       <c r="F1136" t="inlineStr"/>
       <c r="G1136" t="inlineStr"/>
-      <c r="H1136" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1136" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1137">
@@ -36873,10 +36853,8 @@
       </c>
       <c r="F1137" t="inlineStr"/>
       <c r="G1137" t="inlineStr"/>
-      <c r="H1137" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1137" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1138">
@@ -36903,10 +36881,8 @@
       </c>
       <c r="F1138" t="inlineStr"/>
       <c r="G1138" t="inlineStr"/>
-      <c r="H1138" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1138" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1139">
@@ -36929,10 +36905,8 @@
       </c>
       <c r="F1139" t="inlineStr"/>
       <c r="G1139" t="inlineStr"/>
-      <c r="H1139" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1139" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1140">
@@ -36977,10 +36951,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1141" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1141" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1142">
@@ -37011,10 +36983,8 @@
           <t>5%</t>
         </is>
       </c>
-      <c r="H1142" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1142" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1143">
@@ -37041,10 +37011,8 @@
       </c>
       <c r="F1143" t="inlineStr"/>
       <c r="G1143" t="inlineStr"/>
-      <c r="H1143" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1143" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1144">
@@ -37071,10 +37039,8 @@
       </c>
       <c r="F1144" t="inlineStr"/>
       <c r="G1144" t="inlineStr"/>
-      <c r="H1144" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1144" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1145">
@@ -37101,10 +37067,8 @@
       </c>
       <c r="F1145" t="inlineStr"/>
       <c r="G1145" t="inlineStr"/>
-      <c r="H1145" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1145" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1146">
@@ -37139,10 +37103,8 @@
           <t>-2.3%</t>
         </is>
       </c>
-      <c r="H1146" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1146" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1147">
@@ -37173,10 +37135,8 @@
           <t>-2.8%</t>
         </is>
       </c>
-      <c r="H1147" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1147" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1148">
@@ -37203,10 +37163,8 @@
       </c>
       <c r="F1148" t="inlineStr"/>
       <c r="G1148" t="inlineStr"/>
-      <c r="H1148" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1148" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1149">
@@ -37225,88 +37183,86 @@
       <c r="E1149" t="inlineStr"/>
       <c r="F1149" t="inlineStr"/>
       <c r="G1149" t="inlineStr"/>
-      <c r="H1149" t="inlineStr">
+      <c r="H1149" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1150">
+      <c r="A1150" t="inlineStr"/>
+      <c r="B1150" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C1150" t="inlineStr">
+        <is>
+          <t>Leading Indicator MoMDEC</t>
+        </is>
+      </c>
+      <c r="D1150" t="inlineStr"/>
+      <c r="E1150" t="inlineStr">
+        <is>
+          <t>1.44%</t>
+        </is>
+      </c>
+      <c r="F1150" t="inlineStr"/>
+      <c r="G1150" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
+      <c r="H1150" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
-    <row r="1150">
-      <c r="A1150" t="inlineStr">
-        <is>
-          <t>Monday January 20 2025</t>
-        </is>
-      </c>
-      <c r="B1150" t="inlineStr"/>
-      <c r="C1150" t="inlineStr"/>
-      <c r="D1150" t="inlineStr"/>
-      <c r="E1150" t="inlineStr"/>
-      <c r="F1150" t="inlineStr"/>
-      <c r="G1150" t="inlineStr"/>
-      <c r="H1150" t="inlineStr"/>
-    </row>
     <row r="1151">
-      <c r="A1151" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
+      <c r="A1151" t="inlineStr"/>
       <c r="B1151" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1151" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Central Government DebtDEC</t>
         </is>
       </c>
       <c r="D1151" t="inlineStr"/>
       <c r="E1151" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>TRY9.005T</t>
         </is>
       </c>
       <c r="F1151" t="inlineStr"/>
       <c r="G1151" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>TRY 9.0T</t>
         </is>
       </c>
       <c r="H1151" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1152">
-      <c r="A1152" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
+      <c r="A1152" t="inlineStr"/>
       <c r="B1152" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1152" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>ECOFIN Meeting</t>
         </is>
       </c>
       <c r="D1152" t="inlineStr"/>
-      <c r="E1152" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="E1152" t="inlineStr"/>
       <c r="F1152" t="inlineStr"/>
-      <c r="G1152" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
+      <c r="G1152" t="inlineStr"/>
       <c r="H1152" t="inlineStr">
         <is>
           <t>3</t>
@@ -37316,59 +37272,35 @@
     <row r="1153">
       <c r="A1153" t="inlineStr">
         <is>
-          <t>04:15 AM</t>
-        </is>
-      </c>
-      <c r="B1153" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1153" t="inlineStr">
-        <is>
-          <t>Construction Output YoYNOV</t>
-        </is>
-      </c>
+          <t>Tuesday January 21 2025</t>
+        </is>
+      </c>
+      <c r="B1153" t="inlineStr"/>
+      <c r="C1153" t="inlineStr"/>
       <c r="D1153" t="inlineStr"/>
-      <c r="E1153" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
+      <c r="E1153" t="inlineStr"/>
       <c r="F1153" t="inlineStr"/>
-      <c r="G1153" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="H1153" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1153" t="inlineStr"/>
+      <c r="H1153" t="inlineStr"/>
     </row>
     <row r="1154">
       <c r="A1154" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1154" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1154" t="inlineStr">
         <is>
-          <t>Construction Output YoYNOV</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1154" t="inlineStr"/>
-      <c r="E1154" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1154" t="inlineStr"/>
       <c r="F1154" t="inlineStr"/>
       <c r="G1154" t="inlineStr"/>
       <c r="H1154" t="inlineStr">
@@ -37380,17 +37312,17 @@
     <row r="1155">
       <c r="A1155" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1155" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1155" t="inlineStr">
         <is>
-          <t>3-Month Bubill Auction</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1155" t="inlineStr"/>
@@ -37406,139 +37338,159 @@
     <row r="1156">
       <c r="A1156" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1156" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1156" t="inlineStr">
         <is>
-          <t>9-Month Bubill Auction</t>
+          <t>New Car Registrations YoYDEC</t>
         </is>
       </c>
       <c r="D1156" t="inlineStr"/>
-      <c r="E1156" t="inlineStr"/>
+      <c r="E1156" t="inlineStr">
+        <is>
+          <t>-1.9%</t>
+        </is>
+      </c>
       <c r="F1156" t="inlineStr"/>
       <c r="G1156" t="inlineStr"/>
       <c r="H1156" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1157">
       <c r="A1157" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1157" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1157" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Unemployment RateNOV</t>
         </is>
       </c>
       <c r="D1157" t="inlineStr"/>
       <c r="E1157" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F1157" t="inlineStr"/>
-      <c r="G1157" t="inlineStr"/>
+      <c r="G1157" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="H1157" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1158">
       <c r="A1158" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1158" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1158" t="inlineStr">
         <is>
-          <t>Current AccountQ4</t>
+          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D1158" t="inlineStr"/>
       <c r="E1158" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F1158" t="inlineStr"/>
       <c r="G1158" t="inlineStr">
         <is>
-          <t>$ 10B</t>
+          <t>4.9%</t>
         </is>
       </c>
       <c r="H1158" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1159">
       <c r="A1159" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1159" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1159" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>Employment ChangeNOV</t>
         </is>
       </c>
       <c r="D1159" t="inlineStr"/>
-      <c r="E1159" t="inlineStr"/>
+      <c r="E1159" t="inlineStr">
+        <is>
+          <t>173K</t>
+        </is>
+      </c>
       <c r="F1159" t="inlineStr"/>
       <c r="G1159" t="inlineStr"/>
       <c r="H1159" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1160">
       <c r="A1160" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1160" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1160" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D1160" t="inlineStr"/>
-      <c r="E1160" t="inlineStr"/>
+      <c r="E1160" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="F1160" t="inlineStr"/>
-      <c r="G1160" t="inlineStr"/>
+      <c r="G1160" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
       <c r="H1160" t="inlineStr">
         <is>
           <t>3</t>
@@ -37548,23 +37500,31 @@
     <row r="1161">
       <c r="A1161" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1161" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1161" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>Claimant Count ChangeDEC</t>
         </is>
       </c>
       <c r="D1161" t="inlineStr"/>
-      <c r="E1161" t="inlineStr"/>
+      <c r="E1161" t="inlineStr">
+        <is>
+          <t>0.3K</t>
+        </is>
+      </c>
       <c r="F1161" t="inlineStr"/>
-      <c r="G1161" t="inlineStr"/>
+      <c r="G1161" t="inlineStr">
+        <is>
+          <t>-5K</t>
+        </is>
+      </c>
       <c r="H1161" t="inlineStr">
         <is>
           <t>3</t>
@@ -37574,57 +37534,61 @@
     <row r="1162">
       <c r="A1162" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1162" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1162" t="inlineStr">
         <is>
-          <t>BoC Business Outlook Survey</t>
+          <t>HMRC Payrolls ChangeDEC</t>
         </is>
       </c>
       <c r="D1162" t="inlineStr"/>
-      <c r="E1162" t="inlineStr"/>
+      <c r="E1162" t="inlineStr">
+        <is>
+          <t>-35K</t>
+        </is>
+      </c>
       <c r="F1162" t="inlineStr"/>
-      <c r="G1162" t="inlineStr"/>
+      <c r="G1162" t="inlineStr">
+        <is>
+          <t>20K</t>
+        </is>
+      </c>
       <c r="H1162" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1163">
       <c r="A1163" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1163" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1163" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Gold Production YoYNOV</t>
         </is>
       </c>
       <c r="D1163" t="inlineStr"/>
       <c r="E1163" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>-3.4%</t>
         </is>
       </c>
       <c r="F1163" t="inlineStr"/>
-      <c r="G1163" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G1163" t="inlineStr"/>
       <c r="H1163" t="inlineStr">
         <is>
           <t>3</t>
@@ -37634,31 +37598,27 @@
     <row r="1164">
       <c r="A1164" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1164" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1164" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Mining Production MoMNOV</t>
         </is>
       </c>
       <c r="D1164" t="inlineStr"/>
       <c r="E1164" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F1164" t="inlineStr"/>
-      <c r="G1164" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
+      <c r="G1164" t="inlineStr"/>
       <c r="H1164" t="inlineStr">
         <is>
           <t>3</t>
@@ -37668,31 +37628,27 @@
     <row r="1165">
       <c r="A1165" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1165" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1165" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Mining Production YoYNOV</t>
         </is>
       </c>
       <c r="D1165" t="inlineStr"/>
       <c r="E1165" t="inlineStr">
         <is>
-          <t>$1234M</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F1165" t="inlineStr"/>
-      <c r="G1165" t="inlineStr">
-        <is>
-          <t>$ 1463M</t>
-        </is>
-      </c>
+      <c r="G1165" t="inlineStr"/>
       <c r="H1165" t="inlineStr">
         <is>
           <t>3</t>
@@ -37702,87 +37658,83 @@
     <row r="1166">
       <c r="A1166" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1166" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1166" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D1166" t="inlineStr"/>
-      <c r="E1166" t="inlineStr"/>
+      <c r="E1166" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
       <c r="F1166" t="inlineStr"/>
-      <c r="G1166" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G1166" t="inlineStr"/>
       <c r="H1166" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1167">
       <c r="A1167" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1167" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1167" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D1167" t="inlineStr"/>
       <c r="E1167" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>15.7</t>
         </is>
       </c>
       <c r="F1167" t="inlineStr"/>
-      <c r="G1167" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="G1167" t="inlineStr"/>
       <c r="H1167" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1168">
       <c r="A1168" t="inlineStr">
         <is>
-          <t>10:35 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1168" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1168" t="inlineStr">
         <is>
-          <t>40-Year JGB Auction</t>
+          <t>ZEW Current ConditionsJAN</t>
         </is>
       </c>
       <c r="D1168" t="inlineStr"/>
       <c r="E1168" t="inlineStr">
         <is>
-          <t>2.550%</t>
+          <t>-93.1</t>
         </is>
       </c>
       <c r="F1168" t="inlineStr"/>
@@ -37794,23 +37746,23 @@
       </c>
     </row>
     <row r="1169">
-      <c r="A1169" t="inlineStr"/>
+      <c r="A1169" t="inlineStr">
+        <is>
+          <t>05:30 AM</t>
+        </is>
+      </c>
       <c r="B1169" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1169" t="inlineStr">
         <is>
-          <t>10-Year KTB Auction</t>
+          <t>Bund/g Auction</t>
         </is>
       </c>
       <c r="D1169" t="inlineStr"/>
-      <c r="E1169" t="inlineStr">
-        <is>
-          <t>2.665%</t>
-        </is>
-      </c>
+      <c r="E1169" t="inlineStr"/>
       <c r="F1169" t="inlineStr"/>
       <c r="G1169" t="inlineStr"/>
       <c r="H1169" t="inlineStr">
@@ -37820,21 +37772,25 @@
       </c>
     </row>
     <row r="1170">
-      <c r="A1170" t="inlineStr"/>
+      <c r="A1170" t="inlineStr">
+        <is>
+          <t>07:00 AM</t>
+        </is>
+      </c>
       <c r="B1170" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1170" t="inlineStr">
         <is>
-          <t>FDI (YTD) YoYDEC</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D1170" t="inlineStr"/>
       <c r="E1170" t="inlineStr">
         <is>
-          <t>-27.9%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F1170" t="inlineStr"/>
@@ -37846,25 +37802,29 @@
       </c>
     </row>
     <row r="1171">
-      <c r="A1171" t="inlineStr"/>
+      <c r="A1171" t="inlineStr">
+        <is>
+          <t>07:00 AM</t>
+        </is>
+      </c>
       <c r="B1171" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1171" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceDEC</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1171" t="inlineStr"/>
-      <c r="E1171" t="inlineStr"/>
+      <c r="E1171" t="inlineStr">
+        <is>
+          <t>-1.2%</t>
+        </is>
+      </c>
       <c r="F1171" t="inlineStr"/>
-      <c r="G1171" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
+      <c r="G1171" t="inlineStr"/>
       <c r="H1171" t="inlineStr">
         <is>
           <t>3</t>
@@ -37872,121 +37832,165 @@
       </c>
     </row>
     <row r="1172">
-      <c r="A1172" t="inlineStr"/>
+      <c r="A1172" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B1172" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1172" t="inlineStr">
         <is>
-          <t>Leading Indicator MoMDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1172" t="inlineStr"/>
       <c r="E1172" t="inlineStr">
         <is>
-          <t>1.44%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="F1172" t="inlineStr"/>
       <c r="G1172" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="H1172" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1173">
-      <c r="A1173" t="inlineStr"/>
+      <c r="A1173" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B1173" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1173" t="inlineStr">
         <is>
-          <t>Central Government DebtDEC</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1173" t="inlineStr"/>
       <c r="E1173" t="inlineStr">
         <is>
-          <t>TRY9.005T</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F1173" t="inlineStr"/>
       <c r="G1173" t="inlineStr">
         <is>
-          <t>TRY 9.0T</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="H1173" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1174">
-      <c r="A1174" t="inlineStr"/>
+      <c r="A1174" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B1174" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1174" t="inlineStr">
         <is>
-          <t>ECOFIN Meeting</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1174" t="inlineStr"/>
-      <c r="E1174" t="inlineStr"/>
+      <c r="E1174" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="F1174" t="inlineStr"/>
-      <c r="G1174" t="inlineStr"/>
+      <c r="G1174" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1174" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1175">
       <c r="A1175" t="inlineStr">
         <is>
-          <t>Tuesday January 21 2025</t>
-        </is>
-      </c>
-      <c r="B1175" t="inlineStr"/>
-      <c r="C1175" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B1175" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C1175" t="inlineStr">
+        <is>
+          <t>Core Inflation Rate MoMDEC</t>
+        </is>
+      </c>
       <c r="D1175" t="inlineStr"/>
       <c r="E1175" t="inlineStr"/>
       <c r="F1175" t="inlineStr"/>
-      <c r="G1175" t="inlineStr"/>
-      <c r="H1175" t="inlineStr"/>
+      <c r="G1175" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="H1175" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1176">
       <c r="A1176" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1176" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1176" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>CPI Median YoYDEC</t>
         </is>
       </c>
       <c r="D1176" t="inlineStr"/>
-      <c r="E1176" t="inlineStr"/>
+      <c r="E1176" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="F1176" t="inlineStr"/>
-      <c r="G1176" t="inlineStr"/>
+      <c r="G1176" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
       <c r="H1176" t="inlineStr">
         <is>
           <t>3</t>
@@ -37996,23 +38000,31 @@
     <row r="1177">
       <c r="A1177" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1177" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1177" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>CPI Trimmed-Mean YoYDEC</t>
         </is>
       </c>
       <c r="D1177" t="inlineStr"/>
-      <c r="E1177" t="inlineStr"/>
+      <c r="E1177" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="F1177" t="inlineStr"/>
-      <c r="G1177" t="inlineStr"/>
+      <c r="G1177" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H1177" t="inlineStr">
         <is>
           <t>3</t>
@@ -38022,257 +38034,209 @@
     <row r="1178">
       <c r="A1178" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:55 AM</t>
         </is>
       </c>
       <c r="B1178" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1178" t="inlineStr">
         <is>
-          <t>New Car Registrations YoYDEC</t>
+          <t>Redbook YoYJAN/18</t>
         </is>
       </c>
       <c r="D1178" t="inlineStr"/>
-      <c r="E1178" t="inlineStr">
-        <is>
-          <t>-1.9%</t>
-        </is>
-      </c>
+      <c r="E1178" t="inlineStr"/>
       <c r="F1178" t="inlineStr"/>
       <c r="G1178" t="inlineStr"/>
       <c r="H1178" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1179">
       <c r="A1179" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1179" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1179" t="inlineStr">
         <is>
-          <t>Unemployment RateNOV</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1179" t="inlineStr"/>
-      <c r="E1179" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="E1179" t="inlineStr"/>
       <c r="F1179" t="inlineStr"/>
-      <c r="G1179" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="G1179" t="inlineStr"/>
       <c r="H1179" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1180">
       <c r="A1180" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1180" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1180" t="inlineStr">
         <is>
-          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
+          <t>52-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1180" t="inlineStr"/>
-      <c r="E1180" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="E1180" t="inlineStr"/>
       <c r="F1180" t="inlineStr"/>
-      <c r="G1180" t="inlineStr">
-        <is>
-          <t>4.9%</t>
-        </is>
-      </c>
+      <c r="G1180" t="inlineStr"/>
       <c r="H1180" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1181">
       <c r="A1181" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1181" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1181" t="inlineStr">
         <is>
-          <t>Employment ChangeNOV</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1181" t="inlineStr"/>
-      <c r="E1181" t="inlineStr">
-        <is>
-          <t>173K</t>
-        </is>
-      </c>
+      <c r="E1181" t="inlineStr"/>
       <c r="F1181" t="inlineStr"/>
       <c r="G1181" t="inlineStr"/>
       <c r="H1181" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1182">
       <c r="A1182" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1182" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1182" t="inlineStr">
         <is>
-          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1182" t="inlineStr"/>
       <c r="E1182" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>88.4</t>
         </is>
       </c>
       <c r="F1182" t="inlineStr"/>
       <c r="G1182" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H1182" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1183">
       <c r="A1183" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1183" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1183" t="inlineStr">
         <is>
-          <t>Claimant Count ChangeDEC</t>
+          <t>API Crude Oil Stock ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1183" t="inlineStr"/>
-      <c r="E1183" t="inlineStr">
-        <is>
-          <t>0.3K</t>
-        </is>
-      </c>
+      <c r="E1183" t="inlineStr"/>
       <c r="F1183" t="inlineStr"/>
-      <c r="G1183" t="inlineStr">
-        <is>
-          <t>-5K</t>
-        </is>
-      </c>
+      <c r="G1183" t="inlineStr"/>
       <c r="H1183" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1184">
       <c r="A1184" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1184" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C1184" t="inlineStr">
-        <is>
-          <t>HMRC Payrolls ChangeDEC</t>
-        </is>
-      </c>
+          <t>Wednesday January 22 2025</t>
+        </is>
+      </c>
+      <c r="B1184" t="inlineStr"/>
+      <c r="C1184" t="inlineStr"/>
       <c r="D1184" t="inlineStr"/>
-      <c r="E1184" t="inlineStr">
-        <is>
-          <t>-35K</t>
-        </is>
-      </c>
+      <c r="E1184" t="inlineStr"/>
       <c r="F1184" t="inlineStr"/>
-      <c r="G1184" t="inlineStr">
-        <is>
-          <t>20K</t>
-        </is>
-      </c>
-      <c r="H1184" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1184" t="inlineStr"/>
+      <c r="H1184" t="inlineStr"/>
     </row>
     <row r="1185">
       <c r="A1185" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1185" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1185" t="inlineStr">
         <is>
-          <t>Gold Production YoYNOV</t>
+          <t>Public Sector Net Borrowing Ex BanksDEC</t>
         </is>
       </c>
       <c r="D1185" t="inlineStr"/>
       <c r="E1185" t="inlineStr">
         <is>
-          <t>-3.4%</t>
+          <t>£-11.25B</t>
         </is>
       </c>
       <c r="F1185" t="inlineStr"/>
-      <c r="G1185" t="inlineStr"/>
+      <c r="G1185" t="inlineStr">
+        <is>
+          <t>£ -11.3B</t>
+        </is>
+      </c>
       <c r="H1185" t="inlineStr">
         <is>
           <t>3</t>
@@ -38282,7 +38246,7 @@
     <row r="1186">
       <c r="A1186" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1186" t="inlineStr">
@@ -38292,27 +38256,31 @@
       </c>
       <c r="C1186" t="inlineStr">
         <is>
-          <t>Mining Production MoMNOV</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1186" t="inlineStr"/>
       <c r="E1186" t="inlineStr">
         <is>
-          <t>-3%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F1186" t="inlineStr"/>
-      <c r="G1186" t="inlineStr"/>
+      <c r="G1186" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H1186" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1187">
       <c r="A1187" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1187" t="inlineStr">
@@ -38322,87 +38290,99 @@
       </c>
       <c r="C1187" t="inlineStr">
         <is>
-          <t>Mining Production YoYNOV</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1187" t="inlineStr"/>
       <c r="E1187" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>2.9%</t>
         </is>
       </c>
       <c r="F1187" t="inlineStr"/>
-      <c r="G1187" t="inlineStr"/>
+      <c r="G1187" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
       <c r="H1187" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1188">
       <c r="A1188" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1188" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1188" t="inlineStr">
         <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1188" t="inlineStr"/>
       <c r="E1188" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F1188" t="inlineStr"/>
-      <c r="G1188" t="inlineStr"/>
+      <c r="G1188" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1188" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1189">
       <c r="A1189" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1189" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1189" t="inlineStr">
         <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1189" t="inlineStr"/>
       <c r="E1189" t="inlineStr">
         <is>
-          <t>15.7</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="F1189" t="inlineStr"/>
-      <c r="G1189" t="inlineStr"/>
+      <c r="G1189" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="H1189" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1190">
       <c r="A1190" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1190" t="inlineStr">
@@ -38412,15 +38392,11 @@
       </c>
       <c r="C1190" t="inlineStr">
         <is>
-          <t>ZEW Current ConditionsJAN</t>
+          <t>15-Year Bund Auction</t>
         </is>
       </c>
       <c r="D1190" t="inlineStr"/>
-      <c r="E1190" t="inlineStr">
-        <is>
-          <t>-93.1</t>
-        </is>
-      </c>
+      <c r="E1190" t="inlineStr"/>
       <c r="F1190" t="inlineStr"/>
       <c r="G1190" t="inlineStr"/>
       <c r="H1190" t="inlineStr">
@@ -38432,23 +38408,31 @@
     <row r="1191">
       <c r="A1191" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1191" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1191" t="inlineStr">
         <is>
-          <t>Bund/g Auction</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D1191" t="inlineStr"/>
-      <c r="E1191" t="inlineStr"/>
+      <c r="E1191" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="F1191" t="inlineStr"/>
-      <c r="G1191" t="inlineStr"/>
+      <c r="G1191" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H1191" t="inlineStr">
         <is>
           <t>3</t>
@@ -38458,23 +38442,23 @@
     <row r="1192">
       <c r="A1192" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1192" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1192" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1192" t="inlineStr"/>
       <c r="E1192" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>6.3%</t>
         </is>
       </c>
       <c r="F1192" t="inlineStr"/>
@@ -38488,25 +38472,21 @@
     <row r="1193">
       <c r="A1193" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>06:10 AM</t>
         </is>
       </c>
       <c r="B1193" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1193" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1193" t="inlineStr"/>
-      <c r="E1193" t="inlineStr">
-        <is>
-          <t>-1.2%</t>
-        </is>
-      </c>
+      <c r="E1193" t="inlineStr"/>
       <c r="F1193" t="inlineStr"/>
       <c r="G1193" t="inlineStr"/>
       <c r="H1193" t="inlineStr">
@@ -38518,99 +38498,79 @@
     <row r="1194">
       <c r="A1194" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>06:10 AM</t>
         </is>
       </c>
       <c r="B1194" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1194" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1194" t="inlineStr"/>
-      <c r="E1194" t="inlineStr">
-        <is>
-          <t>1,9%</t>
-        </is>
-      </c>
+      <c r="E1194" t="inlineStr"/>
       <c r="F1194" t="inlineStr"/>
-      <c r="G1194" t="inlineStr">
-        <is>
-          <t>1.8%</t>
-        </is>
-      </c>
+      <c r="G1194" t="inlineStr"/>
       <c r="H1194" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1195">
       <c r="A1195" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1195" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1195" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>M3 Money Supply YoYJAN/10</t>
         </is>
       </c>
       <c r="D1195" t="inlineStr"/>
       <c r="E1195" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>9.3%</t>
         </is>
       </c>
       <c r="F1195" t="inlineStr"/>
-      <c r="G1195" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
+      <c r="G1195" t="inlineStr"/>
       <c r="H1195" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1196">
       <c r="A1196" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1196" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1196" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>MBA 30-Year Mortgage RateJAN/17</t>
         </is>
       </c>
       <c r="D1196" t="inlineStr"/>
-      <c r="E1196" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+      <c r="E1196" t="inlineStr"/>
       <c r="F1196" t="inlineStr"/>
-      <c r="G1196" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1196" t="inlineStr"/>
       <c r="H1196" t="inlineStr">
         <is>
           <t>2</t>
@@ -38620,31 +38580,23 @@
     <row r="1197">
       <c r="A1197" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1197" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1197" t="inlineStr">
         <is>
-          <t>CPI Median YoYDEC</t>
+          <t>MBA Mortgage ApplicationsJAN/17</t>
         </is>
       </c>
       <c r="D1197" t="inlineStr"/>
-      <c r="E1197" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+      <c r="E1197" t="inlineStr"/>
       <c r="F1197" t="inlineStr"/>
-      <c r="G1197" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="G1197" t="inlineStr"/>
       <c r="H1197" t="inlineStr">
         <is>
           <t>3</t>
@@ -38654,31 +38606,23 @@
     <row r="1198">
       <c r="A1198" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1198" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1198" t="inlineStr">
         <is>
-          <t>CPI Trimmed-Mean YoYDEC</t>
+          <t>MBA Mortgage Market IndexJAN/17</t>
         </is>
       </c>
       <c r="D1198" t="inlineStr"/>
-      <c r="E1198" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="E1198" t="inlineStr"/>
       <c r="F1198" t="inlineStr"/>
-      <c r="G1198" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+      <c r="G1198" t="inlineStr"/>
       <c r="H1198" t="inlineStr">
         <is>
           <t>3</t>
@@ -38688,27 +38632,23 @@
     <row r="1199">
       <c r="A1199" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1199" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1199" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMDEC</t>
+          <t>MBA Mortgage Refinance IndexJAN/17</t>
         </is>
       </c>
       <c r="D1199" t="inlineStr"/>
       <c r="E1199" t="inlineStr"/>
       <c r="F1199" t="inlineStr"/>
-      <c r="G1199" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1199" t="inlineStr"/>
       <c r="H1199" t="inlineStr">
         <is>
           <t>3</t>
@@ -38718,7 +38658,7 @@
     <row r="1200">
       <c r="A1200" t="inlineStr">
         <is>
-          <t>08:55 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1200" t="inlineStr">
@@ -38728,7 +38668,7 @@
       </c>
       <c r="C1200" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/18</t>
+          <t>MBA Purchase IndexJAN/17</t>
         </is>
       </c>
       <c r="D1200" t="inlineStr"/>
@@ -38744,23 +38684,31 @@
     <row r="1201">
       <c r="A1201" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1201" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1201" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1201" t="inlineStr"/>
-      <c r="E1201" t="inlineStr"/>
+      <c r="E1201" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="F1201" t="inlineStr"/>
-      <c r="G1201" t="inlineStr"/>
+      <c r="G1201" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1201" t="inlineStr">
         <is>
           <t>3</t>
@@ -38770,23 +38718,31 @@
     <row r="1202">
       <c r="A1202" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1202" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1202" t="inlineStr">
         <is>
-          <t>52-Week Bill Auction</t>
+          <t>Raw Materials Prices MoMDEC</t>
         </is>
       </c>
       <c r="D1202" t="inlineStr"/>
-      <c r="E1202" t="inlineStr"/>
+      <c r="E1202" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
       <c r="F1202" t="inlineStr"/>
-      <c r="G1202" t="inlineStr"/>
+      <c r="G1202" t="inlineStr">
+        <is>
+          <t>1.0%</t>
+        </is>
+      </c>
       <c r="H1202" t="inlineStr">
         <is>
           <t>3</t>
@@ -38796,23 +38752,31 @@
     <row r="1203">
       <c r="A1203" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1203" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1203" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Raw Materials Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1203" t="inlineStr"/>
-      <c r="E1203" t="inlineStr"/>
+      <c r="E1203" t="inlineStr">
+        <is>
+          <t>2%</t>
+        </is>
+      </c>
       <c r="F1203" t="inlineStr"/>
-      <c r="G1203" t="inlineStr"/>
+      <c r="G1203" t="inlineStr">
+        <is>
+          <t>-2.8%</t>
+        </is>
+      </c>
       <c r="H1203" t="inlineStr">
         <is>
           <t>3</t>
@@ -38822,41 +38786,37 @@
     <row r="1204">
       <c r="A1204" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1204" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1204" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>CB Leading Index MoMDEC</t>
         </is>
       </c>
       <c r="D1204" t="inlineStr"/>
       <c r="E1204" t="inlineStr">
         <is>
-          <t>88.4</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F1204" t="inlineStr"/>
-      <c r="G1204" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
+      <c r="G1204" t="inlineStr"/>
       <c r="H1204" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1205">
       <c r="A1205" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1205" t="inlineStr">
@@ -38866,7 +38826,7 @@
       </c>
       <c r="C1205" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/17</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1205" t="inlineStr"/>
@@ -38875,50 +38835,62 @@
       <c r="G1205" t="inlineStr"/>
       <c r="H1205" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1206">
       <c r="A1206" t="inlineStr">
         <is>
-          <t>Wednesday January 22 2025</t>
-        </is>
-      </c>
-      <c r="B1206" t="inlineStr"/>
-      <c r="C1206" t="inlineStr"/>
+          <t>01:00 PM</t>
+        </is>
+      </c>
+      <c r="B1206" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1206" t="inlineStr">
+        <is>
+          <t>20-Year Bond Auction</t>
+        </is>
+      </c>
       <c r="D1206" t="inlineStr"/>
       <c r="E1206" t="inlineStr"/>
       <c r="F1206" t="inlineStr"/>
       <c r="G1206" t="inlineStr"/>
-      <c r="H1206" t="inlineStr"/>
+      <c r="H1206" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1207">
       <c r="A1207" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1207" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1207" t="inlineStr">
         <is>
-          <t>Public Sector Net Borrowing Ex BanksDEC</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1207" t="inlineStr"/>
       <c r="E1207" t="inlineStr">
         <is>
-          <t>£-11.25B</t>
+          <t>127.1%</t>
         </is>
       </c>
       <c r="F1207" t="inlineStr"/>
       <c r="G1207" t="inlineStr">
         <is>
-          <t>£ -11.3B</t>
+          <t>115.0%</t>
         </is>
       </c>
       <c r="H1207" t="inlineStr">
@@ -38930,29 +38902,25 @@
     <row r="1208">
       <c r="A1208" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1208" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1208" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1208" t="inlineStr"/>
-      <c r="E1208" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+      <c r="E1208" t="inlineStr"/>
       <c r="F1208" t="inlineStr"/>
       <c r="G1208" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>60</t>
         </is>
       </c>
       <c r="H1208" t="inlineStr">
@@ -38964,29 +38932,29 @@
     <row r="1209">
       <c r="A1209" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1209" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1209" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>GDP Growth Rate QoQ AdvQ4</t>
         </is>
       </c>
       <c r="D1209" t="inlineStr"/>
       <c r="E1209" t="inlineStr">
         <is>
-          <t>2.9%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F1209" t="inlineStr"/>
       <c r="G1209" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1209" t="inlineStr">
@@ -38998,29 +38966,29 @@
     <row r="1210">
       <c r="A1210" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1210" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1210" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>GDP Growth Rate YoY AdvQ4</t>
         </is>
       </c>
       <c r="D1210" t="inlineStr"/>
       <c r="E1210" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="F1210" t="inlineStr"/>
       <c r="G1210" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H1210" t="inlineStr">
@@ -39032,91 +39000,87 @@
     <row r="1211">
       <c r="A1211" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1211" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1211" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMDEC</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D1211" t="inlineStr"/>
       <c r="E1211" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>¥-117.6B</t>
         </is>
       </c>
       <c r="F1211" t="inlineStr"/>
       <c r="G1211" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>¥ 100B</t>
         </is>
       </c>
       <c r="H1211" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1212">
       <c r="A1212" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1212" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1212" t="inlineStr">
         <is>
-          <t>15-Year Bund Auction</t>
+          <t>Exports YoYDEC</t>
         </is>
       </c>
       <c r="D1212" t="inlineStr"/>
-      <c r="E1212" t="inlineStr"/>
+      <c r="E1212" t="inlineStr">
+        <is>
+          <t>3.8%</t>
+        </is>
+      </c>
       <c r="F1212" t="inlineStr"/>
       <c r="G1212" t="inlineStr"/>
       <c r="H1212" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1213">
       <c r="A1213" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1213" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1213" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>Foreign Bond InvestmentJAN/18</t>
         </is>
       </c>
       <c r="D1213" t="inlineStr"/>
-      <c r="E1213" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+      <c r="E1213" t="inlineStr"/>
       <c r="F1213" t="inlineStr"/>
-      <c r="G1213" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G1213" t="inlineStr"/>
       <c r="H1213" t="inlineStr">
         <is>
           <t>3</t>
@@ -39126,23 +39090,23 @@
     <row r="1214">
       <c r="A1214" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1214" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1214" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>Imports YoYDEC</t>
         </is>
       </c>
       <c r="D1214" t="inlineStr"/>
       <c r="E1214" t="inlineStr">
         <is>
-          <t>6.3%</t>
+          <t>-3.8%</t>
         </is>
       </c>
       <c r="F1214" t="inlineStr"/>
@@ -39156,17 +39120,17 @@
     <row r="1215">
       <c r="A1215" t="inlineStr">
         <is>
-          <t>06:10 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1215" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1215" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Stock Investment by ForeignersJAN/18</t>
         </is>
       </c>
       <c r="D1215" t="inlineStr"/>
@@ -39182,49 +39146,57 @@
     <row r="1216">
       <c r="A1216" t="inlineStr">
         <is>
-          <t>06:10 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1216" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1216" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>NAB Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D1216" t="inlineStr"/>
-      <c r="E1216" t="inlineStr"/>
+      <c r="E1216" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
       <c r="F1216" t="inlineStr"/>
-      <c r="G1216" t="inlineStr"/>
+      <c r="G1216" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="H1216" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1217">
       <c r="A1217" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1217" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C1217" t="inlineStr">
         <is>
-          <t>M3 Money Supply YoYJAN/10</t>
+          <t>M2 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D1217" t="inlineStr"/>
       <c r="E1217" t="inlineStr">
         <is>
-          <t>9.3%</t>
+          <t>7%</t>
         </is>
       </c>
       <c r="F1217" t="inlineStr"/>
@@ -39238,17 +39210,17 @@
     <row r="1218">
       <c r="A1218" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B1218" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1218" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJAN/17</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1218" t="inlineStr"/>
@@ -39257,54 +39229,46 @@
       <c r="G1218" t="inlineStr"/>
       <c r="H1218" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1219">
       <c r="A1219" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1219" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1219" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsJAN/17</t>
-        </is>
-      </c>
+          <t>Thursday January 23 2025</t>
+        </is>
+      </c>
+      <c r="B1219" t="inlineStr"/>
+      <c r="C1219" t="inlineStr"/>
       <c r="D1219" t="inlineStr"/>
       <c r="E1219" t="inlineStr"/>
       <c r="F1219" t="inlineStr"/>
       <c r="G1219" t="inlineStr"/>
-      <c r="H1219" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1219" t="inlineStr"/>
     </row>
     <row r="1220">
       <c r="A1220" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1220" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1220" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJAN/17</t>
+          <t>1-Year T-Bill Auction</t>
         </is>
       </c>
       <c r="D1220" t="inlineStr"/>
-      <c r="E1220" t="inlineStr"/>
+      <c r="E1220" t="inlineStr">
+        <is>
+          <t>2.71%</t>
+        </is>
+      </c>
       <c r="F1220" t="inlineStr"/>
       <c r="G1220" t="inlineStr"/>
       <c r="H1220" t="inlineStr">
@@ -39316,23 +39280,31 @@
     <row r="1221">
       <c r="A1221" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1221" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1221" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexJAN/17</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1221" t="inlineStr"/>
-      <c r="E1221" t="inlineStr"/>
+      <c r="E1221" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
       <c r="F1221" t="inlineStr"/>
-      <c r="G1221" t="inlineStr"/>
+      <c r="G1221" t="inlineStr">
+        <is>
+          <t>2.5%</t>
+        </is>
+      </c>
       <c r="H1221" t="inlineStr">
         <is>
           <t>3</t>
@@ -39342,23 +39314,31 @@
     <row r="1222">
       <c r="A1222" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1222" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1222" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexJAN/17</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1222" t="inlineStr"/>
-      <c r="E1222" t="inlineStr"/>
+      <c r="E1222" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
       <c r="F1222" t="inlineStr"/>
-      <c r="G1222" t="inlineStr"/>
+      <c r="G1222" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1222" t="inlineStr">
         <is>
           <t>3</t>
@@ -39368,29 +39348,29 @@
     <row r="1223">
       <c r="A1223" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1223" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1223" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1223" t="inlineStr"/>
       <c r="E1223" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F1223" t="inlineStr"/>
       <c r="G1223" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="H1223" t="inlineStr">
@@ -39402,31 +39382,27 @@
     <row r="1224">
       <c r="A1224" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1224" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1224" t="inlineStr">
         <is>
-          <t>Raw Materials Prices MoMDEC</t>
+          <t>Leading Business Cycle Indicator MoMNOV</t>
         </is>
       </c>
       <c r="D1224" t="inlineStr"/>
       <c r="E1224" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="F1224" t="inlineStr"/>
-      <c r="G1224" t="inlineStr">
-        <is>
-          <t>1.0%</t>
-        </is>
-      </c>
+      <c r="G1224" t="inlineStr"/>
       <c r="H1224" t="inlineStr">
         <is>
           <t>3</t>
@@ -39436,85 +39412,85 @@
     <row r="1225">
       <c r="A1225" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1225" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1225" t="inlineStr">
         <is>
-          <t>Raw Materials Prices YoYDEC</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1225" t="inlineStr"/>
       <c r="E1225" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>81.3</t>
         </is>
       </c>
       <c r="F1225" t="inlineStr"/>
-      <c r="G1225" t="inlineStr">
-        <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
+      <c r="G1225" t="inlineStr"/>
       <c r="H1225" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1226">
       <c r="A1226" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B1226" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1226" t="inlineStr">
         <is>
-          <t>CB Leading Index MoMDEC</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1226" t="inlineStr"/>
       <c r="E1226" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>97</t>
         </is>
       </c>
       <c r="F1226" t="inlineStr"/>
       <c r="G1226" t="inlineStr"/>
       <c r="H1226" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1227">
       <c r="A1227" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B1227" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1227" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>Business Climate IndicatorJAN</t>
         </is>
       </c>
       <c r="D1227" t="inlineStr"/>
-      <c r="E1227" t="inlineStr"/>
+      <c r="E1227" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
       <c r="F1227" t="inlineStr"/>
       <c r="G1227" t="inlineStr"/>
       <c r="H1227" t="inlineStr">
@@ -39526,17 +39502,17 @@
     <row r="1228">
       <c r="A1228" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1228" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1228" t="inlineStr">
         <is>
-          <t>20-Year Bond Auction</t>
+          <t>OAT Auction</t>
         </is>
       </c>
       <c r="D1228" t="inlineStr"/>
@@ -39552,31 +39528,27 @@
     <row r="1229">
       <c r="A1229" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1229" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1229" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>4-Year Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D1229" t="inlineStr"/>
       <c r="E1229" t="inlineStr">
         <is>
-          <t>127.1%</t>
+          <t>4.499%</t>
         </is>
       </c>
       <c r="F1229" t="inlineStr"/>
-      <c r="G1229" t="inlineStr">
-        <is>
-          <t>115.0%</t>
-        </is>
-      </c>
+      <c r="G1229" t="inlineStr"/>
       <c r="H1229" t="inlineStr">
         <is>
           <t>3</t>
@@ -39584,11 +39556,7 @@
       </c>
     </row>
     <row r="1230">
-      <c r="A1230" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
+      <c r="A1230" t="inlineStr"/>
       <c r="B1230" t="inlineStr">
         <is>
           <t>KR</t>
@@ -39596,614 +39564,18 @@
       </c>
       <c r="C1230" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>20-Year KTB Auction</t>
         </is>
       </c>
       <c r="D1230" t="inlineStr"/>
-      <c r="E1230" t="inlineStr"/>
+      <c r="E1230" t="inlineStr">
+        <is>
+          <t>2.750%</t>
+        </is>
+      </c>
       <c r="F1230" t="inlineStr"/>
-      <c r="G1230" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
+      <c r="G1230" t="inlineStr"/>
       <c r="H1230" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1231">
-      <c r="A1231" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1231" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C1231" t="inlineStr">
-        <is>
-          <t>GDP Growth Rate QoQ AdvQ4</t>
-        </is>
-      </c>
-      <c r="D1231" t="inlineStr"/>
-      <c r="E1231" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F1231" t="inlineStr"/>
-      <c r="G1231" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H1231" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1232">
-      <c r="A1232" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1232" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C1232" t="inlineStr">
-        <is>
-          <t>GDP Growth Rate YoY AdvQ4</t>
-        </is>
-      </c>
-      <c r="D1232" t="inlineStr"/>
-      <c r="E1232" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="F1232" t="inlineStr"/>
-      <c r="G1232" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
-      <c r="H1232" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1233">
-      <c r="A1233" t="inlineStr">
-        <is>
-          <t>06:50 PM</t>
-        </is>
-      </c>
-      <c r="B1233" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C1233" t="inlineStr">
-        <is>
-          <t>Balance of TradeDEC</t>
-        </is>
-      </c>
-      <c r="D1233" t="inlineStr"/>
-      <c r="E1233" t="inlineStr">
-        <is>
-          <t>¥-117.6B</t>
-        </is>
-      </c>
-      <c r="F1233" t="inlineStr"/>
-      <c r="G1233" t="inlineStr">
-        <is>
-          <t>¥ 100B</t>
-        </is>
-      </c>
-      <c r="H1233" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1234">
-      <c r="A1234" t="inlineStr">
-        <is>
-          <t>06:50 PM</t>
-        </is>
-      </c>
-      <c r="B1234" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C1234" t="inlineStr">
-        <is>
-          <t>Exports YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1234" t="inlineStr"/>
-      <c r="E1234" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
-      <c r="F1234" t="inlineStr"/>
-      <c r="G1234" t="inlineStr"/>
-      <c r="H1234" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1235">
-      <c r="A1235" t="inlineStr">
-        <is>
-          <t>06:50 PM</t>
-        </is>
-      </c>
-      <c r="B1235" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C1235" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentJAN/18</t>
-        </is>
-      </c>
-      <c r="D1235" t="inlineStr"/>
-      <c r="E1235" t="inlineStr"/>
-      <c r="F1235" t="inlineStr"/>
-      <c r="G1235" t="inlineStr"/>
-      <c r="H1235" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1236">
-      <c r="A1236" t="inlineStr">
-        <is>
-          <t>06:50 PM</t>
-        </is>
-      </c>
-      <c r="B1236" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C1236" t="inlineStr">
-        <is>
-          <t>Imports YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1236" t="inlineStr"/>
-      <c r="E1236" t="inlineStr">
-        <is>
-          <t>-3.8%</t>
-        </is>
-      </c>
-      <c r="F1236" t="inlineStr"/>
-      <c r="G1236" t="inlineStr"/>
-      <c r="H1236" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1237">
-      <c r="A1237" t="inlineStr">
-        <is>
-          <t>06:50 PM</t>
-        </is>
-      </c>
-      <c r="B1237" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C1237" t="inlineStr">
-        <is>
-          <t>Stock Investment by ForeignersJAN/18</t>
-        </is>
-      </c>
-      <c r="D1237" t="inlineStr"/>
-      <c r="E1237" t="inlineStr"/>
-      <c r="F1237" t="inlineStr"/>
-      <c r="G1237" t="inlineStr"/>
-      <c r="H1237" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1238">
-      <c r="A1238" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1238" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1238" t="inlineStr">
-        <is>
-          <t>NAB Business ConfidenceDEC</t>
-        </is>
-      </c>
-      <c r="D1238" t="inlineStr"/>
-      <c r="E1238" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="F1238" t="inlineStr"/>
-      <c r="G1238" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H1238" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1239">
-      <c r="A1239" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B1239" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="C1239" t="inlineStr">
-        <is>
-          <t>M2 Money Supply YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1239" t="inlineStr"/>
-      <c r="E1239" t="inlineStr">
-        <is>
-          <t>7%</t>
-        </is>
-      </c>
-      <c r="F1239" t="inlineStr"/>
-      <c r="G1239" t="inlineStr"/>
-      <c r="H1239" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1240">
-      <c r="A1240" t="inlineStr">
-        <is>
-          <t>10:35 PM</t>
-        </is>
-      </c>
-      <c r="B1240" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C1240" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1240" t="inlineStr"/>
-      <c r="E1240" t="inlineStr"/>
-      <c r="F1240" t="inlineStr"/>
-      <c r="G1240" t="inlineStr"/>
-      <c r="H1240" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1241">
-      <c r="A1241" t="inlineStr">
-        <is>
-          <t>Thursday January 23 2025</t>
-        </is>
-      </c>
-      <c r="B1241" t="inlineStr"/>
-      <c r="C1241" t="inlineStr"/>
-      <c r="D1241" t="inlineStr"/>
-      <c r="E1241" t="inlineStr"/>
-      <c r="F1241" t="inlineStr"/>
-      <c r="G1241" t="inlineStr"/>
-      <c r="H1241" t="inlineStr"/>
-    </row>
-    <row r="1242">
-      <c r="A1242" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B1242" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C1242" t="inlineStr">
-        <is>
-          <t>1-Year T-Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1242" t="inlineStr"/>
-      <c r="E1242" t="inlineStr">
-        <is>
-          <t>2.71%</t>
-        </is>
-      </c>
-      <c r="F1242" t="inlineStr"/>
-      <c r="G1242" t="inlineStr"/>
-      <c r="H1242" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1243">
-      <c r="A1243" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B1243" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C1243" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1243" t="inlineStr"/>
-      <c r="E1243" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="F1243" t="inlineStr"/>
-      <c r="G1243" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="H1243" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1244">
-      <c r="A1244" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B1244" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C1244" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1244" t="inlineStr"/>
-      <c r="E1244" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="F1244" t="inlineStr"/>
-      <c r="G1244" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H1244" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1245">
-      <c r="A1245" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B1245" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C1245" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1245" t="inlineStr"/>
-      <c r="E1245" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="F1245" t="inlineStr"/>
-      <c r="G1245" t="inlineStr">
-        <is>
-          <t>1.8%</t>
-        </is>
-      </c>
-      <c r="H1245" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1246">
-      <c r="A1246" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1246" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1246" t="inlineStr">
-        <is>
-          <t>Leading Business Cycle Indicator MoMNOV</t>
-        </is>
-      </c>
-      <c r="D1246" t="inlineStr"/>
-      <c r="E1246" t="inlineStr">
-        <is>
-          <t>1.1%</t>
-        </is>
-      </c>
-      <c r="F1246" t="inlineStr"/>
-      <c r="G1246" t="inlineStr"/>
-      <c r="H1246" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1247">
-      <c r="A1247" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1247" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C1247" t="inlineStr">
-        <is>
-          <t>Consumer ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D1247" t="inlineStr"/>
-      <c r="E1247" t="inlineStr">
-        <is>
-          <t>81.3</t>
-        </is>
-      </c>
-      <c r="F1247" t="inlineStr"/>
-      <c r="G1247" t="inlineStr"/>
-      <c r="H1247" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1248">
-      <c r="A1248" t="inlineStr">
-        <is>
-          <t>02:45 AM</t>
-        </is>
-      </c>
-      <c r="B1248" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C1248" t="inlineStr">
-        <is>
-          <t>Business ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D1248" t="inlineStr"/>
-      <c r="E1248" t="inlineStr">
-        <is>
-          <t>97</t>
-        </is>
-      </c>
-      <c r="F1248" t="inlineStr"/>
-      <c r="G1248" t="inlineStr"/>
-      <c r="H1248" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1249">
-      <c r="A1249" t="inlineStr">
-        <is>
-          <t>02:45 AM</t>
-        </is>
-      </c>
-      <c r="B1249" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C1249" t="inlineStr">
-        <is>
-          <t>Business Climate IndicatorJAN</t>
-        </is>
-      </c>
-      <c r="D1249" t="inlineStr"/>
-      <c r="E1249" t="inlineStr">
-        <is>
-          <t>94</t>
-        </is>
-      </c>
-      <c r="F1249" t="inlineStr"/>
-      <c r="G1249" t="inlineStr"/>
-      <c r="H1249" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1250">
-      <c r="A1250" t="inlineStr"/>
-      <c r="B1250" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C1250" t="inlineStr">
-        <is>
-          <t>20-Year KTB Auction</t>
-        </is>
-      </c>
-      <c r="D1250" t="inlineStr"/>
-      <c r="E1250" t="inlineStr">
-        <is>
-          <t>2.750%</t>
-        </is>
-      </c>
-      <c r="F1250" t="inlineStr"/>
-      <c r="G1250" t="inlineStr"/>
-      <c r="H1250" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-23.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1279"/>
+  <dimension ref="A1:H1262"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28691,10 +28691,8 @@
       <c r="E877" t="inlineStr"/>
       <c r="F877" t="inlineStr"/>
       <c r="G877" t="inlineStr"/>
-      <c r="H877" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H877" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="878">
@@ -28739,10 +28737,8 @@
       </c>
       <c r="F879" t="inlineStr"/>
       <c r="G879" t="inlineStr"/>
-      <c r="H879" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H879" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="880">
@@ -28777,10 +28773,8 @@
           <t>6.4%</t>
         </is>
       </c>
-      <c r="H880" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H880" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="881">
@@ -28815,10 +28809,8 @@
           <t>-19.0%</t>
         </is>
       </c>
-      <c r="H881" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H881" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="882">
@@ -28853,10 +28845,8 @@
           <t>-4.0%</t>
         </is>
       </c>
-      <c r="H882" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H882" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="883">
@@ -28895,10 +28885,8 @@
           <t>$-3.4B</t>
         </is>
       </c>
-      <c r="H883" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H883" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="884">
@@ -28933,10 +28921,8 @@
           <t>0%</t>
         </is>
       </c>
-      <c r="H884" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H884" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="885">
@@ -28971,10 +28957,8 @@
           <t>14.1%</t>
         </is>
       </c>
-      <c r="H885" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H885" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="886">
@@ -29005,10 +28989,8 @@
       </c>
       <c r="F886" t="inlineStr"/>
       <c r="G886" t="inlineStr"/>
-      <c r="H886" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H886" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="887">
@@ -29039,10 +29021,8 @@
       </c>
       <c r="F887" t="inlineStr"/>
       <c r="G887" t="inlineStr"/>
-      <c r="H887" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H887" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="888">
@@ -29073,10 +29053,8 @@
       </c>
       <c r="F888" t="inlineStr"/>
       <c r="G888" t="inlineStr"/>
-      <c r="H888" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H888" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="889">
@@ -29115,10 +29093,8 @@
           <t>5.2%</t>
         </is>
       </c>
-      <c r="H889" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H889" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="890">
@@ -29153,10 +29129,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H890" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H890" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="891">
@@ -29187,10 +29161,8 @@
       </c>
       <c r="F891" t="inlineStr"/>
       <c r="G891" t="inlineStr"/>
-      <c r="H891" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H891" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="892">
@@ -29221,10 +29193,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H892" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H892" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="893">
@@ -29255,10 +29225,8 @@
           <t>-2.5%</t>
         </is>
       </c>
-      <c r="H893" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H893" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="894">
@@ -29285,10 +29253,8 @@
       </c>
       <c r="F894" t="inlineStr"/>
       <c r="G894" t="inlineStr"/>
-      <c r="H894" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H894" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="895">
@@ -29315,10 +29281,8 @@
       </c>
       <c r="F895" t="inlineStr"/>
       <c r="G895" t="inlineStr"/>
-      <c r="H895" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H895" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="896">
@@ -29345,10 +29309,8 @@
       </c>
       <c r="F896" t="inlineStr"/>
       <c r="G896" t="inlineStr"/>
-      <c r="H896" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H896" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="897">
@@ -29379,10 +29341,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H897" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H897" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="898">
@@ -29409,10 +29369,8 @@
       </c>
       <c r="F898" t="inlineStr"/>
       <c r="G898" t="inlineStr"/>
-      <c r="H898" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H898" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="899">
@@ -29439,10 +29397,8 @@
       </c>
       <c r="F899" t="inlineStr"/>
       <c r="G899" t="inlineStr"/>
-      <c r="H899" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H899" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="900">
@@ -29477,10 +29433,8 @@
           <t>$-220.0B</t>
         </is>
       </c>
-      <c r="H900" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H900" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="901">
@@ -29507,10 +29461,8 @@
       </c>
       <c r="F901" t="inlineStr"/>
       <c r="G901" t="inlineStr"/>
-      <c r="H901" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H901" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="902">
@@ -29537,10 +29489,8 @@
       </c>
       <c r="F902" t="inlineStr"/>
       <c r="G902" t="inlineStr"/>
-      <c r="H902" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H902" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="903">
@@ -29575,10 +29525,8 @@
           <t>¥1990.0B</t>
         </is>
       </c>
-      <c r="H903" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H903" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="904">
@@ -29613,10 +29561,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H904" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H904" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="905">
@@ -29647,10 +29593,8 @@
         </is>
       </c>
       <c r="G905" t="inlineStr"/>
-      <c r="H905" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H905" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="906">
@@ -29681,10 +29625,8 @@
         </is>
       </c>
       <c r="G906" t="inlineStr"/>
-      <c r="H906" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H906" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="907">
@@ -29711,10 +29653,8 @@
       </c>
       <c r="F907" t="inlineStr"/>
       <c r="G907" t="inlineStr"/>
-      <c r="H907" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H907" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="908">
@@ -29745,10 +29685,8 @@
           <t>CNY690.0B</t>
         </is>
       </c>
-      <c r="H908" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H908" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="909">
@@ -29775,10 +29713,8 @@
         </is>
       </c>
       <c r="G909" t="inlineStr"/>
-      <c r="H909" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H909" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="910">
@@ -29809,10 +29745,8 @@
           <t>7.5%</t>
         </is>
       </c>
-      <c r="H910" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H910" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="911">
@@ -29843,10 +29777,8 @@
           <t>CNY1850.0B</t>
         </is>
       </c>
-      <c r="H911" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H911" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="912">
@@ -29865,10 +29797,8 @@
       <c r="E912" t="inlineStr"/>
       <c r="F912" t="inlineStr"/>
       <c r="G912" t="inlineStr"/>
-      <c r="H912" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H912" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="913">
@@ -29917,10 +29847,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H914" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H914" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="915">
@@ -29951,10 +29879,8 @@
           <t>49.6</t>
         </is>
       </c>
-      <c r="H915" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H915" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="916">
@@ -29981,10 +29907,8 @@
       </c>
       <c r="F916" t="inlineStr"/>
       <c r="G916" t="inlineStr"/>
-      <c r="H916" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H916" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="917">
@@ -30011,10 +29935,8 @@
       </c>
       <c r="F917" t="inlineStr"/>
       <c r="G917" t="inlineStr"/>
-      <c r="H917" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H917" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="918">
@@ -30045,10 +29967,8 @@
           <t>10.2%</t>
         </is>
       </c>
-      <c r="H918" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H918" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="919">
@@ -30079,10 +29999,8 @@
           <t>-3.2%</t>
         </is>
       </c>
-      <c r="H919" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H919" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="920">
@@ -30117,10 +30035,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H920" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H920" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="921">
@@ -30151,10 +30067,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H921" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H921" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="922">
@@ -30177,10 +30091,8 @@
       <c r="E922" t="inlineStr"/>
       <c r="F922" t="inlineStr"/>
       <c r="G922" t="inlineStr"/>
-      <c r="H922" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H922" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="923">
@@ -30211,10 +30123,8 @@
           <t>€-162.0B</t>
         </is>
       </c>
-      <c r="H923" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H923" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="924">
@@ -30237,10 +30147,8 @@
       <c r="E924" t="inlineStr"/>
       <c r="F924" t="inlineStr"/>
       <c r="G924" t="inlineStr"/>
-      <c r="H924" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H924" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="925">
@@ -30275,10 +30183,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H925" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H925" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="926">
@@ -30309,10 +30215,8 @@
           <t>-3.3%</t>
         </is>
       </c>
-      <c r="H926" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H926" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="927">
@@ -30339,10 +30243,8 @@
       </c>
       <c r="F927" t="inlineStr"/>
       <c r="G927" t="inlineStr"/>
-      <c r="H927" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H927" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="928">
@@ -30369,10 +30271,8 @@
       </c>
       <c r="F928" t="inlineStr"/>
       <c r="G928" t="inlineStr"/>
-      <c r="H928" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H928" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="929">
@@ -30399,10 +30299,8 @@
       </c>
       <c r="F929" t="inlineStr"/>
       <c r="G929" t="inlineStr"/>
-      <c r="H929" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H929" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="930">
@@ -30429,10 +30327,8 @@
       </c>
       <c r="F930" t="inlineStr"/>
       <c r="G930" t="inlineStr"/>
-      <c r="H930" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H930" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="931">
@@ -30455,10 +30351,8 @@
       <c r="E931" t="inlineStr"/>
       <c r="F931" t="inlineStr"/>
       <c r="G931" t="inlineStr"/>
-      <c r="H931" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H931" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="932">
@@ -30493,10 +30387,8 @@
           <t>102</t>
         </is>
       </c>
-      <c r="H932" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H932" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="933">
@@ -30527,10 +30419,8 @@
           <t>$615.0B</t>
         </is>
       </c>
-      <c r="H933" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H933" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="934">
@@ -30565,10 +30455,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H934" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H934" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="935">
@@ -30603,10 +30491,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H935" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H935" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="936">
@@ -30641,10 +30527,8 @@
           <t>3.5%</t>
         </is>
       </c>
-      <c r="H936" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H936" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="937">
@@ -30675,10 +30559,8 @@
           <t>146.8</t>
         </is>
       </c>
-      <c r="H937" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H937" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="938">
@@ -30709,10 +30591,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H938" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H938" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="939">
@@ -30743,10 +30623,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H939" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H939" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="940">
@@ -30781,10 +30659,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H940" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H940" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="941">
@@ -30811,10 +30687,8 @@
       </c>
       <c r="F941" t="inlineStr"/>
       <c r="G941" t="inlineStr"/>
-      <c r="H941" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H941" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="942">
@@ -30837,10 +30711,8 @@
       <c r="E942" t="inlineStr"/>
       <c r="F942" t="inlineStr"/>
       <c r="G942" t="inlineStr"/>
-      <c r="H942" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H942" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="943">
@@ -30875,10 +30747,8 @@
           <t>54.2</t>
         </is>
       </c>
-      <c r="H943" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H943" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="944">
@@ -30905,10 +30775,8 @@
       </c>
       <c r="F944" t="inlineStr"/>
       <c r="G944" t="inlineStr"/>
-      <c r="H944" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H944" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="945">
@@ -30943,10 +30811,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H945" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H945" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="946">
@@ -30981,10 +30847,8 @@
           <t>116.0%</t>
         </is>
       </c>
-      <c r="H946" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H946" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="947">
@@ -31007,10 +30871,8 @@
       <c r="E947" t="inlineStr"/>
       <c r="F947" t="inlineStr"/>
       <c r="G947" t="inlineStr"/>
-      <c r="H947" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H947" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="948">
@@ -31041,10 +30903,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H948" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H948" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="949">
@@ -31075,10 +30935,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H949" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H949" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="950">
@@ -31105,10 +30963,8 @@
       </c>
       <c r="F950" t="inlineStr"/>
       <c r="G950" t="inlineStr"/>
-      <c r="H950" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H950" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="951">
@@ -31139,10 +30995,8 @@
           <t>3</t>
         </is>
       </c>
-      <c r="H951" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H951" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="952">
@@ -31165,10 +31019,8 @@
       <c r="E952" t="inlineStr"/>
       <c r="F952" t="inlineStr"/>
       <c r="G952" t="inlineStr"/>
-      <c r="H952" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H952" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="953">
@@ -31203,10 +31055,8 @@
           <t>$ 3.7B</t>
         </is>
       </c>
-      <c r="H953" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H953" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="954">
@@ -31237,10 +31087,8 @@
         </is>
       </c>
       <c r="G954" t="inlineStr"/>
-      <c r="H954" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H954" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="955">
@@ -31271,10 +31119,8 @@
         </is>
       </c>
       <c r="G955" t="inlineStr"/>
-      <c r="H955" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H955" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="956">
@@ -31297,10 +31143,8 @@
       </c>
       <c r="F956" t="inlineStr"/>
       <c r="G956" t="inlineStr"/>
-      <c r="H956" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H956" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="957">
@@ -31323,10 +31167,8 @@
       </c>
       <c r="F957" t="inlineStr"/>
       <c r="G957" t="inlineStr"/>
-      <c r="H957" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H957" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="958">
@@ -31375,10 +31217,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H959" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H959" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="960">
@@ -31413,10 +31253,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H960" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H960" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="961">
@@ -31447,10 +31285,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H961" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H961" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="962">
@@ -31485,10 +31321,8 @@
           <t>2.7%</t>
         </is>
       </c>
-      <c r="H962" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H962" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="963">
@@ -31523,10 +31357,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H963" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H963" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="964">
@@ -31561,10 +31393,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H964" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H964" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="965">
@@ -31599,10 +31429,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H965" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H965" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="966">
@@ -31633,10 +31461,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H966" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H966" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="967">
@@ -31667,10 +31493,8 @@
           <t>2.1%</t>
         </is>
       </c>
-      <c r="H967" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H967" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="968">
@@ -31705,10 +31529,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H968" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H968" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="969">
@@ -31739,10 +31561,8 @@
           <t>-1%</t>
         </is>
       </c>
-      <c r="H969" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H969" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="970">
@@ -31777,10 +31597,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H970" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H970" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="971">
@@ -31811,10 +31629,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H971" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H971" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="972">
@@ -31849,10 +31665,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H972" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H972" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="973">
@@ -31887,10 +31701,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H973" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H973" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="974">
@@ -31921,10 +31733,8 @@
           <t>10%</t>
         </is>
       </c>
-      <c r="H974" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H974" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="975">
@@ -31959,10 +31769,8 @@
           <t>6%</t>
         </is>
       </c>
-      <c r="H975" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H975" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="976">
@@ -31997,10 +31805,8 @@
           <t>5.25%</t>
         </is>
       </c>
-      <c r="H976" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H976" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="977">
@@ -32035,10 +31841,8 @@
           <t>6.75%</t>
         </is>
       </c>
-      <c r="H977" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H977" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="978">
@@ -32073,10 +31877,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H978" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H978" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="979">
@@ -32111,10 +31913,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H979" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H979" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="980">
@@ -32149,10 +31949,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H980" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H980" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="981">
@@ -32187,10 +31985,8 @@
           <t>1.8%</t>
         </is>
       </c>
-      <c r="H981" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H981" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="982">
@@ -32213,10 +32009,8 @@
       <c r="E982" t="inlineStr"/>
       <c r="F982" t="inlineStr"/>
       <c r="G982" t="inlineStr"/>
-      <c r="H982" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H982" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="983">
@@ -32251,10 +32045,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H983" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H983" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="984">
@@ -32289,10 +32081,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H984" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H984" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="985">
@@ -32327,10 +32117,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H985" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H985" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="986">
@@ -32365,10 +32153,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H986" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H986" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="987">
@@ -32403,10 +32189,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H987" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H987" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="988">
@@ -32429,10 +32213,8 @@
       <c r="E988" t="inlineStr"/>
       <c r="F988" t="inlineStr"/>
       <c r="G988" t="inlineStr"/>
-      <c r="H988" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H988" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="989">
@@ -32467,10 +32249,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H989" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H989" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="990">
@@ -32505,10 +32285,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H990" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H990" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="991">
@@ -32543,10 +32321,8 @@
           <t>-1.5%</t>
         </is>
       </c>
-      <c r="H991" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H991" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="992">
@@ -32573,10 +32349,8 @@
       </c>
       <c r="F992" t="inlineStr"/>
       <c r="G992" t="inlineStr"/>
-      <c r="H992" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H992" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="993">
@@ -32603,10 +32377,8 @@
       </c>
       <c r="F993" t="inlineStr"/>
       <c r="G993" t="inlineStr"/>
-      <c r="H993" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H993" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="994">
@@ -32637,10 +32409,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H994" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H994" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="995">
@@ -32671,10 +32441,8 @@
           <t>-5.0%</t>
         </is>
       </c>
-      <c r="H995" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H995" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="996">
@@ -32701,10 +32469,8 @@
       </c>
       <c r="F996" t="inlineStr"/>
       <c r="G996" t="inlineStr"/>
-      <c r="H996" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H996" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="997">
@@ -32731,10 +32497,8 @@
       </c>
       <c r="F997" t="inlineStr"/>
       <c r="G997" t="inlineStr"/>
-      <c r="H997" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H997" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="998">
@@ -32761,10 +32525,8 @@
       </c>
       <c r="F998" t="inlineStr"/>
       <c r="G998" t="inlineStr"/>
-      <c r="H998" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H998" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="999">
@@ -32791,10 +32553,8 @@
       </c>
       <c r="F999" t="inlineStr"/>
       <c r="G999" t="inlineStr"/>
-      <c r="H999" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H999" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1000">
@@ -32821,10 +32581,8 @@
       </c>
       <c r="F1000" t="inlineStr"/>
       <c r="G1000" t="inlineStr"/>
-      <c r="H1000" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1000" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1001">
@@ -32859,10 +32617,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1001" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1001" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1002">
@@ -32889,10 +32645,8 @@
       </c>
       <c r="F1002" t="inlineStr"/>
       <c r="G1002" t="inlineStr"/>
-      <c r="H1002" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1002" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1003">
@@ -32927,10 +32681,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H1003" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1003" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1004">
@@ -32965,10 +32717,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1004" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1004" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1005">
@@ -33003,10 +32753,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H1005" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1005" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1006">
@@ -33041,10 +32789,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1006" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1006" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1007">
@@ -33079,10 +32825,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H1007" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1007" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1008">
@@ -33113,10 +32857,8 @@
           <t>315.6</t>
         </is>
       </c>
-      <c r="H1008" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1008" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1009">
@@ -33147,10 +32889,8 @@
           <t>317.4</t>
         </is>
       </c>
-      <c r="H1009" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1009" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1010">
@@ -33185,10 +32925,8 @@
           <t>3.1</t>
         </is>
       </c>
-      <c r="H1010" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1010" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1011">
@@ -33211,10 +32949,8 @@
       <c r="E1011" t="inlineStr"/>
       <c r="F1011" t="inlineStr"/>
       <c r="G1011" t="inlineStr"/>
-      <c r="H1011" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1011" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1012">
@@ -33237,10 +32973,8 @@
       <c r="E1012" t="inlineStr"/>
       <c r="F1012" t="inlineStr"/>
       <c r="G1012" t="inlineStr"/>
-      <c r="H1012" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1012" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1013">
@@ -33267,10 +33001,8 @@
       </c>
       <c r="F1013" t="inlineStr"/>
       <c r="G1013" t="inlineStr"/>
-      <c r="H1013" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1013" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1014">
@@ -33297,10 +33029,8 @@
       </c>
       <c r="F1014" t="inlineStr"/>
       <c r="G1014" t="inlineStr"/>
-      <c r="H1014" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1014" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1015">
@@ -33327,10 +33057,8 @@
       </c>
       <c r="F1015" t="inlineStr"/>
       <c r="G1015" t="inlineStr"/>
-      <c r="H1015" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1015" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1016">
@@ -33357,10 +33085,8 @@
       </c>
       <c r="F1016" t="inlineStr"/>
       <c r="G1016" t="inlineStr"/>
-      <c r="H1016" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1016" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1017">
@@ -33387,10 +33113,8 @@
       </c>
       <c r="F1017" t="inlineStr"/>
       <c r="G1017" t="inlineStr"/>
-      <c r="H1017" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1017" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1018">
@@ -33417,10 +33141,8 @@
       </c>
       <c r="F1018" t="inlineStr"/>
       <c r="G1018" t="inlineStr"/>
-      <c r="H1018" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1018" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1019">
@@ -33447,10 +33169,8 @@
       </c>
       <c r="F1019" t="inlineStr"/>
       <c r="G1019" t="inlineStr"/>
-      <c r="H1019" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1019" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1020">
@@ -33477,10 +33197,8 @@
       </c>
       <c r="F1020" t="inlineStr"/>
       <c r="G1020" t="inlineStr"/>
-      <c r="H1020" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1020" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1021">
@@ -33507,10 +33225,8 @@
       </c>
       <c r="F1021" t="inlineStr"/>
       <c r="G1021" t="inlineStr"/>
-      <c r="H1021" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1021" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1022">
@@ -33545,10 +33261,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1022" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1022" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1023">
@@ -33583,10 +33297,8 @@
           <t>9.5%</t>
         </is>
       </c>
-      <c r="H1023" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1023" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1024">
@@ -33609,10 +33321,8 @@
       <c r="E1024" t="inlineStr"/>
       <c r="F1024" t="inlineStr"/>
       <c r="G1024" t="inlineStr"/>
-      <c r="H1024" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1024" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1025">
@@ -33639,10 +33349,8 @@
       </c>
       <c r="F1025" t="inlineStr"/>
       <c r="G1025" t="inlineStr"/>
-      <c r="H1025" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1025" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1026">
@@ -33673,10 +33381,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H1026" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1026" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1027">
@@ -33703,10 +33409,8 @@
       </c>
       <c r="F1027" t="inlineStr"/>
       <c r="G1027" t="inlineStr"/>
-      <c r="H1027" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1027" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1028">
@@ -33729,10 +33433,8 @@
       <c r="E1028" t="inlineStr"/>
       <c r="F1028" t="inlineStr"/>
       <c r="G1028" t="inlineStr"/>
-      <c r="H1028" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1028" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1029">
@@ -33755,10 +33457,8 @@
       <c r="E1029" t="inlineStr"/>
       <c r="F1029" t="inlineStr"/>
       <c r="G1029" t="inlineStr"/>
-      <c r="H1029" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1029" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1030">
@@ -33781,10 +33481,8 @@
       <c r="E1030" t="inlineStr"/>
       <c r="F1030" t="inlineStr"/>
       <c r="G1030" t="inlineStr"/>
-      <c r="H1030" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1030" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1031">
@@ -33815,10 +33513,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H1031" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1031" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1032">
@@ -33853,10 +33549,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1032" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1032" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1033">
@@ -33891,10 +33585,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H1033" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1033" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1034">
@@ -33929,10 +33621,8 @@
           <t>26.0%</t>
         </is>
       </c>
-      <c r="H1034" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1034" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1035">
@@ -33967,10 +33657,8 @@
           <t>3.9%</t>
         </is>
       </c>
-      <c r="H1035" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1035" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1036">
@@ -34005,10 +33693,8 @@
           <t>25.1K</t>
         </is>
       </c>
-      <c r="H1036" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1036" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1037">
@@ -34035,10 +33721,8 @@
       </c>
       <c r="F1037" t="inlineStr"/>
       <c r="G1037" t="inlineStr"/>
-      <c r="H1037" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1037" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1038">
@@ -34065,10 +33749,8 @@
       </c>
       <c r="F1038" t="inlineStr"/>
       <c r="G1038" t="inlineStr"/>
-      <c r="H1038" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1038" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1039">
@@ -34103,10 +33785,8 @@
           <t>66.8%</t>
         </is>
       </c>
-      <c r="H1039" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1039" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1040">
@@ -34141,10 +33821,8 @@
           <t>2.75%</t>
         </is>
       </c>
-      <c r="H1040" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1040" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1041">
@@ -34171,10 +33849,8 @@
       </c>
       <c r="F1041" t="inlineStr"/>
       <c r="G1041" t="inlineStr"/>
-      <c r="H1041" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1041" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1042">
@@ -34201,10 +33877,8 @@
       </c>
       <c r="F1042" t="inlineStr"/>
       <c r="G1042" t="inlineStr"/>
-      <c r="H1042" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1042" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1043">
@@ -34231,10 +33905,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1043" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1043" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1044">
@@ -34261,10 +33933,8 @@
           <t>2%</t>
         </is>
       </c>
-      <c r="H1044" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1044" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1045">
@@ -34291,10 +33961,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H1045" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1045" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1046">
@@ -34317,10 +33985,8 @@
       </c>
       <c r="F1046" t="inlineStr"/>
       <c r="G1046" t="inlineStr"/>
-      <c r="H1046" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1046" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1047">
@@ -34339,10 +34005,8 @@
       <c r="E1047" t="inlineStr"/>
       <c r="F1047" t="inlineStr"/>
       <c r="G1047" t="inlineStr"/>
-      <c r="H1047" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1047" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1048">
@@ -34369,10 +34033,8 @@
           <t>$ -38.0B</t>
         </is>
       </c>
-      <c r="H1048" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1048" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1049">
@@ -34399,10 +34061,8 @@
           <t>$ 32.5B</t>
         </is>
       </c>
-      <c r="H1049" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1049" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1050">
@@ -34429,10 +34089,8 @@
           <t>$ 70.5B</t>
         </is>
       </c>
-      <c r="H1050" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1050" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1051">
@@ -34473,10 +34131,8 @@
       </c>
       <c r="F1052" t="inlineStr"/>
       <c r="G1052" t="inlineStr"/>
-      <c r="H1052" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1052" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1053">
@@ -34511,10 +34167,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1053" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1053" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1054">
@@ -34549,10 +34203,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H1054" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1054" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1055">
@@ -34587,10 +34239,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H1055" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1055" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1056">
@@ -34625,10 +34275,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H1056" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1056" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1057">
@@ -34663,10 +34311,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1057" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1057" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1058">
@@ -34697,10 +34343,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1058" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1058" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1059">
@@ -34735,10 +34379,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1059" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1059" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1060">
@@ -34773,10 +34415,8 @@
           <t>£-17.0B</t>
         </is>
       </c>
-      <c r="H1060" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1060" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1061">
@@ -34807,10 +34447,8 @@
           <t>£-6.8B</t>
         </is>
       </c>
-      <c r="H1061" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1061" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1062">
@@ -34845,10 +34483,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1062" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1062" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1063">
@@ -34883,10 +34519,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1063" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1063" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1064">
@@ -34917,10 +34551,8 @@
           <t>£-3.9B</t>
         </is>
       </c>
-      <c r="H1064" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1064" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1065">
@@ -34951,10 +34583,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1065" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1065" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1066">
@@ -34989,10 +34619,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H1066" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1066" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1067">
@@ -35027,10 +34655,8 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H1067" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1067" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1068">
@@ -35065,10 +34691,8 @@
           <t>€3.2B</t>
         </is>
       </c>
-      <c r="H1068" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1068" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1069">
@@ -35103,10 +34727,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1069" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1069" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1070">
@@ -35141,10 +34763,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H1070" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1070" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1071">
@@ -35179,10 +34799,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1071" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1071" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1072">
@@ -35217,10 +34835,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H1072" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1072" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1073">
@@ -35243,10 +34859,8 @@
       <c r="E1073" t="inlineStr"/>
       <c r="F1073" t="inlineStr"/>
       <c r="G1073" t="inlineStr"/>
-      <c r="H1073" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1073" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1074">
@@ -35273,10 +34887,8 @@
       </c>
       <c r="F1074" t="inlineStr"/>
       <c r="G1074" t="inlineStr"/>
-      <c r="H1074" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1074" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1075">
@@ -35299,10 +34911,8 @@
       <c r="E1075" t="inlineStr"/>
       <c r="F1075" t="inlineStr"/>
       <c r="G1075" t="inlineStr"/>
-      <c r="H1075" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1075" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1076">
@@ -35329,10 +34939,8 @@
       </c>
       <c r="F1076" t="inlineStr"/>
       <c r="G1076" t="inlineStr"/>
-      <c r="H1076" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1076" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1077">
@@ -35367,10 +34975,8 @@
           <t>€1.8B</t>
         </is>
       </c>
-      <c r="H1077" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1077" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1078">
@@ -35397,10 +35003,8 @@
       </c>
       <c r="F1078" t="inlineStr"/>
       <c r="G1078" t="inlineStr"/>
-      <c r="H1078" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1078" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1079">
@@ -35435,10 +35039,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1079" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1079" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1080">
@@ -35461,10 +35063,8 @@
       <c r="E1080" t="inlineStr"/>
       <c r="F1080" t="inlineStr"/>
       <c r="G1080" t="inlineStr"/>
-      <c r="H1080" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1080" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1081">
@@ -35495,10 +35095,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1081" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1081" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1082">
@@ -35533,10 +35131,8 @@
           <t>240.0K</t>
         </is>
       </c>
-      <c r="H1082" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1082" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1083">
@@ -35571,10 +35167,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1083" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1083" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1084">
@@ -35609,10 +35203,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1084" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1084" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1085">
@@ -35647,10 +35239,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1085" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1085" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1086">
@@ -35685,10 +35275,8 @@
           <t>209.0K</t>
         </is>
       </c>
-      <c r="H1086" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1086" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1087">
@@ -35723,10 +35311,8 @@
           <t>-10</t>
         </is>
       </c>
-      <c r="H1087" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1087" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1088">
@@ -35761,10 +35347,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1088" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1088" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1089">
@@ -35795,10 +35379,8 @@
           <t>1870.0K</t>
         </is>
       </c>
-      <c r="H1089" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1089" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1090">
@@ -35829,10 +35411,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H1090" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1090" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1091">
@@ -35863,10 +35443,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1091" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1091" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1092">
@@ -35897,10 +35475,8 @@
           <t>215.0K</t>
         </is>
       </c>
-      <c r="H1092" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1092" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1093">
@@ -35927,10 +35503,8 @@
       </c>
       <c r="F1093" t="inlineStr"/>
       <c r="G1093" t="inlineStr"/>
-      <c r="H1093" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1093" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1094">
@@ -35957,10 +35531,8 @@
       </c>
       <c r="F1094" t="inlineStr"/>
       <c r="G1094" t="inlineStr"/>
-      <c r="H1094" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1094" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1095">
@@ -35987,10 +35559,8 @@
       </c>
       <c r="F1095" t="inlineStr"/>
       <c r="G1095" t="inlineStr"/>
-      <c r="H1095" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1095" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1096">
@@ -36017,10 +35587,8 @@
       </c>
       <c r="F1096" t="inlineStr"/>
       <c r="G1096" t="inlineStr"/>
-      <c r="H1096" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1096" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1097">
@@ -36047,10 +35615,8 @@
       </c>
       <c r="F1097" t="inlineStr"/>
       <c r="G1097" t="inlineStr"/>
-      <c r="H1097" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1097" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1098">
@@ -36081,10 +35647,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1098" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1098" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1099">
@@ -36115,10 +35679,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H1099" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1099" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1100">
@@ -36153,10 +35715,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1100" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1100" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1101">
@@ -36191,10 +35751,8 @@
           <t>45</t>
         </is>
       </c>
-      <c r="H1101" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1101" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1102">
@@ -36229,10 +35787,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1102" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1102" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1103">
@@ -36259,10 +35815,8 @@
       </c>
       <c r="F1103" t="inlineStr"/>
       <c r="G1103" t="inlineStr"/>
-      <c r="H1103" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1103" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1104">
@@ -36289,10 +35843,8 @@
       </c>
       <c r="F1104" t="inlineStr"/>
       <c r="G1104" t="inlineStr"/>
-      <c r="H1104" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1104" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1105">
@@ -36319,10 +35871,8 @@
       </c>
       <c r="F1105" t="inlineStr"/>
       <c r="G1105" t="inlineStr"/>
-      <c r="H1105" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1105" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1106">
@@ -36349,10 +35899,8 @@
       </c>
       <c r="F1106" t="inlineStr"/>
       <c r="G1106" t="inlineStr"/>
-      <c r="H1106" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1106" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1107">
@@ -36379,10 +35927,8 @@
       </c>
       <c r="F1107" t="inlineStr"/>
       <c r="G1107" t="inlineStr"/>
-      <c r="H1107" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1107" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1108">
@@ -36405,10 +35951,8 @@
       <c r="E1108" t="inlineStr"/>
       <c r="F1108" t="inlineStr"/>
       <c r="G1108" t="inlineStr"/>
-      <c r="H1108" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1108" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1109">
@@ -36435,10 +35979,8 @@
       </c>
       <c r="F1109" t="inlineStr"/>
       <c r="G1109" t="inlineStr"/>
-      <c r="H1109" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1109" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1110">
@@ -36465,10 +36007,8 @@
       </c>
       <c r="F1110" t="inlineStr"/>
       <c r="G1110" t="inlineStr"/>
-      <c r="H1110" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1110" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1111">
@@ -36495,10 +36035,8 @@
       </c>
       <c r="F1111" t="inlineStr"/>
       <c r="G1111" t="inlineStr"/>
-      <c r="H1111" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1111" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1112">
@@ -36529,10 +36067,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1112" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1112" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1113">
@@ -36567,10 +36103,8 @@
           <t>7.5%</t>
         </is>
       </c>
-      <c r="H1113" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1113" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1114">
@@ -36597,10 +36131,8 @@
       </c>
       <c r="F1114" t="inlineStr"/>
       <c r="G1114" t="inlineStr"/>
-      <c r="H1114" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1114" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1115">
@@ -36631,10 +36163,8 @@
           <t>-5.8%</t>
         </is>
       </c>
-      <c r="H1115" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1115" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1116">
@@ -36665,10 +36195,8 @@
           <t>$ 3.6B</t>
         </is>
       </c>
-      <c r="H1116" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1116" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1117">
@@ -36703,10 +36231,8 @@
           <t>5%</t>
         </is>
       </c>
-      <c r="H1117" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1117" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1118">
@@ -36741,10 +36267,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="H1118" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1118" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1119">
@@ -36779,10 +36303,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H1119" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1119" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1120">
@@ -36817,10 +36339,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H1120" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1120" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1121">
@@ -36855,10 +36375,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1121" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1121" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1122">
@@ -36889,10 +36407,8 @@
           <t>75.3%</t>
         </is>
       </c>
-      <c r="H1122" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1122" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1123">
@@ -36927,10 +36443,8 @@
           <t>5.00%</t>
         </is>
       </c>
-      <c r="H1123" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1123" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1124">
@@ -36957,96 +36471,98 @@
       </c>
       <c r="F1124" t="inlineStr"/>
       <c r="G1124" t="inlineStr"/>
-      <c r="H1124" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1124" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1125">
       <c r="A1125" t="inlineStr">
         <is>
-          <t>Friday January 17 2025</t>
-        </is>
-      </c>
-      <c r="B1125" t="inlineStr"/>
-      <c r="C1125" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B1125" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1125" t="inlineStr">
+        <is>
+          <t>Building Permits MoM PrelDEC</t>
+        </is>
+      </c>
       <c r="D1125" t="inlineStr"/>
-      <c r="E1125" t="inlineStr"/>
+      <c r="E1125" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="F1125" t="inlineStr"/>
-      <c r="G1125" t="inlineStr"/>
-      <c r="H1125" t="inlineStr"/>
+      <c r="G1125" t="inlineStr">
+        <is>
+          <t>-0.9%</t>
+        </is>
+      </c>
+      <c r="H1125" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1126">
       <c r="A1126" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1126" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1126" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Housing Starts MoMDEC</t>
         </is>
       </c>
       <c r="D1126" t="inlineStr"/>
       <c r="E1126" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F1126" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>-1.8%</t>
+        </is>
+      </c>
+      <c r="F1126" t="inlineStr"/>
       <c r="G1126" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H1126" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1127">
       <c r="A1127" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1127" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>IF</t>
         </is>
       </c>
       <c r="C1127" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>IMF/World Economic Outlook</t>
         </is>
       </c>
       <c r="D1127" t="inlineStr"/>
-      <c r="E1127" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F1127" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="G1127" t="inlineStr">
-        <is>
-          <t>2.1%</t>
-        </is>
-      </c>
+      <c r="E1127" t="inlineStr"/>
+      <c r="F1127" t="inlineStr"/>
+      <c r="G1127" t="inlineStr"/>
       <c r="H1127" t="inlineStr">
         <is>
           <t>2</t>
@@ -37056,71 +36572,71 @@
     <row r="1128">
       <c r="A1128" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1128" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1128" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel MoMDEC</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D1128" t="inlineStr"/>
       <c r="E1128" t="inlineStr">
         <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="F1128" t="inlineStr">
+        <is>
           <t>0.3%</t>
         </is>
       </c>
-      <c r="F1128" t="inlineStr">
+      <c r="G1128" t="inlineStr">
         <is>
           <t>0.1%</t>
         </is>
       </c>
-      <c r="G1128" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
       <c r="H1128" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1129">
       <c r="A1129" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1129" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1129" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel YoYDEC</t>
+          <t>Capacity UtilizationDEC</t>
         </is>
       </c>
       <c r="D1129" t="inlineStr"/>
       <c r="E1129" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>76.8%</t>
         </is>
       </c>
       <c r="F1129" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>76.9%</t>
         </is>
       </c>
       <c r="G1129" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>76.9%</t>
         </is>
       </c>
       <c r="H1129" t="inlineStr">
@@ -37132,29 +36648,29 @@
     <row r="1130">
       <c r="A1130" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1130" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1130" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D1130" t="inlineStr"/>
       <c r="E1130" t="inlineStr">
         <is>
-          <t>€32B</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="F1130" t="inlineStr"/>
       <c r="G1130" t="inlineStr">
         <is>
-          <t>€33.0B</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="H1130" t="inlineStr">
@@ -37166,31 +36682,35 @@
     <row r="1131">
       <c r="A1131" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1131" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1131" t="inlineStr">
         <is>
-          <t>Current Account s.aNOV</t>
+          <t>Manufacturing Production MoMDEC</t>
         </is>
       </c>
       <c r="D1131" t="inlineStr"/>
       <c r="E1131" t="inlineStr">
         <is>
-          <t>€33.5B</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1131" t="inlineStr">
         <is>
-          <t>€28B</t>
-        </is>
-      </c>
-      <c r="G1131" t="inlineStr"/>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="G1131" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H1131" t="inlineStr">
         <is>
           <t>3</t>
@@ -37200,107 +36720,91 @@
     <row r="1132">
       <c r="A1132" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1132" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1132" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Manufacturing Production YoYDEC</t>
         </is>
       </c>
       <c r="D1132" t="inlineStr"/>
       <c r="E1132" t="inlineStr">
         <is>
-          <t>€-3.93B</t>
+          <t>-1%</t>
         </is>
       </c>
       <c r="F1132" t="inlineStr"/>
       <c r="G1132" t="inlineStr">
         <is>
-          <t>€-4.2B</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="H1132" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1133">
       <c r="A1133" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1133" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1133" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>Baker Hughes Oil Rig CountJAN/17</t>
         </is>
       </c>
       <c r="D1133" t="inlineStr"/>
       <c r="E1133" t="inlineStr">
         <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="F1133" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="G1133" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
+          <t>480</t>
+        </is>
+      </c>
+      <c r="F1133" t="inlineStr"/>
+      <c r="G1133" t="inlineStr"/>
       <c r="H1133" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1134">
       <c r="A1134" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1134" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1134" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FinalDEC</t>
+          <t>Baker Hughes Total Rigs CountJAN/17</t>
         </is>
       </c>
       <c r="D1134" t="inlineStr"/>
       <c r="E1134" t="inlineStr">
         <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F1134" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="G1134" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+          <t>584</t>
+        </is>
+      </c>
+      <c r="F1134" t="inlineStr"/>
+      <c r="G1134" t="inlineStr"/>
       <c r="H1134" t="inlineStr">
         <is>
           <t>3</t>
@@ -37310,73 +36814,57 @@
     <row r="1135">
       <c r="A1135" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1135" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1135" t="inlineStr">
         <is>
-          <t>CPI FinalDEC</t>
+          <t>Net Long-term TIC FlowsNOV</t>
         </is>
       </c>
       <c r="D1135" t="inlineStr"/>
       <c r="E1135" t="inlineStr">
         <is>
-          <t>126.62</t>
-        </is>
-      </c>
-      <c r="F1135" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
-      <c r="G1135" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
+          <t>$152.3B</t>
+        </is>
+      </c>
+      <c r="F1135" t="inlineStr"/>
+      <c r="G1135" t="inlineStr"/>
       <c r="H1135" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1136">
       <c r="A1136" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1136" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1136" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FinalDEC</t>
+          <t>Foreign Bond InvestmentNOV</t>
         </is>
       </c>
       <c r="D1136" t="inlineStr"/>
       <c r="E1136" t="inlineStr">
         <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F1136" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G1136" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>$92.1B</t>
+        </is>
+      </c>
+      <c r="F1136" t="inlineStr"/>
+      <c r="G1136" t="inlineStr"/>
       <c r="H1136" t="inlineStr">
         <is>
           <t>3</t>
@@ -37386,21 +36874,25 @@
     <row r="1137">
       <c r="A1137" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1137" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1137" t="inlineStr">
         <is>
-          <t>Bundesbank Nagel Speech</t>
+          <t>Overall Net Capital FlowsNOV</t>
         </is>
       </c>
       <c r="D1137" t="inlineStr"/>
-      <c r="E1137" t="inlineStr"/>
+      <c r="E1137" t="inlineStr">
+        <is>
+          <t>$203.6B</t>
+        </is>
+      </c>
       <c r="F1137" t="inlineStr"/>
       <c r="G1137" t="inlineStr"/>
       <c r="H1137" t="inlineStr">
@@ -37410,33 +36902,25 @@
       </c>
     </row>
     <row r="1138">
-      <c r="A1138" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
+      <c r="A1138" t="inlineStr"/>
       <c r="B1138" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1138" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>50-Year KTB Auction</t>
         </is>
       </c>
       <c r="D1138" t="inlineStr"/>
       <c r="E1138" t="inlineStr">
         <is>
-          <t>€5628M</t>
+          <t>2.40%</t>
         </is>
       </c>
       <c r="F1138" t="inlineStr"/>
-      <c r="G1138" t="inlineStr">
-        <is>
-          <t>€2900.0M</t>
-        </is>
-      </c>
+      <c r="G1138" t="inlineStr"/>
       <c r="H1138" t="inlineStr">
         <is>
           <t>3</t>
@@ -37446,169 +36930,165 @@
     <row r="1139">
       <c r="A1139" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1139" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C1139" t="inlineStr">
-        <is>
-          <t>ECB Cipollone Speech</t>
-        </is>
-      </c>
+          <t>Sunday January 19 2025</t>
+        </is>
+      </c>
+      <c r="B1139" t="inlineStr"/>
+      <c r="C1139" t="inlineStr"/>
       <c r="D1139" t="inlineStr"/>
       <c r="E1139" t="inlineStr"/>
       <c r="F1139" t="inlineStr"/>
       <c r="G1139" t="inlineStr"/>
-      <c r="H1139" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1139" t="inlineStr"/>
     </row>
     <row r="1140">
       <c r="A1140" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1140" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1140" t="inlineStr">
         <is>
-          <t>Bank Loan Growth YoYJAN/03</t>
+          <t>Machinery Orders MoMNOV</t>
         </is>
       </c>
       <c r="D1140" t="inlineStr"/>
       <c r="E1140" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>2.1%</t>
         </is>
       </c>
       <c r="F1140" t="inlineStr"/>
-      <c r="G1140" t="inlineStr"/>
+      <c r="G1140" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1140" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1141">
       <c r="A1141" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1141" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1141" t="inlineStr">
         <is>
-          <t>Deposit Growth YoYJAN/03</t>
+          <t>Machinery Orders YoYNOV</t>
         </is>
       </c>
       <c r="D1141" t="inlineStr"/>
       <c r="E1141" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>5.6%</t>
         </is>
       </c>
       <c r="F1141" t="inlineStr"/>
-      <c r="G1141" t="inlineStr"/>
+      <c r="G1141" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
       <c r="H1141" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1142">
       <c r="A1142" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1142" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1142" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/10</t>
+          <t>Loan Prime Rate 1Y</t>
         </is>
       </c>
       <c r="D1142" t="inlineStr"/>
       <c r="E1142" t="inlineStr">
         <is>
-          <t>$634.59B</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="F1142" t="inlineStr"/>
       <c r="G1142" t="inlineStr"/>
       <c r="H1142" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1143">
       <c r="A1143" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1143" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1143" t="inlineStr">
         <is>
-          <t>Foreign Securities PurchasesNOV</t>
+          <t>Loan Prime Rate 5YJAN</t>
         </is>
       </c>
       <c r="D1143" t="inlineStr"/>
       <c r="E1143" t="inlineStr">
         <is>
-          <t>C$21.55B</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="F1143" t="inlineStr"/>
       <c r="G1143" t="inlineStr"/>
       <c r="H1143" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1144">
       <c r="A1144" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1144" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1144" t="inlineStr">
         <is>
-          <t>Foreign Securities Purchases by CanadiansNOV</t>
+          <t>Capacity Utilization MoMNOV</t>
         </is>
       </c>
       <c r="D1144" t="inlineStr"/>
       <c r="E1144" t="inlineStr">
         <is>
-          <t>C$-2.65B</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F1144" t="inlineStr"/>
@@ -37622,203 +37102,167 @@
     <row r="1145">
       <c r="A1145" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1145" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1145" t="inlineStr">
         <is>
-          <t>Building Permits PrelDEC</t>
+          <t>Industrial Production MoM FinalNOV</t>
         </is>
       </c>
       <c r="D1145" t="inlineStr"/>
       <c r="E1145" t="inlineStr">
         <is>
-          <t>1.493M</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F1145" t="inlineStr">
         <is>
-          <t>1.46M</t>
+          <t>-2.3%</t>
         </is>
       </c>
       <c r="G1145" t="inlineStr">
         <is>
-          <t>1.48M</t>
+          <t>-2.3%</t>
         </is>
       </c>
       <c r="H1145" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1146">
       <c r="A1146" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1146" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1146" t="inlineStr">
         <is>
-          <t>Housing StartsDEC</t>
+          <t>Industrial Production YoY FinalNOV</t>
         </is>
       </c>
       <c r="D1146" t="inlineStr"/>
       <c r="E1146" t="inlineStr">
         <is>
-          <t>1.289M</t>
-        </is>
-      </c>
-      <c r="F1146" t="inlineStr">
-        <is>
-          <t>1.32M</t>
-        </is>
-      </c>
+          <t>1.4%</t>
+        </is>
+      </c>
+      <c r="F1146" t="inlineStr"/>
       <c r="G1146" t="inlineStr">
         <is>
-          <t>1.32M</t>
+          <t>-2.8%</t>
         </is>
       </c>
       <c r="H1146" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1147">
       <c r="A1147" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1147" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1147" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelDEC</t>
+          <t>Tertiary Industry Index MoMNOV</t>
         </is>
       </c>
       <c r="D1147" t="inlineStr"/>
       <c r="E1147" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F1147" t="inlineStr"/>
-      <c r="G1147" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
+      <c r="G1147" t="inlineStr"/>
       <c r="H1147" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1148">
-      <c r="A1148" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A1148" t="inlineStr"/>
       <c r="B1148" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1148" t="inlineStr">
         <is>
-          <t>Housing Starts MoMDEC</t>
+          <t>Eurogroup Meeting</t>
         </is>
       </c>
       <c r="D1148" t="inlineStr"/>
-      <c r="E1148" t="inlineStr">
-        <is>
-          <t>-1.8%</t>
-        </is>
-      </c>
+      <c r="E1148" t="inlineStr"/>
       <c r="F1148" t="inlineStr"/>
-      <c r="G1148" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
+      <c r="G1148" t="inlineStr"/>
       <c r="H1148" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1149">
       <c r="A1149" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1149" t="inlineStr">
-        <is>
-          <t>IF</t>
-        </is>
-      </c>
-      <c r="C1149" t="inlineStr">
-        <is>
-          <t>IMF/World Economic Outlook</t>
-        </is>
-      </c>
+          <t>Monday January 20 2025</t>
+        </is>
+      </c>
+      <c r="B1149" t="inlineStr"/>
+      <c r="C1149" t="inlineStr"/>
       <c r="D1149" t="inlineStr"/>
       <c r="E1149" t="inlineStr"/>
       <c r="F1149" t="inlineStr"/>
       <c r="G1149" t="inlineStr"/>
-      <c r="H1149" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="H1149" t="inlineStr"/>
     </row>
     <row r="1150">
       <c r="A1150" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1150" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1150" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1150" t="inlineStr"/>
       <c r="E1150" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F1150" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="F1150" t="inlineStr"/>
       <c r="G1150" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1150" t="inlineStr">
@@ -37830,33 +37274,29 @@
     <row r="1151">
       <c r="A1151" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1151" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1151" t="inlineStr">
         <is>
-          <t>Capacity UtilizationDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1151" t="inlineStr"/>
       <c r="E1151" t="inlineStr">
         <is>
-          <t>76.8%</t>
-        </is>
-      </c>
-      <c r="F1151" t="inlineStr">
-        <is>
-          <t>76.9%</t>
-        </is>
-      </c>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F1151" t="inlineStr"/>
       <c r="G1151" t="inlineStr">
         <is>
-          <t>76.9%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="H1151" t="inlineStr">
@@ -37868,29 +37308,29 @@
     <row r="1152">
       <c r="A1152" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>04:15 AM</t>
         </is>
       </c>
       <c r="B1152" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1152" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D1152" t="inlineStr"/>
       <c r="E1152" t="inlineStr">
         <is>
-          <t>-0.9%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="F1152" t="inlineStr"/>
       <c r="G1152" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1152" t="inlineStr">
@@ -37902,17 +37342,17 @@
     <row r="1153">
       <c r="A1153" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1153" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1153" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMDEC</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D1153" t="inlineStr"/>
@@ -37921,16 +37361,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="F1153" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1153" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="F1153" t="inlineStr"/>
+      <c r="G1153" t="inlineStr"/>
       <c r="H1153" t="inlineStr">
         <is>
           <t>3</t>
@@ -37940,31 +37372,23 @@
     <row r="1154">
       <c r="A1154" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1154" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1154" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYDEC</t>
+          <t>3-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D1154" t="inlineStr"/>
-      <c r="E1154" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
+      <c r="E1154" t="inlineStr"/>
       <c r="F1154" t="inlineStr"/>
-      <c r="G1154" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="G1154" t="inlineStr"/>
       <c r="H1154" t="inlineStr">
         <is>
           <t>3</t>
@@ -37974,25 +37398,21 @@
     <row r="1155">
       <c r="A1155" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1155" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1155" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/17</t>
+          <t>9-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D1155" t="inlineStr"/>
-      <c r="E1155" t="inlineStr">
-        <is>
-          <t>480</t>
-        </is>
-      </c>
+      <c r="E1155" t="inlineStr"/>
       <c r="F1155" t="inlineStr"/>
       <c r="G1155" t="inlineStr"/>
       <c r="H1155" t="inlineStr">
@@ -38004,23 +37424,23 @@
     <row r="1156">
       <c r="A1156" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1156" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1156" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/17</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D1156" t="inlineStr"/>
       <c r="E1156" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>$9.1B</t>
         </is>
       </c>
       <c r="F1156" t="inlineStr"/>
@@ -38034,55 +37454,55 @@
     <row r="1157">
       <c r="A1157" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1157" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1157" t="inlineStr">
         <is>
-          <t>Net Long-term TIC FlowsNOV</t>
+          <t>Current AccountQ4</t>
         </is>
       </c>
       <c r="D1157" t="inlineStr"/>
       <c r="E1157" t="inlineStr">
         <is>
-          <t>$152.3B</t>
+          <t>$9.1B</t>
         </is>
       </c>
       <c r="F1157" t="inlineStr"/>
-      <c r="G1157" t="inlineStr"/>
+      <c r="G1157" t="inlineStr">
+        <is>
+          <t>$ 10B</t>
+        </is>
+      </c>
       <c r="H1157" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1158">
       <c r="A1158" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1158" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1158" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentNOV</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1158" t="inlineStr"/>
-      <c r="E1158" t="inlineStr">
-        <is>
-          <t>$92.1B</t>
-        </is>
-      </c>
+      <c r="E1158" t="inlineStr"/>
       <c r="F1158" t="inlineStr"/>
       <c r="G1158" t="inlineStr"/>
       <c r="H1158" t="inlineStr">
@@ -38094,25 +37514,21 @@
     <row r="1159">
       <c r="A1159" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1159" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1159" t="inlineStr">
         <is>
-          <t>Overall Net Capital FlowsNOV</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1159" t="inlineStr"/>
-      <c r="E1159" t="inlineStr">
-        <is>
-          <t>$203.6B</t>
-        </is>
-      </c>
+      <c r="E1159" t="inlineStr"/>
       <c r="F1159" t="inlineStr"/>
       <c r="G1159" t="inlineStr"/>
       <c r="H1159" t="inlineStr">
@@ -38122,23 +37538,23 @@
       </c>
     </row>
     <row r="1160">
-      <c r="A1160" t="inlineStr"/>
+      <c r="A1160" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B1160" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1160" t="inlineStr">
         <is>
-          <t>50-Year KTB Auction</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1160" t="inlineStr"/>
-      <c r="E1160" t="inlineStr">
-        <is>
-          <t>2.40%</t>
-        </is>
-      </c>
+      <c r="E1160" t="inlineStr"/>
       <c r="F1160" t="inlineStr"/>
       <c r="G1160" t="inlineStr"/>
       <c r="H1160" t="inlineStr">
@@ -38150,169 +37566,189 @@
     <row r="1161">
       <c r="A1161" t="inlineStr">
         <is>
-          <t>Sunday January 19 2025</t>
-        </is>
-      </c>
-      <c r="B1161" t="inlineStr"/>
-      <c r="C1161" t="inlineStr"/>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B1161" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C1161" t="inlineStr">
+        <is>
+          <t>BoC Business Outlook Survey</t>
+        </is>
+      </c>
       <c r="D1161" t="inlineStr"/>
       <c r="E1161" t="inlineStr"/>
       <c r="F1161" t="inlineStr"/>
       <c r="G1161" t="inlineStr"/>
-      <c r="H1161" t="inlineStr"/>
+      <c r="H1161" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1162">
       <c r="A1162" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1162" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1162" t="inlineStr">
         <is>
-          <t>Machinery Orders MoMNOV</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1162" t="inlineStr"/>
       <c r="E1162" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="F1162" t="inlineStr"/>
       <c r="G1162" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="H1162" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1163">
       <c r="A1163" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1163" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1163" t="inlineStr">
         <is>
-          <t>Machinery Orders YoYNOV</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1163" t="inlineStr"/>
       <c r="E1163" t="inlineStr">
         <is>
-          <t>5.6%</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="F1163" t="inlineStr"/>
       <c r="G1163" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>4.4%</t>
         </is>
       </c>
       <c r="H1163" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1164">
       <c r="A1164" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1164" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1164" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 1Y</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D1164" t="inlineStr"/>
       <c r="E1164" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>$1234M</t>
         </is>
       </c>
       <c r="F1164" t="inlineStr"/>
-      <c r="G1164" t="inlineStr"/>
+      <c r="G1164" t="inlineStr">
+        <is>
+          <t>$ 1463M</t>
+        </is>
+      </c>
       <c r="H1164" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1165">
       <c r="A1165" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1165" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1165" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 5YJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1165" t="inlineStr"/>
-      <c r="E1165" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
+      <c r="E1165" t="inlineStr"/>
       <c r="F1165" t="inlineStr"/>
-      <c r="G1165" t="inlineStr"/>
+      <c r="G1165" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1165" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1166">
       <c r="A1166" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1166" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1166" t="inlineStr">
         <is>
-          <t>Capacity Utilization MoMNOV</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1166" t="inlineStr"/>
       <c r="E1166" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F1166" t="inlineStr"/>
-      <c r="G1166" t="inlineStr"/>
+      <c r="G1166" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
       <c r="H1166" t="inlineStr">
         <is>
           <t>3</t>
@@ -38322,7 +37758,7 @@
     <row r="1167">
       <c r="A1167" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B1167" t="inlineStr">
@@ -38332,25 +37768,17 @@
       </c>
       <c r="C1167" t="inlineStr">
         <is>
-          <t>Industrial Production MoM FinalNOV</t>
+          <t>40-Year JGB Auction</t>
         </is>
       </c>
       <c r="D1167" t="inlineStr"/>
       <c r="E1167" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F1167" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
-      <c r="G1167" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
+          <t>2.550%</t>
+        </is>
+      </c>
+      <c r="F1167" t="inlineStr"/>
+      <c r="G1167" t="inlineStr"/>
       <c r="H1167" t="inlineStr">
         <is>
           <t>3</t>
@@ -38358,33 +37786,25 @@
       </c>
     </row>
     <row r="1168">
-      <c r="A1168" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
+      <c r="A1168" t="inlineStr"/>
       <c r="B1168" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1168" t="inlineStr">
         <is>
-          <t>Industrial Production YoY FinalNOV</t>
+          <t>10-Year KTB Auction</t>
         </is>
       </c>
       <c r="D1168" t="inlineStr"/>
       <c r="E1168" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>2.665%</t>
         </is>
       </c>
       <c r="F1168" t="inlineStr"/>
-      <c r="G1168" t="inlineStr">
-        <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
+      <c r="G1168" t="inlineStr"/>
       <c r="H1168" t="inlineStr">
         <is>
           <t>3</t>
@@ -38392,25 +37812,21 @@
       </c>
     </row>
     <row r="1169">
-      <c r="A1169" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
+      <c r="A1169" t="inlineStr"/>
       <c r="B1169" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1169" t="inlineStr">
         <is>
-          <t>Tertiary Industry Index MoMNOV</t>
+          <t>FDI (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D1169" t="inlineStr"/>
       <c r="E1169" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>-27.9%</t>
         </is>
       </c>
       <c r="F1169" t="inlineStr"/>
@@ -38425,18 +37841,26 @@
       <c r="A1170" t="inlineStr"/>
       <c r="B1170" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1170" t="inlineStr">
         <is>
-          <t>Eurogroup Meeting</t>
+          <t>Consumer ConfidenceDEC</t>
         </is>
       </c>
       <c r="D1170" t="inlineStr"/>
-      <c r="E1170" t="inlineStr"/>
+      <c r="E1170" t="inlineStr">
+        <is>
+          <t>80.6</t>
+        </is>
+      </c>
       <c r="F1170" t="inlineStr"/>
-      <c r="G1170" t="inlineStr"/>
+      <c r="G1170" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
       <c r="H1170" t="inlineStr">
         <is>
           <t>3</t>
@@ -38444,81 +37868,81 @@
       </c>
     </row>
     <row r="1171">
-      <c r="A1171" t="inlineStr">
-        <is>
-          <t>Monday January 20 2025</t>
-        </is>
-      </c>
-      <c r="B1171" t="inlineStr"/>
-      <c r="C1171" t="inlineStr"/>
+      <c r="A1171" t="inlineStr"/>
+      <c r="B1171" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C1171" t="inlineStr">
+        <is>
+          <t>Leading Indicator MoMDEC</t>
+        </is>
+      </c>
       <c r="D1171" t="inlineStr"/>
-      <c r="E1171" t="inlineStr"/>
+      <c r="E1171" t="inlineStr">
+        <is>
+          <t>1.44%</t>
+        </is>
+      </c>
       <c r="F1171" t="inlineStr"/>
-      <c r="G1171" t="inlineStr"/>
-      <c r="H1171" t="inlineStr"/>
+      <c r="G1171" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
+      <c r="H1171" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1172">
-      <c r="A1172" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
+      <c r="A1172" t="inlineStr"/>
       <c r="B1172" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1172" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Central Government DebtDEC</t>
         </is>
       </c>
       <c r="D1172" t="inlineStr"/>
       <c r="E1172" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>TRY9.005T</t>
         </is>
       </c>
       <c r="F1172" t="inlineStr"/>
       <c r="G1172" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>TRY 9.0T</t>
         </is>
       </c>
       <c r="H1172" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1173">
-      <c r="A1173" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
+      <c r="A1173" t="inlineStr"/>
       <c r="B1173" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1173" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>ECOFIN Meeting</t>
         </is>
       </c>
       <c r="D1173" t="inlineStr"/>
-      <c r="E1173" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="E1173" t="inlineStr"/>
       <c r="F1173" t="inlineStr"/>
-      <c r="G1173" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
+      <c r="G1173" t="inlineStr"/>
       <c r="H1173" t="inlineStr">
         <is>
           <t>3</t>
@@ -38528,59 +37952,35 @@
     <row r="1174">
       <c r="A1174" t="inlineStr">
         <is>
-          <t>04:15 AM</t>
-        </is>
-      </c>
-      <c r="B1174" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1174" t="inlineStr">
-        <is>
-          <t>Construction Output YoYNOV</t>
-        </is>
-      </c>
+          <t>Tuesday January 21 2025</t>
+        </is>
+      </c>
+      <c r="B1174" t="inlineStr"/>
+      <c r="C1174" t="inlineStr"/>
       <c r="D1174" t="inlineStr"/>
-      <c r="E1174" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
+      <c r="E1174" t="inlineStr"/>
       <c r="F1174" t="inlineStr"/>
-      <c r="G1174" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="H1174" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1174" t="inlineStr"/>
+      <c r="H1174" t="inlineStr"/>
     </row>
     <row r="1175">
       <c r="A1175" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1175" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1175" t="inlineStr">
         <is>
-          <t>Construction Output YoYNOV</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1175" t="inlineStr"/>
-      <c r="E1175" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1175" t="inlineStr"/>
       <c r="F1175" t="inlineStr"/>
       <c r="G1175" t="inlineStr"/>
       <c r="H1175" t="inlineStr">
@@ -38592,17 +37992,17 @@
     <row r="1176">
       <c r="A1176" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1176" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1176" t="inlineStr">
         <is>
-          <t>3-Month Bubill Auction</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1176" t="inlineStr"/>
@@ -38618,139 +38018,159 @@
     <row r="1177">
       <c r="A1177" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1177" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1177" t="inlineStr">
         <is>
-          <t>9-Month Bubill Auction</t>
+          <t>New Car Registrations YoYDEC</t>
         </is>
       </c>
       <c r="D1177" t="inlineStr"/>
-      <c r="E1177" t="inlineStr"/>
+      <c r="E1177" t="inlineStr">
+        <is>
+          <t>-1.9%</t>
+        </is>
+      </c>
       <c r="F1177" t="inlineStr"/>
       <c r="G1177" t="inlineStr"/>
       <c r="H1177" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1178">
       <c r="A1178" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1178" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1178" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Unemployment RateNOV</t>
         </is>
       </c>
       <c r="D1178" t="inlineStr"/>
       <c r="E1178" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F1178" t="inlineStr"/>
-      <c r="G1178" t="inlineStr"/>
+      <c r="G1178" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="H1178" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1179">
       <c r="A1179" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1179" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1179" t="inlineStr">
         <is>
-          <t>Current AccountQ4</t>
+          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D1179" t="inlineStr"/>
       <c r="E1179" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F1179" t="inlineStr"/>
       <c r="G1179" t="inlineStr">
         <is>
-          <t>$ 10B</t>
+          <t>4.9%</t>
         </is>
       </c>
       <c r="H1179" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1180">
       <c r="A1180" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1180" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1180" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>Employment ChangeNOV</t>
         </is>
       </c>
       <c r="D1180" t="inlineStr"/>
-      <c r="E1180" t="inlineStr"/>
+      <c r="E1180" t="inlineStr">
+        <is>
+          <t>173K</t>
+        </is>
+      </c>
       <c r="F1180" t="inlineStr"/>
       <c r="G1180" t="inlineStr"/>
       <c r="H1180" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1181">
       <c r="A1181" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1181" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1181" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D1181" t="inlineStr"/>
-      <c r="E1181" t="inlineStr"/>
+      <c r="E1181" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="F1181" t="inlineStr"/>
-      <c r="G1181" t="inlineStr"/>
+      <c r="G1181" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
       <c r="H1181" t="inlineStr">
         <is>
           <t>3</t>
@@ -38760,23 +38180,31 @@
     <row r="1182">
       <c r="A1182" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1182" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1182" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>Claimant Count ChangeDEC</t>
         </is>
       </c>
       <c r="D1182" t="inlineStr"/>
-      <c r="E1182" t="inlineStr"/>
+      <c r="E1182" t="inlineStr">
+        <is>
+          <t>0.3K</t>
+        </is>
+      </c>
       <c r="F1182" t="inlineStr"/>
-      <c r="G1182" t="inlineStr"/>
+      <c r="G1182" t="inlineStr">
+        <is>
+          <t>-5K</t>
+        </is>
+      </c>
       <c r="H1182" t="inlineStr">
         <is>
           <t>3</t>
@@ -38786,57 +38214,61 @@
     <row r="1183">
       <c r="A1183" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1183" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1183" t="inlineStr">
         <is>
-          <t>BoC Business Outlook Survey</t>
+          <t>HMRC Payrolls ChangeDEC</t>
         </is>
       </c>
       <c r="D1183" t="inlineStr"/>
-      <c r="E1183" t="inlineStr"/>
+      <c r="E1183" t="inlineStr">
+        <is>
+          <t>-35K</t>
+        </is>
+      </c>
       <c r="F1183" t="inlineStr"/>
-      <c r="G1183" t="inlineStr"/>
+      <c r="G1183" t="inlineStr">
+        <is>
+          <t>20K</t>
+        </is>
+      </c>
       <c r="H1183" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1184">
       <c r="A1184" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1184" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1184" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Gold Production YoYNOV</t>
         </is>
       </c>
       <c r="D1184" t="inlineStr"/>
       <c r="E1184" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>-3.4%</t>
         </is>
       </c>
       <c r="F1184" t="inlineStr"/>
-      <c r="G1184" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G1184" t="inlineStr"/>
       <c r="H1184" t="inlineStr">
         <is>
           <t>3</t>
@@ -38846,31 +38278,27 @@
     <row r="1185">
       <c r="A1185" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1185" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1185" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Mining Production MoMNOV</t>
         </is>
       </c>
       <c r="D1185" t="inlineStr"/>
       <c r="E1185" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F1185" t="inlineStr"/>
-      <c r="G1185" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
+      <c r="G1185" t="inlineStr"/>
       <c r="H1185" t="inlineStr">
         <is>
           <t>3</t>
@@ -38880,31 +38308,27 @@
     <row r="1186">
       <c r="A1186" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1186" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1186" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Mining Production YoYNOV</t>
         </is>
       </c>
       <c r="D1186" t="inlineStr"/>
       <c r="E1186" t="inlineStr">
         <is>
-          <t>$1234M</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F1186" t="inlineStr"/>
-      <c r="G1186" t="inlineStr">
-        <is>
-          <t>$ 1463M</t>
-        </is>
-      </c>
+      <c r="G1186" t="inlineStr"/>
       <c r="H1186" t="inlineStr">
         <is>
           <t>3</t>
@@ -38914,87 +38338,83 @@
     <row r="1187">
       <c r="A1187" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1187" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1187" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D1187" t="inlineStr"/>
-      <c r="E1187" t="inlineStr"/>
+      <c r="E1187" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
       <c r="F1187" t="inlineStr"/>
-      <c r="G1187" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G1187" t="inlineStr"/>
       <c r="H1187" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1188">
       <c r="A1188" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1188" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1188" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D1188" t="inlineStr"/>
       <c r="E1188" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>15.7</t>
         </is>
       </c>
       <c r="F1188" t="inlineStr"/>
-      <c r="G1188" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="G1188" t="inlineStr"/>
       <c r="H1188" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1189">
       <c r="A1189" t="inlineStr">
         <is>
-          <t>10:35 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1189" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1189" t="inlineStr">
         <is>
-          <t>40-Year JGB Auction</t>
+          <t>ZEW Current ConditionsJAN</t>
         </is>
       </c>
       <c r="D1189" t="inlineStr"/>
       <c r="E1189" t="inlineStr">
         <is>
-          <t>2.550%</t>
+          <t>-93.1</t>
         </is>
       </c>
       <c r="F1189" t="inlineStr"/>
@@ -39006,23 +38426,23 @@
       </c>
     </row>
     <row r="1190">
-      <c r="A1190" t="inlineStr"/>
+      <c r="A1190" t="inlineStr">
+        <is>
+          <t>05:30 AM</t>
+        </is>
+      </c>
       <c r="B1190" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1190" t="inlineStr">
         <is>
-          <t>10-Year KTB Auction</t>
+          <t>Bund/g Auction</t>
         </is>
       </c>
       <c r="D1190" t="inlineStr"/>
-      <c r="E1190" t="inlineStr">
-        <is>
-          <t>2.665%</t>
-        </is>
-      </c>
+      <c r="E1190" t="inlineStr"/>
       <c r="F1190" t="inlineStr"/>
       <c r="G1190" t="inlineStr"/>
       <c r="H1190" t="inlineStr">
@@ -39032,21 +38452,25 @@
       </c>
     </row>
     <row r="1191">
-      <c r="A1191" t="inlineStr"/>
+      <c r="A1191" t="inlineStr">
+        <is>
+          <t>07:00 AM</t>
+        </is>
+      </c>
       <c r="B1191" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1191" t="inlineStr">
         <is>
-          <t>FDI (YTD) YoYDEC</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D1191" t="inlineStr"/>
       <c r="E1191" t="inlineStr">
         <is>
-          <t>-27.9%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F1191" t="inlineStr"/>
@@ -39058,25 +38482,29 @@
       </c>
     </row>
     <row r="1192">
-      <c r="A1192" t="inlineStr"/>
+      <c r="A1192" t="inlineStr">
+        <is>
+          <t>07:00 AM</t>
+        </is>
+      </c>
       <c r="B1192" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1192" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceDEC</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1192" t="inlineStr"/>
-      <c r="E1192" t="inlineStr"/>
+      <c r="E1192" t="inlineStr">
+        <is>
+          <t>-1.2%</t>
+        </is>
+      </c>
       <c r="F1192" t="inlineStr"/>
-      <c r="G1192" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
+      <c r="G1192" t="inlineStr"/>
       <c r="H1192" t="inlineStr">
         <is>
           <t>3</t>
@@ -39084,121 +38512,165 @@
       </c>
     </row>
     <row r="1193">
-      <c r="A1193" t="inlineStr"/>
+      <c r="A1193" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B1193" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1193" t="inlineStr">
         <is>
-          <t>Leading Indicator MoMDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1193" t="inlineStr"/>
       <c r="E1193" t="inlineStr">
         <is>
-          <t>1.44%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="F1193" t="inlineStr"/>
       <c r="G1193" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="H1193" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1194">
-      <c r="A1194" t="inlineStr"/>
+      <c r="A1194" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B1194" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1194" t="inlineStr">
         <is>
-          <t>Central Government DebtDEC</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1194" t="inlineStr"/>
       <c r="E1194" t="inlineStr">
         <is>
-          <t>TRY9.005T</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F1194" t="inlineStr"/>
       <c r="G1194" t="inlineStr">
         <is>
-          <t>TRY 9.0T</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="H1194" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1195">
-      <c r="A1195" t="inlineStr"/>
+      <c r="A1195" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B1195" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1195" t="inlineStr">
         <is>
-          <t>ECOFIN Meeting</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1195" t="inlineStr"/>
-      <c r="E1195" t="inlineStr"/>
+      <c r="E1195" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="F1195" t="inlineStr"/>
-      <c r="G1195" t="inlineStr"/>
+      <c r="G1195" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1195" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1196">
       <c r="A1196" t="inlineStr">
         <is>
-          <t>Tuesday January 21 2025</t>
-        </is>
-      </c>
-      <c r="B1196" t="inlineStr"/>
-      <c r="C1196" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B1196" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C1196" t="inlineStr">
+        <is>
+          <t>Core Inflation Rate MoMDEC</t>
+        </is>
+      </c>
       <c r="D1196" t="inlineStr"/>
       <c r="E1196" t="inlineStr"/>
       <c r="F1196" t="inlineStr"/>
-      <c r="G1196" t="inlineStr"/>
-      <c r="H1196" t="inlineStr"/>
+      <c r="G1196" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="H1196" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1197">
       <c r="A1197" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1197" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1197" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>CPI Median YoYDEC</t>
         </is>
       </c>
       <c r="D1197" t="inlineStr"/>
-      <c r="E1197" t="inlineStr"/>
+      <c r="E1197" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="F1197" t="inlineStr"/>
-      <c r="G1197" t="inlineStr"/>
+      <c r="G1197" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
       <c r="H1197" t="inlineStr">
         <is>
           <t>3</t>
@@ -39208,23 +38680,31 @@
     <row r="1198">
       <c r="A1198" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1198" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1198" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>CPI Trimmed-Mean YoYDEC</t>
         </is>
       </c>
       <c r="D1198" t="inlineStr"/>
-      <c r="E1198" t="inlineStr"/>
+      <c r="E1198" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="F1198" t="inlineStr"/>
-      <c r="G1198" t="inlineStr"/>
+      <c r="G1198" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H1198" t="inlineStr">
         <is>
           <t>3</t>
@@ -39234,257 +38714,209 @@
     <row r="1199">
       <c r="A1199" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:55 AM</t>
         </is>
       </c>
       <c r="B1199" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1199" t="inlineStr">
         <is>
-          <t>New Car Registrations YoYDEC</t>
+          <t>Redbook YoYJAN/18</t>
         </is>
       </c>
       <c r="D1199" t="inlineStr"/>
-      <c r="E1199" t="inlineStr">
-        <is>
-          <t>-1.9%</t>
-        </is>
-      </c>
+      <c r="E1199" t="inlineStr"/>
       <c r="F1199" t="inlineStr"/>
       <c r="G1199" t="inlineStr"/>
       <c r="H1199" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1200">
       <c r="A1200" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1200" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1200" t="inlineStr">
         <is>
-          <t>Unemployment RateNOV</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1200" t="inlineStr"/>
-      <c r="E1200" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="E1200" t="inlineStr"/>
       <c r="F1200" t="inlineStr"/>
-      <c r="G1200" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="G1200" t="inlineStr"/>
       <c r="H1200" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1201">
       <c r="A1201" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1201" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1201" t="inlineStr">
         <is>
-          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
+          <t>52-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1201" t="inlineStr"/>
-      <c r="E1201" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="E1201" t="inlineStr"/>
       <c r="F1201" t="inlineStr"/>
-      <c r="G1201" t="inlineStr">
-        <is>
-          <t>4.9%</t>
-        </is>
-      </c>
+      <c r="G1201" t="inlineStr"/>
       <c r="H1201" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1202">
       <c r="A1202" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1202" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1202" t="inlineStr">
         <is>
-          <t>Employment ChangeNOV</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1202" t="inlineStr"/>
-      <c r="E1202" t="inlineStr">
-        <is>
-          <t>173K</t>
-        </is>
-      </c>
+      <c r="E1202" t="inlineStr"/>
       <c r="F1202" t="inlineStr"/>
       <c r="G1202" t="inlineStr"/>
       <c r="H1202" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1203">
       <c r="A1203" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1203" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1203" t="inlineStr">
         <is>
-          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1203" t="inlineStr"/>
       <c r="E1203" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>88.4</t>
         </is>
       </c>
       <c r="F1203" t="inlineStr"/>
       <c r="G1203" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H1203" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1204">
       <c r="A1204" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1204" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1204" t="inlineStr">
         <is>
-          <t>Claimant Count ChangeDEC</t>
+          <t>API Crude Oil Stock ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1204" t="inlineStr"/>
-      <c r="E1204" t="inlineStr">
-        <is>
-          <t>0.3K</t>
-        </is>
-      </c>
+      <c r="E1204" t="inlineStr"/>
       <c r="F1204" t="inlineStr"/>
-      <c r="G1204" t="inlineStr">
-        <is>
-          <t>-5K</t>
-        </is>
-      </c>
+      <c r="G1204" t="inlineStr"/>
       <c r="H1204" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1205">
       <c r="A1205" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1205" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C1205" t="inlineStr">
-        <is>
-          <t>HMRC Payrolls ChangeDEC</t>
-        </is>
-      </c>
+          <t>Wednesday January 22 2025</t>
+        </is>
+      </c>
+      <c r="B1205" t="inlineStr"/>
+      <c r="C1205" t="inlineStr"/>
       <c r="D1205" t="inlineStr"/>
-      <c r="E1205" t="inlineStr">
-        <is>
-          <t>-35K</t>
-        </is>
-      </c>
+      <c r="E1205" t="inlineStr"/>
       <c r="F1205" t="inlineStr"/>
-      <c r="G1205" t="inlineStr">
-        <is>
-          <t>20K</t>
-        </is>
-      </c>
-      <c r="H1205" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1205" t="inlineStr"/>
+      <c r="H1205" t="inlineStr"/>
     </row>
     <row r="1206">
       <c r="A1206" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1206" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1206" t="inlineStr">
         <is>
-          <t>Gold Production YoYNOV</t>
+          <t>Public Sector Net Borrowing Ex BanksDEC</t>
         </is>
       </c>
       <c r="D1206" t="inlineStr"/>
       <c r="E1206" t="inlineStr">
         <is>
-          <t>-3.4%</t>
+          <t>£-11.25B</t>
         </is>
       </c>
       <c r="F1206" t="inlineStr"/>
-      <c r="G1206" t="inlineStr"/>
+      <c r="G1206" t="inlineStr">
+        <is>
+          <t>£ -11.3B</t>
+        </is>
+      </c>
       <c r="H1206" t="inlineStr">
         <is>
           <t>3</t>
@@ -39494,7 +38926,7 @@
     <row r="1207">
       <c r="A1207" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1207" t="inlineStr">
@@ -39504,27 +38936,31 @@
       </c>
       <c r="C1207" t="inlineStr">
         <is>
-          <t>Mining Production MoMNOV</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1207" t="inlineStr"/>
       <c r="E1207" t="inlineStr">
         <is>
-          <t>-3%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F1207" t="inlineStr"/>
-      <c r="G1207" t="inlineStr"/>
+      <c r="G1207" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H1207" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1208">
       <c r="A1208" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1208" t="inlineStr">
@@ -39534,87 +38970,99 @@
       </c>
       <c r="C1208" t="inlineStr">
         <is>
-          <t>Mining Production YoYNOV</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1208" t="inlineStr"/>
       <c r="E1208" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>2.9%</t>
         </is>
       </c>
       <c r="F1208" t="inlineStr"/>
-      <c r="G1208" t="inlineStr"/>
+      <c r="G1208" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
       <c r="H1208" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1209">
       <c r="A1209" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1209" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1209" t="inlineStr">
         <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1209" t="inlineStr"/>
       <c r="E1209" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F1209" t="inlineStr"/>
-      <c r="G1209" t="inlineStr"/>
+      <c r="G1209" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1209" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1210">
       <c r="A1210" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1210" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1210" t="inlineStr">
         <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1210" t="inlineStr"/>
       <c r="E1210" t="inlineStr">
         <is>
-          <t>15.7</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="F1210" t="inlineStr"/>
-      <c r="G1210" t="inlineStr"/>
+      <c r="G1210" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="H1210" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1211">
       <c r="A1211" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1211" t="inlineStr">
@@ -39624,15 +39072,11 @@
       </c>
       <c r="C1211" t="inlineStr">
         <is>
-          <t>ZEW Current ConditionsJAN</t>
+          <t>15-Year Bund Auction</t>
         </is>
       </c>
       <c r="D1211" t="inlineStr"/>
-      <c r="E1211" t="inlineStr">
-        <is>
-          <t>-93.1</t>
-        </is>
-      </c>
+      <c r="E1211" t="inlineStr"/>
       <c r="F1211" t="inlineStr"/>
       <c r="G1211" t="inlineStr"/>
       <c r="H1211" t="inlineStr">
@@ -39644,23 +39088,31 @@
     <row r="1212">
       <c r="A1212" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1212" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1212" t="inlineStr">
         <is>
-          <t>Bund/g Auction</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D1212" t="inlineStr"/>
-      <c r="E1212" t="inlineStr"/>
+      <c r="E1212" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="F1212" t="inlineStr"/>
-      <c r="G1212" t="inlineStr"/>
+      <c r="G1212" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H1212" t="inlineStr">
         <is>
           <t>3</t>
@@ -39670,23 +39122,23 @@
     <row r="1213">
       <c r="A1213" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1213" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1213" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1213" t="inlineStr"/>
       <c r="E1213" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>6.3%</t>
         </is>
       </c>
       <c r="F1213" t="inlineStr"/>
@@ -39700,25 +39152,21 @@
     <row r="1214">
       <c r="A1214" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>06:10 AM</t>
         </is>
       </c>
       <c r="B1214" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1214" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1214" t="inlineStr"/>
-      <c r="E1214" t="inlineStr">
-        <is>
-          <t>-1.2%</t>
-        </is>
-      </c>
+      <c r="E1214" t="inlineStr"/>
       <c r="F1214" t="inlineStr"/>
       <c r="G1214" t="inlineStr"/>
       <c r="H1214" t="inlineStr">
@@ -39730,99 +39178,79 @@
     <row r="1215">
       <c r="A1215" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>06:10 AM</t>
         </is>
       </c>
       <c r="B1215" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1215" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1215" t="inlineStr"/>
-      <c r="E1215" t="inlineStr">
-        <is>
-          <t>1,9%</t>
-        </is>
-      </c>
+      <c r="E1215" t="inlineStr"/>
       <c r="F1215" t="inlineStr"/>
-      <c r="G1215" t="inlineStr">
-        <is>
-          <t>1.8%</t>
-        </is>
-      </c>
+      <c r="G1215" t="inlineStr"/>
       <c r="H1215" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1216">
       <c r="A1216" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1216" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1216" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>M3 Money Supply YoYJAN/10</t>
         </is>
       </c>
       <c r="D1216" t="inlineStr"/>
       <c r="E1216" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>9.3%</t>
         </is>
       </c>
       <c r="F1216" t="inlineStr"/>
-      <c r="G1216" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
+      <c r="G1216" t="inlineStr"/>
       <c r="H1216" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1217">
       <c r="A1217" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1217" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1217" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>MBA 30-Year Mortgage RateJAN/17</t>
         </is>
       </c>
       <c r="D1217" t="inlineStr"/>
-      <c r="E1217" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+      <c r="E1217" t="inlineStr"/>
       <c r="F1217" t="inlineStr"/>
-      <c r="G1217" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1217" t="inlineStr"/>
       <c r="H1217" t="inlineStr">
         <is>
           <t>2</t>
@@ -39832,27 +39260,23 @@
     <row r="1218">
       <c r="A1218" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1218" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1218" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMDEC</t>
+          <t>MBA Mortgage ApplicationsJAN/17</t>
         </is>
       </c>
       <c r="D1218" t="inlineStr"/>
       <c r="E1218" t="inlineStr"/>
       <c r="F1218" t="inlineStr"/>
-      <c r="G1218" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1218" t="inlineStr"/>
       <c r="H1218" t="inlineStr">
         <is>
           <t>3</t>
@@ -39862,31 +39286,23 @@
     <row r="1219">
       <c r="A1219" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1219" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1219" t="inlineStr">
         <is>
-          <t>CPI Median YoYDEC</t>
+          <t>MBA Mortgage Market IndexJAN/17</t>
         </is>
       </c>
       <c r="D1219" t="inlineStr"/>
-      <c r="E1219" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+      <c r="E1219" t="inlineStr"/>
       <c r="F1219" t="inlineStr"/>
-      <c r="G1219" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="G1219" t="inlineStr"/>
       <c r="H1219" t="inlineStr">
         <is>
           <t>3</t>
@@ -39896,31 +39312,23 @@
     <row r="1220">
       <c r="A1220" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1220" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1220" t="inlineStr">
         <is>
-          <t>CPI Trimmed-Mean YoYDEC</t>
+          <t>MBA Mortgage Refinance IndexJAN/17</t>
         </is>
       </c>
       <c r="D1220" t="inlineStr"/>
-      <c r="E1220" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="E1220" t="inlineStr"/>
       <c r="F1220" t="inlineStr"/>
-      <c r="G1220" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+      <c r="G1220" t="inlineStr"/>
       <c r="H1220" t="inlineStr">
         <is>
           <t>3</t>
@@ -39930,7 +39338,7 @@
     <row r="1221">
       <c r="A1221" t="inlineStr">
         <is>
-          <t>08:55 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1221" t="inlineStr">
@@ -39940,7 +39348,7 @@
       </c>
       <c r="C1221" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/18</t>
+          <t>MBA Purchase IndexJAN/17</t>
         </is>
       </c>
       <c r="D1221" t="inlineStr"/>
@@ -39956,23 +39364,31 @@
     <row r="1222">
       <c r="A1222" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1222" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1222" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1222" t="inlineStr"/>
-      <c r="E1222" t="inlineStr"/>
+      <c r="E1222" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="F1222" t="inlineStr"/>
-      <c r="G1222" t="inlineStr"/>
+      <c r="G1222" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1222" t="inlineStr">
         <is>
           <t>3</t>
@@ -39982,23 +39398,31 @@
     <row r="1223">
       <c r="A1223" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1223" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1223" t="inlineStr">
         <is>
-          <t>52-Week Bill Auction</t>
+          <t>Raw Materials Prices MoMDEC</t>
         </is>
       </c>
       <c r="D1223" t="inlineStr"/>
-      <c r="E1223" t="inlineStr"/>
+      <c r="E1223" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
       <c r="F1223" t="inlineStr"/>
-      <c r="G1223" t="inlineStr"/>
+      <c r="G1223" t="inlineStr">
+        <is>
+          <t>1.0%</t>
+        </is>
+      </c>
       <c r="H1223" t="inlineStr">
         <is>
           <t>3</t>
@@ -40008,23 +39432,31 @@
     <row r="1224">
       <c r="A1224" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1224" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1224" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Raw Materials Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1224" t="inlineStr"/>
-      <c r="E1224" t="inlineStr"/>
+      <c r="E1224" t="inlineStr">
+        <is>
+          <t>2%</t>
+        </is>
+      </c>
       <c r="F1224" t="inlineStr"/>
-      <c r="G1224" t="inlineStr"/>
+      <c r="G1224" t="inlineStr">
+        <is>
+          <t>-2.8%</t>
+        </is>
+      </c>
       <c r="H1224" t="inlineStr">
         <is>
           <t>3</t>
@@ -40034,41 +39466,37 @@
     <row r="1225">
       <c r="A1225" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1225" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1225" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>CB Leading Index MoMDEC</t>
         </is>
       </c>
       <c r="D1225" t="inlineStr"/>
       <c r="E1225" t="inlineStr">
         <is>
-          <t>88.4</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F1225" t="inlineStr"/>
-      <c r="G1225" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
+      <c r="G1225" t="inlineStr"/>
       <c r="H1225" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1226">
       <c r="A1226" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1226" t="inlineStr">
@@ -40078,7 +39506,7 @@
       </c>
       <c r="C1226" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/17</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1226" t="inlineStr"/>
@@ -40087,50 +39515,62 @@
       <c r="G1226" t="inlineStr"/>
       <c r="H1226" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1227">
       <c r="A1227" t="inlineStr">
         <is>
-          <t>Wednesday January 22 2025</t>
-        </is>
-      </c>
-      <c r="B1227" t="inlineStr"/>
-      <c r="C1227" t="inlineStr"/>
+          <t>01:00 PM</t>
+        </is>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>20-Year Bond Auction</t>
+        </is>
+      </c>
       <c r="D1227" t="inlineStr"/>
       <c r="E1227" t="inlineStr"/>
       <c r="F1227" t="inlineStr"/>
       <c r="G1227" t="inlineStr"/>
-      <c r="H1227" t="inlineStr"/>
+      <c r="H1227" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1228">
       <c r="A1228" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1228" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1228" t="inlineStr">
         <is>
-          <t>Public Sector Net Borrowing Ex BanksDEC</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1228" t="inlineStr"/>
       <c r="E1228" t="inlineStr">
         <is>
-          <t>£-11.25B</t>
+          <t>127.1%</t>
         </is>
       </c>
       <c r="F1228" t="inlineStr"/>
       <c r="G1228" t="inlineStr">
         <is>
-          <t>£ -11.3B</t>
+          <t>115.0%</t>
         </is>
       </c>
       <c r="H1228" t="inlineStr">
@@ -40142,29 +39582,25 @@
     <row r="1229">
       <c r="A1229" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1229" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1229" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1229" t="inlineStr"/>
-      <c r="E1229" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+      <c r="E1229" t="inlineStr"/>
       <c r="F1229" t="inlineStr"/>
       <c r="G1229" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>60</t>
         </is>
       </c>
       <c r="H1229" t="inlineStr">
@@ -40176,29 +39612,29 @@
     <row r="1230">
       <c r="A1230" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1230" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1230" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>GDP Growth Rate QoQ AdvQ4</t>
         </is>
       </c>
       <c r="D1230" t="inlineStr"/>
       <c r="E1230" t="inlineStr">
         <is>
-          <t>2.9%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F1230" t="inlineStr"/>
       <c r="G1230" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1230" t="inlineStr">
@@ -40210,29 +39646,29 @@
     <row r="1231">
       <c r="A1231" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1231" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1231" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMDEC</t>
+          <t>GDP Growth Rate YoY AdvQ4</t>
         </is>
       </c>
       <c r="D1231" t="inlineStr"/>
       <c r="E1231" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="F1231" t="inlineStr"/>
       <c r="G1231" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H1231" t="inlineStr">
@@ -40244,91 +39680,87 @@
     <row r="1232">
       <c r="A1232" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1232" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1232" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D1232" t="inlineStr"/>
       <c r="E1232" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>¥-117.6B</t>
         </is>
       </c>
       <c r="F1232" t="inlineStr"/>
       <c r="G1232" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>¥ 100B</t>
         </is>
       </c>
       <c r="H1232" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1233">
       <c r="A1233" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1233" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1233" t="inlineStr">
         <is>
-          <t>15-Year Bund Auction</t>
+          <t>Exports YoYDEC</t>
         </is>
       </c>
       <c r="D1233" t="inlineStr"/>
-      <c r="E1233" t="inlineStr"/>
+      <c r="E1233" t="inlineStr">
+        <is>
+          <t>3.8%</t>
+        </is>
+      </c>
       <c r="F1233" t="inlineStr"/>
       <c r="G1233" t="inlineStr"/>
       <c r="H1233" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1234">
       <c r="A1234" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1234" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1234" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>Foreign Bond InvestmentJAN/18</t>
         </is>
       </c>
       <c r="D1234" t="inlineStr"/>
-      <c r="E1234" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+      <c r="E1234" t="inlineStr"/>
       <c r="F1234" t="inlineStr"/>
-      <c r="G1234" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G1234" t="inlineStr"/>
       <c r="H1234" t="inlineStr">
         <is>
           <t>3</t>
@@ -40338,23 +39770,23 @@
     <row r="1235">
       <c r="A1235" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1235" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1235" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>Imports YoYDEC</t>
         </is>
       </c>
       <c r="D1235" t="inlineStr"/>
       <c r="E1235" t="inlineStr">
         <is>
-          <t>6.3%</t>
+          <t>-3.8%</t>
         </is>
       </c>
       <c r="F1235" t="inlineStr"/>
@@ -40368,17 +39800,17 @@
     <row r="1236">
       <c r="A1236" t="inlineStr">
         <is>
-          <t>06:10 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1236" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1236" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Stock Investment by ForeignersJAN/18</t>
         </is>
       </c>
       <c r="D1236" t="inlineStr"/>
@@ -40394,49 +39826,57 @@
     <row r="1237">
       <c r="A1237" t="inlineStr">
         <is>
-          <t>06:10 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1237" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1237" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>NAB Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D1237" t="inlineStr"/>
-      <c r="E1237" t="inlineStr"/>
+      <c r="E1237" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
       <c r="F1237" t="inlineStr"/>
-      <c r="G1237" t="inlineStr"/>
+      <c r="G1237" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="H1237" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1238">
       <c r="A1238" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1238" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C1238" t="inlineStr">
         <is>
-          <t>M3 Money Supply YoYJAN/10</t>
+          <t>M2 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D1238" t="inlineStr"/>
       <c r="E1238" t="inlineStr">
         <is>
-          <t>9.3%</t>
+          <t>7%</t>
         </is>
       </c>
       <c r="F1238" t="inlineStr"/>
@@ -40450,17 +39890,17 @@
     <row r="1239">
       <c r="A1239" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B1239" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1239" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJAN/17</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1239" t="inlineStr"/>
@@ -40469,54 +39909,46 @@
       <c r="G1239" t="inlineStr"/>
       <c r="H1239" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1240">
       <c r="A1240" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1240" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1240" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsJAN/17</t>
-        </is>
-      </c>
+          <t>Thursday January 23 2025</t>
+        </is>
+      </c>
+      <c r="B1240" t="inlineStr"/>
+      <c r="C1240" t="inlineStr"/>
       <c r="D1240" t="inlineStr"/>
       <c r="E1240" t="inlineStr"/>
       <c r="F1240" t="inlineStr"/>
       <c r="G1240" t="inlineStr"/>
-      <c r="H1240" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1240" t="inlineStr"/>
     </row>
     <row r="1241">
       <c r="A1241" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1241" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1241" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJAN/17</t>
+          <t>1-Year T-Bill Auction</t>
         </is>
       </c>
       <c r="D1241" t="inlineStr"/>
-      <c r="E1241" t="inlineStr"/>
+      <c r="E1241" t="inlineStr">
+        <is>
+          <t>2.71%</t>
+        </is>
+      </c>
       <c r="F1241" t="inlineStr"/>
       <c r="G1241" t="inlineStr"/>
       <c r="H1241" t="inlineStr">
@@ -40528,23 +39960,31 @@
     <row r="1242">
       <c r="A1242" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1242" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1242" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexJAN/17</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1242" t="inlineStr"/>
-      <c r="E1242" t="inlineStr"/>
+      <c r="E1242" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
       <c r="F1242" t="inlineStr"/>
-      <c r="G1242" t="inlineStr"/>
+      <c r="G1242" t="inlineStr">
+        <is>
+          <t>2.5%</t>
+        </is>
+      </c>
       <c r="H1242" t="inlineStr">
         <is>
           <t>3</t>
@@ -40554,23 +39994,31 @@
     <row r="1243">
       <c r="A1243" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1243" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1243" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexJAN/17</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1243" t="inlineStr"/>
-      <c r="E1243" t="inlineStr"/>
+      <c r="E1243" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
       <c r="F1243" t="inlineStr"/>
-      <c r="G1243" t="inlineStr"/>
+      <c r="G1243" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1243" t="inlineStr">
         <is>
           <t>3</t>
@@ -40580,29 +40028,29 @@
     <row r="1244">
       <c r="A1244" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1244" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1244" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1244" t="inlineStr"/>
       <c r="E1244" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F1244" t="inlineStr"/>
       <c r="G1244" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="H1244" t="inlineStr">
@@ -40614,31 +40062,27 @@
     <row r="1245">
       <c r="A1245" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1245" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1245" t="inlineStr">
         <is>
-          <t>Raw Materials Prices MoMDEC</t>
+          <t>Leading Business Cycle Indicator MoMNOV</t>
         </is>
       </c>
       <c r="D1245" t="inlineStr"/>
       <c r="E1245" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="F1245" t="inlineStr"/>
-      <c r="G1245" t="inlineStr">
-        <is>
-          <t>1.0%</t>
-        </is>
-      </c>
+      <c r="G1245" t="inlineStr"/>
       <c r="H1245" t="inlineStr">
         <is>
           <t>3</t>
@@ -40648,85 +40092,85 @@
     <row r="1246">
       <c r="A1246" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1246" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1246" t="inlineStr">
         <is>
-          <t>Raw Materials Prices YoYDEC</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1246" t="inlineStr"/>
       <c r="E1246" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>81.3</t>
         </is>
       </c>
       <c r="F1246" t="inlineStr"/>
-      <c r="G1246" t="inlineStr">
-        <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
+      <c r="G1246" t="inlineStr"/>
       <c r="H1246" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1247">
       <c r="A1247" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B1247" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1247" t="inlineStr">
         <is>
-          <t>CB Leading Index MoMDEC</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1247" t="inlineStr"/>
       <c r="E1247" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>97</t>
         </is>
       </c>
       <c r="F1247" t="inlineStr"/>
       <c r="G1247" t="inlineStr"/>
       <c r="H1247" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1248">
       <c r="A1248" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B1248" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1248" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>Business Climate IndicatorJAN</t>
         </is>
       </c>
       <c r="D1248" t="inlineStr"/>
-      <c r="E1248" t="inlineStr"/>
+      <c r="E1248" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
       <c r="F1248" t="inlineStr"/>
       <c r="G1248" t="inlineStr"/>
       <c r="H1248" t="inlineStr">
@@ -40738,17 +40182,17 @@
     <row r="1249">
       <c r="A1249" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1249" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1249" t="inlineStr">
         <is>
-          <t>20-Year Bond Auction</t>
+          <t>OAT Auction</t>
         </is>
       </c>
       <c r="D1249" t="inlineStr"/>
@@ -40764,31 +40208,27 @@
     <row r="1250">
       <c r="A1250" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1250" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1250" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>4-Year Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D1250" t="inlineStr"/>
       <c r="E1250" t="inlineStr">
         <is>
-          <t>127.1%</t>
+          <t>4.499%</t>
         </is>
       </c>
       <c r="F1250" t="inlineStr"/>
-      <c r="G1250" t="inlineStr">
-        <is>
-          <t>115.0%</t>
-        </is>
-      </c>
+      <c r="G1250" t="inlineStr"/>
       <c r="H1250" t="inlineStr">
         <is>
           <t>3</t>
@@ -40798,95 +40238,79 @@
     <row r="1251">
       <c r="A1251" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1251" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1251" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>Index-Linked OAT Auction</t>
         </is>
       </c>
       <c r="D1251" t="inlineStr"/>
       <c r="E1251" t="inlineStr"/>
       <c r="F1251" t="inlineStr"/>
-      <c r="G1251" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
+      <c r="G1251" t="inlineStr"/>
       <c r="H1251" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1252">
       <c r="A1252" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1252" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1252" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQ AdvQ4</t>
+          <t>OATi Auction</t>
         </is>
       </c>
       <c r="D1252" t="inlineStr"/>
-      <c r="E1252" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="E1252" t="inlineStr"/>
       <c r="F1252" t="inlineStr"/>
-      <c r="G1252" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1252" t="inlineStr"/>
       <c r="H1252" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1253">
       <c r="A1253" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1253" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1253" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoY AdvQ4</t>
+          <t>Building Permits YoYNOV</t>
         </is>
       </c>
       <c r="D1253" t="inlineStr"/>
       <c r="E1253" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>21.6%</t>
         </is>
       </c>
       <c r="F1253" t="inlineStr"/>
-      <c r="G1253" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
+      <c r="G1253" t="inlineStr"/>
       <c r="H1253" t="inlineStr">
         <is>
           <t>3</t>
@@ -40896,57 +40320,53 @@
     <row r="1254">
       <c r="A1254" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1254" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1254" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Overnight Borrowing RateJAN</t>
         </is>
       </c>
       <c r="D1254" t="inlineStr"/>
       <c r="E1254" t="inlineStr">
         <is>
-          <t>¥-117.6B</t>
+          <t>46%</t>
         </is>
       </c>
       <c r="F1254" t="inlineStr"/>
-      <c r="G1254" t="inlineStr">
-        <is>
-          <t>¥ 100B</t>
-        </is>
-      </c>
+      <c r="G1254" t="inlineStr"/>
       <c r="H1254" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1255">
       <c r="A1255" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1255" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1255" t="inlineStr">
         <is>
-          <t>Exports YoYDEC</t>
+          <t>TCMB Interest Rate Decision</t>
         </is>
       </c>
       <c r="D1255" t="inlineStr"/>
       <c r="E1255" t="inlineStr">
         <is>
-          <t>3.8%</t>
+          <t>47.5%</t>
         </is>
       </c>
       <c r="F1255" t="inlineStr"/>
@@ -40960,21 +40380,25 @@
     <row r="1256">
       <c r="A1256" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1256" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1256" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentJAN/18</t>
+          <t>Overnight Lending RateJAN</t>
         </is>
       </c>
       <c r="D1256" t="inlineStr"/>
-      <c r="E1256" t="inlineStr"/>
+      <c r="E1256" t="inlineStr">
+        <is>
+          <t>49%</t>
+        </is>
+      </c>
       <c r="F1256" t="inlineStr"/>
       <c r="G1256" t="inlineStr"/>
       <c r="H1256" t="inlineStr">
@@ -40986,25 +40410,21 @@
     <row r="1257">
       <c r="A1257" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1257" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1257" t="inlineStr">
         <is>
-          <t>Imports YoYDEC</t>
+          <t>Foreign Exchange ReservesJAN/17</t>
         </is>
       </c>
       <c r="D1257" t="inlineStr"/>
-      <c r="E1257" t="inlineStr">
-        <is>
-          <t>-3.8%</t>
-        </is>
-      </c>
+      <c r="E1257" t="inlineStr"/>
       <c r="F1257" t="inlineStr"/>
       <c r="G1257" t="inlineStr"/>
       <c r="H1257" t="inlineStr">
@@ -41016,21 +40436,25 @@
     <row r="1258">
       <c r="A1258" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1258" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1258" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersJAN/18</t>
+          <t>Mid-month Core Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D1258" t="inlineStr"/>
-      <c r="E1258" t="inlineStr"/>
+      <c r="E1258" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="F1258" t="inlineStr"/>
       <c r="G1258" t="inlineStr"/>
       <c r="H1258" t="inlineStr">
@@ -41042,57 +40466,53 @@
     <row r="1259">
       <c r="A1259" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1259" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1259" t="inlineStr">
         <is>
-          <t>NAB Business ConfidenceDEC</t>
+          <t>Mid-month Core Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D1259" t="inlineStr"/>
       <c r="E1259" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>3.62%</t>
         </is>
       </c>
       <c r="F1259" t="inlineStr"/>
-      <c r="G1259" t="inlineStr">
+      <c r="G1259" t="inlineStr"/>
+      <c r="H1259" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="H1259" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1260">
       <c r="A1260" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1260" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1260" t="inlineStr">
         <is>
-          <t>M2 Money Supply YoYDEC</t>
+          <t>Mid-month Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D1260" t="inlineStr"/>
       <c r="E1260" t="inlineStr">
         <is>
-          <t>7%</t>
+          <t>0.42%</t>
         </is>
       </c>
       <c r="F1260" t="inlineStr"/>
@@ -41106,21 +40526,25 @@
     <row r="1261">
       <c r="A1261" t="inlineStr">
         <is>
-          <t>10:35 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1261" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1261" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Mid-month Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D1261" t="inlineStr"/>
-      <c r="E1261" t="inlineStr"/>
+      <c r="E1261" t="inlineStr">
+        <is>
+          <t>4.44%</t>
+        </is>
+      </c>
       <c r="F1261" t="inlineStr"/>
       <c r="G1261" t="inlineStr"/>
       <c r="H1261" t="inlineStr">
@@ -41130,520 +40554,26 @@
       </c>
     </row>
     <row r="1262">
-      <c r="A1262" t="inlineStr">
-        <is>
-          <t>Thursday January 23 2025</t>
-        </is>
-      </c>
-      <c r="B1262" t="inlineStr"/>
-      <c r="C1262" t="inlineStr"/>
+      <c r="A1262" t="inlineStr"/>
+      <c r="B1262" t="inlineStr">
+        <is>
+          <t>KR</t>
+        </is>
+      </c>
+      <c r="C1262" t="inlineStr">
+        <is>
+          <t>20-Year KTB Auction</t>
+        </is>
+      </c>
       <c r="D1262" t="inlineStr"/>
-      <c r="E1262" t="inlineStr"/>
+      <c r="E1262" t="inlineStr">
+        <is>
+          <t>2.750%</t>
+        </is>
+      </c>
       <c r="F1262" t="inlineStr"/>
       <c r="G1262" t="inlineStr"/>
-      <c r="H1262" t="inlineStr"/>
-    </row>
-    <row r="1263">
-      <c r="A1263" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B1263" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C1263" t="inlineStr">
-        <is>
-          <t>1-Year T-Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1263" t="inlineStr"/>
-      <c r="E1263" t="inlineStr">
-        <is>
-          <t>2.71%</t>
-        </is>
-      </c>
-      <c r="F1263" t="inlineStr"/>
-      <c r="G1263" t="inlineStr"/>
-      <c r="H1263" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1264">
-      <c r="A1264" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B1264" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C1264" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1264" t="inlineStr"/>
-      <c r="E1264" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="F1264" t="inlineStr"/>
-      <c r="G1264" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="H1264" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1265">
-      <c r="A1265" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B1265" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C1265" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1265" t="inlineStr"/>
-      <c r="E1265" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="F1265" t="inlineStr"/>
-      <c r="G1265" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H1265" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1266">
-      <c r="A1266" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B1266" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C1266" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1266" t="inlineStr"/>
-      <c r="E1266" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="F1266" t="inlineStr"/>
-      <c r="G1266" t="inlineStr">
-        <is>
-          <t>1.8%</t>
-        </is>
-      </c>
-      <c r="H1266" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1267">
-      <c r="A1267" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1267" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1267" t="inlineStr">
-        <is>
-          <t>Leading Business Cycle Indicator MoMNOV</t>
-        </is>
-      </c>
-      <c r="D1267" t="inlineStr"/>
-      <c r="E1267" t="inlineStr">
-        <is>
-          <t>1.1%</t>
-        </is>
-      </c>
-      <c r="F1267" t="inlineStr"/>
-      <c r="G1267" t="inlineStr"/>
-      <c r="H1267" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1268">
-      <c r="A1268" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1268" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C1268" t="inlineStr">
-        <is>
-          <t>Consumer ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D1268" t="inlineStr"/>
-      <c r="E1268" t="inlineStr">
-        <is>
-          <t>81.3</t>
-        </is>
-      </c>
-      <c r="F1268" t="inlineStr"/>
-      <c r="G1268" t="inlineStr"/>
-      <c r="H1268" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1269">
-      <c r="A1269" t="inlineStr">
-        <is>
-          <t>02:45 AM</t>
-        </is>
-      </c>
-      <c r="B1269" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C1269" t="inlineStr">
-        <is>
-          <t>Business ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D1269" t="inlineStr"/>
-      <c r="E1269" t="inlineStr">
-        <is>
-          <t>97</t>
-        </is>
-      </c>
-      <c r="F1269" t="inlineStr"/>
-      <c r="G1269" t="inlineStr"/>
-      <c r="H1269" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1270">
-      <c r="A1270" t="inlineStr">
-        <is>
-          <t>02:45 AM</t>
-        </is>
-      </c>
-      <c r="B1270" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C1270" t="inlineStr">
-        <is>
-          <t>Business Climate IndicatorJAN</t>
-        </is>
-      </c>
-      <c r="D1270" t="inlineStr"/>
-      <c r="E1270" t="inlineStr">
-        <is>
-          <t>94</t>
-        </is>
-      </c>
-      <c r="F1270" t="inlineStr"/>
-      <c r="G1270" t="inlineStr"/>
-      <c r="H1270" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1271">
-      <c r="A1271" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B1271" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C1271" t="inlineStr">
-        <is>
-          <t>OAT Auction</t>
-        </is>
-      </c>
-      <c r="D1271" t="inlineStr"/>
-      <c r="E1271" t="inlineStr"/>
-      <c r="F1271" t="inlineStr"/>
-      <c r="G1271" t="inlineStr"/>
-      <c r="H1271" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1272">
-      <c r="A1272" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B1272" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C1272" t="inlineStr">
-        <is>
-          <t>4-Year Treasury Gilt Auction</t>
-        </is>
-      </c>
-      <c r="D1272" t="inlineStr"/>
-      <c r="E1272" t="inlineStr">
-        <is>
-          <t>4.499%</t>
-        </is>
-      </c>
-      <c r="F1272" t="inlineStr"/>
-      <c r="G1272" t="inlineStr"/>
-      <c r="H1272" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1273">
-      <c r="A1273" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1273" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C1273" t="inlineStr">
-        <is>
-          <t>Index-Linked OAT Auction</t>
-        </is>
-      </c>
-      <c r="D1273" t="inlineStr"/>
-      <c r="E1273" t="inlineStr"/>
-      <c r="F1273" t="inlineStr"/>
-      <c r="G1273" t="inlineStr"/>
-      <c r="H1273" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1274">
-      <c r="A1274" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1274" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C1274" t="inlineStr">
-        <is>
-          <t>OATi Auction</t>
-        </is>
-      </c>
-      <c r="D1274" t="inlineStr"/>
-      <c r="E1274" t="inlineStr"/>
-      <c r="F1274" t="inlineStr"/>
-      <c r="G1274" t="inlineStr"/>
-      <c r="H1274" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1275">
-      <c r="A1275" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1275" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1275" t="inlineStr">
-        <is>
-          <t>Building Permits YoYNOV</t>
-        </is>
-      </c>
-      <c r="D1275" t="inlineStr"/>
-      <c r="E1275" t="inlineStr">
-        <is>
-          <t>21.6%</t>
-        </is>
-      </c>
-      <c r="F1275" t="inlineStr"/>
-      <c r="G1275" t="inlineStr"/>
-      <c r="H1275" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1276">
-      <c r="A1276" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1276" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C1276" t="inlineStr">
-        <is>
-          <t>Overnight Borrowing RateJAN</t>
-        </is>
-      </c>
-      <c r="D1276" t="inlineStr"/>
-      <c r="E1276" t="inlineStr">
-        <is>
-          <t>46%</t>
-        </is>
-      </c>
-      <c r="F1276" t="inlineStr"/>
-      <c r="G1276" t="inlineStr"/>
-      <c r="H1276" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1277">
-      <c r="A1277" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1277" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C1277" t="inlineStr">
-        <is>
-          <t>TCMB Interest Rate Decision</t>
-        </is>
-      </c>
-      <c r="D1277" t="inlineStr"/>
-      <c r="E1277" t="inlineStr">
-        <is>
-          <t>47.5%</t>
-        </is>
-      </c>
-      <c r="F1277" t="inlineStr"/>
-      <c r="G1277" t="inlineStr"/>
-      <c r="H1277" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1278">
-      <c r="A1278" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1278" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C1278" t="inlineStr">
-        <is>
-          <t>Overnight Lending RateJAN</t>
-        </is>
-      </c>
-      <c r="D1278" t="inlineStr"/>
-      <c r="E1278" t="inlineStr">
-        <is>
-          <t>49%</t>
-        </is>
-      </c>
-      <c r="F1278" t="inlineStr"/>
-      <c r="G1278" t="inlineStr"/>
-      <c r="H1278" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1279">
-      <c r="A1279" t="inlineStr"/>
-      <c r="B1279" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C1279" t="inlineStr">
-        <is>
-          <t>20-Year KTB Auction</t>
-        </is>
-      </c>
-      <c r="D1279" t="inlineStr"/>
-      <c r="E1279" t="inlineStr">
-        <is>
-          <t>2.750%</t>
-        </is>
-      </c>
-      <c r="F1279" t="inlineStr"/>
-      <c r="G1279" t="inlineStr"/>
-      <c r="H1279" t="inlineStr">
+      <c r="H1262" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-23.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1262"/>
+  <dimension ref="A1:H1284"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28737,8 +28737,10 @@
       </c>
       <c r="F879" t="inlineStr"/>
       <c r="G879" t="inlineStr"/>
-      <c r="H879" t="n">
-        <v>3</v>
+      <c r="H879" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="880">
@@ -28773,8 +28775,10 @@
           <t>6.4%</t>
         </is>
       </c>
-      <c r="H880" t="n">
-        <v>3</v>
+      <c r="H880" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="881">
@@ -28809,8 +28813,10 @@
           <t>-19.0%</t>
         </is>
       </c>
-      <c r="H881" t="n">
-        <v>3</v>
+      <c r="H881" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="882">
@@ -28845,8 +28851,10 @@
           <t>-4.0%</t>
         </is>
       </c>
-      <c r="H882" t="n">
-        <v>3</v>
+      <c r="H882" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="883">
@@ -28885,8 +28893,10 @@
           <t>$-3.4B</t>
         </is>
       </c>
-      <c r="H883" t="n">
-        <v>3</v>
+      <c r="H883" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="884">
@@ -28921,8 +28931,10 @@
           <t>0%</t>
         </is>
       </c>
-      <c r="H884" t="n">
-        <v>3</v>
+      <c r="H884" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="885">
@@ -28957,8 +28969,10 @@
           <t>14.1%</t>
         </is>
       </c>
-      <c r="H885" t="n">
-        <v>3</v>
+      <c r="H885" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="886">
@@ -28989,8 +29003,10 @@
       </c>
       <c r="F886" t="inlineStr"/>
       <c r="G886" t="inlineStr"/>
-      <c r="H886" t="n">
-        <v>3</v>
+      <c r="H886" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="887">
@@ -29021,8 +29037,10 @@
       </c>
       <c r="F887" t="inlineStr"/>
       <c r="G887" t="inlineStr"/>
-      <c r="H887" t="n">
-        <v>3</v>
+      <c r="H887" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="888">
@@ -29053,8 +29071,10 @@
       </c>
       <c r="F888" t="inlineStr"/>
       <c r="G888" t="inlineStr"/>
-      <c r="H888" t="n">
-        <v>3</v>
+      <c r="H888" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="889">
@@ -29093,8 +29113,10 @@
           <t>5.2%</t>
         </is>
       </c>
-      <c r="H889" t="n">
-        <v>2</v>
+      <c r="H889" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="890">
@@ -29129,8 +29151,10 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H890" t="n">
-        <v>3</v>
+      <c r="H890" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="891">
@@ -29161,72 +29185,70 @@
       </c>
       <c r="F891" t="inlineStr"/>
       <c r="G891" t="inlineStr"/>
-      <c r="H891" t="n">
-        <v>3</v>
+      <c r="H891" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="892">
       <c r="A892" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B892" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C892" t="inlineStr">
         <is>
-          <t>Car Production MoMDEC</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D892" t="inlineStr"/>
       <c r="E892" t="inlineStr">
         <is>
-          <t>-5.2%</t>
+          <t>2.435%</t>
         </is>
       </c>
       <c r="F892" t="inlineStr"/>
-      <c r="G892" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="H892" t="n">
-        <v>3</v>
+      <c r="G892" t="inlineStr"/>
+      <c r="H892" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="893">
       <c r="A893" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B893" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C893" t="inlineStr">
         <is>
-          <t>New Car Registrations MoMDEC</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D893" t="inlineStr"/>
       <c r="E893" t="inlineStr">
         <is>
-          <t>-4.3%</t>
+          <t>2.704%</t>
         </is>
       </c>
       <c r="F893" t="inlineStr"/>
-      <c r="G893" t="inlineStr">
-        <is>
-          <t>-2.5%</t>
-        </is>
-      </c>
-      <c r="H893" t="n">
-        <v>3</v>
+      <c r="G893" t="inlineStr"/>
+      <c r="H893" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="894">
@@ -29242,81 +29264,91 @@
       </c>
       <c r="C894" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D894" t="inlineStr"/>
       <c r="E894" t="inlineStr">
         <is>
-          <t>2.435%</t>
+          <t>2.592%</t>
         </is>
       </c>
       <c r="F894" t="inlineStr"/>
       <c r="G894" t="inlineStr"/>
-      <c r="H894" t="n">
-        <v>3</v>
+      <c r="H894" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="895">
       <c r="A895" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B895" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C895" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>Consumer Inflation ExpectationsDEC</t>
         </is>
       </c>
       <c r="D895" t="inlineStr"/>
       <c r="E895" t="inlineStr">
         <is>
-          <t>2.704%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F895" t="inlineStr"/>
-      <c r="G895" t="inlineStr"/>
-      <c r="H895" t="n">
-        <v>3</v>
+      <c r="G895" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
+      <c r="H895" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="896">
       <c r="A896" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B896" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C896" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D896" t="inlineStr"/>
       <c r="E896" t="inlineStr">
         <is>
-          <t>2.592%</t>
+          <t>4.205%</t>
         </is>
       </c>
       <c r="F896" t="inlineStr"/>
       <c r="G896" t="inlineStr"/>
-      <c r="H896" t="n">
-        <v>3</v>
+      <c r="H896" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="897">
       <c r="A897" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B897" t="inlineStr">
@@ -29326,29 +29358,27 @@
       </c>
       <c r="C897" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsDEC</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D897" t="inlineStr"/>
       <c r="E897" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>4.110%</t>
         </is>
       </c>
       <c r="F897" t="inlineStr"/>
-      <c r="G897" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="H897" t="n">
-        <v>3</v>
+      <c r="G897" t="inlineStr"/>
+      <c r="H897" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="898">
       <c r="A898" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B898" t="inlineStr">
@@ -29358,303 +29388,327 @@
       </c>
       <c r="C898" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Monthly Budget StatementDEC</t>
         </is>
       </c>
       <c r="D898" t="inlineStr"/>
       <c r="E898" t="inlineStr">
         <is>
-          <t>4.205%</t>
-        </is>
-      </c>
-      <c r="F898" t="inlineStr"/>
-      <c r="G898" t="inlineStr"/>
-      <c r="H898" t="n">
-        <v>3</v>
+          <t>$-367B</t>
+        </is>
+      </c>
+      <c r="F898" t="inlineStr">
+        <is>
+          <t>$-62B</t>
+        </is>
+      </c>
+      <c r="G898" t="inlineStr">
+        <is>
+          <t>$-220.0B</t>
+        </is>
+      </c>
+      <c r="H898" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="899">
       <c r="A899" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B899" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C899" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Westpac Consumer Confidence ChangeJAN</t>
         </is>
       </c>
       <c r="D899" t="inlineStr"/>
       <c r="E899" t="inlineStr">
         <is>
-          <t>4.110%</t>
+          <t>-2%</t>
         </is>
       </c>
       <c r="F899" t="inlineStr"/>
       <c r="G899" t="inlineStr"/>
-      <c r="H899" t="n">
-        <v>3</v>
+      <c r="H899" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="900">
       <c r="A900" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B900" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C900" t="inlineStr">
         <is>
-          <t>Monthly Budget StatementDEC</t>
+          <t>Westpac Consumer Confidence IndexJAN</t>
         </is>
       </c>
       <c r="D900" t="inlineStr"/>
       <c r="E900" t="inlineStr">
         <is>
-          <t>$-367B</t>
-        </is>
-      </c>
-      <c r="F900" t="inlineStr">
-        <is>
-          <t>$-62B</t>
-        </is>
-      </c>
-      <c r="G900" t="inlineStr">
-        <is>
-          <t>$-220.0B</t>
-        </is>
-      </c>
-      <c r="H900" t="n">
-        <v>2</v>
+          <t>92.8</t>
+        </is>
+      </c>
+      <c r="F900" t="inlineStr"/>
+      <c r="G900" t="inlineStr"/>
+      <c r="H900" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="901">
       <c r="A901" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B901" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C901" t="inlineStr">
         <is>
-          <t>Westpac Consumer Confidence ChangeJAN</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D901" t="inlineStr"/>
       <c r="E901" t="inlineStr">
         <is>
-          <t>-2%</t>
-        </is>
-      </c>
-      <c r="F901" t="inlineStr"/>
-      <c r="G901" t="inlineStr"/>
-      <c r="H901" t="n">
-        <v>1</v>
+          <t>¥2457B</t>
+        </is>
+      </c>
+      <c r="F901" t="inlineStr">
+        <is>
+          <t>¥2691B</t>
+        </is>
+      </c>
+      <c r="G901" t="inlineStr">
+        <is>
+          <t>¥1990.0B</t>
+        </is>
+      </c>
+      <c r="H901" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="902">
       <c r="A902" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B902" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C902" t="inlineStr">
         <is>
-          <t>Westpac Consumer Confidence IndexJAN</t>
+          <t>Bank Lending YoYDEC</t>
         </is>
       </c>
       <c r="D902" t="inlineStr"/>
       <c r="E902" t="inlineStr">
         <is>
-          <t>92.8</t>
-        </is>
-      </c>
-      <c r="F902" t="inlineStr"/>
-      <c r="G902" t="inlineStr"/>
-      <c r="H902" t="n">
-        <v>1</v>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="F902" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
+      <c r="G902" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
+      <c r="H902" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="903">
       <c r="A903" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B903" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C903" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Building Permits MoM FinalNOV</t>
         </is>
       </c>
       <c r="D903" t="inlineStr"/>
       <c r="E903" t="inlineStr">
         <is>
-          <t>¥2457B</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F903" t="inlineStr">
         <is>
-          <t>¥2691B</t>
-        </is>
-      </c>
-      <c r="G903" t="inlineStr">
-        <is>
-          <t>¥1990.0B</t>
-        </is>
-      </c>
-      <c r="H903" t="n">
-        <v>2</v>
+          <t>-3.6%</t>
+        </is>
+      </c>
+      <c r="G903" t="inlineStr"/>
+      <c r="H903" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="904">
       <c r="A904" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B904" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C904" t="inlineStr">
         <is>
-          <t>Bank Lending YoYDEC</t>
+          <t>Private House Approvals MoM FinalNOV</t>
         </is>
       </c>
       <c r="D904" t="inlineStr"/>
       <c r="E904" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>-4.0%</t>
         </is>
       </c>
       <c r="F904" t="inlineStr">
         <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="G904" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="H904" t="n">
-        <v>3</v>
+          <t>-1.7%</t>
+        </is>
+      </c>
+      <c r="G904" t="inlineStr"/>
+      <c r="H904" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="905">
       <c r="A905" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B905" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C905" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalNOV</t>
+          <t>5-Year JGB Auction</t>
         </is>
       </c>
       <c r="D905" t="inlineStr"/>
       <c r="E905" t="inlineStr">
         <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="F905" t="inlineStr">
-        <is>
-          <t>-3.6%</t>
-        </is>
-      </c>
+          <t>0.734%</t>
+        </is>
+      </c>
+      <c r="F905" t="inlineStr"/>
       <c r="G905" t="inlineStr"/>
-      <c r="H905" t="n">
-        <v>3</v>
+      <c r="H905" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="906">
-      <c r="A906" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
+      <c r="A906" t="inlineStr"/>
       <c r="B906" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C906" t="inlineStr">
         <is>
-          <t>Private House Approvals MoM FinalNOV</t>
+          <t>New Yuan LoansDEC</t>
         </is>
       </c>
       <c r="D906" t="inlineStr"/>
       <c r="E906" t="inlineStr">
         <is>
-          <t>-4.0%</t>
+          <t>CNY580B</t>
         </is>
       </c>
       <c r="F906" t="inlineStr">
         <is>
-          <t>-1.7%</t>
-        </is>
-      </c>
-      <c r="G906" t="inlineStr"/>
-      <c r="H906" t="n">
-        <v>3</v>
+          <t>CNY850B</t>
+        </is>
+      </c>
+      <c r="G906" t="inlineStr">
+        <is>
+          <t>CNY690.0B</t>
+        </is>
+      </c>
+      <c r="H906" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="907">
-      <c r="A907" t="inlineStr">
-        <is>
-          <t>10:35 PM</t>
-        </is>
-      </c>
+      <c r="A907" t="inlineStr"/>
       <c r="B907" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C907" t="inlineStr">
         <is>
-          <t>5-Year JGB Auction</t>
+          <t>M2 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D907" t="inlineStr"/>
       <c r="E907" t="inlineStr">
         <is>
-          <t>0.734%</t>
-        </is>
-      </c>
-      <c r="F907" t="inlineStr"/>
+          <t>7.1%</t>
+        </is>
+      </c>
+      <c r="F907" t="inlineStr">
+        <is>
+          <t>7.3%</t>
+        </is>
+      </c>
       <c r="G907" t="inlineStr"/>
-      <c r="H907" t="n">
-        <v>3</v>
+      <c r="H907" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="908">
@@ -29666,27 +29720,29 @@
       </c>
       <c r="C908" t="inlineStr">
         <is>
-          <t>New Yuan LoansDEC</t>
+          <t>Outstanding Loan Growth YoYDEC</t>
         </is>
       </c>
       <c r="D908" t="inlineStr"/>
       <c r="E908" t="inlineStr">
         <is>
-          <t>CNY580B</t>
+          <t>7.7%</t>
         </is>
       </c>
       <c r="F908" t="inlineStr">
         <is>
-          <t>CNY850B</t>
+          <t>7.6%</t>
         </is>
       </c>
       <c r="G908" t="inlineStr">
         <is>
-          <t>CNY690.0B</t>
-        </is>
-      </c>
-      <c r="H908" t="n">
-        <v>3</v>
+          <t>7.5%</t>
+        </is>
+      </c>
+      <c r="H908" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="909">
@@ -29698,87 +29754,81 @@
       </c>
       <c r="C909" t="inlineStr">
         <is>
-          <t>M2 Money Supply YoYDEC</t>
+          <t>Total Social FinancingDEC</t>
         </is>
       </c>
       <c r="D909" t="inlineStr"/>
       <c r="E909" t="inlineStr">
         <is>
-          <t>7.1%</t>
+          <t>CNY2340B</t>
         </is>
       </c>
       <c r="F909" t="inlineStr">
         <is>
-          <t>7.3%</t>
-        </is>
-      </c>
-      <c r="G909" t="inlineStr"/>
-      <c r="H909" t="n">
-        <v>3</v>
+          <t>CNY2000B</t>
+        </is>
+      </c>
+      <c r="G909" t="inlineStr">
+        <is>
+          <t>CNY1850.0B</t>
+        </is>
+      </c>
+      <c r="H909" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="910">
       <c r="A910" t="inlineStr"/>
       <c r="B910" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C910" t="inlineStr">
         <is>
-          <t>Outstanding Loan Growth YoYDEC</t>
+          <t>BCB Focus Market Readout</t>
         </is>
       </c>
       <c r="D910" t="inlineStr"/>
-      <c r="E910" t="inlineStr">
-        <is>
-          <t>7.7%</t>
-        </is>
-      </c>
-      <c r="F910" t="inlineStr">
-        <is>
-          <t>7.6%</t>
-        </is>
-      </c>
-      <c r="G910" t="inlineStr">
-        <is>
-          <t>7.5%</t>
-        </is>
-      </c>
-      <c r="H910" t="n">
-        <v>3</v>
+      <c r="E910" t="inlineStr"/>
+      <c r="F910" t="inlineStr"/>
+      <c r="G910" t="inlineStr"/>
+      <c r="H910" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="911">
       <c r="A911" t="inlineStr"/>
       <c r="B911" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C911" t="inlineStr">
         <is>
-          <t>Total Social FinancingDEC</t>
+          <t>Car Production MoMDEC</t>
         </is>
       </c>
       <c r="D911" t="inlineStr"/>
       <c r="E911" t="inlineStr">
         <is>
-          <t>CNY2340B</t>
-        </is>
-      </c>
-      <c r="F911" t="inlineStr">
-        <is>
-          <t>CNY2000B</t>
-        </is>
-      </c>
+          <t>-5.2%</t>
+        </is>
+      </c>
+      <c r="F911" t="inlineStr"/>
       <c r="G911" t="inlineStr">
         <is>
-          <t>CNY1850.0B</t>
-        </is>
-      </c>
-      <c r="H911" t="n">
-        <v>3</v>
+          <t>3.4%</t>
+        </is>
+      </c>
+      <c r="H911" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="912">
@@ -29790,15 +29840,25 @@
       </c>
       <c r="C912" t="inlineStr">
         <is>
-          <t>BCB Focus Market Readout</t>
+          <t>New Car Registrations MoMDEC</t>
         </is>
       </c>
       <c r="D912" t="inlineStr"/>
-      <c r="E912" t="inlineStr"/>
+      <c r="E912" t="inlineStr">
+        <is>
+          <t>-4.3%</t>
+        </is>
+      </c>
       <c r="F912" t="inlineStr"/>
-      <c r="G912" t="inlineStr"/>
-      <c r="H912" t="n">
-        <v>3</v>
+      <c r="G912" t="inlineStr">
+        <is>
+          <t>-2.5%</t>
+        </is>
+      </c>
+      <c r="H912" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="913">
@@ -29847,8 +29907,10 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H914" t="n">
-        <v>3</v>
+      <c r="H914" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="915">
@@ -29879,8 +29941,10 @@
           <t>49.6</t>
         </is>
       </c>
-      <c r="H915" t="n">
-        <v>3</v>
+      <c r="H915" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="916">
@@ -29907,8 +29971,10 @@
       </c>
       <c r="F916" t="inlineStr"/>
       <c r="G916" t="inlineStr"/>
-      <c r="H916" t="n">
-        <v>3</v>
+      <c r="H916" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="917">
@@ -29935,8 +30001,10 @@
       </c>
       <c r="F917" t="inlineStr"/>
       <c r="G917" t="inlineStr"/>
-      <c r="H917" t="n">
-        <v>3</v>
+      <c r="H917" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="918">
@@ -29967,8 +30035,10 @@
           <t>10.2%</t>
         </is>
       </c>
-      <c r="H918" t="n">
-        <v>3</v>
+      <c r="H918" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="919">
@@ -29999,8 +30069,10 @@
           <t>-3.2%</t>
         </is>
       </c>
-      <c r="H919" t="n">
-        <v>3</v>
+      <c r="H919" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="920">
@@ -30035,8 +30107,10 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H920" t="n">
-        <v>3</v>
+      <c r="H920" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="921">
@@ -30067,8 +30141,10 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H921" t="n">
-        <v>3</v>
+      <c r="H921" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="922">
@@ -30091,8 +30167,10 @@
       <c r="E922" t="inlineStr"/>
       <c r="F922" t="inlineStr"/>
       <c r="G922" t="inlineStr"/>
-      <c r="H922" t="n">
-        <v>3</v>
+      <c r="H922" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="923">
@@ -30123,8 +30201,10 @@
           <t>€-162.0B</t>
         </is>
       </c>
-      <c r="H923" t="n">
-        <v>3</v>
+      <c r="H923" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="924">
@@ -30147,8 +30227,10 @@
       <c r="E924" t="inlineStr"/>
       <c r="F924" t="inlineStr"/>
       <c r="G924" t="inlineStr"/>
-      <c r="H924" t="n">
-        <v>3</v>
+      <c r="H924" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="925">
@@ -30183,8 +30265,10 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H925" t="n">
-        <v>2</v>
+      <c r="H925" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="926">
@@ -30215,8 +30299,10 @@
           <t>-3.3%</t>
         </is>
       </c>
-      <c r="H926" t="n">
-        <v>3</v>
+      <c r="H926" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="927">
@@ -30243,8 +30329,10 @@
       </c>
       <c r="F927" t="inlineStr"/>
       <c r="G927" t="inlineStr"/>
-      <c r="H927" t="n">
-        <v>3</v>
+      <c r="H927" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="928">
@@ -30271,8 +30359,10 @@
       </c>
       <c r="F928" t="inlineStr"/>
       <c r="G928" t="inlineStr"/>
-      <c r="H928" t="n">
-        <v>3</v>
+      <c r="H928" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="929">
@@ -30299,8 +30389,10 @@
       </c>
       <c r="F929" t="inlineStr"/>
       <c r="G929" t="inlineStr"/>
-      <c r="H929" t="n">
-        <v>3</v>
+      <c r="H929" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="930">
@@ -30327,8 +30419,10 @@
       </c>
       <c r="F930" t="inlineStr"/>
       <c r="G930" t="inlineStr"/>
-      <c r="H930" t="n">
-        <v>3</v>
+      <c r="H930" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="931">
@@ -30351,8 +30445,10 @@
       <c r="E931" t="inlineStr"/>
       <c r="F931" t="inlineStr"/>
       <c r="G931" t="inlineStr"/>
-      <c r="H931" t="n">
-        <v>3</v>
+      <c r="H931" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="932">
@@ -30387,8 +30483,10 @@
           <t>102</t>
         </is>
       </c>
-      <c r="H932" t="n">
-        <v>3</v>
+      <c r="H932" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="933">
@@ -30419,8 +30517,10 @@
           <t>$615.0B</t>
         </is>
       </c>
-      <c r="H933" t="n">
-        <v>3</v>
+      <c r="H933" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="934">
@@ -30455,8 +30555,10 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H934" t="n">
-        <v>1</v>
+      <c r="H934" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="935">
@@ -30491,8 +30593,10 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H935" t="n">
-        <v>2</v>
+      <c r="H935" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="936">
@@ -30527,8 +30631,10 @@
           <t>3.5%</t>
         </is>
       </c>
-      <c r="H936" t="n">
-        <v>3</v>
+      <c r="H936" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="937">
@@ -30559,8 +30665,10 @@
           <t>146.8</t>
         </is>
       </c>
-      <c r="H937" t="n">
-        <v>3</v>
+      <c r="H937" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="938">
@@ -30591,8 +30699,10 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H938" t="n">
-        <v>3</v>
+      <c r="H938" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="939">
@@ -30623,8 +30733,10 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H939" t="n">
-        <v>3</v>
+      <c r="H939" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="940">
@@ -30659,8 +30771,10 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H940" t="n">
-        <v>3</v>
+      <c r="H940" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="941">
@@ -30687,8 +30801,10 @@
       </c>
       <c r="F941" t="inlineStr"/>
       <c r="G941" t="inlineStr"/>
-      <c r="H941" t="n">
-        <v>3</v>
+      <c r="H941" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="942">
@@ -30711,8 +30827,10 @@
       <c r="E942" t="inlineStr"/>
       <c r="F942" t="inlineStr"/>
       <c r="G942" t="inlineStr"/>
-      <c r="H942" t="n">
-        <v>2</v>
+      <c r="H942" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="943">
@@ -30747,8 +30865,10 @@
           <t>54.2</t>
         </is>
       </c>
-      <c r="H943" t="n">
-        <v>3</v>
+      <c r="H943" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="944">
@@ -30775,8 +30895,10 @@
       </c>
       <c r="F944" t="inlineStr"/>
       <c r="G944" t="inlineStr"/>
-      <c r="H944" t="n">
-        <v>3</v>
+      <c r="H944" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="945">
@@ -30811,8 +30933,10 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H945" t="n">
-        <v>3</v>
+      <c r="H945" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="946">
@@ -30847,8 +30971,10 @@
           <t>116.0%</t>
         </is>
       </c>
-      <c r="H946" t="n">
-        <v>3</v>
+      <c r="H946" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="947">
@@ -30871,8 +30997,10 @@
       <c r="E947" t="inlineStr"/>
       <c r="F947" t="inlineStr"/>
       <c r="G947" t="inlineStr"/>
-      <c r="H947" t="n">
-        <v>2</v>
+      <c r="H947" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="948">
@@ -30903,8 +31031,10 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H948" t="n">
-        <v>3</v>
+      <c r="H948" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="949">
@@ -30935,8 +31065,10 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H949" t="n">
-        <v>3</v>
+      <c r="H949" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="950">
@@ -30963,8 +31095,10 @@
       </c>
       <c r="F950" t="inlineStr"/>
       <c r="G950" t="inlineStr"/>
-      <c r="H950" t="n">
-        <v>2</v>
+      <c r="H950" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="951">
@@ -30995,8 +31129,10 @@
           <t>3</t>
         </is>
       </c>
-      <c r="H951" t="n">
-        <v>3</v>
+      <c r="H951" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="952">
@@ -31019,8 +31155,10 @@
       <c r="E952" t="inlineStr"/>
       <c r="F952" t="inlineStr"/>
       <c r="G952" t="inlineStr"/>
-      <c r="H952" t="n">
-        <v>3</v>
+      <c r="H952" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="953">
@@ -31055,8 +31193,10 @@
           <t>$ 3.7B</t>
         </is>
       </c>
-      <c r="H953" t="n">
-        <v>2</v>
+      <c r="H953" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="954">
@@ -31087,8 +31227,10 @@
         </is>
       </c>
       <c r="G954" t="inlineStr"/>
-      <c r="H954" t="n">
-        <v>3</v>
+      <c r="H954" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="955">
@@ -31119,8 +31261,10 @@
         </is>
       </c>
       <c r="G955" t="inlineStr"/>
-      <c r="H955" t="n">
-        <v>3</v>
+      <c r="H955" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="956">
@@ -31143,8 +31287,10 @@
       </c>
       <c r="F956" t="inlineStr"/>
       <c r="G956" t="inlineStr"/>
-      <c r="H956" t="n">
-        <v>3</v>
+      <c r="H956" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="957">
@@ -31167,8 +31313,10 @@
       </c>
       <c r="F957" t="inlineStr"/>
       <c r="G957" t="inlineStr"/>
-      <c r="H957" t="n">
-        <v>3</v>
+      <c r="H957" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="958">
@@ -31217,8 +31365,10 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H959" t="n">
-        <v>3</v>
+      <c r="H959" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="960">
@@ -31253,8 +31403,10 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H960" t="n">
-        <v>2</v>
+      <c r="H960" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="961">
@@ -31285,8 +31437,10 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H961" t="n">
-        <v>2</v>
+      <c r="H961" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="962">
@@ -31321,8 +31475,10 @@
           <t>2.7%</t>
         </is>
       </c>
-      <c r="H962" t="n">
-        <v>1</v>
+      <c r="H962" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="963">
@@ -31357,8 +31513,10 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H963" t="n">
-        <v>2</v>
+      <c r="H963" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="964">
@@ -31393,8 +31551,10 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H964" t="n">
-        <v>2</v>
+      <c r="H964" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="965">
@@ -31429,8 +31589,10 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H965" t="n">
-        <v>3</v>
+      <c r="H965" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="966">
@@ -31461,8 +31623,10 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H966" t="n">
-        <v>3</v>
+      <c r="H966" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="967">
@@ -31493,8 +31657,10 @@
           <t>2.1%</t>
         </is>
       </c>
-      <c r="H967" t="n">
-        <v>3</v>
+      <c r="H967" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="968">
@@ -31529,8 +31695,10 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H968" t="n">
-        <v>3</v>
+      <c r="H968" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="969">
@@ -31561,8 +31729,10 @@
           <t>-1%</t>
         </is>
       </c>
-      <c r="H969" t="n">
-        <v>3</v>
+      <c r="H969" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="970">
@@ -31597,8 +31767,10 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H970" t="n">
-        <v>3</v>
+      <c r="H970" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="971">
@@ -31629,8 +31801,10 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H971" t="n">
-        <v>3</v>
+      <c r="H971" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="972">
@@ -31665,8 +31839,10 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H972" t="n">
-        <v>3</v>
+      <c r="H972" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="973">
@@ -31701,8 +31877,10 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H973" t="n">
-        <v>3</v>
+      <c r="H973" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="974">
@@ -31733,8 +31911,10 @@
           <t>10%</t>
         </is>
       </c>
-      <c r="H974" t="n">
-        <v>3</v>
+      <c r="H974" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="975">
@@ -31769,8 +31949,10 @@
           <t>6%</t>
         </is>
       </c>
-      <c r="H975" t="n">
-        <v>2</v>
+      <c r="H975" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="976">
@@ -31805,8 +31987,10 @@
           <t>5.25%</t>
         </is>
       </c>
-      <c r="H976" t="n">
-        <v>3</v>
+      <c r="H976" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="977">
@@ -31841,8 +32025,10 @@
           <t>6.75%</t>
         </is>
       </c>
-      <c r="H977" t="n">
-        <v>3</v>
+      <c r="H977" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="978">
@@ -31877,8 +32063,10 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H978" t="n">
-        <v>2</v>
+      <c r="H978" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="979">
@@ -31913,8 +32101,10 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H979" t="n">
-        <v>2</v>
+      <c r="H979" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="980">
@@ -31949,8 +32139,10 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H980" t="n">
-        <v>3</v>
+      <c r="H980" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="981">
@@ -31985,8 +32177,10 @@
           <t>1.8%</t>
         </is>
       </c>
-      <c r="H981" t="n">
-        <v>3</v>
+      <c r="H981" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="982">
@@ -32009,8 +32203,10 @@
       <c r="E982" t="inlineStr"/>
       <c r="F982" t="inlineStr"/>
       <c r="G982" t="inlineStr"/>
-      <c r="H982" t="n">
-        <v>3</v>
+      <c r="H982" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="983">
@@ -32045,8 +32241,10 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H983" t="n">
-        <v>3</v>
+      <c r="H983" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="984">
@@ -32081,8 +32279,10 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H984" t="n">
-        <v>3</v>
+      <c r="H984" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="985">
@@ -32117,8 +32317,10 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H985" t="n">
-        <v>3</v>
+      <c r="H985" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="986">
@@ -32153,8 +32355,10 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H986" t="n">
-        <v>3</v>
+      <c r="H986" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="987">
@@ -32189,8 +32393,10 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H987" t="n">
-        <v>3</v>
+      <c r="H987" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="988">
@@ -32213,8 +32419,10 @@
       <c r="E988" t="inlineStr"/>
       <c r="F988" t="inlineStr"/>
       <c r="G988" t="inlineStr"/>
-      <c r="H988" t="n">
-        <v>2</v>
+      <c r="H988" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="989">
@@ -32249,8 +32457,10 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H989" t="n">
-        <v>1</v>
+      <c r="H989" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="990">
@@ -32285,8 +32495,10 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H990" t="n">
-        <v>2</v>
+      <c r="H990" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="991">
@@ -32321,8 +32533,10 @@
           <t>-1.5%</t>
         </is>
       </c>
-      <c r="H991" t="n">
-        <v>3</v>
+      <c r="H991" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="992">
@@ -32349,8 +32563,10 @@
       </c>
       <c r="F992" t="inlineStr"/>
       <c r="G992" t="inlineStr"/>
-      <c r="H992" t="n">
-        <v>3</v>
+      <c r="H992" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="993">
@@ -32377,8 +32593,10 @@
       </c>
       <c r="F993" t="inlineStr"/>
       <c r="G993" t="inlineStr"/>
-      <c r="H993" t="n">
-        <v>3</v>
+      <c r="H993" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="994">
@@ -32409,8 +32627,10 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H994" t="n">
-        <v>3</v>
+      <c r="H994" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="995">
@@ -32441,8 +32661,10 @@
           <t>-5.0%</t>
         </is>
       </c>
-      <c r="H995" t="n">
-        <v>3</v>
+      <c r="H995" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="996">
@@ -32469,8 +32691,10 @@
       </c>
       <c r="F996" t="inlineStr"/>
       <c r="G996" t="inlineStr"/>
-      <c r="H996" t="n">
-        <v>2</v>
+      <c r="H996" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="997">
@@ -32497,8 +32721,10 @@
       </c>
       <c r="F997" t="inlineStr"/>
       <c r="G997" t="inlineStr"/>
-      <c r="H997" t="n">
-        <v>3</v>
+      <c r="H997" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="998">
@@ -32525,8 +32751,10 @@
       </c>
       <c r="F998" t="inlineStr"/>
       <c r="G998" t="inlineStr"/>
-      <c r="H998" t="n">
-        <v>3</v>
+      <c r="H998" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="999">
@@ -32553,8 +32781,10 @@
       </c>
       <c r="F999" t="inlineStr"/>
       <c r="G999" t="inlineStr"/>
-      <c r="H999" t="n">
-        <v>3</v>
+      <c r="H999" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1000">
@@ -32581,8 +32811,10 @@
       </c>
       <c r="F1000" t="inlineStr"/>
       <c r="G1000" t="inlineStr"/>
-      <c r="H1000" t="n">
-        <v>3</v>
+      <c r="H1000" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1001">
@@ -32617,8 +32849,10 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1001" t="n">
-        <v>3</v>
+      <c r="H1001" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1002">
@@ -32645,8 +32879,10 @@
       </c>
       <c r="F1002" t="inlineStr"/>
       <c r="G1002" t="inlineStr"/>
-      <c r="H1002" t="n">
-        <v>3</v>
+      <c r="H1002" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1003">
@@ -32681,8 +32917,10 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H1003" t="n">
-        <v>3</v>
+      <c r="H1003" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1004">
@@ -32717,8 +32955,10 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1004" t="n">
-        <v>1</v>
+      <c r="H1004" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="1005">
@@ -32753,8 +32993,10 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H1005" t="n">
-        <v>1</v>
+      <c r="H1005" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="1006">
@@ -32789,8 +33031,10 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1006" t="n">
-        <v>1</v>
+      <c r="H1006" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="1007">
@@ -32825,8 +33069,10 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H1007" t="n">
-        <v>1</v>
+      <c r="H1007" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="1008">
@@ -32857,8 +33103,10 @@
           <t>315.6</t>
         </is>
       </c>
-      <c r="H1008" t="n">
-        <v>2</v>
+      <c r="H1008" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1009">
@@ -32889,8 +33137,10 @@
           <t>317.4</t>
         </is>
       </c>
-      <c r="H1009" t="n">
-        <v>2</v>
+      <c r="H1009" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1010">
@@ -32925,8 +33175,10 @@
           <t>3.1</t>
         </is>
       </c>
-      <c r="H1010" t="n">
-        <v>2</v>
+      <c r="H1010" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1011">
@@ -32949,8 +33201,10 @@
       <c r="E1011" t="inlineStr"/>
       <c r="F1011" t="inlineStr"/>
       <c r="G1011" t="inlineStr"/>
-      <c r="H1011" t="n">
-        <v>2</v>
+      <c r="H1011" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1012">
@@ -32973,8 +33227,10 @@
       <c r="E1012" t="inlineStr"/>
       <c r="F1012" t="inlineStr"/>
       <c r="G1012" t="inlineStr"/>
-      <c r="H1012" t="n">
-        <v>2</v>
+      <c r="H1012" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1013">
@@ -33001,8 +33257,10 @@
       </c>
       <c r="F1013" t="inlineStr"/>
       <c r="G1013" t="inlineStr"/>
-      <c r="H1013" t="n">
-        <v>2</v>
+      <c r="H1013" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1014">
@@ -33029,8 +33287,10 @@
       </c>
       <c r="F1014" t="inlineStr"/>
       <c r="G1014" t="inlineStr"/>
-      <c r="H1014" t="n">
-        <v>2</v>
+      <c r="H1014" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1015">
@@ -33057,8 +33317,10 @@
       </c>
       <c r="F1015" t="inlineStr"/>
       <c r="G1015" t="inlineStr"/>
-      <c r="H1015" t="n">
-        <v>3</v>
+      <c r="H1015" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1016">
@@ -33085,8 +33347,10 @@
       </c>
       <c r="F1016" t="inlineStr"/>
       <c r="G1016" t="inlineStr"/>
-      <c r="H1016" t="n">
-        <v>3</v>
+      <c r="H1016" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1017">
@@ -33113,8 +33377,10 @@
       </c>
       <c r="F1017" t="inlineStr"/>
       <c r="G1017" t="inlineStr"/>
-      <c r="H1017" t="n">
-        <v>3</v>
+      <c r="H1017" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1018">
@@ -33141,8 +33407,10 @@
       </c>
       <c r="F1018" t="inlineStr"/>
       <c r="G1018" t="inlineStr"/>
-      <c r="H1018" t="n">
-        <v>3</v>
+      <c r="H1018" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1019">
@@ -33169,8 +33437,10 @@
       </c>
       <c r="F1019" t="inlineStr"/>
       <c r="G1019" t="inlineStr"/>
-      <c r="H1019" t="n">
-        <v>3</v>
+      <c r="H1019" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1020">
@@ -33197,8 +33467,10 @@
       </c>
       <c r="F1020" t="inlineStr"/>
       <c r="G1020" t="inlineStr"/>
-      <c r="H1020" t="n">
-        <v>3</v>
+      <c r="H1020" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1021">
@@ -33225,8 +33497,10 @@
       </c>
       <c r="F1021" t="inlineStr"/>
       <c r="G1021" t="inlineStr"/>
-      <c r="H1021" t="n">
-        <v>3</v>
+      <c r="H1021" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1022">
@@ -33261,8 +33535,10 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1022" t="n">
-        <v>2</v>
+      <c r="H1022" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1023">
@@ -33297,8 +33573,10 @@
           <t>9.5%</t>
         </is>
       </c>
-      <c r="H1023" t="n">
-        <v>2</v>
+      <c r="H1023" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1024">
@@ -33321,8 +33599,10 @@
       <c r="E1024" t="inlineStr"/>
       <c r="F1024" t="inlineStr"/>
       <c r="G1024" t="inlineStr"/>
-      <c r="H1024" t="n">
-        <v>2</v>
+      <c r="H1024" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1025">
@@ -33349,8 +33629,10 @@
       </c>
       <c r="F1025" t="inlineStr"/>
       <c r="G1025" t="inlineStr"/>
-      <c r="H1025" t="n">
-        <v>3</v>
+      <c r="H1025" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1026">
@@ -33381,8 +33663,10 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H1026" t="n">
-        <v>2</v>
+      <c r="H1026" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1027">
@@ -33409,8 +33693,10 @@
       </c>
       <c r="F1027" t="inlineStr"/>
       <c r="G1027" t="inlineStr"/>
-      <c r="H1027" t="n">
-        <v>3</v>
+      <c r="H1027" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1028">
@@ -33433,8 +33719,10 @@
       <c r="E1028" t="inlineStr"/>
       <c r="F1028" t="inlineStr"/>
       <c r="G1028" t="inlineStr"/>
-      <c r="H1028" t="n">
-        <v>2</v>
+      <c r="H1028" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1029">
@@ -33457,8 +33745,10 @@
       <c r="E1029" t="inlineStr"/>
       <c r="F1029" t="inlineStr"/>
       <c r="G1029" t="inlineStr"/>
-      <c r="H1029" t="n">
-        <v>3</v>
+      <c r="H1029" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1030">
@@ -33481,8 +33771,10 @@
       <c r="E1030" t="inlineStr"/>
       <c r="F1030" t="inlineStr"/>
       <c r="G1030" t="inlineStr"/>
-      <c r="H1030" t="n">
-        <v>3</v>
+      <c r="H1030" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1031">
@@ -33513,8 +33805,10 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H1031" t="n">
-        <v>2</v>
+      <c r="H1031" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1032">
@@ -33549,8 +33843,10 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1032" t="n">
-        <v>3</v>
+      <c r="H1032" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1033">
@@ -33585,8 +33881,10 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H1033" t="n">
-        <v>3</v>
+      <c r="H1033" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1034">
@@ -33621,8 +33919,10 @@
           <t>26.0%</t>
         </is>
       </c>
-      <c r="H1034" t="n">
-        <v>2</v>
+      <c r="H1034" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1035">
@@ -33657,8 +33957,10 @@
           <t>3.9%</t>
         </is>
       </c>
-      <c r="H1035" t="n">
-        <v>1</v>
+      <c r="H1035" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="1036">
@@ -33693,8 +33995,10 @@
           <t>25.1K</t>
         </is>
       </c>
-      <c r="H1036" t="n">
-        <v>2</v>
+      <c r="H1036" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1037">
@@ -33721,8 +34025,10 @@
       </c>
       <c r="F1037" t="inlineStr"/>
       <c r="G1037" t="inlineStr"/>
-      <c r="H1037" t="n">
-        <v>2</v>
+      <c r="H1037" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1038">
@@ -33749,8 +34055,10 @@
       </c>
       <c r="F1038" t="inlineStr"/>
       <c r="G1038" t="inlineStr"/>
-      <c r="H1038" t="n">
-        <v>3</v>
+      <c r="H1038" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1039">
@@ -33785,8 +34093,10 @@
           <t>66.8%</t>
         </is>
       </c>
-      <c r="H1039" t="n">
-        <v>3</v>
+      <c r="H1039" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1040">
@@ -33821,8 +34131,10 @@
           <t>2.75%</t>
         </is>
       </c>
-      <c r="H1040" t="n">
-        <v>2</v>
+      <c r="H1040" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1041">
@@ -33849,8 +34161,10 @@
       </c>
       <c r="F1041" t="inlineStr"/>
       <c r="G1041" t="inlineStr"/>
-      <c r="H1041" t="n">
-        <v>3</v>
+      <c r="H1041" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1042">
@@ -33877,8 +34191,10 @@
       </c>
       <c r="F1042" t="inlineStr"/>
       <c r="G1042" t="inlineStr"/>
-      <c r="H1042" t="n">
-        <v>3</v>
+      <c r="H1042" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1043">
@@ -33905,8 +34221,10 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1043" t="n">
-        <v>3</v>
+      <c r="H1043" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1044">
@@ -33933,8 +34251,10 @@
           <t>2%</t>
         </is>
       </c>
-      <c r="H1044" t="n">
-        <v>3</v>
+      <c r="H1044" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1045">
@@ -33961,8 +34281,10 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H1045" t="n">
-        <v>3</v>
+      <c r="H1045" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1046">
@@ -33985,8 +34307,10 @@
       </c>
       <c r="F1046" t="inlineStr"/>
       <c r="G1046" t="inlineStr"/>
-      <c r="H1046" t="n">
-        <v>3</v>
+      <c r="H1046" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1047">
@@ -34005,8 +34329,10 @@
       <c r="E1047" t="inlineStr"/>
       <c r="F1047" t="inlineStr"/>
       <c r="G1047" t="inlineStr"/>
-      <c r="H1047" t="n">
-        <v>3</v>
+      <c r="H1047" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1048">
@@ -34033,8 +34359,10 @@
           <t>$ -38.0B</t>
         </is>
       </c>
-      <c r="H1048" t="n">
-        <v>3</v>
+      <c r="H1048" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1049">
@@ -34061,8 +34389,10 @@
           <t>$ 32.5B</t>
         </is>
       </c>
-      <c r="H1049" t="n">
-        <v>3</v>
+      <c r="H1049" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1050">
@@ -34089,8 +34419,10 @@
           <t>$ 70.5B</t>
         </is>
       </c>
-      <c r="H1050" t="n">
-        <v>3</v>
+      <c r="H1050" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1051">
@@ -34131,8 +34463,10 @@
       </c>
       <c r="F1052" t="inlineStr"/>
       <c r="G1052" t="inlineStr"/>
-      <c r="H1052" t="n">
-        <v>3</v>
+      <c r="H1052" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1053">
@@ -34167,8 +34501,10 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1053" t="n">
-        <v>2</v>
+      <c r="H1053" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1054">
@@ -34203,8 +34539,10 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H1054" t="n">
-        <v>2</v>
+      <c r="H1054" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1055">
@@ -34239,8 +34577,10 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H1055" t="n">
-        <v>3</v>
+      <c r="H1055" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1056">
@@ -34275,8 +34615,10 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H1056" t="n">
-        <v>3</v>
+      <c r="H1056" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1057">
@@ -34311,8 +34653,10 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1057" t="n">
-        <v>1</v>
+      <c r="H1057" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="1058">
@@ -34343,8 +34687,10 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1058" t="n">
-        <v>1</v>
+      <c r="H1058" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="1059">
@@ -34379,8 +34725,10 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1059" t="n">
-        <v>2</v>
+      <c r="H1059" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1060">
@@ -34415,8 +34763,10 @@
           <t>£-17.0B</t>
         </is>
       </c>
-      <c r="H1060" t="n">
-        <v>2</v>
+      <c r="H1060" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1061">
@@ -34447,8 +34797,10 @@
           <t>£-6.8B</t>
         </is>
       </c>
-      <c r="H1061" t="n">
-        <v>2</v>
+      <c r="H1061" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1062">
@@ -34483,8 +34835,10 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1062" t="n">
-        <v>2</v>
+      <c r="H1062" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1063">
@@ -34519,8 +34873,10 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1063" t="n">
-        <v>2</v>
+      <c r="H1063" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1064">
@@ -34551,8 +34907,10 @@
           <t>£-3.9B</t>
         </is>
       </c>
-      <c r="H1064" t="n">
-        <v>3</v>
+      <c r="H1064" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1065">
@@ -34583,8 +34941,10 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1065" t="n">
-        <v>3</v>
+      <c r="H1065" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1066">
@@ -34619,8 +34979,10 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H1066" t="n">
-        <v>3</v>
+      <c r="H1066" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1067">
@@ -34655,8 +35017,10 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H1067" t="n">
-        <v>3</v>
+      <c r="H1067" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1068">
@@ -34691,8 +35055,10 @@
           <t>€3.2B</t>
         </is>
       </c>
-      <c r="H1068" t="n">
-        <v>2</v>
+      <c r="H1068" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1069">
@@ -34727,8 +35093,10 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1069" t="n">
-        <v>2</v>
+      <c r="H1069" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1070">
@@ -34763,8 +35131,10 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H1070" t="n">
-        <v>2</v>
+      <c r="H1070" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1071">
@@ -34799,8 +35169,10 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1071" t="n">
-        <v>3</v>
+      <c r="H1071" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1072">
@@ -34835,8 +35207,10 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H1072" t="n">
-        <v>3</v>
+      <c r="H1072" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1073">
@@ -34859,8 +35233,10 @@
       <c r="E1073" t="inlineStr"/>
       <c r="F1073" t="inlineStr"/>
       <c r="G1073" t="inlineStr"/>
-      <c r="H1073" t="n">
-        <v>3</v>
+      <c r="H1073" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1074">
@@ -34887,8 +35263,10 @@
       </c>
       <c r="F1074" t="inlineStr"/>
       <c r="G1074" t="inlineStr"/>
-      <c r="H1074" t="n">
-        <v>3</v>
+      <c r="H1074" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1075">
@@ -34911,8 +35289,10 @@
       <c r="E1075" t="inlineStr"/>
       <c r="F1075" t="inlineStr"/>
       <c r="G1075" t="inlineStr"/>
-      <c r="H1075" t="n">
-        <v>3</v>
+      <c r="H1075" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1076">
@@ -34939,8 +35319,10 @@
       </c>
       <c r="F1076" t="inlineStr"/>
       <c r="G1076" t="inlineStr"/>
-      <c r="H1076" t="n">
-        <v>3</v>
+      <c r="H1076" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1077">
@@ -34975,8 +35357,10 @@
           <t>€1.8B</t>
         </is>
       </c>
-      <c r="H1077" t="n">
-        <v>2</v>
+      <c r="H1077" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1078">
@@ -35003,8 +35387,10 @@
       </c>
       <c r="F1078" t="inlineStr"/>
       <c r="G1078" t="inlineStr"/>
-      <c r="H1078" t="n">
-        <v>3</v>
+      <c r="H1078" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1079">
@@ -35039,8 +35425,10 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1079" t="n">
-        <v>3</v>
+      <c r="H1079" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1080">
@@ -35063,8 +35451,10 @@
       <c r="E1080" t="inlineStr"/>
       <c r="F1080" t="inlineStr"/>
       <c r="G1080" t="inlineStr"/>
-      <c r="H1080" t="n">
-        <v>2</v>
+      <c r="H1080" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1081">
@@ -35095,8 +35485,10 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1081" t="n">
-        <v>3</v>
+      <c r="H1081" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1082">
@@ -35131,8 +35523,10 @@
           <t>240.0K</t>
         </is>
       </c>
-      <c r="H1082" t="n">
-        <v>2</v>
+      <c r="H1082" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1083">
@@ -35167,8 +35561,10 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1083" t="n">
-        <v>1</v>
+      <c r="H1083" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="1084">
@@ -35203,8 +35599,10 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1084" t="n">
-        <v>2</v>
+      <c r="H1084" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1085">
@@ -35239,8 +35637,10 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1085" t="n">
-        <v>2</v>
+      <c r="H1085" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1086">
@@ -35275,8 +35675,10 @@
           <t>209.0K</t>
         </is>
       </c>
-      <c r="H1086" t="n">
-        <v>2</v>
+      <c r="H1086" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1087">
@@ -35311,8 +35713,10 @@
           <t>-10</t>
         </is>
       </c>
-      <c r="H1087" t="n">
-        <v>2</v>
+      <c r="H1087" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1088">
@@ -35347,8 +35751,10 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1088" t="n">
-        <v>2</v>
+      <c r="H1088" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1089">
@@ -35379,8 +35785,10 @@
           <t>1870.0K</t>
         </is>
       </c>
-      <c r="H1089" t="n">
-        <v>3</v>
+      <c r="H1089" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1090">
@@ -35411,8 +35819,10 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H1090" t="n">
-        <v>3</v>
+      <c r="H1090" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1091">
@@ -35443,8 +35853,10 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1091" t="n">
-        <v>3</v>
+      <c r="H1091" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1092">
@@ -35475,8 +35887,10 @@
           <t>215.0K</t>
         </is>
       </c>
-      <c r="H1092" t="n">
-        <v>3</v>
+      <c r="H1092" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1093">
@@ -35503,8 +35917,10 @@
       </c>
       <c r="F1093" t="inlineStr"/>
       <c r="G1093" t="inlineStr"/>
-      <c r="H1093" t="n">
-        <v>3</v>
+      <c r="H1093" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1094">
@@ -35531,8 +35947,10 @@
       </c>
       <c r="F1094" t="inlineStr"/>
       <c r="G1094" t="inlineStr"/>
-      <c r="H1094" t="n">
-        <v>3</v>
+      <c r="H1094" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1095">
@@ -35559,8 +35977,10 @@
       </c>
       <c r="F1095" t="inlineStr"/>
       <c r="G1095" t="inlineStr"/>
-      <c r="H1095" t="n">
-        <v>3</v>
+      <c r="H1095" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1096">
@@ -35587,8 +36007,10 @@
       </c>
       <c r="F1096" t="inlineStr"/>
       <c r="G1096" t="inlineStr"/>
-      <c r="H1096" t="n">
-        <v>3</v>
+      <c r="H1096" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1097">
@@ -35615,8 +36037,10 @@
       </c>
       <c r="F1097" t="inlineStr"/>
       <c r="G1097" t="inlineStr"/>
-      <c r="H1097" t="n">
-        <v>3</v>
+      <c r="H1097" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1098">
@@ -35647,8 +36071,10 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1098" t="n">
-        <v>3</v>
+      <c r="H1098" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1099">
@@ -35679,8 +36105,10 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H1099" t="n">
-        <v>3</v>
+      <c r="H1099" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1100">
@@ -35715,8 +36143,10 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1100" t="n">
-        <v>2</v>
+      <c r="H1100" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1101">
@@ -35751,8 +36181,10 @@
           <t>45</t>
         </is>
       </c>
-      <c r="H1101" t="n">
-        <v>2</v>
+      <c r="H1101" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1102">
@@ -35787,8 +36219,10 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1102" t="n">
-        <v>3</v>
+      <c r="H1102" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1103">
@@ -35815,8 +36249,10 @@
       </c>
       <c r="F1103" t="inlineStr"/>
       <c r="G1103" t="inlineStr"/>
-      <c r="H1103" t="n">
-        <v>3</v>
+      <c r="H1103" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1104">
@@ -35843,8 +36279,10 @@
       </c>
       <c r="F1104" t="inlineStr"/>
       <c r="G1104" t="inlineStr"/>
-      <c r="H1104" t="n">
-        <v>3</v>
+      <c r="H1104" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1105">
@@ -35871,8 +36309,10 @@
       </c>
       <c r="F1105" t="inlineStr"/>
       <c r="G1105" t="inlineStr"/>
-      <c r="H1105" t="n">
-        <v>3</v>
+      <c r="H1105" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1106">
@@ -35899,8 +36339,10 @@
       </c>
       <c r="F1106" t="inlineStr"/>
       <c r="G1106" t="inlineStr"/>
-      <c r="H1106" t="n">
-        <v>3</v>
+      <c r="H1106" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1107">
@@ -35927,8 +36369,10 @@
       </c>
       <c r="F1107" t="inlineStr"/>
       <c r="G1107" t="inlineStr"/>
-      <c r="H1107" t="n">
-        <v>3</v>
+      <c r="H1107" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1108">
@@ -35951,8 +36395,10 @@
       <c r="E1108" t="inlineStr"/>
       <c r="F1108" t="inlineStr"/>
       <c r="G1108" t="inlineStr"/>
-      <c r="H1108" t="n">
-        <v>2</v>
+      <c r="H1108" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1109">
@@ -35979,8 +36425,10 @@
       </c>
       <c r="F1109" t="inlineStr"/>
       <c r="G1109" t="inlineStr"/>
-      <c r="H1109" t="n">
-        <v>3</v>
+      <c r="H1109" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1110">
@@ -36007,8 +36455,10 @@
       </c>
       <c r="F1110" t="inlineStr"/>
       <c r="G1110" t="inlineStr"/>
-      <c r="H1110" t="n">
-        <v>3</v>
+      <c r="H1110" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1111">
@@ -36035,8 +36485,10 @@
       </c>
       <c r="F1111" t="inlineStr"/>
       <c r="G1111" t="inlineStr"/>
-      <c r="H1111" t="n">
-        <v>3</v>
+      <c r="H1111" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1112">
@@ -36067,8 +36519,10 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1112" t="n">
-        <v>3</v>
+      <c r="H1112" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1113">
@@ -36103,8 +36557,10 @@
           <t>7.5%</t>
         </is>
       </c>
-      <c r="H1113" t="n">
-        <v>3</v>
+      <c r="H1113" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1114">
@@ -36131,8 +36587,10 @@
       </c>
       <c r="F1114" t="inlineStr"/>
       <c r="G1114" t="inlineStr"/>
-      <c r="H1114" t="n">
-        <v>3</v>
+      <c r="H1114" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1115">
@@ -36163,8 +36621,10 @@
           <t>-5.8%</t>
         </is>
       </c>
-      <c r="H1115" t="n">
-        <v>2</v>
+      <c r="H1115" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1116">
@@ -36195,8 +36655,10 @@
           <t>$ 3.6B</t>
         </is>
       </c>
-      <c r="H1116" t="n">
-        <v>3</v>
+      <c r="H1116" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1117">
@@ -36231,8 +36693,10 @@
           <t>5%</t>
         </is>
       </c>
-      <c r="H1117" t="n">
-        <v>1</v>
+      <c r="H1117" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="1118">
@@ -36267,8 +36731,10 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="H1118" t="n">
-        <v>1</v>
+      <c r="H1118" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="1119">
@@ -36303,8 +36769,10 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H1119" t="n">
-        <v>1</v>
+      <c r="H1119" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="1120">
@@ -36339,8 +36807,10 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H1120" t="n">
-        <v>2</v>
+      <c r="H1120" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1121">
@@ -36375,8 +36845,10 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1121" t="n">
-        <v>2</v>
+      <c r="H1121" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1122">
@@ -36407,8 +36879,10 @@
           <t>75.3%</t>
         </is>
       </c>
-      <c r="H1122" t="n">
-        <v>3</v>
+      <c r="H1122" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1123">
@@ -36443,8 +36917,10 @@
           <t>5.00%</t>
         </is>
       </c>
-      <c r="H1123" t="n">
-        <v>3</v>
+      <c r="H1123" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1124">
@@ -36471,98 +36947,96 @@
       </c>
       <c r="F1124" t="inlineStr"/>
       <c r="G1124" t="inlineStr"/>
-      <c r="H1124" t="n">
-        <v>3</v>
+      <c r="H1124" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1125">
       <c r="A1125" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1125" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1125" t="inlineStr">
-        <is>
-          <t>Building Permits MoM PrelDEC</t>
-        </is>
-      </c>
+          <t>Friday January 17 2025</t>
+        </is>
+      </c>
+      <c r="B1125" t="inlineStr"/>
+      <c r="C1125" t="inlineStr"/>
       <c r="D1125" t="inlineStr"/>
-      <c r="E1125" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="E1125" t="inlineStr"/>
       <c r="F1125" t="inlineStr"/>
-      <c r="G1125" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="H1125" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G1125" t="inlineStr"/>
+      <c r="H1125" t="inlineStr"/>
     </row>
     <row r="1126">
       <c r="A1126" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1126" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1126" t="inlineStr">
         <is>
-          <t>Housing Starts MoMDEC</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1126" t="inlineStr"/>
       <c r="E1126" t="inlineStr">
         <is>
-          <t>-1.8%</t>
-        </is>
-      </c>
-      <c r="F1126" t="inlineStr"/>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="F1126" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="G1126" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H1126" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1127">
       <c r="A1127" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1127" t="inlineStr">
         <is>
-          <t>IF</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1127" t="inlineStr">
         <is>
-          <t>IMF/World Economic Outlook</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D1127" t="inlineStr"/>
-      <c r="E1127" t="inlineStr"/>
-      <c r="F1127" t="inlineStr"/>
-      <c r="G1127" t="inlineStr"/>
+      <c r="E1127" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="F1127" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="G1127" t="inlineStr">
+        <is>
+          <t>2.1%</t>
+        </is>
+      </c>
       <c r="H1127" t="inlineStr">
         <is>
           <t>2</t>
@@ -36572,71 +37046,71 @@
     <row r="1128">
       <c r="A1128" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1128" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1128" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>Retail Sales ex Fuel MoMDEC</t>
         </is>
       </c>
       <c r="D1128" t="inlineStr"/>
       <c r="E1128" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F1128" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="G1128" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H1128" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1129">
       <c r="A1129" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1129" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1129" t="inlineStr">
         <is>
-          <t>Capacity UtilizationDEC</t>
+          <t>Retail Sales ex Fuel YoYDEC</t>
         </is>
       </c>
       <c r="D1129" t="inlineStr"/>
       <c r="E1129" t="inlineStr">
         <is>
-          <t>76.8%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F1129" t="inlineStr">
         <is>
-          <t>76.9%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="G1129" t="inlineStr">
         <is>
-          <t>76.9%</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="H1129" t="inlineStr">
@@ -36648,29 +37122,29 @@
     <row r="1130">
       <c r="A1130" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1130" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1130" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D1130" t="inlineStr"/>
       <c r="E1130" t="inlineStr">
         <is>
-          <t>-0.9%</t>
+          <t>€32B</t>
         </is>
       </c>
       <c r="F1130" t="inlineStr"/>
       <c r="G1130" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>€33.0B</t>
         </is>
       </c>
       <c r="H1130" t="inlineStr">
@@ -36682,35 +37156,31 @@
     <row r="1131">
       <c r="A1131" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1131" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1131" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMDEC</t>
+          <t>Current Account s.aNOV</t>
         </is>
       </c>
       <c r="D1131" t="inlineStr"/>
       <c r="E1131" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>€33.5B</t>
         </is>
       </c>
       <c r="F1131" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1131" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>€28B</t>
+        </is>
+      </c>
+      <c r="G1131" t="inlineStr"/>
       <c r="H1131" t="inlineStr">
         <is>
           <t>3</t>
@@ -36720,91 +37190,107 @@
     <row r="1132">
       <c r="A1132" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1132" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1132" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYDEC</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D1132" t="inlineStr"/>
       <c r="E1132" t="inlineStr">
         <is>
-          <t>-1%</t>
+          <t>€-3.93B</t>
         </is>
       </c>
       <c r="F1132" t="inlineStr"/>
       <c r="G1132" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>€-4.2B</t>
         </is>
       </c>
       <c r="H1132" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1133">
       <c r="A1133" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1133" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1133" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/17</t>
+          <t>Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D1133" t="inlineStr"/>
       <c r="E1133" t="inlineStr">
         <is>
-          <t>480</t>
-        </is>
-      </c>
-      <c r="F1133" t="inlineStr"/>
-      <c r="G1133" t="inlineStr"/>
+          <t>2.2%</t>
+        </is>
+      </c>
+      <c r="F1133" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="G1133" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
       <c r="H1133" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1134">
       <c r="A1134" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1134" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1134" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/17</t>
+          <t>Core Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D1134" t="inlineStr"/>
       <c r="E1134" t="inlineStr">
         <is>
-          <t>584</t>
-        </is>
-      </c>
-      <c r="F1134" t="inlineStr"/>
-      <c r="G1134" t="inlineStr"/>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="F1134" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="G1134" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="H1134" t="inlineStr">
         <is>
           <t>3</t>
@@ -36814,57 +37300,73 @@
     <row r="1135">
       <c r="A1135" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1135" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1135" t="inlineStr">
         <is>
-          <t>Net Long-term TIC FlowsNOV</t>
+          <t>CPI FinalDEC</t>
         </is>
       </c>
       <c r="D1135" t="inlineStr"/>
       <c r="E1135" t="inlineStr">
         <is>
-          <t>$152.3B</t>
-        </is>
-      </c>
-      <c r="F1135" t="inlineStr"/>
-      <c r="G1135" t="inlineStr"/>
+          <t>126.62</t>
+        </is>
+      </c>
+      <c r="F1135" t="inlineStr">
+        <is>
+          <t>127.08</t>
+        </is>
+      </c>
+      <c r="G1135" t="inlineStr">
+        <is>
+          <t>127.08</t>
+        </is>
+      </c>
       <c r="H1135" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1136">
       <c r="A1136" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1136" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1136" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentNOV</t>
+          <t>Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D1136" t="inlineStr"/>
       <c r="E1136" t="inlineStr">
         <is>
-          <t>$92.1B</t>
-        </is>
-      </c>
-      <c r="F1136" t="inlineStr"/>
-      <c r="G1136" t="inlineStr"/>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="F1136" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="G1136" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H1136" t="inlineStr">
         <is>
           <t>3</t>
@@ -36874,25 +37376,21 @@
     <row r="1137">
       <c r="A1137" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1137" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1137" t="inlineStr">
         <is>
-          <t>Overall Net Capital FlowsNOV</t>
+          <t>Bundesbank Nagel Speech</t>
         </is>
       </c>
       <c r="D1137" t="inlineStr"/>
-      <c r="E1137" t="inlineStr">
-        <is>
-          <t>$203.6B</t>
-        </is>
-      </c>
+      <c r="E1137" t="inlineStr"/>
       <c r="F1137" t="inlineStr"/>
       <c r="G1137" t="inlineStr"/>
       <c r="H1137" t="inlineStr">
@@ -36902,25 +37400,33 @@
       </c>
     </row>
     <row r="1138">
-      <c r="A1138" t="inlineStr"/>
+      <c r="A1138" t="inlineStr">
+        <is>
+          <t>05:00 AM</t>
+        </is>
+      </c>
       <c r="B1138" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1138" t="inlineStr">
         <is>
-          <t>50-Year KTB Auction</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D1138" t="inlineStr"/>
       <c r="E1138" t="inlineStr">
         <is>
-          <t>2.40%</t>
+          <t>€5628M</t>
         </is>
       </c>
       <c r="F1138" t="inlineStr"/>
-      <c r="G1138" t="inlineStr"/>
+      <c r="G1138" t="inlineStr">
+        <is>
+          <t>€2900.0M</t>
+        </is>
+      </c>
       <c r="H1138" t="inlineStr">
         <is>
           <t>3</t>
@@ -36930,165 +37436,169 @@
     <row r="1139">
       <c r="A1139" t="inlineStr">
         <is>
-          <t>Sunday January 19 2025</t>
-        </is>
-      </c>
-      <c r="B1139" t="inlineStr"/>
-      <c r="C1139" t="inlineStr"/>
+          <t>06:00 AM</t>
+        </is>
+      </c>
+      <c r="B1139" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C1139" t="inlineStr">
+        <is>
+          <t>ECB Cipollone Speech</t>
+        </is>
+      </c>
       <c r="D1139" t="inlineStr"/>
       <c r="E1139" t="inlineStr"/>
       <c r="F1139" t="inlineStr"/>
       <c r="G1139" t="inlineStr"/>
-      <c r="H1139" t="inlineStr"/>
+      <c r="H1139" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1140">
       <c r="A1140" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1140" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1140" t="inlineStr">
         <is>
-          <t>Machinery Orders MoMNOV</t>
+          <t>Bank Loan Growth YoYJAN/03</t>
         </is>
       </c>
       <c r="D1140" t="inlineStr"/>
       <c r="E1140" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>11.5%</t>
         </is>
       </c>
       <c r="F1140" t="inlineStr"/>
-      <c r="G1140" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1140" t="inlineStr"/>
       <c r="H1140" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1141">
       <c r="A1141" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1141" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1141" t="inlineStr">
         <is>
-          <t>Machinery Orders YoYNOV</t>
+          <t>Deposit Growth YoYJAN/03</t>
         </is>
       </c>
       <c r="D1141" t="inlineStr"/>
       <c r="E1141" t="inlineStr">
         <is>
-          <t>5.6%</t>
+          <t>11.5%</t>
         </is>
       </c>
       <c r="F1141" t="inlineStr"/>
-      <c r="G1141" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
+      <c r="G1141" t="inlineStr"/>
       <c r="H1141" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1142">
       <c r="A1142" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1142" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1142" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 1Y</t>
+          <t>Foreign Exchange ReservesJAN/10</t>
         </is>
       </c>
       <c r="D1142" t="inlineStr"/>
       <c r="E1142" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>$634.59B</t>
         </is>
       </c>
       <c r="F1142" t="inlineStr"/>
       <c r="G1142" t="inlineStr"/>
       <c r="H1142" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1143">
       <c r="A1143" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1143" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1143" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 5YJAN</t>
+          <t>Foreign Securities PurchasesNOV</t>
         </is>
       </c>
       <c r="D1143" t="inlineStr"/>
       <c r="E1143" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>C$21.55B</t>
         </is>
       </c>
       <c r="F1143" t="inlineStr"/>
       <c r="G1143" t="inlineStr"/>
       <c r="H1143" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1144">
       <c r="A1144" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1144" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1144" t="inlineStr">
         <is>
-          <t>Capacity Utilization MoMNOV</t>
+          <t>Foreign Securities Purchases by CanadiansNOV</t>
         </is>
       </c>
       <c r="D1144" t="inlineStr"/>
       <c r="E1144" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>C$-2.65B</t>
         </is>
       </c>
       <c r="F1144" t="inlineStr"/>
@@ -37102,167 +37612,203 @@
     <row r="1145">
       <c r="A1145" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1145" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1145" t="inlineStr">
         <is>
-          <t>Industrial Production MoM FinalNOV</t>
+          <t>Building Permits PrelDEC</t>
         </is>
       </c>
       <c r="D1145" t="inlineStr"/>
       <c r="E1145" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>1.493M</t>
         </is>
       </c>
       <c r="F1145" t="inlineStr">
         <is>
-          <t>-2.3%</t>
+          <t>1.46M</t>
         </is>
       </c>
       <c r="G1145" t="inlineStr">
         <is>
-          <t>-2.3%</t>
+          <t>1.48M</t>
         </is>
       </c>
       <c r="H1145" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1146">
       <c r="A1146" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1146" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1146" t="inlineStr">
         <is>
-          <t>Industrial Production YoY FinalNOV</t>
+          <t>Housing StartsDEC</t>
         </is>
       </c>
       <c r="D1146" t="inlineStr"/>
       <c r="E1146" t="inlineStr">
         <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="F1146" t="inlineStr"/>
+          <t>1.289M</t>
+        </is>
+      </c>
+      <c r="F1146" t="inlineStr">
+        <is>
+          <t>1.32M</t>
+        </is>
+      </c>
       <c r="G1146" t="inlineStr">
         <is>
-          <t>-2.8%</t>
+          <t>1.32M</t>
         </is>
       </c>
       <c r="H1146" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1147">
       <c r="A1147" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1147" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1147" t="inlineStr">
         <is>
-          <t>Tertiary Industry Index MoMNOV</t>
+          <t>Building Permits MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1147" t="inlineStr"/>
       <c r="E1147" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F1147" t="inlineStr"/>
-      <c r="G1147" t="inlineStr"/>
+      <c r="G1147" t="inlineStr">
+        <is>
+          <t>-0.9%</t>
+        </is>
+      </c>
       <c r="H1147" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1148">
-      <c r="A1148" t="inlineStr"/>
+      <c r="A1148" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B1148" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1148" t="inlineStr">
         <is>
-          <t>Eurogroup Meeting</t>
+          <t>Housing Starts MoMDEC</t>
         </is>
       </c>
       <c r="D1148" t="inlineStr"/>
-      <c r="E1148" t="inlineStr"/>
+      <c r="E1148" t="inlineStr">
+        <is>
+          <t>-1.8%</t>
+        </is>
+      </c>
       <c r="F1148" t="inlineStr"/>
-      <c r="G1148" t="inlineStr"/>
+      <c r="G1148" t="inlineStr">
+        <is>
+          <t>2%</t>
+        </is>
+      </c>
       <c r="H1148" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1149">
       <c r="A1149" t="inlineStr">
         <is>
-          <t>Monday January 20 2025</t>
-        </is>
-      </c>
-      <c r="B1149" t="inlineStr"/>
-      <c r="C1149" t="inlineStr"/>
+          <t>09:00 AM</t>
+        </is>
+      </c>
+      <c r="B1149" t="inlineStr">
+        <is>
+          <t>IF</t>
+        </is>
+      </c>
+      <c r="C1149" t="inlineStr">
+        <is>
+          <t>IMF/World Economic Outlook</t>
+        </is>
+      </c>
       <c r="D1149" t="inlineStr"/>
       <c r="E1149" t="inlineStr"/>
       <c r="F1149" t="inlineStr"/>
       <c r="G1149" t="inlineStr"/>
-      <c r="H1149" t="inlineStr"/>
+      <c r="H1149" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1150">
       <c r="A1150" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1150" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1150" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D1150" t="inlineStr"/>
       <c r="E1150" t="inlineStr">
         <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F1150" t="inlineStr"/>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="F1150" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="G1150" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="H1150" t="inlineStr">
@@ -37274,29 +37820,33 @@
     <row r="1151">
       <c r="A1151" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1151" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1151" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Capacity UtilizationDEC</t>
         </is>
       </c>
       <c r="D1151" t="inlineStr"/>
       <c r="E1151" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F1151" t="inlineStr"/>
+          <t>76.8%</t>
+        </is>
+      </c>
+      <c r="F1151" t="inlineStr">
+        <is>
+          <t>76.9%</t>
+        </is>
+      </c>
       <c r="G1151" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>76.9%</t>
         </is>
       </c>
       <c r="H1151" t="inlineStr">
@@ -37308,29 +37858,29 @@
     <row r="1152">
       <c r="A1152" t="inlineStr">
         <is>
-          <t>04:15 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1152" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1152" t="inlineStr">
         <is>
-          <t>Construction Output YoYNOV</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D1152" t="inlineStr"/>
       <c r="E1152" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="F1152" t="inlineStr"/>
       <c r="G1152" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="H1152" t="inlineStr">
@@ -37342,17 +37892,17 @@
     <row r="1153">
       <c r="A1153" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1153" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1153" t="inlineStr">
         <is>
-          <t>Construction Output YoYNOV</t>
+          <t>Manufacturing Production MoMDEC</t>
         </is>
       </c>
       <c r="D1153" t="inlineStr"/>
@@ -37361,8 +37911,16 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="F1153" t="inlineStr"/>
-      <c r="G1153" t="inlineStr"/>
+      <c r="F1153" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="G1153" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H1153" t="inlineStr">
         <is>
           <t>3</t>
@@ -37372,23 +37930,31 @@
     <row r="1154">
       <c r="A1154" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1154" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1154" t="inlineStr">
         <is>
-          <t>3-Month Bubill Auction</t>
+          <t>Manufacturing Production YoYDEC</t>
         </is>
       </c>
       <c r="D1154" t="inlineStr"/>
-      <c r="E1154" t="inlineStr"/>
+      <c r="E1154" t="inlineStr">
+        <is>
+          <t>-1%</t>
+        </is>
+      </c>
       <c r="F1154" t="inlineStr"/>
-      <c r="G1154" t="inlineStr"/>
+      <c r="G1154" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="H1154" t="inlineStr">
         <is>
           <t>3</t>
@@ -37398,21 +37964,25 @@
     <row r="1155">
       <c r="A1155" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1155" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1155" t="inlineStr">
         <is>
-          <t>9-Month Bubill Auction</t>
+          <t>Baker Hughes Oil Rig CountJAN/17</t>
         </is>
       </c>
       <c r="D1155" t="inlineStr"/>
-      <c r="E1155" t="inlineStr"/>
+      <c r="E1155" t="inlineStr">
+        <is>
+          <t>480</t>
+        </is>
+      </c>
       <c r="F1155" t="inlineStr"/>
       <c r="G1155" t="inlineStr"/>
       <c r="H1155" t="inlineStr">
@@ -37424,23 +37994,23 @@
     <row r="1156">
       <c r="A1156" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1156" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1156" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Baker Hughes Total Rigs CountJAN/17</t>
         </is>
       </c>
       <c r="D1156" t="inlineStr"/>
       <c r="E1156" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>584</t>
         </is>
       </c>
       <c r="F1156" t="inlineStr"/>
@@ -37454,55 +38024,55 @@
     <row r="1157">
       <c r="A1157" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1157" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1157" t="inlineStr">
         <is>
-          <t>Current AccountQ4</t>
+          <t>Net Long-term TIC FlowsNOV</t>
         </is>
       </c>
       <c r="D1157" t="inlineStr"/>
       <c r="E1157" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>$152.3B</t>
         </is>
       </c>
       <c r="F1157" t="inlineStr"/>
-      <c r="G1157" t="inlineStr">
-        <is>
-          <t>$ 10B</t>
-        </is>
-      </c>
+      <c r="G1157" t="inlineStr"/>
       <c r="H1157" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1158">
       <c r="A1158" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1158" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1158" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>Foreign Bond InvestmentNOV</t>
         </is>
       </c>
       <c r="D1158" t="inlineStr"/>
-      <c r="E1158" t="inlineStr"/>
+      <c r="E1158" t="inlineStr">
+        <is>
+          <t>$92.1B</t>
+        </is>
+      </c>
       <c r="F1158" t="inlineStr"/>
       <c r="G1158" t="inlineStr"/>
       <c r="H1158" t="inlineStr">
@@ -37514,21 +38084,25 @@
     <row r="1159">
       <c r="A1159" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1159" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1159" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>Overall Net Capital FlowsNOV</t>
         </is>
       </c>
       <c r="D1159" t="inlineStr"/>
-      <c r="E1159" t="inlineStr"/>
+      <c r="E1159" t="inlineStr">
+        <is>
+          <t>$203.6B</t>
+        </is>
+      </c>
       <c r="F1159" t="inlineStr"/>
       <c r="G1159" t="inlineStr"/>
       <c r="H1159" t="inlineStr">
@@ -37538,23 +38112,23 @@
       </c>
     </row>
     <row r="1160">
-      <c r="A1160" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
+      <c r="A1160" t="inlineStr"/>
       <c r="B1160" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1160" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>50-Year KTB Auction</t>
         </is>
       </c>
       <c r="D1160" t="inlineStr"/>
-      <c r="E1160" t="inlineStr"/>
+      <c r="E1160" t="inlineStr">
+        <is>
+          <t>2.40%</t>
+        </is>
+      </c>
       <c r="F1160" t="inlineStr"/>
       <c r="G1160" t="inlineStr"/>
       <c r="H1160" t="inlineStr">
@@ -37566,189 +38140,169 @@
     <row r="1161">
       <c r="A1161" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1161" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1161" t="inlineStr">
-        <is>
-          <t>BoC Business Outlook Survey</t>
-        </is>
-      </c>
+          <t>Sunday January 19 2025</t>
+        </is>
+      </c>
+      <c r="B1161" t="inlineStr"/>
+      <c r="C1161" t="inlineStr"/>
       <c r="D1161" t="inlineStr"/>
       <c r="E1161" t="inlineStr"/>
       <c r="F1161" t="inlineStr"/>
       <c r="G1161" t="inlineStr"/>
-      <c r="H1161" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="H1161" t="inlineStr"/>
     </row>
     <row r="1162">
       <c r="A1162" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1162" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1162" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Machinery Orders MoMNOV</t>
         </is>
       </c>
       <c r="D1162" t="inlineStr"/>
       <c r="E1162" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>2.1%</t>
         </is>
       </c>
       <c r="F1162" t="inlineStr"/>
       <c r="G1162" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1162" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1163">
       <c r="A1163" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1163" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1163" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Machinery Orders YoYNOV</t>
         </is>
       </c>
       <c r="D1163" t="inlineStr"/>
       <c r="E1163" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>5.6%</t>
         </is>
       </c>
       <c r="F1163" t="inlineStr"/>
       <c r="G1163" t="inlineStr">
         <is>
-          <t>4.4%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="H1163" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1164">
       <c r="A1164" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1164" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1164" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Loan Prime Rate 1Y</t>
         </is>
       </c>
       <c r="D1164" t="inlineStr"/>
       <c r="E1164" t="inlineStr">
         <is>
-          <t>$1234M</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="F1164" t="inlineStr"/>
-      <c r="G1164" t="inlineStr">
-        <is>
-          <t>$ 1463M</t>
-        </is>
-      </c>
+      <c r="G1164" t="inlineStr"/>
       <c r="H1164" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1165">
       <c r="A1165" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1165" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1165" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Loan Prime Rate 5YJAN</t>
         </is>
       </c>
       <c r="D1165" t="inlineStr"/>
-      <c r="E1165" t="inlineStr"/>
+      <c r="E1165" t="inlineStr">
+        <is>
+          <t>3.6%</t>
+        </is>
+      </c>
       <c r="F1165" t="inlineStr"/>
-      <c r="G1165" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G1165" t="inlineStr"/>
       <c r="H1165" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1166">
       <c r="A1166" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1166" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1166" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Capacity Utilization MoMNOV</t>
         </is>
       </c>
       <c r="D1166" t="inlineStr"/>
       <c r="E1166" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F1166" t="inlineStr"/>
-      <c r="G1166" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="G1166" t="inlineStr"/>
       <c r="H1166" t="inlineStr">
         <is>
           <t>3</t>
@@ -37758,7 +38312,7 @@
     <row r="1167">
       <c r="A1167" t="inlineStr">
         <is>
-          <t>10:35 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1167" t="inlineStr">
@@ -37768,17 +38322,25 @@
       </c>
       <c r="C1167" t="inlineStr">
         <is>
-          <t>40-Year JGB Auction</t>
+          <t>Industrial Production MoM FinalNOV</t>
         </is>
       </c>
       <c r="D1167" t="inlineStr"/>
       <c r="E1167" t="inlineStr">
         <is>
-          <t>2.550%</t>
-        </is>
-      </c>
-      <c r="F1167" t="inlineStr"/>
-      <c r="G1167" t="inlineStr"/>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="F1167" t="inlineStr">
+        <is>
+          <t>-2.3%</t>
+        </is>
+      </c>
+      <c r="G1167" t="inlineStr">
+        <is>
+          <t>-2.3%</t>
+        </is>
+      </c>
       <c r="H1167" t="inlineStr">
         <is>
           <t>3</t>
@@ -37786,25 +38348,33 @@
       </c>
     </row>
     <row r="1168">
-      <c r="A1168" t="inlineStr"/>
+      <c r="A1168" t="inlineStr">
+        <is>
+          <t>11:30 PM</t>
+        </is>
+      </c>
       <c r="B1168" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1168" t="inlineStr">
         <is>
-          <t>10-Year KTB Auction</t>
+          <t>Industrial Production YoY FinalNOV</t>
         </is>
       </c>
       <c r="D1168" t="inlineStr"/>
       <c r="E1168" t="inlineStr">
         <is>
-          <t>2.665%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F1168" t="inlineStr"/>
-      <c r="G1168" t="inlineStr"/>
+      <c r="G1168" t="inlineStr">
+        <is>
+          <t>-2.8%</t>
+        </is>
+      </c>
       <c r="H1168" t="inlineStr">
         <is>
           <t>3</t>
@@ -37812,21 +38382,25 @@
       </c>
     </row>
     <row r="1169">
-      <c r="A1169" t="inlineStr"/>
+      <c r="A1169" t="inlineStr">
+        <is>
+          <t>11:30 PM</t>
+        </is>
+      </c>
       <c r="B1169" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1169" t="inlineStr">
         <is>
-          <t>FDI (YTD) YoYDEC</t>
+          <t>Tertiary Industry Index MoMNOV</t>
         </is>
       </c>
       <c r="D1169" t="inlineStr"/>
       <c r="E1169" t="inlineStr">
         <is>
-          <t>-27.9%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F1169" t="inlineStr"/>
@@ -37841,26 +38415,18 @@
       <c r="A1170" t="inlineStr"/>
       <c r="B1170" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1170" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceDEC</t>
+          <t>Eurogroup Meeting</t>
         </is>
       </c>
       <c r="D1170" t="inlineStr"/>
-      <c r="E1170" t="inlineStr">
-        <is>
-          <t>80.6</t>
-        </is>
-      </c>
+      <c r="E1170" t="inlineStr"/>
       <c r="F1170" t="inlineStr"/>
-      <c r="G1170" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
+      <c r="G1170" t="inlineStr"/>
       <c r="H1170" t="inlineStr">
         <is>
           <t>3</t>
@@ -37868,81 +38434,81 @@
       </c>
     </row>
     <row r="1171">
-      <c r="A1171" t="inlineStr"/>
-      <c r="B1171" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C1171" t="inlineStr">
-        <is>
-          <t>Leading Indicator MoMDEC</t>
-        </is>
-      </c>
+      <c r="A1171" t="inlineStr">
+        <is>
+          <t>Monday January 20 2025</t>
+        </is>
+      </c>
+      <c r="B1171" t="inlineStr"/>
+      <c r="C1171" t="inlineStr"/>
       <c r="D1171" t="inlineStr"/>
-      <c r="E1171" t="inlineStr">
-        <is>
-          <t>1.44%</t>
-        </is>
-      </c>
+      <c r="E1171" t="inlineStr"/>
       <c r="F1171" t="inlineStr"/>
-      <c r="G1171" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="H1171" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1171" t="inlineStr"/>
+      <c r="H1171" t="inlineStr"/>
     </row>
     <row r="1172">
-      <c r="A1172" t="inlineStr"/>
+      <c r="A1172" t="inlineStr">
+        <is>
+          <t>02:00 AM</t>
+        </is>
+      </c>
       <c r="B1172" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1172" t="inlineStr">
         <is>
-          <t>Central Government DebtDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1172" t="inlineStr"/>
       <c r="E1172" t="inlineStr">
         <is>
-          <t>TRY9.005T</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F1172" t="inlineStr"/>
       <c r="G1172" t="inlineStr">
         <is>
-          <t>TRY 9.0T</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1172" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1173">
-      <c r="A1173" t="inlineStr"/>
+      <c r="A1173" t="inlineStr">
+        <is>
+          <t>02:00 AM</t>
+        </is>
+      </c>
       <c r="B1173" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1173" t="inlineStr">
         <is>
-          <t>ECOFIN Meeting</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1173" t="inlineStr"/>
-      <c r="E1173" t="inlineStr"/>
+      <c r="E1173" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="F1173" t="inlineStr"/>
-      <c r="G1173" t="inlineStr"/>
+      <c r="G1173" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
       <c r="H1173" t="inlineStr">
         <is>
           <t>3</t>
@@ -37952,35 +38518,59 @@
     <row r="1174">
       <c r="A1174" t="inlineStr">
         <is>
-          <t>Tuesday January 21 2025</t>
-        </is>
-      </c>
-      <c r="B1174" t="inlineStr"/>
-      <c r="C1174" t="inlineStr"/>
+          <t>04:15 AM</t>
+        </is>
+      </c>
+      <c r="B1174" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="C1174" t="inlineStr">
+        <is>
+          <t>Construction Output YoYNOV</t>
+        </is>
+      </c>
       <c r="D1174" t="inlineStr"/>
-      <c r="E1174" t="inlineStr"/>
+      <c r="E1174" t="inlineStr">
+        <is>
+          <t>3.4%</t>
+        </is>
+      </c>
       <c r="F1174" t="inlineStr"/>
-      <c r="G1174" t="inlineStr"/>
-      <c r="H1174" t="inlineStr"/>
+      <c r="G1174" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="H1174" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1175">
       <c r="A1175" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1175" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1175" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D1175" t="inlineStr"/>
-      <c r="E1175" t="inlineStr"/>
+      <c r="E1175" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F1175" t="inlineStr"/>
       <c r="G1175" t="inlineStr"/>
       <c r="H1175" t="inlineStr">
@@ -37992,17 +38582,17 @@
     <row r="1176">
       <c r="A1176" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1176" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1176" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>3-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D1176" t="inlineStr"/>
@@ -38018,159 +38608,139 @@
     <row r="1177">
       <c r="A1177" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1177" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1177" t="inlineStr">
         <is>
-          <t>New Car Registrations YoYDEC</t>
+          <t>9-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D1177" t="inlineStr"/>
-      <c r="E1177" t="inlineStr">
-        <is>
-          <t>-1.9%</t>
-        </is>
-      </c>
+      <c r="E1177" t="inlineStr"/>
       <c r="F1177" t="inlineStr"/>
       <c r="G1177" t="inlineStr"/>
       <c r="H1177" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1178">
       <c r="A1178" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1178" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1178" t="inlineStr">
         <is>
-          <t>Unemployment RateNOV</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D1178" t="inlineStr"/>
       <c r="E1178" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>$9.1B</t>
         </is>
       </c>
       <c r="F1178" t="inlineStr"/>
-      <c r="G1178" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="G1178" t="inlineStr"/>
       <c r="H1178" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1179">
       <c r="A1179" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1179" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1179" t="inlineStr">
         <is>
-          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
+          <t>Current AccountQ4</t>
         </is>
       </c>
       <c r="D1179" t="inlineStr"/>
       <c r="E1179" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>$9.1B</t>
         </is>
       </c>
       <c r="F1179" t="inlineStr"/>
       <c r="G1179" t="inlineStr">
         <is>
-          <t>4.9%</t>
+          <t>$ 10B</t>
         </is>
       </c>
       <c r="H1179" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1180">
       <c r="A1180" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1180" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1180" t="inlineStr">
         <is>
-          <t>Employment ChangeNOV</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1180" t="inlineStr"/>
-      <c r="E1180" t="inlineStr">
-        <is>
-          <t>173K</t>
-        </is>
-      </c>
+      <c r="E1180" t="inlineStr"/>
       <c r="F1180" t="inlineStr"/>
       <c r="G1180" t="inlineStr"/>
       <c r="H1180" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1181">
       <c r="A1181" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1181" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1181" t="inlineStr">
         <is>
-          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1181" t="inlineStr"/>
-      <c r="E1181" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="E1181" t="inlineStr"/>
       <c r="F1181" t="inlineStr"/>
-      <c r="G1181" t="inlineStr">
-        <is>
-          <t>5.0%</t>
-        </is>
-      </c>
+      <c r="G1181" t="inlineStr"/>
       <c r="H1181" t="inlineStr">
         <is>
           <t>3</t>
@@ -38180,31 +38750,23 @@
     <row r="1182">
       <c r="A1182" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1182" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1182" t="inlineStr">
         <is>
-          <t>Claimant Count ChangeDEC</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1182" t="inlineStr"/>
-      <c r="E1182" t="inlineStr">
-        <is>
-          <t>0.3K</t>
-        </is>
-      </c>
+      <c r="E1182" t="inlineStr"/>
       <c r="F1182" t="inlineStr"/>
-      <c r="G1182" t="inlineStr">
-        <is>
-          <t>-5K</t>
-        </is>
-      </c>
+      <c r="G1182" t="inlineStr"/>
       <c r="H1182" t="inlineStr">
         <is>
           <t>3</t>
@@ -38214,61 +38776,57 @@
     <row r="1183">
       <c r="A1183" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1183" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1183" t="inlineStr">
         <is>
-          <t>HMRC Payrolls ChangeDEC</t>
+          <t>BoC Business Outlook Survey</t>
         </is>
       </c>
       <c r="D1183" t="inlineStr"/>
-      <c r="E1183" t="inlineStr">
-        <is>
-          <t>-35K</t>
-        </is>
-      </c>
+      <c r="E1183" t="inlineStr"/>
       <c r="F1183" t="inlineStr"/>
-      <c r="G1183" t="inlineStr">
-        <is>
-          <t>20K</t>
-        </is>
-      </c>
+      <c r="G1183" t="inlineStr"/>
       <c r="H1183" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1184">
       <c r="A1184" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1184" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1184" t="inlineStr">
         <is>
-          <t>Gold Production YoYNOV</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1184" t="inlineStr"/>
       <c r="E1184" t="inlineStr">
         <is>
-          <t>-3.4%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="F1184" t="inlineStr"/>
-      <c r="G1184" t="inlineStr"/>
+      <c r="G1184" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H1184" t="inlineStr">
         <is>
           <t>3</t>
@@ -38278,27 +38836,31 @@
     <row r="1185">
       <c r="A1185" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1185" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1185" t="inlineStr">
         <is>
-          <t>Mining Production MoMNOV</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1185" t="inlineStr"/>
       <c r="E1185" t="inlineStr">
         <is>
-          <t>-3%</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="F1185" t="inlineStr"/>
-      <c r="G1185" t="inlineStr"/>
+      <c r="G1185" t="inlineStr">
+        <is>
+          <t>4.4%</t>
+        </is>
+      </c>
       <c r="H1185" t="inlineStr">
         <is>
           <t>3</t>
@@ -38308,27 +38870,31 @@
     <row r="1186">
       <c r="A1186" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1186" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1186" t="inlineStr">
         <is>
-          <t>Mining Production YoYNOV</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D1186" t="inlineStr"/>
       <c r="E1186" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>$1234M</t>
         </is>
       </c>
       <c r="F1186" t="inlineStr"/>
-      <c r="G1186" t="inlineStr"/>
+      <c r="G1186" t="inlineStr">
+        <is>
+          <t>$ 1463M</t>
+        </is>
+      </c>
       <c r="H1186" t="inlineStr">
         <is>
           <t>3</t>
@@ -38338,83 +38904,87 @@
     <row r="1187">
       <c r="A1187" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1187" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1187" t="inlineStr">
         <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1187" t="inlineStr"/>
-      <c r="E1187" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
+      <c r="E1187" t="inlineStr"/>
       <c r="F1187" t="inlineStr"/>
-      <c r="G1187" t="inlineStr"/>
+      <c r="G1187" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1187" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1188">
       <c r="A1188" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1188" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1188" t="inlineStr">
         <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1188" t="inlineStr"/>
       <c r="E1188" t="inlineStr">
         <is>
-          <t>15.7</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F1188" t="inlineStr"/>
-      <c r="G1188" t="inlineStr"/>
+      <c r="G1188" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
       <c r="H1188" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1189">
       <c r="A1189" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B1189" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1189" t="inlineStr">
         <is>
-          <t>ZEW Current ConditionsJAN</t>
+          <t>40-Year JGB Auction</t>
         </is>
       </c>
       <c r="D1189" t="inlineStr"/>
       <c r="E1189" t="inlineStr">
         <is>
-          <t>-93.1</t>
+          <t>2.550%</t>
         </is>
       </c>
       <c r="F1189" t="inlineStr"/>
@@ -38426,23 +38996,23 @@
       </c>
     </row>
     <row r="1190">
-      <c r="A1190" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
+      <c r="A1190" t="inlineStr"/>
       <c r="B1190" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1190" t="inlineStr">
         <is>
-          <t>Bund/g Auction</t>
+          <t>10-Year KTB Auction</t>
         </is>
       </c>
       <c r="D1190" t="inlineStr"/>
-      <c r="E1190" t="inlineStr"/>
+      <c r="E1190" t="inlineStr">
+        <is>
+          <t>2.665%</t>
+        </is>
+      </c>
       <c r="F1190" t="inlineStr"/>
       <c r="G1190" t="inlineStr"/>
       <c r="H1190" t="inlineStr">
@@ -38452,25 +39022,21 @@
       </c>
     </row>
     <row r="1191">
-      <c r="A1191" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
+      <c r="A1191" t="inlineStr"/>
       <c r="B1191" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1191" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>FDI (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D1191" t="inlineStr"/>
       <c r="E1191" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>-27.9%</t>
         </is>
       </c>
       <c r="F1191" t="inlineStr"/>
@@ -38482,29 +39048,29 @@
       </c>
     </row>
     <row r="1192">
-      <c r="A1192" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
+      <c r="A1192" t="inlineStr"/>
       <c r="B1192" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1192" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>Consumer ConfidenceDEC</t>
         </is>
       </c>
       <c r="D1192" t="inlineStr"/>
       <c r="E1192" t="inlineStr">
         <is>
-          <t>-1.2%</t>
+          <t>80.6</t>
         </is>
       </c>
       <c r="F1192" t="inlineStr"/>
-      <c r="G1192" t="inlineStr"/>
+      <c r="G1192" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
       <c r="H1192" t="inlineStr">
         <is>
           <t>3</t>
@@ -38512,165 +39078,121 @@
       </c>
     </row>
     <row r="1193">
-      <c r="A1193" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A1193" t="inlineStr"/>
       <c r="B1193" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1193" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Leading Indicator MoMDEC</t>
         </is>
       </c>
       <c r="D1193" t="inlineStr"/>
       <c r="E1193" t="inlineStr">
         <is>
-          <t>1,9%</t>
+          <t>1.44%</t>
         </is>
       </c>
       <c r="F1193" t="inlineStr"/>
       <c r="G1193" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="H1193" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1194">
-      <c r="A1194" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A1194" t="inlineStr"/>
       <c r="B1194" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1194" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>Central Government DebtDEC</t>
         </is>
       </c>
       <c r="D1194" t="inlineStr"/>
       <c r="E1194" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>TRY9.005T</t>
         </is>
       </c>
       <c r="F1194" t="inlineStr"/>
       <c r="G1194" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>TRY 9.0T</t>
         </is>
       </c>
       <c r="H1194" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1195">
-      <c r="A1195" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A1195" t="inlineStr"/>
       <c r="B1195" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1195" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>ECOFIN Meeting</t>
         </is>
       </c>
       <c r="D1195" t="inlineStr"/>
-      <c r="E1195" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+      <c r="E1195" t="inlineStr"/>
       <c r="F1195" t="inlineStr"/>
-      <c r="G1195" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1195" t="inlineStr"/>
       <c r="H1195" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1196">
       <c r="A1196" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1196" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1196" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate MoMDEC</t>
-        </is>
-      </c>
+          <t>Tuesday January 21 2025</t>
+        </is>
+      </c>
+      <c r="B1196" t="inlineStr"/>
+      <c r="C1196" t="inlineStr"/>
       <c r="D1196" t="inlineStr"/>
       <c r="E1196" t="inlineStr"/>
       <c r="F1196" t="inlineStr"/>
-      <c r="G1196" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H1196" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1196" t="inlineStr"/>
+      <c r="H1196" t="inlineStr"/>
     </row>
     <row r="1197">
       <c r="A1197" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1197" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1197" t="inlineStr">
         <is>
-          <t>CPI Median YoYDEC</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1197" t="inlineStr"/>
-      <c r="E1197" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+      <c r="E1197" t="inlineStr"/>
       <c r="F1197" t="inlineStr"/>
-      <c r="G1197" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="G1197" t="inlineStr"/>
       <c r="H1197" t="inlineStr">
         <is>
           <t>3</t>
@@ -38680,31 +39202,23 @@
     <row r="1198">
       <c r="A1198" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1198" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1198" t="inlineStr">
         <is>
-          <t>CPI Trimmed-Mean YoYDEC</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1198" t="inlineStr"/>
-      <c r="E1198" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="E1198" t="inlineStr"/>
       <c r="F1198" t="inlineStr"/>
-      <c r="G1198" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+      <c r="G1198" t="inlineStr"/>
       <c r="H1198" t="inlineStr">
         <is>
           <t>3</t>
@@ -38714,209 +39228,257 @@
     <row r="1199">
       <c r="A1199" t="inlineStr">
         <is>
-          <t>08:55 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1199" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1199" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/18</t>
+          <t>New Car Registrations YoYDEC</t>
         </is>
       </c>
       <c r="D1199" t="inlineStr"/>
-      <c r="E1199" t="inlineStr"/>
+      <c r="E1199" t="inlineStr">
+        <is>
+          <t>-1.9%</t>
+        </is>
+      </c>
       <c r="F1199" t="inlineStr"/>
       <c r="G1199" t="inlineStr"/>
       <c r="H1199" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1200">
       <c r="A1200" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1200" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1200" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Unemployment RateNOV</t>
         </is>
       </c>
       <c r="D1200" t="inlineStr"/>
-      <c r="E1200" t="inlineStr"/>
+      <c r="E1200" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="F1200" t="inlineStr"/>
-      <c r="G1200" t="inlineStr"/>
+      <c r="G1200" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="H1200" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1201">
       <c r="A1201" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1201" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1201" t="inlineStr">
         <is>
-          <t>52-Week Bill Auction</t>
+          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D1201" t="inlineStr"/>
-      <c r="E1201" t="inlineStr"/>
+      <c r="E1201" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="F1201" t="inlineStr"/>
-      <c r="G1201" t="inlineStr"/>
+      <c r="G1201" t="inlineStr">
+        <is>
+          <t>4.9%</t>
+        </is>
+      </c>
       <c r="H1201" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1202">
       <c r="A1202" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1202" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1202" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Employment ChangeNOV</t>
         </is>
       </c>
       <c r="D1202" t="inlineStr"/>
-      <c r="E1202" t="inlineStr"/>
+      <c r="E1202" t="inlineStr">
+        <is>
+          <t>173K</t>
+        </is>
+      </c>
       <c r="F1202" t="inlineStr"/>
       <c r="G1202" t="inlineStr"/>
       <c r="H1202" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1203">
       <c r="A1203" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1203" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1203" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D1203" t="inlineStr"/>
       <c r="E1203" t="inlineStr">
         <is>
-          <t>88.4</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F1203" t="inlineStr"/>
       <c r="G1203" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="H1203" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1204">
       <c r="A1204" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1204" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1204" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/17</t>
+          <t>Claimant Count ChangeDEC</t>
         </is>
       </c>
       <c r="D1204" t="inlineStr"/>
-      <c r="E1204" t="inlineStr"/>
+      <c r="E1204" t="inlineStr">
+        <is>
+          <t>0.3K</t>
+        </is>
+      </c>
       <c r="F1204" t="inlineStr"/>
-      <c r="G1204" t="inlineStr"/>
+      <c r="G1204" t="inlineStr">
+        <is>
+          <t>-5K</t>
+        </is>
+      </c>
       <c r="H1204" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1205">
       <c r="A1205" t="inlineStr">
         <is>
-          <t>Wednesday January 22 2025</t>
-        </is>
-      </c>
-      <c r="B1205" t="inlineStr"/>
-      <c r="C1205" t="inlineStr"/>
+          <t>02:00 AM</t>
+        </is>
+      </c>
+      <c r="B1205" t="inlineStr">
+        <is>
+          <t>GB</t>
+        </is>
+      </c>
+      <c r="C1205" t="inlineStr">
+        <is>
+          <t>HMRC Payrolls ChangeDEC</t>
+        </is>
+      </c>
       <c r="D1205" t="inlineStr"/>
-      <c r="E1205" t="inlineStr"/>
+      <c r="E1205" t="inlineStr">
+        <is>
+          <t>-35K</t>
+        </is>
+      </c>
       <c r="F1205" t="inlineStr"/>
-      <c r="G1205" t="inlineStr"/>
-      <c r="H1205" t="inlineStr"/>
+      <c r="G1205" t="inlineStr">
+        <is>
+          <t>20K</t>
+        </is>
+      </c>
+      <c r="H1205" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1206">
       <c r="A1206" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1206" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1206" t="inlineStr">
         <is>
-          <t>Public Sector Net Borrowing Ex BanksDEC</t>
+          <t>Gold Production YoYNOV</t>
         </is>
       </c>
       <c r="D1206" t="inlineStr"/>
       <c r="E1206" t="inlineStr">
         <is>
-          <t>£-11.25B</t>
+          <t>-3.4%</t>
         </is>
       </c>
       <c r="F1206" t="inlineStr"/>
-      <c r="G1206" t="inlineStr">
-        <is>
-          <t>£ -11.3B</t>
-        </is>
-      </c>
+      <c r="G1206" t="inlineStr"/>
       <c r="H1206" t="inlineStr">
         <is>
           <t>3</t>
@@ -38926,7 +39488,7 @@
     <row r="1207">
       <c r="A1207" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1207" t="inlineStr">
@@ -38936,31 +39498,27 @@
       </c>
       <c r="C1207" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Mining Production MoMNOV</t>
         </is>
       </c>
       <c r="D1207" t="inlineStr"/>
       <c r="E1207" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F1207" t="inlineStr"/>
-      <c r="G1207" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G1207" t="inlineStr"/>
       <c r="H1207" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1208">
       <c r="A1208" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1208" t="inlineStr">
@@ -38970,99 +39528,87 @@
       </c>
       <c r="C1208" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Mining Production YoYNOV</t>
         </is>
       </c>
       <c r="D1208" t="inlineStr"/>
       <c r="E1208" t="inlineStr">
         <is>
-          <t>2.9%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F1208" t="inlineStr"/>
-      <c r="G1208" t="inlineStr">
-        <is>
-          <t>3.0%</t>
-        </is>
-      </c>
+      <c r="G1208" t="inlineStr"/>
       <c r="H1208" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1209">
       <c r="A1209" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1209" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1209" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMDEC</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D1209" t="inlineStr"/>
       <c r="E1209" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>17</t>
         </is>
       </c>
       <c r="F1209" t="inlineStr"/>
-      <c r="G1209" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G1209" t="inlineStr"/>
       <c r="H1209" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1210">
       <c r="A1210" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1210" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1210" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D1210" t="inlineStr"/>
       <c r="E1210" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>15.7</t>
         </is>
       </c>
       <c r="F1210" t="inlineStr"/>
-      <c r="G1210" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="G1210" t="inlineStr"/>
       <c r="H1210" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1211">
       <c r="A1211" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1211" t="inlineStr">
@@ -39072,11 +39618,15 @@
       </c>
       <c r="C1211" t="inlineStr">
         <is>
-          <t>15-Year Bund Auction</t>
+          <t>ZEW Current ConditionsJAN</t>
         </is>
       </c>
       <c r="D1211" t="inlineStr"/>
-      <c r="E1211" t="inlineStr"/>
+      <c r="E1211" t="inlineStr">
+        <is>
+          <t>-93.1</t>
+        </is>
+      </c>
       <c r="F1211" t="inlineStr"/>
       <c r="G1211" t="inlineStr"/>
       <c r="H1211" t="inlineStr">
@@ -39088,31 +39638,23 @@
     <row r="1212">
       <c r="A1212" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1212" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1212" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>Bund/g Auction</t>
         </is>
       </c>
       <c r="D1212" t="inlineStr"/>
-      <c r="E1212" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+      <c r="E1212" t="inlineStr"/>
       <c r="F1212" t="inlineStr"/>
-      <c r="G1212" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G1212" t="inlineStr"/>
       <c r="H1212" t="inlineStr">
         <is>
           <t>3</t>
@@ -39122,23 +39664,23 @@
     <row r="1213">
       <c r="A1213" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1213" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1213" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D1213" t="inlineStr"/>
       <c r="E1213" t="inlineStr">
         <is>
-          <t>6.3%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F1213" t="inlineStr"/>
@@ -39152,21 +39694,25 @@
     <row r="1214">
       <c r="A1214" t="inlineStr">
         <is>
-          <t>06:10 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1214" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1214" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1214" t="inlineStr"/>
-      <c r="E1214" t="inlineStr"/>
+      <c r="E1214" t="inlineStr">
+        <is>
+          <t>-1.2%</t>
+        </is>
+      </c>
       <c r="F1214" t="inlineStr"/>
       <c r="G1214" t="inlineStr"/>
       <c r="H1214" t="inlineStr">
@@ -39178,79 +39724,99 @@
     <row r="1215">
       <c r="A1215" t="inlineStr">
         <is>
-          <t>06:10 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1215" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1215" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1215" t="inlineStr"/>
-      <c r="E1215" t="inlineStr"/>
+      <c r="E1215" t="inlineStr">
+        <is>
+          <t>1,9%</t>
+        </is>
+      </c>
       <c r="F1215" t="inlineStr"/>
-      <c r="G1215" t="inlineStr"/>
+      <c r="G1215" t="inlineStr">
+        <is>
+          <t>1.8%</t>
+        </is>
+      </c>
       <c r="H1215" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1216">
       <c r="A1216" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1216" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1216" t="inlineStr">
         <is>
-          <t>M3 Money Supply YoYJAN/10</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1216" t="inlineStr"/>
       <c r="E1216" t="inlineStr">
         <is>
-          <t>9.3%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F1216" t="inlineStr"/>
-      <c r="G1216" t="inlineStr"/>
+      <c r="G1216" t="inlineStr">
+        <is>
+          <t>1.7%</t>
+        </is>
+      </c>
       <c r="H1216" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1217">
       <c r="A1217" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1217" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1217" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJAN/17</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1217" t="inlineStr"/>
-      <c r="E1217" t="inlineStr"/>
+      <c r="E1217" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="F1217" t="inlineStr"/>
-      <c r="G1217" t="inlineStr"/>
+      <c r="G1217" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1217" t="inlineStr">
         <is>
           <t>2</t>
@@ -39260,23 +39826,27 @@
     <row r="1218">
       <c r="A1218" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1218" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1218" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJAN/17</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1218" t="inlineStr"/>
       <c r="E1218" t="inlineStr"/>
       <c r="F1218" t="inlineStr"/>
-      <c r="G1218" t="inlineStr"/>
+      <c r="G1218" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1218" t="inlineStr">
         <is>
           <t>3</t>
@@ -39286,23 +39856,31 @@
     <row r="1219">
       <c r="A1219" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1219" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1219" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJAN/17</t>
+          <t>CPI Median YoYDEC</t>
         </is>
       </c>
       <c r="D1219" t="inlineStr"/>
-      <c r="E1219" t="inlineStr"/>
+      <c r="E1219" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="F1219" t="inlineStr"/>
-      <c r="G1219" t="inlineStr"/>
+      <c r="G1219" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
       <c r="H1219" t="inlineStr">
         <is>
           <t>3</t>
@@ -39312,23 +39890,31 @@
     <row r="1220">
       <c r="A1220" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1220" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1220" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexJAN/17</t>
+          <t>CPI Trimmed-Mean YoYDEC</t>
         </is>
       </c>
       <c r="D1220" t="inlineStr"/>
-      <c r="E1220" t="inlineStr"/>
+      <c r="E1220" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="F1220" t="inlineStr"/>
-      <c r="G1220" t="inlineStr"/>
+      <c r="G1220" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H1220" t="inlineStr">
         <is>
           <t>3</t>
@@ -39338,7 +39924,7 @@
     <row r="1221">
       <c r="A1221" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>08:55 AM</t>
         </is>
       </c>
       <c r="B1221" t="inlineStr">
@@ -39348,7 +39934,7 @@
       </c>
       <c r="C1221" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexJAN/17</t>
+          <t>Redbook YoYJAN/18</t>
         </is>
       </c>
       <c r="D1221" t="inlineStr"/>
@@ -39364,31 +39950,23 @@
     <row r="1222">
       <c r="A1222" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1222" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1222" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1222" t="inlineStr"/>
-      <c r="E1222" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
+      <c r="E1222" t="inlineStr"/>
       <c r="F1222" t="inlineStr"/>
-      <c r="G1222" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G1222" t="inlineStr"/>
       <c r="H1222" t="inlineStr">
         <is>
           <t>3</t>
@@ -39398,31 +39976,23 @@
     <row r="1223">
       <c r="A1223" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1223" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1223" t="inlineStr">
         <is>
-          <t>Raw Materials Prices MoMDEC</t>
+          <t>52-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1223" t="inlineStr"/>
-      <c r="E1223" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
+      <c r="E1223" t="inlineStr"/>
       <c r="F1223" t="inlineStr"/>
-      <c r="G1223" t="inlineStr">
-        <is>
-          <t>1.0%</t>
-        </is>
-      </c>
+      <c r="G1223" t="inlineStr"/>
       <c r="H1223" t="inlineStr">
         <is>
           <t>3</t>
@@ -39432,31 +40002,23 @@
     <row r="1224">
       <c r="A1224" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1224" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1224" t="inlineStr">
         <is>
-          <t>Raw Materials Prices YoYDEC</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1224" t="inlineStr"/>
-      <c r="E1224" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
+      <c r="E1224" t="inlineStr"/>
       <c r="F1224" t="inlineStr"/>
-      <c r="G1224" t="inlineStr">
-        <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
+      <c r="G1224" t="inlineStr"/>
       <c r="H1224" t="inlineStr">
         <is>
           <t>3</t>
@@ -39466,37 +40028,41 @@
     <row r="1225">
       <c r="A1225" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1225" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1225" t="inlineStr">
         <is>
-          <t>CB Leading Index MoMDEC</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1225" t="inlineStr"/>
       <c r="E1225" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>88.4</t>
         </is>
       </c>
       <c r="F1225" t="inlineStr"/>
-      <c r="G1225" t="inlineStr"/>
+      <c r="G1225" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
       <c r="H1225" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1226">
       <c r="A1226" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1226" t="inlineStr">
@@ -39506,7 +40072,7 @@
       </c>
       <c r="C1226" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>API Crude Oil Stock ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1226" t="inlineStr"/>
@@ -39515,62 +40081,50 @@
       <c r="G1226" t="inlineStr"/>
       <c r="H1226" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1227">
       <c r="A1227" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B1227" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1227" t="inlineStr">
-        <is>
-          <t>20-Year Bond Auction</t>
-        </is>
-      </c>
+          <t>Wednesday January 22 2025</t>
+        </is>
+      </c>
+      <c r="B1227" t="inlineStr"/>
+      <c r="C1227" t="inlineStr"/>
       <c r="D1227" t="inlineStr"/>
       <c r="E1227" t="inlineStr"/>
       <c r="F1227" t="inlineStr"/>
       <c r="G1227" t="inlineStr"/>
-      <c r="H1227" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1227" t="inlineStr"/>
     </row>
     <row r="1228">
       <c r="A1228" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1228" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1228" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>Public Sector Net Borrowing Ex BanksDEC</t>
         </is>
       </c>
       <c r="D1228" t="inlineStr"/>
       <c r="E1228" t="inlineStr">
         <is>
-          <t>127.1%</t>
+          <t>£-11.25B</t>
         </is>
       </c>
       <c r="F1228" t="inlineStr"/>
       <c r="G1228" t="inlineStr">
         <is>
-          <t>115.0%</t>
+          <t>£ -11.3B</t>
         </is>
       </c>
       <c r="H1228" t="inlineStr">
@@ -39582,25 +40136,29 @@
     <row r="1229">
       <c r="A1229" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1229" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1229" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1229" t="inlineStr"/>
-      <c r="E1229" t="inlineStr"/>
+      <c r="E1229" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="F1229" t="inlineStr"/>
       <c r="G1229" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1229" t="inlineStr">
@@ -39612,29 +40170,29 @@
     <row r="1230">
       <c r="A1230" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1230" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1230" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQ AdvQ4</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1230" t="inlineStr"/>
       <c r="E1230" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>2.9%</t>
         </is>
       </c>
       <c r="F1230" t="inlineStr"/>
       <c r="G1230" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>3.0%</t>
         </is>
       </c>
       <c r="H1230" t="inlineStr">
@@ -39646,29 +40204,29 @@
     <row r="1231">
       <c r="A1231" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1231" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1231" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoY AdvQ4</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1231" t="inlineStr"/>
       <c r="E1231" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F1231" t="inlineStr"/>
       <c r="G1231" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H1231" t="inlineStr">
@@ -39680,87 +40238,91 @@
     <row r="1232">
       <c r="A1232" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1232" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1232" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1232" t="inlineStr"/>
       <c r="E1232" t="inlineStr">
         <is>
-          <t>¥-117.6B</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="F1232" t="inlineStr"/>
       <c r="G1232" t="inlineStr">
         <is>
-          <t>¥ 100B</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="H1232" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1233">
       <c r="A1233" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1233" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1233" t="inlineStr">
         <is>
-          <t>Exports YoYDEC</t>
+          <t>15-Year Bund Auction</t>
         </is>
       </c>
       <c r="D1233" t="inlineStr"/>
-      <c r="E1233" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
+      <c r="E1233" t="inlineStr"/>
       <c r="F1233" t="inlineStr"/>
       <c r="G1233" t="inlineStr"/>
       <c r="H1233" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1234">
       <c r="A1234" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1234" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1234" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentJAN/18</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D1234" t="inlineStr"/>
-      <c r="E1234" t="inlineStr"/>
+      <c r="E1234" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="F1234" t="inlineStr"/>
-      <c r="G1234" t="inlineStr"/>
+      <c r="G1234" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H1234" t="inlineStr">
         <is>
           <t>3</t>
@@ -39770,23 +40332,23 @@
     <row r="1235">
       <c r="A1235" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1235" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1235" t="inlineStr">
         <is>
-          <t>Imports YoYDEC</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1235" t="inlineStr"/>
       <c r="E1235" t="inlineStr">
         <is>
-          <t>-3.8%</t>
+          <t>6.3%</t>
         </is>
       </c>
       <c r="F1235" t="inlineStr"/>
@@ -39800,17 +40362,17 @@
     <row r="1236">
       <c r="A1236" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>06:10 AM</t>
         </is>
       </c>
       <c r="B1236" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1236" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersJAN/18</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1236" t="inlineStr"/>
@@ -39826,57 +40388,49 @@
     <row r="1237">
       <c r="A1237" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:10 AM</t>
         </is>
       </c>
       <c r="B1237" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1237" t="inlineStr">
         <is>
-          <t>NAB Business ConfidenceDEC</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1237" t="inlineStr"/>
-      <c r="E1237" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
+      <c r="E1237" t="inlineStr"/>
       <c r="F1237" t="inlineStr"/>
-      <c r="G1237" t="inlineStr">
+      <c r="G1237" t="inlineStr"/>
+      <c r="H1237" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="H1237" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1238">
       <c r="A1238" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1238" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1238" t="inlineStr">
         <is>
-          <t>M2 Money Supply YoYDEC</t>
+          <t>M3 Money Supply YoYJAN/10</t>
         </is>
       </c>
       <c r="D1238" t="inlineStr"/>
       <c r="E1238" t="inlineStr">
         <is>
-          <t>7%</t>
+          <t>9.3%</t>
         </is>
       </c>
       <c r="F1238" t="inlineStr"/>
@@ -39890,17 +40444,17 @@
     <row r="1239">
       <c r="A1239" t="inlineStr">
         <is>
-          <t>10:35 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1239" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1239" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>MBA 30-Year Mortgage RateJAN/17</t>
         </is>
       </c>
       <c r="D1239" t="inlineStr"/>
@@ -39909,46 +40463,54 @@
       <c r="G1239" t="inlineStr"/>
       <c r="H1239" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1240">
       <c r="A1240" t="inlineStr">
         <is>
-          <t>Thursday January 23 2025</t>
-        </is>
-      </c>
-      <c r="B1240" t="inlineStr"/>
-      <c r="C1240" t="inlineStr"/>
+          <t>07:00 AM</t>
+        </is>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>MBA Mortgage ApplicationsJAN/17</t>
+        </is>
+      </c>
       <c r="D1240" t="inlineStr"/>
       <c r="E1240" t="inlineStr"/>
       <c r="F1240" t="inlineStr"/>
       <c r="G1240" t="inlineStr"/>
-      <c r="H1240" t="inlineStr"/>
+      <c r="H1240" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1241">
       <c r="A1241" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1241" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1241" t="inlineStr">
         <is>
-          <t>1-Year T-Bill Auction</t>
+          <t>MBA Mortgage Market IndexJAN/17</t>
         </is>
       </c>
       <c r="D1241" t="inlineStr"/>
-      <c r="E1241" t="inlineStr">
-        <is>
-          <t>2.71%</t>
-        </is>
-      </c>
+      <c r="E1241" t="inlineStr"/>
       <c r="F1241" t="inlineStr"/>
       <c r="G1241" t="inlineStr"/>
       <c r="H1241" t="inlineStr">
@@ -39960,31 +40522,23 @@
     <row r="1242">
       <c r="A1242" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1242" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1242" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>MBA Mortgage Refinance IndexJAN/17</t>
         </is>
       </c>
       <c r="D1242" t="inlineStr"/>
-      <c r="E1242" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="E1242" t="inlineStr"/>
       <c r="F1242" t="inlineStr"/>
-      <c r="G1242" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
+      <c r="G1242" t="inlineStr"/>
       <c r="H1242" t="inlineStr">
         <is>
           <t>3</t>
@@ -39994,31 +40548,23 @@
     <row r="1243">
       <c r="A1243" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1243" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1243" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>MBA Purchase IndexJAN/17</t>
         </is>
       </c>
       <c r="D1243" t="inlineStr"/>
-      <c r="E1243" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
+      <c r="E1243" t="inlineStr"/>
       <c r="F1243" t="inlineStr"/>
-      <c r="G1243" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G1243" t="inlineStr"/>
       <c r="H1243" t="inlineStr">
         <is>
           <t>3</t>
@@ -40028,29 +40574,29 @@
     <row r="1244">
       <c r="A1244" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1244" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1244" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1244" t="inlineStr"/>
       <c r="E1244" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="F1244" t="inlineStr"/>
       <c r="G1244" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H1244" t="inlineStr">
@@ -40062,27 +40608,31 @@
     <row r="1245">
       <c r="A1245" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1245" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1245" t="inlineStr">
         <is>
-          <t>Leading Business Cycle Indicator MoMNOV</t>
+          <t>Raw Materials Prices MoMDEC</t>
         </is>
       </c>
       <c r="D1245" t="inlineStr"/>
       <c r="E1245" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="F1245" t="inlineStr"/>
-      <c r="G1245" t="inlineStr"/>
+      <c r="G1245" t="inlineStr">
+        <is>
+          <t>1.0%</t>
+        </is>
+      </c>
       <c r="H1245" t="inlineStr">
         <is>
           <t>3</t>
@@ -40092,85 +40642,85 @@
     <row r="1246">
       <c r="A1246" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1246" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1246" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>Raw Materials Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1246" t="inlineStr"/>
       <c r="E1246" t="inlineStr">
         <is>
-          <t>81.3</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="F1246" t="inlineStr"/>
-      <c r="G1246" t="inlineStr"/>
+      <c r="G1246" t="inlineStr">
+        <is>
+          <t>-2.8%</t>
+        </is>
+      </c>
       <c r="H1246" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1247">
       <c r="A1247" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1247" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1247" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>CB Leading Index MoMDEC</t>
         </is>
       </c>
       <c r="D1247" t="inlineStr"/>
       <c r="E1247" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F1247" t="inlineStr"/>
       <c r="G1247" t="inlineStr"/>
       <c r="H1247" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1248">
       <c r="A1248" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1248" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1248" t="inlineStr">
         <is>
-          <t>Business Climate IndicatorJAN</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1248" t="inlineStr"/>
-      <c r="E1248" t="inlineStr">
-        <is>
-          <t>94</t>
-        </is>
-      </c>
+      <c r="E1248" t="inlineStr"/>
       <c r="F1248" t="inlineStr"/>
       <c r="G1248" t="inlineStr"/>
       <c r="H1248" t="inlineStr">
@@ -40182,17 +40732,17 @@
     <row r="1249">
       <c r="A1249" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1249" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1249" t="inlineStr">
         <is>
-          <t>OAT Auction</t>
+          <t>20-Year Bond Auction</t>
         </is>
       </c>
       <c r="D1249" t="inlineStr"/>
@@ -40208,27 +40758,31 @@
     <row r="1250">
       <c r="A1250" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1250" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1250" t="inlineStr">
         <is>
-          <t>4-Year Treasury Gilt Auction</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1250" t="inlineStr"/>
       <c r="E1250" t="inlineStr">
         <is>
-          <t>4.499%</t>
+          <t>127.1%</t>
         </is>
       </c>
       <c r="F1250" t="inlineStr"/>
-      <c r="G1250" t="inlineStr"/>
+      <c r="G1250" t="inlineStr">
+        <is>
+          <t>115.0%</t>
+        </is>
+      </c>
       <c r="H1250" t="inlineStr">
         <is>
           <t>3</t>
@@ -40238,79 +40792,95 @@
     <row r="1251">
       <c r="A1251" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1251" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1251" t="inlineStr">
         <is>
-          <t>Index-Linked OAT Auction</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1251" t="inlineStr"/>
       <c r="E1251" t="inlineStr"/>
       <c r="F1251" t="inlineStr"/>
-      <c r="G1251" t="inlineStr"/>
+      <c r="G1251" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
       <c r="H1251" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1252">
       <c r="A1252" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1252" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1252" t="inlineStr">
         <is>
-          <t>OATi Auction</t>
+          <t>GDP Growth Rate QoQ AdvQ4</t>
         </is>
       </c>
       <c r="D1252" t="inlineStr"/>
-      <c r="E1252" t="inlineStr"/>
+      <c r="E1252" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="F1252" t="inlineStr"/>
-      <c r="G1252" t="inlineStr"/>
+      <c r="G1252" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1252" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1253">
       <c r="A1253" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1253" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1253" t="inlineStr">
         <is>
-          <t>Building Permits YoYNOV</t>
+          <t>GDP Growth Rate YoY AdvQ4</t>
         </is>
       </c>
       <c r="D1253" t="inlineStr"/>
       <c r="E1253" t="inlineStr">
         <is>
-          <t>21.6%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="F1253" t="inlineStr"/>
-      <c r="G1253" t="inlineStr"/>
+      <c r="G1253" t="inlineStr">
+        <is>
+          <t>1.2%</t>
+        </is>
+      </c>
       <c r="H1253" t="inlineStr">
         <is>
           <t>3</t>
@@ -40320,53 +40890,57 @@
     <row r="1254">
       <c r="A1254" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1254" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1254" t="inlineStr">
         <is>
-          <t>Overnight Borrowing RateJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D1254" t="inlineStr"/>
       <c r="E1254" t="inlineStr">
         <is>
-          <t>46%</t>
+          <t>¥-117.6B</t>
         </is>
       </c>
       <c r="F1254" t="inlineStr"/>
-      <c r="G1254" t="inlineStr"/>
+      <c r="G1254" t="inlineStr">
+        <is>
+          <t>¥ 100B</t>
+        </is>
+      </c>
       <c r="H1254" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1255">
       <c r="A1255" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1255" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1255" t="inlineStr">
         <is>
-          <t>TCMB Interest Rate Decision</t>
+          <t>Exports YoYDEC</t>
         </is>
       </c>
       <c r="D1255" t="inlineStr"/>
       <c r="E1255" t="inlineStr">
         <is>
-          <t>47.5%</t>
+          <t>3.8%</t>
         </is>
       </c>
       <c r="F1255" t="inlineStr"/>
@@ -40380,25 +40954,21 @@
     <row r="1256">
       <c r="A1256" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1256" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1256" t="inlineStr">
         <is>
-          <t>Overnight Lending RateJAN</t>
+          <t>Foreign Bond InvestmentJAN/18</t>
         </is>
       </c>
       <c r="D1256" t="inlineStr"/>
-      <c r="E1256" t="inlineStr">
-        <is>
-          <t>49%</t>
-        </is>
-      </c>
+      <c r="E1256" t="inlineStr"/>
       <c r="F1256" t="inlineStr"/>
       <c r="G1256" t="inlineStr"/>
       <c r="H1256" t="inlineStr">
@@ -40410,21 +40980,25 @@
     <row r="1257">
       <c r="A1257" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1257" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1257" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/17</t>
+          <t>Imports YoYDEC</t>
         </is>
       </c>
       <c r="D1257" t="inlineStr"/>
-      <c r="E1257" t="inlineStr"/>
+      <c r="E1257" t="inlineStr">
+        <is>
+          <t>-3.8%</t>
+        </is>
+      </c>
       <c r="F1257" t="inlineStr"/>
       <c r="G1257" t="inlineStr"/>
       <c r="H1257" t="inlineStr">
@@ -40436,25 +41010,21 @@
     <row r="1258">
       <c r="A1258" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1258" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1258" t="inlineStr">
         <is>
-          <t>Mid-month Core Inflation Rate MoMJAN</t>
+          <t>Stock Investment by ForeignersJAN/18</t>
         </is>
       </c>
       <c r="D1258" t="inlineStr"/>
-      <c r="E1258" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="E1258" t="inlineStr"/>
       <c r="F1258" t="inlineStr"/>
       <c r="G1258" t="inlineStr"/>
       <c r="H1258" t="inlineStr">
@@ -40466,53 +41036,57 @@
     <row r="1259">
       <c r="A1259" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1259" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1259" t="inlineStr">
         <is>
-          <t>Mid-month Core Inflation Rate YoYJAN</t>
+          <t>NAB Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D1259" t="inlineStr"/>
       <c r="E1259" t="inlineStr">
         <is>
-          <t>3.62%</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="F1259" t="inlineStr"/>
-      <c r="G1259" t="inlineStr"/>
+      <c r="G1259" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="H1259" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1260">
       <c r="A1260" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1260" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C1260" t="inlineStr">
         <is>
-          <t>Mid-month Inflation Rate MoMJAN</t>
+          <t>M2 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D1260" t="inlineStr"/>
       <c r="E1260" t="inlineStr">
         <is>
-          <t>0.42%</t>
+          <t>7%</t>
         </is>
       </c>
       <c r="F1260" t="inlineStr"/>
@@ -40526,25 +41100,21 @@
     <row r="1261">
       <c r="A1261" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B1261" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1261" t="inlineStr">
         <is>
-          <t>Mid-month Inflation Rate YoYJAN</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1261" t="inlineStr"/>
-      <c r="E1261" t="inlineStr">
-        <is>
-          <t>4.44%</t>
-        </is>
-      </c>
+      <c r="E1261" t="inlineStr"/>
       <c r="F1261" t="inlineStr"/>
       <c r="G1261" t="inlineStr"/>
       <c r="H1261" t="inlineStr">
@@ -40554,26 +41124,666 @@
       </c>
     </row>
     <row r="1262">
-      <c r="A1262" t="inlineStr"/>
-      <c r="B1262" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C1262" t="inlineStr">
-        <is>
-          <t>20-Year KTB Auction</t>
-        </is>
-      </c>
+      <c r="A1262" t="inlineStr">
+        <is>
+          <t>Thursday January 23 2025</t>
+        </is>
+      </c>
+      <c r="B1262" t="inlineStr"/>
+      <c r="C1262" t="inlineStr"/>
       <c r="D1262" t="inlineStr"/>
-      <c r="E1262" t="inlineStr">
-        <is>
-          <t>2.750%</t>
-        </is>
-      </c>
+      <c r="E1262" t="inlineStr"/>
       <c r="F1262" t="inlineStr"/>
       <c r="G1262" t="inlineStr"/>
-      <c r="H1262" t="inlineStr">
+      <c r="H1262" t="inlineStr"/>
+    </row>
+    <row r="1263">
+      <c r="A1263" t="inlineStr">
+        <is>
+          <t>12:00 AM</t>
+        </is>
+      </c>
+      <c r="B1263" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="C1263" t="inlineStr">
+        <is>
+          <t>1-Year T-Bill Auction</t>
+        </is>
+      </c>
+      <c r="D1263" t="inlineStr"/>
+      <c r="E1263" t="inlineStr">
+        <is>
+          <t>2.71%</t>
+        </is>
+      </c>
+      <c r="F1263" t="inlineStr"/>
+      <c r="G1263" t="inlineStr"/>
+      <c r="H1263" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1264">
+      <c r="A1264" t="inlineStr">
+        <is>
+          <t>12:00 AM</t>
+        </is>
+      </c>
+      <c r="B1264" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="C1264" t="inlineStr">
+        <is>
+          <t>Core Inflation Rate YoYDEC</t>
+        </is>
+      </c>
+      <c r="D1264" t="inlineStr"/>
+      <c r="E1264" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
+      <c r="F1264" t="inlineStr"/>
+      <c r="G1264" t="inlineStr">
+        <is>
+          <t>2.5%</t>
+        </is>
+      </c>
+      <c r="H1264" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1265">
+      <c r="A1265" t="inlineStr">
+        <is>
+          <t>12:00 AM</t>
+        </is>
+      </c>
+      <c r="B1265" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="C1265" t="inlineStr">
+        <is>
+          <t>Inflation Rate MoMDEC</t>
+        </is>
+      </c>
+      <c r="D1265" t="inlineStr"/>
+      <c r="E1265" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="F1265" t="inlineStr"/>
+      <c r="G1265" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H1265" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1266">
+      <c r="A1266" t="inlineStr">
+        <is>
+          <t>12:00 AM</t>
+        </is>
+      </c>
+      <c r="B1266" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="C1266" t="inlineStr">
+        <is>
+          <t>Inflation Rate YoYDEC</t>
+        </is>
+      </c>
+      <c r="D1266" t="inlineStr"/>
+      <c r="E1266" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
+      <c r="F1266" t="inlineStr"/>
+      <c r="G1266" t="inlineStr">
+        <is>
+          <t>1.8%</t>
+        </is>
+      </c>
+      <c r="H1266" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1267">
+      <c r="A1267" t="inlineStr">
+        <is>
+          <t>02:00 AM</t>
+        </is>
+      </c>
+      <c r="B1267" t="inlineStr">
+        <is>
+          <t>ZA</t>
+        </is>
+      </c>
+      <c r="C1267" t="inlineStr">
+        <is>
+          <t>Leading Business Cycle Indicator MoMNOV</t>
+        </is>
+      </c>
+      <c r="D1267" t="inlineStr"/>
+      <c r="E1267" t="inlineStr">
+        <is>
+          <t>1.1%</t>
+        </is>
+      </c>
+      <c r="F1267" t="inlineStr"/>
+      <c r="G1267" t="inlineStr"/>
+      <c r="H1267" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1268">
+      <c r="A1268" t="inlineStr">
+        <is>
+          <t>02:00 AM</t>
+        </is>
+      </c>
+      <c r="B1268" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="C1268" t="inlineStr">
+        <is>
+          <t>Consumer ConfidenceJAN</t>
+        </is>
+      </c>
+      <c r="D1268" t="inlineStr"/>
+      <c r="E1268" t="inlineStr">
+        <is>
+          <t>81.3</t>
+        </is>
+      </c>
+      <c r="F1268" t="inlineStr"/>
+      <c r="G1268" t="inlineStr"/>
+      <c r="H1268" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1269">
+      <c r="A1269" t="inlineStr">
+        <is>
+          <t>02:45 AM</t>
+        </is>
+      </c>
+      <c r="B1269" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C1269" t="inlineStr">
+        <is>
+          <t>Business ConfidenceJAN</t>
+        </is>
+      </c>
+      <c r="D1269" t="inlineStr"/>
+      <c r="E1269" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="F1269" t="inlineStr"/>
+      <c r="G1269" t="inlineStr"/>
+      <c r="H1269" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1270">
+      <c r="A1270" t="inlineStr">
+        <is>
+          <t>02:45 AM</t>
+        </is>
+      </c>
+      <c r="B1270" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C1270" t="inlineStr">
+        <is>
+          <t>Business Climate IndicatorJAN</t>
+        </is>
+      </c>
+      <c r="D1270" t="inlineStr"/>
+      <c r="E1270" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="F1270" t="inlineStr"/>
+      <c r="G1270" t="inlineStr"/>
+      <c r="H1270" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1271">
+      <c r="A1271" t="inlineStr">
+        <is>
+          <t>05:00 AM</t>
+        </is>
+      </c>
+      <c r="B1271" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C1271" t="inlineStr">
+        <is>
+          <t>OAT Auction</t>
+        </is>
+      </c>
+      <c r="D1271" t="inlineStr"/>
+      <c r="E1271" t="inlineStr"/>
+      <c r="F1271" t="inlineStr"/>
+      <c r="G1271" t="inlineStr"/>
+      <c r="H1271" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1272">
+      <c r="A1272" t="inlineStr">
+        <is>
+          <t>05:00 AM</t>
+        </is>
+      </c>
+      <c r="B1272" t="inlineStr">
+        <is>
+          <t>GB</t>
+        </is>
+      </c>
+      <c r="C1272" t="inlineStr">
+        <is>
+          <t>4-Year Treasury Gilt Auction</t>
+        </is>
+      </c>
+      <c r="D1272" t="inlineStr"/>
+      <c r="E1272" t="inlineStr">
+        <is>
+          <t>4.499%</t>
+        </is>
+      </c>
+      <c r="F1272" t="inlineStr"/>
+      <c r="G1272" t="inlineStr"/>
+      <c r="H1272" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1273">
+      <c r="A1273" t="inlineStr">
+        <is>
+          <t>06:00 AM</t>
+        </is>
+      </c>
+      <c r="B1273" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C1273" t="inlineStr">
+        <is>
+          <t>Index-Linked OAT Auction</t>
+        </is>
+      </c>
+      <c r="D1273" t="inlineStr"/>
+      <c r="E1273" t="inlineStr"/>
+      <c r="F1273" t="inlineStr"/>
+      <c r="G1273" t="inlineStr"/>
+      <c r="H1273" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1274">
+      <c r="A1274" t="inlineStr">
+        <is>
+          <t>06:00 AM</t>
+        </is>
+      </c>
+      <c r="B1274" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C1274" t="inlineStr">
+        <is>
+          <t>OATi Auction</t>
+        </is>
+      </c>
+      <c r="D1274" t="inlineStr"/>
+      <c r="E1274" t="inlineStr"/>
+      <c r="F1274" t="inlineStr"/>
+      <c r="G1274" t="inlineStr"/>
+      <c r="H1274" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1275">
+      <c r="A1275" t="inlineStr">
+        <is>
+          <t>06:00 AM</t>
+        </is>
+      </c>
+      <c r="B1275" t="inlineStr">
+        <is>
+          <t>ZA</t>
+        </is>
+      </c>
+      <c r="C1275" t="inlineStr">
+        <is>
+          <t>Building Permits YoYNOV</t>
+        </is>
+      </c>
+      <c r="D1275" t="inlineStr"/>
+      <c r="E1275" t="inlineStr">
+        <is>
+          <t>21.6%</t>
+        </is>
+      </c>
+      <c r="F1275" t="inlineStr"/>
+      <c r="G1275" t="inlineStr"/>
+      <c r="H1275" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1276">
+      <c r="A1276" t="inlineStr">
+        <is>
+          <t>06:00 AM</t>
+        </is>
+      </c>
+      <c r="B1276" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="C1276" t="inlineStr">
+        <is>
+          <t>Overnight Borrowing RateJAN</t>
+        </is>
+      </c>
+      <c r="D1276" t="inlineStr"/>
+      <c r="E1276" t="inlineStr">
+        <is>
+          <t>46%</t>
+        </is>
+      </c>
+      <c r="F1276" t="inlineStr"/>
+      <c r="G1276" t="inlineStr"/>
+      <c r="H1276" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1277">
+      <c r="A1277" t="inlineStr">
+        <is>
+          <t>06:00 AM</t>
+        </is>
+      </c>
+      <c r="B1277" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="C1277" t="inlineStr">
+        <is>
+          <t>TCMB Interest Rate Decision</t>
+        </is>
+      </c>
+      <c r="D1277" t="inlineStr"/>
+      <c r="E1277" t="inlineStr">
+        <is>
+          <t>47.5%</t>
+        </is>
+      </c>
+      <c r="F1277" t="inlineStr"/>
+      <c r="G1277" t="inlineStr"/>
+      <c r="H1277" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1278">
+      <c r="A1278" t="inlineStr">
+        <is>
+          <t>06:00 AM</t>
+        </is>
+      </c>
+      <c r="B1278" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="C1278" t="inlineStr">
+        <is>
+          <t>Overnight Lending RateJAN</t>
+        </is>
+      </c>
+      <c r="D1278" t="inlineStr"/>
+      <c r="E1278" t="inlineStr">
+        <is>
+          <t>49%</t>
+        </is>
+      </c>
+      <c r="F1278" t="inlineStr"/>
+      <c r="G1278" t="inlineStr"/>
+      <c r="H1278" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1279">
+      <c r="A1279" t="inlineStr">
+        <is>
+          <t>06:30 AM</t>
+        </is>
+      </c>
+      <c r="B1279" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="C1279" t="inlineStr">
+        <is>
+          <t>Foreign Exchange ReservesJAN/17</t>
+        </is>
+      </c>
+      <c r="D1279" t="inlineStr"/>
+      <c r="E1279" t="inlineStr"/>
+      <c r="F1279" t="inlineStr"/>
+      <c r="G1279" t="inlineStr"/>
+      <c r="H1279" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1280">
+      <c r="A1280" t="inlineStr">
+        <is>
+          <t>07:00 AM</t>
+        </is>
+      </c>
+      <c r="B1280" t="inlineStr">
+        <is>
+          <t>MX</t>
+        </is>
+      </c>
+      <c r="C1280" t="inlineStr">
+        <is>
+          <t>Mid-month Core Inflation Rate MoMJAN</t>
+        </is>
+      </c>
+      <c r="D1280" t="inlineStr"/>
+      <c r="E1280" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="F1280" t="inlineStr"/>
+      <c r="G1280" t="inlineStr"/>
+      <c r="H1280" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1281">
+      <c r="A1281" t="inlineStr">
+        <is>
+          <t>07:00 AM</t>
+        </is>
+      </c>
+      <c r="B1281" t="inlineStr">
+        <is>
+          <t>MX</t>
+        </is>
+      </c>
+      <c r="C1281" t="inlineStr">
+        <is>
+          <t>Mid-month Core Inflation Rate YoYJAN</t>
+        </is>
+      </c>
+      <c r="D1281" t="inlineStr"/>
+      <c r="E1281" t="inlineStr">
+        <is>
+          <t>3.62%</t>
+        </is>
+      </c>
+      <c r="F1281" t="inlineStr"/>
+      <c r="G1281" t="inlineStr"/>
+      <c r="H1281" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1282">
+      <c r="A1282" t="inlineStr">
+        <is>
+          <t>07:00 AM</t>
+        </is>
+      </c>
+      <c r="B1282" t="inlineStr">
+        <is>
+          <t>MX</t>
+        </is>
+      </c>
+      <c r="C1282" t="inlineStr">
+        <is>
+          <t>Mid-month Inflation Rate MoMJAN</t>
+        </is>
+      </c>
+      <c r="D1282" t="inlineStr"/>
+      <c r="E1282" t="inlineStr">
+        <is>
+          <t>0.42%</t>
+        </is>
+      </c>
+      <c r="F1282" t="inlineStr"/>
+      <c r="G1282" t="inlineStr"/>
+      <c r="H1282" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1283">
+      <c r="A1283" t="inlineStr">
+        <is>
+          <t>07:00 AM</t>
+        </is>
+      </c>
+      <c r="B1283" t="inlineStr">
+        <is>
+          <t>MX</t>
+        </is>
+      </c>
+      <c r="C1283" t="inlineStr">
+        <is>
+          <t>Mid-month Inflation Rate YoYJAN</t>
+        </is>
+      </c>
+      <c r="D1283" t="inlineStr"/>
+      <c r="E1283" t="inlineStr">
+        <is>
+          <t>4.44%</t>
+        </is>
+      </c>
+      <c r="F1283" t="inlineStr"/>
+      <c r="G1283" t="inlineStr"/>
+      <c r="H1283" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1284">
+      <c r="A1284" t="inlineStr"/>
+      <c r="B1284" t="inlineStr">
+        <is>
+          <t>KR</t>
+        </is>
+      </c>
+      <c r="C1284" t="inlineStr">
+        <is>
+          <t>20-Year KTB Auction</t>
+        </is>
+      </c>
+      <c r="D1284" t="inlineStr"/>
+      <c r="E1284" t="inlineStr">
+        <is>
+          <t>2.750%</t>
+        </is>
+      </c>
+      <c r="F1284" t="inlineStr"/>
+      <c r="G1284" t="inlineStr"/>
+      <c r="H1284" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-23.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1284"/>
+  <dimension ref="A1:H1270"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28737,10 +28737,8 @@
       </c>
       <c r="F879" t="inlineStr"/>
       <c r="G879" t="inlineStr"/>
-      <c r="H879" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H879" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="880">
@@ -28775,10 +28773,8 @@
           <t>6.4%</t>
         </is>
       </c>
-      <c r="H880" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H880" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="881">
@@ -28813,10 +28809,8 @@
           <t>-19.0%</t>
         </is>
       </c>
-      <c r="H881" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H881" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="882">
@@ -28851,10 +28845,8 @@
           <t>-4.0%</t>
         </is>
       </c>
-      <c r="H882" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H882" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="883">
@@ -28893,10 +28885,8 @@
           <t>$-3.4B</t>
         </is>
       </c>
-      <c r="H883" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H883" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="884">
@@ -28931,10 +28921,8 @@
           <t>0%</t>
         </is>
       </c>
-      <c r="H884" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H884" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="885">
@@ -28969,10 +28957,8 @@
           <t>14.1%</t>
         </is>
       </c>
-      <c r="H885" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H885" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="886">
@@ -29003,10 +28989,8 @@
       </c>
       <c r="F886" t="inlineStr"/>
       <c r="G886" t="inlineStr"/>
-      <c r="H886" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H886" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="887">
@@ -29037,10 +29021,8 @@
       </c>
       <c r="F887" t="inlineStr"/>
       <c r="G887" t="inlineStr"/>
-      <c r="H887" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H887" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="888">
@@ -29071,10 +29053,8 @@
       </c>
       <c r="F888" t="inlineStr"/>
       <c r="G888" t="inlineStr"/>
-      <c r="H888" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H888" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="889">
@@ -29113,10 +29093,8 @@
           <t>5.2%</t>
         </is>
       </c>
-      <c r="H889" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H889" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="890">
@@ -29151,10 +29129,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H890" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H890" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="891">
@@ -29185,10 +29161,8 @@
       </c>
       <c r="F891" t="inlineStr"/>
       <c r="G891" t="inlineStr"/>
-      <c r="H891" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H891" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="892">
@@ -29215,10 +29189,8 @@
       </c>
       <c r="F892" t="inlineStr"/>
       <c r="G892" t="inlineStr"/>
-      <c r="H892" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H892" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="893">
@@ -29245,10 +29217,8 @@
       </c>
       <c r="F893" t="inlineStr"/>
       <c r="G893" t="inlineStr"/>
-      <c r="H893" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H893" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="894">
@@ -29275,10 +29245,8 @@
       </c>
       <c r="F894" t="inlineStr"/>
       <c r="G894" t="inlineStr"/>
-      <c r="H894" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H894" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="895">
@@ -29309,10 +29277,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H895" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H895" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="896">
@@ -29339,10 +29305,8 @@
       </c>
       <c r="F896" t="inlineStr"/>
       <c r="G896" t="inlineStr"/>
-      <c r="H896" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H896" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="897">
@@ -29369,10 +29333,8 @@
       </c>
       <c r="F897" t="inlineStr"/>
       <c r="G897" t="inlineStr"/>
-      <c r="H897" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H897" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="898">
@@ -29407,10 +29369,8 @@
           <t>$-220.0B</t>
         </is>
       </c>
-      <c r="H898" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H898" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="899">
@@ -29437,10 +29397,8 @@
       </c>
       <c r="F899" t="inlineStr"/>
       <c r="G899" t="inlineStr"/>
-      <c r="H899" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H899" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="900">
@@ -29467,10 +29425,8 @@
       </c>
       <c r="F900" t="inlineStr"/>
       <c r="G900" t="inlineStr"/>
-      <c r="H900" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H900" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="901">
@@ -29505,10 +29461,8 @@
           <t>¥1990.0B</t>
         </is>
       </c>
-      <c r="H901" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H901" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="902">
@@ -29543,10 +29497,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H902" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H902" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="903">
@@ -29577,10 +29529,8 @@
         </is>
       </c>
       <c r="G903" t="inlineStr"/>
-      <c r="H903" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H903" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="904">
@@ -29611,10 +29561,8 @@
         </is>
       </c>
       <c r="G904" t="inlineStr"/>
-      <c r="H904" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H904" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="905">
@@ -29641,10 +29589,8 @@
       </c>
       <c r="F905" t="inlineStr"/>
       <c r="G905" t="inlineStr"/>
-      <c r="H905" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H905" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="906">
@@ -29675,10 +29621,8 @@
           <t>CNY690.0B</t>
         </is>
       </c>
-      <c r="H906" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H906" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="907">
@@ -29705,10 +29649,8 @@
         </is>
       </c>
       <c r="G907" t="inlineStr"/>
-      <c r="H907" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H907" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="908">
@@ -29739,10 +29681,8 @@
           <t>7.5%</t>
         </is>
       </c>
-      <c r="H908" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H908" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="909">
@@ -29773,10 +29713,8 @@
           <t>CNY1850.0B</t>
         </is>
       </c>
-      <c r="H909" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H909" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="910">
@@ -29795,10 +29733,8 @@
       <c r="E910" t="inlineStr"/>
       <c r="F910" t="inlineStr"/>
       <c r="G910" t="inlineStr"/>
-      <c r="H910" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H910" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="911">
@@ -29825,10 +29761,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H911" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H911" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="912">
@@ -29855,10 +29789,8 @@
           <t>-2.5%</t>
         </is>
       </c>
-      <c r="H912" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H912" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="913">
@@ -29907,10 +29839,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H914" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H914" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="915">
@@ -29941,10 +29871,8 @@
           <t>49.6</t>
         </is>
       </c>
-      <c r="H915" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H915" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="916">
@@ -29971,10 +29899,8 @@
       </c>
       <c r="F916" t="inlineStr"/>
       <c r="G916" t="inlineStr"/>
-      <c r="H916" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H916" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="917">
@@ -30001,10 +29927,8 @@
       </c>
       <c r="F917" t="inlineStr"/>
       <c r="G917" t="inlineStr"/>
-      <c r="H917" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H917" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="918">
@@ -30035,10 +29959,8 @@
           <t>10.2%</t>
         </is>
       </c>
-      <c r="H918" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H918" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="919">
@@ -30069,10 +29991,8 @@
           <t>-3.2%</t>
         </is>
       </c>
-      <c r="H919" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H919" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="920">
@@ -30107,10 +30027,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H920" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H920" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="921">
@@ -30141,10 +30059,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H921" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H921" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="922">
@@ -30167,10 +30083,8 @@
       <c r="E922" t="inlineStr"/>
       <c r="F922" t="inlineStr"/>
       <c r="G922" t="inlineStr"/>
-      <c r="H922" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H922" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="923">
@@ -30201,10 +30115,8 @@
           <t>€-162.0B</t>
         </is>
       </c>
-      <c r="H923" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H923" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="924">
@@ -30227,10 +30139,8 @@
       <c r="E924" t="inlineStr"/>
       <c r="F924" t="inlineStr"/>
       <c r="G924" t="inlineStr"/>
-      <c r="H924" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H924" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="925">
@@ -30265,10 +30175,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H925" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H925" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="926">
@@ -30299,10 +30207,8 @@
           <t>-3.3%</t>
         </is>
       </c>
-      <c r="H926" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H926" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="927">
@@ -30329,10 +30235,8 @@
       </c>
       <c r="F927" t="inlineStr"/>
       <c r="G927" t="inlineStr"/>
-      <c r="H927" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H927" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="928">
@@ -30359,10 +30263,8 @@
       </c>
       <c r="F928" t="inlineStr"/>
       <c r="G928" t="inlineStr"/>
-      <c r="H928" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H928" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="929">
@@ -30389,10 +30291,8 @@
       </c>
       <c r="F929" t="inlineStr"/>
       <c r="G929" t="inlineStr"/>
-      <c r="H929" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H929" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="930">
@@ -30419,10 +30319,8 @@
       </c>
       <c r="F930" t="inlineStr"/>
       <c r="G930" t="inlineStr"/>
-      <c r="H930" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H930" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="931">
@@ -30445,10 +30343,8 @@
       <c r="E931" t="inlineStr"/>
       <c r="F931" t="inlineStr"/>
       <c r="G931" t="inlineStr"/>
-      <c r="H931" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H931" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="932">
@@ -30483,10 +30379,8 @@
           <t>102</t>
         </is>
       </c>
-      <c r="H932" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H932" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="933">
@@ -30517,10 +30411,8 @@
           <t>$615.0B</t>
         </is>
       </c>
-      <c r="H933" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H933" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="934">
@@ -30555,10 +30447,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H934" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H934" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="935">
@@ -30593,10 +30483,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H935" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H935" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="936">
@@ -30631,10 +30519,8 @@
           <t>3.5%</t>
         </is>
       </c>
-      <c r="H936" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H936" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="937">
@@ -30665,10 +30551,8 @@
           <t>146.8</t>
         </is>
       </c>
-      <c r="H937" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H937" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="938">
@@ -30699,10 +30583,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H938" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H938" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="939">
@@ -30733,10 +30615,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H939" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H939" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="940">
@@ -30771,10 +30651,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H940" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H940" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="941">
@@ -30801,10 +30679,8 @@
       </c>
       <c r="F941" t="inlineStr"/>
       <c r="G941" t="inlineStr"/>
-      <c r="H941" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H941" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="942">
@@ -30827,10 +30703,8 @@
       <c r="E942" t="inlineStr"/>
       <c r="F942" t="inlineStr"/>
       <c r="G942" t="inlineStr"/>
-      <c r="H942" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H942" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="943">
@@ -30865,10 +30739,8 @@
           <t>54.2</t>
         </is>
       </c>
-      <c r="H943" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H943" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="944">
@@ -30895,10 +30767,8 @@
       </c>
       <c r="F944" t="inlineStr"/>
       <c r="G944" t="inlineStr"/>
-      <c r="H944" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H944" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="945">
@@ -30933,10 +30803,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H945" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H945" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="946">
@@ -30971,10 +30839,8 @@
           <t>116.0%</t>
         </is>
       </c>
-      <c r="H946" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H946" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="947">
@@ -30997,10 +30863,8 @@
       <c r="E947" t="inlineStr"/>
       <c r="F947" t="inlineStr"/>
       <c r="G947" t="inlineStr"/>
-      <c r="H947" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H947" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="948">
@@ -31031,10 +30895,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H948" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H948" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="949">
@@ -31065,10 +30927,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H949" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H949" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="950">
@@ -31095,10 +30955,8 @@
       </c>
       <c r="F950" t="inlineStr"/>
       <c r="G950" t="inlineStr"/>
-      <c r="H950" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H950" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="951">
@@ -31129,10 +30987,8 @@
           <t>3</t>
         </is>
       </c>
-      <c r="H951" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H951" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="952">
@@ -31155,10 +31011,8 @@
       <c r="E952" t="inlineStr"/>
       <c r="F952" t="inlineStr"/>
       <c r="G952" t="inlineStr"/>
-      <c r="H952" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H952" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="953">
@@ -31193,10 +31047,8 @@
           <t>$ 3.7B</t>
         </is>
       </c>
-      <c r="H953" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H953" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="954">
@@ -31227,10 +31079,8 @@
         </is>
       </c>
       <c r="G954" t="inlineStr"/>
-      <c r="H954" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H954" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="955">
@@ -31261,10 +31111,8 @@
         </is>
       </c>
       <c r="G955" t="inlineStr"/>
-      <c r="H955" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H955" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="956">
@@ -31287,10 +31135,8 @@
       </c>
       <c r="F956" t="inlineStr"/>
       <c r="G956" t="inlineStr"/>
-      <c r="H956" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H956" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="957">
@@ -31313,10 +31159,8 @@
       </c>
       <c r="F957" t="inlineStr"/>
       <c r="G957" t="inlineStr"/>
-      <c r="H957" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H957" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="958">
@@ -31365,10 +31209,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H959" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H959" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="960">
@@ -31403,10 +31245,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H960" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H960" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="961">
@@ -31437,10 +31277,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H961" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H961" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="962">
@@ -31475,10 +31313,8 @@
           <t>2.7%</t>
         </is>
       </c>
-      <c r="H962" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H962" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="963">
@@ -31513,10 +31349,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H963" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H963" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="964">
@@ -31551,10 +31385,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H964" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H964" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="965">
@@ -31589,10 +31421,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H965" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H965" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="966">
@@ -31623,10 +31453,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H966" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H966" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="967">
@@ -31657,10 +31485,8 @@
           <t>2.1%</t>
         </is>
       </c>
-      <c r="H967" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H967" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="968">
@@ -31695,10 +31521,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H968" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H968" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="969">
@@ -31729,10 +31553,8 @@
           <t>-1%</t>
         </is>
       </c>
-      <c r="H969" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H969" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="970">
@@ -31767,10 +31589,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H970" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H970" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="971">
@@ -31801,10 +31621,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H971" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H971" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="972">
@@ -31839,10 +31657,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H972" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H972" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="973">
@@ -31877,10 +31693,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H973" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H973" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="974">
@@ -31911,10 +31725,8 @@
           <t>10%</t>
         </is>
       </c>
-      <c r="H974" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H974" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="975">
@@ -31949,10 +31761,8 @@
           <t>6%</t>
         </is>
       </c>
-      <c r="H975" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H975" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="976">
@@ -31987,10 +31797,8 @@
           <t>5.25%</t>
         </is>
       </c>
-      <c r="H976" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H976" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="977">
@@ -32025,10 +31833,8 @@
           <t>6.75%</t>
         </is>
       </c>
-      <c r="H977" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H977" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="978">
@@ -32063,10 +31869,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H978" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H978" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="979">
@@ -32101,10 +31905,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H979" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H979" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="980">
@@ -32139,10 +31941,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H980" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H980" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="981">
@@ -32177,10 +31977,8 @@
           <t>1.8%</t>
         </is>
       </c>
-      <c r="H981" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H981" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="982">
@@ -32203,10 +32001,8 @@
       <c r="E982" t="inlineStr"/>
       <c r="F982" t="inlineStr"/>
       <c r="G982" t="inlineStr"/>
-      <c r="H982" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H982" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="983">
@@ -32241,10 +32037,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H983" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H983" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="984">
@@ -32279,10 +32073,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H984" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H984" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="985">
@@ -32317,10 +32109,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H985" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H985" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="986">
@@ -32355,10 +32145,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H986" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H986" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="987">
@@ -32393,10 +32181,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H987" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H987" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="988">
@@ -32419,10 +32205,8 @@
       <c r="E988" t="inlineStr"/>
       <c r="F988" t="inlineStr"/>
       <c r="G988" t="inlineStr"/>
-      <c r="H988" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H988" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="989">
@@ -32457,10 +32241,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H989" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H989" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="990">
@@ -32495,10 +32277,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H990" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H990" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="991">
@@ -32533,10 +32313,8 @@
           <t>-1.5%</t>
         </is>
       </c>
-      <c r="H991" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H991" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="992">
@@ -32563,10 +32341,8 @@
       </c>
       <c r="F992" t="inlineStr"/>
       <c r="G992" t="inlineStr"/>
-      <c r="H992" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H992" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="993">
@@ -32593,10 +32369,8 @@
       </c>
       <c r="F993" t="inlineStr"/>
       <c r="G993" t="inlineStr"/>
-      <c r="H993" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H993" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="994">
@@ -32627,10 +32401,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H994" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H994" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="995">
@@ -32661,10 +32433,8 @@
           <t>-5.0%</t>
         </is>
       </c>
-      <c r="H995" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H995" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="996">
@@ -32691,10 +32461,8 @@
       </c>
       <c r="F996" t="inlineStr"/>
       <c r="G996" t="inlineStr"/>
-      <c r="H996" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H996" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="997">
@@ -32721,10 +32489,8 @@
       </c>
       <c r="F997" t="inlineStr"/>
       <c r="G997" t="inlineStr"/>
-      <c r="H997" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H997" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="998">
@@ -32751,10 +32517,8 @@
       </c>
       <c r="F998" t="inlineStr"/>
       <c r="G998" t="inlineStr"/>
-      <c r="H998" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H998" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="999">
@@ -32781,10 +32545,8 @@
       </c>
       <c r="F999" t="inlineStr"/>
       <c r="G999" t="inlineStr"/>
-      <c r="H999" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H999" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1000">
@@ -32811,10 +32573,8 @@
       </c>
       <c r="F1000" t="inlineStr"/>
       <c r="G1000" t="inlineStr"/>
-      <c r="H1000" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1000" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1001">
@@ -32849,10 +32609,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1001" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1001" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1002">
@@ -32879,10 +32637,8 @@
       </c>
       <c r="F1002" t="inlineStr"/>
       <c r="G1002" t="inlineStr"/>
-      <c r="H1002" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1002" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1003">
@@ -32917,10 +32673,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H1003" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1003" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1004">
@@ -32955,10 +32709,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1004" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1004" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1005">
@@ -32993,10 +32745,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H1005" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1005" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1006">
@@ -33031,10 +32781,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1006" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1006" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1007">
@@ -33069,10 +32817,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H1007" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1007" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1008">
@@ -33103,10 +32849,8 @@
           <t>315.6</t>
         </is>
       </c>
-      <c r="H1008" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1008" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1009">
@@ -33137,10 +32881,8 @@
           <t>317.4</t>
         </is>
       </c>
-      <c r="H1009" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1009" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1010">
@@ -33175,10 +32917,8 @@
           <t>3.1</t>
         </is>
       </c>
-      <c r="H1010" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1010" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1011">
@@ -33201,10 +32941,8 @@
       <c r="E1011" t="inlineStr"/>
       <c r="F1011" t="inlineStr"/>
       <c r="G1011" t="inlineStr"/>
-      <c r="H1011" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1011" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1012">
@@ -33227,10 +32965,8 @@
       <c r="E1012" t="inlineStr"/>
       <c r="F1012" t="inlineStr"/>
       <c r="G1012" t="inlineStr"/>
-      <c r="H1012" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1012" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1013">
@@ -33257,10 +32993,8 @@
       </c>
       <c r="F1013" t="inlineStr"/>
       <c r="G1013" t="inlineStr"/>
-      <c r="H1013" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1013" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1014">
@@ -33287,10 +33021,8 @@
       </c>
       <c r="F1014" t="inlineStr"/>
       <c r="G1014" t="inlineStr"/>
-      <c r="H1014" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1014" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1015">
@@ -33317,10 +33049,8 @@
       </c>
       <c r="F1015" t="inlineStr"/>
       <c r="G1015" t="inlineStr"/>
-      <c r="H1015" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1015" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1016">
@@ -33347,10 +33077,8 @@
       </c>
       <c r="F1016" t="inlineStr"/>
       <c r="G1016" t="inlineStr"/>
-      <c r="H1016" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1016" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1017">
@@ -33377,10 +33105,8 @@
       </c>
       <c r="F1017" t="inlineStr"/>
       <c r="G1017" t="inlineStr"/>
-      <c r="H1017" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1017" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1018">
@@ -33407,10 +33133,8 @@
       </c>
       <c r="F1018" t="inlineStr"/>
       <c r="G1018" t="inlineStr"/>
-      <c r="H1018" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1018" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1019">
@@ -33437,10 +33161,8 @@
       </c>
       <c r="F1019" t="inlineStr"/>
       <c r="G1019" t="inlineStr"/>
-      <c r="H1019" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1019" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1020">
@@ -33467,10 +33189,8 @@
       </c>
       <c r="F1020" t="inlineStr"/>
       <c r="G1020" t="inlineStr"/>
-      <c r="H1020" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1020" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1021">
@@ -33497,10 +33217,8 @@
       </c>
       <c r="F1021" t="inlineStr"/>
       <c r="G1021" t="inlineStr"/>
-      <c r="H1021" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1021" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1022">
@@ -33535,10 +33253,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1022" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1022" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1023">
@@ -33573,10 +33289,8 @@
           <t>9.5%</t>
         </is>
       </c>
-      <c r="H1023" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1023" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1024">
@@ -33599,10 +33313,8 @@
       <c r="E1024" t="inlineStr"/>
       <c r="F1024" t="inlineStr"/>
       <c r="G1024" t="inlineStr"/>
-      <c r="H1024" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1024" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1025">
@@ -33629,10 +33341,8 @@
       </c>
       <c r="F1025" t="inlineStr"/>
       <c r="G1025" t="inlineStr"/>
-      <c r="H1025" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1025" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1026">
@@ -33663,10 +33373,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H1026" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1026" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1027">
@@ -33693,10 +33401,8 @@
       </c>
       <c r="F1027" t="inlineStr"/>
       <c r="G1027" t="inlineStr"/>
-      <c r="H1027" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1027" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1028">
@@ -33719,10 +33425,8 @@
       <c r="E1028" t="inlineStr"/>
       <c r="F1028" t="inlineStr"/>
       <c r="G1028" t="inlineStr"/>
-      <c r="H1028" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1028" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1029">
@@ -33745,10 +33449,8 @@
       <c r="E1029" t="inlineStr"/>
       <c r="F1029" t="inlineStr"/>
       <c r="G1029" t="inlineStr"/>
-      <c r="H1029" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1029" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1030">
@@ -33771,10 +33473,8 @@
       <c r="E1030" t="inlineStr"/>
       <c r="F1030" t="inlineStr"/>
       <c r="G1030" t="inlineStr"/>
-      <c r="H1030" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1030" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1031">
@@ -33805,10 +33505,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H1031" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1031" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1032">
@@ -33843,10 +33541,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1032" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1032" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1033">
@@ -33881,10 +33577,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H1033" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1033" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1034">
@@ -33919,10 +33613,8 @@
           <t>26.0%</t>
         </is>
       </c>
-      <c r="H1034" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1034" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1035">
@@ -33957,10 +33649,8 @@
           <t>3.9%</t>
         </is>
       </c>
-      <c r="H1035" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1035" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1036">
@@ -33995,10 +33685,8 @@
           <t>25.1K</t>
         </is>
       </c>
-      <c r="H1036" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1036" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1037">
@@ -34025,10 +33713,8 @@
       </c>
       <c r="F1037" t="inlineStr"/>
       <c r="G1037" t="inlineStr"/>
-      <c r="H1037" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1037" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1038">
@@ -34055,10 +33741,8 @@
       </c>
       <c r="F1038" t="inlineStr"/>
       <c r="G1038" t="inlineStr"/>
-      <c r="H1038" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1038" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1039">
@@ -34093,10 +33777,8 @@
           <t>66.8%</t>
         </is>
       </c>
-      <c r="H1039" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1039" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1040">
@@ -34131,10 +33813,8 @@
           <t>2.75%</t>
         </is>
       </c>
-      <c r="H1040" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1040" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1041">
@@ -34161,10 +33841,8 @@
       </c>
       <c r="F1041" t="inlineStr"/>
       <c r="G1041" t="inlineStr"/>
-      <c r="H1041" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1041" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1042">
@@ -34191,10 +33869,8 @@
       </c>
       <c r="F1042" t="inlineStr"/>
       <c r="G1042" t="inlineStr"/>
-      <c r="H1042" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1042" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1043">
@@ -34221,10 +33897,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1043" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1043" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1044">
@@ -34251,10 +33925,8 @@
           <t>2%</t>
         </is>
       </c>
-      <c r="H1044" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1044" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1045">
@@ -34281,10 +33953,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H1045" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1045" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1046">
@@ -34307,10 +33977,8 @@
       </c>
       <c r="F1046" t="inlineStr"/>
       <c r="G1046" t="inlineStr"/>
-      <c r="H1046" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1046" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1047">
@@ -34329,10 +33997,8 @@
       <c r="E1047" t="inlineStr"/>
       <c r="F1047" t="inlineStr"/>
       <c r="G1047" t="inlineStr"/>
-      <c r="H1047" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1047" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1048">
@@ -34359,10 +34025,8 @@
           <t>$ -38.0B</t>
         </is>
       </c>
-      <c r="H1048" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1048" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1049">
@@ -34389,10 +34053,8 @@
           <t>$ 32.5B</t>
         </is>
       </c>
-      <c r="H1049" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1049" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1050">
@@ -34419,10 +34081,8 @@
           <t>$ 70.5B</t>
         </is>
       </c>
-      <c r="H1050" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1050" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1051">
@@ -34463,10 +34123,8 @@
       </c>
       <c r="F1052" t="inlineStr"/>
       <c r="G1052" t="inlineStr"/>
-      <c r="H1052" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1052" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1053">
@@ -34501,10 +34159,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1053" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1053" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1054">
@@ -34539,10 +34195,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H1054" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1054" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1055">
@@ -34577,10 +34231,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H1055" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1055" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1056">
@@ -34615,10 +34267,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H1056" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1056" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1057">
@@ -34653,10 +34303,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1057" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1057" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1058">
@@ -34687,10 +34335,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1058" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1058" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1059">
@@ -34725,10 +34371,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1059" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1059" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1060">
@@ -34763,10 +34407,8 @@
           <t>£-17.0B</t>
         </is>
       </c>
-      <c r="H1060" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1060" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1061">
@@ -34797,10 +34439,8 @@
           <t>£-6.8B</t>
         </is>
       </c>
-      <c r="H1061" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1061" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1062">
@@ -34835,10 +34475,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1062" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1062" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1063">
@@ -34873,10 +34511,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1063" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1063" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1064">
@@ -34907,10 +34543,8 @@
           <t>£-3.9B</t>
         </is>
       </c>
-      <c r="H1064" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1064" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1065">
@@ -34941,10 +34575,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1065" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1065" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1066">
@@ -34979,10 +34611,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H1066" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1066" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1067">
@@ -35017,10 +34647,8 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H1067" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1067" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1068">
@@ -35055,10 +34683,8 @@
           <t>€3.2B</t>
         </is>
       </c>
-      <c r="H1068" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1068" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1069">
@@ -35093,10 +34719,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1069" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1069" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1070">
@@ -35131,10 +34755,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H1070" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1070" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1071">
@@ -35169,10 +34791,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1071" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1071" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1072">
@@ -35207,10 +34827,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H1072" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1072" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1073">
@@ -35233,10 +34851,8 @@
       <c r="E1073" t="inlineStr"/>
       <c r="F1073" t="inlineStr"/>
       <c r="G1073" t="inlineStr"/>
-      <c r="H1073" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1073" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1074">
@@ -35263,10 +34879,8 @@
       </c>
       <c r="F1074" t="inlineStr"/>
       <c r="G1074" t="inlineStr"/>
-      <c r="H1074" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1074" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1075">
@@ -35289,10 +34903,8 @@
       <c r="E1075" t="inlineStr"/>
       <c r="F1075" t="inlineStr"/>
       <c r="G1075" t="inlineStr"/>
-      <c r="H1075" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1075" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1076">
@@ -35319,10 +34931,8 @@
       </c>
       <c r="F1076" t="inlineStr"/>
       <c r="G1076" t="inlineStr"/>
-      <c r="H1076" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1076" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1077">
@@ -35357,10 +34967,8 @@
           <t>€1.8B</t>
         </is>
       </c>
-      <c r="H1077" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1077" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1078">
@@ -35387,10 +34995,8 @@
       </c>
       <c r="F1078" t="inlineStr"/>
       <c r="G1078" t="inlineStr"/>
-      <c r="H1078" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1078" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1079">
@@ -35425,10 +35031,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1079" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1079" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1080">
@@ -35451,10 +35055,8 @@
       <c r="E1080" t="inlineStr"/>
       <c r="F1080" t="inlineStr"/>
       <c r="G1080" t="inlineStr"/>
-      <c r="H1080" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1080" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1081">
@@ -35485,10 +35087,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1081" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1081" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1082">
@@ -35523,10 +35123,8 @@
           <t>240.0K</t>
         </is>
       </c>
-      <c r="H1082" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1082" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1083">
@@ -35561,10 +35159,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1083" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1083" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1084">
@@ -35599,10 +35195,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1084" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1084" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1085">
@@ -35637,10 +35231,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1085" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1085" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1086">
@@ -35675,10 +35267,8 @@
           <t>209.0K</t>
         </is>
       </c>
-      <c r="H1086" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1086" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1087">
@@ -35713,10 +35303,8 @@
           <t>-10</t>
         </is>
       </c>
-      <c r="H1087" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1087" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1088">
@@ -35751,10 +35339,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1088" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1088" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1089">
@@ -35785,10 +35371,8 @@
           <t>1870.0K</t>
         </is>
       </c>
-      <c r="H1089" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1089" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1090">
@@ -35819,10 +35403,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H1090" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1090" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1091">
@@ -35853,10 +35435,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1091" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1091" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1092">
@@ -35887,10 +35467,8 @@
           <t>215.0K</t>
         </is>
       </c>
-      <c r="H1092" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1092" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1093">
@@ -35917,10 +35495,8 @@
       </c>
       <c r="F1093" t="inlineStr"/>
       <c r="G1093" t="inlineStr"/>
-      <c r="H1093" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1093" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1094">
@@ -35947,10 +35523,8 @@
       </c>
       <c r="F1094" t="inlineStr"/>
       <c r="G1094" t="inlineStr"/>
-      <c r="H1094" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1094" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1095">
@@ -35977,10 +35551,8 @@
       </c>
       <c r="F1095" t="inlineStr"/>
       <c r="G1095" t="inlineStr"/>
-      <c r="H1095" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1095" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1096">
@@ -36007,10 +35579,8 @@
       </c>
       <c r="F1096" t="inlineStr"/>
       <c r="G1096" t="inlineStr"/>
-      <c r="H1096" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1096" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1097">
@@ -36037,10 +35607,8 @@
       </c>
       <c r="F1097" t="inlineStr"/>
       <c r="G1097" t="inlineStr"/>
-      <c r="H1097" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1097" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1098">
@@ -36071,10 +35639,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1098" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1098" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1099">
@@ -36105,10 +35671,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H1099" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1099" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1100">
@@ -36143,10 +35707,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1100" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1100" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1101">
@@ -36181,10 +35743,8 @@
           <t>45</t>
         </is>
       </c>
-      <c r="H1101" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1101" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1102">
@@ -36219,10 +35779,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1102" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1102" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1103">
@@ -36249,10 +35807,8 @@
       </c>
       <c r="F1103" t="inlineStr"/>
       <c r="G1103" t="inlineStr"/>
-      <c r="H1103" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1103" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1104">
@@ -36279,10 +35835,8 @@
       </c>
       <c r="F1104" t="inlineStr"/>
       <c r="G1104" t="inlineStr"/>
-      <c r="H1104" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1104" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1105">
@@ -36309,10 +35863,8 @@
       </c>
       <c r="F1105" t="inlineStr"/>
       <c r="G1105" t="inlineStr"/>
-      <c r="H1105" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1105" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1106">
@@ -36339,10 +35891,8 @@
       </c>
       <c r="F1106" t="inlineStr"/>
       <c r="G1106" t="inlineStr"/>
-      <c r="H1106" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1106" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1107">
@@ -36369,10 +35919,8 @@
       </c>
       <c r="F1107" t="inlineStr"/>
       <c r="G1107" t="inlineStr"/>
-      <c r="H1107" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1107" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1108">
@@ -36395,10 +35943,8 @@
       <c r="E1108" t="inlineStr"/>
       <c r="F1108" t="inlineStr"/>
       <c r="G1108" t="inlineStr"/>
-      <c r="H1108" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1108" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1109">
@@ -36425,10 +35971,8 @@
       </c>
       <c r="F1109" t="inlineStr"/>
       <c r="G1109" t="inlineStr"/>
-      <c r="H1109" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1109" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1110">
@@ -36455,10 +35999,8 @@
       </c>
       <c r="F1110" t="inlineStr"/>
       <c r="G1110" t="inlineStr"/>
-      <c r="H1110" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1110" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1111">
@@ -36485,10 +36027,8 @@
       </c>
       <c r="F1111" t="inlineStr"/>
       <c r="G1111" t="inlineStr"/>
-      <c r="H1111" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1111" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1112">
@@ -36519,10 +36059,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1112" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1112" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1113">
@@ -36557,10 +36095,8 @@
           <t>7.5%</t>
         </is>
       </c>
-      <c r="H1113" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1113" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1114">
@@ -36587,10 +36123,8 @@
       </c>
       <c r="F1114" t="inlineStr"/>
       <c r="G1114" t="inlineStr"/>
-      <c r="H1114" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1114" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1115">
@@ -36621,10 +36155,8 @@
           <t>-5.8%</t>
         </is>
       </c>
-      <c r="H1115" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1115" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1116">
@@ -36655,10 +36187,8 @@
           <t>$ 3.6B</t>
         </is>
       </c>
-      <c r="H1116" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1116" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1117">
@@ -36693,10 +36223,8 @@
           <t>5%</t>
         </is>
       </c>
-      <c r="H1117" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1117" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1118">
@@ -36731,10 +36259,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="H1118" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1118" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1119">
@@ -36769,10 +36295,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H1119" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1119" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1120">
@@ -36807,10 +36331,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H1120" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1120" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1121">
@@ -36845,10 +36367,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1121" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1121" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1122">
@@ -36879,10 +36399,8 @@
           <t>75.3%</t>
         </is>
       </c>
-      <c r="H1122" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1122" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1123">
@@ -36917,10 +36435,8 @@
           <t>5.00%</t>
         </is>
       </c>
-      <c r="H1123" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1123" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1124">
@@ -36947,96 +36463,98 @@
       </c>
       <c r="F1124" t="inlineStr"/>
       <c r="G1124" t="inlineStr"/>
-      <c r="H1124" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1124" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1125">
       <c r="A1125" t="inlineStr">
         <is>
-          <t>Friday January 17 2025</t>
-        </is>
-      </c>
-      <c r="B1125" t="inlineStr"/>
-      <c r="C1125" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B1125" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1125" t="inlineStr">
+        <is>
+          <t>Building Permits MoM PrelDEC</t>
+        </is>
+      </c>
       <c r="D1125" t="inlineStr"/>
-      <c r="E1125" t="inlineStr"/>
+      <c r="E1125" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="F1125" t="inlineStr"/>
-      <c r="G1125" t="inlineStr"/>
-      <c r="H1125" t="inlineStr"/>
+      <c r="G1125" t="inlineStr">
+        <is>
+          <t>-0.9%</t>
+        </is>
+      </c>
+      <c r="H1125" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1126">
       <c r="A1126" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1126" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1126" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Housing Starts MoMDEC</t>
         </is>
       </c>
       <c r="D1126" t="inlineStr"/>
       <c r="E1126" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F1126" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>-1.8%</t>
+        </is>
+      </c>
+      <c r="F1126" t="inlineStr"/>
       <c r="G1126" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H1126" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1127">
       <c r="A1127" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1127" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>IF</t>
         </is>
       </c>
       <c r="C1127" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>IMF/World Economic Outlook</t>
         </is>
       </c>
       <c r="D1127" t="inlineStr"/>
-      <c r="E1127" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F1127" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="G1127" t="inlineStr">
-        <is>
-          <t>2.1%</t>
-        </is>
-      </c>
+      <c r="E1127" t="inlineStr"/>
+      <c r="F1127" t="inlineStr"/>
+      <c r="G1127" t="inlineStr"/>
       <c r="H1127" t="inlineStr">
         <is>
           <t>2</t>
@@ -37046,71 +36564,71 @@
     <row r="1128">
       <c r="A1128" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1128" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1128" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel MoMDEC</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D1128" t="inlineStr"/>
       <c r="E1128" t="inlineStr">
         <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="F1128" t="inlineStr">
+        <is>
           <t>0.3%</t>
         </is>
       </c>
-      <c r="F1128" t="inlineStr">
+      <c r="G1128" t="inlineStr">
         <is>
           <t>0.1%</t>
         </is>
       </c>
-      <c r="G1128" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
       <c r="H1128" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1129">
       <c r="A1129" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1129" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1129" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel YoYDEC</t>
+          <t>Capacity UtilizationDEC</t>
         </is>
       </c>
       <c r="D1129" t="inlineStr"/>
       <c r="E1129" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>76.8%</t>
         </is>
       </c>
       <c r="F1129" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>76.9%</t>
         </is>
       </c>
       <c r="G1129" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>76.9%</t>
         </is>
       </c>
       <c r="H1129" t="inlineStr">
@@ -37122,29 +36640,29 @@
     <row r="1130">
       <c r="A1130" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1130" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1130" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D1130" t="inlineStr"/>
       <c r="E1130" t="inlineStr">
         <is>
-          <t>€32B</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="F1130" t="inlineStr"/>
       <c r="G1130" t="inlineStr">
         <is>
-          <t>€33.0B</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="H1130" t="inlineStr">
@@ -37156,31 +36674,35 @@
     <row r="1131">
       <c r="A1131" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1131" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1131" t="inlineStr">
         <is>
-          <t>Current Account s.aNOV</t>
+          <t>Manufacturing Production MoMDEC</t>
         </is>
       </c>
       <c r="D1131" t="inlineStr"/>
       <c r="E1131" t="inlineStr">
         <is>
-          <t>€33.5B</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1131" t="inlineStr">
         <is>
-          <t>€28B</t>
-        </is>
-      </c>
-      <c r="G1131" t="inlineStr"/>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="G1131" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H1131" t="inlineStr">
         <is>
           <t>3</t>
@@ -37190,107 +36712,91 @@
     <row r="1132">
       <c r="A1132" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1132" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1132" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Manufacturing Production YoYDEC</t>
         </is>
       </c>
       <c r="D1132" t="inlineStr"/>
       <c r="E1132" t="inlineStr">
         <is>
-          <t>€-3.93B</t>
+          <t>-1%</t>
         </is>
       </c>
       <c r="F1132" t="inlineStr"/>
       <c r="G1132" t="inlineStr">
         <is>
-          <t>€-4.2B</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="H1132" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1133">
       <c r="A1133" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1133" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1133" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>Baker Hughes Oil Rig CountJAN/17</t>
         </is>
       </c>
       <c r="D1133" t="inlineStr"/>
       <c r="E1133" t="inlineStr">
         <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="F1133" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="G1133" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
+          <t>480</t>
+        </is>
+      </c>
+      <c r="F1133" t="inlineStr"/>
+      <c r="G1133" t="inlineStr"/>
       <c r="H1133" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1134">
       <c r="A1134" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1134" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1134" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FinalDEC</t>
+          <t>Baker Hughes Total Rigs CountJAN/17</t>
         </is>
       </c>
       <c r="D1134" t="inlineStr"/>
       <c r="E1134" t="inlineStr">
         <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F1134" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="G1134" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+          <t>584</t>
+        </is>
+      </c>
+      <c r="F1134" t="inlineStr"/>
+      <c r="G1134" t="inlineStr"/>
       <c r="H1134" t="inlineStr">
         <is>
           <t>3</t>
@@ -37300,73 +36806,57 @@
     <row r="1135">
       <c r="A1135" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1135" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1135" t="inlineStr">
         <is>
-          <t>CPI FinalDEC</t>
+          <t>Net Long-term TIC FlowsNOV</t>
         </is>
       </c>
       <c r="D1135" t="inlineStr"/>
       <c r="E1135" t="inlineStr">
         <is>
-          <t>126.62</t>
-        </is>
-      </c>
-      <c r="F1135" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
-      <c r="G1135" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
+          <t>$152.3B</t>
+        </is>
+      </c>
+      <c r="F1135" t="inlineStr"/>
+      <c r="G1135" t="inlineStr"/>
       <c r="H1135" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1136">
       <c r="A1136" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1136" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1136" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FinalDEC</t>
+          <t>Foreign Bond InvestmentNOV</t>
         </is>
       </c>
       <c r="D1136" t="inlineStr"/>
       <c r="E1136" t="inlineStr">
         <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F1136" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G1136" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>$92.1B</t>
+        </is>
+      </c>
+      <c r="F1136" t="inlineStr"/>
+      <c r="G1136" t="inlineStr"/>
       <c r="H1136" t="inlineStr">
         <is>
           <t>3</t>
@@ -37376,21 +36866,25 @@
     <row r="1137">
       <c r="A1137" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1137" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1137" t="inlineStr">
         <is>
-          <t>Bundesbank Nagel Speech</t>
+          <t>Overall Net Capital FlowsNOV</t>
         </is>
       </c>
       <c r="D1137" t="inlineStr"/>
-      <c r="E1137" t="inlineStr"/>
+      <c r="E1137" t="inlineStr">
+        <is>
+          <t>$203.6B</t>
+        </is>
+      </c>
       <c r="F1137" t="inlineStr"/>
       <c r="G1137" t="inlineStr"/>
       <c r="H1137" t="inlineStr">
@@ -37400,33 +36894,25 @@
       </c>
     </row>
     <row r="1138">
-      <c r="A1138" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
+      <c r="A1138" t="inlineStr"/>
       <c r="B1138" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1138" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>50-Year KTB Auction</t>
         </is>
       </c>
       <c r="D1138" t="inlineStr"/>
       <c r="E1138" t="inlineStr">
         <is>
-          <t>€5628M</t>
+          <t>2.40%</t>
         </is>
       </c>
       <c r="F1138" t="inlineStr"/>
-      <c r="G1138" t="inlineStr">
-        <is>
-          <t>€2900.0M</t>
-        </is>
-      </c>
+      <c r="G1138" t="inlineStr"/>
       <c r="H1138" t="inlineStr">
         <is>
           <t>3</t>
@@ -37436,169 +36922,165 @@
     <row r="1139">
       <c r="A1139" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1139" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C1139" t="inlineStr">
-        <is>
-          <t>ECB Cipollone Speech</t>
-        </is>
-      </c>
+          <t>Sunday January 19 2025</t>
+        </is>
+      </c>
+      <c r="B1139" t="inlineStr"/>
+      <c r="C1139" t="inlineStr"/>
       <c r="D1139" t="inlineStr"/>
       <c r="E1139" t="inlineStr"/>
       <c r="F1139" t="inlineStr"/>
       <c r="G1139" t="inlineStr"/>
-      <c r="H1139" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1139" t="inlineStr"/>
     </row>
     <row r="1140">
       <c r="A1140" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1140" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1140" t="inlineStr">
         <is>
-          <t>Bank Loan Growth YoYJAN/03</t>
+          <t>Machinery Orders MoMNOV</t>
         </is>
       </c>
       <c r="D1140" t="inlineStr"/>
       <c r="E1140" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>2.1%</t>
         </is>
       </c>
       <c r="F1140" t="inlineStr"/>
-      <c r="G1140" t="inlineStr"/>
+      <c r="G1140" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1140" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1141">
       <c r="A1141" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1141" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1141" t="inlineStr">
         <is>
-          <t>Deposit Growth YoYJAN/03</t>
+          <t>Machinery Orders YoYNOV</t>
         </is>
       </c>
       <c r="D1141" t="inlineStr"/>
       <c r="E1141" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>5.6%</t>
         </is>
       </c>
       <c r="F1141" t="inlineStr"/>
-      <c r="G1141" t="inlineStr"/>
+      <c r="G1141" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
       <c r="H1141" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1142">
       <c r="A1142" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1142" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1142" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/10</t>
+          <t>Loan Prime Rate 1Y</t>
         </is>
       </c>
       <c r="D1142" t="inlineStr"/>
       <c r="E1142" t="inlineStr">
         <is>
-          <t>$634.59B</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="F1142" t="inlineStr"/>
       <c r="G1142" t="inlineStr"/>
       <c r="H1142" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1143">
       <c r="A1143" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1143" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1143" t="inlineStr">
         <is>
-          <t>Foreign Securities PurchasesNOV</t>
+          <t>Loan Prime Rate 5YJAN</t>
         </is>
       </c>
       <c r="D1143" t="inlineStr"/>
       <c r="E1143" t="inlineStr">
         <is>
-          <t>C$21.55B</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="F1143" t="inlineStr"/>
       <c r="G1143" t="inlineStr"/>
       <c r="H1143" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1144">
       <c r="A1144" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1144" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1144" t="inlineStr">
         <is>
-          <t>Foreign Securities Purchases by CanadiansNOV</t>
+          <t>Capacity Utilization MoMNOV</t>
         </is>
       </c>
       <c r="D1144" t="inlineStr"/>
       <c r="E1144" t="inlineStr">
         <is>
-          <t>C$-2.65B</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F1144" t="inlineStr"/>
@@ -37612,203 +37094,167 @@
     <row r="1145">
       <c r="A1145" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1145" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1145" t="inlineStr">
         <is>
-          <t>Building Permits PrelDEC</t>
+          <t>Industrial Production MoM FinalNOV</t>
         </is>
       </c>
       <c r="D1145" t="inlineStr"/>
       <c r="E1145" t="inlineStr">
         <is>
-          <t>1.493M</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F1145" t="inlineStr">
         <is>
-          <t>1.46M</t>
+          <t>-2.3%</t>
         </is>
       </c>
       <c r="G1145" t="inlineStr">
         <is>
-          <t>1.48M</t>
+          <t>-2.3%</t>
         </is>
       </c>
       <c r="H1145" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1146">
       <c r="A1146" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1146" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1146" t="inlineStr">
         <is>
-          <t>Housing StartsDEC</t>
+          <t>Industrial Production YoY FinalNOV</t>
         </is>
       </c>
       <c r="D1146" t="inlineStr"/>
       <c r="E1146" t="inlineStr">
         <is>
-          <t>1.289M</t>
-        </is>
-      </c>
-      <c r="F1146" t="inlineStr">
-        <is>
-          <t>1.32M</t>
-        </is>
-      </c>
+          <t>1.4%</t>
+        </is>
+      </c>
+      <c r="F1146" t="inlineStr"/>
       <c r="G1146" t="inlineStr">
         <is>
-          <t>1.32M</t>
+          <t>-2.8%</t>
         </is>
       </c>
       <c r="H1146" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1147">
       <c r="A1147" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1147" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1147" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelDEC</t>
+          <t>Tertiary Industry Index MoMNOV</t>
         </is>
       </c>
       <c r="D1147" t="inlineStr"/>
       <c r="E1147" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F1147" t="inlineStr"/>
-      <c r="G1147" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
+      <c r="G1147" t="inlineStr"/>
       <c r="H1147" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1148">
-      <c r="A1148" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A1148" t="inlineStr"/>
       <c r="B1148" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1148" t="inlineStr">
         <is>
-          <t>Housing Starts MoMDEC</t>
+          <t>Eurogroup Meeting</t>
         </is>
       </c>
       <c r="D1148" t="inlineStr"/>
-      <c r="E1148" t="inlineStr">
-        <is>
-          <t>-1.8%</t>
-        </is>
-      </c>
+      <c r="E1148" t="inlineStr"/>
       <c r="F1148" t="inlineStr"/>
-      <c r="G1148" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
+      <c r="G1148" t="inlineStr"/>
       <c r="H1148" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1149">
       <c r="A1149" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1149" t="inlineStr">
-        <is>
-          <t>IF</t>
-        </is>
-      </c>
-      <c r="C1149" t="inlineStr">
-        <is>
-          <t>IMF/World Economic Outlook</t>
-        </is>
-      </c>
+          <t>Monday January 20 2025</t>
+        </is>
+      </c>
+      <c r="B1149" t="inlineStr"/>
+      <c r="C1149" t="inlineStr"/>
       <c r="D1149" t="inlineStr"/>
       <c r="E1149" t="inlineStr"/>
       <c r="F1149" t="inlineStr"/>
       <c r="G1149" t="inlineStr"/>
-      <c r="H1149" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="H1149" t="inlineStr"/>
     </row>
     <row r="1150">
       <c r="A1150" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1150" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1150" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1150" t="inlineStr"/>
       <c r="E1150" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F1150" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="F1150" t="inlineStr"/>
       <c r="G1150" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1150" t="inlineStr">
@@ -37820,33 +37266,29 @@
     <row r="1151">
       <c r="A1151" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1151" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1151" t="inlineStr">
         <is>
-          <t>Capacity UtilizationDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1151" t="inlineStr"/>
       <c r="E1151" t="inlineStr">
         <is>
-          <t>76.8%</t>
-        </is>
-      </c>
-      <c r="F1151" t="inlineStr">
-        <is>
-          <t>76.9%</t>
-        </is>
-      </c>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F1151" t="inlineStr"/>
       <c r="G1151" t="inlineStr">
         <is>
-          <t>76.9%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="H1151" t="inlineStr">
@@ -37858,29 +37300,29 @@
     <row r="1152">
       <c r="A1152" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>04:15 AM</t>
         </is>
       </c>
       <c r="B1152" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1152" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D1152" t="inlineStr"/>
       <c r="E1152" t="inlineStr">
         <is>
-          <t>-0.9%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="F1152" t="inlineStr"/>
       <c r="G1152" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1152" t="inlineStr">
@@ -37892,17 +37334,17 @@
     <row r="1153">
       <c r="A1153" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1153" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1153" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMDEC</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D1153" t="inlineStr"/>
@@ -37911,16 +37353,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="F1153" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1153" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="F1153" t="inlineStr"/>
+      <c r="G1153" t="inlineStr"/>
       <c r="H1153" t="inlineStr">
         <is>
           <t>3</t>
@@ -37930,31 +37364,23 @@
     <row r="1154">
       <c r="A1154" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1154" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1154" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYDEC</t>
+          <t>3-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D1154" t="inlineStr"/>
-      <c r="E1154" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
+      <c r="E1154" t="inlineStr"/>
       <c r="F1154" t="inlineStr"/>
-      <c r="G1154" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="G1154" t="inlineStr"/>
       <c r="H1154" t="inlineStr">
         <is>
           <t>3</t>
@@ -37964,25 +37390,21 @@
     <row r="1155">
       <c r="A1155" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1155" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1155" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/17</t>
+          <t>9-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D1155" t="inlineStr"/>
-      <c r="E1155" t="inlineStr">
-        <is>
-          <t>480</t>
-        </is>
-      </c>
+      <c r="E1155" t="inlineStr"/>
       <c r="F1155" t="inlineStr"/>
       <c r="G1155" t="inlineStr"/>
       <c r="H1155" t="inlineStr">
@@ -37994,23 +37416,23 @@
     <row r="1156">
       <c r="A1156" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1156" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1156" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/17</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D1156" t="inlineStr"/>
       <c r="E1156" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>$9.1B</t>
         </is>
       </c>
       <c r="F1156" t="inlineStr"/>
@@ -38024,55 +37446,55 @@
     <row r="1157">
       <c r="A1157" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1157" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1157" t="inlineStr">
         <is>
-          <t>Net Long-term TIC FlowsNOV</t>
+          <t>Current AccountQ4</t>
         </is>
       </c>
       <c r="D1157" t="inlineStr"/>
       <c r="E1157" t="inlineStr">
         <is>
-          <t>$152.3B</t>
+          <t>$9.1B</t>
         </is>
       </c>
       <c r="F1157" t="inlineStr"/>
-      <c r="G1157" t="inlineStr"/>
+      <c r="G1157" t="inlineStr">
+        <is>
+          <t>$ 10B</t>
+        </is>
+      </c>
       <c r="H1157" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1158">
       <c r="A1158" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1158" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1158" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentNOV</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1158" t="inlineStr"/>
-      <c r="E1158" t="inlineStr">
-        <is>
-          <t>$92.1B</t>
-        </is>
-      </c>
+      <c r="E1158" t="inlineStr"/>
       <c r="F1158" t="inlineStr"/>
       <c r="G1158" t="inlineStr"/>
       <c r="H1158" t="inlineStr">
@@ -38084,25 +37506,21 @@
     <row r="1159">
       <c r="A1159" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1159" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1159" t="inlineStr">
         <is>
-          <t>Overall Net Capital FlowsNOV</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1159" t="inlineStr"/>
-      <c r="E1159" t="inlineStr">
-        <is>
-          <t>$203.6B</t>
-        </is>
-      </c>
+      <c r="E1159" t="inlineStr"/>
       <c r="F1159" t="inlineStr"/>
       <c r="G1159" t="inlineStr"/>
       <c r="H1159" t="inlineStr">
@@ -38112,23 +37530,23 @@
       </c>
     </row>
     <row r="1160">
-      <c r="A1160" t="inlineStr"/>
+      <c r="A1160" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B1160" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1160" t="inlineStr">
         <is>
-          <t>50-Year KTB Auction</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1160" t="inlineStr"/>
-      <c r="E1160" t="inlineStr">
-        <is>
-          <t>2.40%</t>
-        </is>
-      </c>
+      <c r="E1160" t="inlineStr"/>
       <c r="F1160" t="inlineStr"/>
       <c r="G1160" t="inlineStr"/>
       <c r="H1160" t="inlineStr">
@@ -38140,169 +37558,189 @@
     <row r="1161">
       <c r="A1161" t="inlineStr">
         <is>
-          <t>Sunday January 19 2025</t>
-        </is>
-      </c>
-      <c r="B1161" t="inlineStr"/>
-      <c r="C1161" t="inlineStr"/>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B1161" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C1161" t="inlineStr">
+        <is>
+          <t>BoC Business Outlook Survey</t>
+        </is>
+      </c>
       <c r="D1161" t="inlineStr"/>
       <c r="E1161" t="inlineStr"/>
       <c r="F1161" t="inlineStr"/>
       <c r="G1161" t="inlineStr"/>
-      <c r="H1161" t="inlineStr"/>
+      <c r="H1161" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1162">
       <c r="A1162" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1162" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1162" t="inlineStr">
         <is>
-          <t>Machinery Orders MoMNOV</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1162" t="inlineStr"/>
       <c r="E1162" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="F1162" t="inlineStr"/>
       <c r="G1162" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="H1162" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1163">
       <c r="A1163" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1163" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1163" t="inlineStr">
         <is>
-          <t>Machinery Orders YoYNOV</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1163" t="inlineStr"/>
       <c r="E1163" t="inlineStr">
         <is>
-          <t>5.6%</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="F1163" t="inlineStr"/>
       <c r="G1163" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>4.4%</t>
         </is>
       </c>
       <c r="H1163" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1164">
       <c r="A1164" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1164" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1164" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 1Y</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D1164" t="inlineStr"/>
       <c r="E1164" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>$1234M</t>
         </is>
       </c>
       <c r="F1164" t="inlineStr"/>
-      <c r="G1164" t="inlineStr"/>
+      <c r="G1164" t="inlineStr">
+        <is>
+          <t>$ 1463M</t>
+        </is>
+      </c>
       <c r="H1164" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1165">
       <c r="A1165" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1165" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1165" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 5YJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1165" t="inlineStr"/>
-      <c r="E1165" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
+      <c r="E1165" t="inlineStr"/>
       <c r="F1165" t="inlineStr"/>
-      <c r="G1165" t="inlineStr"/>
+      <c r="G1165" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1165" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1166">
       <c r="A1166" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1166" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1166" t="inlineStr">
         <is>
-          <t>Capacity Utilization MoMNOV</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1166" t="inlineStr"/>
       <c r="E1166" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F1166" t="inlineStr"/>
-      <c r="G1166" t="inlineStr"/>
+      <c r="G1166" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
       <c r="H1166" t="inlineStr">
         <is>
           <t>3</t>
@@ -38312,7 +37750,7 @@
     <row r="1167">
       <c r="A1167" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B1167" t="inlineStr">
@@ -38322,25 +37760,17 @@
       </c>
       <c r="C1167" t="inlineStr">
         <is>
-          <t>Industrial Production MoM FinalNOV</t>
+          <t>40-Year JGB Auction</t>
         </is>
       </c>
       <c r="D1167" t="inlineStr"/>
       <c r="E1167" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F1167" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
-      <c r="G1167" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
+          <t>2.550%</t>
+        </is>
+      </c>
+      <c r="F1167" t="inlineStr"/>
+      <c r="G1167" t="inlineStr"/>
       <c r="H1167" t="inlineStr">
         <is>
           <t>3</t>
@@ -38348,33 +37778,25 @@
       </c>
     </row>
     <row r="1168">
-      <c r="A1168" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
+      <c r="A1168" t="inlineStr"/>
       <c r="B1168" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1168" t="inlineStr">
         <is>
-          <t>Industrial Production YoY FinalNOV</t>
+          <t>10-Year KTB Auction</t>
         </is>
       </c>
       <c r="D1168" t="inlineStr"/>
       <c r="E1168" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>2.665%</t>
         </is>
       </c>
       <c r="F1168" t="inlineStr"/>
-      <c r="G1168" t="inlineStr">
-        <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
+      <c r="G1168" t="inlineStr"/>
       <c r="H1168" t="inlineStr">
         <is>
           <t>3</t>
@@ -38382,25 +37804,21 @@
       </c>
     </row>
     <row r="1169">
-      <c r="A1169" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
+      <c r="A1169" t="inlineStr"/>
       <c r="B1169" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1169" t="inlineStr">
         <is>
-          <t>Tertiary Industry Index MoMNOV</t>
+          <t>FDI (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D1169" t="inlineStr"/>
       <c r="E1169" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>-27.9%</t>
         </is>
       </c>
       <c r="F1169" t="inlineStr"/>
@@ -38415,18 +37833,26 @@
       <c r="A1170" t="inlineStr"/>
       <c r="B1170" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1170" t="inlineStr">
         <is>
-          <t>Eurogroup Meeting</t>
+          <t>Consumer ConfidenceDEC</t>
         </is>
       </c>
       <c r="D1170" t="inlineStr"/>
-      <c r="E1170" t="inlineStr"/>
+      <c r="E1170" t="inlineStr">
+        <is>
+          <t>80.6</t>
+        </is>
+      </c>
       <c r="F1170" t="inlineStr"/>
-      <c r="G1170" t="inlineStr"/>
+      <c r="G1170" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
       <c r="H1170" t="inlineStr">
         <is>
           <t>3</t>
@@ -38434,81 +37860,81 @@
       </c>
     </row>
     <row r="1171">
-      <c r="A1171" t="inlineStr">
-        <is>
-          <t>Monday January 20 2025</t>
-        </is>
-      </c>
-      <c r="B1171" t="inlineStr"/>
-      <c r="C1171" t="inlineStr"/>
+      <c r="A1171" t="inlineStr"/>
+      <c r="B1171" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C1171" t="inlineStr">
+        <is>
+          <t>Leading Indicator MoMDEC</t>
+        </is>
+      </c>
       <c r="D1171" t="inlineStr"/>
-      <c r="E1171" t="inlineStr"/>
+      <c r="E1171" t="inlineStr">
+        <is>
+          <t>1.44%</t>
+        </is>
+      </c>
       <c r="F1171" t="inlineStr"/>
-      <c r="G1171" t="inlineStr"/>
-      <c r="H1171" t="inlineStr"/>
+      <c r="G1171" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
+      <c r="H1171" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1172">
-      <c r="A1172" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
+      <c r="A1172" t="inlineStr"/>
       <c r="B1172" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1172" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Central Government DebtDEC</t>
         </is>
       </c>
       <c r="D1172" t="inlineStr"/>
       <c r="E1172" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>TRY9.005T</t>
         </is>
       </c>
       <c r="F1172" t="inlineStr"/>
       <c r="G1172" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>TRY 9.0T</t>
         </is>
       </c>
       <c r="H1172" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1173">
-      <c r="A1173" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
+      <c r="A1173" t="inlineStr"/>
       <c r="B1173" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1173" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>ECOFIN Meeting</t>
         </is>
       </c>
       <c r="D1173" t="inlineStr"/>
-      <c r="E1173" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="E1173" t="inlineStr"/>
       <c r="F1173" t="inlineStr"/>
-      <c r="G1173" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
+      <c r="G1173" t="inlineStr"/>
       <c r="H1173" t="inlineStr">
         <is>
           <t>3</t>
@@ -38518,59 +37944,35 @@
     <row r="1174">
       <c r="A1174" t="inlineStr">
         <is>
-          <t>04:15 AM</t>
-        </is>
-      </c>
-      <c r="B1174" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1174" t="inlineStr">
-        <is>
-          <t>Construction Output YoYNOV</t>
-        </is>
-      </c>
+          <t>Tuesday January 21 2025</t>
+        </is>
+      </c>
+      <c r="B1174" t="inlineStr"/>
+      <c r="C1174" t="inlineStr"/>
       <c r="D1174" t="inlineStr"/>
-      <c r="E1174" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
+      <c r="E1174" t="inlineStr"/>
       <c r="F1174" t="inlineStr"/>
-      <c r="G1174" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="H1174" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1174" t="inlineStr"/>
+      <c r="H1174" t="inlineStr"/>
     </row>
     <row r="1175">
       <c r="A1175" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1175" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1175" t="inlineStr">
         <is>
-          <t>Construction Output YoYNOV</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1175" t="inlineStr"/>
-      <c r="E1175" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1175" t="inlineStr"/>
       <c r="F1175" t="inlineStr"/>
       <c r="G1175" t="inlineStr"/>
       <c r="H1175" t="inlineStr">
@@ -38582,17 +37984,17 @@
     <row r="1176">
       <c r="A1176" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1176" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1176" t="inlineStr">
         <is>
-          <t>3-Month Bubill Auction</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1176" t="inlineStr"/>
@@ -38608,139 +38010,159 @@
     <row r="1177">
       <c r="A1177" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1177" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1177" t="inlineStr">
         <is>
-          <t>9-Month Bubill Auction</t>
+          <t>New Car Registrations YoYDEC</t>
         </is>
       </c>
       <c r="D1177" t="inlineStr"/>
-      <c r="E1177" t="inlineStr"/>
+      <c r="E1177" t="inlineStr">
+        <is>
+          <t>-1.9%</t>
+        </is>
+      </c>
       <c r="F1177" t="inlineStr"/>
       <c r="G1177" t="inlineStr"/>
       <c r="H1177" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1178">
       <c r="A1178" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1178" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1178" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Unemployment RateNOV</t>
         </is>
       </c>
       <c r="D1178" t="inlineStr"/>
       <c r="E1178" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F1178" t="inlineStr"/>
-      <c r="G1178" t="inlineStr"/>
+      <c r="G1178" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="H1178" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1179">
       <c r="A1179" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1179" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1179" t="inlineStr">
         <is>
-          <t>Current AccountQ4</t>
+          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D1179" t="inlineStr"/>
       <c r="E1179" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F1179" t="inlineStr"/>
       <c r="G1179" t="inlineStr">
         <is>
-          <t>$ 10B</t>
+          <t>4.9%</t>
         </is>
       </c>
       <c r="H1179" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1180">
       <c r="A1180" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1180" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1180" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>Employment ChangeNOV</t>
         </is>
       </c>
       <c r="D1180" t="inlineStr"/>
-      <c r="E1180" t="inlineStr"/>
+      <c r="E1180" t="inlineStr">
+        <is>
+          <t>173K</t>
+        </is>
+      </c>
       <c r="F1180" t="inlineStr"/>
       <c r="G1180" t="inlineStr"/>
       <c r="H1180" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1181">
       <c r="A1181" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1181" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1181" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D1181" t="inlineStr"/>
-      <c r="E1181" t="inlineStr"/>
+      <c r="E1181" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="F1181" t="inlineStr"/>
-      <c r="G1181" t="inlineStr"/>
+      <c r="G1181" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
       <c r="H1181" t="inlineStr">
         <is>
           <t>3</t>
@@ -38750,23 +38172,31 @@
     <row r="1182">
       <c r="A1182" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1182" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1182" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>Claimant Count ChangeDEC</t>
         </is>
       </c>
       <c r="D1182" t="inlineStr"/>
-      <c r="E1182" t="inlineStr"/>
+      <c r="E1182" t="inlineStr">
+        <is>
+          <t>0.3K</t>
+        </is>
+      </c>
       <c r="F1182" t="inlineStr"/>
-      <c r="G1182" t="inlineStr"/>
+      <c r="G1182" t="inlineStr">
+        <is>
+          <t>-5K</t>
+        </is>
+      </c>
       <c r="H1182" t="inlineStr">
         <is>
           <t>3</t>
@@ -38776,57 +38206,61 @@
     <row r="1183">
       <c r="A1183" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1183" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1183" t="inlineStr">
         <is>
-          <t>BoC Business Outlook Survey</t>
+          <t>HMRC Payrolls ChangeDEC</t>
         </is>
       </c>
       <c r="D1183" t="inlineStr"/>
-      <c r="E1183" t="inlineStr"/>
+      <c r="E1183" t="inlineStr">
+        <is>
+          <t>-35K</t>
+        </is>
+      </c>
       <c r="F1183" t="inlineStr"/>
-      <c r="G1183" t="inlineStr"/>
+      <c r="G1183" t="inlineStr">
+        <is>
+          <t>20K</t>
+        </is>
+      </c>
       <c r="H1183" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1184">
       <c r="A1184" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1184" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1184" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Gold Production YoYNOV</t>
         </is>
       </c>
       <c r="D1184" t="inlineStr"/>
       <c r="E1184" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>-3.4%</t>
         </is>
       </c>
       <c r="F1184" t="inlineStr"/>
-      <c r="G1184" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G1184" t="inlineStr"/>
       <c r="H1184" t="inlineStr">
         <is>
           <t>3</t>
@@ -38836,31 +38270,27 @@
     <row r="1185">
       <c r="A1185" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1185" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1185" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Mining Production MoMNOV</t>
         </is>
       </c>
       <c r="D1185" t="inlineStr"/>
       <c r="E1185" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F1185" t="inlineStr"/>
-      <c r="G1185" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
+      <c r="G1185" t="inlineStr"/>
       <c r="H1185" t="inlineStr">
         <is>
           <t>3</t>
@@ -38870,31 +38300,27 @@
     <row r="1186">
       <c r="A1186" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1186" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1186" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Mining Production YoYNOV</t>
         </is>
       </c>
       <c r="D1186" t="inlineStr"/>
       <c r="E1186" t="inlineStr">
         <is>
-          <t>$1234M</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F1186" t="inlineStr"/>
-      <c r="G1186" t="inlineStr">
-        <is>
-          <t>$ 1463M</t>
-        </is>
-      </c>
+      <c r="G1186" t="inlineStr"/>
       <c r="H1186" t="inlineStr">
         <is>
           <t>3</t>
@@ -38904,87 +38330,83 @@
     <row r="1187">
       <c r="A1187" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1187" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1187" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D1187" t="inlineStr"/>
-      <c r="E1187" t="inlineStr"/>
+      <c r="E1187" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
       <c r="F1187" t="inlineStr"/>
-      <c r="G1187" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G1187" t="inlineStr"/>
       <c r="H1187" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1188">
       <c r="A1188" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1188" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1188" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D1188" t="inlineStr"/>
       <c r="E1188" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>15.7</t>
         </is>
       </c>
       <c r="F1188" t="inlineStr"/>
-      <c r="G1188" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="G1188" t="inlineStr"/>
       <c r="H1188" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1189">
       <c r="A1189" t="inlineStr">
         <is>
-          <t>10:35 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1189" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1189" t="inlineStr">
         <is>
-          <t>40-Year JGB Auction</t>
+          <t>ZEW Current ConditionsJAN</t>
         </is>
       </c>
       <c r="D1189" t="inlineStr"/>
       <c r="E1189" t="inlineStr">
         <is>
-          <t>2.550%</t>
+          <t>-93.1</t>
         </is>
       </c>
       <c r="F1189" t="inlineStr"/>
@@ -38996,23 +38418,23 @@
       </c>
     </row>
     <row r="1190">
-      <c r="A1190" t="inlineStr"/>
+      <c r="A1190" t="inlineStr">
+        <is>
+          <t>05:30 AM</t>
+        </is>
+      </c>
       <c r="B1190" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1190" t="inlineStr">
         <is>
-          <t>10-Year KTB Auction</t>
+          <t>Bund/g Auction</t>
         </is>
       </c>
       <c r="D1190" t="inlineStr"/>
-      <c r="E1190" t="inlineStr">
-        <is>
-          <t>2.665%</t>
-        </is>
-      </c>
+      <c r="E1190" t="inlineStr"/>
       <c r="F1190" t="inlineStr"/>
       <c r="G1190" t="inlineStr"/>
       <c r="H1190" t="inlineStr">
@@ -39022,21 +38444,25 @@
       </c>
     </row>
     <row r="1191">
-      <c r="A1191" t="inlineStr"/>
+      <c r="A1191" t="inlineStr">
+        <is>
+          <t>07:00 AM</t>
+        </is>
+      </c>
       <c r="B1191" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1191" t="inlineStr">
         <is>
-          <t>FDI (YTD) YoYDEC</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D1191" t="inlineStr"/>
       <c r="E1191" t="inlineStr">
         <is>
-          <t>-27.9%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F1191" t="inlineStr"/>
@@ -39048,29 +38474,29 @@
       </c>
     </row>
     <row r="1192">
-      <c r="A1192" t="inlineStr"/>
+      <c r="A1192" t="inlineStr">
+        <is>
+          <t>07:00 AM</t>
+        </is>
+      </c>
       <c r="B1192" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1192" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceDEC</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1192" t="inlineStr"/>
       <c r="E1192" t="inlineStr">
         <is>
-          <t>80.6</t>
+          <t>-1.2%</t>
         </is>
       </c>
       <c r="F1192" t="inlineStr"/>
-      <c r="G1192" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
+      <c r="G1192" t="inlineStr"/>
       <c r="H1192" t="inlineStr">
         <is>
           <t>3</t>
@@ -39078,121 +38504,165 @@
       </c>
     </row>
     <row r="1193">
-      <c r="A1193" t="inlineStr"/>
+      <c r="A1193" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B1193" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1193" t="inlineStr">
         <is>
-          <t>Leading Indicator MoMDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1193" t="inlineStr"/>
       <c r="E1193" t="inlineStr">
         <is>
-          <t>1.44%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="F1193" t="inlineStr"/>
       <c r="G1193" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="H1193" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1194">
-      <c r="A1194" t="inlineStr"/>
+      <c r="A1194" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B1194" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1194" t="inlineStr">
         <is>
-          <t>Central Government DebtDEC</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1194" t="inlineStr"/>
       <c r="E1194" t="inlineStr">
         <is>
-          <t>TRY9.005T</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F1194" t="inlineStr"/>
       <c r="G1194" t="inlineStr">
         <is>
-          <t>TRY 9.0T</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="H1194" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1195">
-      <c r="A1195" t="inlineStr"/>
+      <c r="A1195" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B1195" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1195" t="inlineStr">
         <is>
-          <t>ECOFIN Meeting</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1195" t="inlineStr"/>
-      <c r="E1195" t="inlineStr"/>
+      <c r="E1195" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="F1195" t="inlineStr"/>
-      <c r="G1195" t="inlineStr"/>
+      <c r="G1195" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1195" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1196">
       <c r="A1196" t="inlineStr">
         <is>
-          <t>Tuesday January 21 2025</t>
-        </is>
-      </c>
-      <c r="B1196" t="inlineStr"/>
-      <c r="C1196" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B1196" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C1196" t="inlineStr">
+        <is>
+          <t>Core Inflation Rate MoMDEC</t>
+        </is>
+      </c>
       <c r="D1196" t="inlineStr"/>
       <c r="E1196" t="inlineStr"/>
       <c r="F1196" t="inlineStr"/>
-      <c r="G1196" t="inlineStr"/>
-      <c r="H1196" t="inlineStr"/>
+      <c r="G1196" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="H1196" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1197">
       <c r="A1197" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1197" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1197" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>CPI Median YoYDEC</t>
         </is>
       </c>
       <c r="D1197" t="inlineStr"/>
-      <c r="E1197" t="inlineStr"/>
+      <c r="E1197" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="F1197" t="inlineStr"/>
-      <c r="G1197" t="inlineStr"/>
+      <c r="G1197" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
       <c r="H1197" t="inlineStr">
         <is>
           <t>3</t>
@@ -39202,23 +38672,31 @@
     <row r="1198">
       <c r="A1198" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1198" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1198" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>CPI Trimmed-Mean YoYDEC</t>
         </is>
       </c>
       <c r="D1198" t="inlineStr"/>
-      <c r="E1198" t="inlineStr"/>
+      <c r="E1198" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="F1198" t="inlineStr"/>
-      <c r="G1198" t="inlineStr"/>
+      <c r="G1198" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H1198" t="inlineStr">
         <is>
           <t>3</t>
@@ -39228,198 +38706,154 @@
     <row r="1199">
       <c r="A1199" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:55 AM</t>
         </is>
       </c>
       <c r="B1199" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1199" t="inlineStr">
         <is>
-          <t>New Car Registrations YoYDEC</t>
+          <t>Redbook YoYJAN/18</t>
         </is>
       </c>
       <c r="D1199" t="inlineStr"/>
-      <c r="E1199" t="inlineStr">
-        <is>
-          <t>-1.9%</t>
-        </is>
-      </c>
+      <c r="E1199" t="inlineStr"/>
       <c r="F1199" t="inlineStr"/>
       <c r="G1199" t="inlineStr"/>
       <c r="H1199" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1200">
       <c r="A1200" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1200" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1200" t="inlineStr">
         <is>
-          <t>Unemployment RateNOV</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1200" t="inlineStr"/>
-      <c r="E1200" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="E1200" t="inlineStr"/>
       <c r="F1200" t="inlineStr"/>
-      <c r="G1200" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="G1200" t="inlineStr"/>
       <c r="H1200" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1201">
       <c r="A1201" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1201" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1201" t="inlineStr">
         <is>
-          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
+          <t>52-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1201" t="inlineStr"/>
-      <c r="E1201" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="E1201" t="inlineStr"/>
       <c r="F1201" t="inlineStr"/>
-      <c r="G1201" t="inlineStr">
-        <is>
-          <t>4.9%</t>
-        </is>
-      </c>
+      <c r="G1201" t="inlineStr"/>
       <c r="H1201" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1202">
       <c r="A1202" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1202" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1202" t="inlineStr">
         <is>
-          <t>Employment ChangeNOV</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1202" t="inlineStr"/>
-      <c r="E1202" t="inlineStr">
-        <is>
-          <t>173K</t>
-        </is>
-      </c>
+      <c r="E1202" t="inlineStr"/>
       <c r="F1202" t="inlineStr"/>
       <c r="G1202" t="inlineStr"/>
       <c r="H1202" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1203">
       <c r="A1203" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1203" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1203" t="inlineStr">
         <is>
-          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1203" t="inlineStr"/>
       <c r="E1203" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>88.4</t>
         </is>
       </c>
       <c r="F1203" t="inlineStr"/>
       <c r="G1203" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H1203" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1204">
       <c r="A1204" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1204" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C1204" t="inlineStr">
-        <is>
-          <t>Claimant Count ChangeDEC</t>
-        </is>
-      </c>
+          <t>Wednesday January 22 2025</t>
+        </is>
+      </c>
+      <c r="B1204" t="inlineStr"/>
+      <c r="C1204" t="inlineStr"/>
       <c r="D1204" t="inlineStr"/>
-      <c r="E1204" t="inlineStr">
-        <is>
-          <t>0.3K</t>
-        </is>
-      </c>
+      <c r="E1204" t="inlineStr"/>
       <c r="F1204" t="inlineStr"/>
-      <c r="G1204" t="inlineStr">
-        <is>
-          <t>-5K</t>
-        </is>
-      </c>
-      <c r="H1204" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1204" t="inlineStr"/>
+      <c r="H1204" t="inlineStr"/>
     </row>
     <row r="1205">
       <c r="A1205" t="inlineStr">
@@ -39434,19 +38868,19 @@
       </c>
       <c r="C1205" t="inlineStr">
         <is>
-          <t>HMRC Payrolls ChangeDEC</t>
+          <t>Public Sector Net Borrowing Ex BanksDEC</t>
         </is>
       </c>
       <c r="D1205" t="inlineStr"/>
       <c r="E1205" t="inlineStr">
         <is>
-          <t>-35K</t>
+          <t>£-11.25B</t>
         </is>
       </c>
       <c r="F1205" t="inlineStr"/>
       <c r="G1205" t="inlineStr">
         <is>
-          <t>20K</t>
+          <t>£ -11.3B</t>
         </is>
       </c>
       <c r="H1205" t="inlineStr">
@@ -39458,7 +38892,7 @@
     <row r="1206">
       <c r="A1206" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1206" t="inlineStr">
@@ -39468,27 +38902,31 @@
       </c>
       <c r="C1206" t="inlineStr">
         <is>
-          <t>Gold Production YoYNOV</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1206" t="inlineStr"/>
       <c r="E1206" t="inlineStr">
         <is>
-          <t>-3.4%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F1206" t="inlineStr"/>
-      <c r="G1206" t="inlineStr"/>
+      <c r="G1206" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H1206" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1207">
       <c r="A1207" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1207" t="inlineStr">
@@ -39498,27 +38936,31 @@
       </c>
       <c r="C1207" t="inlineStr">
         <is>
-          <t>Mining Production MoMNOV</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1207" t="inlineStr"/>
       <c r="E1207" t="inlineStr">
         <is>
-          <t>-3%</t>
+          <t>2.9%</t>
         </is>
       </c>
       <c r="F1207" t="inlineStr"/>
-      <c r="G1207" t="inlineStr"/>
+      <c r="G1207" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
       <c r="H1207" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1208">
       <c r="A1208" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1208" t="inlineStr">
@@ -39528,17 +38970,21 @@
       </c>
       <c r="C1208" t="inlineStr">
         <is>
-          <t>Mining Production YoYNOV</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1208" t="inlineStr"/>
       <c r="E1208" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F1208" t="inlineStr"/>
-      <c r="G1208" t="inlineStr"/>
+      <c r="G1208" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1208" t="inlineStr">
         <is>
           <t>3</t>
@@ -39548,37 +38994,41 @@
     <row r="1209">
       <c r="A1209" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1209" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1209" t="inlineStr">
         <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1209" t="inlineStr"/>
       <c r="E1209" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="F1209" t="inlineStr"/>
-      <c r="G1209" t="inlineStr"/>
+      <c r="G1209" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="H1209" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1210">
       <c r="A1210" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1210" t="inlineStr">
@@ -39588,47 +39038,47 @@
       </c>
       <c r="C1210" t="inlineStr">
         <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
+          <t>15-Year Bund Auction</t>
         </is>
       </c>
       <c r="D1210" t="inlineStr"/>
-      <c r="E1210" t="inlineStr">
-        <is>
-          <t>15.7</t>
-        </is>
-      </c>
+      <c r="E1210" t="inlineStr"/>
       <c r="F1210" t="inlineStr"/>
       <c r="G1210" t="inlineStr"/>
       <c r="H1210" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1211">
       <c r="A1211" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1211" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1211" t="inlineStr">
         <is>
-          <t>ZEW Current ConditionsJAN</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D1211" t="inlineStr"/>
       <c r="E1211" t="inlineStr">
         <is>
-          <t>-93.1</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F1211" t="inlineStr"/>
-      <c r="G1211" t="inlineStr"/>
+      <c r="G1211" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H1211" t="inlineStr">
         <is>
           <t>3</t>
@@ -39638,21 +39088,25 @@
     <row r="1212">
       <c r="A1212" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1212" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1212" t="inlineStr">
         <is>
-          <t>Bund/g Auction</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1212" t="inlineStr"/>
-      <c r="E1212" t="inlineStr"/>
+      <c r="E1212" t="inlineStr">
+        <is>
+          <t>6.3%</t>
+        </is>
+      </c>
       <c r="F1212" t="inlineStr"/>
       <c r="G1212" t="inlineStr"/>
       <c r="H1212" t="inlineStr">
@@ -39664,25 +39118,21 @@
     <row r="1213">
       <c r="A1213" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>06:10 AM</t>
         </is>
       </c>
       <c r="B1213" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1213" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1213" t="inlineStr"/>
-      <c r="E1213" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
+      <c r="E1213" t="inlineStr"/>
       <c r="F1213" t="inlineStr"/>
       <c r="G1213" t="inlineStr"/>
       <c r="H1213" t="inlineStr">
@@ -39694,25 +39144,21 @@
     <row r="1214">
       <c r="A1214" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>06:10 AM</t>
         </is>
       </c>
       <c r="B1214" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1214" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1214" t="inlineStr"/>
-      <c r="E1214" t="inlineStr">
-        <is>
-          <t>-1.2%</t>
-        </is>
-      </c>
+      <c r="E1214" t="inlineStr"/>
       <c r="F1214" t="inlineStr"/>
       <c r="G1214" t="inlineStr"/>
       <c r="H1214" t="inlineStr">
@@ -39724,65 +39170,53 @@
     <row r="1215">
       <c r="A1215" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1215" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1215" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>M3 Money Supply YoYJAN/10</t>
         </is>
       </c>
       <c r="D1215" t="inlineStr"/>
       <c r="E1215" t="inlineStr">
         <is>
-          <t>1,9%</t>
+          <t>9.3%</t>
         </is>
       </c>
       <c r="F1215" t="inlineStr"/>
-      <c r="G1215" t="inlineStr">
-        <is>
-          <t>1.8%</t>
-        </is>
-      </c>
+      <c r="G1215" t="inlineStr"/>
       <c r="H1215" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1216">
       <c r="A1216" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1216" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1216" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>MBA 30-Year Mortgage RateJAN/17</t>
         </is>
       </c>
       <c r="D1216" t="inlineStr"/>
-      <c r="E1216" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+      <c r="E1216" t="inlineStr"/>
       <c r="F1216" t="inlineStr"/>
-      <c r="G1216" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
+      <c r="G1216" t="inlineStr"/>
       <c r="H1216" t="inlineStr">
         <is>
           <t>2</t>
@@ -39792,61 +39226,49 @@
     <row r="1217">
       <c r="A1217" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1217" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1217" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>MBA Mortgage ApplicationsJAN/17</t>
         </is>
       </c>
       <c r="D1217" t="inlineStr"/>
-      <c r="E1217" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+      <c r="E1217" t="inlineStr"/>
       <c r="F1217" t="inlineStr"/>
-      <c r="G1217" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1217" t="inlineStr"/>
       <c r="H1217" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1218">
       <c r="A1218" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1218" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1218" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMDEC</t>
+          <t>MBA Mortgage Market IndexJAN/17</t>
         </is>
       </c>
       <c r="D1218" t="inlineStr"/>
       <c r="E1218" t="inlineStr"/>
       <c r="F1218" t="inlineStr"/>
-      <c r="G1218" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1218" t="inlineStr"/>
       <c r="H1218" t="inlineStr">
         <is>
           <t>3</t>
@@ -39856,31 +39278,23 @@
     <row r="1219">
       <c r="A1219" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1219" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1219" t="inlineStr">
         <is>
-          <t>CPI Median YoYDEC</t>
+          <t>MBA Mortgage Refinance IndexJAN/17</t>
         </is>
       </c>
       <c r="D1219" t="inlineStr"/>
-      <c r="E1219" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+      <c r="E1219" t="inlineStr"/>
       <c r="F1219" t="inlineStr"/>
-      <c r="G1219" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="G1219" t="inlineStr"/>
       <c r="H1219" t="inlineStr">
         <is>
           <t>3</t>
@@ -39890,31 +39304,23 @@
     <row r="1220">
       <c r="A1220" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1220" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1220" t="inlineStr">
         <is>
-          <t>CPI Trimmed-Mean YoYDEC</t>
+          <t>MBA Purchase IndexJAN/17</t>
         </is>
       </c>
       <c r="D1220" t="inlineStr"/>
-      <c r="E1220" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="E1220" t="inlineStr"/>
       <c r="F1220" t="inlineStr"/>
-      <c r="G1220" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+      <c r="G1220" t="inlineStr"/>
       <c r="H1220" t="inlineStr">
         <is>
           <t>3</t>
@@ -39924,23 +39330,31 @@
     <row r="1221">
       <c r="A1221" t="inlineStr">
         <is>
-          <t>08:55 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1221" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1221" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/18</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1221" t="inlineStr"/>
-      <c r="E1221" t="inlineStr"/>
+      <c r="E1221" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="F1221" t="inlineStr"/>
-      <c r="G1221" t="inlineStr"/>
+      <c r="G1221" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1221" t="inlineStr">
         <is>
           <t>3</t>
@@ -39950,23 +39364,31 @@
     <row r="1222">
       <c r="A1222" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1222" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1222" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Raw Materials Prices MoMDEC</t>
         </is>
       </c>
       <c r="D1222" t="inlineStr"/>
-      <c r="E1222" t="inlineStr"/>
+      <c r="E1222" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
       <c r="F1222" t="inlineStr"/>
-      <c r="G1222" t="inlineStr"/>
+      <c r="G1222" t="inlineStr">
+        <is>
+          <t>1.0%</t>
+        </is>
+      </c>
       <c r="H1222" t="inlineStr">
         <is>
           <t>3</t>
@@ -39976,23 +39398,31 @@
     <row r="1223">
       <c r="A1223" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1223" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1223" t="inlineStr">
         <is>
-          <t>52-Week Bill Auction</t>
+          <t>Raw Materials Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1223" t="inlineStr"/>
-      <c r="E1223" t="inlineStr"/>
+      <c r="E1223" t="inlineStr">
+        <is>
+          <t>2%</t>
+        </is>
+      </c>
       <c r="F1223" t="inlineStr"/>
-      <c r="G1223" t="inlineStr"/>
+      <c r="G1223" t="inlineStr">
+        <is>
+          <t>-2.8%</t>
+        </is>
+      </c>
       <c r="H1223" t="inlineStr">
         <is>
           <t>3</t>
@@ -40002,7 +39432,7 @@
     <row r="1224">
       <c r="A1224" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1224" t="inlineStr">
@@ -40012,11 +39442,15 @@
       </c>
       <c r="C1224" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>CB Leading Index MoMDEC</t>
         </is>
       </c>
       <c r="D1224" t="inlineStr"/>
-      <c r="E1224" t="inlineStr"/>
+      <c r="E1224" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="F1224" t="inlineStr"/>
       <c r="G1224" t="inlineStr"/>
       <c r="H1224" t="inlineStr">
@@ -40028,41 +39462,33 @@
     <row r="1225">
       <c r="A1225" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1225" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1225" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1225" t="inlineStr"/>
-      <c r="E1225" t="inlineStr">
-        <is>
-          <t>88.4</t>
-        </is>
-      </c>
+      <c r="E1225" t="inlineStr"/>
       <c r="F1225" t="inlineStr"/>
-      <c r="G1225" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
+      <c r="G1225" t="inlineStr"/>
       <c r="H1225" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1226">
       <c r="A1226" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1226" t="inlineStr">
@@ -40072,7 +39498,7 @@
       </c>
       <c r="C1226" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/17</t>
+          <t>20-Year Bond Auction</t>
         </is>
       </c>
       <c r="D1226" t="inlineStr"/>
@@ -40081,86 +39507,94 @@
       <c r="G1226" t="inlineStr"/>
       <c r="H1226" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1227">
       <c r="A1227" t="inlineStr">
         <is>
-          <t>Wednesday January 22 2025</t>
-        </is>
-      </c>
-      <c r="B1227" t="inlineStr"/>
-      <c r="C1227" t="inlineStr"/>
+          <t>02:00 PM</t>
+        </is>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>Retail Sales YoYNOV</t>
+        </is>
+      </c>
       <c r="D1227" t="inlineStr"/>
-      <c r="E1227" t="inlineStr"/>
+      <c r="E1227" t="inlineStr">
+        <is>
+          <t>127.1%</t>
+        </is>
+      </c>
       <c r="F1227" t="inlineStr"/>
-      <c r="G1227" t="inlineStr"/>
-      <c r="H1227" t="inlineStr"/>
+      <c r="G1227" t="inlineStr">
+        <is>
+          <t>115.0%</t>
+        </is>
+      </c>
+      <c r="H1227" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1228">
       <c r="A1228" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1228" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1228" t="inlineStr">
         <is>
-          <t>Public Sector Net Borrowing Ex BanksDEC</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1228" t="inlineStr"/>
-      <c r="E1228" t="inlineStr">
-        <is>
-          <t>£-11.25B</t>
-        </is>
-      </c>
+      <c r="E1228" t="inlineStr"/>
       <c r="F1228" t="inlineStr"/>
       <c r="G1228" t="inlineStr">
         <is>
-          <t>£ -11.3B</t>
+          <t>60</t>
         </is>
       </c>
       <c r="H1228" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1229">
       <c r="A1229" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1229" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1229" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>API Crude Oil Stock ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1229" t="inlineStr"/>
-      <c r="E1229" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+      <c r="E1229" t="inlineStr"/>
       <c r="F1229" t="inlineStr"/>
-      <c r="G1229" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G1229" t="inlineStr"/>
       <c r="H1229" t="inlineStr">
         <is>
           <t>2</t>
@@ -40170,29 +39604,29 @@
     <row r="1230">
       <c r="A1230" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1230" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1230" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>GDP Growth Rate QoQ AdvQ4</t>
         </is>
       </c>
       <c r="D1230" t="inlineStr"/>
       <c r="E1230" t="inlineStr">
         <is>
-          <t>2.9%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F1230" t="inlineStr"/>
       <c r="G1230" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1230" t="inlineStr">
@@ -40204,29 +39638,29 @@
     <row r="1231">
       <c r="A1231" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1231" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1231" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMDEC</t>
+          <t>GDP Growth Rate YoY AdvQ4</t>
         </is>
       </c>
       <c r="D1231" t="inlineStr"/>
       <c r="E1231" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="F1231" t="inlineStr"/>
       <c r="G1231" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H1231" t="inlineStr">
@@ -40238,91 +39672,87 @@
     <row r="1232">
       <c r="A1232" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1232" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1232" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D1232" t="inlineStr"/>
       <c r="E1232" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>¥-117.6B</t>
         </is>
       </c>
       <c r="F1232" t="inlineStr"/>
       <c r="G1232" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>¥ 100B</t>
         </is>
       </c>
       <c r="H1232" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1233">
       <c r="A1233" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1233" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1233" t="inlineStr">
         <is>
-          <t>15-Year Bund Auction</t>
+          <t>Exports YoYDEC</t>
         </is>
       </c>
       <c r="D1233" t="inlineStr"/>
-      <c r="E1233" t="inlineStr"/>
+      <c r="E1233" t="inlineStr">
+        <is>
+          <t>3.8%</t>
+        </is>
+      </c>
       <c r="F1233" t="inlineStr"/>
       <c r="G1233" t="inlineStr"/>
       <c r="H1233" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1234">
       <c r="A1234" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1234" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1234" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>Foreign Bond InvestmentJAN/18</t>
         </is>
       </c>
       <c r="D1234" t="inlineStr"/>
-      <c r="E1234" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+      <c r="E1234" t="inlineStr"/>
       <c r="F1234" t="inlineStr"/>
-      <c r="G1234" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G1234" t="inlineStr"/>
       <c r="H1234" t="inlineStr">
         <is>
           <t>3</t>
@@ -40332,23 +39762,23 @@
     <row r="1235">
       <c r="A1235" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1235" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1235" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>Imports YoYDEC</t>
         </is>
       </c>
       <c r="D1235" t="inlineStr"/>
       <c r="E1235" t="inlineStr">
         <is>
-          <t>6.3%</t>
+          <t>-3.8%</t>
         </is>
       </c>
       <c r="F1235" t="inlineStr"/>
@@ -40362,17 +39792,17 @@
     <row r="1236">
       <c r="A1236" t="inlineStr">
         <is>
-          <t>06:10 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1236" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1236" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Stock Investment by ForeignersJAN/18</t>
         </is>
       </c>
       <c r="D1236" t="inlineStr"/>
@@ -40388,49 +39818,57 @@
     <row r="1237">
       <c r="A1237" t="inlineStr">
         <is>
-          <t>06:10 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1237" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1237" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>NAB Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D1237" t="inlineStr"/>
-      <c r="E1237" t="inlineStr"/>
+      <c r="E1237" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
       <c r="F1237" t="inlineStr"/>
-      <c r="G1237" t="inlineStr"/>
+      <c r="G1237" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="H1237" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1238">
       <c r="A1238" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1238" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C1238" t="inlineStr">
         <is>
-          <t>M3 Money Supply YoYJAN/10</t>
+          <t>M2 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D1238" t="inlineStr"/>
       <c r="E1238" t="inlineStr">
         <is>
-          <t>9.3%</t>
+          <t>7%</t>
         </is>
       </c>
       <c r="F1238" t="inlineStr"/>
@@ -40444,17 +39882,17 @@
     <row r="1239">
       <c r="A1239" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B1239" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1239" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJAN/17</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1239" t="inlineStr"/>
@@ -40463,54 +39901,46 @@
       <c r="G1239" t="inlineStr"/>
       <c r="H1239" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1240">
       <c r="A1240" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1240" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1240" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsJAN/17</t>
-        </is>
-      </c>
+          <t>Thursday January 23 2025</t>
+        </is>
+      </c>
+      <c r="B1240" t="inlineStr"/>
+      <c r="C1240" t="inlineStr"/>
       <c r="D1240" t="inlineStr"/>
       <c r="E1240" t="inlineStr"/>
       <c r="F1240" t="inlineStr"/>
       <c r="G1240" t="inlineStr"/>
-      <c r="H1240" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1240" t="inlineStr"/>
     </row>
     <row r="1241">
       <c r="A1241" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1241" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1241" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJAN/17</t>
+          <t>1-Year T-Bill Auction</t>
         </is>
       </c>
       <c r="D1241" t="inlineStr"/>
-      <c r="E1241" t="inlineStr"/>
+      <c r="E1241" t="inlineStr">
+        <is>
+          <t>2.71%</t>
+        </is>
+      </c>
       <c r="F1241" t="inlineStr"/>
       <c r="G1241" t="inlineStr"/>
       <c r="H1241" t="inlineStr">
@@ -40522,23 +39952,31 @@
     <row r="1242">
       <c r="A1242" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1242" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1242" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexJAN/17</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1242" t="inlineStr"/>
-      <c r="E1242" t="inlineStr"/>
+      <c r="E1242" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
       <c r="F1242" t="inlineStr"/>
-      <c r="G1242" t="inlineStr"/>
+      <c r="G1242" t="inlineStr">
+        <is>
+          <t>2.5%</t>
+        </is>
+      </c>
       <c r="H1242" t="inlineStr">
         <is>
           <t>3</t>
@@ -40548,23 +39986,31 @@
     <row r="1243">
       <c r="A1243" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1243" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1243" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexJAN/17</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1243" t="inlineStr"/>
-      <c r="E1243" t="inlineStr"/>
+      <c r="E1243" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
       <c r="F1243" t="inlineStr"/>
-      <c r="G1243" t="inlineStr"/>
+      <c r="G1243" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1243" t="inlineStr">
         <is>
           <t>3</t>
@@ -40574,29 +40020,29 @@
     <row r="1244">
       <c r="A1244" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1244" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1244" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1244" t="inlineStr"/>
       <c r="E1244" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F1244" t="inlineStr"/>
       <c r="G1244" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="H1244" t="inlineStr">
@@ -40608,31 +40054,27 @@
     <row r="1245">
       <c r="A1245" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1245" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1245" t="inlineStr">
         <is>
-          <t>Raw Materials Prices MoMDEC</t>
+          <t>Leading Business Cycle Indicator MoMNOV</t>
         </is>
       </c>
       <c r="D1245" t="inlineStr"/>
       <c r="E1245" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="F1245" t="inlineStr"/>
-      <c r="G1245" t="inlineStr">
-        <is>
-          <t>1.0%</t>
-        </is>
-      </c>
+      <c r="G1245" t="inlineStr"/>
       <c r="H1245" t="inlineStr">
         <is>
           <t>3</t>
@@ -40642,85 +40084,85 @@
     <row r="1246">
       <c r="A1246" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1246" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1246" t="inlineStr">
         <is>
-          <t>Raw Materials Prices YoYDEC</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1246" t="inlineStr"/>
       <c r="E1246" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>81.3</t>
         </is>
       </c>
       <c r="F1246" t="inlineStr"/>
-      <c r="G1246" t="inlineStr">
-        <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
+      <c r="G1246" t="inlineStr"/>
       <c r="H1246" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1247">
       <c r="A1247" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B1247" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1247" t="inlineStr">
         <is>
-          <t>CB Leading Index MoMDEC</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1247" t="inlineStr"/>
       <c r="E1247" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>97</t>
         </is>
       </c>
       <c r="F1247" t="inlineStr"/>
       <c r="G1247" t="inlineStr"/>
       <c r="H1247" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1248">
       <c r="A1248" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B1248" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1248" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>Business Climate IndicatorJAN</t>
         </is>
       </c>
       <c r="D1248" t="inlineStr"/>
-      <c r="E1248" t="inlineStr"/>
+      <c r="E1248" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
       <c r="F1248" t="inlineStr"/>
       <c r="G1248" t="inlineStr"/>
       <c r="H1248" t="inlineStr">
@@ -40732,17 +40174,17 @@
     <row r="1249">
       <c r="A1249" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1249" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1249" t="inlineStr">
         <is>
-          <t>20-Year Bond Auction</t>
+          <t>OAT Auction</t>
         </is>
       </c>
       <c r="D1249" t="inlineStr"/>
@@ -40758,31 +40200,27 @@
     <row r="1250">
       <c r="A1250" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1250" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1250" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>4-Year Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D1250" t="inlineStr"/>
       <c r="E1250" t="inlineStr">
         <is>
-          <t>127.1%</t>
+          <t>4.499%</t>
         </is>
       </c>
       <c r="F1250" t="inlineStr"/>
-      <c r="G1250" t="inlineStr">
-        <is>
-          <t>115.0%</t>
-        </is>
-      </c>
+      <c r="G1250" t="inlineStr"/>
       <c r="H1250" t="inlineStr">
         <is>
           <t>3</t>
@@ -40792,95 +40230,79 @@
     <row r="1251">
       <c r="A1251" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1251" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1251" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>Index-Linked OAT Auction</t>
         </is>
       </c>
       <c r="D1251" t="inlineStr"/>
       <c r="E1251" t="inlineStr"/>
       <c r="F1251" t="inlineStr"/>
-      <c r="G1251" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
+      <c r="G1251" t="inlineStr"/>
       <c r="H1251" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1252">
       <c r="A1252" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1252" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1252" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQ AdvQ4</t>
+          <t>OATi Auction</t>
         </is>
       </c>
       <c r="D1252" t="inlineStr"/>
-      <c r="E1252" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="E1252" t="inlineStr"/>
       <c r="F1252" t="inlineStr"/>
-      <c r="G1252" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1252" t="inlineStr"/>
       <c r="H1252" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1253">
       <c r="A1253" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1253" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1253" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoY AdvQ4</t>
+          <t>Building Permits YoYNOV</t>
         </is>
       </c>
       <c r="D1253" t="inlineStr"/>
       <c r="E1253" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>21.6%</t>
         </is>
       </c>
       <c r="F1253" t="inlineStr"/>
-      <c r="G1253" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
+      <c r="G1253" t="inlineStr"/>
       <c r="H1253" t="inlineStr">
         <is>
           <t>3</t>
@@ -40890,57 +40312,53 @@
     <row r="1254">
       <c r="A1254" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1254" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1254" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Overnight Borrowing RateJAN</t>
         </is>
       </c>
       <c r="D1254" t="inlineStr"/>
       <c r="E1254" t="inlineStr">
         <is>
-          <t>¥-117.6B</t>
+          <t>46%</t>
         </is>
       </c>
       <c r="F1254" t="inlineStr"/>
-      <c r="G1254" t="inlineStr">
-        <is>
-          <t>¥ 100B</t>
-        </is>
-      </c>
+      <c r="G1254" t="inlineStr"/>
       <c r="H1254" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1255">
       <c r="A1255" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1255" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1255" t="inlineStr">
         <is>
-          <t>Exports YoYDEC</t>
+          <t>TCMB Interest Rate Decision</t>
         </is>
       </c>
       <c r="D1255" t="inlineStr"/>
       <c r="E1255" t="inlineStr">
         <is>
-          <t>3.8%</t>
+          <t>47.5%</t>
         </is>
       </c>
       <c r="F1255" t="inlineStr"/>
@@ -40954,21 +40372,25 @@
     <row r="1256">
       <c r="A1256" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1256" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1256" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentJAN/18</t>
+          <t>Overnight Lending RateJAN</t>
         </is>
       </c>
       <c r="D1256" t="inlineStr"/>
-      <c r="E1256" t="inlineStr"/>
+      <c r="E1256" t="inlineStr">
+        <is>
+          <t>49%</t>
+        </is>
+      </c>
       <c r="F1256" t="inlineStr"/>
       <c r="G1256" t="inlineStr"/>
       <c r="H1256" t="inlineStr">
@@ -40980,25 +40402,21 @@
     <row r="1257">
       <c r="A1257" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1257" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1257" t="inlineStr">
         <is>
-          <t>Imports YoYDEC</t>
+          <t>Foreign Exchange ReservesJAN/17</t>
         </is>
       </c>
       <c r="D1257" t="inlineStr"/>
-      <c r="E1257" t="inlineStr">
-        <is>
-          <t>-3.8%</t>
-        </is>
-      </c>
+      <c r="E1257" t="inlineStr"/>
       <c r="F1257" t="inlineStr"/>
       <c r="G1257" t="inlineStr"/>
       <c r="H1257" t="inlineStr">
@@ -41010,21 +40428,25 @@
     <row r="1258">
       <c r="A1258" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1258" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1258" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersJAN/18</t>
+          <t>Mid-month Core Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D1258" t="inlineStr"/>
-      <c r="E1258" t="inlineStr"/>
+      <c r="E1258" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="F1258" t="inlineStr"/>
       <c r="G1258" t="inlineStr"/>
       <c r="H1258" t="inlineStr">
@@ -41036,57 +40458,53 @@
     <row r="1259">
       <c r="A1259" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1259" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1259" t="inlineStr">
         <is>
-          <t>NAB Business ConfidenceDEC</t>
+          <t>Mid-month Core Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D1259" t="inlineStr"/>
       <c r="E1259" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>3.62%</t>
         </is>
       </c>
       <c r="F1259" t="inlineStr"/>
-      <c r="G1259" t="inlineStr">
+      <c r="G1259" t="inlineStr"/>
+      <c r="H1259" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="H1259" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1260">
       <c r="A1260" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1260" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1260" t="inlineStr">
         <is>
-          <t>M2 Money Supply YoYDEC</t>
+          <t>Mid-month Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D1260" t="inlineStr"/>
       <c r="E1260" t="inlineStr">
         <is>
-          <t>7%</t>
+          <t>0.42%</t>
         </is>
       </c>
       <c r="F1260" t="inlineStr"/>
@@ -41100,21 +40518,25 @@
     <row r="1261">
       <c r="A1261" t="inlineStr">
         <is>
-          <t>10:35 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1261" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1261" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Mid-month Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D1261" t="inlineStr"/>
-      <c r="E1261" t="inlineStr"/>
+      <c r="E1261" t="inlineStr">
+        <is>
+          <t>4.44%</t>
+        </is>
+      </c>
       <c r="F1261" t="inlineStr"/>
       <c r="G1261" t="inlineStr"/>
       <c r="H1261" t="inlineStr">
@@ -41126,107 +40548,115 @@
     <row r="1262">
       <c r="A1262" t="inlineStr">
         <is>
-          <t>Thursday January 23 2025</t>
-        </is>
-      </c>
-      <c r="B1262" t="inlineStr"/>
-      <c r="C1262" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B1262" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C1262" t="inlineStr">
+        <is>
+          <t>Retail Sales Ex Autos MoMNOV</t>
+        </is>
+      </c>
       <c r="D1262" t="inlineStr"/>
       <c r="E1262" t="inlineStr"/>
       <c r="F1262" t="inlineStr"/>
       <c r="G1262" t="inlineStr"/>
-      <c r="H1262" t="inlineStr"/>
+      <c r="H1262" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1263">
       <c r="A1263" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1263" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1263" t="inlineStr">
         <is>
-          <t>1-Year T-Bill Auction</t>
+          <t>Retail Sales MoM FinalNOV</t>
         </is>
       </c>
       <c r="D1263" t="inlineStr"/>
       <c r="E1263" t="inlineStr">
         <is>
-          <t>2.71%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="F1263" t="inlineStr"/>
-      <c r="G1263" t="inlineStr"/>
+      <c r="G1263" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
       <c r="H1263" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1264">
       <c r="A1264" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1264" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1264" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>Retail Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1264" t="inlineStr"/>
-      <c r="E1264" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="E1264" t="inlineStr"/>
       <c r="F1264" t="inlineStr"/>
-      <c r="G1264" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
+      <c r="G1264" t="inlineStr"/>
       <c r="H1264" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1265">
       <c r="A1265" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1265" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1265" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1265" t="inlineStr"/>
       <c r="E1265" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="F1265" t="inlineStr"/>
       <c r="G1265" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="H1265" t="inlineStr">
@@ -41238,59 +40668,47 @@
     <row r="1266">
       <c r="A1266" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1266" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1266" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Initial Jobless ClaimsJAN/18</t>
         </is>
       </c>
       <c r="D1266" t="inlineStr"/>
-      <c r="E1266" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+      <c r="E1266" t="inlineStr"/>
       <c r="F1266" t="inlineStr"/>
-      <c r="G1266" t="inlineStr">
-        <is>
-          <t>1.8%</t>
-        </is>
-      </c>
+      <c r="G1266" t="inlineStr"/>
       <c r="H1266" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1267">
       <c r="A1267" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1267" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1267" t="inlineStr">
         <is>
-          <t>Leading Business Cycle Indicator MoMNOV</t>
+          <t>Continuing Jobless ClaimsJAN/11</t>
         </is>
       </c>
       <c r="D1267" t="inlineStr"/>
-      <c r="E1267" t="inlineStr">
-        <is>
-          <t>1.1%</t>
-        </is>
-      </c>
+      <c r="E1267" t="inlineStr"/>
       <c r="F1267" t="inlineStr"/>
       <c r="G1267" t="inlineStr"/>
       <c r="H1267" t="inlineStr">
@@ -41302,488 +40720,76 @@
     <row r="1268">
       <c r="A1268" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1268" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1268" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>Jobless Claims 4-week AverageJAN/18</t>
         </is>
       </c>
       <c r="D1268" t="inlineStr"/>
-      <c r="E1268" t="inlineStr">
-        <is>
-          <t>81.3</t>
-        </is>
-      </c>
+      <c r="E1268" t="inlineStr"/>
       <c r="F1268" t="inlineStr"/>
       <c r="G1268" t="inlineStr"/>
       <c r="H1268" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1269">
-      <c r="A1269" t="inlineStr">
-        <is>
-          <t>02:45 AM</t>
-        </is>
-      </c>
+      <c r="A1269" t="inlineStr"/>
       <c r="B1269" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1269" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>20-Year KTB Auction</t>
         </is>
       </c>
       <c r="D1269" t="inlineStr"/>
       <c r="E1269" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>2.750%</t>
         </is>
       </c>
       <c r="F1269" t="inlineStr"/>
       <c r="G1269" t="inlineStr"/>
       <c r="H1269" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1270">
-      <c r="A1270" t="inlineStr">
-        <is>
-          <t>02:45 AM</t>
-        </is>
-      </c>
+      <c r="A1270" t="inlineStr"/>
       <c r="B1270" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1270" t="inlineStr">
         <is>
-          <t>Business Climate IndicatorJAN</t>
+          <t>Federal Tax RevenuesDEC</t>
         </is>
       </c>
       <c r="D1270" t="inlineStr"/>
-      <c r="E1270" t="inlineStr">
-        <is>
-          <t>94</t>
-        </is>
-      </c>
+      <c r="E1270" t="inlineStr"/>
       <c r="F1270" t="inlineStr"/>
-      <c r="G1270" t="inlineStr"/>
+      <c r="G1270" t="inlineStr">
+        <is>
+          <t>BRL 255.1B</t>
+        </is>
+      </c>
       <c r="H1270" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1271">
-      <c r="A1271" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B1271" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C1271" t="inlineStr">
-        <is>
-          <t>OAT Auction</t>
-        </is>
-      </c>
-      <c r="D1271" t="inlineStr"/>
-      <c r="E1271" t="inlineStr"/>
-      <c r="F1271" t="inlineStr"/>
-      <c r="G1271" t="inlineStr"/>
-      <c r="H1271" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1272">
-      <c r="A1272" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B1272" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C1272" t="inlineStr">
-        <is>
-          <t>4-Year Treasury Gilt Auction</t>
-        </is>
-      </c>
-      <c r="D1272" t="inlineStr"/>
-      <c r="E1272" t="inlineStr">
-        <is>
-          <t>4.499%</t>
-        </is>
-      </c>
-      <c r="F1272" t="inlineStr"/>
-      <c r="G1272" t="inlineStr"/>
-      <c r="H1272" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1273">
-      <c r="A1273" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1273" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C1273" t="inlineStr">
-        <is>
-          <t>Index-Linked OAT Auction</t>
-        </is>
-      </c>
-      <c r="D1273" t="inlineStr"/>
-      <c r="E1273" t="inlineStr"/>
-      <c r="F1273" t="inlineStr"/>
-      <c r="G1273" t="inlineStr"/>
-      <c r="H1273" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1274">
-      <c r="A1274" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1274" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C1274" t="inlineStr">
-        <is>
-          <t>OATi Auction</t>
-        </is>
-      </c>
-      <c r="D1274" t="inlineStr"/>
-      <c r="E1274" t="inlineStr"/>
-      <c r="F1274" t="inlineStr"/>
-      <c r="G1274" t="inlineStr"/>
-      <c r="H1274" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1275">
-      <c r="A1275" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1275" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1275" t="inlineStr">
-        <is>
-          <t>Building Permits YoYNOV</t>
-        </is>
-      </c>
-      <c r="D1275" t="inlineStr"/>
-      <c r="E1275" t="inlineStr">
-        <is>
-          <t>21.6%</t>
-        </is>
-      </c>
-      <c r="F1275" t="inlineStr"/>
-      <c r="G1275" t="inlineStr"/>
-      <c r="H1275" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1276">
-      <c r="A1276" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1276" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C1276" t="inlineStr">
-        <is>
-          <t>Overnight Borrowing RateJAN</t>
-        </is>
-      </c>
-      <c r="D1276" t="inlineStr"/>
-      <c r="E1276" t="inlineStr">
-        <is>
-          <t>46%</t>
-        </is>
-      </c>
-      <c r="F1276" t="inlineStr"/>
-      <c r="G1276" t="inlineStr"/>
-      <c r="H1276" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1277">
-      <c r="A1277" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1277" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C1277" t="inlineStr">
-        <is>
-          <t>TCMB Interest Rate Decision</t>
-        </is>
-      </c>
-      <c r="D1277" t="inlineStr"/>
-      <c r="E1277" t="inlineStr">
-        <is>
-          <t>47.5%</t>
-        </is>
-      </c>
-      <c r="F1277" t="inlineStr"/>
-      <c r="G1277" t="inlineStr"/>
-      <c r="H1277" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1278">
-      <c r="A1278" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1278" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C1278" t="inlineStr">
-        <is>
-          <t>Overnight Lending RateJAN</t>
-        </is>
-      </c>
-      <c r="D1278" t="inlineStr"/>
-      <c r="E1278" t="inlineStr">
-        <is>
-          <t>49%</t>
-        </is>
-      </c>
-      <c r="F1278" t="inlineStr"/>
-      <c r="G1278" t="inlineStr"/>
-      <c r="H1278" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1279">
-      <c r="A1279" t="inlineStr">
-        <is>
-          <t>06:30 AM</t>
-        </is>
-      </c>
-      <c r="B1279" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C1279" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN/17</t>
-        </is>
-      </c>
-      <c r="D1279" t="inlineStr"/>
-      <c r="E1279" t="inlineStr"/>
-      <c r="F1279" t="inlineStr"/>
-      <c r="G1279" t="inlineStr"/>
-      <c r="H1279" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1280">
-      <c r="A1280" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1280" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C1280" t="inlineStr">
-        <is>
-          <t>Mid-month Core Inflation Rate MoMJAN</t>
-        </is>
-      </c>
-      <c r="D1280" t="inlineStr"/>
-      <c r="E1280" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F1280" t="inlineStr"/>
-      <c r="G1280" t="inlineStr"/>
-      <c r="H1280" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1281">
-      <c r="A1281" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1281" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C1281" t="inlineStr">
-        <is>
-          <t>Mid-month Core Inflation Rate YoYJAN</t>
-        </is>
-      </c>
-      <c r="D1281" t="inlineStr"/>
-      <c r="E1281" t="inlineStr">
-        <is>
-          <t>3.62%</t>
-        </is>
-      </c>
-      <c r="F1281" t="inlineStr"/>
-      <c r="G1281" t="inlineStr"/>
-      <c r="H1281" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1282">
-      <c r="A1282" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1282" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C1282" t="inlineStr">
-        <is>
-          <t>Mid-month Inflation Rate MoMJAN</t>
-        </is>
-      </c>
-      <c r="D1282" t="inlineStr"/>
-      <c r="E1282" t="inlineStr">
-        <is>
-          <t>0.42%</t>
-        </is>
-      </c>
-      <c r="F1282" t="inlineStr"/>
-      <c r="G1282" t="inlineStr"/>
-      <c r="H1282" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1283">
-      <c r="A1283" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1283" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C1283" t="inlineStr">
-        <is>
-          <t>Mid-month Inflation Rate YoYJAN</t>
-        </is>
-      </c>
-      <c r="D1283" t="inlineStr"/>
-      <c r="E1283" t="inlineStr">
-        <is>
-          <t>4.44%</t>
-        </is>
-      </c>
-      <c r="F1283" t="inlineStr"/>
-      <c r="G1283" t="inlineStr"/>
-      <c r="H1283" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1284">
-      <c r="A1284" t="inlineStr"/>
-      <c r="B1284" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C1284" t="inlineStr">
-        <is>
-          <t>20-Year KTB Auction</t>
-        </is>
-      </c>
-      <c r="D1284" t="inlineStr"/>
-      <c r="E1284" t="inlineStr">
-        <is>
-          <t>2.750%</t>
-        </is>
-      </c>
-      <c r="F1284" t="inlineStr"/>
-      <c r="G1284" t="inlineStr"/>
-      <c r="H1284" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-23.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1293"/>
+  <dimension ref="A1:H1281"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28737,10 +28737,8 @@
       </c>
       <c r="F879" t="inlineStr"/>
       <c r="G879" t="inlineStr"/>
-      <c r="H879" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H879" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="880">
@@ -28775,10 +28773,8 @@
           <t>6.4%</t>
         </is>
       </c>
-      <c r="H880" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H880" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="881">
@@ -28813,10 +28809,8 @@
           <t>-19.0%</t>
         </is>
       </c>
-      <c r="H881" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H881" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="882">
@@ -28851,10 +28845,8 @@
           <t>-4.0%</t>
         </is>
       </c>
-      <c r="H882" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H882" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="883">
@@ -28893,10 +28885,8 @@
           <t>$-3.4B</t>
         </is>
       </c>
-      <c r="H883" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H883" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="884">
@@ -28931,10 +28921,8 @@
           <t>0%</t>
         </is>
       </c>
-      <c r="H884" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H884" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="885">
@@ -28969,10 +28957,8 @@
           <t>14.1%</t>
         </is>
       </c>
-      <c r="H885" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H885" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="886">
@@ -29003,10 +28989,8 @@
       </c>
       <c r="F886" t="inlineStr"/>
       <c r="G886" t="inlineStr"/>
-      <c r="H886" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H886" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="887">
@@ -29037,10 +29021,8 @@
       </c>
       <c r="F887" t="inlineStr"/>
       <c r="G887" t="inlineStr"/>
-      <c r="H887" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H887" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="888">
@@ -29071,10 +29053,8 @@
       </c>
       <c r="F888" t="inlineStr"/>
       <c r="G888" t="inlineStr"/>
-      <c r="H888" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H888" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="889">
@@ -29113,10 +29093,8 @@
           <t>5.2%</t>
         </is>
       </c>
-      <c r="H889" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H889" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="890">
@@ -29151,10 +29129,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H890" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H890" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="891">
@@ -29185,10 +29161,8 @@
       </c>
       <c r="F891" t="inlineStr"/>
       <c r="G891" t="inlineStr"/>
-      <c r="H891" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H891" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="892">
@@ -29219,10 +29193,8 @@
       </c>
       <c r="F892" t="inlineStr"/>
       <c r="G892" t="inlineStr"/>
-      <c r="H892" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H892" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="893">
@@ -29253,10 +29225,8 @@
       </c>
       <c r="F893" t="inlineStr"/>
       <c r="G893" t="inlineStr"/>
-      <c r="H893" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H893" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="894">
@@ -29287,10 +29257,8 @@
       </c>
       <c r="F894" t="inlineStr"/>
       <c r="G894" t="inlineStr"/>
-      <c r="H894" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H894" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="895">
@@ -29321,10 +29289,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H895" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H895" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="896">
@@ -29351,10 +29317,8 @@
       </c>
       <c r="F896" t="inlineStr"/>
       <c r="G896" t="inlineStr"/>
-      <c r="H896" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H896" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="897">
@@ -29381,10 +29345,8 @@
       </c>
       <c r="F897" t="inlineStr"/>
       <c r="G897" t="inlineStr"/>
-      <c r="H897" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H897" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="898">
@@ -29419,10 +29381,8 @@
           <t>$-220.0B</t>
         </is>
       </c>
-      <c r="H898" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H898" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="899">
@@ -29449,10 +29409,8 @@
       </c>
       <c r="F899" t="inlineStr"/>
       <c r="G899" t="inlineStr"/>
-      <c r="H899" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H899" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="900">
@@ -29479,10 +29437,8 @@
       </c>
       <c r="F900" t="inlineStr"/>
       <c r="G900" t="inlineStr"/>
-      <c r="H900" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H900" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="901">
@@ -29517,10 +29473,8 @@
           <t>¥1990.0B</t>
         </is>
       </c>
-      <c r="H901" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H901" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="902">
@@ -29555,10 +29509,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H902" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H902" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="903">
@@ -29589,10 +29541,8 @@
         </is>
       </c>
       <c r="G903" t="inlineStr"/>
-      <c r="H903" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H903" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="904">
@@ -29623,10 +29573,8 @@
         </is>
       </c>
       <c r="G904" t="inlineStr"/>
-      <c r="H904" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H904" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="905">
@@ -29653,10 +29601,8 @@
       </c>
       <c r="F905" t="inlineStr"/>
       <c r="G905" t="inlineStr"/>
-      <c r="H905" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H905" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="906">
@@ -29687,10 +29633,8 @@
           <t>CNY690.0B</t>
         </is>
       </c>
-      <c r="H906" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H906" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="907">
@@ -29717,10 +29661,8 @@
         </is>
       </c>
       <c r="G907" t="inlineStr"/>
-      <c r="H907" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H907" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="908">
@@ -29751,10 +29693,8 @@
           <t>7.5%</t>
         </is>
       </c>
-      <c r="H908" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H908" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="909">
@@ -29785,10 +29725,8 @@
           <t>CNY1850.0B</t>
         </is>
       </c>
-      <c r="H909" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H909" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="910">
@@ -29807,10 +29745,8 @@
       <c r="E910" t="inlineStr"/>
       <c r="F910" t="inlineStr"/>
       <c r="G910" t="inlineStr"/>
-      <c r="H910" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H910" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="911">
@@ -29859,10 +29795,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H912" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H912" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="913">
@@ -29893,10 +29827,8 @@
           <t>49.6</t>
         </is>
       </c>
-      <c r="H913" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H913" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="914">
@@ -29923,10 +29855,8 @@
       </c>
       <c r="F914" t="inlineStr"/>
       <c r="G914" t="inlineStr"/>
-      <c r="H914" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H914" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="915">
@@ -29953,10 +29883,8 @@
       </c>
       <c r="F915" t="inlineStr"/>
       <c r="G915" t="inlineStr"/>
-      <c r="H915" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H915" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="916">
@@ -29987,10 +29915,8 @@
           <t>10.2%</t>
         </is>
       </c>
-      <c r="H916" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H916" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="917">
@@ -30021,10 +29947,8 @@
           <t>-3.2%</t>
         </is>
       </c>
-      <c r="H917" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H917" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="918">
@@ -30059,10 +29983,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H918" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H918" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="919">
@@ -30093,10 +30015,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H919" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H919" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="920">
@@ -30119,10 +30039,8 @@
       <c r="E920" t="inlineStr"/>
       <c r="F920" t="inlineStr"/>
       <c r="G920" t="inlineStr"/>
-      <c r="H920" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H920" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="921">
@@ -30153,10 +30071,8 @@
           <t>€-162.0B</t>
         </is>
       </c>
-      <c r="H921" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H921" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="922">
@@ -30179,10 +30095,8 @@
       <c r="E922" t="inlineStr"/>
       <c r="F922" t="inlineStr"/>
       <c r="G922" t="inlineStr"/>
-      <c r="H922" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H922" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="923">
@@ -30217,10 +30131,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H923" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H923" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="924">
@@ -30251,10 +30163,8 @@
           <t>-3.3%</t>
         </is>
       </c>
-      <c r="H924" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H924" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="925">
@@ -30281,10 +30191,8 @@
       </c>
       <c r="F925" t="inlineStr"/>
       <c r="G925" t="inlineStr"/>
-      <c r="H925" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H925" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="926">
@@ -30311,10 +30219,8 @@
       </c>
       <c r="F926" t="inlineStr"/>
       <c r="G926" t="inlineStr"/>
-      <c r="H926" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H926" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="927">
@@ -30341,10 +30247,8 @@
       </c>
       <c r="F927" t="inlineStr"/>
       <c r="G927" t="inlineStr"/>
-      <c r="H927" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H927" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="928">
@@ -30371,10 +30275,8 @@
       </c>
       <c r="F928" t="inlineStr"/>
       <c r="G928" t="inlineStr"/>
-      <c r="H928" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H928" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="929">
@@ -30397,10 +30299,8 @@
       <c r="E929" t="inlineStr"/>
       <c r="F929" t="inlineStr"/>
       <c r="G929" t="inlineStr"/>
-      <c r="H929" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H929" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="930">
@@ -30435,10 +30335,8 @@
           <t>102</t>
         </is>
       </c>
-      <c r="H930" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H930" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="931">
@@ -30469,10 +30367,8 @@
           <t>$615.0B</t>
         </is>
       </c>
-      <c r="H931" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H931" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="932">
@@ -30507,10 +30403,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H932" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H932" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="933">
@@ -30545,10 +30439,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H933" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H933" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="934">
@@ -30583,10 +30475,8 @@
           <t>3.5%</t>
         </is>
       </c>
-      <c r="H934" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H934" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="935">
@@ -30617,10 +30507,8 @@
           <t>146.8</t>
         </is>
       </c>
-      <c r="H935" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H935" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="936">
@@ -30651,10 +30539,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H936" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H936" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="937">
@@ -30685,10 +30571,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H937" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H937" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="938">
@@ -30723,10 +30607,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H938" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H938" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="939">
@@ -30753,10 +30635,8 @@
       </c>
       <c r="F939" t="inlineStr"/>
       <c r="G939" t="inlineStr"/>
-      <c r="H939" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H939" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="940">
@@ -30779,10 +30659,8 @@
       <c r="E940" t="inlineStr"/>
       <c r="F940" t="inlineStr"/>
       <c r="G940" t="inlineStr"/>
-      <c r="H940" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H940" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="941">
@@ -30817,10 +30695,8 @@
           <t>54.2</t>
         </is>
       </c>
-      <c r="H941" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H941" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="942">
@@ -30847,10 +30723,8 @@
       </c>
       <c r="F942" t="inlineStr"/>
       <c r="G942" t="inlineStr"/>
-      <c r="H942" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H942" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="943">
@@ -30885,10 +30759,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H943" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H943" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="944">
@@ -30923,10 +30795,8 @@
           <t>116.0%</t>
         </is>
       </c>
-      <c r="H944" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H944" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="945">
@@ -30949,10 +30819,8 @@
       <c r="E945" t="inlineStr"/>
       <c r="F945" t="inlineStr"/>
       <c r="G945" t="inlineStr"/>
-      <c r="H945" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H945" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="946">
@@ -30983,10 +30851,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H946" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H946" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="947">
@@ -31017,10 +30883,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H947" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H947" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="948">
@@ -31047,10 +30911,8 @@
       </c>
       <c r="F948" t="inlineStr"/>
       <c r="G948" t="inlineStr"/>
-      <c r="H948" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H948" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="949">
@@ -31081,10 +30943,8 @@
           <t>3</t>
         </is>
       </c>
-      <c r="H949" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H949" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="950">
@@ -31107,10 +30967,8 @@
       <c r="E950" t="inlineStr"/>
       <c r="F950" t="inlineStr"/>
       <c r="G950" t="inlineStr"/>
-      <c r="H950" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H950" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="951">
@@ -31145,10 +31003,8 @@
           <t>$ 3.7B</t>
         </is>
       </c>
-      <c r="H951" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H951" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="952">
@@ -31179,10 +31035,8 @@
         </is>
       </c>
       <c r="G952" t="inlineStr"/>
-      <c r="H952" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H952" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="953">
@@ -31213,10 +31067,8 @@
         </is>
       </c>
       <c r="G953" t="inlineStr"/>
-      <c r="H953" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H953" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="954">
@@ -31239,10 +31091,8 @@
       </c>
       <c r="F954" t="inlineStr"/>
       <c r="G954" t="inlineStr"/>
-      <c r="H954" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H954" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="955">
@@ -31269,10 +31119,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H955" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H955" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="956">
@@ -31299,10 +31147,8 @@
           <t>-2.5%</t>
         </is>
       </c>
-      <c r="H956" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H956" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="957">
@@ -31325,10 +31171,8 @@
       </c>
       <c r="F957" t="inlineStr"/>
       <c r="G957" t="inlineStr"/>
-      <c r="H957" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H957" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="958">
@@ -31377,10 +31221,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H959" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H959" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="960">
@@ -31415,10 +31257,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H960" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H960" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="961">
@@ -31449,10 +31289,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H961" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H961" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="962">
@@ -31487,10 +31325,8 @@
           <t>2.7%</t>
         </is>
       </c>
-      <c r="H962" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H962" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="963">
@@ -31525,10 +31361,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H963" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H963" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="964">
@@ -31563,10 +31397,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H964" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H964" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="965">
@@ -31601,10 +31433,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H965" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H965" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="966">
@@ -31635,10 +31465,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H966" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H966" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="967">
@@ -31669,10 +31497,8 @@
           <t>2.1%</t>
         </is>
       </c>
-      <c r="H967" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H967" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="968">
@@ -31707,10 +31533,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H968" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H968" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="969">
@@ -31741,10 +31565,8 @@
           <t>-1%</t>
         </is>
       </c>
-      <c r="H969" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H969" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="970">
@@ -31779,10 +31601,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H970" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H970" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="971">
@@ -31813,10 +31633,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H971" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H971" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="972">
@@ -31851,10 +31669,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H972" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H972" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="973">
@@ -31889,10 +31705,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H973" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H973" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="974">
@@ -31923,10 +31737,8 @@
           <t>10%</t>
         </is>
       </c>
-      <c r="H974" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H974" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="975">
@@ -31961,10 +31773,8 @@
           <t>6%</t>
         </is>
       </c>
-      <c r="H975" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H975" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="976">
@@ -31999,10 +31809,8 @@
           <t>5.25%</t>
         </is>
       </c>
-      <c r="H976" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H976" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="977">
@@ -32037,10 +31845,8 @@
           <t>6.75%</t>
         </is>
       </c>
-      <c r="H977" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H977" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="978">
@@ -32075,10 +31881,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H978" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H978" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="979">
@@ -32113,10 +31917,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H979" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H979" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="980">
@@ -32151,10 +31953,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H980" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H980" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="981">
@@ -32189,10 +31989,8 @@
           <t>1.8%</t>
         </is>
       </c>
-      <c r="H981" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H981" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="982">
@@ -32215,10 +32013,8 @@
       <c r="E982" t="inlineStr"/>
       <c r="F982" t="inlineStr"/>
       <c r="G982" t="inlineStr"/>
-      <c r="H982" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H982" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="983">
@@ -32253,10 +32049,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H983" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H983" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="984">
@@ -32291,10 +32085,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H984" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H984" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="985">
@@ -32329,10 +32121,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H985" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H985" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="986">
@@ -32367,10 +32157,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H986" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H986" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="987">
@@ -32405,10 +32193,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H987" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H987" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="988">
@@ -32431,10 +32217,8 @@
       <c r="E988" t="inlineStr"/>
       <c r="F988" t="inlineStr"/>
       <c r="G988" t="inlineStr"/>
-      <c r="H988" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H988" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="989">
@@ -32469,10 +32253,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H989" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H989" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="990">
@@ -32507,10 +32289,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H990" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H990" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="991">
@@ -32545,10 +32325,8 @@
           <t>-1.5%</t>
         </is>
       </c>
-      <c r="H991" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H991" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="992">
@@ -32575,10 +32353,8 @@
       </c>
       <c r="F992" t="inlineStr"/>
       <c r="G992" t="inlineStr"/>
-      <c r="H992" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H992" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="993">
@@ -32605,10 +32381,8 @@
       </c>
       <c r="F993" t="inlineStr"/>
       <c r="G993" t="inlineStr"/>
-      <c r="H993" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H993" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="994">
@@ -32639,10 +32413,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H994" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H994" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="995">
@@ -32673,10 +32445,8 @@
           <t>-5.0%</t>
         </is>
       </c>
-      <c r="H995" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H995" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="996">
@@ -32703,10 +32473,8 @@
       </c>
       <c r="F996" t="inlineStr"/>
       <c r="G996" t="inlineStr"/>
-      <c r="H996" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H996" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="997">
@@ -32733,10 +32501,8 @@
       </c>
       <c r="F997" t="inlineStr"/>
       <c r="G997" t="inlineStr"/>
-      <c r="H997" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H997" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="998">
@@ -32763,10 +32529,8 @@
       </c>
       <c r="F998" t="inlineStr"/>
       <c r="G998" t="inlineStr"/>
-      <c r="H998" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H998" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="999">
@@ -32793,10 +32557,8 @@
       </c>
       <c r="F999" t="inlineStr"/>
       <c r="G999" t="inlineStr"/>
-      <c r="H999" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H999" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1000">
@@ -32823,10 +32585,8 @@
       </c>
       <c r="F1000" t="inlineStr"/>
       <c r="G1000" t="inlineStr"/>
-      <c r="H1000" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1000" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1001">
@@ -32861,10 +32621,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1001" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1001" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1002">
@@ -32891,10 +32649,8 @@
       </c>
       <c r="F1002" t="inlineStr"/>
       <c r="G1002" t="inlineStr"/>
-      <c r="H1002" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1002" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1003">
@@ -32929,10 +32685,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H1003" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1003" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1004">
@@ -32967,10 +32721,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1004" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1004" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1005">
@@ -33005,10 +32757,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H1005" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1005" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1006">
@@ -33043,10 +32793,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1006" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1006" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1007">
@@ -33081,10 +32829,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H1007" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1007" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1008">
@@ -33115,10 +32861,8 @@
           <t>315.6</t>
         </is>
       </c>
-      <c r="H1008" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1008" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1009">
@@ -33149,10 +32893,8 @@
           <t>317.4</t>
         </is>
       </c>
-      <c r="H1009" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1009" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1010">
@@ -33187,10 +32929,8 @@
           <t>3.1</t>
         </is>
       </c>
-      <c r="H1010" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1010" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1011">
@@ -33213,10 +32953,8 @@
       <c r="E1011" t="inlineStr"/>
       <c r="F1011" t="inlineStr"/>
       <c r="G1011" t="inlineStr"/>
-      <c r="H1011" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1011" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1012">
@@ -33239,10 +32977,8 @@
       <c r="E1012" t="inlineStr"/>
       <c r="F1012" t="inlineStr"/>
       <c r="G1012" t="inlineStr"/>
-      <c r="H1012" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1012" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1013">
@@ -33269,10 +33005,8 @@
       </c>
       <c r="F1013" t="inlineStr"/>
       <c r="G1013" t="inlineStr"/>
-      <c r="H1013" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1013" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1014">
@@ -33299,10 +33033,8 @@
       </c>
       <c r="F1014" t="inlineStr"/>
       <c r="G1014" t="inlineStr"/>
-      <c r="H1014" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1014" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1015">
@@ -33329,10 +33061,8 @@
       </c>
       <c r="F1015" t="inlineStr"/>
       <c r="G1015" t="inlineStr"/>
-      <c r="H1015" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1015" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1016">
@@ -33359,10 +33089,8 @@
       </c>
       <c r="F1016" t="inlineStr"/>
       <c r="G1016" t="inlineStr"/>
-      <c r="H1016" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1016" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1017">
@@ -33389,10 +33117,8 @@
       </c>
       <c r="F1017" t="inlineStr"/>
       <c r="G1017" t="inlineStr"/>
-      <c r="H1017" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1017" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1018">
@@ -33419,10 +33145,8 @@
       </c>
       <c r="F1018" t="inlineStr"/>
       <c r="G1018" t="inlineStr"/>
-      <c r="H1018" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1018" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1019">
@@ -33449,10 +33173,8 @@
       </c>
       <c r="F1019" t="inlineStr"/>
       <c r="G1019" t="inlineStr"/>
-      <c r="H1019" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1019" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1020">
@@ -33479,10 +33201,8 @@
       </c>
       <c r="F1020" t="inlineStr"/>
       <c r="G1020" t="inlineStr"/>
-      <c r="H1020" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1020" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1021">
@@ -33509,10 +33229,8 @@
       </c>
       <c r="F1021" t="inlineStr"/>
       <c r="G1021" t="inlineStr"/>
-      <c r="H1021" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1021" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1022">
@@ -33547,10 +33265,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1022" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1022" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1023">
@@ -33585,10 +33301,8 @@
           <t>9.5%</t>
         </is>
       </c>
-      <c r="H1023" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1023" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1024">
@@ -33611,10 +33325,8 @@
       <c r="E1024" t="inlineStr"/>
       <c r="F1024" t="inlineStr"/>
       <c r="G1024" t="inlineStr"/>
-      <c r="H1024" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1024" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1025">
@@ -33641,10 +33353,8 @@
       </c>
       <c r="F1025" t="inlineStr"/>
       <c r="G1025" t="inlineStr"/>
-      <c r="H1025" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1025" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1026">
@@ -33675,10 +33385,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H1026" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1026" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1027">
@@ -33705,10 +33413,8 @@
       </c>
       <c r="F1027" t="inlineStr"/>
       <c r="G1027" t="inlineStr"/>
-      <c r="H1027" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1027" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1028">
@@ -33731,10 +33437,8 @@
       <c r="E1028" t="inlineStr"/>
       <c r="F1028" t="inlineStr"/>
       <c r="G1028" t="inlineStr"/>
-      <c r="H1028" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1028" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1029">
@@ -33757,10 +33461,8 @@
       <c r="E1029" t="inlineStr"/>
       <c r="F1029" t="inlineStr"/>
       <c r="G1029" t="inlineStr"/>
-      <c r="H1029" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1029" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1030">
@@ -33783,10 +33485,8 @@
       <c r="E1030" t="inlineStr"/>
       <c r="F1030" t="inlineStr"/>
       <c r="G1030" t="inlineStr"/>
-      <c r="H1030" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1030" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1031">
@@ -33817,10 +33517,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H1031" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1031" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1032">
@@ -33855,10 +33553,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1032" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1032" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1033">
@@ -33893,10 +33589,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H1033" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1033" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1034">
@@ -33931,10 +33625,8 @@
           <t>26.0%</t>
         </is>
       </c>
-      <c r="H1034" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1034" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1035">
@@ -33969,10 +33661,8 @@
           <t>3.9%</t>
         </is>
       </c>
-      <c r="H1035" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1035" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1036">
@@ -34007,10 +33697,8 @@
           <t>25.1K</t>
         </is>
       </c>
-      <c r="H1036" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1036" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1037">
@@ -34037,10 +33725,8 @@
       </c>
       <c r="F1037" t="inlineStr"/>
       <c r="G1037" t="inlineStr"/>
-      <c r="H1037" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1037" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1038">
@@ -34067,10 +33753,8 @@
       </c>
       <c r="F1038" t="inlineStr"/>
       <c r="G1038" t="inlineStr"/>
-      <c r="H1038" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1038" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1039">
@@ -34105,10 +33789,8 @@
           <t>66.8%</t>
         </is>
       </c>
-      <c r="H1039" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1039" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1040">
@@ -34143,10 +33825,8 @@
           <t>2.75%</t>
         </is>
       </c>
-      <c r="H1040" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1040" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1041">
@@ -34173,10 +33853,8 @@
       </c>
       <c r="F1041" t="inlineStr"/>
       <c r="G1041" t="inlineStr"/>
-      <c r="H1041" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1041" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1042">
@@ -34203,10 +33881,8 @@
       </c>
       <c r="F1042" t="inlineStr"/>
       <c r="G1042" t="inlineStr"/>
-      <c r="H1042" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1042" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1043">
@@ -34233,10 +33909,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1043" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1043" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1044">
@@ -34263,10 +33937,8 @@
           <t>2%</t>
         </is>
       </c>
-      <c r="H1044" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1044" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1045">
@@ -34293,10 +33965,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H1045" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1045" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1046">
@@ -34319,10 +33989,8 @@
       </c>
       <c r="F1046" t="inlineStr"/>
       <c r="G1046" t="inlineStr"/>
-      <c r="H1046" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1046" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1047">
@@ -34341,10 +34009,8 @@
       <c r="E1047" t="inlineStr"/>
       <c r="F1047" t="inlineStr"/>
       <c r="G1047" t="inlineStr"/>
-      <c r="H1047" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1047" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1048">
@@ -34371,10 +34037,8 @@
           <t>$ -38.0B</t>
         </is>
       </c>
-      <c r="H1048" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1048" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1049">
@@ -34401,10 +34065,8 @@
           <t>$ 32.5B</t>
         </is>
       </c>
-      <c r="H1049" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1049" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1050">
@@ -34431,10 +34093,8 @@
           <t>$ 70.5B</t>
         </is>
       </c>
-      <c r="H1050" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1050" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1051">
@@ -34475,10 +34135,8 @@
       </c>
       <c r="F1052" t="inlineStr"/>
       <c r="G1052" t="inlineStr"/>
-      <c r="H1052" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1052" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1053">
@@ -34513,10 +34171,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1053" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1053" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1054">
@@ -34551,10 +34207,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H1054" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1054" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1055">
@@ -34589,10 +34243,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H1055" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1055" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1056">
@@ -34627,10 +34279,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H1056" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1056" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1057">
@@ -34665,10 +34315,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1057" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1057" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1058">
@@ -34699,10 +34347,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1058" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1058" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1059">
@@ -34737,10 +34383,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1059" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1059" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1060">
@@ -34775,10 +34419,8 @@
           <t>£-17.0B</t>
         </is>
       </c>
-      <c r="H1060" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1060" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1061">
@@ -34809,10 +34451,8 @@
           <t>£-6.8B</t>
         </is>
       </c>
-      <c r="H1061" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1061" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1062">
@@ -34847,10 +34487,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1062" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1062" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1063">
@@ -34885,10 +34523,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1063" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1063" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1064">
@@ -34919,10 +34555,8 @@
           <t>£-3.9B</t>
         </is>
       </c>
-      <c r="H1064" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1064" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1065">
@@ -34953,10 +34587,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1065" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1065" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1066">
@@ -34991,10 +34623,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H1066" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1066" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1067">
@@ -35029,10 +34659,8 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H1067" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1067" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1068">
@@ -35067,10 +34695,8 @@
           <t>€3.2B</t>
         </is>
       </c>
-      <c r="H1068" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1068" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1069">
@@ -35105,10 +34731,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1069" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1069" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1070">
@@ -35143,10 +34767,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H1070" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1070" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1071">
@@ -35181,10 +34803,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1071" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1071" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1072">
@@ -35219,10 +34839,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H1072" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1072" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1073">
@@ -35245,10 +34863,8 @@
       <c r="E1073" t="inlineStr"/>
       <c r="F1073" t="inlineStr"/>
       <c r="G1073" t="inlineStr"/>
-      <c r="H1073" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1073" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1074">
@@ -35275,10 +34891,8 @@
       </c>
       <c r="F1074" t="inlineStr"/>
       <c r="G1074" t="inlineStr"/>
-      <c r="H1074" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1074" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1075">
@@ -35301,10 +34915,8 @@
       <c r="E1075" t="inlineStr"/>
       <c r="F1075" t="inlineStr"/>
       <c r="G1075" t="inlineStr"/>
-      <c r="H1075" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1075" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1076">
@@ -35331,10 +34943,8 @@
       </c>
       <c r="F1076" t="inlineStr"/>
       <c r="G1076" t="inlineStr"/>
-      <c r="H1076" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1076" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1077">
@@ -35369,10 +34979,8 @@
           <t>€1.8B</t>
         </is>
       </c>
-      <c r="H1077" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1077" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1078">
@@ -35399,10 +35007,8 @@
       </c>
       <c r="F1078" t="inlineStr"/>
       <c r="G1078" t="inlineStr"/>
-      <c r="H1078" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1078" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1079">
@@ -35437,10 +35043,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1079" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1079" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1080">
@@ -35463,10 +35067,8 @@
       <c r="E1080" t="inlineStr"/>
       <c r="F1080" t="inlineStr"/>
       <c r="G1080" t="inlineStr"/>
-      <c r="H1080" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1080" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1081">
@@ -35497,10 +35099,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1081" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1081" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1082">
@@ -35535,10 +35135,8 @@
           <t>240.0K</t>
         </is>
       </c>
-      <c r="H1082" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1082" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1083">
@@ -35573,10 +35171,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1083" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1083" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1084">
@@ -35611,10 +35207,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1084" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1084" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1085">
@@ -35649,10 +35243,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1085" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1085" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1086">
@@ -35687,10 +35279,8 @@
           <t>209.0K</t>
         </is>
       </c>
-      <c r="H1086" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1086" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1087">
@@ -35725,10 +35315,8 @@
           <t>-10</t>
         </is>
       </c>
-      <c r="H1087" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1087" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1088">
@@ -35763,10 +35351,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1088" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1088" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1089">
@@ -35797,10 +35383,8 @@
           <t>1870.0K</t>
         </is>
       </c>
-      <c r="H1089" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1089" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1090">
@@ -35831,10 +35415,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H1090" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1090" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1091">
@@ -35865,10 +35447,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1091" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1091" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1092">
@@ -35899,10 +35479,8 @@
           <t>215.0K</t>
         </is>
       </c>
-      <c r="H1092" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1092" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1093">
@@ -35929,10 +35507,8 @@
       </c>
       <c r="F1093" t="inlineStr"/>
       <c r="G1093" t="inlineStr"/>
-      <c r="H1093" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1093" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1094">
@@ -35959,10 +35535,8 @@
       </c>
       <c r="F1094" t="inlineStr"/>
       <c r="G1094" t="inlineStr"/>
-      <c r="H1094" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1094" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1095">
@@ -35989,10 +35563,8 @@
       </c>
       <c r="F1095" t="inlineStr"/>
       <c r="G1095" t="inlineStr"/>
-      <c r="H1095" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1095" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1096">
@@ -36019,10 +35591,8 @@
       </c>
       <c r="F1096" t="inlineStr"/>
       <c r="G1096" t="inlineStr"/>
-      <c r="H1096" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1096" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1097">
@@ -36049,10 +35619,8 @@
       </c>
       <c r="F1097" t="inlineStr"/>
       <c r="G1097" t="inlineStr"/>
-      <c r="H1097" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1097" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1098">
@@ -36083,10 +35651,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1098" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1098" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1099">
@@ -36117,10 +35683,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H1099" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1099" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1100">
@@ -36155,10 +35719,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1100" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1100" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1101">
@@ -36193,10 +35755,8 @@
           <t>45</t>
         </is>
       </c>
-      <c r="H1101" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1101" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1102">
@@ -36231,10 +35791,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1102" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1102" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1103">
@@ -36261,10 +35819,8 @@
       </c>
       <c r="F1103" t="inlineStr"/>
       <c r="G1103" t="inlineStr"/>
-      <c r="H1103" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1103" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1104">
@@ -36291,10 +35847,8 @@
       </c>
       <c r="F1104" t="inlineStr"/>
       <c r="G1104" t="inlineStr"/>
-      <c r="H1104" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1104" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1105">
@@ -36321,10 +35875,8 @@
       </c>
       <c r="F1105" t="inlineStr"/>
       <c r="G1105" t="inlineStr"/>
-      <c r="H1105" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1105" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1106">
@@ -36351,10 +35903,8 @@
       </c>
       <c r="F1106" t="inlineStr"/>
       <c r="G1106" t="inlineStr"/>
-      <c r="H1106" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1106" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1107">
@@ -36381,10 +35931,8 @@
       </c>
       <c r="F1107" t="inlineStr"/>
       <c r="G1107" t="inlineStr"/>
-      <c r="H1107" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1107" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1108">
@@ -36407,10 +35955,8 @@
       <c r="E1108" t="inlineStr"/>
       <c r="F1108" t="inlineStr"/>
       <c r="G1108" t="inlineStr"/>
-      <c r="H1108" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1108" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1109">
@@ -36437,10 +35983,8 @@
       </c>
       <c r="F1109" t="inlineStr"/>
       <c r="G1109" t="inlineStr"/>
-      <c r="H1109" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1109" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1110">
@@ -36467,10 +36011,8 @@
       </c>
       <c r="F1110" t="inlineStr"/>
       <c r="G1110" t="inlineStr"/>
-      <c r="H1110" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1110" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1111">
@@ -36497,10 +36039,8 @@
       </c>
       <c r="F1111" t="inlineStr"/>
       <c r="G1111" t="inlineStr"/>
-      <c r="H1111" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1111" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1112">
@@ -36531,10 +36071,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1112" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1112" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1113">
@@ -36569,10 +36107,8 @@
           <t>7.5%</t>
         </is>
       </c>
-      <c r="H1113" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1113" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1114">
@@ -36599,10 +36135,8 @@
       </c>
       <c r="F1114" t="inlineStr"/>
       <c r="G1114" t="inlineStr"/>
-      <c r="H1114" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1114" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1115">
@@ -36633,10 +36167,8 @@
           <t>-5.8%</t>
         </is>
       </c>
-      <c r="H1115" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1115" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1116">
@@ -36667,10 +36199,8 @@
           <t>$ 3.6B</t>
         </is>
       </c>
-      <c r="H1116" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1116" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1117">
@@ -36705,10 +36235,8 @@
           <t>5%</t>
         </is>
       </c>
-      <c r="H1117" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1117" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1118">
@@ -36743,10 +36271,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="H1118" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1118" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1119">
@@ -36781,10 +36307,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H1119" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1119" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1120">
@@ -36819,10 +36343,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H1120" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1120" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1121">
@@ -36857,10 +36379,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1121" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1121" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1122">
@@ -36891,10 +36411,8 @@
           <t>75.3%</t>
         </is>
       </c>
-      <c r="H1122" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1122" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1123">
@@ -36929,10 +36447,8 @@
           <t>5.00%</t>
         </is>
       </c>
-      <c r="H1123" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1123" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1124">
@@ -36959,96 +36475,98 @@
       </c>
       <c r="F1124" t="inlineStr"/>
       <c r="G1124" t="inlineStr"/>
-      <c r="H1124" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1124" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1125">
       <c r="A1125" t="inlineStr">
         <is>
-          <t>Friday January 17 2025</t>
-        </is>
-      </c>
-      <c r="B1125" t="inlineStr"/>
-      <c r="C1125" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B1125" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1125" t="inlineStr">
+        <is>
+          <t>Building Permits MoM PrelDEC</t>
+        </is>
+      </c>
       <c r="D1125" t="inlineStr"/>
-      <c r="E1125" t="inlineStr"/>
+      <c r="E1125" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="F1125" t="inlineStr"/>
-      <c r="G1125" t="inlineStr"/>
-      <c r="H1125" t="inlineStr"/>
+      <c r="G1125" t="inlineStr">
+        <is>
+          <t>-0.9%</t>
+        </is>
+      </c>
+      <c r="H1125" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1126">
       <c r="A1126" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1126" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1126" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Housing Starts MoMDEC</t>
         </is>
       </c>
       <c r="D1126" t="inlineStr"/>
       <c r="E1126" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F1126" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>-1.8%</t>
+        </is>
+      </c>
+      <c r="F1126" t="inlineStr"/>
       <c r="G1126" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H1126" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1127">
       <c r="A1127" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1127" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>IF</t>
         </is>
       </c>
       <c r="C1127" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>IMF/World Economic Outlook</t>
         </is>
       </c>
       <c r="D1127" t="inlineStr"/>
-      <c r="E1127" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F1127" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="G1127" t="inlineStr">
-        <is>
-          <t>2.1%</t>
-        </is>
-      </c>
+      <c r="E1127" t="inlineStr"/>
+      <c r="F1127" t="inlineStr"/>
+      <c r="G1127" t="inlineStr"/>
       <c r="H1127" t="inlineStr">
         <is>
           <t>2</t>
@@ -37058,71 +36576,71 @@
     <row r="1128">
       <c r="A1128" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1128" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1128" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel MoMDEC</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D1128" t="inlineStr"/>
       <c r="E1128" t="inlineStr">
         <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="F1128" t="inlineStr">
+        <is>
           <t>0.3%</t>
         </is>
       </c>
-      <c r="F1128" t="inlineStr">
+      <c r="G1128" t="inlineStr">
         <is>
           <t>0.1%</t>
         </is>
       </c>
-      <c r="G1128" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
       <c r="H1128" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1129">
       <c r="A1129" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1129" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1129" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel YoYDEC</t>
+          <t>Capacity UtilizationDEC</t>
         </is>
       </c>
       <c r="D1129" t="inlineStr"/>
       <c r="E1129" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>76.8%</t>
         </is>
       </c>
       <c r="F1129" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>76.9%</t>
         </is>
       </c>
       <c r="G1129" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>76.9%</t>
         </is>
       </c>
       <c r="H1129" t="inlineStr">
@@ -37134,29 +36652,29 @@
     <row r="1130">
       <c r="A1130" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1130" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1130" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D1130" t="inlineStr"/>
       <c r="E1130" t="inlineStr">
         <is>
-          <t>€32B</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="F1130" t="inlineStr"/>
       <c r="G1130" t="inlineStr">
         <is>
-          <t>€33.0B</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="H1130" t="inlineStr">
@@ -37168,31 +36686,35 @@
     <row r="1131">
       <c r="A1131" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1131" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1131" t="inlineStr">
         <is>
-          <t>Current Account s.aNOV</t>
+          <t>Manufacturing Production MoMDEC</t>
         </is>
       </c>
       <c r="D1131" t="inlineStr"/>
       <c r="E1131" t="inlineStr">
         <is>
-          <t>€33.5B</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1131" t="inlineStr">
         <is>
-          <t>€28B</t>
-        </is>
-      </c>
-      <c r="G1131" t="inlineStr"/>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="G1131" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H1131" t="inlineStr">
         <is>
           <t>3</t>
@@ -37202,107 +36724,91 @@
     <row r="1132">
       <c r="A1132" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1132" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1132" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Manufacturing Production YoYDEC</t>
         </is>
       </c>
       <c r="D1132" t="inlineStr"/>
       <c r="E1132" t="inlineStr">
         <is>
-          <t>€-3.93B</t>
+          <t>-1%</t>
         </is>
       </c>
       <c r="F1132" t="inlineStr"/>
       <c r="G1132" t="inlineStr">
         <is>
-          <t>€-4.2B</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="H1132" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1133">
       <c r="A1133" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1133" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1133" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>Baker Hughes Oil Rig CountJAN/17</t>
         </is>
       </c>
       <c r="D1133" t="inlineStr"/>
       <c r="E1133" t="inlineStr">
         <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="F1133" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="G1133" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
+          <t>480</t>
+        </is>
+      </c>
+      <c r="F1133" t="inlineStr"/>
+      <c r="G1133" t="inlineStr"/>
       <c r="H1133" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1134">
       <c r="A1134" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1134" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1134" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FinalDEC</t>
+          <t>Baker Hughes Total Rigs CountJAN/17</t>
         </is>
       </c>
       <c r="D1134" t="inlineStr"/>
       <c r="E1134" t="inlineStr">
         <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F1134" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="G1134" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+          <t>584</t>
+        </is>
+      </c>
+      <c r="F1134" t="inlineStr"/>
+      <c r="G1134" t="inlineStr"/>
       <c r="H1134" t="inlineStr">
         <is>
           <t>3</t>
@@ -37312,73 +36818,57 @@
     <row r="1135">
       <c r="A1135" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1135" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1135" t="inlineStr">
         <is>
-          <t>CPI FinalDEC</t>
+          <t>Net Long-term TIC FlowsNOV</t>
         </is>
       </c>
       <c r="D1135" t="inlineStr"/>
       <c r="E1135" t="inlineStr">
         <is>
-          <t>126.62</t>
-        </is>
-      </c>
-      <c r="F1135" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
-      <c r="G1135" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
+          <t>$152.3B</t>
+        </is>
+      </c>
+      <c r="F1135" t="inlineStr"/>
+      <c r="G1135" t="inlineStr"/>
       <c r="H1135" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1136">
       <c r="A1136" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1136" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1136" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FinalDEC</t>
+          <t>Foreign Bond InvestmentNOV</t>
         </is>
       </c>
       <c r="D1136" t="inlineStr"/>
       <c r="E1136" t="inlineStr">
         <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F1136" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G1136" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>$92.1B</t>
+        </is>
+      </c>
+      <c r="F1136" t="inlineStr"/>
+      <c r="G1136" t="inlineStr"/>
       <c r="H1136" t="inlineStr">
         <is>
           <t>3</t>
@@ -37388,21 +36878,25 @@
     <row r="1137">
       <c r="A1137" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1137" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1137" t="inlineStr">
         <is>
-          <t>Bundesbank Nagel Speech</t>
+          <t>Overall Net Capital FlowsNOV</t>
         </is>
       </c>
       <c r="D1137" t="inlineStr"/>
-      <c r="E1137" t="inlineStr"/>
+      <c r="E1137" t="inlineStr">
+        <is>
+          <t>$203.6B</t>
+        </is>
+      </c>
       <c r="F1137" t="inlineStr"/>
       <c r="G1137" t="inlineStr"/>
       <c r="H1137" t="inlineStr">
@@ -37412,33 +36906,25 @@
       </c>
     </row>
     <row r="1138">
-      <c r="A1138" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
+      <c r="A1138" t="inlineStr"/>
       <c r="B1138" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1138" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>50-Year KTB Auction</t>
         </is>
       </c>
       <c r="D1138" t="inlineStr"/>
       <c r="E1138" t="inlineStr">
         <is>
-          <t>€5628M</t>
+          <t>2.40%</t>
         </is>
       </c>
       <c r="F1138" t="inlineStr"/>
-      <c r="G1138" t="inlineStr">
-        <is>
-          <t>€2900.0M</t>
-        </is>
-      </c>
+      <c r="G1138" t="inlineStr"/>
       <c r="H1138" t="inlineStr">
         <is>
           <t>3</t>
@@ -37448,169 +36934,165 @@
     <row r="1139">
       <c r="A1139" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1139" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C1139" t="inlineStr">
-        <is>
-          <t>ECB Cipollone Speech</t>
-        </is>
-      </c>
+          <t>Sunday January 19 2025</t>
+        </is>
+      </c>
+      <c r="B1139" t="inlineStr"/>
+      <c r="C1139" t="inlineStr"/>
       <c r="D1139" t="inlineStr"/>
       <c r="E1139" t="inlineStr"/>
       <c r="F1139" t="inlineStr"/>
       <c r="G1139" t="inlineStr"/>
-      <c r="H1139" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1139" t="inlineStr"/>
     </row>
     <row r="1140">
       <c r="A1140" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1140" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1140" t="inlineStr">
         <is>
-          <t>Bank Loan Growth YoYJAN/03</t>
+          <t>Machinery Orders MoMNOV</t>
         </is>
       </c>
       <c r="D1140" t="inlineStr"/>
       <c r="E1140" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>2.1%</t>
         </is>
       </c>
       <c r="F1140" t="inlineStr"/>
-      <c r="G1140" t="inlineStr"/>
+      <c r="G1140" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1140" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1141">
       <c r="A1141" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1141" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1141" t="inlineStr">
         <is>
-          <t>Deposit Growth YoYJAN/03</t>
+          <t>Machinery Orders YoYNOV</t>
         </is>
       </c>
       <c r="D1141" t="inlineStr"/>
       <c r="E1141" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>5.6%</t>
         </is>
       </c>
       <c r="F1141" t="inlineStr"/>
-      <c r="G1141" t="inlineStr"/>
+      <c r="G1141" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
       <c r="H1141" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1142">
       <c r="A1142" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1142" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1142" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/10</t>
+          <t>Loan Prime Rate 1Y</t>
         </is>
       </c>
       <c r="D1142" t="inlineStr"/>
       <c r="E1142" t="inlineStr">
         <is>
-          <t>$634.59B</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="F1142" t="inlineStr"/>
       <c r="G1142" t="inlineStr"/>
       <c r="H1142" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1143">
       <c r="A1143" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1143" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1143" t="inlineStr">
         <is>
-          <t>Foreign Securities PurchasesNOV</t>
+          <t>Loan Prime Rate 5YJAN</t>
         </is>
       </c>
       <c r="D1143" t="inlineStr"/>
       <c r="E1143" t="inlineStr">
         <is>
-          <t>C$21.55B</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="F1143" t="inlineStr"/>
       <c r="G1143" t="inlineStr"/>
       <c r="H1143" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1144">
       <c r="A1144" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1144" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1144" t="inlineStr">
         <is>
-          <t>Foreign Securities Purchases by CanadiansNOV</t>
+          <t>Capacity Utilization MoMNOV</t>
         </is>
       </c>
       <c r="D1144" t="inlineStr"/>
       <c r="E1144" t="inlineStr">
         <is>
-          <t>C$-2.65B</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F1144" t="inlineStr"/>
@@ -37624,203 +37106,167 @@
     <row r="1145">
       <c r="A1145" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1145" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1145" t="inlineStr">
         <is>
-          <t>Building Permits PrelDEC</t>
+          <t>Industrial Production MoM FinalNOV</t>
         </is>
       </c>
       <c r="D1145" t="inlineStr"/>
       <c r="E1145" t="inlineStr">
         <is>
-          <t>1.493M</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F1145" t="inlineStr">
         <is>
-          <t>1.46M</t>
+          <t>-2.3%</t>
         </is>
       </c>
       <c r="G1145" t="inlineStr">
         <is>
-          <t>1.48M</t>
+          <t>-2.3%</t>
         </is>
       </c>
       <c r="H1145" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1146">
       <c r="A1146" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1146" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1146" t="inlineStr">
         <is>
-          <t>Housing StartsDEC</t>
+          <t>Industrial Production YoY FinalNOV</t>
         </is>
       </c>
       <c r="D1146" t="inlineStr"/>
       <c r="E1146" t="inlineStr">
         <is>
-          <t>1.289M</t>
-        </is>
-      </c>
-      <c r="F1146" t="inlineStr">
-        <is>
-          <t>1.32M</t>
-        </is>
-      </c>
+          <t>1.4%</t>
+        </is>
+      </c>
+      <c r="F1146" t="inlineStr"/>
       <c r="G1146" t="inlineStr">
         <is>
-          <t>1.32M</t>
+          <t>-2.8%</t>
         </is>
       </c>
       <c r="H1146" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1147">
       <c r="A1147" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1147" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1147" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelDEC</t>
+          <t>Tertiary Industry Index MoMNOV</t>
         </is>
       </c>
       <c r="D1147" t="inlineStr"/>
       <c r="E1147" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F1147" t="inlineStr"/>
-      <c r="G1147" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
+      <c r="G1147" t="inlineStr"/>
       <c r="H1147" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1148">
-      <c r="A1148" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A1148" t="inlineStr"/>
       <c r="B1148" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1148" t="inlineStr">
         <is>
-          <t>Housing Starts MoMDEC</t>
+          <t>Eurogroup Meeting</t>
         </is>
       </c>
       <c r="D1148" t="inlineStr"/>
-      <c r="E1148" t="inlineStr">
-        <is>
-          <t>-1.8%</t>
-        </is>
-      </c>
+      <c r="E1148" t="inlineStr"/>
       <c r="F1148" t="inlineStr"/>
-      <c r="G1148" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
+      <c r="G1148" t="inlineStr"/>
       <c r="H1148" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1149">
       <c r="A1149" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1149" t="inlineStr">
-        <is>
-          <t>IF</t>
-        </is>
-      </c>
-      <c r="C1149" t="inlineStr">
-        <is>
-          <t>IMF/World Economic Outlook</t>
-        </is>
-      </c>
+          <t>Monday January 20 2025</t>
+        </is>
+      </c>
+      <c r="B1149" t="inlineStr"/>
+      <c r="C1149" t="inlineStr"/>
       <c r="D1149" t="inlineStr"/>
       <c r="E1149" t="inlineStr"/>
       <c r="F1149" t="inlineStr"/>
       <c r="G1149" t="inlineStr"/>
-      <c r="H1149" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="H1149" t="inlineStr"/>
     </row>
     <row r="1150">
       <c r="A1150" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1150" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1150" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1150" t="inlineStr"/>
       <c r="E1150" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F1150" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="F1150" t="inlineStr"/>
       <c r="G1150" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1150" t="inlineStr">
@@ -37832,33 +37278,29 @@
     <row r="1151">
       <c r="A1151" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1151" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1151" t="inlineStr">
         <is>
-          <t>Capacity UtilizationDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1151" t="inlineStr"/>
       <c r="E1151" t="inlineStr">
         <is>
-          <t>76.8%</t>
-        </is>
-      </c>
-      <c r="F1151" t="inlineStr">
-        <is>
-          <t>76.9%</t>
-        </is>
-      </c>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F1151" t="inlineStr"/>
       <c r="G1151" t="inlineStr">
         <is>
-          <t>76.9%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="H1151" t="inlineStr">
@@ -37870,29 +37312,29 @@
     <row r="1152">
       <c r="A1152" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>04:15 AM</t>
         </is>
       </c>
       <c r="B1152" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1152" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D1152" t="inlineStr"/>
       <c r="E1152" t="inlineStr">
         <is>
-          <t>-0.9%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="F1152" t="inlineStr"/>
       <c r="G1152" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1152" t="inlineStr">
@@ -37904,17 +37346,17 @@
     <row r="1153">
       <c r="A1153" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1153" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1153" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMDEC</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D1153" t="inlineStr"/>
@@ -37923,16 +37365,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="F1153" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1153" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="F1153" t="inlineStr"/>
+      <c r="G1153" t="inlineStr"/>
       <c r="H1153" t="inlineStr">
         <is>
           <t>3</t>
@@ -37942,31 +37376,23 @@
     <row r="1154">
       <c r="A1154" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1154" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1154" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYDEC</t>
+          <t>3-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D1154" t="inlineStr"/>
-      <c r="E1154" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
+      <c r="E1154" t="inlineStr"/>
       <c r="F1154" t="inlineStr"/>
-      <c r="G1154" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="G1154" t="inlineStr"/>
       <c r="H1154" t="inlineStr">
         <is>
           <t>3</t>
@@ -37976,25 +37402,21 @@
     <row r="1155">
       <c r="A1155" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1155" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1155" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/17</t>
+          <t>9-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D1155" t="inlineStr"/>
-      <c r="E1155" t="inlineStr">
-        <is>
-          <t>480</t>
-        </is>
-      </c>
+      <c r="E1155" t="inlineStr"/>
       <c r="F1155" t="inlineStr"/>
       <c r="G1155" t="inlineStr"/>
       <c r="H1155" t="inlineStr">
@@ -38006,23 +37428,23 @@
     <row r="1156">
       <c r="A1156" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1156" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1156" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/17</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D1156" t="inlineStr"/>
       <c r="E1156" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>$9.1B</t>
         </is>
       </c>
       <c r="F1156" t="inlineStr"/>
@@ -38036,53 +37458,57 @@
     <row r="1157">
       <c r="A1157" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1157" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1157" t="inlineStr">
         <is>
-          <t>Net Long-term TIC FlowsNOV</t>
+          <t>Current AccountQ4</t>
         </is>
       </c>
       <c r="D1157" t="inlineStr"/>
       <c r="E1157" t="inlineStr">
         <is>
-          <t>$152.3B</t>
+          <t>$9.1B</t>
         </is>
       </c>
       <c r="F1157" t="inlineStr"/>
-      <c r="G1157" t="inlineStr"/>
+      <c r="G1157" t="inlineStr">
+        <is>
+          <t>$ 10B</t>
+        </is>
+      </c>
       <c r="H1157" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1158">
       <c r="A1158" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1158" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1158" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentNOV</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1158" t="inlineStr"/>
       <c r="E1158" t="inlineStr">
         <is>
-          <t>$92.1B</t>
+          <t>2.489%</t>
         </is>
       </c>
       <c r="F1158" t="inlineStr"/>
@@ -38096,23 +37522,23 @@
     <row r="1159">
       <c r="A1159" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1159" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1159" t="inlineStr">
         <is>
-          <t>Overall Net Capital FlowsNOV</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1159" t="inlineStr"/>
       <c r="E1159" t="inlineStr">
         <is>
-          <t>$203.6B</t>
+          <t>2.691%</t>
         </is>
       </c>
       <c r="F1159" t="inlineStr"/>
@@ -38124,21 +37550,25 @@
       </c>
     </row>
     <row r="1160">
-      <c r="A1160" t="inlineStr"/>
+      <c r="A1160" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B1160" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1160" t="inlineStr">
         <is>
-          <t>50-Year KTB Auction</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1160" t="inlineStr"/>
       <c r="E1160" t="inlineStr">
         <is>
-          <t>2.40%</t>
+          <t>2.593%</t>
         </is>
       </c>
       <c r="F1160" t="inlineStr"/>
@@ -38152,169 +37582,189 @@
     <row r="1161">
       <c r="A1161" t="inlineStr">
         <is>
-          <t>Sunday January 19 2025</t>
-        </is>
-      </c>
-      <c r="B1161" t="inlineStr"/>
-      <c r="C1161" t="inlineStr"/>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B1161" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C1161" t="inlineStr">
+        <is>
+          <t>BoC Business Outlook Survey</t>
+        </is>
+      </c>
       <c r="D1161" t="inlineStr"/>
       <c r="E1161" t="inlineStr"/>
       <c r="F1161" t="inlineStr"/>
       <c r="G1161" t="inlineStr"/>
-      <c r="H1161" t="inlineStr"/>
+      <c r="H1161" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1162">
       <c r="A1162" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1162" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1162" t="inlineStr">
         <is>
-          <t>Machinery Orders MoMNOV</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1162" t="inlineStr"/>
       <c r="E1162" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="F1162" t="inlineStr"/>
       <c r="G1162" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="H1162" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1163">
       <c r="A1163" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1163" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1163" t="inlineStr">
         <is>
-          <t>Machinery Orders YoYNOV</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1163" t="inlineStr"/>
       <c r="E1163" t="inlineStr">
         <is>
-          <t>5.6%</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="F1163" t="inlineStr"/>
       <c r="G1163" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>4.4%</t>
         </is>
       </c>
       <c r="H1163" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1164">
       <c r="A1164" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1164" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1164" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 1Y</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D1164" t="inlineStr"/>
       <c r="E1164" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>$1234M</t>
         </is>
       </c>
       <c r="F1164" t="inlineStr"/>
-      <c r="G1164" t="inlineStr"/>
+      <c r="G1164" t="inlineStr">
+        <is>
+          <t>$ 1463M</t>
+        </is>
+      </c>
       <c r="H1164" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1165">
       <c r="A1165" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1165" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1165" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 5YJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1165" t="inlineStr"/>
-      <c r="E1165" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
+      <c r="E1165" t="inlineStr"/>
       <c r="F1165" t="inlineStr"/>
-      <c r="G1165" t="inlineStr"/>
+      <c r="G1165" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1165" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1166">
       <c r="A1166" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1166" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1166" t="inlineStr">
         <is>
-          <t>Capacity Utilization MoMNOV</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1166" t="inlineStr"/>
       <c r="E1166" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F1166" t="inlineStr"/>
-      <c r="G1166" t="inlineStr"/>
+      <c r="G1166" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
       <c r="H1166" t="inlineStr">
         <is>
           <t>3</t>
@@ -38324,7 +37774,7 @@
     <row r="1167">
       <c r="A1167" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B1167" t="inlineStr">
@@ -38334,25 +37784,17 @@
       </c>
       <c r="C1167" t="inlineStr">
         <is>
-          <t>Industrial Production MoM FinalNOV</t>
+          <t>40-Year JGB Auction</t>
         </is>
       </c>
       <c r="D1167" t="inlineStr"/>
       <c r="E1167" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F1167" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
-      <c r="G1167" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
+          <t>2.550%</t>
+        </is>
+      </c>
+      <c r="F1167" t="inlineStr"/>
+      <c r="G1167" t="inlineStr"/>
       <c r="H1167" t="inlineStr">
         <is>
           <t>3</t>
@@ -38360,33 +37802,25 @@
       </c>
     </row>
     <row r="1168">
-      <c r="A1168" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
+      <c r="A1168" t="inlineStr"/>
       <c r="B1168" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1168" t="inlineStr">
         <is>
-          <t>Industrial Production YoY FinalNOV</t>
+          <t>10-Year KTB Auction</t>
         </is>
       </c>
       <c r="D1168" t="inlineStr"/>
       <c r="E1168" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>2.665%</t>
         </is>
       </c>
       <c r="F1168" t="inlineStr"/>
-      <c r="G1168" t="inlineStr">
-        <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
+      <c r="G1168" t="inlineStr"/>
       <c r="H1168" t="inlineStr">
         <is>
           <t>3</t>
@@ -38394,25 +37828,21 @@
       </c>
     </row>
     <row r="1169">
-      <c r="A1169" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
+      <c r="A1169" t="inlineStr"/>
       <c r="B1169" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1169" t="inlineStr">
         <is>
-          <t>Tertiary Industry Index MoMNOV</t>
+          <t>FDI (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D1169" t="inlineStr"/>
       <c r="E1169" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>-27.9%</t>
         </is>
       </c>
       <c r="F1169" t="inlineStr"/>
@@ -38427,18 +37857,26 @@
       <c r="A1170" t="inlineStr"/>
       <c r="B1170" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1170" t="inlineStr">
         <is>
-          <t>Eurogroup Meeting</t>
+          <t>Consumer ConfidenceDEC</t>
         </is>
       </c>
       <c r="D1170" t="inlineStr"/>
-      <c r="E1170" t="inlineStr"/>
+      <c r="E1170" t="inlineStr">
+        <is>
+          <t>80.6</t>
+        </is>
+      </c>
       <c r="F1170" t="inlineStr"/>
-      <c r="G1170" t="inlineStr"/>
+      <c r="G1170" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
       <c r="H1170" t="inlineStr">
         <is>
           <t>3</t>
@@ -38446,81 +37884,81 @@
       </c>
     </row>
     <row r="1171">
-      <c r="A1171" t="inlineStr">
-        <is>
-          <t>Monday January 20 2025</t>
-        </is>
-      </c>
-      <c r="B1171" t="inlineStr"/>
-      <c r="C1171" t="inlineStr"/>
+      <c r="A1171" t="inlineStr"/>
+      <c r="B1171" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C1171" t="inlineStr">
+        <is>
+          <t>Leading Indicator MoMDEC</t>
+        </is>
+      </c>
       <c r="D1171" t="inlineStr"/>
-      <c r="E1171" t="inlineStr"/>
+      <c r="E1171" t="inlineStr">
+        <is>
+          <t>1.44%</t>
+        </is>
+      </c>
       <c r="F1171" t="inlineStr"/>
-      <c r="G1171" t="inlineStr"/>
-      <c r="H1171" t="inlineStr"/>
+      <c r="G1171" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
+      <c r="H1171" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1172">
-      <c r="A1172" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
+      <c r="A1172" t="inlineStr"/>
       <c r="B1172" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1172" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Central Government DebtDEC</t>
         </is>
       </c>
       <c r="D1172" t="inlineStr"/>
       <c r="E1172" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>TRY9.005T</t>
         </is>
       </c>
       <c r="F1172" t="inlineStr"/>
       <c r="G1172" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>TRY 9.0T</t>
         </is>
       </c>
       <c r="H1172" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1173">
-      <c r="A1173" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
+      <c r="A1173" t="inlineStr"/>
       <c r="B1173" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1173" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>ECOFIN Meeting</t>
         </is>
       </c>
       <c r="D1173" t="inlineStr"/>
-      <c r="E1173" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="E1173" t="inlineStr"/>
       <c r="F1173" t="inlineStr"/>
-      <c r="G1173" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
+      <c r="G1173" t="inlineStr"/>
       <c r="H1173" t="inlineStr">
         <is>
           <t>3</t>
@@ -38530,59 +37968,35 @@
     <row r="1174">
       <c r="A1174" t="inlineStr">
         <is>
-          <t>04:15 AM</t>
-        </is>
-      </c>
-      <c r="B1174" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1174" t="inlineStr">
-        <is>
-          <t>Construction Output YoYNOV</t>
-        </is>
-      </c>
+          <t>Tuesday January 21 2025</t>
+        </is>
+      </c>
+      <c r="B1174" t="inlineStr"/>
+      <c r="C1174" t="inlineStr"/>
       <c r="D1174" t="inlineStr"/>
-      <c r="E1174" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
+      <c r="E1174" t="inlineStr"/>
       <c r="F1174" t="inlineStr"/>
-      <c r="G1174" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="H1174" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1174" t="inlineStr"/>
+      <c r="H1174" t="inlineStr"/>
     </row>
     <row r="1175">
       <c r="A1175" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1175" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1175" t="inlineStr">
         <is>
-          <t>Construction Output YoYNOV</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1175" t="inlineStr"/>
-      <c r="E1175" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1175" t="inlineStr"/>
       <c r="F1175" t="inlineStr"/>
       <c r="G1175" t="inlineStr"/>
       <c r="H1175" t="inlineStr">
@@ -38594,17 +38008,17 @@
     <row r="1176">
       <c r="A1176" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1176" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1176" t="inlineStr">
         <is>
-          <t>3-Month Bubill Auction</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1176" t="inlineStr"/>
@@ -38620,139 +38034,159 @@
     <row r="1177">
       <c r="A1177" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1177" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1177" t="inlineStr">
         <is>
-          <t>9-Month Bubill Auction</t>
+          <t>New Car Registrations YoYDEC</t>
         </is>
       </c>
       <c r="D1177" t="inlineStr"/>
-      <c r="E1177" t="inlineStr"/>
+      <c r="E1177" t="inlineStr">
+        <is>
+          <t>-1.9%</t>
+        </is>
+      </c>
       <c r="F1177" t="inlineStr"/>
       <c r="G1177" t="inlineStr"/>
       <c r="H1177" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1178">
       <c r="A1178" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1178" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1178" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Unemployment RateNOV</t>
         </is>
       </c>
       <c r="D1178" t="inlineStr"/>
       <c r="E1178" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F1178" t="inlineStr"/>
-      <c r="G1178" t="inlineStr"/>
+      <c r="G1178" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="H1178" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1179">
       <c r="A1179" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1179" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1179" t="inlineStr">
         <is>
-          <t>Current AccountQ4</t>
+          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D1179" t="inlineStr"/>
       <c r="E1179" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F1179" t="inlineStr"/>
       <c r="G1179" t="inlineStr">
         <is>
-          <t>$ 10B</t>
+          <t>4.9%</t>
         </is>
       </c>
       <c r="H1179" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1180">
       <c r="A1180" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1180" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1180" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>Employment ChangeNOV</t>
         </is>
       </c>
       <c r="D1180" t="inlineStr"/>
-      <c r="E1180" t="inlineStr"/>
+      <c r="E1180" t="inlineStr">
+        <is>
+          <t>173K</t>
+        </is>
+      </c>
       <c r="F1180" t="inlineStr"/>
       <c r="G1180" t="inlineStr"/>
       <c r="H1180" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1181">
       <c r="A1181" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1181" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1181" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D1181" t="inlineStr"/>
-      <c r="E1181" t="inlineStr"/>
+      <c r="E1181" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="F1181" t="inlineStr"/>
-      <c r="G1181" t="inlineStr"/>
+      <c r="G1181" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
       <c r="H1181" t="inlineStr">
         <is>
           <t>3</t>
@@ -38762,23 +38196,31 @@
     <row r="1182">
       <c r="A1182" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1182" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1182" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>Claimant Count ChangeDEC</t>
         </is>
       </c>
       <c r="D1182" t="inlineStr"/>
-      <c r="E1182" t="inlineStr"/>
+      <c r="E1182" t="inlineStr">
+        <is>
+          <t>0.3K</t>
+        </is>
+      </c>
       <c r="F1182" t="inlineStr"/>
-      <c r="G1182" t="inlineStr"/>
+      <c r="G1182" t="inlineStr">
+        <is>
+          <t>-5K</t>
+        </is>
+      </c>
       <c r="H1182" t="inlineStr">
         <is>
           <t>3</t>
@@ -38788,57 +38230,61 @@
     <row r="1183">
       <c r="A1183" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1183" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1183" t="inlineStr">
         <is>
-          <t>BoC Business Outlook Survey</t>
+          <t>HMRC Payrolls ChangeDEC</t>
         </is>
       </c>
       <c r="D1183" t="inlineStr"/>
-      <c r="E1183" t="inlineStr"/>
+      <c r="E1183" t="inlineStr">
+        <is>
+          <t>-35K</t>
+        </is>
+      </c>
       <c r="F1183" t="inlineStr"/>
-      <c r="G1183" t="inlineStr"/>
+      <c r="G1183" t="inlineStr">
+        <is>
+          <t>20K</t>
+        </is>
+      </c>
       <c r="H1183" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1184">
       <c r="A1184" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1184" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1184" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Gold Production YoYNOV</t>
         </is>
       </c>
       <c r="D1184" t="inlineStr"/>
       <c r="E1184" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>-3.4%</t>
         </is>
       </c>
       <c r="F1184" t="inlineStr"/>
-      <c r="G1184" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G1184" t="inlineStr"/>
       <c r="H1184" t="inlineStr">
         <is>
           <t>3</t>
@@ -38848,31 +38294,27 @@
     <row r="1185">
       <c r="A1185" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1185" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1185" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Mining Production MoMNOV</t>
         </is>
       </c>
       <c r="D1185" t="inlineStr"/>
       <c r="E1185" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F1185" t="inlineStr"/>
-      <c r="G1185" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
+      <c r="G1185" t="inlineStr"/>
       <c r="H1185" t="inlineStr">
         <is>
           <t>3</t>
@@ -38882,31 +38324,27 @@
     <row r="1186">
       <c r="A1186" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1186" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1186" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Mining Production YoYNOV</t>
         </is>
       </c>
       <c r="D1186" t="inlineStr"/>
       <c r="E1186" t="inlineStr">
         <is>
-          <t>$1234M</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F1186" t="inlineStr"/>
-      <c r="G1186" t="inlineStr">
-        <is>
-          <t>$ 1463M</t>
-        </is>
-      </c>
+      <c r="G1186" t="inlineStr"/>
       <c r="H1186" t="inlineStr">
         <is>
           <t>3</t>
@@ -38916,87 +38354,83 @@
     <row r="1187">
       <c r="A1187" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1187" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1187" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D1187" t="inlineStr"/>
-      <c r="E1187" t="inlineStr"/>
+      <c r="E1187" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
       <c r="F1187" t="inlineStr"/>
-      <c r="G1187" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G1187" t="inlineStr"/>
       <c r="H1187" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1188">
       <c r="A1188" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1188" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1188" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D1188" t="inlineStr"/>
       <c r="E1188" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>15.7</t>
         </is>
       </c>
       <c r="F1188" t="inlineStr"/>
-      <c r="G1188" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="G1188" t="inlineStr"/>
       <c r="H1188" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1189">
       <c r="A1189" t="inlineStr">
         <is>
-          <t>10:35 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1189" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1189" t="inlineStr">
         <is>
-          <t>40-Year JGB Auction</t>
+          <t>ZEW Current ConditionsJAN</t>
         </is>
       </c>
       <c r="D1189" t="inlineStr"/>
       <c r="E1189" t="inlineStr">
         <is>
-          <t>2.550%</t>
+          <t>-93.1</t>
         </is>
       </c>
       <c r="F1189" t="inlineStr"/>
@@ -39008,23 +38442,23 @@
       </c>
     </row>
     <row r="1190">
-      <c r="A1190" t="inlineStr"/>
+      <c r="A1190" t="inlineStr">
+        <is>
+          <t>05:30 AM</t>
+        </is>
+      </c>
       <c r="B1190" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1190" t="inlineStr">
         <is>
-          <t>10-Year KTB Auction</t>
+          <t>Bund/g Auction</t>
         </is>
       </c>
       <c r="D1190" t="inlineStr"/>
-      <c r="E1190" t="inlineStr">
-        <is>
-          <t>2.665%</t>
-        </is>
-      </c>
+      <c r="E1190" t="inlineStr"/>
       <c r="F1190" t="inlineStr"/>
       <c r="G1190" t="inlineStr"/>
       <c r="H1190" t="inlineStr">
@@ -39034,21 +38468,25 @@
       </c>
     </row>
     <row r="1191">
-      <c r="A1191" t="inlineStr"/>
+      <c r="A1191" t="inlineStr">
+        <is>
+          <t>07:00 AM</t>
+        </is>
+      </c>
       <c r="B1191" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1191" t="inlineStr">
         <is>
-          <t>FDI (YTD) YoYDEC</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D1191" t="inlineStr"/>
       <c r="E1191" t="inlineStr">
         <is>
-          <t>-27.9%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F1191" t="inlineStr"/>
@@ -39060,29 +38498,29 @@
       </c>
     </row>
     <row r="1192">
-      <c r="A1192" t="inlineStr"/>
+      <c r="A1192" t="inlineStr">
+        <is>
+          <t>07:00 AM</t>
+        </is>
+      </c>
       <c r="B1192" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1192" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceDEC</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1192" t="inlineStr"/>
       <c r="E1192" t="inlineStr">
         <is>
-          <t>80.6</t>
+          <t>-1.2%</t>
         </is>
       </c>
       <c r="F1192" t="inlineStr"/>
-      <c r="G1192" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
+      <c r="G1192" t="inlineStr"/>
       <c r="H1192" t="inlineStr">
         <is>
           <t>3</t>
@@ -39090,121 +38528,165 @@
       </c>
     </row>
     <row r="1193">
-      <c r="A1193" t="inlineStr"/>
+      <c r="A1193" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B1193" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1193" t="inlineStr">
         <is>
-          <t>Leading Indicator MoMDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1193" t="inlineStr"/>
       <c r="E1193" t="inlineStr">
         <is>
-          <t>1.44%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="F1193" t="inlineStr"/>
       <c r="G1193" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="H1193" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1194">
-      <c r="A1194" t="inlineStr"/>
+      <c r="A1194" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B1194" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1194" t="inlineStr">
         <is>
-          <t>Central Government DebtDEC</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1194" t="inlineStr"/>
       <c r="E1194" t="inlineStr">
         <is>
-          <t>TRY9.005T</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F1194" t="inlineStr"/>
       <c r="G1194" t="inlineStr">
         <is>
-          <t>TRY 9.0T</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="H1194" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1195">
-      <c r="A1195" t="inlineStr"/>
+      <c r="A1195" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B1195" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1195" t="inlineStr">
         <is>
-          <t>ECOFIN Meeting</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1195" t="inlineStr"/>
-      <c r="E1195" t="inlineStr"/>
+      <c r="E1195" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="F1195" t="inlineStr"/>
-      <c r="G1195" t="inlineStr"/>
+      <c r="G1195" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1195" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1196">
       <c r="A1196" t="inlineStr">
         <is>
-          <t>Tuesday January 21 2025</t>
-        </is>
-      </c>
-      <c r="B1196" t="inlineStr"/>
-      <c r="C1196" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B1196" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C1196" t="inlineStr">
+        <is>
+          <t>Core Inflation Rate MoMDEC</t>
+        </is>
+      </c>
       <c r="D1196" t="inlineStr"/>
       <c r="E1196" t="inlineStr"/>
       <c r="F1196" t="inlineStr"/>
-      <c r="G1196" t="inlineStr"/>
-      <c r="H1196" t="inlineStr"/>
+      <c r="G1196" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="H1196" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1197">
       <c r="A1197" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1197" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1197" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>CPI Median YoYDEC</t>
         </is>
       </c>
       <c r="D1197" t="inlineStr"/>
-      <c r="E1197" t="inlineStr"/>
+      <c r="E1197" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="F1197" t="inlineStr"/>
-      <c r="G1197" t="inlineStr"/>
+      <c r="G1197" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
       <c r="H1197" t="inlineStr">
         <is>
           <t>3</t>
@@ -39214,23 +38696,31 @@
     <row r="1198">
       <c r="A1198" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1198" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1198" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>CPI Trimmed-Mean YoYDEC</t>
         </is>
       </c>
       <c r="D1198" t="inlineStr"/>
-      <c r="E1198" t="inlineStr"/>
+      <c r="E1198" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="F1198" t="inlineStr"/>
-      <c r="G1198" t="inlineStr"/>
+      <c r="G1198" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H1198" t="inlineStr">
         <is>
           <t>3</t>
@@ -39240,198 +38730,154 @@
     <row r="1199">
       <c r="A1199" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:55 AM</t>
         </is>
       </c>
       <c r="B1199" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1199" t="inlineStr">
         <is>
-          <t>New Car Registrations YoYDEC</t>
+          <t>Redbook YoYJAN/18</t>
         </is>
       </c>
       <c r="D1199" t="inlineStr"/>
-      <c r="E1199" t="inlineStr">
-        <is>
-          <t>-1.9%</t>
-        </is>
-      </c>
+      <c r="E1199" t="inlineStr"/>
       <c r="F1199" t="inlineStr"/>
       <c r="G1199" t="inlineStr"/>
       <c r="H1199" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1200">
       <c r="A1200" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1200" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1200" t="inlineStr">
         <is>
-          <t>Unemployment RateNOV</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1200" t="inlineStr"/>
-      <c r="E1200" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="E1200" t="inlineStr"/>
       <c r="F1200" t="inlineStr"/>
-      <c r="G1200" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="G1200" t="inlineStr"/>
       <c r="H1200" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1201">
       <c r="A1201" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1201" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1201" t="inlineStr">
         <is>
-          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
+          <t>52-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1201" t="inlineStr"/>
-      <c r="E1201" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="E1201" t="inlineStr"/>
       <c r="F1201" t="inlineStr"/>
-      <c r="G1201" t="inlineStr">
-        <is>
-          <t>4.9%</t>
-        </is>
-      </c>
+      <c r="G1201" t="inlineStr"/>
       <c r="H1201" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1202">
       <c r="A1202" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1202" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1202" t="inlineStr">
         <is>
-          <t>Employment ChangeNOV</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1202" t="inlineStr"/>
-      <c r="E1202" t="inlineStr">
-        <is>
-          <t>173K</t>
-        </is>
-      </c>
+      <c r="E1202" t="inlineStr"/>
       <c r="F1202" t="inlineStr"/>
       <c r="G1202" t="inlineStr"/>
       <c r="H1202" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1203">
       <c r="A1203" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1203" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1203" t="inlineStr">
         <is>
-          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1203" t="inlineStr"/>
       <c r="E1203" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>88.4</t>
         </is>
       </c>
       <c r="F1203" t="inlineStr"/>
       <c r="G1203" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H1203" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1204">
       <c r="A1204" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1204" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C1204" t="inlineStr">
-        <is>
-          <t>Claimant Count ChangeDEC</t>
-        </is>
-      </c>
+          <t>Wednesday January 22 2025</t>
+        </is>
+      </c>
+      <c r="B1204" t="inlineStr"/>
+      <c r="C1204" t="inlineStr"/>
       <c r="D1204" t="inlineStr"/>
-      <c r="E1204" t="inlineStr">
-        <is>
-          <t>0.3K</t>
-        </is>
-      </c>
+      <c r="E1204" t="inlineStr"/>
       <c r="F1204" t="inlineStr"/>
-      <c r="G1204" t="inlineStr">
-        <is>
-          <t>-5K</t>
-        </is>
-      </c>
-      <c r="H1204" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1204" t="inlineStr"/>
+      <c r="H1204" t="inlineStr"/>
     </row>
     <row r="1205">
       <c r="A1205" t="inlineStr">
@@ -39446,19 +38892,19 @@
       </c>
       <c r="C1205" t="inlineStr">
         <is>
-          <t>HMRC Payrolls ChangeDEC</t>
+          <t>Public Sector Net Borrowing Ex BanksDEC</t>
         </is>
       </c>
       <c r="D1205" t="inlineStr"/>
       <c r="E1205" t="inlineStr">
         <is>
-          <t>-35K</t>
+          <t>£-11.25B</t>
         </is>
       </c>
       <c r="F1205" t="inlineStr"/>
       <c r="G1205" t="inlineStr">
         <is>
-          <t>20K</t>
+          <t>£ -11.3B</t>
         </is>
       </c>
       <c r="H1205" t="inlineStr">
@@ -39470,7 +38916,7 @@
     <row r="1206">
       <c r="A1206" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1206" t="inlineStr">
@@ -39480,27 +38926,31 @@
       </c>
       <c r="C1206" t="inlineStr">
         <is>
-          <t>Gold Production YoYNOV</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1206" t="inlineStr"/>
       <c r="E1206" t="inlineStr">
         <is>
-          <t>-3.4%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F1206" t="inlineStr"/>
-      <c r="G1206" t="inlineStr"/>
+      <c r="G1206" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H1206" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1207">
       <c r="A1207" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1207" t="inlineStr">
@@ -39510,27 +38960,31 @@
       </c>
       <c r="C1207" t="inlineStr">
         <is>
-          <t>Mining Production MoMNOV</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1207" t="inlineStr"/>
       <c r="E1207" t="inlineStr">
         <is>
-          <t>-3%</t>
+          <t>2.9%</t>
         </is>
       </c>
       <c r="F1207" t="inlineStr"/>
-      <c r="G1207" t="inlineStr"/>
+      <c r="G1207" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
       <c r="H1207" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1208">
       <c r="A1208" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1208" t="inlineStr">
@@ -39540,17 +38994,21 @@
       </c>
       <c r="C1208" t="inlineStr">
         <is>
-          <t>Mining Production YoYNOV</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1208" t="inlineStr"/>
       <c r="E1208" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F1208" t="inlineStr"/>
-      <c r="G1208" t="inlineStr"/>
+      <c r="G1208" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1208" t="inlineStr">
         <is>
           <t>3</t>
@@ -39560,37 +39018,41 @@
     <row r="1209">
       <c r="A1209" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1209" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1209" t="inlineStr">
         <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1209" t="inlineStr"/>
       <c r="E1209" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="F1209" t="inlineStr"/>
-      <c r="G1209" t="inlineStr"/>
+      <c r="G1209" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="H1209" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1210">
       <c r="A1210" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1210" t="inlineStr">
@@ -39600,47 +39062,47 @@
       </c>
       <c r="C1210" t="inlineStr">
         <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
+          <t>15-Year Bund Auction</t>
         </is>
       </c>
       <c r="D1210" t="inlineStr"/>
-      <c r="E1210" t="inlineStr">
-        <is>
-          <t>15.7</t>
-        </is>
-      </c>
+      <c r="E1210" t="inlineStr"/>
       <c r="F1210" t="inlineStr"/>
       <c r="G1210" t="inlineStr"/>
       <c r="H1210" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1211">
       <c r="A1211" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1211" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1211" t="inlineStr">
         <is>
-          <t>ZEW Current ConditionsJAN</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D1211" t="inlineStr"/>
       <c r="E1211" t="inlineStr">
         <is>
-          <t>-93.1</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F1211" t="inlineStr"/>
-      <c r="G1211" t="inlineStr"/>
+      <c r="G1211" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H1211" t="inlineStr">
         <is>
           <t>3</t>
@@ -39650,21 +39112,25 @@
     <row r="1212">
       <c r="A1212" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1212" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1212" t="inlineStr">
         <is>
-          <t>Bund/g Auction</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1212" t="inlineStr"/>
-      <c r="E1212" t="inlineStr"/>
+      <c r="E1212" t="inlineStr">
+        <is>
+          <t>6.3%</t>
+        </is>
+      </c>
       <c r="F1212" t="inlineStr"/>
       <c r="G1212" t="inlineStr"/>
       <c r="H1212" t="inlineStr">
@@ -39676,25 +39142,21 @@
     <row r="1213">
       <c r="A1213" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>06:10 AM</t>
         </is>
       </c>
       <c r="B1213" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1213" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1213" t="inlineStr"/>
-      <c r="E1213" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
+      <c r="E1213" t="inlineStr"/>
       <c r="F1213" t="inlineStr"/>
       <c r="G1213" t="inlineStr"/>
       <c r="H1213" t="inlineStr">
@@ -39706,25 +39168,21 @@
     <row r="1214">
       <c r="A1214" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>06:10 AM</t>
         </is>
       </c>
       <c r="B1214" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1214" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1214" t="inlineStr"/>
-      <c r="E1214" t="inlineStr">
-        <is>
-          <t>-1.2%</t>
-        </is>
-      </c>
+      <c r="E1214" t="inlineStr"/>
       <c r="F1214" t="inlineStr"/>
       <c r="G1214" t="inlineStr"/>
       <c r="H1214" t="inlineStr">
@@ -39736,65 +39194,53 @@
     <row r="1215">
       <c r="A1215" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1215" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1215" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>M3 Money Supply YoYJAN/10</t>
         </is>
       </c>
       <c r="D1215" t="inlineStr"/>
       <c r="E1215" t="inlineStr">
         <is>
-          <t>1,9%</t>
+          <t>9.3%</t>
         </is>
       </c>
       <c r="F1215" t="inlineStr"/>
-      <c r="G1215" t="inlineStr">
-        <is>
-          <t>1.8%</t>
-        </is>
-      </c>
+      <c r="G1215" t="inlineStr"/>
       <c r="H1215" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1216">
       <c r="A1216" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1216" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1216" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>MBA 30-Year Mortgage RateJAN/17</t>
         </is>
       </c>
       <c r="D1216" t="inlineStr"/>
-      <c r="E1216" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+      <c r="E1216" t="inlineStr"/>
       <c r="F1216" t="inlineStr"/>
-      <c r="G1216" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
+      <c r="G1216" t="inlineStr"/>
       <c r="H1216" t="inlineStr">
         <is>
           <t>2</t>
@@ -39804,61 +39250,49 @@
     <row r="1217">
       <c r="A1217" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1217" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1217" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>MBA Mortgage ApplicationsJAN/17</t>
         </is>
       </c>
       <c r="D1217" t="inlineStr"/>
-      <c r="E1217" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+      <c r="E1217" t="inlineStr"/>
       <c r="F1217" t="inlineStr"/>
-      <c r="G1217" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1217" t="inlineStr"/>
       <c r="H1217" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1218">
       <c r="A1218" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1218" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1218" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMDEC</t>
+          <t>MBA Mortgage Market IndexJAN/17</t>
         </is>
       </c>
       <c r="D1218" t="inlineStr"/>
       <c r="E1218" t="inlineStr"/>
       <c r="F1218" t="inlineStr"/>
-      <c r="G1218" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1218" t="inlineStr"/>
       <c r="H1218" t="inlineStr">
         <is>
           <t>3</t>
@@ -39868,31 +39302,23 @@
     <row r="1219">
       <c r="A1219" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1219" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1219" t="inlineStr">
         <is>
-          <t>CPI Median YoYDEC</t>
+          <t>MBA Mortgage Refinance IndexJAN/17</t>
         </is>
       </c>
       <c r="D1219" t="inlineStr"/>
-      <c r="E1219" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+      <c r="E1219" t="inlineStr"/>
       <c r="F1219" t="inlineStr"/>
-      <c r="G1219" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="G1219" t="inlineStr"/>
       <c r="H1219" t="inlineStr">
         <is>
           <t>3</t>
@@ -39902,31 +39328,23 @@
     <row r="1220">
       <c r="A1220" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1220" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1220" t="inlineStr">
         <is>
-          <t>CPI Trimmed-Mean YoYDEC</t>
+          <t>MBA Purchase IndexJAN/17</t>
         </is>
       </c>
       <c r="D1220" t="inlineStr"/>
-      <c r="E1220" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="E1220" t="inlineStr"/>
       <c r="F1220" t="inlineStr"/>
-      <c r="G1220" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+      <c r="G1220" t="inlineStr"/>
       <c r="H1220" t="inlineStr">
         <is>
           <t>3</t>
@@ -39936,23 +39354,31 @@
     <row r="1221">
       <c r="A1221" t="inlineStr">
         <is>
-          <t>08:55 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1221" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1221" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/18</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1221" t="inlineStr"/>
-      <c r="E1221" t="inlineStr"/>
+      <c r="E1221" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="F1221" t="inlineStr"/>
-      <c r="G1221" t="inlineStr"/>
+      <c r="G1221" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1221" t="inlineStr">
         <is>
           <t>3</t>
@@ -39962,23 +39388,31 @@
     <row r="1222">
       <c r="A1222" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1222" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1222" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Raw Materials Prices MoMDEC</t>
         </is>
       </c>
       <c r="D1222" t="inlineStr"/>
-      <c r="E1222" t="inlineStr"/>
+      <c r="E1222" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
       <c r="F1222" t="inlineStr"/>
-      <c r="G1222" t="inlineStr"/>
+      <c r="G1222" t="inlineStr">
+        <is>
+          <t>1.0%</t>
+        </is>
+      </c>
       <c r="H1222" t="inlineStr">
         <is>
           <t>3</t>
@@ -39988,23 +39422,31 @@
     <row r="1223">
       <c r="A1223" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1223" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1223" t="inlineStr">
         <is>
-          <t>52-Week Bill Auction</t>
+          <t>Raw Materials Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1223" t="inlineStr"/>
-      <c r="E1223" t="inlineStr"/>
+      <c r="E1223" t="inlineStr">
+        <is>
+          <t>2%</t>
+        </is>
+      </c>
       <c r="F1223" t="inlineStr"/>
-      <c r="G1223" t="inlineStr"/>
+      <c r="G1223" t="inlineStr">
+        <is>
+          <t>-2.8%</t>
+        </is>
+      </c>
       <c r="H1223" t="inlineStr">
         <is>
           <t>3</t>
@@ -40014,7 +39456,7 @@
     <row r="1224">
       <c r="A1224" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1224" t="inlineStr">
@@ -40024,11 +39466,15 @@
       </c>
       <c r="C1224" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>CB Leading Index MoMDEC</t>
         </is>
       </c>
       <c r="D1224" t="inlineStr"/>
-      <c r="E1224" t="inlineStr"/>
+      <c r="E1224" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="F1224" t="inlineStr"/>
       <c r="G1224" t="inlineStr"/>
       <c r="H1224" t="inlineStr">
@@ -40040,77 +39486,81 @@
     <row r="1225">
       <c r="A1225" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1225" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1225" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1225" t="inlineStr"/>
-      <c r="E1225" t="inlineStr">
-        <is>
-          <t>88.4</t>
-        </is>
-      </c>
+      <c r="E1225" t="inlineStr"/>
       <c r="F1225" t="inlineStr"/>
-      <c r="G1225" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
+      <c r="G1225" t="inlineStr"/>
       <c r="H1225" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1226">
       <c r="A1226" t="inlineStr">
         <is>
-          <t>Wednesday January 22 2025</t>
-        </is>
-      </c>
-      <c r="B1226" t="inlineStr"/>
-      <c r="C1226" t="inlineStr"/>
+          <t>01:00 PM</t>
+        </is>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>20-Year Bond Auction</t>
+        </is>
+      </c>
       <c r="D1226" t="inlineStr"/>
       <c r="E1226" t="inlineStr"/>
       <c r="F1226" t="inlineStr"/>
       <c r="G1226" t="inlineStr"/>
-      <c r="H1226" t="inlineStr"/>
+      <c r="H1226" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1227">
       <c r="A1227" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1227" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1227" t="inlineStr">
         <is>
-          <t>Public Sector Net Borrowing Ex BanksDEC</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1227" t="inlineStr"/>
       <c r="E1227" t="inlineStr">
         <is>
-          <t>£-11.25B</t>
+          <t>127.1%</t>
         </is>
       </c>
       <c r="F1227" t="inlineStr"/>
       <c r="G1227" t="inlineStr">
         <is>
-          <t>£ -11.3B</t>
+          <t>115.0%</t>
         </is>
       </c>
       <c r="H1227" t="inlineStr">
@@ -40122,29 +39572,25 @@
     <row r="1228">
       <c r="A1228" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1228" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1228" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1228" t="inlineStr"/>
-      <c r="E1228" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+      <c r="E1228" t="inlineStr"/>
       <c r="F1228" t="inlineStr"/>
       <c r="G1228" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>60</t>
         </is>
       </c>
       <c r="H1228" t="inlineStr">
@@ -40156,31 +39602,23 @@
     <row r="1229">
       <c r="A1229" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1229" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1229" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>API Crude Oil Stock ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1229" t="inlineStr"/>
-      <c r="E1229" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
+      <c r="E1229" t="inlineStr"/>
       <c r="F1229" t="inlineStr"/>
-      <c r="G1229" t="inlineStr">
-        <is>
-          <t>3.0%</t>
-        </is>
-      </c>
+      <c r="G1229" t="inlineStr"/>
       <c r="H1229" t="inlineStr">
         <is>
           <t>2</t>
@@ -40190,63 +39628,63 @@
     <row r="1230">
       <c r="A1230" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1230" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1230" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMDEC</t>
+          <t>GDP Growth Rate QoQ AdvQ4</t>
         </is>
       </c>
       <c r="D1230" t="inlineStr"/>
       <c r="E1230" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F1230" t="inlineStr"/>
       <c r="G1230" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1230" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1231">
       <c r="A1231" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1231" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1231" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>GDP Growth Rate YoY AdvQ4</t>
         </is>
       </c>
       <c r="D1231" t="inlineStr"/>
       <c r="E1231" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="F1231" t="inlineStr"/>
       <c r="G1231" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H1231" t="inlineStr">
@@ -40258,85 +39696,85 @@
     <row r="1232">
       <c r="A1232" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1232" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1232" t="inlineStr">
         <is>
-          <t>15-Year Bund Auction</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D1232" t="inlineStr"/>
-      <c r="E1232" t="inlineStr"/>
+      <c r="E1232" t="inlineStr">
+        <is>
+          <t>¥-117.6B</t>
+        </is>
+      </c>
       <c r="F1232" t="inlineStr"/>
-      <c r="G1232" t="inlineStr"/>
+      <c r="G1232" t="inlineStr">
+        <is>
+          <t>¥ 100B</t>
+        </is>
+      </c>
       <c r="H1232" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1233">
       <c r="A1233" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1233" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1233" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>Exports YoYDEC</t>
         </is>
       </c>
       <c r="D1233" t="inlineStr"/>
       <c r="E1233" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>3.8%</t>
         </is>
       </c>
       <c r="F1233" t="inlineStr"/>
-      <c r="G1233" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G1233" t="inlineStr"/>
       <c r="H1233" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1234">
       <c r="A1234" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1234" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1234" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>Foreign Bond InvestmentJAN/18</t>
         </is>
       </c>
       <c r="D1234" t="inlineStr"/>
-      <c r="E1234" t="inlineStr">
-        <is>
-          <t>6.3%</t>
-        </is>
-      </c>
+      <c r="E1234" t="inlineStr"/>
       <c r="F1234" t="inlineStr"/>
       <c r="G1234" t="inlineStr"/>
       <c r="H1234" t="inlineStr">
@@ -40348,21 +39786,25 @@
     <row r="1235">
       <c r="A1235" t="inlineStr">
         <is>
-          <t>06:10 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1235" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1235" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Imports YoYDEC</t>
         </is>
       </c>
       <c r="D1235" t="inlineStr"/>
-      <c r="E1235" t="inlineStr"/>
+      <c r="E1235" t="inlineStr">
+        <is>
+          <t>-3.8%</t>
+        </is>
+      </c>
       <c r="F1235" t="inlineStr"/>
       <c r="G1235" t="inlineStr"/>
       <c r="H1235" t="inlineStr">
@@ -40374,17 +39816,17 @@
     <row r="1236">
       <c r="A1236" t="inlineStr">
         <is>
-          <t>06:10 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1236" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1236" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Stock Investment by ForeignersJAN/18</t>
         </is>
       </c>
       <c r="D1236" t="inlineStr"/>
@@ -40400,73 +39842,81 @@
     <row r="1237">
       <c r="A1237" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1237" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1237" t="inlineStr">
         <is>
-          <t>M3 Money Supply YoYJAN/10</t>
+          <t>NAB Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D1237" t="inlineStr"/>
       <c r="E1237" t="inlineStr">
         <is>
-          <t>9.3%</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="F1237" t="inlineStr"/>
-      <c r="G1237" t="inlineStr"/>
+      <c r="G1237" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="H1237" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1238">
       <c r="A1238" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1238" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C1238" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJAN/17</t>
+          <t>M2 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D1238" t="inlineStr"/>
-      <c r="E1238" t="inlineStr"/>
+      <c r="E1238" t="inlineStr">
+        <is>
+          <t>7%</t>
+        </is>
+      </c>
       <c r="F1238" t="inlineStr"/>
       <c r="G1238" t="inlineStr"/>
       <c r="H1238" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1239">
       <c r="A1239" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B1239" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1239" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJAN/17</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1239" t="inlineStr"/>
@@ -40482,47 +39932,39 @@
     <row r="1240">
       <c r="A1240" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1240" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1240" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexJAN/17</t>
-        </is>
-      </c>
+          <t>Thursday January 23 2025</t>
+        </is>
+      </c>
+      <c r="B1240" t="inlineStr"/>
+      <c r="C1240" t="inlineStr"/>
       <c r="D1240" t="inlineStr"/>
       <c r="E1240" t="inlineStr"/>
       <c r="F1240" t="inlineStr"/>
       <c r="G1240" t="inlineStr"/>
-      <c r="H1240" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1240" t="inlineStr"/>
     </row>
     <row r="1241">
       <c r="A1241" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1241" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1241" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexJAN/17</t>
+          <t>1-Year T-Bill Auction</t>
         </is>
       </c>
       <c r="D1241" t="inlineStr"/>
-      <c r="E1241" t="inlineStr"/>
+      <c r="E1241" t="inlineStr">
+        <is>
+          <t>2.71%</t>
+        </is>
+      </c>
       <c r="F1241" t="inlineStr"/>
       <c r="G1241" t="inlineStr"/>
       <c r="H1241" t="inlineStr">
@@ -40534,23 +39976,31 @@
     <row r="1242">
       <c r="A1242" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1242" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1242" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexJAN/17</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1242" t="inlineStr"/>
-      <c r="E1242" t="inlineStr"/>
+      <c r="E1242" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
       <c r="F1242" t="inlineStr"/>
-      <c r="G1242" t="inlineStr"/>
+      <c r="G1242" t="inlineStr">
+        <is>
+          <t>2.5%</t>
+        </is>
+      </c>
       <c r="H1242" t="inlineStr">
         <is>
           <t>3</t>
@@ -40560,23 +40010,23 @@
     <row r="1243">
       <c r="A1243" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1243" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1243" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1243" t="inlineStr"/>
       <c r="E1243" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="F1243" t="inlineStr"/>
@@ -40594,29 +40044,29 @@
     <row r="1244">
       <c r="A1244" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1244" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1244" t="inlineStr">
         <is>
-          <t>Raw Materials Prices MoMDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1244" t="inlineStr"/>
       <c r="E1244" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F1244" t="inlineStr"/>
       <c r="G1244" t="inlineStr">
         <is>
-          <t>1.0%</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="H1244" t="inlineStr">
@@ -40628,31 +40078,27 @@
     <row r="1245">
       <c r="A1245" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1245" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1245" t="inlineStr">
         <is>
-          <t>Raw Materials Prices YoYDEC</t>
+          <t>Leading Business Cycle Indicator MoMNOV</t>
         </is>
       </c>
       <c r="D1245" t="inlineStr"/>
       <c r="E1245" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="F1245" t="inlineStr"/>
-      <c r="G1245" t="inlineStr">
-        <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
+      <c r="G1245" t="inlineStr"/>
       <c r="H1245" t="inlineStr">
         <is>
           <t>3</t>
@@ -40662,77 +40108,85 @@
     <row r="1246">
       <c r="A1246" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1246" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1246" t="inlineStr">
         <is>
-          <t>CB Leading Index MoMDEC</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1246" t="inlineStr"/>
       <c r="E1246" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>81.3</t>
         </is>
       </c>
       <c r="F1246" t="inlineStr"/>
       <c r="G1246" t="inlineStr"/>
       <c r="H1246" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1247">
       <c r="A1247" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B1247" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1247" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1247" t="inlineStr"/>
-      <c r="E1247" t="inlineStr"/>
+      <c r="E1247" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
       <c r="F1247" t="inlineStr"/>
       <c r="G1247" t="inlineStr"/>
       <c r="H1247" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1248">
       <c r="A1248" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B1248" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1248" t="inlineStr">
         <is>
-          <t>20-Year Bond Auction</t>
+          <t>Business Climate IndicatorJAN</t>
         </is>
       </c>
       <c r="D1248" t="inlineStr"/>
-      <c r="E1248" t="inlineStr"/>
+      <c r="E1248" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
       <c r="F1248" t="inlineStr"/>
       <c r="G1248" t="inlineStr"/>
       <c r="H1248" t="inlineStr">
@@ -40744,31 +40198,23 @@
     <row r="1249">
       <c r="A1249" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1249" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1249" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>OAT Auction</t>
         </is>
       </c>
       <c r="D1249" t="inlineStr"/>
-      <c r="E1249" t="inlineStr">
-        <is>
-          <t>127.1%</t>
-        </is>
-      </c>
+      <c r="E1249" t="inlineStr"/>
       <c r="F1249" t="inlineStr"/>
-      <c r="G1249" t="inlineStr">
-        <is>
-          <t>115.0%</t>
-        </is>
-      </c>
+      <c r="G1249" t="inlineStr"/>
       <c r="H1249" t="inlineStr">
         <is>
           <t>3</t>
@@ -40778,47 +40224,47 @@
     <row r="1250">
       <c r="A1250" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1250" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1250" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>4-Year Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D1250" t="inlineStr"/>
-      <c r="E1250" t="inlineStr"/>
+      <c r="E1250" t="inlineStr">
+        <is>
+          <t>4.499%</t>
+        </is>
+      </c>
       <c r="F1250" t="inlineStr"/>
-      <c r="G1250" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
+      <c r="G1250" t="inlineStr"/>
       <c r="H1250" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1251">
       <c r="A1251" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1251" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1251" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/17</t>
+          <t>Index-Linked OAT Auction</t>
         </is>
       </c>
       <c r="D1251" t="inlineStr"/>
@@ -40827,72 +40273,60 @@
       <c r="G1251" t="inlineStr"/>
       <c r="H1251" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1252">
       <c r="A1252" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1252" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1252" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQ AdvQ4</t>
+          <t>OATi Auction</t>
         </is>
       </c>
       <c r="D1252" t="inlineStr"/>
-      <c r="E1252" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="E1252" t="inlineStr"/>
       <c r="F1252" t="inlineStr"/>
-      <c r="G1252" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1252" t="inlineStr"/>
       <c r="H1252" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1253">
       <c r="A1253" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1253" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1253" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoY AdvQ4</t>
+          <t>Building Permits YoYNOV</t>
         </is>
       </c>
       <c r="D1253" t="inlineStr"/>
       <c r="E1253" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>21.6%</t>
         </is>
       </c>
       <c r="F1253" t="inlineStr"/>
-      <c r="G1253" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
+      <c r="G1253" t="inlineStr"/>
       <c r="H1253" t="inlineStr">
         <is>
           <t>3</t>
@@ -40902,57 +40336,53 @@
     <row r="1254">
       <c r="A1254" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1254" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1254" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Overnight Borrowing RateJAN</t>
         </is>
       </c>
       <c r="D1254" t="inlineStr"/>
       <c r="E1254" t="inlineStr">
         <is>
-          <t>¥-117.6B</t>
+          <t>46%</t>
         </is>
       </c>
       <c r="F1254" t="inlineStr"/>
-      <c r="G1254" t="inlineStr">
-        <is>
-          <t>¥ 100B</t>
-        </is>
-      </c>
+      <c r="G1254" t="inlineStr"/>
       <c r="H1254" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1255">
       <c r="A1255" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1255" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1255" t="inlineStr">
         <is>
-          <t>Exports YoYDEC</t>
+          <t>TCMB Interest Rate Decision</t>
         </is>
       </c>
       <c r="D1255" t="inlineStr"/>
       <c r="E1255" t="inlineStr">
         <is>
-          <t>3.8%</t>
+          <t>47.5%</t>
         </is>
       </c>
       <c r="F1255" t="inlineStr"/>
@@ -40966,21 +40396,25 @@
     <row r="1256">
       <c r="A1256" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1256" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1256" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentJAN/18</t>
+          <t>Overnight Lending RateJAN</t>
         </is>
       </c>
       <c r="D1256" t="inlineStr"/>
-      <c r="E1256" t="inlineStr"/>
+      <c r="E1256" t="inlineStr">
+        <is>
+          <t>49%</t>
+        </is>
+      </c>
       <c r="F1256" t="inlineStr"/>
       <c r="G1256" t="inlineStr"/>
       <c r="H1256" t="inlineStr">
@@ -40992,25 +40426,21 @@
     <row r="1257">
       <c r="A1257" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1257" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1257" t="inlineStr">
         <is>
-          <t>Imports YoYDEC</t>
+          <t>Foreign Exchange ReservesJAN/17</t>
         </is>
       </c>
       <c r="D1257" t="inlineStr"/>
-      <c r="E1257" t="inlineStr">
-        <is>
-          <t>-3.8%</t>
-        </is>
-      </c>
+      <c r="E1257" t="inlineStr"/>
       <c r="F1257" t="inlineStr"/>
       <c r="G1257" t="inlineStr"/>
       <c r="H1257" t="inlineStr">
@@ -41022,21 +40452,25 @@
     <row r="1258">
       <c r="A1258" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1258" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1258" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersJAN/18</t>
+          <t>Mid-month Core Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D1258" t="inlineStr"/>
-      <c r="E1258" t="inlineStr"/>
+      <c r="E1258" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="F1258" t="inlineStr"/>
       <c r="G1258" t="inlineStr"/>
       <c r="H1258" t="inlineStr">
@@ -41048,57 +40482,53 @@
     <row r="1259">
       <c r="A1259" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1259" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1259" t="inlineStr">
         <is>
-          <t>NAB Business ConfidenceDEC</t>
+          <t>Mid-month Core Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D1259" t="inlineStr"/>
       <c r="E1259" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>3.62%</t>
         </is>
       </c>
       <c r="F1259" t="inlineStr"/>
-      <c r="G1259" t="inlineStr">
+      <c r="G1259" t="inlineStr"/>
+      <c r="H1259" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="H1259" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1260">
       <c r="A1260" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1260" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1260" t="inlineStr">
         <is>
-          <t>M2 Money Supply YoYDEC</t>
+          <t>Mid-month Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D1260" t="inlineStr"/>
       <c r="E1260" t="inlineStr">
         <is>
-          <t>7%</t>
+          <t>0.42%</t>
         </is>
       </c>
       <c r="F1260" t="inlineStr"/>
@@ -41112,21 +40542,25 @@
     <row r="1261">
       <c r="A1261" t="inlineStr">
         <is>
-          <t>10:35 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1261" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1261" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Mid-month Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D1261" t="inlineStr"/>
-      <c r="E1261" t="inlineStr"/>
+      <c r="E1261" t="inlineStr">
+        <is>
+          <t>4.44%</t>
+        </is>
+      </c>
       <c r="F1261" t="inlineStr"/>
       <c r="G1261" t="inlineStr"/>
       <c r="H1261" t="inlineStr">
@@ -41138,107 +40572,115 @@
     <row r="1262">
       <c r="A1262" t="inlineStr">
         <is>
-          <t>Thursday January 23 2025</t>
-        </is>
-      </c>
-      <c r="B1262" t="inlineStr"/>
-      <c r="C1262" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B1262" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C1262" t="inlineStr">
+        <is>
+          <t>Retail Sales Ex Autos MoMNOV</t>
+        </is>
+      </c>
       <c r="D1262" t="inlineStr"/>
       <c r="E1262" t="inlineStr"/>
       <c r="F1262" t="inlineStr"/>
       <c r="G1262" t="inlineStr"/>
-      <c r="H1262" t="inlineStr"/>
+      <c r="H1262" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1263">
       <c r="A1263" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1263" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1263" t="inlineStr">
         <is>
-          <t>1-Year T-Bill Auction</t>
+          <t>Retail Sales MoM FinalNOV</t>
         </is>
       </c>
       <c r="D1263" t="inlineStr"/>
       <c r="E1263" t="inlineStr">
         <is>
-          <t>2.71%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="F1263" t="inlineStr"/>
-      <c r="G1263" t="inlineStr"/>
+      <c r="G1263" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
       <c r="H1263" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1264">
       <c r="A1264" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1264" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1264" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>Retail Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1264" t="inlineStr"/>
-      <c r="E1264" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="E1264" t="inlineStr"/>
       <c r="F1264" t="inlineStr"/>
-      <c r="G1264" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
+      <c r="G1264" t="inlineStr"/>
       <c r="H1264" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1265">
       <c r="A1265" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1265" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1265" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1265" t="inlineStr"/>
       <c r="E1265" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="F1265" t="inlineStr"/>
       <c r="G1265" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="H1265" t="inlineStr">
@@ -41250,59 +40692,47 @@
     <row r="1266">
       <c r="A1266" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1266" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1266" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Initial Jobless ClaimsJAN/18</t>
         </is>
       </c>
       <c r="D1266" t="inlineStr"/>
-      <c r="E1266" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+      <c r="E1266" t="inlineStr"/>
       <c r="F1266" t="inlineStr"/>
-      <c r="G1266" t="inlineStr">
-        <is>
-          <t>1.8%</t>
-        </is>
-      </c>
+      <c r="G1266" t="inlineStr"/>
       <c r="H1266" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1267">
       <c r="A1267" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1267" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1267" t="inlineStr">
         <is>
-          <t>Leading Business Cycle Indicator MoMNOV</t>
+          <t>Continuing Jobless ClaimsJAN/11</t>
         </is>
       </c>
       <c r="D1267" t="inlineStr"/>
-      <c r="E1267" t="inlineStr">
-        <is>
-          <t>1.1%</t>
-        </is>
-      </c>
+      <c r="E1267" t="inlineStr"/>
       <c r="F1267" t="inlineStr"/>
       <c r="G1267" t="inlineStr"/>
       <c r="H1267" t="inlineStr">
@@ -41314,53 +40744,49 @@
     <row r="1268">
       <c r="A1268" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1268" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1268" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>Jobless Claims 4-week AverageJAN/18</t>
         </is>
       </c>
       <c r="D1268" t="inlineStr"/>
-      <c r="E1268" t="inlineStr">
-        <is>
-          <t>81.3</t>
-        </is>
-      </c>
+      <c r="E1268" t="inlineStr"/>
       <c r="F1268" t="inlineStr"/>
       <c r="G1268" t="inlineStr"/>
       <c r="H1268" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1269">
       <c r="A1269" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1269" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1269" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>Consumer Confidence FlashJAN</t>
         </is>
       </c>
       <c r="D1269" t="inlineStr"/>
       <c r="E1269" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>-14.5</t>
         </is>
       </c>
       <c r="F1269" t="inlineStr"/>
@@ -41374,25 +40800,21 @@
     <row r="1270">
       <c r="A1270" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1270" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1270" t="inlineStr">
         <is>
-          <t>Business Climate IndicatorJAN</t>
+          <t>EIA Natural Gas Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1270" t="inlineStr"/>
-      <c r="E1270" t="inlineStr">
-        <is>
-          <t>94</t>
-        </is>
-      </c>
+      <c r="E1270" t="inlineStr"/>
       <c r="F1270" t="inlineStr"/>
       <c r="G1270" t="inlineStr"/>
       <c r="H1270" t="inlineStr">
@@ -41404,17 +40826,17 @@
     <row r="1271">
       <c r="A1271" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1271" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1271" t="inlineStr">
         <is>
-          <t>OAT Auction</t>
+          <t>EIA Crude Oil Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1271" t="inlineStr"/>
@@ -41423,54 +40845,50 @@
       <c r="G1271" t="inlineStr"/>
       <c r="H1271" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1272">
       <c r="A1272" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1272" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1272" t="inlineStr">
         <is>
-          <t>4-Year Treasury Gilt Auction</t>
+          <t>EIA Gasoline Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1272" t="inlineStr"/>
-      <c r="E1272" t="inlineStr">
-        <is>
-          <t>4.499%</t>
-        </is>
-      </c>
+      <c r="E1272" t="inlineStr"/>
       <c r="F1272" t="inlineStr"/>
       <c r="G1272" t="inlineStr"/>
       <c r="H1272" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1273">
       <c r="A1273" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1273" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1273" t="inlineStr">
         <is>
-          <t>Index-Linked OAT Auction</t>
+          <t>EIA Crude Oil Imports ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1273" t="inlineStr"/>
@@ -41486,17 +40904,17 @@
     <row r="1274">
       <c r="A1274" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1274" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1274" t="inlineStr">
         <is>
-          <t>OATi Auction</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1274" t="inlineStr"/>
@@ -41512,25 +40930,21 @@
     <row r="1275">
       <c r="A1275" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1275" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1275" t="inlineStr">
         <is>
-          <t>Building Permits YoYNOV</t>
+          <t>EIA Distillate Fuel Production ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1275" t="inlineStr"/>
-      <c r="E1275" t="inlineStr">
-        <is>
-          <t>21.6%</t>
-        </is>
-      </c>
+      <c r="E1275" t="inlineStr"/>
       <c r="F1275" t="inlineStr"/>
       <c r="G1275" t="inlineStr"/>
       <c r="H1275" t="inlineStr">
@@ -41542,85 +40956,73 @@
     <row r="1276">
       <c r="A1276" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1276" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1276" t="inlineStr">
         <is>
-          <t>Overnight Borrowing RateJAN</t>
+          <t>EIA Distillate Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1276" t="inlineStr"/>
-      <c r="E1276" t="inlineStr">
-        <is>
-          <t>46%</t>
-        </is>
-      </c>
+      <c r="E1276" t="inlineStr"/>
       <c r="F1276" t="inlineStr"/>
       <c r="G1276" t="inlineStr"/>
       <c r="H1276" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1277">
       <c r="A1277" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1277" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1277" t="inlineStr">
         <is>
-          <t>TCMB Interest Rate Decision</t>
+          <t>EIA Gasoline Production ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1277" t="inlineStr"/>
-      <c r="E1277" t="inlineStr">
-        <is>
-          <t>47.5%</t>
-        </is>
-      </c>
+      <c r="E1277" t="inlineStr"/>
       <c r="F1277" t="inlineStr"/>
       <c r="G1277" t="inlineStr"/>
       <c r="H1277" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1278">
       <c r="A1278" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1278" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1278" t="inlineStr">
         <is>
-          <t>Overnight Lending RateJAN</t>
+          <t>EIA Heating Oil Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1278" t="inlineStr"/>
-      <c r="E1278" t="inlineStr">
-        <is>
-          <t>49%</t>
-        </is>
-      </c>
+      <c r="E1278" t="inlineStr"/>
       <c r="F1278" t="inlineStr"/>
       <c r="G1278" t="inlineStr"/>
       <c r="H1278" t="inlineStr">
@@ -41632,17 +41034,17 @@
     <row r="1279">
       <c r="A1279" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1279" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1279" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/17</t>
+          <t>EIA Refinery Crude Runs ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1279" t="inlineStr"/>
@@ -41656,25 +41058,21 @@
       </c>
     </row>
     <row r="1280">
-      <c r="A1280" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
+      <c r="A1280" t="inlineStr"/>
       <c r="B1280" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1280" t="inlineStr">
         <is>
-          <t>Mid-month Core Inflation Rate MoMJAN</t>
+          <t>20-Year KTB Auction</t>
         </is>
       </c>
       <c r="D1280" t="inlineStr"/>
       <c r="E1280" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>2.750%</t>
         </is>
       </c>
       <c r="F1280" t="inlineStr"/>
@@ -41686,372 +41084,28 @@
       </c>
     </row>
     <row r="1281">
-      <c r="A1281" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
+      <c r="A1281" t="inlineStr"/>
       <c r="B1281" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1281" t="inlineStr">
         <is>
-          <t>Mid-month Core Inflation Rate YoYJAN</t>
+          <t>Federal Tax RevenuesDEC</t>
         </is>
       </c>
       <c r="D1281" t="inlineStr"/>
-      <c r="E1281" t="inlineStr">
-        <is>
-          <t>3.62%</t>
-        </is>
-      </c>
+      <c r="E1281" t="inlineStr"/>
       <c r="F1281" t="inlineStr"/>
-      <c r="G1281" t="inlineStr"/>
+      <c r="G1281" t="inlineStr">
+        <is>
+          <t>BRL 255.1B</t>
+        </is>
+      </c>
       <c r="H1281" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1282">
-      <c r="A1282" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1282" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C1282" t="inlineStr">
-        <is>
-          <t>Mid-month Inflation Rate MoMJAN</t>
-        </is>
-      </c>
-      <c r="D1282" t="inlineStr"/>
-      <c r="E1282" t="inlineStr">
-        <is>
-          <t>0.42%</t>
-        </is>
-      </c>
-      <c r="F1282" t="inlineStr"/>
-      <c r="G1282" t="inlineStr"/>
-      <c r="H1282" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1283">
-      <c r="A1283" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1283" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C1283" t="inlineStr">
-        <is>
-          <t>Mid-month Inflation Rate YoYJAN</t>
-        </is>
-      </c>
-      <c r="D1283" t="inlineStr"/>
-      <c r="E1283" t="inlineStr">
-        <is>
-          <t>4.44%</t>
-        </is>
-      </c>
-      <c r="F1283" t="inlineStr"/>
-      <c r="G1283" t="inlineStr"/>
-      <c r="H1283" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1284">
-      <c r="A1284" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1284" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1284" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Autos MoMNOV</t>
-        </is>
-      </c>
-      <c r="D1284" t="inlineStr"/>
-      <c r="E1284" t="inlineStr"/>
-      <c r="F1284" t="inlineStr"/>
-      <c r="G1284" t="inlineStr"/>
-      <c r="H1284" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1285">
-      <c r="A1285" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1285" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1285" t="inlineStr">
-        <is>
-          <t>Retail Sales MoM FinalNOV</t>
-        </is>
-      </c>
-      <c r="D1285" t="inlineStr"/>
-      <c r="E1285" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="F1285" t="inlineStr"/>
-      <c r="G1285" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="H1285" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1286">
-      <c r="A1286" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1286" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1286" t="inlineStr">
-        <is>
-          <t>Retail Sales MoM PrelDEC</t>
-        </is>
-      </c>
-      <c r="D1286" t="inlineStr"/>
-      <c r="E1286" t="inlineStr"/>
-      <c r="F1286" t="inlineStr"/>
-      <c r="G1286" t="inlineStr"/>
-      <c r="H1286" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1287">
-      <c r="A1287" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1287" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1287" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYNOV</t>
-        </is>
-      </c>
-      <c r="D1287" t="inlineStr"/>
-      <c r="E1287" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="F1287" t="inlineStr"/>
-      <c r="G1287" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="H1287" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1288">
-      <c r="A1288" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1288" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1288" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsJAN/18</t>
-        </is>
-      </c>
-      <c r="D1288" t="inlineStr"/>
-      <c r="E1288" t="inlineStr"/>
-      <c r="F1288" t="inlineStr"/>
-      <c r="G1288" t="inlineStr"/>
-      <c r="H1288" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1289">
-      <c r="A1289" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1289" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1289" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsJAN/11</t>
-        </is>
-      </c>
-      <c r="D1289" t="inlineStr"/>
-      <c r="E1289" t="inlineStr"/>
-      <c r="F1289" t="inlineStr"/>
-      <c r="G1289" t="inlineStr"/>
-      <c r="H1289" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1290">
-      <c r="A1290" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1290" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1290" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageJAN/18</t>
-        </is>
-      </c>
-      <c r="D1290" t="inlineStr"/>
-      <c r="E1290" t="inlineStr"/>
-      <c r="F1290" t="inlineStr"/>
-      <c r="G1290" t="inlineStr"/>
-      <c r="H1290" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1291">
-      <c r="A1291" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1291" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C1291" t="inlineStr">
-        <is>
-          <t>Consumer Confidence FlashJAN</t>
-        </is>
-      </c>
-      <c r="D1291" t="inlineStr"/>
-      <c r="E1291" t="inlineStr">
-        <is>
-          <t>-14.5</t>
-        </is>
-      </c>
-      <c r="F1291" t="inlineStr"/>
-      <c r="G1291" t="inlineStr"/>
-      <c r="H1291" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1292">
-      <c r="A1292" t="inlineStr"/>
-      <c r="B1292" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C1292" t="inlineStr">
-        <is>
-          <t>20-Year KTB Auction</t>
-        </is>
-      </c>
-      <c r="D1292" t="inlineStr"/>
-      <c r="E1292" t="inlineStr">
-        <is>
-          <t>2.750%</t>
-        </is>
-      </c>
-      <c r="F1292" t="inlineStr"/>
-      <c r="G1292" t="inlineStr"/>
-      <c r="H1292" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1293">
-      <c r="A1293" t="inlineStr"/>
-      <c r="B1293" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C1293" t="inlineStr">
-        <is>
-          <t>Federal Tax RevenuesDEC</t>
-        </is>
-      </c>
-      <c r="D1293" t="inlineStr"/>
-      <c r="E1293" t="inlineStr"/>
-      <c r="F1293" t="inlineStr"/>
-      <c r="G1293" t="inlineStr">
-        <is>
-          <t>BRL 255.1B</t>
-        </is>
-      </c>
-      <c r="H1293" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
     </row>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-23.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1308"/>
+  <dimension ref="A1:H1287"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28737,10 +28737,8 @@
       </c>
       <c r="F879" t="inlineStr"/>
       <c r="G879" t="inlineStr"/>
-      <c r="H879" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H879" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="880">
@@ -28775,10 +28773,8 @@
           <t>6.4%</t>
         </is>
       </c>
-      <c r="H880" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H880" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="881">
@@ -28813,10 +28809,8 @@
           <t>-19.0%</t>
         </is>
       </c>
-      <c r="H881" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H881" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="882">
@@ -28851,10 +28845,8 @@
           <t>-4.0%</t>
         </is>
       </c>
-      <c r="H882" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H882" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="883">
@@ -28893,10 +28885,8 @@
           <t>$-3.4B</t>
         </is>
       </c>
-      <c r="H883" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H883" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="884">
@@ -28931,10 +28921,8 @@
           <t>0%</t>
         </is>
       </c>
-      <c r="H884" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H884" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="885">
@@ -28969,10 +28957,8 @@
           <t>14.1%</t>
         </is>
       </c>
-      <c r="H885" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H885" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="886">
@@ -29003,10 +28989,8 @@
       </c>
       <c r="F886" t="inlineStr"/>
       <c r="G886" t="inlineStr"/>
-      <c r="H886" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H886" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="887">
@@ -29037,10 +29021,8 @@
       </c>
       <c r="F887" t="inlineStr"/>
       <c r="G887" t="inlineStr"/>
-      <c r="H887" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H887" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="888">
@@ -29071,10 +29053,8 @@
       </c>
       <c r="F888" t="inlineStr"/>
       <c r="G888" t="inlineStr"/>
-      <c r="H888" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H888" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="889">
@@ -29113,10 +29093,8 @@
           <t>5.2%</t>
         </is>
       </c>
-      <c r="H889" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H889" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="890">
@@ -29151,10 +29129,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H890" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H890" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="891">
@@ -29185,10 +29161,8 @@
       </c>
       <c r="F891" t="inlineStr"/>
       <c r="G891" t="inlineStr"/>
-      <c r="H891" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H891" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="892">
@@ -29219,10 +29193,8 @@
       </c>
       <c r="F892" t="inlineStr"/>
       <c r="G892" t="inlineStr"/>
-      <c r="H892" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H892" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="893">
@@ -29253,10 +29225,8 @@
       </c>
       <c r="F893" t="inlineStr"/>
       <c r="G893" t="inlineStr"/>
-      <c r="H893" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H893" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="894">
@@ -29287,10 +29257,8 @@
       </c>
       <c r="F894" t="inlineStr"/>
       <c r="G894" t="inlineStr"/>
-      <c r="H894" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H894" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="895">
@@ -29325,10 +29293,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H895" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H895" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="896">
@@ -29359,10 +29325,8 @@
       </c>
       <c r="F896" t="inlineStr"/>
       <c r="G896" t="inlineStr"/>
-      <c r="H896" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H896" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="897">
@@ -29393,10 +29357,8 @@
       </c>
       <c r="F897" t="inlineStr"/>
       <c r="G897" t="inlineStr"/>
-      <c r="H897" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H897" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="898">
@@ -29431,10 +29393,8 @@
           <t>$-220.0B</t>
         </is>
       </c>
-      <c r="H898" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H898" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="899">
@@ -29461,10 +29421,8 @@
       </c>
       <c r="F899" t="inlineStr"/>
       <c r="G899" t="inlineStr"/>
-      <c r="H899" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H899" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="900">
@@ -29491,10 +29449,8 @@
       </c>
       <c r="F900" t="inlineStr"/>
       <c r="G900" t="inlineStr"/>
-      <c r="H900" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H900" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="901">
@@ -29529,10 +29485,8 @@
           <t>¥1990.0B</t>
         </is>
       </c>
-      <c r="H901" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H901" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="902">
@@ -29567,10 +29521,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H902" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H902" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="903">
@@ -29601,10 +29553,8 @@
         </is>
       </c>
       <c r="G903" t="inlineStr"/>
-      <c r="H903" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H903" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="904">
@@ -29635,10 +29585,8 @@
         </is>
       </c>
       <c r="G904" t="inlineStr"/>
-      <c r="H904" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H904" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="905">
@@ -29665,10 +29613,8 @@
       </c>
       <c r="F905" t="inlineStr"/>
       <c r="G905" t="inlineStr"/>
-      <c r="H905" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H905" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="906">
@@ -29687,10 +29633,8 @@
       <c r="E906" t="inlineStr"/>
       <c r="F906" t="inlineStr"/>
       <c r="G906" t="inlineStr"/>
-      <c r="H906" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H906" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="907">
@@ -29739,10 +29683,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H908" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H908" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="909">
@@ -29773,10 +29715,8 @@
           <t>49.6</t>
         </is>
       </c>
-      <c r="H909" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H909" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="910">
@@ -29803,10 +29743,8 @@
       </c>
       <c r="F910" t="inlineStr"/>
       <c r="G910" t="inlineStr"/>
-      <c r="H910" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H910" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="911">
@@ -29833,10 +29771,8 @@
       </c>
       <c r="F911" t="inlineStr"/>
       <c r="G911" t="inlineStr"/>
-      <c r="H911" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H911" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="912">
@@ -29867,10 +29803,8 @@
           <t>10.2%</t>
         </is>
       </c>
-      <c r="H912" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H912" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="913">
@@ -29901,10 +29835,8 @@
           <t>-3.2%</t>
         </is>
       </c>
-      <c r="H913" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H913" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="914">
@@ -29939,10 +29871,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H914" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H914" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="915">
@@ -29973,10 +29903,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H915" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H915" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="916">
@@ -29999,10 +29927,8 @@
       <c r="E916" t="inlineStr"/>
       <c r="F916" t="inlineStr"/>
       <c r="G916" t="inlineStr"/>
-      <c r="H916" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H916" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="917">
@@ -30033,10 +29959,8 @@
           <t>€-162.0B</t>
         </is>
       </c>
-      <c r="H917" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H917" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="918">
@@ -30059,10 +29983,8 @@
       <c r="E918" t="inlineStr"/>
       <c r="F918" t="inlineStr"/>
       <c r="G918" t="inlineStr"/>
-      <c r="H918" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H918" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="919">
@@ -30097,10 +30019,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H919" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H919" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="920">
@@ -30131,10 +30051,8 @@
           <t>-3.3%</t>
         </is>
       </c>
-      <c r="H920" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H920" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="921">
@@ -30161,10 +30079,8 @@
       </c>
       <c r="F921" t="inlineStr"/>
       <c r="G921" t="inlineStr"/>
-      <c r="H921" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H921" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="922">
@@ -30191,10 +30107,8 @@
       </c>
       <c r="F922" t="inlineStr"/>
       <c r="G922" t="inlineStr"/>
-      <c r="H922" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H922" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="923">
@@ -30221,10 +30135,8 @@
       </c>
       <c r="F923" t="inlineStr"/>
       <c r="G923" t="inlineStr"/>
-      <c r="H923" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H923" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="924">
@@ -30251,10 +30163,8 @@
       </c>
       <c r="F924" t="inlineStr"/>
       <c r="G924" t="inlineStr"/>
-      <c r="H924" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H924" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="925">
@@ -30277,10 +30187,8 @@
       <c r="E925" t="inlineStr"/>
       <c r="F925" t="inlineStr"/>
       <c r="G925" t="inlineStr"/>
-      <c r="H925" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H925" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="926">
@@ -30315,10 +30223,8 @@
           <t>102</t>
         </is>
       </c>
-      <c r="H926" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H926" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="927">
@@ -30349,10 +30255,8 @@
           <t>$615.0B</t>
         </is>
       </c>
-      <c r="H927" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H927" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="928">
@@ -30387,10 +30291,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H928" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H928" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="929">
@@ -30425,10 +30327,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H929" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H929" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="930">
@@ -30463,10 +30363,8 @@
           <t>3.5%</t>
         </is>
       </c>
-      <c r="H930" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H930" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="931">
@@ -30497,10 +30395,8 @@
           <t>146.8</t>
         </is>
       </c>
-      <c r="H931" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H931" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="932">
@@ -30531,10 +30427,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H932" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H932" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="933">
@@ -30565,10 +30459,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H933" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H933" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="934">
@@ -30603,10 +30495,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H934" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H934" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="935">
@@ -30633,10 +30523,8 @@
       </c>
       <c r="F935" t="inlineStr"/>
       <c r="G935" t="inlineStr"/>
-      <c r="H935" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H935" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="936">
@@ -30659,10 +30547,8 @@
       <c r="E936" t="inlineStr"/>
       <c r="F936" t="inlineStr"/>
       <c r="G936" t="inlineStr"/>
-      <c r="H936" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H936" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="937">
@@ -30697,10 +30583,8 @@
           <t>54.2</t>
         </is>
       </c>
-      <c r="H937" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H937" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="938">
@@ -30727,10 +30611,8 @@
       </c>
       <c r="F938" t="inlineStr"/>
       <c r="G938" t="inlineStr"/>
-      <c r="H938" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H938" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="939">
@@ -30765,10 +30647,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H939" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H939" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="940">
@@ -30803,10 +30683,8 @@
           <t>116.0%</t>
         </is>
       </c>
-      <c r="H940" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H940" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="941">
@@ -30829,10 +30707,8 @@
       <c r="E941" t="inlineStr"/>
       <c r="F941" t="inlineStr"/>
       <c r="G941" t="inlineStr"/>
-      <c r="H941" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H941" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="942">
@@ -30863,10 +30739,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H942" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H942" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="943">
@@ -30897,10 +30771,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H943" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H943" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="944">
@@ -30927,10 +30799,8 @@
       </c>
       <c r="F944" t="inlineStr"/>
       <c r="G944" t="inlineStr"/>
-      <c r="H944" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H944" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="945">
@@ -30961,10 +30831,8 @@
           <t>3</t>
         </is>
       </c>
-      <c r="H945" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H945" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="946">
@@ -30987,10 +30855,8 @@
       <c r="E946" t="inlineStr"/>
       <c r="F946" t="inlineStr"/>
       <c r="G946" t="inlineStr"/>
-      <c r="H946" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H946" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="947">
@@ -31025,10 +30891,8 @@
           <t>$ 3.7B</t>
         </is>
       </c>
-      <c r="H947" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H947" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="948">
@@ -31059,10 +30923,8 @@
         </is>
       </c>
       <c r="G948" t="inlineStr"/>
-      <c r="H948" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H948" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="949">
@@ -31093,10 +30955,8 @@
         </is>
       </c>
       <c r="G949" t="inlineStr"/>
-      <c r="H949" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H949" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="950">
@@ -31119,10 +30979,8 @@
       </c>
       <c r="F950" t="inlineStr"/>
       <c r="G950" t="inlineStr"/>
-      <c r="H950" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H950" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="951">
@@ -31153,10 +31011,8 @@
           <t>CNY690.0B</t>
         </is>
       </c>
-      <c r="H951" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H951" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="952">
@@ -31183,10 +31039,8 @@
         </is>
       </c>
       <c r="G952" t="inlineStr"/>
-      <c r="H952" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H952" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="953">
@@ -31217,10 +31071,8 @@
           <t>7.5%</t>
         </is>
       </c>
-      <c r="H953" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H953" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="954">
@@ -31251,10 +31103,8 @@
           <t>CNY1850.0B</t>
         </is>
       </c>
-      <c r="H954" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H954" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="955">
@@ -31281,10 +31131,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H955" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H955" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="956">
@@ -31311,10 +31159,8 @@
           <t>-2.5%</t>
         </is>
       </c>
-      <c r="H956" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H956" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="957">
@@ -31337,10 +31183,8 @@
       </c>
       <c r="F957" t="inlineStr"/>
       <c r="G957" t="inlineStr"/>
-      <c r="H957" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H957" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="958">
@@ -31389,10 +31233,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H959" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H959" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="960">
@@ -31427,10 +31269,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H960" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H960" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="961">
@@ -31461,10 +31301,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H961" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H961" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="962">
@@ -31499,10 +31337,8 @@
           <t>2.7%</t>
         </is>
       </c>
-      <c r="H962" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H962" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="963">
@@ -31537,10 +31373,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H963" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H963" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="964">
@@ -31575,10 +31409,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H964" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H964" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="965">
@@ -31613,10 +31445,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H965" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H965" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="966">
@@ -31647,10 +31477,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H966" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H966" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="967">
@@ -31681,10 +31509,8 @@
           <t>2.1%</t>
         </is>
       </c>
-      <c r="H967" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H967" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="968">
@@ -31719,10 +31545,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H968" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H968" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="969">
@@ -31753,10 +31577,8 @@
           <t>-1%</t>
         </is>
       </c>
-      <c r="H969" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H969" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="970">
@@ -31791,10 +31613,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H970" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H970" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="971">
@@ -31825,10 +31645,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H971" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H971" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="972">
@@ -31863,10 +31681,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H972" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H972" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="973">
@@ -31901,10 +31717,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H973" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H973" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="974">
@@ -31935,10 +31749,8 @@
           <t>10%</t>
         </is>
       </c>
-      <c r="H974" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H974" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="975">
@@ -31973,10 +31785,8 @@
           <t>6%</t>
         </is>
       </c>
-      <c r="H975" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H975" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="976">
@@ -32011,10 +31821,8 @@
           <t>5.25%</t>
         </is>
       </c>
-      <c r="H976" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H976" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="977">
@@ -32049,10 +31857,8 @@
           <t>6.75%</t>
         </is>
       </c>
-      <c r="H977" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H977" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="978">
@@ -32087,10 +31893,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H978" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H978" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="979">
@@ -32125,10 +31929,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H979" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H979" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="980">
@@ -32163,10 +31965,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H980" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H980" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="981">
@@ -32201,10 +32001,8 @@
           <t>1.8%</t>
         </is>
       </c>
-      <c r="H981" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H981" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="982">
@@ -32227,10 +32025,8 @@
       <c r="E982" t="inlineStr"/>
       <c r="F982" t="inlineStr"/>
       <c r="G982" t="inlineStr"/>
-      <c r="H982" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H982" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="983">
@@ -32265,10 +32061,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H983" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H983" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="984">
@@ -32303,10 +32097,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H984" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H984" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="985">
@@ -32341,10 +32133,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H985" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H985" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="986">
@@ -32379,10 +32169,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H986" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H986" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="987">
@@ -32417,10 +32205,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H987" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H987" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="988">
@@ -32443,10 +32229,8 @@
       <c r="E988" t="inlineStr"/>
       <c r="F988" t="inlineStr"/>
       <c r="G988" t="inlineStr"/>
-      <c r="H988" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H988" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="989">
@@ -32481,10 +32265,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H989" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H989" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="990">
@@ -32519,10 +32301,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H990" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H990" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="991">
@@ -32557,10 +32337,8 @@
           <t>-1.5%</t>
         </is>
       </c>
-      <c r="H991" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H991" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="992">
@@ -32587,10 +32365,8 @@
       </c>
       <c r="F992" t="inlineStr"/>
       <c r="G992" t="inlineStr"/>
-      <c r="H992" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H992" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="993">
@@ -32617,10 +32393,8 @@
       </c>
       <c r="F993" t="inlineStr"/>
       <c r="G993" t="inlineStr"/>
-      <c r="H993" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H993" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="994">
@@ -32651,10 +32425,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H994" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H994" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="995">
@@ -32685,10 +32457,8 @@
           <t>-5.0%</t>
         </is>
       </c>
-      <c r="H995" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H995" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="996">
@@ -32715,10 +32485,8 @@
       </c>
       <c r="F996" t="inlineStr"/>
       <c r="G996" t="inlineStr"/>
-      <c r="H996" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H996" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="997">
@@ -32745,10 +32513,8 @@
       </c>
       <c r="F997" t="inlineStr"/>
       <c r="G997" t="inlineStr"/>
-      <c r="H997" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H997" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="998">
@@ -32775,10 +32541,8 @@
       </c>
       <c r="F998" t="inlineStr"/>
       <c r="G998" t="inlineStr"/>
-      <c r="H998" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H998" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="999">
@@ -32805,10 +32569,8 @@
       </c>
       <c r="F999" t="inlineStr"/>
       <c r="G999" t="inlineStr"/>
-      <c r="H999" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H999" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1000">
@@ -32835,10 +32597,8 @@
       </c>
       <c r="F1000" t="inlineStr"/>
       <c r="G1000" t="inlineStr"/>
-      <c r="H1000" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1000" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1001">
@@ -32873,10 +32633,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1001" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1001" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1002">
@@ -32903,10 +32661,8 @@
       </c>
       <c r="F1002" t="inlineStr"/>
       <c r="G1002" t="inlineStr"/>
-      <c r="H1002" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1002" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1003">
@@ -32941,10 +32697,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H1003" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1003" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1004">
@@ -32979,10 +32733,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1004" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1004" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1005">
@@ -33017,10 +32769,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H1005" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1005" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1006">
@@ -33055,10 +32805,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1006" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1006" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1007">
@@ -33093,10 +32841,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H1007" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1007" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1008">
@@ -33127,10 +32873,8 @@
           <t>315.6</t>
         </is>
       </c>
-      <c r="H1008" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1008" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1009">
@@ -33161,10 +32905,8 @@
           <t>317.4</t>
         </is>
       </c>
-      <c r="H1009" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1009" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1010">
@@ -33199,10 +32941,8 @@
           <t>3.1</t>
         </is>
       </c>
-      <c r="H1010" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1010" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1011">
@@ -33225,10 +32965,8 @@
       <c r="E1011" t="inlineStr"/>
       <c r="F1011" t="inlineStr"/>
       <c r="G1011" t="inlineStr"/>
-      <c r="H1011" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1011" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1012">
@@ -33251,10 +32989,8 @@
       <c r="E1012" t="inlineStr"/>
       <c r="F1012" t="inlineStr"/>
       <c r="G1012" t="inlineStr"/>
-      <c r="H1012" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1012" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1013">
@@ -33281,10 +33017,8 @@
       </c>
       <c r="F1013" t="inlineStr"/>
       <c r="G1013" t="inlineStr"/>
-      <c r="H1013" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1013" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1014">
@@ -33311,10 +33045,8 @@
       </c>
       <c r="F1014" t="inlineStr"/>
       <c r="G1014" t="inlineStr"/>
-      <c r="H1014" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1014" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1015">
@@ -33341,10 +33073,8 @@
       </c>
       <c r="F1015" t="inlineStr"/>
       <c r="G1015" t="inlineStr"/>
-      <c r="H1015" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1015" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1016">
@@ -33371,10 +33101,8 @@
       </c>
       <c r="F1016" t="inlineStr"/>
       <c r="G1016" t="inlineStr"/>
-      <c r="H1016" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1016" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1017">
@@ -33401,10 +33129,8 @@
       </c>
       <c r="F1017" t="inlineStr"/>
       <c r="G1017" t="inlineStr"/>
-      <c r="H1017" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1017" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1018">
@@ -33431,10 +33157,8 @@
       </c>
       <c r="F1018" t="inlineStr"/>
       <c r="G1018" t="inlineStr"/>
-      <c r="H1018" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1018" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1019">
@@ -33461,10 +33185,8 @@
       </c>
       <c r="F1019" t="inlineStr"/>
       <c r="G1019" t="inlineStr"/>
-      <c r="H1019" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1019" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1020">
@@ -33491,10 +33213,8 @@
       </c>
       <c r="F1020" t="inlineStr"/>
       <c r="G1020" t="inlineStr"/>
-      <c r="H1020" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1020" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1021">
@@ -33521,10 +33241,8 @@
       </c>
       <c r="F1021" t="inlineStr"/>
       <c r="G1021" t="inlineStr"/>
-      <c r="H1021" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1021" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1022">
@@ -33559,10 +33277,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1022" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1022" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1023">
@@ -33597,10 +33313,8 @@
           <t>9.5%</t>
         </is>
       </c>
-      <c r="H1023" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1023" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1024">
@@ -33623,10 +33337,8 @@
       <c r="E1024" t="inlineStr"/>
       <c r="F1024" t="inlineStr"/>
       <c r="G1024" t="inlineStr"/>
-      <c r="H1024" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1024" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1025">
@@ -33653,10 +33365,8 @@
       </c>
       <c r="F1025" t="inlineStr"/>
       <c r="G1025" t="inlineStr"/>
-      <c r="H1025" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1025" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1026">
@@ -33687,10 +33397,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H1026" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1026" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1027">
@@ -33717,10 +33425,8 @@
       </c>
       <c r="F1027" t="inlineStr"/>
       <c r="G1027" t="inlineStr"/>
-      <c r="H1027" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1027" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1028">
@@ -33743,10 +33449,8 @@
       <c r="E1028" t="inlineStr"/>
       <c r="F1028" t="inlineStr"/>
       <c r="G1028" t="inlineStr"/>
-      <c r="H1028" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1028" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1029">
@@ -33769,10 +33473,8 @@
       <c r="E1029" t="inlineStr"/>
       <c r="F1029" t="inlineStr"/>
       <c r="G1029" t="inlineStr"/>
-      <c r="H1029" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1029" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1030">
@@ -33795,10 +33497,8 @@
       <c r="E1030" t="inlineStr"/>
       <c r="F1030" t="inlineStr"/>
       <c r="G1030" t="inlineStr"/>
-      <c r="H1030" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1030" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1031">
@@ -33829,10 +33529,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H1031" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1031" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1032">
@@ -33867,10 +33565,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1032" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1032" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1033">
@@ -33905,10 +33601,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H1033" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1033" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1034">
@@ -33943,10 +33637,8 @@
           <t>26.0%</t>
         </is>
       </c>
-      <c r="H1034" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1034" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1035">
@@ -33981,10 +33673,8 @@
           <t>3.9%</t>
         </is>
       </c>
-      <c r="H1035" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1035" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1036">
@@ -34019,10 +33709,8 @@
           <t>25.1K</t>
         </is>
       </c>
-      <c r="H1036" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1036" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1037">
@@ -34049,10 +33737,8 @@
       </c>
       <c r="F1037" t="inlineStr"/>
       <c r="G1037" t="inlineStr"/>
-      <c r="H1037" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1037" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1038">
@@ -34079,10 +33765,8 @@
       </c>
       <c r="F1038" t="inlineStr"/>
       <c r="G1038" t="inlineStr"/>
-      <c r="H1038" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1038" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1039">
@@ -34117,10 +33801,8 @@
           <t>66.8%</t>
         </is>
       </c>
-      <c r="H1039" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1039" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1040">
@@ -34155,10 +33837,8 @@
           <t>2.75%</t>
         </is>
       </c>
-      <c r="H1040" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1040" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1041">
@@ -34185,10 +33865,8 @@
       </c>
       <c r="F1041" t="inlineStr"/>
       <c r="G1041" t="inlineStr"/>
-      <c r="H1041" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1041" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1042">
@@ -34215,10 +33893,8 @@
       </c>
       <c r="F1042" t="inlineStr"/>
       <c r="G1042" t="inlineStr"/>
-      <c r="H1042" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1042" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1043">
@@ -34245,10 +33921,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1043" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1043" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1044">
@@ -34275,10 +33949,8 @@
           <t>2%</t>
         </is>
       </c>
-      <c r="H1044" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1044" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1045">
@@ -34305,10 +33977,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H1045" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1045" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1046">
@@ -34331,10 +34001,8 @@
       </c>
       <c r="F1046" t="inlineStr"/>
       <c r="G1046" t="inlineStr"/>
-      <c r="H1046" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1046" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1047">
@@ -34353,10 +34021,8 @@
       <c r="E1047" t="inlineStr"/>
       <c r="F1047" t="inlineStr"/>
       <c r="G1047" t="inlineStr"/>
-      <c r="H1047" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1047" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1048">
@@ -34383,10 +34049,8 @@
           <t>$ -38.0B</t>
         </is>
       </c>
-      <c r="H1048" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1048" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1049">
@@ -34413,10 +34077,8 @@
           <t>$ 32.5B</t>
         </is>
       </c>
-      <c r="H1049" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1049" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1050">
@@ -34443,10 +34105,8 @@
           <t>$ 70.5B</t>
         </is>
       </c>
-      <c r="H1050" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1050" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1051">
@@ -34487,10 +34147,8 @@
       </c>
       <c r="F1052" t="inlineStr"/>
       <c r="G1052" t="inlineStr"/>
-      <c r="H1052" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1052" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1053">
@@ -34525,10 +34183,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1053" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1053" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1054">
@@ -34563,10 +34219,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H1054" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1054" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1055">
@@ -34601,10 +34255,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H1055" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1055" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1056">
@@ -34639,10 +34291,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H1056" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1056" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1057">
@@ -34677,10 +34327,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1057" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1057" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1058">
@@ -34711,10 +34359,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1058" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1058" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1059">
@@ -34749,10 +34395,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1059" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1059" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1060">
@@ -34787,10 +34431,8 @@
           <t>£-17.0B</t>
         </is>
       </c>
-      <c r="H1060" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1060" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1061">
@@ -34821,10 +34463,8 @@
           <t>£-6.8B</t>
         </is>
       </c>
-      <c r="H1061" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1061" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1062">
@@ -34859,10 +34499,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1062" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1062" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1063">
@@ -34897,10 +34535,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1063" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1063" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1064">
@@ -34931,10 +34567,8 @@
           <t>£-3.9B</t>
         </is>
       </c>
-      <c r="H1064" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1064" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1065">
@@ -34965,10 +34599,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1065" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1065" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1066">
@@ -35003,10 +34635,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H1066" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1066" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1067">
@@ -35041,10 +34671,8 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H1067" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1067" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1068">
@@ -35079,10 +34707,8 @@
           <t>€3.2B</t>
         </is>
       </c>
-      <c r="H1068" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1068" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1069">
@@ -35117,10 +34743,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1069" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1069" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1070">
@@ -35155,10 +34779,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H1070" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1070" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1071">
@@ -35193,10 +34815,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1071" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1071" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1072">
@@ -35231,10 +34851,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H1072" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1072" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1073">
@@ -35257,10 +34875,8 @@
       <c r="E1073" t="inlineStr"/>
       <c r="F1073" t="inlineStr"/>
       <c r="G1073" t="inlineStr"/>
-      <c r="H1073" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1073" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1074">
@@ -35287,10 +34903,8 @@
       </c>
       <c r="F1074" t="inlineStr"/>
       <c r="G1074" t="inlineStr"/>
-      <c r="H1074" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1074" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1075">
@@ -35313,10 +34927,8 @@
       <c r="E1075" t="inlineStr"/>
       <c r="F1075" t="inlineStr"/>
       <c r="G1075" t="inlineStr"/>
-      <c r="H1075" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1075" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1076">
@@ -35343,10 +34955,8 @@
       </c>
       <c r="F1076" t="inlineStr"/>
       <c r="G1076" t="inlineStr"/>
-      <c r="H1076" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1076" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1077">
@@ -35381,10 +34991,8 @@
           <t>€1.8B</t>
         </is>
       </c>
-      <c r="H1077" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1077" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1078">
@@ -35411,10 +35019,8 @@
       </c>
       <c r="F1078" t="inlineStr"/>
       <c r="G1078" t="inlineStr"/>
-      <c r="H1078" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1078" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1079">
@@ -35449,10 +35055,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1079" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1079" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1080">
@@ -35475,10 +35079,8 @@
       <c r="E1080" t="inlineStr"/>
       <c r="F1080" t="inlineStr"/>
       <c r="G1080" t="inlineStr"/>
-      <c r="H1080" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1080" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1081">
@@ -35509,10 +35111,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1081" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1081" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1082">
@@ -35547,10 +35147,8 @@
           <t>240.0K</t>
         </is>
       </c>
-      <c r="H1082" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1082" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1083">
@@ -35585,10 +35183,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1083" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1083" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1084">
@@ -35623,10 +35219,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1084" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1084" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1085">
@@ -35661,10 +35255,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1085" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1085" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1086">
@@ -35699,10 +35291,8 @@
           <t>209.0K</t>
         </is>
       </c>
-      <c r="H1086" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1086" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1087">
@@ -35737,10 +35327,8 @@
           <t>-10</t>
         </is>
       </c>
-      <c r="H1087" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1087" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1088">
@@ -35775,10 +35363,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1088" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1088" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1089">
@@ -35809,10 +35395,8 @@
           <t>1870.0K</t>
         </is>
       </c>
-      <c r="H1089" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1089" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1090">
@@ -35843,10 +35427,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H1090" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1090" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1091">
@@ -35877,10 +35459,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1091" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1091" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1092">
@@ -35911,10 +35491,8 @@
           <t>215.0K</t>
         </is>
       </c>
-      <c r="H1092" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1092" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1093">
@@ -35941,10 +35519,8 @@
       </c>
       <c r="F1093" t="inlineStr"/>
       <c r="G1093" t="inlineStr"/>
-      <c r="H1093" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1093" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1094">
@@ -35971,10 +35547,8 @@
       </c>
       <c r="F1094" t="inlineStr"/>
       <c r="G1094" t="inlineStr"/>
-      <c r="H1094" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1094" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1095">
@@ -36001,10 +35575,8 @@
       </c>
       <c r="F1095" t="inlineStr"/>
       <c r="G1095" t="inlineStr"/>
-      <c r="H1095" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1095" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1096">
@@ -36031,10 +35603,8 @@
       </c>
       <c r="F1096" t="inlineStr"/>
       <c r="G1096" t="inlineStr"/>
-      <c r="H1096" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1096" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1097">
@@ -36061,10 +35631,8 @@
       </c>
       <c r="F1097" t="inlineStr"/>
       <c r="G1097" t="inlineStr"/>
-      <c r="H1097" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1097" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1098">
@@ -36095,10 +35663,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1098" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1098" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1099">
@@ -36129,10 +35695,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H1099" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1099" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1100">
@@ -36167,10 +35731,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1100" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1100" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1101">
@@ -36205,10 +35767,8 @@
           <t>45</t>
         </is>
       </c>
-      <c r="H1101" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1101" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1102">
@@ -36243,10 +35803,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1102" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1102" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1103">
@@ -36273,10 +35831,8 @@
       </c>
       <c r="F1103" t="inlineStr"/>
       <c r="G1103" t="inlineStr"/>
-      <c r="H1103" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1103" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1104">
@@ -36303,10 +35859,8 @@
       </c>
       <c r="F1104" t="inlineStr"/>
       <c r="G1104" t="inlineStr"/>
-      <c r="H1104" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1104" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1105">
@@ -36333,10 +35887,8 @@
       </c>
       <c r="F1105" t="inlineStr"/>
       <c r="G1105" t="inlineStr"/>
-      <c r="H1105" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1105" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1106">
@@ -36363,10 +35915,8 @@
       </c>
       <c r="F1106" t="inlineStr"/>
       <c r="G1106" t="inlineStr"/>
-      <c r="H1106" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1106" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1107">
@@ -36393,10 +35943,8 @@
       </c>
       <c r="F1107" t="inlineStr"/>
       <c r="G1107" t="inlineStr"/>
-      <c r="H1107" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1107" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1108">
@@ -36419,10 +35967,8 @@
       <c r="E1108" t="inlineStr"/>
       <c r="F1108" t="inlineStr"/>
       <c r="G1108" t="inlineStr"/>
-      <c r="H1108" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1108" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1109">
@@ -36449,10 +35995,8 @@
       </c>
       <c r="F1109" t="inlineStr"/>
       <c r="G1109" t="inlineStr"/>
-      <c r="H1109" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1109" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1110">
@@ -36479,10 +36023,8 @@
       </c>
       <c r="F1110" t="inlineStr"/>
       <c r="G1110" t="inlineStr"/>
-      <c r="H1110" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1110" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1111">
@@ -36509,10 +36051,8 @@
       </c>
       <c r="F1111" t="inlineStr"/>
       <c r="G1111" t="inlineStr"/>
-      <c r="H1111" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1111" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1112">
@@ -36543,10 +36083,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1112" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1112" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1113">
@@ -36581,10 +36119,8 @@
           <t>7.5%</t>
         </is>
       </c>
-      <c r="H1113" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1113" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1114">
@@ -36611,10 +36147,8 @@
       </c>
       <c r="F1114" t="inlineStr"/>
       <c r="G1114" t="inlineStr"/>
-      <c r="H1114" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1114" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1115">
@@ -36645,10 +36179,8 @@
           <t>-5.8%</t>
         </is>
       </c>
-      <c r="H1115" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1115" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1116">
@@ -36679,10 +36211,8 @@
           <t>$ 3.6B</t>
         </is>
       </c>
-      <c r="H1116" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1116" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1117">
@@ -36717,10 +36247,8 @@
           <t>5%</t>
         </is>
       </c>
-      <c r="H1117" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1117" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1118">
@@ -36755,10 +36283,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="H1118" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1118" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1119">
@@ -36793,10 +36319,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H1119" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1119" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1120">
@@ -36831,10 +36355,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H1120" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1120" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1121">
@@ -36869,10 +36391,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1121" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1121" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1122">
@@ -36903,10 +36423,8 @@
           <t>75.3%</t>
         </is>
       </c>
-      <c r="H1122" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1122" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1123">
@@ -36941,10 +36459,8 @@
           <t>5.00%</t>
         </is>
       </c>
-      <c r="H1123" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1123" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1124">
@@ -36971,96 +36487,98 @@
       </c>
       <c r="F1124" t="inlineStr"/>
       <c r="G1124" t="inlineStr"/>
-      <c r="H1124" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1124" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1125">
       <c r="A1125" t="inlineStr">
         <is>
-          <t>Friday January 17 2025</t>
-        </is>
-      </c>
-      <c r="B1125" t="inlineStr"/>
-      <c r="C1125" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B1125" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1125" t="inlineStr">
+        <is>
+          <t>Building Permits MoM PrelDEC</t>
+        </is>
+      </c>
       <c r="D1125" t="inlineStr"/>
-      <c r="E1125" t="inlineStr"/>
+      <c r="E1125" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="F1125" t="inlineStr"/>
-      <c r="G1125" t="inlineStr"/>
-      <c r="H1125" t="inlineStr"/>
+      <c r="G1125" t="inlineStr">
+        <is>
+          <t>-0.9%</t>
+        </is>
+      </c>
+      <c r="H1125" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1126">
       <c r="A1126" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1126" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1126" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Housing Starts MoMDEC</t>
         </is>
       </c>
       <c r="D1126" t="inlineStr"/>
       <c r="E1126" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F1126" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>-1.8%</t>
+        </is>
+      </c>
+      <c r="F1126" t="inlineStr"/>
       <c r="G1126" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H1126" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1127">
       <c r="A1127" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1127" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>IF</t>
         </is>
       </c>
       <c r="C1127" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>IMF/World Economic Outlook</t>
         </is>
       </c>
       <c r="D1127" t="inlineStr"/>
-      <c r="E1127" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F1127" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="G1127" t="inlineStr">
-        <is>
-          <t>2.1%</t>
-        </is>
-      </c>
+      <c r="E1127" t="inlineStr"/>
+      <c r="F1127" t="inlineStr"/>
+      <c r="G1127" t="inlineStr"/>
       <c r="H1127" t="inlineStr">
         <is>
           <t>2</t>
@@ -37070,71 +36588,71 @@
     <row r="1128">
       <c r="A1128" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1128" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1128" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel MoMDEC</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D1128" t="inlineStr"/>
       <c r="E1128" t="inlineStr">
         <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="F1128" t="inlineStr">
+        <is>
           <t>0.3%</t>
         </is>
       </c>
-      <c r="F1128" t="inlineStr">
+      <c r="G1128" t="inlineStr">
         <is>
           <t>0.1%</t>
         </is>
       </c>
-      <c r="G1128" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
       <c r="H1128" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1129">
       <c r="A1129" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1129" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1129" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel YoYDEC</t>
+          <t>Capacity UtilizationDEC</t>
         </is>
       </c>
       <c r="D1129" t="inlineStr"/>
       <c r="E1129" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>76.8%</t>
         </is>
       </c>
       <c r="F1129" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>76.9%</t>
         </is>
       </c>
       <c r="G1129" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>76.9%</t>
         </is>
       </c>
       <c r="H1129" t="inlineStr">
@@ -37146,29 +36664,29 @@
     <row r="1130">
       <c r="A1130" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1130" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1130" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D1130" t="inlineStr"/>
       <c r="E1130" t="inlineStr">
         <is>
-          <t>€32B</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="F1130" t="inlineStr"/>
       <c r="G1130" t="inlineStr">
         <is>
-          <t>€33.0B</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="H1130" t="inlineStr">
@@ -37180,31 +36698,35 @@
     <row r="1131">
       <c r="A1131" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1131" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1131" t="inlineStr">
         <is>
-          <t>Current Account s.aNOV</t>
+          <t>Manufacturing Production MoMDEC</t>
         </is>
       </c>
       <c r="D1131" t="inlineStr"/>
       <c r="E1131" t="inlineStr">
         <is>
-          <t>€33.5B</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1131" t="inlineStr">
         <is>
-          <t>€28B</t>
-        </is>
-      </c>
-      <c r="G1131" t="inlineStr"/>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="G1131" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H1131" t="inlineStr">
         <is>
           <t>3</t>
@@ -37214,107 +36736,91 @@
     <row r="1132">
       <c r="A1132" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1132" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1132" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Manufacturing Production YoYDEC</t>
         </is>
       </c>
       <c r="D1132" t="inlineStr"/>
       <c r="E1132" t="inlineStr">
         <is>
-          <t>€-3.93B</t>
+          <t>-1%</t>
         </is>
       </c>
       <c r="F1132" t="inlineStr"/>
       <c r="G1132" t="inlineStr">
         <is>
-          <t>€-4.2B</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="H1132" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1133">
       <c r="A1133" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1133" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1133" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>Baker Hughes Oil Rig CountJAN/17</t>
         </is>
       </c>
       <c r="D1133" t="inlineStr"/>
       <c r="E1133" t="inlineStr">
         <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="F1133" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="G1133" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
+          <t>480</t>
+        </is>
+      </c>
+      <c r="F1133" t="inlineStr"/>
+      <c r="G1133" t="inlineStr"/>
       <c r="H1133" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1134">
       <c r="A1134" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1134" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1134" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FinalDEC</t>
+          <t>Baker Hughes Total Rigs CountJAN/17</t>
         </is>
       </c>
       <c r="D1134" t="inlineStr"/>
       <c r="E1134" t="inlineStr">
         <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F1134" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="G1134" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+          <t>584</t>
+        </is>
+      </c>
+      <c r="F1134" t="inlineStr"/>
+      <c r="G1134" t="inlineStr"/>
       <c r="H1134" t="inlineStr">
         <is>
           <t>3</t>
@@ -37324,73 +36830,57 @@
     <row r="1135">
       <c r="A1135" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1135" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1135" t="inlineStr">
         <is>
-          <t>CPI FinalDEC</t>
+          <t>Net Long-term TIC FlowsNOV</t>
         </is>
       </c>
       <c r="D1135" t="inlineStr"/>
       <c r="E1135" t="inlineStr">
         <is>
-          <t>126.62</t>
-        </is>
-      </c>
-      <c r="F1135" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
-      <c r="G1135" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
+          <t>$152.3B</t>
+        </is>
+      </c>
+      <c r="F1135" t="inlineStr"/>
+      <c r="G1135" t="inlineStr"/>
       <c r="H1135" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1136">
       <c r="A1136" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1136" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1136" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FinalDEC</t>
+          <t>Foreign Bond InvestmentNOV</t>
         </is>
       </c>
       <c r="D1136" t="inlineStr"/>
       <c r="E1136" t="inlineStr">
         <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F1136" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G1136" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>$92.1B</t>
+        </is>
+      </c>
+      <c r="F1136" t="inlineStr"/>
+      <c r="G1136" t="inlineStr"/>
       <c r="H1136" t="inlineStr">
         <is>
           <t>3</t>
@@ -37400,21 +36890,25 @@
     <row r="1137">
       <c r="A1137" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1137" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1137" t="inlineStr">
         <is>
-          <t>Bundesbank Nagel Speech</t>
+          <t>Overall Net Capital FlowsNOV</t>
         </is>
       </c>
       <c r="D1137" t="inlineStr"/>
-      <c r="E1137" t="inlineStr"/>
+      <c r="E1137" t="inlineStr">
+        <is>
+          <t>$203.6B</t>
+        </is>
+      </c>
       <c r="F1137" t="inlineStr"/>
       <c r="G1137" t="inlineStr"/>
       <c r="H1137" t="inlineStr">
@@ -37424,33 +36918,25 @@
       </c>
     </row>
     <row r="1138">
-      <c r="A1138" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
+      <c r="A1138" t="inlineStr"/>
       <c r="B1138" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1138" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>50-Year KTB Auction</t>
         </is>
       </c>
       <c r="D1138" t="inlineStr"/>
       <c r="E1138" t="inlineStr">
         <is>
-          <t>€5628M</t>
+          <t>2.40%</t>
         </is>
       </c>
       <c r="F1138" t="inlineStr"/>
-      <c r="G1138" t="inlineStr">
-        <is>
-          <t>€2900.0M</t>
-        </is>
-      </c>
+      <c r="G1138" t="inlineStr"/>
       <c r="H1138" t="inlineStr">
         <is>
           <t>3</t>
@@ -37460,169 +36946,165 @@
     <row r="1139">
       <c r="A1139" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1139" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C1139" t="inlineStr">
-        <is>
-          <t>ECB Cipollone Speech</t>
-        </is>
-      </c>
+          <t>Sunday January 19 2025</t>
+        </is>
+      </c>
+      <c r="B1139" t="inlineStr"/>
+      <c r="C1139" t="inlineStr"/>
       <c r="D1139" t="inlineStr"/>
       <c r="E1139" t="inlineStr"/>
       <c r="F1139" t="inlineStr"/>
       <c r="G1139" t="inlineStr"/>
-      <c r="H1139" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1139" t="inlineStr"/>
     </row>
     <row r="1140">
       <c r="A1140" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1140" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1140" t="inlineStr">
         <is>
-          <t>Bank Loan Growth YoYJAN/03</t>
+          <t>Machinery Orders MoMNOV</t>
         </is>
       </c>
       <c r="D1140" t="inlineStr"/>
       <c r="E1140" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>2.1%</t>
         </is>
       </c>
       <c r="F1140" t="inlineStr"/>
-      <c r="G1140" t="inlineStr"/>
+      <c r="G1140" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1140" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1141">
       <c r="A1141" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1141" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1141" t="inlineStr">
         <is>
-          <t>Deposit Growth YoYJAN/03</t>
+          <t>Machinery Orders YoYNOV</t>
         </is>
       </c>
       <c r="D1141" t="inlineStr"/>
       <c r="E1141" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>5.6%</t>
         </is>
       </c>
       <c r="F1141" t="inlineStr"/>
-      <c r="G1141" t="inlineStr"/>
+      <c r="G1141" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
       <c r="H1141" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1142">
       <c r="A1142" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1142" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1142" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/10</t>
+          <t>Loan Prime Rate 1Y</t>
         </is>
       </c>
       <c r="D1142" t="inlineStr"/>
       <c r="E1142" t="inlineStr">
         <is>
-          <t>$634.59B</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="F1142" t="inlineStr"/>
       <c r="G1142" t="inlineStr"/>
       <c r="H1142" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1143">
       <c r="A1143" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1143" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1143" t="inlineStr">
         <is>
-          <t>Foreign Securities PurchasesNOV</t>
+          <t>Loan Prime Rate 5YJAN</t>
         </is>
       </c>
       <c r="D1143" t="inlineStr"/>
       <c r="E1143" t="inlineStr">
         <is>
-          <t>C$21.55B</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="F1143" t="inlineStr"/>
       <c r="G1143" t="inlineStr"/>
       <c r="H1143" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1144">
       <c r="A1144" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1144" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1144" t="inlineStr">
         <is>
-          <t>Foreign Securities Purchases by CanadiansNOV</t>
+          <t>Capacity Utilization MoMNOV</t>
         </is>
       </c>
       <c r="D1144" t="inlineStr"/>
       <c r="E1144" t="inlineStr">
         <is>
-          <t>C$-2.65B</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F1144" t="inlineStr"/>
@@ -37636,203 +37118,167 @@
     <row r="1145">
       <c r="A1145" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1145" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1145" t="inlineStr">
         <is>
-          <t>Building Permits PrelDEC</t>
+          <t>Industrial Production MoM FinalNOV</t>
         </is>
       </c>
       <c r="D1145" t="inlineStr"/>
       <c r="E1145" t="inlineStr">
         <is>
-          <t>1.493M</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F1145" t="inlineStr">
         <is>
-          <t>1.46M</t>
+          <t>-2.3%</t>
         </is>
       </c>
       <c r="G1145" t="inlineStr">
         <is>
-          <t>1.48M</t>
+          <t>-2.3%</t>
         </is>
       </c>
       <c r="H1145" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1146">
       <c r="A1146" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1146" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1146" t="inlineStr">
         <is>
-          <t>Housing StartsDEC</t>
+          <t>Industrial Production YoY FinalNOV</t>
         </is>
       </c>
       <c r="D1146" t="inlineStr"/>
       <c r="E1146" t="inlineStr">
         <is>
-          <t>1.289M</t>
-        </is>
-      </c>
-      <c r="F1146" t="inlineStr">
-        <is>
-          <t>1.32M</t>
-        </is>
-      </c>
+          <t>1.4%</t>
+        </is>
+      </c>
+      <c r="F1146" t="inlineStr"/>
       <c r="G1146" t="inlineStr">
         <is>
-          <t>1.32M</t>
+          <t>-2.8%</t>
         </is>
       </c>
       <c r="H1146" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1147">
       <c r="A1147" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1147" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1147" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelDEC</t>
+          <t>Tertiary Industry Index MoMNOV</t>
         </is>
       </c>
       <c r="D1147" t="inlineStr"/>
       <c r="E1147" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F1147" t="inlineStr"/>
-      <c r="G1147" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
+      <c r="G1147" t="inlineStr"/>
       <c r="H1147" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1148">
-      <c r="A1148" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A1148" t="inlineStr"/>
       <c r="B1148" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1148" t="inlineStr">
         <is>
-          <t>Housing Starts MoMDEC</t>
+          <t>Eurogroup Meeting</t>
         </is>
       </c>
       <c r="D1148" t="inlineStr"/>
-      <c r="E1148" t="inlineStr">
-        <is>
-          <t>-1.8%</t>
-        </is>
-      </c>
+      <c r="E1148" t="inlineStr"/>
       <c r="F1148" t="inlineStr"/>
-      <c r="G1148" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
+      <c r="G1148" t="inlineStr"/>
       <c r="H1148" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1149">
       <c r="A1149" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1149" t="inlineStr">
-        <is>
-          <t>IF</t>
-        </is>
-      </c>
-      <c r="C1149" t="inlineStr">
-        <is>
-          <t>IMF/World Economic Outlook</t>
-        </is>
-      </c>
+          <t>Monday January 20 2025</t>
+        </is>
+      </c>
+      <c r="B1149" t="inlineStr"/>
+      <c r="C1149" t="inlineStr"/>
       <c r="D1149" t="inlineStr"/>
       <c r="E1149" t="inlineStr"/>
       <c r="F1149" t="inlineStr"/>
       <c r="G1149" t="inlineStr"/>
-      <c r="H1149" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="H1149" t="inlineStr"/>
     </row>
     <row r="1150">
       <c r="A1150" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1150" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1150" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1150" t="inlineStr"/>
       <c r="E1150" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F1150" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="F1150" t="inlineStr"/>
       <c r="G1150" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1150" t="inlineStr">
@@ -37844,33 +37290,29 @@
     <row r="1151">
       <c r="A1151" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1151" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1151" t="inlineStr">
         <is>
-          <t>Capacity UtilizationDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1151" t="inlineStr"/>
       <c r="E1151" t="inlineStr">
         <is>
-          <t>76.8%</t>
-        </is>
-      </c>
-      <c r="F1151" t="inlineStr">
-        <is>
-          <t>76.9%</t>
-        </is>
-      </c>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F1151" t="inlineStr"/>
       <c r="G1151" t="inlineStr">
         <is>
-          <t>76.9%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="H1151" t="inlineStr">
@@ -37882,29 +37324,29 @@
     <row r="1152">
       <c r="A1152" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>04:15 AM</t>
         </is>
       </c>
       <c r="B1152" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1152" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D1152" t="inlineStr"/>
       <c r="E1152" t="inlineStr">
         <is>
-          <t>-0.9%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="F1152" t="inlineStr"/>
       <c r="G1152" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1152" t="inlineStr">
@@ -37916,17 +37358,17 @@
     <row r="1153">
       <c r="A1153" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1153" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1153" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMDEC</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D1153" t="inlineStr"/>
@@ -37935,16 +37377,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="F1153" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1153" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="F1153" t="inlineStr"/>
+      <c r="G1153" t="inlineStr"/>
       <c r="H1153" t="inlineStr">
         <is>
           <t>3</t>
@@ -37954,31 +37388,23 @@
     <row r="1154">
       <c r="A1154" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1154" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1154" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYDEC</t>
+          <t>3-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D1154" t="inlineStr"/>
-      <c r="E1154" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
+      <c r="E1154" t="inlineStr"/>
       <c r="F1154" t="inlineStr"/>
-      <c r="G1154" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="G1154" t="inlineStr"/>
       <c r="H1154" t="inlineStr">
         <is>
           <t>3</t>
@@ -37988,25 +37414,21 @@
     <row r="1155">
       <c r="A1155" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1155" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1155" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/17</t>
+          <t>9-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D1155" t="inlineStr"/>
-      <c r="E1155" t="inlineStr">
-        <is>
-          <t>480</t>
-        </is>
-      </c>
+      <c r="E1155" t="inlineStr"/>
       <c r="F1155" t="inlineStr"/>
       <c r="G1155" t="inlineStr"/>
       <c r="H1155" t="inlineStr">
@@ -38018,23 +37440,23 @@
     <row r="1156">
       <c r="A1156" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1156" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1156" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/17</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D1156" t="inlineStr"/>
       <c r="E1156" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>$9.1B</t>
         </is>
       </c>
       <c r="F1156" t="inlineStr"/>
@@ -38048,53 +37470,57 @@
     <row r="1157">
       <c r="A1157" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1157" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1157" t="inlineStr">
         <is>
-          <t>Net Long-term TIC FlowsNOV</t>
+          <t>Current AccountQ4</t>
         </is>
       </c>
       <c r="D1157" t="inlineStr"/>
       <c r="E1157" t="inlineStr">
         <is>
-          <t>$152.3B</t>
+          <t>$9.1B</t>
         </is>
       </c>
       <c r="F1157" t="inlineStr"/>
-      <c r="G1157" t="inlineStr"/>
+      <c r="G1157" t="inlineStr">
+        <is>
+          <t>$ 10B</t>
+        </is>
+      </c>
       <c r="H1157" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1158">
       <c r="A1158" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1158" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1158" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentNOV</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1158" t="inlineStr"/>
       <c r="E1158" t="inlineStr">
         <is>
-          <t>$92.1B</t>
+          <t>2.489%</t>
         </is>
       </c>
       <c r="F1158" t="inlineStr"/>
@@ -38108,23 +37534,23 @@
     <row r="1159">
       <c r="A1159" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1159" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1159" t="inlineStr">
         <is>
-          <t>Overall Net Capital FlowsNOV</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1159" t="inlineStr"/>
       <c r="E1159" t="inlineStr">
         <is>
-          <t>$203.6B</t>
+          <t>2.691%</t>
         </is>
       </c>
       <c r="F1159" t="inlineStr"/>
@@ -38136,21 +37562,25 @@
       </c>
     </row>
     <row r="1160">
-      <c r="A1160" t="inlineStr"/>
+      <c r="A1160" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B1160" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1160" t="inlineStr">
         <is>
-          <t>50-Year KTB Auction</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1160" t="inlineStr"/>
       <c r="E1160" t="inlineStr">
         <is>
-          <t>2.40%</t>
+          <t>2.593%</t>
         </is>
       </c>
       <c r="F1160" t="inlineStr"/>
@@ -38164,169 +37594,189 @@
     <row r="1161">
       <c r="A1161" t="inlineStr">
         <is>
-          <t>Sunday January 19 2025</t>
-        </is>
-      </c>
-      <c r="B1161" t="inlineStr"/>
-      <c r="C1161" t="inlineStr"/>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B1161" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C1161" t="inlineStr">
+        <is>
+          <t>BoC Business Outlook Survey</t>
+        </is>
+      </c>
       <c r="D1161" t="inlineStr"/>
       <c r="E1161" t="inlineStr"/>
       <c r="F1161" t="inlineStr"/>
       <c r="G1161" t="inlineStr"/>
-      <c r="H1161" t="inlineStr"/>
+      <c r="H1161" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1162">
       <c r="A1162" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1162" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1162" t="inlineStr">
         <is>
-          <t>Machinery Orders MoMNOV</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1162" t="inlineStr"/>
       <c r="E1162" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="F1162" t="inlineStr"/>
       <c r="G1162" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="H1162" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1163">
       <c r="A1163" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1163" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1163" t="inlineStr">
         <is>
-          <t>Machinery Orders YoYNOV</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1163" t="inlineStr"/>
       <c r="E1163" t="inlineStr">
         <is>
-          <t>5.6%</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="F1163" t="inlineStr"/>
       <c r="G1163" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>4.4%</t>
         </is>
       </c>
       <c r="H1163" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1164">
       <c r="A1164" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1164" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1164" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 1Y</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D1164" t="inlineStr"/>
       <c r="E1164" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>$1234M</t>
         </is>
       </c>
       <c r="F1164" t="inlineStr"/>
-      <c r="G1164" t="inlineStr"/>
+      <c r="G1164" t="inlineStr">
+        <is>
+          <t>$ 1463M</t>
+        </is>
+      </c>
       <c r="H1164" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1165">
       <c r="A1165" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1165" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1165" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 5YJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1165" t="inlineStr"/>
-      <c r="E1165" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
+      <c r="E1165" t="inlineStr"/>
       <c r="F1165" t="inlineStr"/>
-      <c r="G1165" t="inlineStr"/>
+      <c r="G1165" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1165" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1166">
       <c r="A1166" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1166" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1166" t="inlineStr">
         <is>
-          <t>Capacity Utilization MoMNOV</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1166" t="inlineStr"/>
       <c r="E1166" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F1166" t="inlineStr"/>
-      <c r="G1166" t="inlineStr"/>
+      <c r="G1166" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
       <c r="H1166" t="inlineStr">
         <is>
           <t>3</t>
@@ -38336,7 +37786,7 @@
     <row r="1167">
       <c r="A1167" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B1167" t="inlineStr">
@@ -38346,25 +37796,17 @@
       </c>
       <c r="C1167" t="inlineStr">
         <is>
-          <t>Industrial Production MoM FinalNOV</t>
+          <t>40-Year JGB Auction</t>
         </is>
       </c>
       <c r="D1167" t="inlineStr"/>
       <c r="E1167" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F1167" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
-      <c r="G1167" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
+          <t>2.550%</t>
+        </is>
+      </c>
+      <c r="F1167" t="inlineStr"/>
+      <c r="G1167" t="inlineStr"/>
       <c r="H1167" t="inlineStr">
         <is>
           <t>3</t>
@@ -38372,33 +37814,25 @@
       </c>
     </row>
     <row r="1168">
-      <c r="A1168" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
+      <c r="A1168" t="inlineStr"/>
       <c r="B1168" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1168" t="inlineStr">
         <is>
-          <t>Industrial Production YoY FinalNOV</t>
+          <t>10-Year KTB Auction</t>
         </is>
       </c>
       <c r="D1168" t="inlineStr"/>
       <c r="E1168" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>2.665%</t>
         </is>
       </c>
       <c r="F1168" t="inlineStr"/>
-      <c r="G1168" t="inlineStr">
-        <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
+      <c r="G1168" t="inlineStr"/>
       <c r="H1168" t="inlineStr">
         <is>
           <t>3</t>
@@ -38406,25 +37840,21 @@
       </c>
     </row>
     <row r="1169">
-      <c r="A1169" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
+      <c r="A1169" t="inlineStr"/>
       <c r="B1169" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1169" t="inlineStr">
         <is>
-          <t>Tertiary Industry Index MoMNOV</t>
+          <t>FDI (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D1169" t="inlineStr"/>
       <c r="E1169" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>-27.9%</t>
         </is>
       </c>
       <c r="F1169" t="inlineStr"/>
@@ -38439,18 +37869,26 @@
       <c r="A1170" t="inlineStr"/>
       <c r="B1170" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1170" t="inlineStr">
         <is>
-          <t>Eurogroup Meeting</t>
+          <t>Consumer ConfidenceDEC</t>
         </is>
       </c>
       <c r="D1170" t="inlineStr"/>
-      <c r="E1170" t="inlineStr"/>
+      <c r="E1170" t="inlineStr">
+        <is>
+          <t>80.6</t>
+        </is>
+      </c>
       <c r="F1170" t="inlineStr"/>
-      <c r="G1170" t="inlineStr"/>
+      <c r="G1170" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
       <c r="H1170" t="inlineStr">
         <is>
           <t>3</t>
@@ -38458,81 +37896,81 @@
       </c>
     </row>
     <row r="1171">
-      <c r="A1171" t="inlineStr">
-        <is>
-          <t>Monday January 20 2025</t>
-        </is>
-      </c>
-      <c r="B1171" t="inlineStr"/>
-      <c r="C1171" t="inlineStr"/>
+      <c r="A1171" t="inlineStr"/>
+      <c r="B1171" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C1171" t="inlineStr">
+        <is>
+          <t>Leading Indicator MoMDEC</t>
+        </is>
+      </c>
       <c r="D1171" t="inlineStr"/>
-      <c r="E1171" t="inlineStr"/>
+      <c r="E1171" t="inlineStr">
+        <is>
+          <t>1.44%</t>
+        </is>
+      </c>
       <c r="F1171" t="inlineStr"/>
-      <c r="G1171" t="inlineStr"/>
-      <c r="H1171" t="inlineStr"/>
+      <c r="G1171" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
+      <c r="H1171" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1172">
-      <c r="A1172" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
+      <c r="A1172" t="inlineStr"/>
       <c r="B1172" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1172" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Central Government DebtDEC</t>
         </is>
       </c>
       <c r="D1172" t="inlineStr"/>
       <c r="E1172" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>TRY9.005T</t>
         </is>
       </c>
       <c r="F1172" t="inlineStr"/>
       <c r="G1172" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>TRY 9.0T</t>
         </is>
       </c>
       <c r="H1172" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1173">
-      <c r="A1173" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
+      <c r="A1173" t="inlineStr"/>
       <c r="B1173" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1173" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>ECOFIN Meeting</t>
         </is>
       </c>
       <c r="D1173" t="inlineStr"/>
-      <c r="E1173" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="E1173" t="inlineStr"/>
       <c r="F1173" t="inlineStr"/>
-      <c r="G1173" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
+      <c r="G1173" t="inlineStr"/>
       <c r="H1173" t="inlineStr">
         <is>
           <t>3</t>
@@ -38542,59 +37980,35 @@
     <row r="1174">
       <c r="A1174" t="inlineStr">
         <is>
-          <t>04:15 AM</t>
-        </is>
-      </c>
-      <c r="B1174" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1174" t="inlineStr">
-        <is>
-          <t>Construction Output YoYNOV</t>
-        </is>
-      </c>
+          <t>Tuesday January 21 2025</t>
+        </is>
+      </c>
+      <c r="B1174" t="inlineStr"/>
+      <c r="C1174" t="inlineStr"/>
       <c r="D1174" t="inlineStr"/>
-      <c r="E1174" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
+      <c r="E1174" t="inlineStr"/>
       <c r="F1174" t="inlineStr"/>
-      <c r="G1174" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="H1174" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1174" t="inlineStr"/>
+      <c r="H1174" t="inlineStr"/>
     </row>
     <row r="1175">
       <c r="A1175" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1175" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1175" t="inlineStr">
         <is>
-          <t>Construction Output YoYNOV</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1175" t="inlineStr"/>
-      <c r="E1175" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1175" t="inlineStr"/>
       <c r="F1175" t="inlineStr"/>
       <c r="G1175" t="inlineStr"/>
       <c r="H1175" t="inlineStr">
@@ -38606,17 +38020,17 @@
     <row r="1176">
       <c r="A1176" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1176" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1176" t="inlineStr">
         <is>
-          <t>3-Month Bubill Auction</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1176" t="inlineStr"/>
@@ -38632,147 +38046,159 @@
     <row r="1177">
       <c r="A1177" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1177" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1177" t="inlineStr">
         <is>
-          <t>9-Month Bubill Auction</t>
+          <t>New Car Registrations YoYDEC</t>
         </is>
       </c>
       <c r="D1177" t="inlineStr"/>
-      <c r="E1177" t="inlineStr"/>
+      <c r="E1177" t="inlineStr">
+        <is>
+          <t>-1.9%</t>
+        </is>
+      </c>
       <c r="F1177" t="inlineStr"/>
       <c r="G1177" t="inlineStr"/>
       <c r="H1177" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1178">
       <c r="A1178" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1178" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1178" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Unemployment RateNOV</t>
         </is>
       </c>
       <c r="D1178" t="inlineStr"/>
       <c r="E1178" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F1178" t="inlineStr"/>
-      <c r="G1178" t="inlineStr"/>
+      <c r="G1178" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="H1178" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1179">
       <c r="A1179" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1179" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1179" t="inlineStr">
         <is>
-          <t>Current AccountQ4</t>
+          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D1179" t="inlineStr"/>
       <c r="E1179" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F1179" t="inlineStr"/>
       <c r="G1179" t="inlineStr">
         <is>
-          <t>$ 10B</t>
+          <t>4.9%</t>
         </is>
       </c>
       <c r="H1179" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1180">
       <c r="A1180" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1180" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1180" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>Employment ChangeNOV</t>
         </is>
       </c>
       <c r="D1180" t="inlineStr"/>
       <c r="E1180" t="inlineStr">
         <is>
-          <t>2.489%</t>
+          <t>173K</t>
         </is>
       </c>
       <c r="F1180" t="inlineStr"/>
       <c r="G1180" t="inlineStr"/>
       <c r="H1180" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1181">
       <c r="A1181" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1181" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1181" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D1181" t="inlineStr"/>
       <c r="E1181" t="inlineStr">
         <is>
-          <t>2.691%</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F1181" t="inlineStr"/>
-      <c r="G1181" t="inlineStr"/>
+      <c r="G1181" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
       <c r="H1181" t="inlineStr">
         <is>
           <t>3</t>
@@ -38782,27 +38208,31 @@
     <row r="1182">
       <c r="A1182" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1182" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1182" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>Claimant Count ChangeDEC</t>
         </is>
       </c>
       <c r="D1182" t="inlineStr"/>
       <c r="E1182" t="inlineStr">
         <is>
-          <t>2.593%</t>
+          <t>0.3K</t>
         </is>
       </c>
       <c r="F1182" t="inlineStr"/>
-      <c r="G1182" t="inlineStr"/>
+      <c r="G1182" t="inlineStr">
+        <is>
+          <t>-5K</t>
+        </is>
+      </c>
       <c r="H1182" t="inlineStr">
         <is>
           <t>3</t>
@@ -38812,57 +38242,61 @@
     <row r="1183">
       <c r="A1183" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1183" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1183" t="inlineStr">
         <is>
-          <t>BoC Business Outlook Survey</t>
+          <t>HMRC Payrolls ChangeDEC</t>
         </is>
       </c>
       <c r="D1183" t="inlineStr"/>
-      <c r="E1183" t="inlineStr"/>
+      <c r="E1183" t="inlineStr">
+        <is>
+          <t>-35K</t>
+        </is>
+      </c>
       <c r="F1183" t="inlineStr"/>
-      <c r="G1183" t="inlineStr"/>
+      <c r="G1183" t="inlineStr">
+        <is>
+          <t>20K</t>
+        </is>
+      </c>
       <c r="H1183" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1184">
       <c r="A1184" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1184" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1184" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Gold Production YoYNOV</t>
         </is>
       </c>
       <c r="D1184" t="inlineStr"/>
       <c r="E1184" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>-3.4%</t>
         </is>
       </c>
       <c r="F1184" t="inlineStr"/>
-      <c r="G1184" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G1184" t="inlineStr"/>
       <c r="H1184" t="inlineStr">
         <is>
           <t>3</t>
@@ -38872,31 +38306,27 @@
     <row r="1185">
       <c r="A1185" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1185" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1185" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Mining Production MoMNOV</t>
         </is>
       </c>
       <c r="D1185" t="inlineStr"/>
       <c r="E1185" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F1185" t="inlineStr"/>
-      <c r="G1185" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
+      <c r="G1185" t="inlineStr"/>
       <c r="H1185" t="inlineStr">
         <is>
           <t>3</t>
@@ -38906,31 +38336,27 @@
     <row r="1186">
       <c r="A1186" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1186" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1186" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Mining Production YoYNOV</t>
         </is>
       </c>
       <c r="D1186" t="inlineStr"/>
       <c r="E1186" t="inlineStr">
         <is>
-          <t>$1234M</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F1186" t="inlineStr"/>
-      <c r="G1186" t="inlineStr">
-        <is>
-          <t>$ 1463M</t>
-        </is>
-      </c>
+      <c r="G1186" t="inlineStr"/>
       <c r="H1186" t="inlineStr">
         <is>
           <t>3</t>
@@ -38940,87 +38366,83 @@
     <row r="1187">
       <c r="A1187" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1187" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1187" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D1187" t="inlineStr"/>
-      <c r="E1187" t="inlineStr"/>
+      <c r="E1187" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
       <c r="F1187" t="inlineStr"/>
-      <c r="G1187" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G1187" t="inlineStr"/>
       <c r="H1187" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1188">
       <c r="A1188" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1188" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1188" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D1188" t="inlineStr"/>
       <c r="E1188" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>15.7</t>
         </is>
       </c>
       <c r="F1188" t="inlineStr"/>
-      <c r="G1188" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="G1188" t="inlineStr"/>
       <c r="H1188" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1189">
       <c r="A1189" t="inlineStr">
         <is>
-          <t>10:35 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1189" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1189" t="inlineStr">
         <is>
-          <t>40-Year JGB Auction</t>
+          <t>ZEW Current ConditionsJAN</t>
         </is>
       </c>
       <c r="D1189" t="inlineStr"/>
       <c r="E1189" t="inlineStr">
         <is>
-          <t>2.550%</t>
+          <t>-93.1</t>
         </is>
       </c>
       <c r="F1189" t="inlineStr"/>
@@ -39032,23 +38454,23 @@
       </c>
     </row>
     <row r="1190">
-      <c r="A1190" t="inlineStr"/>
+      <c r="A1190" t="inlineStr">
+        <is>
+          <t>05:30 AM</t>
+        </is>
+      </c>
       <c r="B1190" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1190" t="inlineStr">
         <is>
-          <t>10-Year KTB Auction</t>
+          <t>Bund/g Auction</t>
         </is>
       </c>
       <c r="D1190" t="inlineStr"/>
-      <c r="E1190" t="inlineStr">
-        <is>
-          <t>2.665%</t>
-        </is>
-      </c>
+      <c r="E1190" t="inlineStr"/>
       <c r="F1190" t="inlineStr"/>
       <c r="G1190" t="inlineStr"/>
       <c r="H1190" t="inlineStr">
@@ -39058,21 +38480,25 @@
       </c>
     </row>
     <row r="1191">
-      <c r="A1191" t="inlineStr"/>
+      <c r="A1191" t="inlineStr">
+        <is>
+          <t>07:00 AM</t>
+        </is>
+      </c>
       <c r="B1191" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1191" t="inlineStr">
         <is>
-          <t>FDI (YTD) YoYDEC</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D1191" t="inlineStr"/>
       <c r="E1191" t="inlineStr">
         <is>
-          <t>-27.9%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F1191" t="inlineStr"/>
@@ -39084,29 +38510,29 @@
       </c>
     </row>
     <row r="1192">
-      <c r="A1192" t="inlineStr"/>
+      <c r="A1192" t="inlineStr">
+        <is>
+          <t>07:00 AM</t>
+        </is>
+      </c>
       <c r="B1192" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1192" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceDEC</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1192" t="inlineStr"/>
       <c r="E1192" t="inlineStr">
         <is>
-          <t>80.6</t>
+          <t>-1.2%</t>
         </is>
       </c>
       <c r="F1192" t="inlineStr"/>
-      <c r="G1192" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
+      <c r="G1192" t="inlineStr"/>
       <c r="H1192" t="inlineStr">
         <is>
           <t>3</t>
@@ -39114,121 +38540,165 @@
       </c>
     </row>
     <row r="1193">
-      <c r="A1193" t="inlineStr"/>
+      <c r="A1193" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B1193" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1193" t="inlineStr">
         <is>
-          <t>Leading Indicator MoMDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1193" t="inlineStr"/>
       <c r="E1193" t="inlineStr">
         <is>
-          <t>1.44%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="F1193" t="inlineStr"/>
       <c r="G1193" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="H1193" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1194">
-      <c r="A1194" t="inlineStr"/>
+      <c r="A1194" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B1194" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1194" t="inlineStr">
         <is>
-          <t>Central Government DebtDEC</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1194" t="inlineStr"/>
       <c r="E1194" t="inlineStr">
         <is>
-          <t>TRY9.005T</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F1194" t="inlineStr"/>
       <c r="G1194" t="inlineStr">
         <is>
-          <t>TRY 9.0T</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="H1194" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1195">
-      <c r="A1195" t="inlineStr"/>
+      <c r="A1195" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B1195" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1195" t="inlineStr">
         <is>
-          <t>ECOFIN Meeting</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1195" t="inlineStr"/>
-      <c r="E1195" t="inlineStr"/>
+      <c r="E1195" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="F1195" t="inlineStr"/>
-      <c r="G1195" t="inlineStr"/>
+      <c r="G1195" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1195" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1196">
       <c r="A1196" t="inlineStr">
         <is>
-          <t>Tuesday January 21 2025</t>
-        </is>
-      </c>
-      <c r="B1196" t="inlineStr"/>
-      <c r="C1196" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B1196" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C1196" t="inlineStr">
+        <is>
+          <t>Core Inflation Rate MoMDEC</t>
+        </is>
+      </c>
       <c r="D1196" t="inlineStr"/>
       <c r="E1196" t="inlineStr"/>
       <c r="F1196" t="inlineStr"/>
-      <c r="G1196" t="inlineStr"/>
-      <c r="H1196" t="inlineStr"/>
+      <c r="G1196" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="H1196" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1197">
       <c r="A1197" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1197" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1197" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>CPI Median YoYDEC</t>
         </is>
       </c>
       <c r="D1197" t="inlineStr"/>
-      <c r="E1197" t="inlineStr"/>
+      <c r="E1197" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="F1197" t="inlineStr"/>
-      <c r="G1197" t="inlineStr"/>
+      <c r="G1197" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
       <c r="H1197" t="inlineStr">
         <is>
           <t>3</t>
@@ -39238,23 +38708,31 @@
     <row r="1198">
       <c r="A1198" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1198" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1198" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>CPI Trimmed-Mean YoYDEC</t>
         </is>
       </c>
       <c r="D1198" t="inlineStr"/>
-      <c r="E1198" t="inlineStr"/>
+      <c r="E1198" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="F1198" t="inlineStr"/>
-      <c r="G1198" t="inlineStr"/>
+      <c r="G1198" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H1198" t="inlineStr">
         <is>
           <t>3</t>
@@ -39264,198 +38742,162 @@
     <row r="1199">
       <c r="A1199" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:55 AM</t>
         </is>
       </c>
       <c r="B1199" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1199" t="inlineStr">
         <is>
-          <t>New Car Registrations YoYDEC</t>
+          <t>Redbook YoYJAN/18</t>
         </is>
       </c>
       <c r="D1199" t="inlineStr"/>
-      <c r="E1199" t="inlineStr">
-        <is>
-          <t>-1.9%</t>
-        </is>
-      </c>
+      <c r="E1199" t="inlineStr"/>
       <c r="F1199" t="inlineStr"/>
       <c r="G1199" t="inlineStr"/>
       <c r="H1199" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1200">
       <c r="A1200" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1200" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1200" t="inlineStr">
         <is>
-          <t>Unemployment RateNOV</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1200" t="inlineStr"/>
       <c r="E1200" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>4.225%</t>
         </is>
       </c>
       <c r="F1200" t="inlineStr"/>
-      <c r="G1200" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="G1200" t="inlineStr"/>
       <c r="H1200" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1201">
       <c r="A1201" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1201" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1201" t="inlineStr">
         <is>
-          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
+          <t>52-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1201" t="inlineStr"/>
-      <c r="E1201" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="E1201" t="inlineStr"/>
       <c r="F1201" t="inlineStr"/>
-      <c r="G1201" t="inlineStr">
-        <is>
-          <t>4.9%</t>
-        </is>
-      </c>
+      <c r="G1201" t="inlineStr"/>
       <c r="H1201" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1202">
       <c r="A1202" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1202" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1202" t="inlineStr">
         <is>
-          <t>Employment ChangeNOV</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1202" t="inlineStr"/>
       <c r="E1202" t="inlineStr">
         <is>
-          <t>173K</t>
+          <t>4.180%</t>
         </is>
       </c>
       <c r="F1202" t="inlineStr"/>
       <c r="G1202" t="inlineStr"/>
       <c r="H1202" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1203">
       <c r="A1203" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1203" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1203" t="inlineStr">
         <is>
-          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1203" t="inlineStr"/>
       <c r="E1203" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>88.4</t>
         </is>
       </c>
       <c r="F1203" t="inlineStr"/>
       <c r="G1203" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H1203" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1204">
       <c r="A1204" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1204" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C1204" t="inlineStr">
-        <is>
-          <t>Claimant Count ChangeDEC</t>
-        </is>
-      </c>
+          <t>Wednesday January 22 2025</t>
+        </is>
+      </c>
+      <c r="B1204" t="inlineStr"/>
+      <c r="C1204" t="inlineStr"/>
       <c r="D1204" t="inlineStr"/>
-      <c r="E1204" t="inlineStr">
-        <is>
-          <t>0.3K</t>
-        </is>
-      </c>
+      <c r="E1204" t="inlineStr"/>
       <c r="F1204" t="inlineStr"/>
-      <c r="G1204" t="inlineStr">
-        <is>
-          <t>-5K</t>
-        </is>
-      </c>
-      <c r="H1204" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1204" t="inlineStr"/>
+      <c r="H1204" t="inlineStr"/>
     </row>
     <row r="1205">
       <c r="A1205" t="inlineStr">
@@ -39470,19 +38912,19 @@
       </c>
       <c r="C1205" t="inlineStr">
         <is>
-          <t>HMRC Payrolls ChangeDEC</t>
+          <t>Public Sector Net Borrowing Ex BanksDEC</t>
         </is>
       </c>
       <c r="D1205" t="inlineStr"/>
       <c r="E1205" t="inlineStr">
         <is>
-          <t>-35K</t>
+          <t>£-11.25B</t>
         </is>
       </c>
       <c r="F1205" t="inlineStr"/>
       <c r="G1205" t="inlineStr">
         <is>
-          <t>20K</t>
+          <t>£ -11.3B</t>
         </is>
       </c>
       <c r="H1205" t="inlineStr">
@@ -39494,7 +38936,7 @@
     <row r="1206">
       <c r="A1206" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1206" t="inlineStr">
@@ -39504,27 +38946,31 @@
       </c>
       <c r="C1206" t="inlineStr">
         <is>
-          <t>Gold Production YoYNOV</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1206" t="inlineStr"/>
       <c r="E1206" t="inlineStr">
         <is>
-          <t>-3.4%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F1206" t="inlineStr"/>
-      <c r="G1206" t="inlineStr"/>
+      <c r="G1206" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H1206" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1207">
       <c r="A1207" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1207" t="inlineStr">
@@ -39534,27 +38980,31 @@
       </c>
       <c r="C1207" t="inlineStr">
         <is>
-          <t>Mining Production MoMNOV</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1207" t="inlineStr"/>
       <c r="E1207" t="inlineStr">
         <is>
-          <t>-3%</t>
+          <t>2.9%</t>
         </is>
       </c>
       <c r="F1207" t="inlineStr"/>
-      <c r="G1207" t="inlineStr"/>
+      <c r="G1207" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
       <c r="H1207" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1208">
       <c r="A1208" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1208" t="inlineStr">
@@ -39564,17 +39014,21 @@
       </c>
       <c r="C1208" t="inlineStr">
         <is>
-          <t>Mining Production YoYNOV</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1208" t="inlineStr"/>
       <c r="E1208" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F1208" t="inlineStr"/>
-      <c r="G1208" t="inlineStr"/>
+      <c r="G1208" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1208" t="inlineStr">
         <is>
           <t>3</t>
@@ -39584,37 +39038,41 @@
     <row r="1209">
       <c r="A1209" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1209" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1209" t="inlineStr">
         <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1209" t="inlineStr"/>
       <c r="E1209" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="F1209" t="inlineStr"/>
-      <c r="G1209" t="inlineStr"/>
+      <c r="G1209" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="H1209" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1210">
       <c r="A1210" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1210" t="inlineStr">
@@ -39624,47 +39082,47 @@
       </c>
       <c r="C1210" t="inlineStr">
         <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
+          <t>15-Year Bund Auction</t>
         </is>
       </c>
       <c r="D1210" t="inlineStr"/>
-      <c r="E1210" t="inlineStr">
-        <is>
-          <t>15.7</t>
-        </is>
-      </c>
+      <c r="E1210" t="inlineStr"/>
       <c r="F1210" t="inlineStr"/>
       <c r="G1210" t="inlineStr"/>
       <c r="H1210" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1211">
       <c r="A1211" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1211" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1211" t="inlineStr">
         <is>
-          <t>ZEW Current ConditionsJAN</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D1211" t="inlineStr"/>
       <c r="E1211" t="inlineStr">
         <is>
-          <t>-93.1</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F1211" t="inlineStr"/>
-      <c r="G1211" t="inlineStr"/>
+      <c r="G1211" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H1211" t="inlineStr">
         <is>
           <t>3</t>
@@ -39674,21 +39132,25 @@
     <row r="1212">
       <c r="A1212" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1212" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1212" t="inlineStr">
         <is>
-          <t>Bund/g Auction</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1212" t="inlineStr"/>
-      <c r="E1212" t="inlineStr"/>
+      <c r="E1212" t="inlineStr">
+        <is>
+          <t>6.3%</t>
+        </is>
+      </c>
       <c r="F1212" t="inlineStr"/>
       <c r="G1212" t="inlineStr"/>
       <c r="H1212" t="inlineStr">
@@ -39700,25 +39162,21 @@
     <row r="1213">
       <c r="A1213" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>06:10 AM</t>
         </is>
       </c>
       <c r="B1213" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1213" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1213" t="inlineStr"/>
-      <c r="E1213" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
+      <c r="E1213" t="inlineStr"/>
       <c r="F1213" t="inlineStr"/>
       <c r="G1213" t="inlineStr"/>
       <c r="H1213" t="inlineStr">
@@ -39730,25 +39188,21 @@
     <row r="1214">
       <c r="A1214" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>06:10 AM</t>
         </is>
       </c>
       <c r="B1214" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1214" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1214" t="inlineStr"/>
-      <c r="E1214" t="inlineStr">
-        <is>
-          <t>-1.2%</t>
-        </is>
-      </c>
+      <c r="E1214" t="inlineStr"/>
       <c r="F1214" t="inlineStr"/>
       <c r="G1214" t="inlineStr"/>
       <c r="H1214" t="inlineStr">
@@ -39760,65 +39214,53 @@
     <row r="1215">
       <c r="A1215" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1215" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1215" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>M3 Money Supply YoYJAN/10</t>
         </is>
       </c>
       <c r="D1215" t="inlineStr"/>
       <c r="E1215" t="inlineStr">
         <is>
-          <t>1,9%</t>
+          <t>9.3%</t>
         </is>
       </c>
       <c r="F1215" t="inlineStr"/>
-      <c r="G1215" t="inlineStr">
-        <is>
-          <t>1.8%</t>
-        </is>
-      </c>
+      <c r="G1215" t="inlineStr"/>
       <c r="H1215" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1216">
       <c r="A1216" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1216" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1216" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>MBA 30-Year Mortgage RateJAN/17</t>
         </is>
       </c>
       <c r="D1216" t="inlineStr"/>
-      <c r="E1216" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+      <c r="E1216" t="inlineStr"/>
       <c r="F1216" t="inlineStr"/>
-      <c r="G1216" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
+      <c r="G1216" t="inlineStr"/>
       <c r="H1216" t="inlineStr">
         <is>
           <t>2</t>
@@ -39828,61 +39270,49 @@
     <row r="1217">
       <c r="A1217" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1217" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1217" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>MBA Mortgage ApplicationsJAN/17</t>
         </is>
       </c>
       <c r="D1217" t="inlineStr"/>
-      <c r="E1217" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+      <c r="E1217" t="inlineStr"/>
       <c r="F1217" t="inlineStr"/>
-      <c r="G1217" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1217" t="inlineStr"/>
       <c r="H1217" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1218">
       <c r="A1218" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1218" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1218" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMDEC</t>
+          <t>MBA Mortgage Market IndexJAN/17</t>
         </is>
       </c>
       <c r="D1218" t="inlineStr"/>
       <c r="E1218" t="inlineStr"/>
       <c r="F1218" t="inlineStr"/>
-      <c r="G1218" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1218" t="inlineStr"/>
       <c r="H1218" t="inlineStr">
         <is>
           <t>3</t>
@@ -39892,31 +39322,23 @@
     <row r="1219">
       <c r="A1219" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1219" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1219" t="inlineStr">
         <is>
-          <t>CPI Median YoYDEC</t>
+          <t>MBA Mortgage Refinance IndexJAN/17</t>
         </is>
       </c>
       <c r="D1219" t="inlineStr"/>
-      <c r="E1219" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+      <c r="E1219" t="inlineStr"/>
       <c r="F1219" t="inlineStr"/>
-      <c r="G1219" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="G1219" t="inlineStr"/>
       <c r="H1219" t="inlineStr">
         <is>
           <t>3</t>
@@ -39926,31 +39348,23 @@
     <row r="1220">
       <c r="A1220" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1220" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1220" t="inlineStr">
         <is>
-          <t>CPI Trimmed-Mean YoYDEC</t>
+          <t>MBA Purchase IndexJAN/17</t>
         </is>
       </c>
       <c r="D1220" t="inlineStr"/>
-      <c r="E1220" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="E1220" t="inlineStr"/>
       <c r="F1220" t="inlineStr"/>
-      <c r="G1220" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+      <c r="G1220" t="inlineStr"/>
       <c r="H1220" t="inlineStr">
         <is>
           <t>3</t>
@@ -39960,23 +39374,31 @@
     <row r="1221">
       <c r="A1221" t="inlineStr">
         <is>
-          <t>08:55 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1221" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1221" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/18</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1221" t="inlineStr"/>
-      <c r="E1221" t="inlineStr"/>
+      <c r="E1221" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="F1221" t="inlineStr"/>
-      <c r="G1221" t="inlineStr"/>
+      <c r="G1221" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1221" t="inlineStr">
         <is>
           <t>3</t>
@@ -39986,27 +39408,31 @@
     <row r="1222">
       <c r="A1222" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1222" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1222" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Raw Materials Prices MoMDEC</t>
         </is>
       </c>
       <c r="D1222" t="inlineStr"/>
       <c r="E1222" t="inlineStr">
         <is>
-          <t>4.225%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="F1222" t="inlineStr"/>
-      <c r="G1222" t="inlineStr"/>
+      <c r="G1222" t="inlineStr">
+        <is>
+          <t>1.0%</t>
+        </is>
+      </c>
       <c r="H1222" t="inlineStr">
         <is>
           <t>3</t>
@@ -40016,23 +39442,31 @@
     <row r="1223">
       <c r="A1223" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1223" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1223" t="inlineStr">
         <is>
-          <t>52-Week Bill Auction</t>
+          <t>Raw Materials Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1223" t="inlineStr"/>
-      <c r="E1223" t="inlineStr"/>
+      <c r="E1223" t="inlineStr">
+        <is>
+          <t>2%</t>
+        </is>
+      </c>
       <c r="F1223" t="inlineStr"/>
-      <c r="G1223" t="inlineStr"/>
+      <c r="G1223" t="inlineStr">
+        <is>
+          <t>-2.8%</t>
+        </is>
+      </c>
       <c r="H1223" t="inlineStr">
         <is>
           <t>3</t>
@@ -40042,7 +39476,7 @@
     <row r="1224">
       <c r="A1224" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1224" t="inlineStr">
@@ -40052,13 +39486,13 @@
       </c>
       <c r="C1224" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>CB Leading Index MoMDEC</t>
         </is>
       </c>
       <c r="D1224" t="inlineStr"/>
       <c r="E1224" t="inlineStr">
         <is>
-          <t>4.180%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F1224" t="inlineStr"/>
@@ -40072,77 +39506,81 @@
     <row r="1225">
       <c r="A1225" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1225" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1225" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1225" t="inlineStr"/>
-      <c r="E1225" t="inlineStr">
-        <is>
-          <t>88.4</t>
-        </is>
-      </c>
+      <c r="E1225" t="inlineStr"/>
       <c r="F1225" t="inlineStr"/>
-      <c r="G1225" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
+      <c r="G1225" t="inlineStr"/>
       <c r="H1225" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1226">
       <c r="A1226" t="inlineStr">
         <is>
-          <t>Wednesday January 22 2025</t>
-        </is>
-      </c>
-      <c r="B1226" t="inlineStr"/>
-      <c r="C1226" t="inlineStr"/>
+          <t>01:00 PM</t>
+        </is>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>20-Year Bond Auction</t>
+        </is>
+      </c>
       <c r="D1226" t="inlineStr"/>
       <c r="E1226" t="inlineStr"/>
       <c r="F1226" t="inlineStr"/>
       <c r="G1226" t="inlineStr"/>
-      <c r="H1226" t="inlineStr"/>
+      <c r="H1226" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1227">
       <c r="A1227" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1227" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1227" t="inlineStr">
         <is>
-          <t>Public Sector Net Borrowing Ex BanksDEC</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1227" t="inlineStr"/>
       <c r="E1227" t="inlineStr">
         <is>
-          <t>£-11.25B</t>
+          <t>127.1%</t>
         </is>
       </c>
       <c r="F1227" t="inlineStr"/>
       <c r="G1227" t="inlineStr">
         <is>
-          <t>£ -11.3B</t>
+          <t>115.0%</t>
         </is>
       </c>
       <c r="H1227" t="inlineStr">
@@ -40154,29 +39592,25 @@
     <row r="1228">
       <c r="A1228" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1228" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1228" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1228" t="inlineStr"/>
-      <c r="E1228" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+      <c r="E1228" t="inlineStr"/>
       <c r="F1228" t="inlineStr"/>
       <c r="G1228" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>60</t>
         </is>
       </c>
       <c r="H1228" t="inlineStr">
@@ -40188,31 +39622,23 @@
     <row r="1229">
       <c r="A1229" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1229" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1229" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>API Crude Oil Stock ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1229" t="inlineStr"/>
-      <c r="E1229" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
+      <c r="E1229" t="inlineStr"/>
       <c r="F1229" t="inlineStr"/>
-      <c r="G1229" t="inlineStr">
-        <is>
-          <t>3.0%</t>
-        </is>
-      </c>
+      <c r="G1229" t="inlineStr"/>
       <c r="H1229" t="inlineStr">
         <is>
           <t>2</t>
@@ -40222,63 +39648,63 @@
     <row r="1230">
       <c r="A1230" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1230" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1230" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMDEC</t>
+          <t>GDP Growth Rate QoQ AdvQ4</t>
         </is>
       </c>
       <c r="D1230" t="inlineStr"/>
       <c r="E1230" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F1230" t="inlineStr"/>
       <c r="G1230" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1230" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1231">
       <c r="A1231" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1231" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1231" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>GDP Growth Rate YoY AdvQ4</t>
         </is>
       </c>
       <c r="D1231" t="inlineStr"/>
       <c r="E1231" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="F1231" t="inlineStr"/>
       <c r="G1231" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H1231" t="inlineStr">
@@ -40290,85 +39716,85 @@
     <row r="1232">
       <c r="A1232" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1232" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1232" t="inlineStr">
         <is>
-          <t>15-Year Bund Auction</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D1232" t="inlineStr"/>
-      <c r="E1232" t="inlineStr"/>
+      <c r="E1232" t="inlineStr">
+        <is>
+          <t>¥-117.6B</t>
+        </is>
+      </c>
       <c r="F1232" t="inlineStr"/>
-      <c r="G1232" t="inlineStr"/>
+      <c r="G1232" t="inlineStr">
+        <is>
+          <t>¥ 100B</t>
+        </is>
+      </c>
       <c r="H1232" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1233">
       <c r="A1233" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1233" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1233" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>Exports YoYDEC</t>
         </is>
       </c>
       <c r="D1233" t="inlineStr"/>
       <c r="E1233" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>3.8%</t>
         </is>
       </c>
       <c r="F1233" t="inlineStr"/>
-      <c r="G1233" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G1233" t="inlineStr"/>
       <c r="H1233" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1234">
       <c r="A1234" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1234" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1234" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>Foreign Bond InvestmentJAN/18</t>
         </is>
       </c>
       <c r="D1234" t="inlineStr"/>
-      <c r="E1234" t="inlineStr">
-        <is>
-          <t>6.3%</t>
-        </is>
-      </c>
+      <c r="E1234" t="inlineStr"/>
       <c r="F1234" t="inlineStr"/>
       <c r="G1234" t="inlineStr"/>
       <c r="H1234" t="inlineStr">
@@ -40380,21 +39806,25 @@
     <row r="1235">
       <c r="A1235" t="inlineStr">
         <is>
-          <t>06:10 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1235" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1235" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Imports YoYDEC</t>
         </is>
       </c>
       <c r="D1235" t="inlineStr"/>
-      <c r="E1235" t="inlineStr"/>
+      <c r="E1235" t="inlineStr">
+        <is>
+          <t>-3.8%</t>
+        </is>
+      </c>
       <c r="F1235" t="inlineStr"/>
       <c r="G1235" t="inlineStr"/>
       <c r="H1235" t="inlineStr">
@@ -40406,17 +39836,17 @@
     <row r="1236">
       <c r="A1236" t="inlineStr">
         <is>
-          <t>06:10 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1236" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1236" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Stock Investment by ForeignersJAN/18</t>
         </is>
       </c>
       <c r="D1236" t="inlineStr"/>
@@ -40432,73 +39862,81 @@
     <row r="1237">
       <c r="A1237" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1237" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1237" t="inlineStr">
         <is>
-          <t>M3 Money Supply YoYJAN/10</t>
+          <t>NAB Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D1237" t="inlineStr"/>
       <c r="E1237" t="inlineStr">
         <is>
-          <t>9.3%</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="F1237" t="inlineStr"/>
-      <c r="G1237" t="inlineStr"/>
+      <c r="G1237" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="H1237" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1238">
       <c r="A1238" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1238" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C1238" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJAN/17</t>
+          <t>M2 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D1238" t="inlineStr"/>
-      <c r="E1238" t="inlineStr"/>
+      <c r="E1238" t="inlineStr">
+        <is>
+          <t>7%</t>
+        </is>
+      </c>
       <c r="F1238" t="inlineStr"/>
       <c r="G1238" t="inlineStr"/>
       <c r="H1238" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1239">
       <c r="A1239" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B1239" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1239" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJAN/17</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1239" t="inlineStr"/>
@@ -40514,47 +39952,39 @@
     <row r="1240">
       <c r="A1240" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1240" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1240" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexJAN/17</t>
-        </is>
-      </c>
+          <t>Thursday January 23 2025</t>
+        </is>
+      </c>
+      <c r="B1240" t="inlineStr"/>
+      <c r="C1240" t="inlineStr"/>
       <c r="D1240" t="inlineStr"/>
       <c r="E1240" t="inlineStr"/>
       <c r="F1240" t="inlineStr"/>
       <c r="G1240" t="inlineStr"/>
-      <c r="H1240" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1240" t="inlineStr"/>
     </row>
     <row r="1241">
       <c r="A1241" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1241" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1241" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexJAN/17</t>
+          <t>1-Year T-Bill Auction</t>
         </is>
       </c>
       <c r="D1241" t="inlineStr"/>
-      <c r="E1241" t="inlineStr"/>
+      <c r="E1241" t="inlineStr">
+        <is>
+          <t>2.71%</t>
+        </is>
+      </c>
       <c r="F1241" t="inlineStr"/>
       <c r="G1241" t="inlineStr"/>
       <c r="H1241" t="inlineStr">
@@ -40566,23 +39996,31 @@
     <row r="1242">
       <c r="A1242" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1242" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1242" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexJAN/17</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1242" t="inlineStr"/>
-      <c r="E1242" t="inlineStr"/>
+      <c r="E1242" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
       <c r="F1242" t="inlineStr"/>
-      <c r="G1242" t="inlineStr"/>
+      <c r="G1242" t="inlineStr">
+        <is>
+          <t>2.5%</t>
+        </is>
+      </c>
       <c r="H1242" t="inlineStr">
         <is>
           <t>3</t>
@@ -40592,23 +40030,23 @@
     <row r="1243">
       <c r="A1243" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1243" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1243" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1243" t="inlineStr"/>
       <c r="E1243" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="F1243" t="inlineStr"/>
@@ -40626,29 +40064,29 @@
     <row r="1244">
       <c r="A1244" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1244" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1244" t="inlineStr">
         <is>
-          <t>Raw Materials Prices MoMDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1244" t="inlineStr"/>
       <c r="E1244" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F1244" t="inlineStr"/>
       <c r="G1244" t="inlineStr">
         <is>
-          <t>1.0%</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="H1244" t="inlineStr">
@@ -40660,31 +40098,27 @@
     <row r="1245">
       <c r="A1245" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1245" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1245" t="inlineStr">
         <is>
-          <t>Raw Materials Prices YoYDEC</t>
+          <t>Leading Business Cycle Indicator MoMNOV</t>
         </is>
       </c>
       <c r="D1245" t="inlineStr"/>
       <c r="E1245" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="F1245" t="inlineStr"/>
-      <c r="G1245" t="inlineStr">
-        <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
+      <c r="G1245" t="inlineStr"/>
       <c r="H1245" t="inlineStr">
         <is>
           <t>3</t>
@@ -40694,77 +40128,85 @@
     <row r="1246">
       <c r="A1246" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1246" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1246" t="inlineStr">
         <is>
-          <t>CB Leading Index MoMDEC</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1246" t="inlineStr"/>
       <c r="E1246" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>81.3</t>
         </is>
       </c>
       <c r="F1246" t="inlineStr"/>
       <c r="G1246" t="inlineStr"/>
       <c r="H1246" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1247">
       <c r="A1247" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B1247" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1247" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1247" t="inlineStr"/>
-      <c r="E1247" t="inlineStr"/>
+      <c r="E1247" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
       <c r="F1247" t="inlineStr"/>
       <c r="G1247" t="inlineStr"/>
       <c r="H1247" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1248">
       <c r="A1248" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B1248" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1248" t="inlineStr">
         <is>
-          <t>20-Year Bond Auction</t>
+          <t>Business Climate IndicatorJAN</t>
         </is>
       </c>
       <c r="D1248" t="inlineStr"/>
-      <c r="E1248" t="inlineStr"/>
+      <c r="E1248" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
       <c r="F1248" t="inlineStr"/>
       <c r="G1248" t="inlineStr"/>
       <c r="H1248" t="inlineStr">
@@ -40776,31 +40218,23 @@
     <row r="1249">
       <c r="A1249" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1249" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1249" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>OAT Auction</t>
         </is>
       </c>
       <c r="D1249" t="inlineStr"/>
-      <c r="E1249" t="inlineStr">
-        <is>
-          <t>127.1%</t>
-        </is>
-      </c>
+      <c r="E1249" t="inlineStr"/>
       <c r="F1249" t="inlineStr"/>
-      <c r="G1249" t="inlineStr">
-        <is>
-          <t>115.0%</t>
-        </is>
-      </c>
+      <c r="G1249" t="inlineStr"/>
       <c r="H1249" t="inlineStr">
         <is>
           <t>3</t>
@@ -40810,47 +40244,47 @@
     <row r="1250">
       <c r="A1250" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1250" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1250" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>4-Year Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D1250" t="inlineStr"/>
-      <c r="E1250" t="inlineStr"/>
+      <c r="E1250" t="inlineStr">
+        <is>
+          <t>4.499%</t>
+        </is>
+      </c>
       <c r="F1250" t="inlineStr"/>
-      <c r="G1250" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
+      <c r="G1250" t="inlineStr"/>
       <c r="H1250" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1251">
       <c r="A1251" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1251" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1251" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/17</t>
+          <t>Index-Linked OAT Auction</t>
         </is>
       </c>
       <c r="D1251" t="inlineStr"/>
@@ -40859,72 +40293,60 @@
       <c r="G1251" t="inlineStr"/>
       <c r="H1251" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1252">
       <c r="A1252" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1252" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1252" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQ AdvQ4</t>
+          <t>OATi Auction</t>
         </is>
       </c>
       <c r="D1252" t="inlineStr"/>
-      <c r="E1252" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="E1252" t="inlineStr"/>
       <c r="F1252" t="inlineStr"/>
-      <c r="G1252" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1252" t="inlineStr"/>
       <c r="H1252" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1253">
       <c r="A1253" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1253" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1253" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoY AdvQ4</t>
+          <t>Building Permits YoYNOV</t>
         </is>
       </c>
       <c r="D1253" t="inlineStr"/>
       <c r="E1253" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>21.6%</t>
         </is>
       </c>
       <c r="F1253" t="inlineStr"/>
-      <c r="G1253" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
+      <c r="G1253" t="inlineStr"/>
       <c r="H1253" t="inlineStr">
         <is>
           <t>3</t>
@@ -40934,57 +40356,53 @@
     <row r="1254">
       <c r="A1254" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1254" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1254" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Overnight Borrowing RateJAN</t>
         </is>
       </c>
       <c r="D1254" t="inlineStr"/>
       <c r="E1254" t="inlineStr">
         <is>
-          <t>¥-117.6B</t>
+          <t>46%</t>
         </is>
       </c>
       <c r="F1254" t="inlineStr"/>
-      <c r="G1254" t="inlineStr">
-        <is>
-          <t>¥ 100B</t>
-        </is>
-      </c>
+      <c r="G1254" t="inlineStr"/>
       <c r="H1254" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1255">
       <c r="A1255" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1255" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1255" t="inlineStr">
         <is>
-          <t>Exports YoYDEC</t>
+          <t>TCMB Interest Rate Decision</t>
         </is>
       </c>
       <c r="D1255" t="inlineStr"/>
       <c r="E1255" t="inlineStr">
         <is>
-          <t>3.8%</t>
+          <t>47.5%</t>
         </is>
       </c>
       <c r="F1255" t="inlineStr"/>
@@ -40998,21 +40416,25 @@
     <row r="1256">
       <c r="A1256" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1256" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1256" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentJAN/18</t>
+          <t>Overnight Lending RateJAN</t>
         </is>
       </c>
       <c r="D1256" t="inlineStr"/>
-      <c r="E1256" t="inlineStr"/>
+      <c r="E1256" t="inlineStr">
+        <is>
+          <t>49%</t>
+        </is>
+      </c>
       <c r="F1256" t="inlineStr"/>
       <c r="G1256" t="inlineStr"/>
       <c r="H1256" t="inlineStr">
@@ -41024,25 +40446,21 @@
     <row r="1257">
       <c r="A1257" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1257" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1257" t="inlineStr">
         <is>
-          <t>Imports YoYDEC</t>
+          <t>Foreign Exchange ReservesJAN/17</t>
         </is>
       </c>
       <c r="D1257" t="inlineStr"/>
-      <c r="E1257" t="inlineStr">
-        <is>
-          <t>-3.8%</t>
-        </is>
-      </c>
+      <c r="E1257" t="inlineStr"/>
       <c r="F1257" t="inlineStr"/>
       <c r="G1257" t="inlineStr"/>
       <c r="H1257" t="inlineStr">
@@ -41054,21 +40472,25 @@
     <row r="1258">
       <c r="A1258" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1258" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1258" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersJAN/18</t>
+          <t>Mid-month Core Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D1258" t="inlineStr"/>
-      <c r="E1258" t="inlineStr"/>
+      <c r="E1258" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="F1258" t="inlineStr"/>
       <c r="G1258" t="inlineStr"/>
       <c r="H1258" t="inlineStr">
@@ -41080,57 +40502,53 @@
     <row r="1259">
       <c r="A1259" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1259" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1259" t="inlineStr">
         <is>
-          <t>NAB Business ConfidenceDEC</t>
+          <t>Mid-month Core Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D1259" t="inlineStr"/>
       <c r="E1259" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>3.62%</t>
         </is>
       </c>
       <c r="F1259" t="inlineStr"/>
-      <c r="G1259" t="inlineStr">
+      <c r="G1259" t="inlineStr"/>
+      <c r="H1259" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="H1259" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1260">
       <c r="A1260" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1260" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1260" t="inlineStr">
         <is>
-          <t>M2 Money Supply YoYDEC</t>
+          <t>Mid-month Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D1260" t="inlineStr"/>
       <c r="E1260" t="inlineStr">
         <is>
-          <t>7%</t>
+          <t>0.42%</t>
         </is>
       </c>
       <c r="F1260" t="inlineStr"/>
@@ -41144,21 +40562,25 @@
     <row r="1261">
       <c r="A1261" t="inlineStr">
         <is>
-          <t>10:35 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1261" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1261" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Mid-month Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D1261" t="inlineStr"/>
-      <c r="E1261" t="inlineStr"/>
+      <c r="E1261" t="inlineStr">
+        <is>
+          <t>4.44%</t>
+        </is>
+      </c>
       <c r="F1261" t="inlineStr"/>
       <c r="G1261" t="inlineStr"/>
       <c r="H1261" t="inlineStr">
@@ -41170,107 +40592,115 @@
     <row r="1262">
       <c r="A1262" t="inlineStr">
         <is>
-          <t>Thursday January 23 2025</t>
-        </is>
-      </c>
-      <c r="B1262" t="inlineStr"/>
-      <c r="C1262" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B1262" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C1262" t="inlineStr">
+        <is>
+          <t>Retail Sales Ex Autos MoMNOV</t>
+        </is>
+      </c>
       <c r="D1262" t="inlineStr"/>
       <c r="E1262" t="inlineStr"/>
       <c r="F1262" t="inlineStr"/>
       <c r="G1262" t="inlineStr"/>
-      <c r="H1262" t="inlineStr"/>
+      <c r="H1262" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1263">
       <c r="A1263" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1263" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1263" t="inlineStr">
         <is>
-          <t>1-Year T-Bill Auction</t>
+          <t>Retail Sales MoM FinalNOV</t>
         </is>
       </c>
       <c r="D1263" t="inlineStr"/>
       <c r="E1263" t="inlineStr">
         <is>
-          <t>2.71%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="F1263" t="inlineStr"/>
-      <c r="G1263" t="inlineStr"/>
+      <c r="G1263" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
       <c r="H1263" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1264">
       <c r="A1264" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1264" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1264" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>Retail Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1264" t="inlineStr"/>
-      <c r="E1264" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="E1264" t="inlineStr"/>
       <c r="F1264" t="inlineStr"/>
-      <c r="G1264" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
+      <c r="G1264" t="inlineStr"/>
       <c r="H1264" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1265">
       <c r="A1265" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1265" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1265" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1265" t="inlineStr"/>
       <c r="E1265" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="F1265" t="inlineStr"/>
       <c r="G1265" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="H1265" t="inlineStr">
@@ -41282,59 +40712,47 @@
     <row r="1266">
       <c r="A1266" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1266" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1266" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Initial Jobless ClaimsJAN/18</t>
         </is>
       </c>
       <c r="D1266" t="inlineStr"/>
-      <c r="E1266" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+      <c r="E1266" t="inlineStr"/>
       <c r="F1266" t="inlineStr"/>
-      <c r="G1266" t="inlineStr">
-        <is>
-          <t>1.8%</t>
-        </is>
-      </c>
+      <c r="G1266" t="inlineStr"/>
       <c r="H1266" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1267">
       <c r="A1267" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1267" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1267" t="inlineStr">
         <is>
-          <t>Leading Business Cycle Indicator MoMNOV</t>
+          <t>Continuing Jobless ClaimsJAN/11</t>
         </is>
       </c>
       <c r="D1267" t="inlineStr"/>
-      <c r="E1267" t="inlineStr">
-        <is>
-          <t>1.1%</t>
-        </is>
-      </c>
+      <c r="E1267" t="inlineStr"/>
       <c r="F1267" t="inlineStr"/>
       <c r="G1267" t="inlineStr"/>
       <c r="H1267" t="inlineStr">
@@ -41346,53 +40764,49 @@
     <row r="1268">
       <c r="A1268" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1268" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1268" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>Jobless Claims 4-week AverageJAN/18</t>
         </is>
       </c>
       <c r="D1268" t="inlineStr"/>
-      <c r="E1268" t="inlineStr">
-        <is>
-          <t>81.3</t>
-        </is>
-      </c>
+      <c r="E1268" t="inlineStr"/>
       <c r="F1268" t="inlineStr"/>
       <c r="G1268" t="inlineStr"/>
       <c r="H1268" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1269">
       <c r="A1269" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1269" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1269" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>Consumer Confidence FlashJAN</t>
         </is>
       </c>
       <c r="D1269" t="inlineStr"/>
       <c r="E1269" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>-14.5</t>
         </is>
       </c>
       <c r="F1269" t="inlineStr"/>
@@ -41406,25 +40820,21 @@
     <row r="1270">
       <c r="A1270" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1270" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1270" t="inlineStr">
         <is>
-          <t>Business Climate IndicatorJAN</t>
+          <t>EIA Natural Gas Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1270" t="inlineStr"/>
-      <c r="E1270" t="inlineStr">
-        <is>
-          <t>94</t>
-        </is>
-      </c>
+      <c r="E1270" t="inlineStr"/>
       <c r="F1270" t="inlineStr"/>
       <c r="G1270" t="inlineStr"/>
       <c r="H1270" t="inlineStr">
@@ -41436,17 +40846,17 @@
     <row r="1271">
       <c r="A1271" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1271" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1271" t="inlineStr">
         <is>
-          <t>OAT Auction</t>
+          <t>EIA Crude Oil Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1271" t="inlineStr"/>
@@ -41455,54 +40865,50 @@
       <c r="G1271" t="inlineStr"/>
       <c r="H1271" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1272">
       <c r="A1272" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1272" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1272" t="inlineStr">
         <is>
-          <t>4-Year Treasury Gilt Auction</t>
+          <t>EIA Gasoline Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1272" t="inlineStr"/>
-      <c r="E1272" t="inlineStr">
-        <is>
-          <t>4.499%</t>
-        </is>
-      </c>
+      <c r="E1272" t="inlineStr"/>
       <c r="F1272" t="inlineStr"/>
       <c r="G1272" t="inlineStr"/>
       <c r="H1272" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1273">
       <c r="A1273" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1273" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1273" t="inlineStr">
         <is>
-          <t>Index-Linked OAT Auction</t>
+          <t>EIA Crude Oil Imports ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1273" t="inlineStr"/>
@@ -41518,17 +40924,17 @@
     <row r="1274">
       <c r="A1274" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1274" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1274" t="inlineStr">
         <is>
-          <t>OATi Auction</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1274" t="inlineStr"/>
@@ -41544,25 +40950,21 @@
     <row r="1275">
       <c r="A1275" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1275" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1275" t="inlineStr">
         <is>
-          <t>Building Permits YoYNOV</t>
+          <t>EIA Distillate Fuel Production ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1275" t="inlineStr"/>
-      <c r="E1275" t="inlineStr">
-        <is>
-          <t>21.6%</t>
-        </is>
-      </c>
+      <c r="E1275" t="inlineStr"/>
       <c r="F1275" t="inlineStr"/>
       <c r="G1275" t="inlineStr"/>
       <c r="H1275" t="inlineStr">
@@ -41574,85 +40976,73 @@
     <row r="1276">
       <c r="A1276" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1276" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1276" t="inlineStr">
         <is>
-          <t>Overnight Borrowing RateJAN</t>
+          <t>EIA Distillate Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1276" t="inlineStr"/>
-      <c r="E1276" t="inlineStr">
-        <is>
-          <t>46%</t>
-        </is>
-      </c>
+      <c r="E1276" t="inlineStr"/>
       <c r="F1276" t="inlineStr"/>
       <c r="G1276" t="inlineStr"/>
       <c r="H1276" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1277">
       <c r="A1277" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1277" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1277" t="inlineStr">
         <is>
-          <t>TCMB Interest Rate Decision</t>
+          <t>EIA Gasoline Production ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1277" t="inlineStr"/>
-      <c r="E1277" t="inlineStr">
-        <is>
-          <t>47.5%</t>
-        </is>
-      </c>
+      <c r="E1277" t="inlineStr"/>
       <c r="F1277" t="inlineStr"/>
       <c r="G1277" t="inlineStr"/>
       <c r="H1277" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1278">
       <c r="A1278" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1278" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1278" t="inlineStr">
         <is>
-          <t>Overnight Lending RateJAN</t>
+          <t>EIA Heating Oil Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1278" t="inlineStr"/>
-      <c r="E1278" t="inlineStr">
-        <is>
-          <t>49%</t>
-        </is>
-      </c>
+      <c r="E1278" t="inlineStr"/>
       <c r="F1278" t="inlineStr"/>
       <c r="G1278" t="inlineStr"/>
       <c r="H1278" t="inlineStr">
@@ -41664,17 +41054,17 @@
     <row r="1279">
       <c r="A1279" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1279" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1279" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/17</t>
+          <t>EIA Refinery Crude Runs ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1279" t="inlineStr"/>
@@ -41690,25 +41080,21 @@
     <row r="1280">
       <c r="A1280" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1280" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1280" t="inlineStr">
         <is>
-          <t>Mid-month Core Inflation Rate MoMJAN</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1280" t="inlineStr"/>
-      <c r="E1280" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="E1280" t="inlineStr"/>
       <c r="F1280" t="inlineStr"/>
       <c r="G1280" t="inlineStr"/>
       <c r="H1280" t="inlineStr">
@@ -41720,25 +41106,21 @@
     <row r="1281">
       <c r="A1281" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1281" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1281" t="inlineStr">
         <is>
-          <t>Mid-month Core Inflation Rate YoYJAN</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1281" t="inlineStr"/>
-      <c r="E1281" t="inlineStr">
-        <is>
-          <t>3.62%</t>
-        </is>
-      </c>
+      <c r="E1281" t="inlineStr"/>
       <c r="F1281" t="inlineStr"/>
       <c r="G1281" t="inlineStr"/>
       <c r="H1281" t="inlineStr">
@@ -41750,23 +41132,23 @@
     <row r="1282">
       <c r="A1282" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1282" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1282" t="inlineStr">
         <is>
-          <t>Mid-month Inflation Rate MoMJAN</t>
+          <t>30-Year Bond Auction</t>
         </is>
       </c>
       <c r="D1282" t="inlineStr"/>
       <c r="E1282" t="inlineStr">
         <is>
-          <t>0.42%</t>
+          <t>3.25%</t>
         </is>
       </c>
       <c r="F1282" t="inlineStr"/>
@@ -41780,25 +41162,21 @@
     <row r="1283">
       <c r="A1283" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1283" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1283" t="inlineStr">
         <is>
-          <t>Mid-month Inflation Rate YoYJAN</t>
+          <t>15-Year Mortgage RateJAN/23</t>
         </is>
       </c>
       <c r="D1283" t="inlineStr"/>
-      <c r="E1283" t="inlineStr">
-        <is>
-          <t>4.44%</t>
-        </is>
-      </c>
+      <c r="E1283" t="inlineStr"/>
       <c r="F1283" t="inlineStr"/>
       <c r="G1283" t="inlineStr"/>
       <c r="H1283" t="inlineStr">
@@ -41810,17 +41188,17 @@
     <row r="1284">
       <c r="A1284" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1284" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1284" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Autos MoMNOV</t>
+          <t>30-Year Mortgage RateJAN/23</t>
         </is>
       </c>
       <c r="D1284" t="inlineStr"/>
@@ -41829,653 +41207,87 @@
       <c r="G1284" t="inlineStr"/>
       <c r="H1284" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1285">
       <c r="A1285" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1285" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1285" t="inlineStr">
         <is>
-          <t>Retail Sales MoM FinalNOV</t>
+          <t>10-Year TIPS Auction</t>
         </is>
       </c>
       <c r="D1285" t="inlineStr"/>
       <c r="E1285" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>2.071%</t>
         </is>
       </c>
       <c r="F1285" t="inlineStr"/>
-      <c r="G1285" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
+      <c r="G1285" t="inlineStr"/>
       <c r="H1285" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1286">
-      <c r="A1286" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A1286" t="inlineStr"/>
       <c r="B1286" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1286" t="inlineStr">
         <is>
-          <t>Retail Sales MoM PrelDEC</t>
+          <t>20-Year KTB Auction</t>
         </is>
       </c>
       <c r="D1286" t="inlineStr"/>
-      <c r="E1286" t="inlineStr"/>
+      <c r="E1286" t="inlineStr">
+        <is>
+          <t>2.750%</t>
+        </is>
+      </c>
       <c r="F1286" t="inlineStr"/>
       <c r="G1286" t="inlineStr"/>
       <c r="H1286" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1287">
-      <c r="A1287" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A1287" t="inlineStr"/>
       <c r="B1287" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1287" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>Federal Tax RevenuesDEC</t>
         </is>
       </c>
       <c r="D1287" t="inlineStr"/>
-      <c r="E1287" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="E1287" t="inlineStr"/>
       <c r="F1287" t="inlineStr"/>
       <c r="G1287" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>BRL 255.1B</t>
         </is>
       </c>
       <c r="H1287" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1288">
-      <c r="A1288" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1288" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1288" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsJAN/18</t>
-        </is>
-      </c>
-      <c r="D1288" t="inlineStr"/>
-      <c r="E1288" t="inlineStr"/>
-      <c r="F1288" t="inlineStr"/>
-      <c r="G1288" t="inlineStr"/>
-      <c r="H1288" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1289">
-      <c r="A1289" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1289" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1289" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsJAN/11</t>
-        </is>
-      </c>
-      <c r="D1289" t="inlineStr"/>
-      <c r="E1289" t="inlineStr"/>
-      <c r="F1289" t="inlineStr"/>
-      <c r="G1289" t="inlineStr"/>
-      <c r="H1289" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1290">
-      <c r="A1290" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1290" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1290" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageJAN/18</t>
-        </is>
-      </c>
-      <c r="D1290" t="inlineStr"/>
-      <c r="E1290" t="inlineStr"/>
-      <c r="F1290" t="inlineStr"/>
-      <c r="G1290" t="inlineStr"/>
-      <c r="H1290" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1291">
-      <c r="A1291" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1291" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C1291" t="inlineStr">
-        <is>
-          <t>Consumer Confidence FlashJAN</t>
-        </is>
-      </c>
-      <c r="D1291" t="inlineStr"/>
-      <c r="E1291" t="inlineStr">
-        <is>
-          <t>-14.5</t>
-        </is>
-      </c>
-      <c r="F1291" t="inlineStr"/>
-      <c r="G1291" t="inlineStr"/>
-      <c r="H1291" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1292">
-      <c r="A1292" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1292" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1292" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeJAN/17</t>
-        </is>
-      </c>
-      <c r="D1292" t="inlineStr"/>
-      <c r="E1292" t="inlineStr"/>
-      <c r="F1292" t="inlineStr"/>
-      <c r="G1292" t="inlineStr"/>
-      <c r="H1292" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1293">
-      <c r="A1293" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1293" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1293" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeJAN/17</t>
-        </is>
-      </c>
-      <c r="D1293" t="inlineStr"/>
-      <c r="E1293" t="inlineStr"/>
-      <c r="F1293" t="inlineStr"/>
-      <c r="G1293" t="inlineStr"/>
-      <c r="H1293" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1294">
-      <c r="A1294" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1294" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1294" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeJAN/17</t>
-        </is>
-      </c>
-      <c r="D1294" t="inlineStr"/>
-      <c r="E1294" t="inlineStr"/>
-      <c r="F1294" t="inlineStr"/>
-      <c r="G1294" t="inlineStr"/>
-      <c r="H1294" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1295">
-      <c r="A1295" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1295" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1295" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeJAN/17</t>
-        </is>
-      </c>
-      <c r="D1295" t="inlineStr"/>
-      <c r="E1295" t="inlineStr"/>
-      <c r="F1295" t="inlineStr"/>
-      <c r="G1295" t="inlineStr"/>
-      <c r="H1295" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1296">
-      <c r="A1296" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1296" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1296" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJAN/17</t>
-        </is>
-      </c>
-      <c r="D1296" t="inlineStr"/>
-      <c r="E1296" t="inlineStr"/>
-      <c r="F1296" t="inlineStr"/>
-      <c r="G1296" t="inlineStr"/>
-      <c r="H1296" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1297">
-      <c r="A1297" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1297" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1297" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeJAN/17</t>
-        </is>
-      </c>
-      <c r="D1297" t="inlineStr"/>
-      <c r="E1297" t="inlineStr"/>
-      <c r="F1297" t="inlineStr"/>
-      <c r="G1297" t="inlineStr"/>
-      <c r="H1297" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1298">
-      <c r="A1298" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1298" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1298" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeJAN/17</t>
-        </is>
-      </c>
-      <c r="D1298" t="inlineStr"/>
-      <c r="E1298" t="inlineStr"/>
-      <c r="F1298" t="inlineStr"/>
-      <c r="G1298" t="inlineStr"/>
-      <c r="H1298" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1299">
-      <c r="A1299" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1299" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1299" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeJAN/17</t>
-        </is>
-      </c>
-      <c r="D1299" t="inlineStr"/>
-      <c r="E1299" t="inlineStr"/>
-      <c r="F1299" t="inlineStr"/>
-      <c r="G1299" t="inlineStr"/>
-      <c r="H1299" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1300">
-      <c r="A1300" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1300" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1300" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeJAN/17</t>
-        </is>
-      </c>
-      <c r="D1300" t="inlineStr"/>
-      <c r="E1300" t="inlineStr"/>
-      <c r="F1300" t="inlineStr"/>
-      <c r="G1300" t="inlineStr"/>
-      <c r="H1300" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1301">
-      <c r="A1301" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1301" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1301" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeJAN/17</t>
-        </is>
-      </c>
-      <c r="D1301" t="inlineStr"/>
-      <c r="E1301" t="inlineStr"/>
-      <c r="F1301" t="inlineStr"/>
-      <c r="G1301" t="inlineStr"/>
-      <c r="H1301" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1302">
-      <c r="A1302" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B1302" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1302" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1302" t="inlineStr"/>
-      <c r="E1302" t="inlineStr"/>
-      <c r="F1302" t="inlineStr"/>
-      <c r="G1302" t="inlineStr"/>
-      <c r="H1302" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1303">
-      <c r="A1303" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B1303" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1303" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1303" t="inlineStr"/>
-      <c r="E1303" t="inlineStr"/>
-      <c r="F1303" t="inlineStr"/>
-      <c r="G1303" t="inlineStr"/>
-      <c r="H1303" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1304">
-      <c r="A1304" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1304" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1304" t="inlineStr">
-        <is>
-          <t>30-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="D1304" t="inlineStr"/>
-      <c r="E1304" t="inlineStr">
-        <is>
-          <t>3.25%</t>
-        </is>
-      </c>
-      <c r="F1304" t="inlineStr"/>
-      <c r="G1304" t="inlineStr"/>
-      <c r="H1304" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1305">
-      <c r="A1305" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1305" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1305" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateJAN/23</t>
-        </is>
-      </c>
-      <c r="D1305" t="inlineStr"/>
-      <c r="E1305" t="inlineStr"/>
-      <c r="F1305" t="inlineStr"/>
-      <c r="G1305" t="inlineStr"/>
-      <c r="H1305" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1306">
-      <c r="A1306" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1306" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1306" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateJAN/23</t>
-        </is>
-      </c>
-      <c r="D1306" t="inlineStr"/>
-      <c r="E1306" t="inlineStr"/>
-      <c r="F1306" t="inlineStr"/>
-      <c r="G1306" t="inlineStr"/>
-      <c r="H1306" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1307">
-      <c r="A1307" t="inlineStr"/>
-      <c r="B1307" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C1307" t="inlineStr">
-        <is>
-          <t>20-Year KTB Auction</t>
-        </is>
-      </c>
-      <c r="D1307" t="inlineStr"/>
-      <c r="E1307" t="inlineStr">
-        <is>
-          <t>2.750%</t>
-        </is>
-      </c>
-      <c r="F1307" t="inlineStr"/>
-      <c r="G1307" t="inlineStr"/>
-      <c r="H1307" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1308">
-      <c r="A1308" t="inlineStr"/>
-      <c r="B1308" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C1308" t="inlineStr">
-        <is>
-          <t>Federal Tax RevenuesDEC</t>
-        </is>
-      </c>
-      <c r="D1308" t="inlineStr"/>
-      <c r="E1308" t="inlineStr"/>
-      <c r="F1308" t="inlineStr"/>
-      <c r="G1308" t="inlineStr">
-        <is>
-          <t>BRL 255.1B</t>
-        </is>
-      </c>
-      <c r="H1308" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-23.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1287"/>
+  <dimension ref="A1:H1310"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28737,8 +28737,10 @@
       </c>
       <c r="F879" t="inlineStr"/>
       <c r="G879" t="inlineStr"/>
-      <c r="H879" t="n">
-        <v>3</v>
+      <c r="H879" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="880">
@@ -28773,8 +28775,10 @@
           <t>6.4%</t>
         </is>
       </c>
-      <c r="H880" t="n">
-        <v>3</v>
+      <c r="H880" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="881">
@@ -28809,8 +28813,10 @@
           <t>-19.0%</t>
         </is>
       </c>
-      <c r="H881" t="n">
-        <v>3</v>
+      <c r="H881" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="882">
@@ -28845,8 +28851,10 @@
           <t>-4.0%</t>
         </is>
       </c>
-      <c r="H882" t="n">
-        <v>3</v>
+      <c r="H882" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="883">
@@ -28885,8 +28893,10 @@
           <t>$-3.4B</t>
         </is>
       </c>
-      <c r="H883" t="n">
-        <v>3</v>
+      <c r="H883" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="884">
@@ -28921,8 +28931,10 @@
           <t>0%</t>
         </is>
       </c>
-      <c r="H884" t="n">
-        <v>3</v>
+      <c r="H884" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="885">
@@ -28957,8 +28969,10 @@
           <t>14.1%</t>
         </is>
       </c>
-      <c r="H885" t="n">
-        <v>3</v>
+      <c r="H885" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="886">
@@ -28989,8 +29003,10 @@
       </c>
       <c r="F886" t="inlineStr"/>
       <c r="G886" t="inlineStr"/>
-      <c r="H886" t="n">
-        <v>3</v>
+      <c r="H886" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="887">
@@ -29021,8 +29037,10 @@
       </c>
       <c r="F887" t="inlineStr"/>
       <c r="G887" t="inlineStr"/>
-      <c r="H887" t="n">
-        <v>3</v>
+      <c r="H887" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="888">
@@ -29053,8 +29071,10 @@
       </c>
       <c r="F888" t="inlineStr"/>
       <c r="G888" t="inlineStr"/>
-      <c r="H888" t="n">
-        <v>3</v>
+      <c r="H888" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="889">
@@ -29093,8 +29113,10 @@
           <t>5.2%</t>
         </is>
       </c>
-      <c r="H889" t="n">
-        <v>2</v>
+      <c r="H889" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="890">
@@ -29129,8 +29151,10 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H890" t="n">
-        <v>3</v>
+      <c r="H890" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="891">
@@ -29161,8 +29185,10 @@
       </c>
       <c r="F891" t="inlineStr"/>
       <c r="G891" t="inlineStr"/>
-      <c r="H891" t="n">
-        <v>3</v>
+      <c r="H891" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="892">
@@ -29193,8 +29219,10 @@
       </c>
       <c r="F892" t="inlineStr"/>
       <c r="G892" t="inlineStr"/>
-      <c r="H892" t="n">
-        <v>3</v>
+      <c r="H892" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="893">
@@ -29225,8 +29253,10 @@
       </c>
       <c r="F893" t="inlineStr"/>
       <c r="G893" t="inlineStr"/>
-      <c r="H893" t="n">
-        <v>3</v>
+      <c r="H893" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="894">
@@ -29257,8 +29287,10 @@
       </c>
       <c r="F894" t="inlineStr"/>
       <c r="G894" t="inlineStr"/>
-      <c r="H894" t="n">
-        <v>3</v>
+      <c r="H894" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="895">
@@ -29293,8 +29325,10 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H895" t="n">
-        <v>3</v>
+      <c r="H895" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="896">
@@ -29325,8 +29359,10 @@
       </c>
       <c r="F896" t="inlineStr"/>
       <c r="G896" t="inlineStr"/>
-      <c r="H896" t="n">
-        <v>3</v>
+      <c r="H896" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="897">
@@ -29357,8 +29393,10 @@
       </c>
       <c r="F897" t="inlineStr"/>
       <c r="G897" t="inlineStr"/>
-      <c r="H897" t="n">
-        <v>3</v>
+      <c r="H897" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="898">
@@ -29393,8 +29431,10 @@
           <t>$-220.0B</t>
         </is>
       </c>
-      <c r="H898" t="n">
-        <v>2</v>
+      <c r="H898" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="899">
@@ -29421,8 +29461,10 @@
       </c>
       <c r="F899" t="inlineStr"/>
       <c r="G899" t="inlineStr"/>
-      <c r="H899" t="n">
-        <v>1</v>
+      <c r="H899" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="900">
@@ -29449,8 +29491,10 @@
       </c>
       <c r="F900" t="inlineStr"/>
       <c r="G900" t="inlineStr"/>
-      <c r="H900" t="n">
-        <v>1</v>
+      <c r="H900" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="901">
@@ -29485,8 +29529,10 @@
           <t>¥1990.0B</t>
         </is>
       </c>
-      <c r="H901" t="n">
-        <v>2</v>
+      <c r="H901" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="902">
@@ -29521,8 +29567,10 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H902" t="n">
-        <v>3</v>
+      <c r="H902" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="903">
@@ -29553,8 +29601,10 @@
         </is>
       </c>
       <c r="G903" t="inlineStr"/>
-      <c r="H903" t="n">
-        <v>3</v>
+      <c r="H903" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="904">
@@ -29585,8 +29635,10 @@
         </is>
       </c>
       <c r="G904" t="inlineStr"/>
-      <c r="H904" t="n">
-        <v>3</v>
+      <c r="H904" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="905">
@@ -29613,8 +29665,10 @@
       </c>
       <c r="F905" t="inlineStr"/>
       <c r="G905" t="inlineStr"/>
-      <c r="H905" t="n">
-        <v>3</v>
+      <c r="H905" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="906">
@@ -29633,8 +29687,10 @@
       <c r="E906" t="inlineStr"/>
       <c r="F906" t="inlineStr"/>
       <c r="G906" t="inlineStr"/>
-      <c r="H906" t="n">
-        <v>3</v>
+      <c r="H906" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="907">
@@ -29683,8 +29739,10 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H908" t="n">
-        <v>3</v>
+      <c r="H908" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="909">
@@ -29715,8 +29773,10 @@
           <t>49.6</t>
         </is>
       </c>
-      <c r="H909" t="n">
-        <v>3</v>
+      <c r="H909" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="910">
@@ -29743,8 +29803,10 @@
       </c>
       <c r="F910" t="inlineStr"/>
       <c r="G910" t="inlineStr"/>
-      <c r="H910" t="n">
-        <v>3</v>
+      <c r="H910" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="911">
@@ -29771,8 +29833,10 @@
       </c>
       <c r="F911" t="inlineStr"/>
       <c r="G911" t="inlineStr"/>
-      <c r="H911" t="n">
-        <v>3</v>
+      <c r="H911" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="912">
@@ -29803,8 +29867,10 @@
           <t>10.2%</t>
         </is>
       </c>
-      <c r="H912" t="n">
-        <v>3</v>
+      <c r="H912" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="913">
@@ -29835,8 +29901,10 @@
           <t>-3.2%</t>
         </is>
       </c>
-      <c r="H913" t="n">
-        <v>3</v>
+      <c r="H913" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="914">
@@ -29871,8 +29939,10 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H914" t="n">
-        <v>3</v>
+      <c r="H914" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="915">
@@ -29903,8 +29973,10 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H915" t="n">
-        <v>3</v>
+      <c r="H915" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="916">
@@ -29927,8 +29999,10 @@
       <c r="E916" t="inlineStr"/>
       <c r="F916" t="inlineStr"/>
       <c r="G916" t="inlineStr"/>
-      <c r="H916" t="n">
-        <v>3</v>
+      <c r="H916" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="917">
@@ -29959,8 +30033,10 @@
           <t>€-162.0B</t>
         </is>
       </c>
-      <c r="H917" t="n">
-        <v>3</v>
+      <c r="H917" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="918">
@@ -29983,8 +30059,10 @@
       <c r="E918" t="inlineStr"/>
       <c r="F918" t="inlineStr"/>
       <c r="G918" t="inlineStr"/>
-      <c r="H918" t="n">
-        <v>3</v>
+      <c r="H918" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="919">
@@ -30019,8 +30097,10 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H919" t="n">
-        <v>2</v>
+      <c r="H919" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="920">
@@ -30051,8 +30131,10 @@
           <t>-3.3%</t>
         </is>
       </c>
-      <c r="H920" t="n">
-        <v>3</v>
+      <c r="H920" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="921">
@@ -30079,8 +30161,10 @@
       </c>
       <c r="F921" t="inlineStr"/>
       <c r="G921" t="inlineStr"/>
-      <c r="H921" t="n">
-        <v>3</v>
+      <c r="H921" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="922">
@@ -30107,8 +30191,10 @@
       </c>
       <c r="F922" t="inlineStr"/>
       <c r="G922" t="inlineStr"/>
-      <c r="H922" t="n">
-        <v>3</v>
+      <c r="H922" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="923">
@@ -30135,8 +30221,10 @@
       </c>
       <c r="F923" t="inlineStr"/>
       <c r="G923" t="inlineStr"/>
-      <c r="H923" t="n">
-        <v>3</v>
+      <c r="H923" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="924">
@@ -30163,8 +30251,10 @@
       </c>
       <c r="F924" t="inlineStr"/>
       <c r="G924" t="inlineStr"/>
-      <c r="H924" t="n">
-        <v>3</v>
+      <c r="H924" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="925">
@@ -30187,8 +30277,10 @@
       <c r="E925" t="inlineStr"/>
       <c r="F925" t="inlineStr"/>
       <c r="G925" t="inlineStr"/>
-      <c r="H925" t="n">
-        <v>3</v>
+      <c r="H925" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="926">
@@ -30223,8 +30315,10 @@
           <t>102</t>
         </is>
       </c>
-      <c r="H926" t="n">
-        <v>3</v>
+      <c r="H926" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="927">
@@ -30255,8 +30349,10 @@
           <t>$615.0B</t>
         </is>
       </c>
-      <c r="H927" t="n">
-        <v>3</v>
+      <c r="H927" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="928">
@@ -30291,8 +30387,10 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H928" t="n">
-        <v>1</v>
+      <c r="H928" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="929">
@@ -30327,8 +30425,10 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H929" t="n">
-        <v>2</v>
+      <c r="H929" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="930">
@@ -30363,8 +30463,10 @@
           <t>3.5%</t>
         </is>
       </c>
-      <c r="H930" t="n">
-        <v>3</v>
+      <c r="H930" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="931">
@@ -30395,8 +30497,10 @@
           <t>146.8</t>
         </is>
       </c>
-      <c r="H931" t="n">
-        <v>3</v>
+      <c r="H931" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="932">
@@ -30427,8 +30531,10 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H932" t="n">
-        <v>3</v>
+      <c r="H932" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="933">
@@ -30459,8 +30565,10 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H933" t="n">
-        <v>3</v>
+      <c r="H933" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="934">
@@ -30495,8 +30603,10 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H934" t="n">
-        <v>3</v>
+      <c r="H934" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="935">
@@ -30523,8 +30633,10 @@
       </c>
       <c r="F935" t="inlineStr"/>
       <c r="G935" t="inlineStr"/>
-      <c r="H935" t="n">
-        <v>3</v>
+      <c r="H935" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="936">
@@ -30547,8 +30659,10 @@
       <c r="E936" t="inlineStr"/>
       <c r="F936" t="inlineStr"/>
       <c r="G936" t="inlineStr"/>
-      <c r="H936" t="n">
-        <v>2</v>
+      <c r="H936" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="937">
@@ -30583,8 +30697,10 @@
           <t>54.2</t>
         </is>
       </c>
-      <c r="H937" t="n">
-        <v>3</v>
+      <c r="H937" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="938">
@@ -30611,8 +30727,10 @@
       </c>
       <c r="F938" t="inlineStr"/>
       <c r="G938" t="inlineStr"/>
-      <c r="H938" t="n">
-        <v>3</v>
+      <c r="H938" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="939">
@@ -30647,8 +30765,10 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H939" t="n">
-        <v>3</v>
+      <c r="H939" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="940">
@@ -30683,8 +30803,10 @@
           <t>116.0%</t>
         </is>
       </c>
-      <c r="H940" t="n">
-        <v>3</v>
+      <c r="H940" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="941">
@@ -30707,8 +30829,10 @@
       <c r="E941" t="inlineStr"/>
       <c r="F941" t="inlineStr"/>
       <c r="G941" t="inlineStr"/>
-      <c r="H941" t="n">
-        <v>2</v>
+      <c r="H941" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="942">
@@ -30739,8 +30863,10 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H942" t="n">
-        <v>3</v>
+      <c r="H942" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="943">
@@ -30771,8 +30897,10 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H943" t="n">
-        <v>3</v>
+      <c r="H943" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="944">
@@ -30799,8 +30927,10 @@
       </c>
       <c r="F944" t="inlineStr"/>
       <c r="G944" t="inlineStr"/>
-      <c r="H944" t="n">
-        <v>2</v>
+      <c r="H944" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="945">
@@ -30831,8 +30961,10 @@
           <t>3</t>
         </is>
       </c>
-      <c r="H945" t="n">
-        <v>3</v>
+      <c r="H945" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="946">
@@ -30855,8 +30987,10 @@
       <c r="E946" t="inlineStr"/>
       <c r="F946" t="inlineStr"/>
       <c r="G946" t="inlineStr"/>
-      <c r="H946" t="n">
-        <v>3</v>
+      <c r="H946" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="947">
@@ -30891,8 +31025,10 @@
           <t>$ 3.7B</t>
         </is>
       </c>
-      <c r="H947" t="n">
-        <v>2</v>
+      <c r="H947" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="948">
@@ -30923,8 +31059,10 @@
         </is>
       </c>
       <c r="G948" t="inlineStr"/>
-      <c r="H948" t="n">
-        <v>3</v>
+      <c r="H948" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="949">
@@ -30955,8 +31093,10 @@
         </is>
       </c>
       <c r="G949" t="inlineStr"/>
-      <c r="H949" t="n">
-        <v>3</v>
+      <c r="H949" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="950">
@@ -30979,8 +31119,10 @@
       </c>
       <c r="F950" t="inlineStr"/>
       <c r="G950" t="inlineStr"/>
-      <c r="H950" t="n">
-        <v>3</v>
+      <c r="H950" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="951">
@@ -31011,8 +31153,10 @@
           <t>CNY690.0B</t>
         </is>
       </c>
-      <c r="H951" t="n">
-        <v>3</v>
+      <c r="H951" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="952">
@@ -31039,8 +31183,10 @@
         </is>
       </c>
       <c r="G952" t="inlineStr"/>
-      <c r="H952" t="n">
-        <v>3</v>
+      <c r="H952" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="953">
@@ -31071,8 +31217,10 @@
           <t>7.5%</t>
         </is>
       </c>
-      <c r="H953" t="n">
-        <v>3</v>
+      <c r="H953" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="954">
@@ -31103,8 +31251,10 @@
           <t>CNY1850.0B</t>
         </is>
       </c>
-      <c r="H954" t="n">
-        <v>3</v>
+      <c r="H954" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="955">
@@ -31131,8 +31281,10 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H955" t="n">
-        <v>3</v>
+      <c r="H955" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="956">
@@ -31159,8 +31311,10 @@
           <t>-2.5%</t>
         </is>
       </c>
-      <c r="H956" t="n">
-        <v>3</v>
+      <c r="H956" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="957">
@@ -31183,8 +31337,10 @@
       </c>
       <c r="F957" t="inlineStr"/>
       <c r="G957" t="inlineStr"/>
-      <c r="H957" t="n">
-        <v>3</v>
+      <c r="H957" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="958">
@@ -31233,8 +31389,10 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H959" t="n">
-        <v>3</v>
+      <c r="H959" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="960">
@@ -31269,8 +31427,10 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H960" t="n">
-        <v>2</v>
+      <c r="H960" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="961">
@@ -31301,8 +31461,10 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H961" t="n">
-        <v>2</v>
+      <c r="H961" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="962">
@@ -31337,8 +31499,10 @@
           <t>2.7%</t>
         </is>
       </c>
-      <c r="H962" t="n">
-        <v>1</v>
+      <c r="H962" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="963">
@@ -31373,8 +31537,10 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H963" t="n">
-        <v>2</v>
+      <c r="H963" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="964">
@@ -31409,8 +31575,10 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H964" t="n">
-        <v>2</v>
+      <c r="H964" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="965">
@@ -31445,8 +31613,10 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H965" t="n">
-        <v>3</v>
+      <c r="H965" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="966">
@@ -31477,8 +31647,10 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H966" t="n">
-        <v>3</v>
+      <c r="H966" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="967">
@@ -31509,8 +31681,10 @@
           <t>2.1%</t>
         </is>
       </c>
-      <c r="H967" t="n">
-        <v>3</v>
+      <c r="H967" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="968">
@@ -31545,8 +31719,10 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H968" t="n">
-        <v>3</v>
+      <c r="H968" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="969">
@@ -31577,8 +31753,10 @@
           <t>-1%</t>
         </is>
       </c>
-      <c r="H969" t="n">
-        <v>3</v>
+      <c r="H969" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="970">
@@ -31613,8 +31791,10 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H970" t="n">
-        <v>3</v>
+      <c r="H970" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="971">
@@ -31645,8 +31825,10 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H971" t="n">
-        <v>3</v>
+      <c r="H971" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="972">
@@ -31681,8 +31863,10 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H972" t="n">
-        <v>3</v>
+      <c r="H972" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="973">
@@ -31717,8 +31901,10 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H973" t="n">
-        <v>3</v>
+      <c r="H973" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="974">
@@ -31749,8 +31935,10 @@
           <t>10%</t>
         </is>
       </c>
-      <c r="H974" t="n">
-        <v>3</v>
+      <c r="H974" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="975">
@@ -31785,8 +31973,10 @@
           <t>6%</t>
         </is>
       </c>
-      <c r="H975" t="n">
-        <v>2</v>
+      <c r="H975" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="976">
@@ -31821,8 +32011,10 @@
           <t>5.25%</t>
         </is>
       </c>
-      <c r="H976" t="n">
-        <v>3</v>
+      <c r="H976" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="977">
@@ -31857,8 +32049,10 @@
           <t>6.75%</t>
         </is>
       </c>
-      <c r="H977" t="n">
-        <v>3</v>
+      <c r="H977" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="978">
@@ -31893,8 +32087,10 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H978" t="n">
-        <v>2</v>
+      <c r="H978" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="979">
@@ -31929,8 +32125,10 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H979" t="n">
-        <v>2</v>
+      <c r="H979" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="980">
@@ -31965,8 +32163,10 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H980" t="n">
-        <v>3</v>
+      <c r="H980" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="981">
@@ -32001,8 +32201,10 @@
           <t>1.8%</t>
         </is>
       </c>
-      <c r="H981" t="n">
-        <v>3</v>
+      <c r="H981" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="982">
@@ -32025,8 +32227,10 @@
       <c r="E982" t="inlineStr"/>
       <c r="F982" t="inlineStr"/>
       <c r="G982" t="inlineStr"/>
-      <c r="H982" t="n">
-        <v>3</v>
+      <c r="H982" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="983">
@@ -32061,8 +32265,10 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H983" t="n">
-        <v>3</v>
+      <c r="H983" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="984">
@@ -32097,8 +32303,10 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H984" t="n">
-        <v>3</v>
+      <c r="H984" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="985">
@@ -32133,8 +32341,10 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H985" t="n">
-        <v>3</v>
+      <c r="H985" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="986">
@@ -32169,8 +32379,10 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H986" t="n">
-        <v>3</v>
+      <c r="H986" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="987">
@@ -32205,8 +32417,10 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H987" t="n">
-        <v>3</v>
+      <c r="H987" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="988">
@@ -32229,8 +32443,10 @@
       <c r="E988" t="inlineStr"/>
       <c r="F988" t="inlineStr"/>
       <c r="G988" t="inlineStr"/>
-      <c r="H988" t="n">
-        <v>2</v>
+      <c r="H988" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="989">
@@ -32265,8 +32481,10 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H989" t="n">
-        <v>1</v>
+      <c r="H989" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="990">
@@ -32301,8 +32519,10 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H990" t="n">
-        <v>2</v>
+      <c r="H990" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="991">
@@ -32337,8 +32557,10 @@
           <t>-1.5%</t>
         </is>
       </c>
-      <c r="H991" t="n">
-        <v>3</v>
+      <c r="H991" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="992">
@@ -32365,8 +32587,10 @@
       </c>
       <c r="F992" t="inlineStr"/>
       <c r="G992" t="inlineStr"/>
-      <c r="H992" t="n">
-        <v>3</v>
+      <c r="H992" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="993">
@@ -32393,8 +32617,10 @@
       </c>
       <c r="F993" t="inlineStr"/>
       <c r="G993" t="inlineStr"/>
-      <c r="H993" t="n">
-        <v>3</v>
+      <c r="H993" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="994">
@@ -32425,8 +32651,10 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H994" t="n">
-        <v>3</v>
+      <c r="H994" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="995">
@@ -32457,8 +32685,10 @@
           <t>-5.0%</t>
         </is>
       </c>
-      <c r="H995" t="n">
-        <v>3</v>
+      <c r="H995" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="996">
@@ -32485,8 +32715,10 @@
       </c>
       <c r="F996" t="inlineStr"/>
       <c r="G996" t="inlineStr"/>
-      <c r="H996" t="n">
-        <v>2</v>
+      <c r="H996" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="997">
@@ -32513,8 +32745,10 @@
       </c>
       <c r="F997" t="inlineStr"/>
       <c r="G997" t="inlineStr"/>
-      <c r="H997" t="n">
-        <v>3</v>
+      <c r="H997" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="998">
@@ -32541,8 +32775,10 @@
       </c>
       <c r="F998" t="inlineStr"/>
       <c r="G998" t="inlineStr"/>
-      <c r="H998" t="n">
-        <v>3</v>
+      <c r="H998" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="999">
@@ -32569,8 +32805,10 @@
       </c>
       <c r="F999" t="inlineStr"/>
       <c r="G999" t="inlineStr"/>
-      <c r="H999" t="n">
-        <v>3</v>
+      <c r="H999" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1000">
@@ -32597,8 +32835,10 @@
       </c>
       <c r="F1000" t="inlineStr"/>
       <c r="G1000" t="inlineStr"/>
-      <c r="H1000" t="n">
-        <v>3</v>
+      <c r="H1000" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1001">
@@ -32633,8 +32873,10 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1001" t="n">
-        <v>3</v>
+      <c r="H1001" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1002">
@@ -32661,8 +32903,10 @@
       </c>
       <c r="F1002" t="inlineStr"/>
       <c r="G1002" t="inlineStr"/>
-      <c r="H1002" t="n">
-        <v>3</v>
+      <c r="H1002" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1003">
@@ -32697,8 +32941,10 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H1003" t="n">
-        <v>3</v>
+      <c r="H1003" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1004">
@@ -32733,8 +32979,10 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1004" t="n">
-        <v>1</v>
+      <c r="H1004" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="1005">
@@ -32769,8 +33017,10 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H1005" t="n">
-        <v>1</v>
+      <c r="H1005" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="1006">
@@ -32805,8 +33055,10 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1006" t="n">
-        <v>1</v>
+      <c r="H1006" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="1007">
@@ -32841,8 +33093,10 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H1007" t="n">
-        <v>1</v>
+      <c r="H1007" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="1008">
@@ -32873,8 +33127,10 @@
           <t>315.6</t>
         </is>
       </c>
-      <c r="H1008" t="n">
-        <v>2</v>
+      <c r="H1008" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1009">
@@ -32905,8 +33161,10 @@
           <t>317.4</t>
         </is>
       </c>
-      <c r="H1009" t="n">
-        <v>2</v>
+      <c r="H1009" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1010">
@@ -32941,8 +33199,10 @@
           <t>3.1</t>
         </is>
       </c>
-      <c r="H1010" t="n">
-        <v>2</v>
+      <c r="H1010" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1011">
@@ -32965,8 +33225,10 @@
       <c r="E1011" t="inlineStr"/>
       <c r="F1011" t="inlineStr"/>
       <c r="G1011" t="inlineStr"/>
-      <c r="H1011" t="n">
-        <v>2</v>
+      <c r="H1011" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1012">
@@ -32989,8 +33251,10 @@
       <c r="E1012" t="inlineStr"/>
       <c r="F1012" t="inlineStr"/>
       <c r="G1012" t="inlineStr"/>
-      <c r="H1012" t="n">
-        <v>2</v>
+      <c r="H1012" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1013">
@@ -33017,8 +33281,10 @@
       </c>
       <c r="F1013" t="inlineStr"/>
       <c r="G1013" t="inlineStr"/>
-      <c r="H1013" t="n">
-        <v>2</v>
+      <c r="H1013" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1014">
@@ -33045,8 +33311,10 @@
       </c>
       <c r="F1014" t="inlineStr"/>
       <c r="G1014" t="inlineStr"/>
-      <c r="H1014" t="n">
-        <v>2</v>
+      <c r="H1014" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1015">
@@ -33073,8 +33341,10 @@
       </c>
       <c r="F1015" t="inlineStr"/>
       <c r="G1015" t="inlineStr"/>
-      <c r="H1015" t="n">
-        <v>3</v>
+      <c r="H1015" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1016">
@@ -33101,8 +33371,10 @@
       </c>
       <c r="F1016" t="inlineStr"/>
       <c r="G1016" t="inlineStr"/>
-      <c r="H1016" t="n">
-        <v>3</v>
+      <c r="H1016" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1017">
@@ -33129,8 +33401,10 @@
       </c>
       <c r="F1017" t="inlineStr"/>
       <c r="G1017" t="inlineStr"/>
-      <c r="H1017" t="n">
-        <v>3</v>
+      <c r="H1017" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1018">
@@ -33157,8 +33431,10 @@
       </c>
       <c r="F1018" t="inlineStr"/>
       <c r="G1018" t="inlineStr"/>
-      <c r="H1018" t="n">
-        <v>3</v>
+      <c r="H1018" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1019">
@@ -33185,8 +33461,10 @@
       </c>
       <c r="F1019" t="inlineStr"/>
       <c r="G1019" t="inlineStr"/>
-      <c r="H1019" t="n">
-        <v>3</v>
+      <c r="H1019" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1020">
@@ -33213,8 +33491,10 @@
       </c>
       <c r="F1020" t="inlineStr"/>
       <c r="G1020" t="inlineStr"/>
-      <c r="H1020" t="n">
-        <v>3</v>
+      <c r="H1020" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1021">
@@ -33241,8 +33521,10 @@
       </c>
       <c r="F1021" t="inlineStr"/>
       <c r="G1021" t="inlineStr"/>
-      <c r="H1021" t="n">
-        <v>3</v>
+      <c r="H1021" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1022">
@@ -33277,8 +33559,10 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1022" t="n">
-        <v>2</v>
+      <c r="H1022" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1023">
@@ -33313,8 +33597,10 @@
           <t>9.5%</t>
         </is>
       </c>
-      <c r="H1023" t="n">
-        <v>2</v>
+      <c r="H1023" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1024">
@@ -33337,8 +33623,10 @@
       <c r="E1024" t="inlineStr"/>
       <c r="F1024" t="inlineStr"/>
       <c r="G1024" t="inlineStr"/>
-      <c r="H1024" t="n">
-        <v>2</v>
+      <c r="H1024" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1025">
@@ -33365,8 +33653,10 @@
       </c>
       <c r="F1025" t="inlineStr"/>
       <c r="G1025" t="inlineStr"/>
-      <c r="H1025" t="n">
-        <v>3</v>
+      <c r="H1025" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1026">
@@ -33397,8 +33687,10 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H1026" t="n">
-        <v>2</v>
+      <c r="H1026" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1027">
@@ -33425,8 +33717,10 @@
       </c>
       <c r="F1027" t="inlineStr"/>
       <c r="G1027" t="inlineStr"/>
-      <c r="H1027" t="n">
-        <v>3</v>
+      <c r="H1027" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1028">
@@ -33449,8 +33743,10 @@
       <c r="E1028" t="inlineStr"/>
       <c r="F1028" t="inlineStr"/>
       <c r="G1028" t="inlineStr"/>
-      <c r="H1028" t="n">
-        <v>2</v>
+      <c r="H1028" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1029">
@@ -33473,8 +33769,10 @@
       <c r="E1029" t="inlineStr"/>
       <c r="F1029" t="inlineStr"/>
       <c r="G1029" t="inlineStr"/>
-      <c r="H1029" t="n">
-        <v>3</v>
+      <c r="H1029" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1030">
@@ -33497,8 +33795,10 @@
       <c r="E1030" t="inlineStr"/>
       <c r="F1030" t="inlineStr"/>
       <c r="G1030" t="inlineStr"/>
-      <c r="H1030" t="n">
-        <v>3</v>
+      <c r="H1030" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1031">
@@ -33529,8 +33829,10 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H1031" t="n">
-        <v>2</v>
+      <c r="H1031" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1032">
@@ -33565,8 +33867,10 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1032" t="n">
-        <v>3</v>
+      <c r="H1032" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1033">
@@ -33601,8 +33905,10 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H1033" t="n">
-        <v>3</v>
+      <c r="H1033" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1034">
@@ -33637,8 +33943,10 @@
           <t>26.0%</t>
         </is>
       </c>
-      <c r="H1034" t="n">
-        <v>2</v>
+      <c r="H1034" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1035">
@@ -33673,8 +33981,10 @@
           <t>3.9%</t>
         </is>
       </c>
-      <c r="H1035" t="n">
-        <v>1</v>
+      <c r="H1035" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="1036">
@@ -33709,8 +34019,10 @@
           <t>25.1K</t>
         </is>
       </c>
-      <c r="H1036" t="n">
-        <v>2</v>
+      <c r="H1036" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1037">
@@ -33737,8 +34049,10 @@
       </c>
       <c r="F1037" t="inlineStr"/>
       <c r="G1037" t="inlineStr"/>
-      <c r="H1037" t="n">
-        <v>2</v>
+      <c r="H1037" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1038">
@@ -33765,8 +34079,10 @@
       </c>
       <c r="F1038" t="inlineStr"/>
       <c r="G1038" t="inlineStr"/>
-      <c r="H1038" t="n">
-        <v>3</v>
+      <c r="H1038" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1039">
@@ -33801,8 +34117,10 @@
           <t>66.8%</t>
         </is>
       </c>
-      <c r="H1039" t="n">
-        <v>3</v>
+      <c r="H1039" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1040">
@@ -33837,8 +34155,10 @@
           <t>2.75%</t>
         </is>
       </c>
-      <c r="H1040" t="n">
-        <v>2</v>
+      <c r="H1040" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1041">
@@ -33865,8 +34185,10 @@
       </c>
       <c r="F1041" t="inlineStr"/>
       <c r="G1041" t="inlineStr"/>
-      <c r="H1041" t="n">
-        <v>3</v>
+      <c r="H1041" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1042">
@@ -33893,8 +34215,10 @@
       </c>
       <c r="F1042" t="inlineStr"/>
       <c r="G1042" t="inlineStr"/>
-      <c r="H1042" t="n">
-        <v>3</v>
+      <c r="H1042" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1043">
@@ -33921,8 +34245,10 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1043" t="n">
-        <v>3</v>
+      <c r="H1043" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1044">
@@ -33949,8 +34275,10 @@
           <t>2%</t>
         </is>
       </c>
-      <c r="H1044" t="n">
-        <v>3</v>
+      <c r="H1044" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1045">
@@ -33977,8 +34305,10 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H1045" t="n">
-        <v>3</v>
+      <c r="H1045" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1046">
@@ -34001,8 +34331,10 @@
       </c>
       <c r="F1046" t="inlineStr"/>
       <c r="G1046" t="inlineStr"/>
-      <c r="H1046" t="n">
-        <v>3</v>
+      <c r="H1046" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1047">
@@ -34021,8 +34353,10 @@
       <c r="E1047" t="inlineStr"/>
       <c r="F1047" t="inlineStr"/>
       <c r="G1047" t="inlineStr"/>
-      <c r="H1047" t="n">
-        <v>3</v>
+      <c r="H1047" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1048">
@@ -34049,8 +34383,10 @@
           <t>$ -38.0B</t>
         </is>
       </c>
-      <c r="H1048" t="n">
-        <v>3</v>
+      <c r="H1048" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1049">
@@ -34077,8 +34413,10 @@
           <t>$ 32.5B</t>
         </is>
       </c>
-      <c r="H1049" t="n">
-        <v>3</v>
+      <c r="H1049" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1050">
@@ -34105,8 +34443,10 @@
           <t>$ 70.5B</t>
         </is>
       </c>
-      <c r="H1050" t="n">
-        <v>3</v>
+      <c r="H1050" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1051">
@@ -34147,8 +34487,10 @@
       </c>
       <c r="F1052" t="inlineStr"/>
       <c r="G1052" t="inlineStr"/>
-      <c r="H1052" t="n">
-        <v>3</v>
+      <c r="H1052" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1053">
@@ -34183,8 +34525,10 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1053" t="n">
-        <v>2</v>
+      <c r="H1053" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1054">
@@ -34219,8 +34563,10 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H1054" t="n">
-        <v>2</v>
+      <c r="H1054" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1055">
@@ -34255,8 +34601,10 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H1055" t="n">
-        <v>3</v>
+      <c r="H1055" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1056">
@@ -34291,8 +34639,10 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H1056" t="n">
-        <v>3</v>
+      <c r="H1056" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1057">
@@ -34327,8 +34677,10 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1057" t="n">
-        <v>1</v>
+      <c r="H1057" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="1058">
@@ -34359,8 +34711,10 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1058" t="n">
-        <v>1</v>
+      <c r="H1058" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="1059">
@@ -34395,8 +34749,10 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1059" t="n">
-        <v>2</v>
+      <c r="H1059" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1060">
@@ -34431,8 +34787,10 @@
           <t>£-17.0B</t>
         </is>
       </c>
-      <c r="H1060" t="n">
-        <v>2</v>
+      <c r="H1060" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1061">
@@ -34463,8 +34821,10 @@
           <t>£-6.8B</t>
         </is>
       </c>
-      <c r="H1061" t="n">
-        <v>2</v>
+      <c r="H1061" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1062">
@@ -34499,8 +34859,10 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1062" t="n">
-        <v>2</v>
+      <c r="H1062" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1063">
@@ -34535,8 +34897,10 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1063" t="n">
-        <v>2</v>
+      <c r="H1063" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1064">
@@ -34567,8 +34931,10 @@
           <t>£-3.9B</t>
         </is>
       </c>
-      <c r="H1064" t="n">
-        <v>3</v>
+      <c r="H1064" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1065">
@@ -34599,8 +34965,10 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1065" t="n">
-        <v>3</v>
+      <c r="H1065" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1066">
@@ -34635,8 +35003,10 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H1066" t="n">
-        <v>3</v>
+      <c r="H1066" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1067">
@@ -34671,8 +35041,10 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H1067" t="n">
-        <v>3</v>
+      <c r="H1067" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1068">
@@ -34707,8 +35079,10 @@
           <t>€3.2B</t>
         </is>
       </c>
-      <c r="H1068" t="n">
-        <v>2</v>
+      <c r="H1068" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1069">
@@ -34743,8 +35117,10 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1069" t="n">
-        <v>2</v>
+      <c r="H1069" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1070">
@@ -34779,8 +35155,10 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H1070" t="n">
-        <v>2</v>
+      <c r="H1070" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1071">
@@ -34815,8 +35193,10 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1071" t="n">
-        <v>3</v>
+      <c r="H1071" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1072">
@@ -34851,8 +35231,10 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H1072" t="n">
-        <v>3</v>
+      <c r="H1072" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1073">
@@ -34875,8 +35257,10 @@
       <c r="E1073" t="inlineStr"/>
       <c r="F1073" t="inlineStr"/>
       <c r="G1073" t="inlineStr"/>
-      <c r="H1073" t="n">
-        <v>3</v>
+      <c r="H1073" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1074">
@@ -34903,8 +35287,10 @@
       </c>
       <c r="F1074" t="inlineStr"/>
       <c r="G1074" t="inlineStr"/>
-      <c r="H1074" t="n">
-        <v>3</v>
+      <c r="H1074" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1075">
@@ -34927,8 +35313,10 @@
       <c r="E1075" t="inlineStr"/>
       <c r="F1075" t="inlineStr"/>
       <c r="G1075" t="inlineStr"/>
-      <c r="H1075" t="n">
-        <v>3</v>
+      <c r="H1075" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1076">
@@ -34955,8 +35343,10 @@
       </c>
       <c r="F1076" t="inlineStr"/>
       <c r="G1076" t="inlineStr"/>
-      <c r="H1076" t="n">
-        <v>3</v>
+      <c r="H1076" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1077">
@@ -34991,8 +35381,10 @@
           <t>€1.8B</t>
         </is>
       </c>
-      <c r="H1077" t="n">
-        <v>2</v>
+      <c r="H1077" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1078">
@@ -35019,8 +35411,10 @@
       </c>
       <c r="F1078" t="inlineStr"/>
       <c r="G1078" t="inlineStr"/>
-      <c r="H1078" t="n">
-        <v>3</v>
+      <c r="H1078" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1079">
@@ -35055,8 +35449,10 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1079" t="n">
-        <v>3</v>
+      <c r="H1079" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1080">
@@ -35079,8 +35475,10 @@
       <c r="E1080" t="inlineStr"/>
       <c r="F1080" t="inlineStr"/>
       <c r="G1080" t="inlineStr"/>
-      <c r="H1080" t="n">
-        <v>2</v>
+      <c r="H1080" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1081">
@@ -35111,8 +35509,10 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1081" t="n">
-        <v>3</v>
+      <c r="H1081" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1082">
@@ -35147,8 +35547,10 @@
           <t>240.0K</t>
         </is>
       </c>
-      <c r="H1082" t="n">
-        <v>2</v>
+      <c r="H1082" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1083">
@@ -35183,8 +35585,10 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1083" t="n">
-        <v>1</v>
+      <c r="H1083" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="1084">
@@ -35219,8 +35623,10 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1084" t="n">
-        <v>2</v>
+      <c r="H1084" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1085">
@@ -35255,8 +35661,10 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1085" t="n">
-        <v>2</v>
+      <c r="H1085" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1086">
@@ -35291,8 +35699,10 @@
           <t>209.0K</t>
         </is>
       </c>
-      <c r="H1086" t="n">
-        <v>2</v>
+      <c r="H1086" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1087">
@@ -35327,8 +35737,10 @@
           <t>-10</t>
         </is>
       </c>
-      <c r="H1087" t="n">
-        <v>2</v>
+      <c r="H1087" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1088">
@@ -35363,8 +35775,10 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1088" t="n">
-        <v>2</v>
+      <c r="H1088" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1089">
@@ -35395,8 +35809,10 @@
           <t>1870.0K</t>
         </is>
       </c>
-      <c r="H1089" t="n">
-        <v>3</v>
+      <c r="H1089" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1090">
@@ -35427,8 +35843,10 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H1090" t="n">
-        <v>3</v>
+      <c r="H1090" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1091">
@@ -35459,8 +35877,10 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1091" t="n">
-        <v>3</v>
+      <c r="H1091" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1092">
@@ -35491,8 +35911,10 @@
           <t>215.0K</t>
         </is>
       </c>
-      <c r="H1092" t="n">
-        <v>3</v>
+      <c r="H1092" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1093">
@@ -35519,8 +35941,10 @@
       </c>
       <c r="F1093" t="inlineStr"/>
       <c r="G1093" t="inlineStr"/>
-      <c r="H1093" t="n">
-        <v>3</v>
+      <c r="H1093" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1094">
@@ -35547,8 +35971,10 @@
       </c>
       <c r="F1094" t="inlineStr"/>
       <c r="G1094" t="inlineStr"/>
-      <c r="H1094" t="n">
-        <v>3</v>
+      <c r="H1094" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1095">
@@ -35575,8 +36001,10 @@
       </c>
       <c r="F1095" t="inlineStr"/>
       <c r="G1095" t="inlineStr"/>
-      <c r="H1095" t="n">
-        <v>3</v>
+      <c r="H1095" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1096">
@@ -35603,8 +36031,10 @@
       </c>
       <c r="F1096" t="inlineStr"/>
       <c r="G1096" t="inlineStr"/>
-      <c r="H1096" t="n">
-        <v>3</v>
+      <c r="H1096" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1097">
@@ -35631,8 +36061,10 @@
       </c>
       <c r="F1097" t="inlineStr"/>
       <c r="G1097" t="inlineStr"/>
-      <c r="H1097" t="n">
-        <v>3</v>
+      <c r="H1097" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1098">
@@ -35663,8 +36095,10 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1098" t="n">
-        <v>3</v>
+      <c r="H1098" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1099">
@@ -35695,8 +36129,10 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H1099" t="n">
-        <v>3</v>
+      <c r="H1099" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1100">
@@ -35731,8 +36167,10 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1100" t="n">
-        <v>2</v>
+      <c r="H1100" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1101">
@@ -35767,8 +36205,10 @@
           <t>45</t>
         </is>
       </c>
-      <c r="H1101" t="n">
-        <v>2</v>
+      <c r="H1101" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1102">
@@ -35803,8 +36243,10 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1102" t="n">
-        <v>3</v>
+      <c r="H1102" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1103">
@@ -35831,8 +36273,10 @@
       </c>
       <c r="F1103" t="inlineStr"/>
       <c r="G1103" t="inlineStr"/>
-      <c r="H1103" t="n">
-        <v>3</v>
+      <c r="H1103" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1104">
@@ -35859,8 +36303,10 @@
       </c>
       <c r="F1104" t="inlineStr"/>
       <c r="G1104" t="inlineStr"/>
-      <c r="H1104" t="n">
-        <v>3</v>
+      <c r="H1104" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1105">
@@ -35887,8 +36333,10 @@
       </c>
       <c r="F1105" t="inlineStr"/>
       <c r="G1105" t="inlineStr"/>
-      <c r="H1105" t="n">
-        <v>3</v>
+      <c r="H1105" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1106">
@@ -35915,8 +36363,10 @@
       </c>
       <c r="F1106" t="inlineStr"/>
       <c r="G1106" t="inlineStr"/>
-      <c r="H1106" t="n">
-        <v>3</v>
+      <c r="H1106" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1107">
@@ -35943,8 +36393,10 @@
       </c>
       <c r="F1107" t="inlineStr"/>
       <c r="G1107" t="inlineStr"/>
-      <c r="H1107" t="n">
-        <v>3</v>
+      <c r="H1107" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1108">
@@ -35967,8 +36419,10 @@
       <c r="E1108" t="inlineStr"/>
       <c r="F1108" t="inlineStr"/>
       <c r="G1108" t="inlineStr"/>
-      <c r="H1108" t="n">
-        <v>2</v>
+      <c r="H1108" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1109">
@@ -35995,8 +36449,10 @@
       </c>
       <c r="F1109" t="inlineStr"/>
       <c r="G1109" t="inlineStr"/>
-      <c r="H1109" t="n">
-        <v>3</v>
+      <c r="H1109" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1110">
@@ -36023,8 +36479,10 @@
       </c>
       <c r="F1110" t="inlineStr"/>
       <c r="G1110" t="inlineStr"/>
-      <c r="H1110" t="n">
-        <v>3</v>
+      <c r="H1110" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1111">
@@ -36051,8 +36509,10 @@
       </c>
       <c r="F1111" t="inlineStr"/>
       <c r="G1111" t="inlineStr"/>
-      <c r="H1111" t="n">
-        <v>3</v>
+      <c r="H1111" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1112">
@@ -36083,8 +36543,10 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1112" t="n">
-        <v>3</v>
+      <c r="H1112" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1113">
@@ -36119,8 +36581,10 @@
           <t>7.5%</t>
         </is>
       </c>
-      <c r="H1113" t="n">
-        <v>3</v>
+      <c r="H1113" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1114">
@@ -36147,8 +36611,10 @@
       </c>
       <c r="F1114" t="inlineStr"/>
       <c r="G1114" t="inlineStr"/>
-      <c r="H1114" t="n">
-        <v>3</v>
+      <c r="H1114" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1115">
@@ -36179,8 +36645,10 @@
           <t>-5.8%</t>
         </is>
       </c>
-      <c r="H1115" t="n">
-        <v>2</v>
+      <c r="H1115" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1116">
@@ -36211,8 +36679,10 @@
           <t>$ 3.6B</t>
         </is>
       </c>
-      <c r="H1116" t="n">
-        <v>3</v>
+      <c r="H1116" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1117">
@@ -36247,8 +36717,10 @@
           <t>5%</t>
         </is>
       </c>
-      <c r="H1117" t="n">
-        <v>1</v>
+      <c r="H1117" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="1118">
@@ -36283,8 +36755,10 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="H1118" t="n">
-        <v>1</v>
+      <c r="H1118" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="1119">
@@ -36319,8 +36793,10 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H1119" t="n">
-        <v>1</v>
+      <c r="H1119" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="1120">
@@ -36355,8 +36831,10 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H1120" t="n">
-        <v>2</v>
+      <c r="H1120" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1121">
@@ -36391,8 +36869,10 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1121" t="n">
-        <v>2</v>
+      <c r="H1121" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1122">
@@ -36423,8 +36903,10 @@
           <t>75.3%</t>
         </is>
       </c>
-      <c r="H1122" t="n">
-        <v>3</v>
+      <c r="H1122" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1123">
@@ -36459,8 +36941,10 @@
           <t>5.00%</t>
         </is>
       </c>
-      <c r="H1123" t="n">
-        <v>3</v>
+      <c r="H1123" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1124">
@@ -36487,98 +36971,96 @@
       </c>
       <c r="F1124" t="inlineStr"/>
       <c r="G1124" t="inlineStr"/>
-      <c r="H1124" t="n">
-        <v>3</v>
+      <c r="H1124" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1125">
       <c r="A1125" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1125" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1125" t="inlineStr">
-        <is>
-          <t>Building Permits MoM PrelDEC</t>
-        </is>
-      </c>
+          <t>Friday January 17 2025</t>
+        </is>
+      </c>
+      <c r="B1125" t="inlineStr"/>
+      <c r="C1125" t="inlineStr"/>
       <c r="D1125" t="inlineStr"/>
-      <c r="E1125" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="E1125" t="inlineStr"/>
       <c r="F1125" t="inlineStr"/>
-      <c r="G1125" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="H1125" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G1125" t="inlineStr"/>
+      <c r="H1125" t="inlineStr"/>
     </row>
     <row r="1126">
       <c r="A1126" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1126" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1126" t="inlineStr">
         <is>
-          <t>Housing Starts MoMDEC</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1126" t="inlineStr"/>
       <c r="E1126" t="inlineStr">
         <is>
-          <t>-1.8%</t>
-        </is>
-      </c>
-      <c r="F1126" t="inlineStr"/>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="F1126" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="G1126" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H1126" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1127">
       <c r="A1127" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1127" t="inlineStr">
         <is>
-          <t>IF</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1127" t="inlineStr">
         <is>
-          <t>IMF/World Economic Outlook</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D1127" t="inlineStr"/>
-      <c r="E1127" t="inlineStr"/>
-      <c r="F1127" t="inlineStr"/>
-      <c r="G1127" t="inlineStr"/>
+      <c r="E1127" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="F1127" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="G1127" t="inlineStr">
+        <is>
+          <t>2.1%</t>
+        </is>
+      </c>
       <c r="H1127" t="inlineStr">
         <is>
           <t>2</t>
@@ -36588,71 +37070,71 @@
     <row r="1128">
       <c r="A1128" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1128" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1128" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>Retail Sales ex Fuel MoMDEC</t>
         </is>
       </c>
       <c r="D1128" t="inlineStr"/>
       <c r="E1128" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F1128" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="G1128" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H1128" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1129">
       <c r="A1129" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1129" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1129" t="inlineStr">
         <is>
-          <t>Capacity UtilizationDEC</t>
+          <t>Retail Sales ex Fuel YoYDEC</t>
         </is>
       </c>
       <c r="D1129" t="inlineStr"/>
       <c r="E1129" t="inlineStr">
         <is>
-          <t>76.8%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F1129" t="inlineStr">
         <is>
-          <t>76.9%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="G1129" t="inlineStr">
         <is>
-          <t>76.9%</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="H1129" t="inlineStr">
@@ -36664,29 +37146,29 @@
     <row r="1130">
       <c r="A1130" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1130" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1130" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D1130" t="inlineStr"/>
       <c r="E1130" t="inlineStr">
         <is>
-          <t>-0.9%</t>
+          <t>€32B</t>
         </is>
       </c>
       <c r="F1130" t="inlineStr"/>
       <c r="G1130" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>€33.0B</t>
         </is>
       </c>
       <c r="H1130" t="inlineStr">
@@ -36698,35 +37180,31 @@
     <row r="1131">
       <c r="A1131" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1131" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1131" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMDEC</t>
+          <t>Current Account s.aNOV</t>
         </is>
       </c>
       <c r="D1131" t="inlineStr"/>
       <c r="E1131" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>€33.5B</t>
         </is>
       </c>
       <c r="F1131" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1131" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>€28B</t>
+        </is>
+      </c>
+      <c r="G1131" t="inlineStr"/>
       <c r="H1131" t="inlineStr">
         <is>
           <t>3</t>
@@ -36736,91 +37214,107 @@
     <row r="1132">
       <c r="A1132" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1132" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1132" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYDEC</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D1132" t="inlineStr"/>
       <c r="E1132" t="inlineStr">
         <is>
-          <t>-1%</t>
+          <t>€-3.93B</t>
         </is>
       </c>
       <c r="F1132" t="inlineStr"/>
       <c r="G1132" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>€-4.2B</t>
         </is>
       </c>
       <c r="H1132" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1133">
       <c r="A1133" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1133" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1133" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/17</t>
+          <t>Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D1133" t="inlineStr"/>
       <c r="E1133" t="inlineStr">
         <is>
-          <t>480</t>
-        </is>
-      </c>
-      <c r="F1133" t="inlineStr"/>
-      <c r="G1133" t="inlineStr"/>
+          <t>2.2%</t>
+        </is>
+      </c>
+      <c r="F1133" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="G1133" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
       <c r="H1133" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1134">
       <c r="A1134" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1134" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1134" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/17</t>
+          <t>Core Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D1134" t="inlineStr"/>
       <c r="E1134" t="inlineStr">
         <is>
-          <t>584</t>
-        </is>
-      </c>
-      <c r="F1134" t="inlineStr"/>
-      <c r="G1134" t="inlineStr"/>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="F1134" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="G1134" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="H1134" t="inlineStr">
         <is>
           <t>3</t>
@@ -36830,57 +37324,73 @@
     <row r="1135">
       <c r="A1135" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1135" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1135" t="inlineStr">
         <is>
-          <t>Net Long-term TIC FlowsNOV</t>
+          <t>CPI FinalDEC</t>
         </is>
       </c>
       <c r="D1135" t="inlineStr"/>
       <c r="E1135" t="inlineStr">
         <is>
-          <t>$152.3B</t>
-        </is>
-      </c>
-      <c r="F1135" t="inlineStr"/>
-      <c r="G1135" t="inlineStr"/>
+          <t>126.62</t>
+        </is>
+      </c>
+      <c r="F1135" t="inlineStr">
+        <is>
+          <t>127.08</t>
+        </is>
+      </c>
+      <c r="G1135" t="inlineStr">
+        <is>
+          <t>127.08</t>
+        </is>
+      </c>
       <c r="H1135" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1136">
       <c r="A1136" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1136" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1136" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentNOV</t>
+          <t>Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D1136" t="inlineStr"/>
       <c r="E1136" t="inlineStr">
         <is>
-          <t>$92.1B</t>
-        </is>
-      </c>
-      <c r="F1136" t="inlineStr"/>
-      <c r="G1136" t="inlineStr"/>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="F1136" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="G1136" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H1136" t="inlineStr">
         <is>
           <t>3</t>
@@ -36890,25 +37400,21 @@
     <row r="1137">
       <c r="A1137" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1137" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1137" t="inlineStr">
         <is>
-          <t>Overall Net Capital FlowsNOV</t>
+          <t>Bundesbank Nagel Speech</t>
         </is>
       </c>
       <c r="D1137" t="inlineStr"/>
-      <c r="E1137" t="inlineStr">
-        <is>
-          <t>$203.6B</t>
-        </is>
-      </c>
+      <c r="E1137" t="inlineStr"/>
       <c r="F1137" t="inlineStr"/>
       <c r="G1137" t="inlineStr"/>
       <c r="H1137" t="inlineStr">
@@ -36918,25 +37424,33 @@
       </c>
     </row>
     <row r="1138">
-      <c r="A1138" t="inlineStr"/>
+      <c r="A1138" t="inlineStr">
+        <is>
+          <t>05:00 AM</t>
+        </is>
+      </c>
       <c r="B1138" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1138" t="inlineStr">
         <is>
-          <t>50-Year KTB Auction</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D1138" t="inlineStr"/>
       <c r="E1138" t="inlineStr">
         <is>
-          <t>2.40%</t>
+          <t>€5628M</t>
         </is>
       </c>
       <c r="F1138" t="inlineStr"/>
-      <c r="G1138" t="inlineStr"/>
+      <c r="G1138" t="inlineStr">
+        <is>
+          <t>€2900.0M</t>
+        </is>
+      </c>
       <c r="H1138" t="inlineStr">
         <is>
           <t>3</t>
@@ -36946,165 +37460,169 @@
     <row r="1139">
       <c r="A1139" t="inlineStr">
         <is>
-          <t>Sunday January 19 2025</t>
-        </is>
-      </c>
-      <c r="B1139" t="inlineStr"/>
-      <c r="C1139" t="inlineStr"/>
+          <t>06:00 AM</t>
+        </is>
+      </c>
+      <c r="B1139" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C1139" t="inlineStr">
+        <is>
+          <t>ECB Cipollone Speech</t>
+        </is>
+      </c>
       <c r="D1139" t="inlineStr"/>
       <c r="E1139" t="inlineStr"/>
       <c r="F1139" t="inlineStr"/>
       <c r="G1139" t="inlineStr"/>
-      <c r="H1139" t="inlineStr"/>
+      <c r="H1139" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1140">
       <c r="A1140" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1140" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1140" t="inlineStr">
         <is>
-          <t>Machinery Orders MoMNOV</t>
+          <t>Bank Loan Growth YoYJAN/03</t>
         </is>
       </c>
       <c r="D1140" t="inlineStr"/>
       <c r="E1140" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>11.5%</t>
         </is>
       </c>
       <c r="F1140" t="inlineStr"/>
-      <c r="G1140" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1140" t="inlineStr"/>
       <c r="H1140" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1141">
       <c r="A1141" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1141" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1141" t="inlineStr">
         <is>
-          <t>Machinery Orders YoYNOV</t>
+          <t>Deposit Growth YoYJAN/03</t>
         </is>
       </c>
       <c r="D1141" t="inlineStr"/>
       <c r="E1141" t="inlineStr">
         <is>
-          <t>5.6%</t>
+          <t>11.5%</t>
         </is>
       </c>
       <c r="F1141" t="inlineStr"/>
-      <c r="G1141" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
+      <c r="G1141" t="inlineStr"/>
       <c r="H1141" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1142">
       <c r="A1142" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1142" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1142" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 1Y</t>
+          <t>Foreign Exchange ReservesJAN/10</t>
         </is>
       </c>
       <c r="D1142" t="inlineStr"/>
       <c r="E1142" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>$634.59B</t>
         </is>
       </c>
       <c r="F1142" t="inlineStr"/>
       <c r="G1142" t="inlineStr"/>
       <c r="H1142" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1143">
       <c r="A1143" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1143" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1143" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 5YJAN</t>
+          <t>Foreign Securities PurchasesNOV</t>
         </is>
       </c>
       <c r="D1143" t="inlineStr"/>
       <c r="E1143" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>C$21.55B</t>
         </is>
       </c>
       <c r="F1143" t="inlineStr"/>
       <c r="G1143" t="inlineStr"/>
       <c r="H1143" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1144">
       <c r="A1144" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1144" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1144" t="inlineStr">
         <is>
-          <t>Capacity Utilization MoMNOV</t>
+          <t>Foreign Securities Purchases by CanadiansNOV</t>
         </is>
       </c>
       <c r="D1144" t="inlineStr"/>
       <c r="E1144" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>C$-2.65B</t>
         </is>
       </c>
       <c r="F1144" t="inlineStr"/>
@@ -37118,167 +37636,203 @@
     <row r="1145">
       <c r="A1145" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1145" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1145" t="inlineStr">
         <is>
-          <t>Industrial Production MoM FinalNOV</t>
+          <t>Building Permits PrelDEC</t>
         </is>
       </c>
       <c r="D1145" t="inlineStr"/>
       <c r="E1145" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>1.493M</t>
         </is>
       </c>
       <c r="F1145" t="inlineStr">
         <is>
-          <t>-2.3%</t>
+          <t>1.46M</t>
         </is>
       </c>
       <c r="G1145" t="inlineStr">
         <is>
-          <t>-2.3%</t>
+          <t>1.48M</t>
         </is>
       </c>
       <c r="H1145" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1146">
       <c r="A1146" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1146" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1146" t="inlineStr">
         <is>
-          <t>Industrial Production YoY FinalNOV</t>
+          <t>Housing StartsDEC</t>
         </is>
       </c>
       <c r="D1146" t="inlineStr"/>
       <c r="E1146" t="inlineStr">
         <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="F1146" t="inlineStr"/>
+          <t>1.289M</t>
+        </is>
+      </c>
+      <c r="F1146" t="inlineStr">
+        <is>
+          <t>1.32M</t>
+        </is>
+      </c>
       <c r="G1146" t="inlineStr">
         <is>
-          <t>-2.8%</t>
+          <t>1.32M</t>
         </is>
       </c>
       <c r="H1146" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1147">
       <c r="A1147" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1147" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1147" t="inlineStr">
         <is>
-          <t>Tertiary Industry Index MoMNOV</t>
+          <t>Building Permits MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1147" t="inlineStr"/>
       <c r="E1147" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F1147" t="inlineStr"/>
-      <c r="G1147" t="inlineStr"/>
+      <c r="G1147" t="inlineStr">
+        <is>
+          <t>-0.9%</t>
+        </is>
+      </c>
       <c r="H1147" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1148">
-      <c r="A1148" t="inlineStr"/>
+      <c r="A1148" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B1148" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1148" t="inlineStr">
         <is>
-          <t>Eurogroup Meeting</t>
+          <t>Housing Starts MoMDEC</t>
         </is>
       </c>
       <c r="D1148" t="inlineStr"/>
-      <c r="E1148" t="inlineStr"/>
+      <c r="E1148" t="inlineStr">
+        <is>
+          <t>-1.8%</t>
+        </is>
+      </c>
       <c r="F1148" t="inlineStr"/>
-      <c r="G1148" t="inlineStr"/>
+      <c r="G1148" t="inlineStr">
+        <is>
+          <t>2%</t>
+        </is>
+      </c>
       <c r="H1148" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1149">
       <c r="A1149" t="inlineStr">
         <is>
-          <t>Monday January 20 2025</t>
-        </is>
-      </c>
-      <c r="B1149" t="inlineStr"/>
-      <c r="C1149" t="inlineStr"/>
+          <t>09:00 AM</t>
+        </is>
+      </c>
+      <c r="B1149" t="inlineStr">
+        <is>
+          <t>IF</t>
+        </is>
+      </c>
+      <c r="C1149" t="inlineStr">
+        <is>
+          <t>IMF/World Economic Outlook</t>
+        </is>
+      </c>
       <c r="D1149" t="inlineStr"/>
       <c r="E1149" t="inlineStr"/>
       <c r="F1149" t="inlineStr"/>
       <c r="G1149" t="inlineStr"/>
-      <c r="H1149" t="inlineStr"/>
+      <c r="H1149" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1150">
       <c r="A1150" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1150" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1150" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D1150" t="inlineStr"/>
       <c r="E1150" t="inlineStr">
         <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F1150" t="inlineStr"/>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="F1150" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="G1150" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="H1150" t="inlineStr">
@@ -37290,29 +37844,33 @@
     <row r="1151">
       <c r="A1151" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1151" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1151" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Capacity UtilizationDEC</t>
         </is>
       </c>
       <c r="D1151" t="inlineStr"/>
       <c r="E1151" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F1151" t="inlineStr"/>
+          <t>76.8%</t>
+        </is>
+      </c>
+      <c r="F1151" t="inlineStr">
+        <is>
+          <t>76.9%</t>
+        </is>
+      </c>
       <c r="G1151" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>76.9%</t>
         </is>
       </c>
       <c r="H1151" t="inlineStr">
@@ -37324,29 +37882,29 @@
     <row r="1152">
       <c r="A1152" t="inlineStr">
         <is>
-          <t>04:15 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1152" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1152" t="inlineStr">
         <is>
-          <t>Construction Output YoYNOV</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D1152" t="inlineStr"/>
       <c r="E1152" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="F1152" t="inlineStr"/>
       <c r="G1152" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="H1152" t="inlineStr">
@@ -37358,17 +37916,17 @@
     <row r="1153">
       <c r="A1153" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1153" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1153" t="inlineStr">
         <is>
-          <t>Construction Output YoYNOV</t>
+          <t>Manufacturing Production MoMDEC</t>
         </is>
       </c>
       <c r="D1153" t="inlineStr"/>
@@ -37377,8 +37935,16 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="F1153" t="inlineStr"/>
-      <c r="G1153" t="inlineStr"/>
+      <c r="F1153" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="G1153" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H1153" t="inlineStr">
         <is>
           <t>3</t>
@@ -37388,23 +37954,31 @@
     <row r="1154">
       <c r="A1154" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1154" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1154" t="inlineStr">
         <is>
-          <t>3-Month Bubill Auction</t>
+          <t>Manufacturing Production YoYDEC</t>
         </is>
       </c>
       <c r="D1154" t="inlineStr"/>
-      <c r="E1154" t="inlineStr"/>
+      <c r="E1154" t="inlineStr">
+        <is>
+          <t>-1%</t>
+        </is>
+      </c>
       <c r="F1154" t="inlineStr"/>
-      <c r="G1154" t="inlineStr"/>
+      <c r="G1154" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="H1154" t="inlineStr">
         <is>
           <t>3</t>
@@ -37414,21 +37988,25 @@
     <row r="1155">
       <c r="A1155" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1155" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1155" t="inlineStr">
         <is>
-          <t>9-Month Bubill Auction</t>
+          <t>Baker Hughes Oil Rig CountJAN/17</t>
         </is>
       </c>
       <c r="D1155" t="inlineStr"/>
-      <c r="E1155" t="inlineStr"/>
+      <c r="E1155" t="inlineStr">
+        <is>
+          <t>480</t>
+        </is>
+      </c>
       <c r="F1155" t="inlineStr"/>
       <c r="G1155" t="inlineStr"/>
       <c r="H1155" t="inlineStr">
@@ -37440,23 +38018,23 @@
     <row r="1156">
       <c r="A1156" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1156" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1156" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Baker Hughes Total Rigs CountJAN/17</t>
         </is>
       </c>
       <c r="D1156" t="inlineStr"/>
       <c r="E1156" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>584</t>
         </is>
       </c>
       <c r="F1156" t="inlineStr"/>
@@ -37470,57 +38048,53 @@
     <row r="1157">
       <c r="A1157" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1157" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1157" t="inlineStr">
         <is>
-          <t>Current AccountQ4</t>
+          <t>Net Long-term TIC FlowsNOV</t>
         </is>
       </c>
       <c r="D1157" t="inlineStr"/>
       <c r="E1157" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>$152.3B</t>
         </is>
       </c>
       <c r="F1157" t="inlineStr"/>
-      <c r="G1157" t="inlineStr">
-        <is>
-          <t>$ 10B</t>
-        </is>
-      </c>
+      <c r="G1157" t="inlineStr"/>
       <c r="H1157" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1158">
       <c r="A1158" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1158" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1158" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>Foreign Bond InvestmentNOV</t>
         </is>
       </c>
       <c r="D1158" t="inlineStr"/>
       <c r="E1158" t="inlineStr">
         <is>
-          <t>2.489%</t>
+          <t>$92.1B</t>
         </is>
       </c>
       <c r="F1158" t="inlineStr"/>
@@ -37534,23 +38108,23 @@
     <row r="1159">
       <c r="A1159" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1159" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1159" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>Overall Net Capital FlowsNOV</t>
         </is>
       </c>
       <c r="D1159" t="inlineStr"/>
       <c r="E1159" t="inlineStr">
         <is>
-          <t>2.691%</t>
+          <t>$203.6B</t>
         </is>
       </c>
       <c r="F1159" t="inlineStr"/>
@@ -37562,25 +38136,21 @@
       </c>
     </row>
     <row r="1160">
-      <c r="A1160" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
+      <c r="A1160" t="inlineStr"/>
       <c r="B1160" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1160" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>50-Year KTB Auction</t>
         </is>
       </c>
       <c r="D1160" t="inlineStr"/>
       <c r="E1160" t="inlineStr">
         <is>
-          <t>2.593%</t>
+          <t>2.40%</t>
         </is>
       </c>
       <c r="F1160" t="inlineStr"/>
@@ -37594,189 +38164,169 @@
     <row r="1161">
       <c r="A1161" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1161" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1161" t="inlineStr">
-        <is>
-          <t>BoC Business Outlook Survey</t>
-        </is>
-      </c>
+          <t>Sunday January 19 2025</t>
+        </is>
+      </c>
+      <c r="B1161" t="inlineStr"/>
+      <c r="C1161" t="inlineStr"/>
       <c r="D1161" t="inlineStr"/>
       <c r="E1161" t="inlineStr"/>
       <c r="F1161" t="inlineStr"/>
       <c r="G1161" t="inlineStr"/>
-      <c r="H1161" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="H1161" t="inlineStr"/>
     </row>
     <row r="1162">
       <c r="A1162" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1162" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1162" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Machinery Orders MoMNOV</t>
         </is>
       </c>
       <c r="D1162" t="inlineStr"/>
       <c r="E1162" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>2.1%</t>
         </is>
       </c>
       <c r="F1162" t="inlineStr"/>
       <c r="G1162" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1162" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1163">
       <c r="A1163" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1163" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1163" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Machinery Orders YoYNOV</t>
         </is>
       </c>
       <c r="D1163" t="inlineStr"/>
       <c r="E1163" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>5.6%</t>
         </is>
       </c>
       <c r="F1163" t="inlineStr"/>
       <c r="G1163" t="inlineStr">
         <is>
-          <t>4.4%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="H1163" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1164">
       <c r="A1164" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1164" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1164" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Loan Prime Rate 1Y</t>
         </is>
       </c>
       <c r="D1164" t="inlineStr"/>
       <c r="E1164" t="inlineStr">
         <is>
-          <t>$1234M</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="F1164" t="inlineStr"/>
-      <c r="G1164" t="inlineStr">
-        <is>
-          <t>$ 1463M</t>
-        </is>
-      </c>
+      <c r="G1164" t="inlineStr"/>
       <c r="H1164" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1165">
       <c r="A1165" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1165" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1165" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Loan Prime Rate 5YJAN</t>
         </is>
       </c>
       <c r="D1165" t="inlineStr"/>
-      <c r="E1165" t="inlineStr"/>
+      <c r="E1165" t="inlineStr">
+        <is>
+          <t>3.6%</t>
+        </is>
+      </c>
       <c r="F1165" t="inlineStr"/>
-      <c r="G1165" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G1165" t="inlineStr"/>
       <c r="H1165" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1166">
       <c r="A1166" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1166" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1166" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Capacity Utilization MoMNOV</t>
         </is>
       </c>
       <c r="D1166" t="inlineStr"/>
       <c r="E1166" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F1166" t="inlineStr"/>
-      <c r="G1166" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="G1166" t="inlineStr"/>
       <c r="H1166" t="inlineStr">
         <is>
           <t>3</t>
@@ -37786,7 +38336,7 @@
     <row r="1167">
       <c r="A1167" t="inlineStr">
         <is>
-          <t>10:35 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1167" t="inlineStr">
@@ -37796,17 +38346,25 @@
       </c>
       <c r="C1167" t="inlineStr">
         <is>
-          <t>40-Year JGB Auction</t>
+          <t>Industrial Production MoM FinalNOV</t>
         </is>
       </c>
       <c r="D1167" t="inlineStr"/>
       <c r="E1167" t="inlineStr">
         <is>
-          <t>2.550%</t>
-        </is>
-      </c>
-      <c r="F1167" t="inlineStr"/>
-      <c r="G1167" t="inlineStr"/>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="F1167" t="inlineStr">
+        <is>
+          <t>-2.3%</t>
+        </is>
+      </c>
+      <c r="G1167" t="inlineStr">
+        <is>
+          <t>-2.3%</t>
+        </is>
+      </c>
       <c r="H1167" t="inlineStr">
         <is>
           <t>3</t>
@@ -37814,25 +38372,33 @@
       </c>
     </row>
     <row r="1168">
-      <c r="A1168" t="inlineStr"/>
+      <c r="A1168" t="inlineStr">
+        <is>
+          <t>11:30 PM</t>
+        </is>
+      </c>
       <c r="B1168" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1168" t="inlineStr">
         <is>
-          <t>10-Year KTB Auction</t>
+          <t>Industrial Production YoY FinalNOV</t>
         </is>
       </c>
       <c r="D1168" t="inlineStr"/>
       <c r="E1168" t="inlineStr">
         <is>
-          <t>2.665%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F1168" t="inlineStr"/>
-      <c r="G1168" t="inlineStr"/>
+      <c r="G1168" t="inlineStr">
+        <is>
+          <t>-2.8%</t>
+        </is>
+      </c>
       <c r="H1168" t="inlineStr">
         <is>
           <t>3</t>
@@ -37840,21 +38406,25 @@
       </c>
     </row>
     <row r="1169">
-      <c r="A1169" t="inlineStr"/>
+      <c r="A1169" t="inlineStr">
+        <is>
+          <t>11:30 PM</t>
+        </is>
+      </c>
       <c r="B1169" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1169" t="inlineStr">
         <is>
-          <t>FDI (YTD) YoYDEC</t>
+          <t>Tertiary Industry Index MoMNOV</t>
         </is>
       </c>
       <c r="D1169" t="inlineStr"/>
       <c r="E1169" t="inlineStr">
         <is>
-          <t>-27.9%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F1169" t="inlineStr"/>
@@ -37869,26 +38439,18 @@
       <c r="A1170" t="inlineStr"/>
       <c r="B1170" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1170" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceDEC</t>
+          <t>Eurogroup Meeting</t>
         </is>
       </c>
       <c r="D1170" t="inlineStr"/>
-      <c r="E1170" t="inlineStr">
-        <is>
-          <t>80.6</t>
-        </is>
-      </c>
+      <c r="E1170" t="inlineStr"/>
       <c r="F1170" t="inlineStr"/>
-      <c r="G1170" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
+      <c r="G1170" t="inlineStr"/>
       <c r="H1170" t="inlineStr">
         <is>
           <t>3</t>
@@ -37896,81 +38458,81 @@
       </c>
     </row>
     <row r="1171">
-      <c r="A1171" t="inlineStr"/>
-      <c r="B1171" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C1171" t="inlineStr">
-        <is>
-          <t>Leading Indicator MoMDEC</t>
-        </is>
-      </c>
+      <c r="A1171" t="inlineStr">
+        <is>
+          <t>Monday January 20 2025</t>
+        </is>
+      </c>
+      <c r="B1171" t="inlineStr"/>
+      <c r="C1171" t="inlineStr"/>
       <c r="D1171" t="inlineStr"/>
-      <c r="E1171" t="inlineStr">
-        <is>
-          <t>1.44%</t>
-        </is>
-      </c>
+      <c r="E1171" t="inlineStr"/>
       <c r="F1171" t="inlineStr"/>
-      <c r="G1171" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="H1171" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1171" t="inlineStr"/>
+      <c r="H1171" t="inlineStr"/>
     </row>
     <row r="1172">
-      <c r="A1172" t="inlineStr"/>
+      <c r="A1172" t="inlineStr">
+        <is>
+          <t>02:00 AM</t>
+        </is>
+      </c>
       <c r="B1172" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1172" t="inlineStr">
         <is>
-          <t>Central Government DebtDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1172" t="inlineStr"/>
       <c r="E1172" t="inlineStr">
         <is>
-          <t>TRY9.005T</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F1172" t="inlineStr"/>
       <c r="G1172" t="inlineStr">
         <is>
-          <t>TRY 9.0T</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1172" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1173">
-      <c r="A1173" t="inlineStr"/>
+      <c r="A1173" t="inlineStr">
+        <is>
+          <t>02:00 AM</t>
+        </is>
+      </c>
       <c r="B1173" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1173" t="inlineStr">
         <is>
-          <t>ECOFIN Meeting</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1173" t="inlineStr"/>
-      <c r="E1173" t="inlineStr"/>
+      <c r="E1173" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="F1173" t="inlineStr"/>
-      <c r="G1173" t="inlineStr"/>
+      <c r="G1173" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
       <c r="H1173" t="inlineStr">
         <is>
           <t>3</t>
@@ -37980,35 +38542,59 @@
     <row r="1174">
       <c r="A1174" t="inlineStr">
         <is>
-          <t>Tuesday January 21 2025</t>
-        </is>
-      </c>
-      <c r="B1174" t="inlineStr"/>
-      <c r="C1174" t="inlineStr"/>
+          <t>04:15 AM</t>
+        </is>
+      </c>
+      <c r="B1174" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="C1174" t="inlineStr">
+        <is>
+          <t>Construction Output YoYNOV</t>
+        </is>
+      </c>
       <c r="D1174" t="inlineStr"/>
-      <c r="E1174" t="inlineStr"/>
+      <c r="E1174" t="inlineStr">
+        <is>
+          <t>3.4%</t>
+        </is>
+      </c>
       <c r="F1174" t="inlineStr"/>
-      <c r="G1174" t="inlineStr"/>
-      <c r="H1174" t="inlineStr"/>
+      <c r="G1174" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="H1174" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1175">
       <c r="A1175" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1175" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1175" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D1175" t="inlineStr"/>
-      <c r="E1175" t="inlineStr"/>
+      <c r="E1175" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F1175" t="inlineStr"/>
       <c r="G1175" t="inlineStr"/>
       <c r="H1175" t="inlineStr">
@@ -38020,17 +38606,17 @@
     <row r="1176">
       <c r="A1176" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1176" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1176" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>3-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D1176" t="inlineStr"/>
@@ -38046,159 +38632,147 @@
     <row r="1177">
       <c r="A1177" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1177" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1177" t="inlineStr">
         <is>
-          <t>New Car Registrations YoYDEC</t>
+          <t>9-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D1177" t="inlineStr"/>
-      <c r="E1177" t="inlineStr">
-        <is>
-          <t>-1.9%</t>
-        </is>
-      </c>
+      <c r="E1177" t="inlineStr"/>
       <c r="F1177" t="inlineStr"/>
       <c r="G1177" t="inlineStr"/>
       <c r="H1177" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1178">
       <c r="A1178" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1178" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1178" t="inlineStr">
         <is>
-          <t>Unemployment RateNOV</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D1178" t="inlineStr"/>
       <c r="E1178" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>$9.1B</t>
         </is>
       </c>
       <c r="F1178" t="inlineStr"/>
-      <c r="G1178" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="G1178" t="inlineStr"/>
       <c r="H1178" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1179">
       <c r="A1179" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1179" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1179" t="inlineStr">
         <is>
-          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
+          <t>Current AccountQ4</t>
         </is>
       </c>
       <c r="D1179" t="inlineStr"/>
       <c r="E1179" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>$9.1B</t>
         </is>
       </c>
       <c r="F1179" t="inlineStr"/>
       <c r="G1179" t="inlineStr">
         <is>
-          <t>4.9%</t>
+          <t>$ 10B</t>
         </is>
       </c>
       <c r="H1179" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1180">
       <c r="A1180" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1180" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1180" t="inlineStr">
         <is>
-          <t>Employment ChangeNOV</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1180" t="inlineStr"/>
       <c r="E1180" t="inlineStr">
         <is>
-          <t>173K</t>
+          <t>2.489%</t>
         </is>
       </c>
       <c r="F1180" t="inlineStr"/>
       <c r="G1180" t="inlineStr"/>
       <c r="H1180" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1181">
       <c r="A1181" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1181" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1181" t="inlineStr">
         <is>
-          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1181" t="inlineStr"/>
       <c r="E1181" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>2.691%</t>
         </is>
       </c>
       <c r="F1181" t="inlineStr"/>
-      <c r="G1181" t="inlineStr">
-        <is>
-          <t>5.0%</t>
-        </is>
-      </c>
+      <c r="G1181" t="inlineStr"/>
       <c r="H1181" t="inlineStr">
         <is>
           <t>3</t>
@@ -38208,31 +38782,27 @@
     <row r="1182">
       <c r="A1182" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1182" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1182" t="inlineStr">
         <is>
-          <t>Claimant Count ChangeDEC</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1182" t="inlineStr"/>
       <c r="E1182" t="inlineStr">
         <is>
-          <t>0.3K</t>
+          <t>2.593%</t>
         </is>
       </c>
       <c r="F1182" t="inlineStr"/>
-      <c r="G1182" t="inlineStr">
-        <is>
-          <t>-5K</t>
-        </is>
-      </c>
+      <c r="G1182" t="inlineStr"/>
       <c r="H1182" t="inlineStr">
         <is>
           <t>3</t>
@@ -38242,61 +38812,57 @@
     <row r="1183">
       <c r="A1183" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1183" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1183" t="inlineStr">
         <is>
-          <t>HMRC Payrolls ChangeDEC</t>
+          <t>BoC Business Outlook Survey</t>
         </is>
       </c>
       <c r="D1183" t="inlineStr"/>
-      <c r="E1183" t="inlineStr">
-        <is>
-          <t>-35K</t>
-        </is>
-      </c>
+      <c r="E1183" t="inlineStr"/>
       <c r="F1183" t="inlineStr"/>
-      <c r="G1183" t="inlineStr">
-        <is>
-          <t>20K</t>
-        </is>
-      </c>
+      <c r="G1183" t="inlineStr"/>
       <c r="H1183" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1184">
       <c r="A1184" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1184" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1184" t="inlineStr">
         <is>
-          <t>Gold Production YoYNOV</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1184" t="inlineStr"/>
       <c r="E1184" t="inlineStr">
         <is>
-          <t>-3.4%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="F1184" t="inlineStr"/>
-      <c r="G1184" t="inlineStr"/>
+      <c r="G1184" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H1184" t="inlineStr">
         <is>
           <t>3</t>
@@ -38306,27 +38872,31 @@
     <row r="1185">
       <c r="A1185" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1185" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1185" t="inlineStr">
         <is>
-          <t>Mining Production MoMNOV</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1185" t="inlineStr"/>
       <c r="E1185" t="inlineStr">
         <is>
-          <t>-3%</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="F1185" t="inlineStr"/>
-      <c r="G1185" t="inlineStr"/>
+      <c r="G1185" t="inlineStr">
+        <is>
+          <t>4.4%</t>
+        </is>
+      </c>
       <c r="H1185" t="inlineStr">
         <is>
           <t>3</t>
@@ -38336,27 +38906,31 @@
     <row r="1186">
       <c r="A1186" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1186" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1186" t="inlineStr">
         <is>
-          <t>Mining Production YoYNOV</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D1186" t="inlineStr"/>
       <c r="E1186" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>$1234M</t>
         </is>
       </c>
       <c r="F1186" t="inlineStr"/>
-      <c r="G1186" t="inlineStr"/>
+      <c r="G1186" t="inlineStr">
+        <is>
+          <t>$ 1463M</t>
+        </is>
+      </c>
       <c r="H1186" t="inlineStr">
         <is>
           <t>3</t>
@@ -38366,83 +38940,87 @@
     <row r="1187">
       <c r="A1187" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1187" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1187" t="inlineStr">
         <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1187" t="inlineStr"/>
-      <c r="E1187" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
+      <c r="E1187" t="inlineStr"/>
       <c r="F1187" t="inlineStr"/>
-      <c r="G1187" t="inlineStr"/>
+      <c r="G1187" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1187" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1188">
       <c r="A1188" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1188" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1188" t="inlineStr">
         <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1188" t="inlineStr"/>
       <c r="E1188" t="inlineStr">
         <is>
-          <t>15.7</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F1188" t="inlineStr"/>
-      <c r="G1188" t="inlineStr"/>
+      <c r="G1188" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
       <c r="H1188" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1189">
       <c r="A1189" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B1189" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1189" t="inlineStr">
         <is>
-          <t>ZEW Current ConditionsJAN</t>
+          <t>40-Year JGB Auction</t>
         </is>
       </c>
       <c r="D1189" t="inlineStr"/>
       <c r="E1189" t="inlineStr">
         <is>
-          <t>-93.1</t>
+          <t>2.550%</t>
         </is>
       </c>
       <c r="F1189" t="inlineStr"/>
@@ -38454,23 +39032,23 @@
       </c>
     </row>
     <row r="1190">
-      <c r="A1190" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
+      <c r="A1190" t="inlineStr"/>
       <c r="B1190" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1190" t="inlineStr">
         <is>
-          <t>Bund/g Auction</t>
+          <t>10-Year KTB Auction</t>
         </is>
       </c>
       <c r="D1190" t="inlineStr"/>
-      <c r="E1190" t="inlineStr"/>
+      <c r="E1190" t="inlineStr">
+        <is>
+          <t>2.665%</t>
+        </is>
+      </c>
       <c r="F1190" t="inlineStr"/>
       <c r="G1190" t="inlineStr"/>
       <c r="H1190" t="inlineStr">
@@ -38480,25 +39058,21 @@
       </c>
     </row>
     <row r="1191">
-      <c r="A1191" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
+      <c r="A1191" t="inlineStr"/>
       <c r="B1191" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1191" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>FDI (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D1191" t="inlineStr"/>
       <c r="E1191" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>-27.9%</t>
         </is>
       </c>
       <c r="F1191" t="inlineStr"/>
@@ -38510,29 +39084,29 @@
       </c>
     </row>
     <row r="1192">
-      <c r="A1192" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
+      <c r="A1192" t="inlineStr"/>
       <c r="B1192" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1192" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>Consumer ConfidenceDEC</t>
         </is>
       </c>
       <c r="D1192" t="inlineStr"/>
       <c r="E1192" t="inlineStr">
         <is>
-          <t>-1.2%</t>
+          <t>80.6</t>
         </is>
       </c>
       <c r="F1192" t="inlineStr"/>
-      <c r="G1192" t="inlineStr"/>
+      <c r="G1192" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
       <c r="H1192" t="inlineStr">
         <is>
           <t>3</t>
@@ -38540,165 +39114,121 @@
       </c>
     </row>
     <row r="1193">
-      <c r="A1193" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A1193" t="inlineStr"/>
       <c r="B1193" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1193" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Leading Indicator MoMDEC</t>
         </is>
       </c>
       <c r="D1193" t="inlineStr"/>
       <c r="E1193" t="inlineStr">
         <is>
-          <t>1,9%</t>
+          <t>1.44%</t>
         </is>
       </c>
       <c r="F1193" t="inlineStr"/>
       <c r="G1193" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="H1193" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1194">
-      <c r="A1194" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A1194" t="inlineStr"/>
       <c r="B1194" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1194" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>Central Government DebtDEC</t>
         </is>
       </c>
       <c r="D1194" t="inlineStr"/>
       <c r="E1194" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>TRY9.005T</t>
         </is>
       </c>
       <c r="F1194" t="inlineStr"/>
       <c r="G1194" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>TRY 9.0T</t>
         </is>
       </c>
       <c r="H1194" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1195">
-      <c r="A1195" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A1195" t="inlineStr"/>
       <c r="B1195" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1195" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>ECOFIN Meeting</t>
         </is>
       </c>
       <c r="D1195" t="inlineStr"/>
-      <c r="E1195" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+      <c r="E1195" t="inlineStr"/>
       <c r="F1195" t="inlineStr"/>
-      <c r="G1195" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1195" t="inlineStr"/>
       <c r="H1195" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1196">
       <c r="A1196" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1196" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1196" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate MoMDEC</t>
-        </is>
-      </c>
+          <t>Tuesday January 21 2025</t>
+        </is>
+      </c>
+      <c r="B1196" t="inlineStr"/>
+      <c r="C1196" t="inlineStr"/>
       <c r="D1196" t="inlineStr"/>
       <c r="E1196" t="inlineStr"/>
       <c r="F1196" t="inlineStr"/>
-      <c r="G1196" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H1196" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1196" t="inlineStr"/>
+      <c r="H1196" t="inlineStr"/>
     </row>
     <row r="1197">
       <c r="A1197" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1197" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1197" t="inlineStr">
         <is>
-          <t>CPI Median YoYDEC</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1197" t="inlineStr"/>
-      <c r="E1197" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+      <c r="E1197" t="inlineStr"/>
       <c r="F1197" t="inlineStr"/>
-      <c r="G1197" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="G1197" t="inlineStr"/>
       <c r="H1197" t="inlineStr">
         <is>
           <t>3</t>
@@ -38708,31 +39238,23 @@
     <row r="1198">
       <c r="A1198" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1198" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1198" t="inlineStr">
         <is>
-          <t>CPI Trimmed-Mean YoYDEC</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1198" t="inlineStr"/>
-      <c r="E1198" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="E1198" t="inlineStr"/>
       <c r="F1198" t="inlineStr"/>
-      <c r="G1198" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+      <c r="G1198" t="inlineStr"/>
       <c r="H1198" t="inlineStr">
         <is>
           <t>3</t>
@@ -38742,162 +39264,198 @@
     <row r="1199">
       <c r="A1199" t="inlineStr">
         <is>
-          <t>08:55 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1199" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1199" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/18</t>
+          <t>New Car Registrations YoYDEC</t>
         </is>
       </c>
       <c r="D1199" t="inlineStr"/>
-      <c r="E1199" t="inlineStr"/>
+      <c r="E1199" t="inlineStr">
+        <is>
+          <t>-1.9%</t>
+        </is>
+      </c>
       <c r="F1199" t="inlineStr"/>
       <c r="G1199" t="inlineStr"/>
       <c r="H1199" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1200">
       <c r="A1200" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1200" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1200" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Unemployment RateNOV</t>
         </is>
       </c>
       <c r="D1200" t="inlineStr"/>
       <c r="E1200" t="inlineStr">
         <is>
-          <t>4.225%</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F1200" t="inlineStr"/>
-      <c r="G1200" t="inlineStr"/>
+      <c r="G1200" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="H1200" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1201">
       <c r="A1201" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1201" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1201" t="inlineStr">
         <is>
-          <t>52-Week Bill Auction</t>
+          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D1201" t="inlineStr"/>
-      <c r="E1201" t="inlineStr"/>
+      <c r="E1201" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="F1201" t="inlineStr"/>
-      <c r="G1201" t="inlineStr"/>
+      <c r="G1201" t="inlineStr">
+        <is>
+          <t>4.9%</t>
+        </is>
+      </c>
       <c r="H1201" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1202">
       <c r="A1202" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1202" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1202" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Employment ChangeNOV</t>
         </is>
       </c>
       <c r="D1202" t="inlineStr"/>
       <c r="E1202" t="inlineStr">
         <is>
-          <t>4.180%</t>
+          <t>173K</t>
         </is>
       </c>
       <c r="F1202" t="inlineStr"/>
       <c r="G1202" t="inlineStr"/>
       <c r="H1202" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1203">
       <c r="A1203" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1203" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1203" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D1203" t="inlineStr"/>
       <c r="E1203" t="inlineStr">
         <is>
-          <t>88.4</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F1203" t="inlineStr"/>
       <c r="G1203" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="H1203" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1204">
       <c r="A1204" t="inlineStr">
         <is>
-          <t>Wednesday January 22 2025</t>
-        </is>
-      </c>
-      <c r="B1204" t="inlineStr"/>
-      <c r="C1204" t="inlineStr"/>
+          <t>02:00 AM</t>
+        </is>
+      </c>
+      <c r="B1204" t="inlineStr">
+        <is>
+          <t>GB</t>
+        </is>
+      </c>
+      <c r="C1204" t="inlineStr">
+        <is>
+          <t>Claimant Count ChangeDEC</t>
+        </is>
+      </c>
       <c r="D1204" t="inlineStr"/>
-      <c r="E1204" t="inlineStr"/>
+      <c r="E1204" t="inlineStr">
+        <is>
+          <t>0.3K</t>
+        </is>
+      </c>
       <c r="F1204" t="inlineStr"/>
-      <c r="G1204" t="inlineStr"/>
-      <c r="H1204" t="inlineStr"/>
+      <c r="G1204" t="inlineStr">
+        <is>
+          <t>-5K</t>
+        </is>
+      </c>
+      <c r="H1204" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1205">
       <c r="A1205" t="inlineStr">
@@ -38912,19 +39470,19 @@
       </c>
       <c r="C1205" t="inlineStr">
         <is>
-          <t>Public Sector Net Borrowing Ex BanksDEC</t>
+          <t>HMRC Payrolls ChangeDEC</t>
         </is>
       </c>
       <c r="D1205" t="inlineStr"/>
       <c r="E1205" t="inlineStr">
         <is>
-          <t>£-11.25B</t>
+          <t>-35K</t>
         </is>
       </c>
       <c r="F1205" t="inlineStr"/>
       <c r="G1205" t="inlineStr">
         <is>
-          <t>£ -11.3B</t>
+          <t>20K</t>
         </is>
       </c>
       <c r="H1205" t="inlineStr">
@@ -38936,7 +39494,7 @@
     <row r="1206">
       <c r="A1206" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1206" t="inlineStr">
@@ -38946,31 +39504,27 @@
       </c>
       <c r="C1206" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Gold Production YoYNOV</t>
         </is>
       </c>
       <c r="D1206" t="inlineStr"/>
       <c r="E1206" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>-3.4%</t>
         </is>
       </c>
       <c r="F1206" t="inlineStr"/>
-      <c r="G1206" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G1206" t="inlineStr"/>
       <c r="H1206" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1207">
       <c r="A1207" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1207" t="inlineStr">
@@ -38980,31 +39534,27 @@
       </c>
       <c r="C1207" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Mining Production MoMNOV</t>
         </is>
       </c>
       <c r="D1207" t="inlineStr"/>
       <c r="E1207" t="inlineStr">
         <is>
-          <t>2.9%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F1207" t="inlineStr"/>
-      <c r="G1207" t="inlineStr">
-        <is>
-          <t>3.0%</t>
-        </is>
-      </c>
+      <c r="G1207" t="inlineStr"/>
       <c r="H1207" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1208">
       <c r="A1208" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1208" t="inlineStr">
@@ -39014,21 +39564,17 @@
       </c>
       <c r="C1208" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMDEC</t>
+          <t>Mining Production YoYNOV</t>
         </is>
       </c>
       <c r="D1208" t="inlineStr"/>
       <c r="E1208" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F1208" t="inlineStr"/>
-      <c r="G1208" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G1208" t="inlineStr"/>
       <c r="H1208" t="inlineStr">
         <is>
           <t>3</t>
@@ -39038,41 +39584,37 @@
     <row r="1209">
       <c r="A1209" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1209" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1209" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D1209" t="inlineStr"/>
       <c r="E1209" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>17</t>
         </is>
       </c>
       <c r="F1209" t="inlineStr"/>
-      <c r="G1209" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="G1209" t="inlineStr"/>
       <c r="H1209" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1210">
       <c r="A1210" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1210" t="inlineStr">
@@ -39082,47 +39624,47 @@
       </c>
       <c r="C1210" t="inlineStr">
         <is>
-          <t>15-Year Bund Auction</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D1210" t="inlineStr"/>
-      <c r="E1210" t="inlineStr"/>
+      <c r="E1210" t="inlineStr">
+        <is>
+          <t>15.7</t>
+        </is>
+      </c>
       <c r="F1210" t="inlineStr"/>
       <c r="G1210" t="inlineStr"/>
       <c r="H1210" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1211">
       <c r="A1211" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1211" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1211" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>ZEW Current ConditionsJAN</t>
         </is>
       </c>
       <c r="D1211" t="inlineStr"/>
       <c r="E1211" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>-93.1</t>
         </is>
       </c>
       <c r="F1211" t="inlineStr"/>
-      <c r="G1211" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G1211" t="inlineStr"/>
       <c r="H1211" t="inlineStr">
         <is>
           <t>3</t>
@@ -39132,25 +39674,21 @@
     <row r="1212">
       <c r="A1212" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1212" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1212" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>Bund/g Auction</t>
         </is>
       </c>
       <c r="D1212" t="inlineStr"/>
-      <c r="E1212" t="inlineStr">
-        <is>
-          <t>6.3%</t>
-        </is>
-      </c>
+      <c r="E1212" t="inlineStr"/>
       <c r="F1212" t="inlineStr"/>
       <c r="G1212" t="inlineStr"/>
       <c r="H1212" t="inlineStr">
@@ -39162,21 +39700,25 @@
     <row r="1213">
       <c r="A1213" t="inlineStr">
         <is>
-          <t>06:10 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1213" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1213" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D1213" t="inlineStr"/>
-      <c r="E1213" t="inlineStr"/>
+      <c r="E1213" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
       <c r="F1213" t="inlineStr"/>
       <c r="G1213" t="inlineStr"/>
       <c r="H1213" t="inlineStr">
@@ -39188,21 +39730,25 @@
     <row r="1214">
       <c r="A1214" t="inlineStr">
         <is>
-          <t>06:10 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1214" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1214" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1214" t="inlineStr"/>
-      <c r="E1214" t="inlineStr"/>
+      <c r="E1214" t="inlineStr">
+        <is>
+          <t>-1.2%</t>
+        </is>
+      </c>
       <c r="F1214" t="inlineStr"/>
       <c r="G1214" t="inlineStr"/>
       <c r="H1214" t="inlineStr">
@@ -39214,53 +39760,65 @@
     <row r="1215">
       <c r="A1215" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1215" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1215" t="inlineStr">
         <is>
-          <t>M3 Money Supply YoYJAN/10</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1215" t="inlineStr"/>
       <c r="E1215" t="inlineStr">
         <is>
-          <t>9.3%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="F1215" t="inlineStr"/>
-      <c r="G1215" t="inlineStr"/>
+      <c r="G1215" t="inlineStr">
+        <is>
+          <t>1.8%</t>
+        </is>
+      </c>
       <c r="H1215" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1216">
       <c r="A1216" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1216" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1216" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJAN/17</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1216" t="inlineStr"/>
-      <c r="E1216" t="inlineStr"/>
+      <c r="E1216" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="F1216" t="inlineStr"/>
-      <c r="G1216" t="inlineStr"/>
+      <c r="G1216" t="inlineStr">
+        <is>
+          <t>1.7%</t>
+        </is>
+      </c>
       <c r="H1216" t="inlineStr">
         <is>
           <t>2</t>
@@ -39270,49 +39828,61 @@
     <row r="1217">
       <c r="A1217" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1217" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1217" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJAN/17</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1217" t="inlineStr"/>
-      <c r="E1217" t="inlineStr"/>
+      <c r="E1217" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="F1217" t="inlineStr"/>
-      <c r="G1217" t="inlineStr"/>
+      <c r="G1217" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1217" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1218">
       <c r="A1218" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1218" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1218" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJAN/17</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1218" t="inlineStr"/>
       <c r="E1218" t="inlineStr"/>
       <c r="F1218" t="inlineStr"/>
-      <c r="G1218" t="inlineStr"/>
+      <c r="G1218" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1218" t="inlineStr">
         <is>
           <t>3</t>
@@ -39322,23 +39892,31 @@
     <row r="1219">
       <c r="A1219" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1219" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1219" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexJAN/17</t>
+          <t>CPI Median YoYDEC</t>
         </is>
       </c>
       <c r="D1219" t="inlineStr"/>
-      <c r="E1219" t="inlineStr"/>
+      <c r="E1219" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="F1219" t="inlineStr"/>
-      <c r="G1219" t="inlineStr"/>
+      <c r="G1219" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
       <c r="H1219" t="inlineStr">
         <is>
           <t>3</t>
@@ -39348,23 +39926,31 @@
     <row r="1220">
       <c r="A1220" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1220" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1220" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexJAN/17</t>
+          <t>CPI Trimmed-Mean YoYDEC</t>
         </is>
       </c>
       <c r="D1220" t="inlineStr"/>
-      <c r="E1220" t="inlineStr"/>
+      <c r="E1220" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="F1220" t="inlineStr"/>
-      <c r="G1220" t="inlineStr"/>
+      <c r="G1220" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H1220" t="inlineStr">
         <is>
           <t>3</t>
@@ -39374,31 +39960,23 @@
     <row r="1221">
       <c r="A1221" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>08:55 AM</t>
         </is>
       </c>
       <c r="B1221" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1221" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Redbook YoYJAN/18</t>
         </is>
       </c>
       <c r="D1221" t="inlineStr"/>
-      <c r="E1221" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
+      <c r="E1221" t="inlineStr"/>
       <c r="F1221" t="inlineStr"/>
-      <c r="G1221" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G1221" t="inlineStr"/>
       <c r="H1221" t="inlineStr">
         <is>
           <t>3</t>
@@ -39408,31 +39986,27 @@
     <row r="1222">
       <c r="A1222" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1222" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1222" t="inlineStr">
         <is>
-          <t>Raw Materials Prices MoMDEC</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1222" t="inlineStr"/>
       <c r="E1222" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>4.225%</t>
         </is>
       </c>
       <c r="F1222" t="inlineStr"/>
-      <c r="G1222" t="inlineStr">
-        <is>
-          <t>1.0%</t>
-        </is>
-      </c>
+      <c r="G1222" t="inlineStr"/>
       <c r="H1222" t="inlineStr">
         <is>
           <t>3</t>
@@ -39442,31 +40016,23 @@
     <row r="1223">
       <c r="A1223" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1223" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1223" t="inlineStr">
         <is>
-          <t>Raw Materials Prices YoYDEC</t>
+          <t>52-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1223" t="inlineStr"/>
-      <c r="E1223" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
+      <c r="E1223" t="inlineStr"/>
       <c r="F1223" t="inlineStr"/>
-      <c r="G1223" t="inlineStr">
-        <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
+      <c r="G1223" t="inlineStr"/>
       <c r="H1223" t="inlineStr">
         <is>
           <t>3</t>
@@ -39476,7 +40042,7 @@
     <row r="1224">
       <c r="A1224" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1224" t="inlineStr">
@@ -39486,13 +40052,13 @@
       </c>
       <c r="C1224" t="inlineStr">
         <is>
-          <t>CB Leading Index MoMDEC</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1224" t="inlineStr"/>
       <c r="E1224" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>4.180%</t>
         </is>
       </c>
       <c r="F1224" t="inlineStr"/>
@@ -39506,81 +40072,77 @@
     <row r="1225">
       <c r="A1225" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1225" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1225" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1225" t="inlineStr"/>
-      <c r="E1225" t="inlineStr"/>
+      <c r="E1225" t="inlineStr">
+        <is>
+          <t>88.4</t>
+        </is>
+      </c>
       <c r="F1225" t="inlineStr"/>
-      <c r="G1225" t="inlineStr"/>
+      <c r="G1225" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
       <c r="H1225" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1226">
       <c r="A1226" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B1226" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1226" t="inlineStr">
-        <is>
-          <t>20-Year Bond Auction</t>
-        </is>
-      </c>
+          <t>Wednesday January 22 2025</t>
+        </is>
+      </c>
+      <c r="B1226" t="inlineStr"/>
+      <c r="C1226" t="inlineStr"/>
       <c r="D1226" t="inlineStr"/>
       <c r="E1226" t="inlineStr"/>
       <c r="F1226" t="inlineStr"/>
       <c r="G1226" t="inlineStr"/>
-      <c r="H1226" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1226" t="inlineStr"/>
     </row>
     <row r="1227">
       <c r="A1227" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1227" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1227" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>Public Sector Net Borrowing Ex BanksDEC</t>
         </is>
       </c>
       <c r="D1227" t="inlineStr"/>
       <c r="E1227" t="inlineStr">
         <is>
-          <t>127.1%</t>
+          <t>£-11.25B</t>
         </is>
       </c>
       <c r="F1227" t="inlineStr"/>
       <c r="G1227" t="inlineStr">
         <is>
-          <t>115.0%</t>
+          <t>£ -11.3B</t>
         </is>
       </c>
       <c r="H1227" t="inlineStr">
@@ -39592,25 +40154,29 @@
     <row r="1228">
       <c r="A1228" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1228" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1228" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1228" t="inlineStr"/>
-      <c r="E1228" t="inlineStr"/>
+      <c r="E1228" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="F1228" t="inlineStr"/>
       <c r="G1228" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1228" t="inlineStr">
@@ -39622,23 +40188,31 @@
     <row r="1229">
       <c r="A1229" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1229" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1229" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/17</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1229" t="inlineStr"/>
-      <c r="E1229" t="inlineStr"/>
+      <c r="E1229" t="inlineStr">
+        <is>
+          <t>2.9%</t>
+        </is>
+      </c>
       <c r="F1229" t="inlineStr"/>
-      <c r="G1229" t="inlineStr"/>
+      <c r="G1229" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
       <c r="H1229" t="inlineStr">
         <is>
           <t>2</t>
@@ -39648,63 +40222,63 @@
     <row r="1230">
       <c r="A1230" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1230" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1230" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQ AdvQ4</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1230" t="inlineStr"/>
       <c r="E1230" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F1230" t="inlineStr"/>
       <c r="G1230" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H1230" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1231">
       <c r="A1231" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1231" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1231" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoY AdvQ4</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1231" t="inlineStr"/>
       <c r="E1231" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="F1231" t="inlineStr"/>
       <c r="G1231" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="H1231" t="inlineStr">
@@ -39716,85 +40290,85 @@
     <row r="1232">
       <c r="A1232" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1232" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1232" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>15-Year Bund Auction</t>
         </is>
       </c>
       <c r="D1232" t="inlineStr"/>
-      <c r="E1232" t="inlineStr">
-        <is>
-          <t>¥-117.6B</t>
-        </is>
-      </c>
+      <c r="E1232" t="inlineStr"/>
       <c r="F1232" t="inlineStr"/>
-      <c r="G1232" t="inlineStr">
-        <is>
-          <t>¥ 100B</t>
-        </is>
-      </c>
+      <c r="G1232" t="inlineStr"/>
       <c r="H1232" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1233">
       <c r="A1233" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1233" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1233" t="inlineStr">
         <is>
-          <t>Exports YoYDEC</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D1233" t="inlineStr"/>
       <c r="E1233" t="inlineStr">
         <is>
-          <t>3.8%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F1233" t="inlineStr"/>
-      <c r="G1233" t="inlineStr"/>
+      <c r="G1233" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H1233" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1234">
       <c r="A1234" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1234" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1234" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentJAN/18</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1234" t="inlineStr"/>
-      <c r="E1234" t="inlineStr"/>
+      <c r="E1234" t="inlineStr">
+        <is>
+          <t>6.3%</t>
+        </is>
+      </c>
       <c r="F1234" t="inlineStr"/>
       <c r="G1234" t="inlineStr"/>
       <c r="H1234" t="inlineStr">
@@ -39806,25 +40380,21 @@
     <row r="1235">
       <c r="A1235" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>06:10 AM</t>
         </is>
       </c>
       <c r="B1235" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1235" t="inlineStr">
         <is>
-          <t>Imports YoYDEC</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1235" t="inlineStr"/>
-      <c r="E1235" t="inlineStr">
-        <is>
-          <t>-3.8%</t>
-        </is>
-      </c>
+      <c r="E1235" t="inlineStr"/>
       <c r="F1235" t="inlineStr"/>
       <c r="G1235" t="inlineStr"/>
       <c r="H1235" t="inlineStr">
@@ -39836,17 +40406,17 @@
     <row r="1236">
       <c r="A1236" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>06:10 AM</t>
         </is>
       </c>
       <c r="B1236" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1236" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersJAN/18</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1236" t="inlineStr"/>
@@ -39862,81 +40432,73 @@
     <row r="1237">
       <c r="A1237" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1237" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1237" t="inlineStr">
         <is>
-          <t>NAB Business ConfidenceDEC</t>
+          <t>M3 Money Supply YoYJAN/10</t>
         </is>
       </c>
       <c r="D1237" t="inlineStr"/>
       <c r="E1237" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>9.3%</t>
         </is>
       </c>
       <c r="F1237" t="inlineStr"/>
-      <c r="G1237" t="inlineStr">
+      <c r="G1237" t="inlineStr"/>
+      <c r="H1237" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="H1237" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1238">
       <c r="A1238" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1238" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1238" t="inlineStr">
         <is>
-          <t>M2 Money Supply YoYDEC</t>
+          <t>MBA 30-Year Mortgage RateJAN/17</t>
         </is>
       </c>
       <c r="D1238" t="inlineStr"/>
-      <c r="E1238" t="inlineStr">
-        <is>
-          <t>7%</t>
-        </is>
-      </c>
+      <c r="E1238" t="inlineStr"/>
       <c r="F1238" t="inlineStr"/>
       <c r="G1238" t="inlineStr"/>
       <c r="H1238" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1239">
       <c r="A1239" t="inlineStr">
         <is>
-          <t>10:35 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1239" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1239" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>MBA Mortgage ApplicationsJAN/17</t>
         </is>
       </c>
       <c r="D1239" t="inlineStr"/>
@@ -39952,39 +40514,47 @@
     <row r="1240">
       <c r="A1240" t="inlineStr">
         <is>
-          <t>Thursday January 23 2025</t>
-        </is>
-      </c>
-      <c r="B1240" t="inlineStr"/>
-      <c r="C1240" t="inlineStr"/>
+          <t>07:00 AM</t>
+        </is>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>MBA Mortgage Market IndexJAN/17</t>
+        </is>
+      </c>
       <c r="D1240" t="inlineStr"/>
       <c r="E1240" t="inlineStr"/>
       <c r="F1240" t="inlineStr"/>
       <c r="G1240" t="inlineStr"/>
-      <c r="H1240" t="inlineStr"/>
+      <c r="H1240" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1241">
       <c r="A1241" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1241" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1241" t="inlineStr">
         <is>
-          <t>1-Year T-Bill Auction</t>
+          <t>MBA Mortgage Refinance IndexJAN/17</t>
         </is>
       </c>
       <c r="D1241" t="inlineStr"/>
-      <c r="E1241" t="inlineStr">
-        <is>
-          <t>2.71%</t>
-        </is>
-      </c>
+      <c r="E1241" t="inlineStr"/>
       <c r="F1241" t="inlineStr"/>
       <c r="G1241" t="inlineStr"/>
       <c r="H1241" t="inlineStr">
@@ -39996,31 +40566,23 @@
     <row r="1242">
       <c r="A1242" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1242" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1242" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>MBA Purchase IndexJAN/17</t>
         </is>
       </c>
       <c r="D1242" t="inlineStr"/>
-      <c r="E1242" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="E1242" t="inlineStr"/>
       <c r="F1242" t="inlineStr"/>
-      <c r="G1242" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
+      <c r="G1242" t="inlineStr"/>
       <c r="H1242" t="inlineStr">
         <is>
           <t>3</t>
@@ -40030,23 +40592,23 @@
     <row r="1243">
       <c r="A1243" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1243" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1243" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1243" t="inlineStr"/>
       <c r="E1243" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="F1243" t="inlineStr"/>
@@ -40064,29 +40626,29 @@
     <row r="1244">
       <c r="A1244" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1244" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1244" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Raw Materials Prices MoMDEC</t>
         </is>
       </c>
       <c r="D1244" t="inlineStr"/>
       <c r="E1244" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="F1244" t="inlineStr"/>
       <c r="G1244" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>1.0%</t>
         </is>
       </c>
       <c r="H1244" t="inlineStr">
@@ -40098,27 +40660,31 @@
     <row r="1245">
       <c r="A1245" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1245" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1245" t="inlineStr">
         <is>
-          <t>Leading Business Cycle Indicator MoMNOV</t>
+          <t>Raw Materials Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1245" t="inlineStr"/>
       <c r="E1245" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="F1245" t="inlineStr"/>
-      <c r="G1245" t="inlineStr"/>
+      <c r="G1245" t="inlineStr">
+        <is>
+          <t>-2.8%</t>
+        </is>
+      </c>
       <c r="H1245" t="inlineStr">
         <is>
           <t>3</t>
@@ -40128,85 +40694,77 @@
     <row r="1246">
       <c r="A1246" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1246" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1246" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>CB Leading Index MoMDEC</t>
         </is>
       </c>
       <c r="D1246" t="inlineStr"/>
       <c r="E1246" t="inlineStr">
         <is>
-          <t>81.3</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F1246" t="inlineStr"/>
       <c r="G1246" t="inlineStr"/>
       <c r="H1246" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1247">
       <c r="A1247" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1247" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1247" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1247" t="inlineStr"/>
-      <c r="E1247" t="inlineStr">
-        <is>
-          <t>97</t>
-        </is>
-      </c>
+      <c r="E1247" t="inlineStr"/>
       <c r="F1247" t="inlineStr"/>
       <c r="G1247" t="inlineStr"/>
       <c r="H1247" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1248">
       <c r="A1248" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1248" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1248" t="inlineStr">
         <is>
-          <t>Business Climate IndicatorJAN</t>
+          <t>20-Year Bond Auction</t>
         </is>
       </c>
       <c r="D1248" t="inlineStr"/>
-      <c r="E1248" t="inlineStr">
-        <is>
-          <t>94</t>
-        </is>
-      </c>
+      <c r="E1248" t="inlineStr"/>
       <c r="F1248" t="inlineStr"/>
       <c r="G1248" t="inlineStr"/>
       <c r="H1248" t="inlineStr">
@@ -40218,23 +40776,31 @@
     <row r="1249">
       <c r="A1249" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1249" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1249" t="inlineStr">
         <is>
-          <t>OAT Auction</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1249" t="inlineStr"/>
-      <c r="E1249" t="inlineStr"/>
+      <c r="E1249" t="inlineStr">
+        <is>
+          <t>127.1%</t>
+        </is>
+      </c>
       <c r="F1249" t="inlineStr"/>
-      <c r="G1249" t="inlineStr"/>
+      <c r="G1249" t="inlineStr">
+        <is>
+          <t>115.0%</t>
+        </is>
+      </c>
       <c r="H1249" t="inlineStr">
         <is>
           <t>3</t>
@@ -40244,47 +40810,47 @@
     <row r="1250">
       <c r="A1250" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1250" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1250" t="inlineStr">
         <is>
-          <t>4-Year Treasury Gilt Auction</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1250" t="inlineStr"/>
-      <c r="E1250" t="inlineStr">
-        <is>
-          <t>4.499%</t>
-        </is>
-      </c>
+      <c r="E1250" t="inlineStr"/>
       <c r="F1250" t="inlineStr"/>
-      <c r="G1250" t="inlineStr"/>
+      <c r="G1250" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
       <c r="H1250" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1251">
       <c r="A1251" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1251" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1251" t="inlineStr">
         <is>
-          <t>Index-Linked OAT Auction</t>
+          <t>API Crude Oil Stock ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1251" t="inlineStr"/>
@@ -40293,60 +40859,72 @@
       <c r="G1251" t="inlineStr"/>
       <c r="H1251" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1252">
       <c r="A1252" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1252" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1252" t="inlineStr">
         <is>
-          <t>OATi Auction</t>
+          <t>GDP Growth Rate QoQ AdvQ4</t>
         </is>
       </c>
       <c r="D1252" t="inlineStr"/>
-      <c r="E1252" t="inlineStr"/>
+      <c r="E1252" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="F1252" t="inlineStr"/>
-      <c r="G1252" t="inlineStr"/>
+      <c r="G1252" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1252" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1253">
       <c r="A1253" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1253" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1253" t="inlineStr">
         <is>
-          <t>Building Permits YoYNOV</t>
+          <t>GDP Growth Rate YoY AdvQ4</t>
         </is>
       </c>
       <c r="D1253" t="inlineStr"/>
       <c r="E1253" t="inlineStr">
         <is>
-          <t>21.6%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="F1253" t="inlineStr"/>
-      <c r="G1253" t="inlineStr"/>
+      <c r="G1253" t="inlineStr">
+        <is>
+          <t>1.2%</t>
+        </is>
+      </c>
       <c r="H1253" t="inlineStr">
         <is>
           <t>3</t>
@@ -40356,53 +40934,57 @@
     <row r="1254">
       <c r="A1254" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1254" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1254" t="inlineStr">
         <is>
-          <t>Overnight Borrowing RateJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D1254" t="inlineStr"/>
       <c r="E1254" t="inlineStr">
         <is>
-          <t>46%</t>
+          <t>¥-117.6B</t>
         </is>
       </c>
       <c r="F1254" t="inlineStr"/>
-      <c r="G1254" t="inlineStr"/>
+      <c r="G1254" t="inlineStr">
+        <is>
+          <t>¥ 100B</t>
+        </is>
+      </c>
       <c r="H1254" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1255">
       <c r="A1255" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1255" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1255" t="inlineStr">
         <is>
-          <t>TCMB Interest Rate Decision</t>
+          <t>Exports YoYDEC</t>
         </is>
       </c>
       <c r="D1255" t="inlineStr"/>
       <c r="E1255" t="inlineStr">
         <is>
-          <t>47.5%</t>
+          <t>3.8%</t>
         </is>
       </c>
       <c r="F1255" t="inlineStr"/>
@@ -40416,25 +40998,21 @@
     <row r="1256">
       <c r="A1256" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1256" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1256" t="inlineStr">
         <is>
-          <t>Overnight Lending RateJAN</t>
+          <t>Foreign Bond InvestmentJAN/18</t>
         </is>
       </c>
       <c r="D1256" t="inlineStr"/>
-      <c r="E1256" t="inlineStr">
-        <is>
-          <t>49%</t>
-        </is>
-      </c>
+      <c r="E1256" t="inlineStr"/>
       <c r="F1256" t="inlineStr"/>
       <c r="G1256" t="inlineStr"/>
       <c r="H1256" t="inlineStr">
@@ -40446,21 +41024,25 @@
     <row r="1257">
       <c r="A1257" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1257" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1257" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/17</t>
+          <t>Imports YoYDEC</t>
         </is>
       </c>
       <c r="D1257" t="inlineStr"/>
-      <c r="E1257" t="inlineStr"/>
+      <c r="E1257" t="inlineStr">
+        <is>
+          <t>-3.8%</t>
+        </is>
+      </c>
       <c r="F1257" t="inlineStr"/>
       <c r="G1257" t="inlineStr"/>
       <c r="H1257" t="inlineStr">
@@ -40472,25 +41054,21 @@
     <row r="1258">
       <c r="A1258" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1258" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1258" t="inlineStr">
         <is>
-          <t>Mid-month Core Inflation Rate MoMJAN</t>
+          <t>Stock Investment by ForeignersJAN/18</t>
         </is>
       </c>
       <c r="D1258" t="inlineStr"/>
-      <c r="E1258" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="E1258" t="inlineStr"/>
       <c r="F1258" t="inlineStr"/>
       <c r="G1258" t="inlineStr"/>
       <c r="H1258" t="inlineStr">
@@ -40502,53 +41080,57 @@
     <row r="1259">
       <c r="A1259" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1259" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1259" t="inlineStr">
         <is>
-          <t>Mid-month Core Inflation Rate YoYJAN</t>
+          <t>NAB Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D1259" t="inlineStr"/>
       <c r="E1259" t="inlineStr">
         <is>
-          <t>3.62%</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="F1259" t="inlineStr"/>
-      <c r="G1259" t="inlineStr"/>
+      <c r="G1259" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="H1259" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1260">
       <c r="A1260" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1260" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C1260" t="inlineStr">
         <is>
-          <t>Mid-month Inflation Rate MoMJAN</t>
+          <t>M2 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D1260" t="inlineStr"/>
       <c r="E1260" t="inlineStr">
         <is>
-          <t>0.42%</t>
+          <t>7%</t>
         </is>
       </c>
       <c r="F1260" t="inlineStr"/>
@@ -40562,25 +41144,21 @@
     <row r="1261">
       <c r="A1261" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B1261" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1261" t="inlineStr">
         <is>
-          <t>Mid-month Inflation Rate YoYJAN</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1261" t="inlineStr"/>
-      <c r="E1261" t="inlineStr">
-        <is>
-          <t>4.44%</t>
-        </is>
-      </c>
+      <c r="E1261" t="inlineStr"/>
       <c r="F1261" t="inlineStr"/>
       <c r="G1261" t="inlineStr"/>
       <c r="H1261" t="inlineStr">
@@ -40592,115 +41170,107 @@
     <row r="1262">
       <c r="A1262" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1262" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1262" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Autos MoMNOV</t>
-        </is>
-      </c>
+          <t>Thursday January 23 2025</t>
+        </is>
+      </c>
+      <c r="B1262" t="inlineStr"/>
+      <c r="C1262" t="inlineStr"/>
       <c r="D1262" t="inlineStr"/>
       <c r="E1262" t="inlineStr"/>
       <c r="F1262" t="inlineStr"/>
       <c r="G1262" t="inlineStr"/>
-      <c r="H1262" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="H1262" t="inlineStr"/>
     </row>
     <row r="1263">
       <c r="A1263" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1263" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1263" t="inlineStr">
         <is>
-          <t>Retail Sales MoM FinalNOV</t>
+          <t>1-Year T-Bill Auction</t>
         </is>
       </c>
       <c r="D1263" t="inlineStr"/>
       <c r="E1263" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>2.71%</t>
         </is>
       </c>
       <c r="F1263" t="inlineStr"/>
-      <c r="G1263" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
+      <c r="G1263" t="inlineStr"/>
       <c r="H1263" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1264">
       <c r="A1264" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1264" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1264" t="inlineStr">
         <is>
-          <t>Retail Sales MoM PrelDEC</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1264" t="inlineStr"/>
-      <c r="E1264" t="inlineStr"/>
+      <c r="E1264" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
       <c r="F1264" t="inlineStr"/>
-      <c r="G1264" t="inlineStr"/>
+      <c r="G1264" t="inlineStr">
+        <is>
+          <t>2.5%</t>
+        </is>
+      </c>
       <c r="H1264" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1265">
       <c r="A1265" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1265" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1265" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1265" t="inlineStr"/>
       <c r="E1265" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="F1265" t="inlineStr"/>
       <c r="G1265" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H1265" t="inlineStr">
@@ -40712,47 +41282,59 @@
     <row r="1266">
       <c r="A1266" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1266" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1266" t="inlineStr">
         <is>
-          <t>Initial Jobless ClaimsJAN/18</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1266" t="inlineStr"/>
-      <c r="E1266" t="inlineStr"/>
+      <c r="E1266" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="F1266" t="inlineStr"/>
-      <c r="G1266" t="inlineStr"/>
+      <c r="G1266" t="inlineStr">
+        <is>
+          <t>1.8%</t>
+        </is>
+      </c>
       <c r="H1266" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1267">
       <c r="A1267" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1267" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1267" t="inlineStr">
         <is>
-          <t>Continuing Jobless ClaimsJAN/11</t>
+          <t>Leading Business Cycle Indicator MoMNOV</t>
         </is>
       </c>
       <c r="D1267" t="inlineStr"/>
-      <c r="E1267" t="inlineStr"/>
+      <c r="E1267" t="inlineStr">
+        <is>
+          <t>1.1%</t>
+        </is>
+      </c>
       <c r="F1267" t="inlineStr"/>
       <c r="G1267" t="inlineStr"/>
       <c r="H1267" t="inlineStr">
@@ -40764,49 +41346,53 @@
     <row r="1268">
       <c r="A1268" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1268" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1268" t="inlineStr">
         <is>
-          <t>Jobless Claims 4-week AverageJAN/18</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1268" t="inlineStr"/>
-      <c r="E1268" t="inlineStr"/>
+      <c r="E1268" t="inlineStr">
+        <is>
+          <t>81.3</t>
+        </is>
+      </c>
       <c r="F1268" t="inlineStr"/>
       <c r="G1268" t="inlineStr"/>
       <c r="H1268" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1269">
       <c r="A1269" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B1269" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1269" t="inlineStr">
         <is>
-          <t>Consumer Confidence FlashJAN</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1269" t="inlineStr"/>
       <c r="E1269" t="inlineStr">
         <is>
-          <t>-14.5</t>
+          <t>97</t>
         </is>
       </c>
       <c r="F1269" t="inlineStr"/>
@@ -40820,21 +41406,25 @@
     <row r="1270">
       <c r="A1270" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B1270" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1270" t="inlineStr">
         <is>
-          <t>EIA Natural Gas Stocks ChangeJAN/17</t>
+          <t>Business Climate IndicatorJAN</t>
         </is>
       </c>
       <c r="D1270" t="inlineStr"/>
-      <c r="E1270" t="inlineStr"/>
+      <c r="E1270" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
       <c r="F1270" t="inlineStr"/>
       <c r="G1270" t="inlineStr"/>
       <c r="H1270" t="inlineStr">
@@ -40846,17 +41436,17 @@
     <row r="1271">
       <c r="A1271" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1271" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1271" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeJAN/17</t>
+          <t>OAT Auction</t>
         </is>
       </c>
       <c r="D1271" t="inlineStr"/>
@@ -40865,50 +41455,54 @@
       <c r="G1271" t="inlineStr"/>
       <c r="H1271" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1272">
       <c r="A1272" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1272" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1272" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeJAN/17</t>
+          <t>4-Year Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D1272" t="inlineStr"/>
-      <c r="E1272" t="inlineStr"/>
+      <c r="E1272" t="inlineStr">
+        <is>
+          <t>4.499%</t>
+        </is>
+      </c>
       <c r="F1272" t="inlineStr"/>
       <c r="G1272" t="inlineStr"/>
       <c r="H1272" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1273">
       <c r="A1273" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1273" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1273" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeJAN/17</t>
+          <t>Index-Linked OAT Auction</t>
         </is>
       </c>
       <c r="D1273" t="inlineStr"/>
@@ -40924,17 +41518,17 @@
     <row r="1274">
       <c r="A1274" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1274" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1274" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJAN/17</t>
+          <t>OATi Auction</t>
         </is>
       </c>
       <c r="D1274" t="inlineStr"/>
@@ -40950,21 +41544,25 @@
     <row r="1275">
       <c r="A1275" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1275" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1275" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeJAN/17</t>
+          <t>Building Permits YoYNOV</t>
         </is>
       </c>
       <c r="D1275" t="inlineStr"/>
-      <c r="E1275" t="inlineStr"/>
+      <c r="E1275" t="inlineStr">
+        <is>
+          <t>21.6%</t>
+        </is>
+      </c>
       <c r="F1275" t="inlineStr"/>
       <c r="G1275" t="inlineStr"/>
       <c r="H1275" t="inlineStr">
@@ -40976,73 +41574,85 @@
     <row r="1276">
       <c r="A1276" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1276" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1276" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeJAN/17</t>
+          <t>Overnight Borrowing RateJAN</t>
         </is>
       </c>
       <c r="D1276" t="inlineStr"/>
-      <c r="E1276" t="inlineStr"/>
+      <c r="E1276" t="inlineStr">
+        <is>
+          <t>46%</t>
+        </is>
+      </c>
       <c r="F1276" t="inlineStr"/>
       <c r="G1276" t="inlineStr"/>
       <c r="H1276" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1277">
       <c r="A1277" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1277" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1277" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeJAN/17</t>
+          <t>TCMB Interest Rate Decision</t>
         </is>
       </c>
       <c r="D1277" t="inlineStr"/>
-      <c r="E1277" t="inlineStr"/>
+      <c r="E1277" t="inlineStr">
+        <is>
+          <t>47.5%</t>
+        </is>
+      </c>
       <c r="F1277" t="inlineStr"/>
       <c r="G1277" t="inlineStr"/>
       <c r="H1277" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1278">
       <c r="A1278" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1278" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1278" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeJAN/17</t>
+          <t>Overnight Lending RateJAN</t>
         </is>
       </c>
       <c r="D1278" t="inlineStr"/>
-      <c r="E1278" t="inlineStr"/>
+      <c r="E1278" t="inlineStr">
+        <is>
+          <t>49%</t>
+        </is>
+      </c>
       <c r="F1278" t="inlineStr"/>
       <c r="G1278" t="inlineStr"/>
       <c r="H1278" t="inlineStr">
@@ -41054,17 +41664,17 @@
     <row r="1279">
       <c r="A1279" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1279" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1279" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeJAN/17</t>
+          <t>Foreign Exchange ReservesJAN/17</t>
         </is>
       </c>
       <c r="D1279" t="inlineStr"/>
@@ -41080,21 +41690,25 @@
     <row r="1280">
       <c r="A1280" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1280" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1280" t="inlineStr">
         <is>
-          <t>4-Week Bill Auction</t>
+          <t>Mid-month Core Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D1280" t="inlineStr"/>
-      <c r="E1280" t="inlineStr"/>
+      <c r="E1280" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="F1280" t="inlineStr"/>
       <c r="G1280" t="inlineStr"/>
       <c r="H1280" t="inlineStr">
@@ -41106,21 +41720,25 @@
     <row r="1281">
       <c r="A1281" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1281" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1281" t="inlineStr">
         <is>
-          <t>8-Week Bill Auction</t>
+          <t>Mid-month Core Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D1281" t="inlineStr"/>
-      <c r="E1281" t="inlineStr"/>
+      <c r="E1281" t="inlineStr">
+        <is>
+          <t>3.62%</t>
+        </is>
+      </c>
       <c r="F1281" t="inlineStr"/>
       <c r="G1281" t="inlineStr"/>
       <c r="H1281" t="inlineStr">
@@ -41132,23 +41750,23 @@
     <row r="1282">
       <c r="A1282" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1282" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1282" t="inlineStr">
         <is>
-          <t>30-Year Bond Auction</t>
+          <t>Mid-month Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D1282" t="inlineStr"/>
       <c r="E1282" t="inlineStr">
         <is>
-          <t>3.25%</t>
+          <t>0.42%</t>
         </is>
       </c>
       <c r="F1282" t="inlineStr"/>
@@ -41162,21 +41780,25 @@
     <row r="1283">
       <c r="A1283" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1283" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1283" t="inlineStr">
         <is>
-          <t>15-Year Mortgage RateJAN/23</t>
+          <t>Mid-month Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D1283" t="inlineStr"/>
-      <c r="E1283" t="inlineStr"/>
+      <c r="E1283" t="inlineStr">
+        <is>
+          <t>4.44%</t>
+        </is>
+      </c>
       <c r="F1283" t="inlineStr"/>
       <c r="G1283" t="inlineStr"/>
       <c r="H1283" t="inlineStr">
@@ -41188,17 +41810,17 @@
     <row r="1284">
       <c r="A1284" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1284" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1284" t="inlineStr">
         <is>
-          <t>30-Year Mortgage RateJAN/23</t>
+          <t>Retail Sales Ex Autos MoMNOV</t>
         </is>
       </c>
       <c r="D1284" t="inlineStr"/>
@@ -41207,87 +41829,709 @@
       <c r="G1284" t="inlineStr"/>
       <c r="H1284" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1285">
       <c r="A1285" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1285" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1285" t="inlineStr">
         <is>
-          <t>10-Year TIPS Auction</t>
+          <t>Retail Sales MoM FinalNOV</t>
         </is>
       </c>
       <c r="D1285" t="inlineStr"/>
       <c r="E1285" t="inlineStr">
         <is>
-          <t>2.071%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="F1285" t="inlineStr"/>
-      <c r="G1285" t="inlineStr"/>
+      <c r="G1285" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
       <c r="H1285" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1286">
-      <c r="A1286" t="inlineStr"/>
+      <c r="A1286" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B1286" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1286" t="inlineStr">
         <is>
-          <t>20-Year KTB Auction</t>
+          <t>Retail Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1286" t="inlineStr"/>
-      <c r="E1286" t="inlineStr">
-        <is>
-          <t>2.750%</t>
-        </is>
-      </c>
+      <c r="E1286" t="inlineStr"/>
       <c r="F1286" t="inlineStr"/>
       <c r="G1286" t="inlineStr"/>
       <c r="H1286" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1287">
-      <c r="A1287" t="inlineStr"/>
+      <c r="A1287" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B1287" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1287" t="inlineStr">
         <is>
-          <t>Federal Tax RevenuesDEC</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1287" t="inlineStr"/>
-      <c r="E1287" t="inlineStr"/>
+      <c r="E1287" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
       <c r="F1287" t="inlineStr"/>
       <c r="G1287" t="inlineStr">
         <is>
+          <t>1.6%</t>
+        </is>
+      </c>
+      <c r="H1287" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1288">
+      <c r="A1288" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B1288" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1288" t="inlineStr">
+        <is>
+          <t>Initial Jobless ClaimsJAN/18</t>
+        </is>
+      </c>
+      <c r="D1288" t="inlineStr"/>
+      <c r="E1288" t="inlineStr"/>
+      <c r="F1288" t="inlineStr"/>
+      <c r="G1288" t="inlineStr"/>
+      <c r="H1288" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1289">
+      <c r="A1289" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B1289" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1289" t="inlineStr">
+        <is>
+          <t>Continuing Jobless ClaimsJAN/11</t>
+        </is>
+      </c>
+      <c r="D1289" t="inlineStr"/>
+      <c r="E1289" t="inlineStr"/>
+      <c r="F1289" t="inlineStr"/>
+      <c r="G1289" t="inlineStr"/>
+      <c r="H1289" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1290">
+      <c r="A1290" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B1290" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1290" t="inlineStr">
+        <is>
+          <t>Jobless Claims 4-week AverageJAN/18</t>
+        </is>
+      </c>
+      <c r="D1290" t="inlineStr"/>
+      <c r="E1290" t="inlineStr"/>
+      <c r="F1290" t="inlineStr"/>
+      <c r="G1290" t="inlineStr"/>
+      <c r="H1290" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1291">
+      <c r="A1291" t="inlineStr">
+        <is>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B1291" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C1291" t="inlineStr">
+        <is>
+          <t>Consumer Confidence FlashJAN</t>
+        </is>
+      </c>
+      <c r="D1291" t="inlineStr"/>
+      <c r="E1291" t="inlineStr">
+        <is>
+          <t>-14.5</t>
+        </is>
+      </c>
+      <c r="F1291" t="inlineStr"/>
+      <c r="G1291" t="inlineStr"/>
+      <c r="H1291" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1292">
+      <c r="A1292" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B1292" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1292" t="inlineStr">
+        <is>
+          <t>EIA Natural Gas Stocks ChangeJAN/17</t>
+        </is>
+      </c>
+      <c r="D1292" t="inlineStr"/>
+      <c r="E1292" t="inlineStr"/>
+      <c r="F1292" t="inlineStr"/>
+      <c r="G1292" t="inlineStr"/>
+      <c r="H1292" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1293">
+      <c r="A1293" t="inlineStr">
+        <is>
+          <t>11:00 AM</t>
+        </is>
+      </c>
+      <c r="B1293" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1293" t="inlineStr">
+        <is>
+          <t>EIA Crude Oil Stocks ChangeJAN/17</t>
+        </is>
+      </c>
+      <c r="D1293" t="inlineStr"/>
+      <c r="E1293" t="inlineStr"/>
+      <c r="F1293" t="inlineStr"/>
+      <c r="G1293" t="inlineStr"/>
+      <c r="H1293" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1294">
+      <c r="A1294" t="inlineStr">
+        <is>
+          <t>11:00 AM</t>
+        </is>
+      </c>
+      <c r="B1294" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1294" t="inlineStr">
+        <is>
+          <t>EIA Gasoline Stocks ChangeJAN/17</t>
+        </is>
+      </c>
+      <c r="D1294" t="inlineStr"/>
+      <c r="E1294" t="inlineStr"/>
+      <c r="F1294" t="inlineStr"/>
+      <c r="G1294" t="inlineStr"/>
+      <c r="H1294" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1295">
+      <c r="A1295" t="inlineStr">
+        <is>
+          <t>11:00 AM</t>
+        </is>
+      </c>
+      <c r="B1295" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1295" t="inlineStr">
+        <is>
+          <t>EIA Crude Oil Imports ChangeJAN/17</t>
+        </is>
+      </c>
+      <c r="D1295" t="inlineStr"/>
+      <c r="E1295" t="inlineStr"/>
+      <c r="F1295" t="inlineStr"/>
+      <c r="G1295" t="inlineStr"/>
+      <c r="H1295" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1296">
+      <c r="A1296" t="inlineStr">
+        <is>
+          <t>11:00 AM</t>
+        </is>
+      </c>
+      <c r="B1296" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1296" t="inlineStr">
+        <is>
+          <t>EIA Cushing Crude Oil Stocks ChangeJAN/17</t>
+        </is>
+      </c>
+      <c r="D1296" t="inlineStr"/>
+      <c r="E1296" t="inlineStr"/>
+      <c r="F1296" t="inlineStr"/>
+      <c r="G1296" t="inlineStr"/>
+      <c r="H1296" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1297">
+      <c r="A1297" t="inlineStr">
+        <is>
+          <t>11:00 AM</t>
+        </is>
+      </c>
+      <c r="B1297" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1297" t="inlineStr">
+        <is>
+          <t>EIA Distillate Fuel Production ChangeJAN/17</t>
+        </is>
+      </c>
+      <c r="D1297" t="inlineStr"/>
+      <c r="E1297" t="inlineStr"/>
+      <c r="F1297" t="inlineStr"/>
+      <c r="G1297" t="inlineStr"/>
+      <c r="H1297" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1298">
+      <c r="A1298" t="inlineStr">
+        <is>
+          <t>11:00 AM</t>
+        </is>
+      </c>
+      <c r="B1298" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1298" t="inlineStr">
+        <is>
+          <t>EIA Distillate Stocks ChangeJAN/17</t>
+        </is>
+      </c>
+      <c r="D1298" t="inlineStr"/>
+      <c r="E1298" t="inlineStr"/>
+      <c r="F1298" t="inlineStr"/>
+      <c r="G1298" t="inlineStr"/>
+      <c r="H1298" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1299">
+      <c r="A1299" t="inlineStr">
+        <is>
+          <t>11:00 AM</t>
+        </is>
+      </c>
+      <c r="B1299" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1299" t="inlineStr">
+        <is>
+          <t>EIA Gasoline Production ChangeJAN/17</t>
+        </is>
+      </c>
+      <c r="D1299" t="inlineStr"/>
+      <c r="E1299" t="inlineStr"/>
+      <c r="F1299" t="inlineStr"/>
+      <c r="G1299" t="inlineStr"/>
+      <c r="H1299" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1300">
+      <c r="A1300" t="inlineStr">
+        <is>
+          <t>11:00 AM</t>
+        </is>
+      </c>
+      <c r="B1300" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1300" t="inlineStr">
+        <is>
+          <t>EIA Heating Oil Stocks ChangeJAN/17</t>
+        </is>
+      </c>
+      <c r="D1300" t="inlineStr"/>
+      <c r="E1300" t="inlineStr"/>
+      <c r="F1300" t="inlineStr"/>
+      <c r="G1300" t="inlineStr"/>
+      <c r="H1300" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1301">
+      <c r="A1301" t="inlineStr">
+        <is>
+          <t>11:00 AM</t>
+        </is>
+      </c>
+      <c r="B1301" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1301" t="inlineStr">
+        <is>
+          <t>EIA Refinery Crude Runs ChangeJAN/17</t>
+        </is>
+      </c>
+      <c r="D1301" t="inlineStr"/>
+      <c r="E1301" t="inlineStr"/>
+      <c r="F1301" t="inlineStr"/>
+      <c r="G1301" t="inlineStr"/>
+      <c r="H1301" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1302">
+      <c r="A1302" t="inlineStr">
+        <is>
+          <t>11:30 AM</t>
+        </is>
+      </c>
+      <c r="B1302" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1302" t="inlineStr">
+        <is>
+          <t>4-Week Bill Auction</t>
+        </is>
+      </c>
+      <c r="D1302" t="inlineStr"/>
+      <c r="E1302" t="inlineStr"/>
+      <c r="F1302" t="inlineStr"/>
+      <c r="G1302" t="inlineStr"/>
+      <c r="H1302" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1303">
+      <c r="A1303" t="inlineStr">
+        <is>
+          <t>11:30 AM</t>
+        </is>
+      </c>
+      <c r="B1303" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1303" t="inlineStr">
+        <is>
+          <t>8-Week Bill Auction</t>
+        </is>
+      </c>
+      <c r="D1303" t="inlineStr"/>
+      <c r="E1303" t="inlineStr"/>
+      <c r="F1303" t="inlineStr"/>
+      <c r="G1303" t="inlineStr"/>
+      <c r="H1303" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1304">
+      <c r="A1304" t="inlineStr">
+        <is>
+          <t>12:00 PM</t>
+        </is>
+      </c>
+      <c r="B1304" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C1304" t="inlineStr">
+        <is>
+          <t>30-Year Bond Auction</t>
+        </is>
+      </c>
+      <c r="D1304" t="inlineStr"/>
+      <c r="E1304" t="inlineStr">
+        <is>
+          <t>3.25%</t>
+        </is>
+      </c>
+      <c r="F1304" t="inlineStr"/>
+      <c r="G1304" t="inlineStr"/>
+      <c r="H1304" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1305">
+      <c r="A1305" t="inlineStr">
+        <is>
+          <t>12:00 PM</t>
+        </is>
+      </c>
+      <c r="B1305" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1305" t="inlineStr">
+        <is>
+          <t>15-Year Mortgage RateJAN/23</t>
+        </is>
+      </c>
+      <c r="D1305" t="inlineStr"/>
+      <c r="E1305" t="inlineStr"/>
+      <c r="F1305" t="inlineStr"/>
+      <c r="G1305" t="inlineStr"/>
+      <c r="H1305" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1306">
+      <c r="A1306" t="inlineStr">
+        <is>
+          <t>12:00 PM</t>
+        </is>
+      </c>
+      <c r="B1306" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1306" t="inlineStr">
+        <is>
+          <t>30-Year Mortgage RateJAN/23</t>
+        </is>
+      </c>
+      <c r="D1306" t="inlineStr"/>
+      <c r="E1306" t="inlineStr"/>
+      <c r="F1306" t="inlineStr"/>
+      <c r="G1306" t="inlineStr"/>
+      <c r="H1306" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1307">
+      <c r="A1307" t="inlineStr">
+        <is>
+          <t>01:00 PM</t>
+        </is>
+      </c>
+      <c r="B1307" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1307" t="inlineStr">
+        <is>
+          <t>10-Year TIPS Auction</t>
+        </is>
+      </c>
+      <c r="D1307" t="inlineStr"/>
+      <c r="E1307" t="inlineStr">
+        <is>
+          <t>2.071%</t>
+        </is>
+      </c>
+      <c r="F1307" t="inlineStr"/>
+      <c r="G1307" t="inlineStr"/>
+      <c r="H1307" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1308">
+      <c r="A1308" t="inlineStr">
+        <is>
+          <t>02:00 PM</t>
+        </is>
+      </c>
+      <c r="B1308" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C1308" t="inlineStr">
+        <is>
+          <t>Economic Activity YoYNOV</t>
+        </is>
+      </c>
+      <c r="D1308" t="inlineStr"/>
+      <c r="E1308" t="inlineStr"/>
+      <c r="F1308" t="inlineStr"/>
+      <c r="G1308" t="inlineStr"/>
+      <c r="H1308" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1309">
+      <c r="A1309" t="inlineStr"/>
+      <c r="B1309" t="inlineStr">
+        <is>
+          <t>KR</t>
+        </is>
+      </c>
+      <c r="C1309" t="inlineStr">
+        <is>
+          <t>20-Year KTB Auction</t>
+        </is>
+      </c>
+      <c r="D1309" t="inlineStr"/>
+      <c r="E1309" t="inlineStr">
+        <is>
+          <t>2.750%</t>
+        </is>
+      </c>
+      <c r="F1309" t="inlineStr"/>
+      <c r="G1309" t="inlineStr"/>
+      <c r="H1309" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1310">
+      <c r="A1310" t="inlineStr"/>
+      <c r="B1310" t="inlineStr">
+        <is>
+          <t>BR</t>
+        </is>
+      </c>
+      <c r="C1310" t="inlineStr">
+        <is>
+          <t>Federal Tax RevenuesDEC</t>
+        </is>
+      </c>
+      <c r="D1310" t="inlineStr"/>
+      <c r="E1310" t="inlineStr"/>
+      <c r="F1310" t="inlineStr"/>
+      <c r="G1310" t="inlineStr">
+        <is>
           <t>BRL 255.1B</t>
         </is>
       </c>
-      <c r="H1287" t="inlineStr">
+      <c r="H1310" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-23.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1310"/>
+  <dimension ref="A1:H1288"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28737,10 +28737,8 @@
       </c>
       <c r="F879" t="inlineStr"/>
       <c r="G879" t="inlineStr"/>
-      <c r="H879" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H879" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="880">
@@ -28775,10 +28773,8 @@
           <t>6.4%</t>
         </is>
       </c>
-      <c r="H880" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H880" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="881">
@@ -28813,10 +28809,8 @@
           <t>-19.0%</t>
         </is>
       </c>
-      <c r="H881" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H881" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="882">
@@ -28851,10 +28845,8 @@
           <t>-4.0%</t>
         </is>
       </c>
-      <c r="H882" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H882" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="883">
@@ -28893,10 +28885,8 @@
           <t>$-3.4B</t>
         </is>
       </c>
-      <c r="H883" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H883" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="884">
@@ -28931,10 +28921,8 @@
           <t>0%</t>
         </is>
       </c>
-      <c r="H884" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H884" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="885">
@@ -28969,10 +28957,8 @@
           <t>14.1%</t>
         </is>
       </c>
-      <c r="H885" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H885" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="886">
@@ -29003,10 +28989,8 @@
       </c>
       <c r="F886" t="inlineStr"/>
       <c r="G886" t="inlineStr"/>
-      <c r="H886" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H886" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="887">
@@ -29037,10 +29021,8 @@
       </c>
       <c r="F887" t="inlineStr"/>
       <c r="G887" t="inlineStr"/>
-      <c r="H887" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H887" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="888">
@@ -29071,10 +29053,8 @@
       </c>
       <c r="F888" t="inlineStr"/>
       <c r="G888" t="inlineStr"/>
-      <c r="H888" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H888" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="889">
@@ -29113,10 +29093,8 @@
           <t>5.2%</t>
         </is>
       </c>
-      <c r="H889" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H889" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="890">
@@ -29151,10 +29129,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H890" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H890" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="891">
@@ -29185,10 +29161,8 @@
       </c>
       <c r="F891" t="inlineStr"/>
       <c r="G891" t="inlineStr"/>
-      <c r="H891" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H891" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="892">
@@ -29219,10 +29193,8 @@
       </c>
       <c r="F892" t="inlineStr"/>
       <c r="G892" t="inlineStr"/>
-      <c r="H892" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H892" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="893">
@@ -29253,10 +29225,8 @@
       </c>
       <c r="F893" t="inlineStr"/>
       <c r="G893" t="inlineStr"/>
-      <c r="H893" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H893" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="894">
@@ -29287,10 +29257,8 @@
       </c>
       <c r="F894" t="inlineStr"/>
       <c r="G894" t="inlineStr"/>
-      <c r="H894" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H894" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="895">
@@ -29325,10 +29293,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H895" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H895" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="896">
@@ -29359,10 +29325,8 @@
       </c>
       <c r="F896" t="inlineStr"/>
       <c r="G896" t="inlineStr"/>
-      <c r="H896" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H896" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="897">
@@ -29393,10 +29357,8 @@
       </c>
       <c r="F897" t="inlineStr"/>
       <c r="G897" t="inlineStr"/>
-      <c r="H897" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H897" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="898">
@@ -29431,10 +29393,8 @@
           <t>$-220.0B</t>
         </is>
       </c>
-      <c r="H898" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H898" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="899">
@@ -29461,10 +29421,8 @@
       </c>
       <c r="F899" t="inlineStr"/>
       <c r="G899" t="inlineStr"/>
-      <c r="H899" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H899" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="900">
@@ -29491,10 +29449,8 @@
       </c>
       <c r="F900" t="inlineStr"/>
       <c r="G900" t="inlineStr"/>
-      <c r="H900" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H900" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="901">
@@ -29529,10 +29485,8 @@
           <t>¥1990.0B</t>
         </is>
       </c>
-      <c r="H901" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H901" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="902">
@@ -29567,10 +29521,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H902" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H902" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="903">
@@ -29601,10 +29553,8 @@
         </is>
       </c>
       <c r="G903" t="inlineStr"/>
-      <c r="H903" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H903" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="904">
@@ -29635,10 +29585,8 @@
         </is>
       </c>
       <c r="G904" t="inlineStr"/>
-      <c r="H904" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H904" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="905">
@@ -29665,10 +29613,8 @@
       </c>
       <c r="F905" t="inlineStr"/>
       <c r="G905" t="inlineStr"/>
-      <c r="H905" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H905" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="906">
@@ -29687,10 +29633,8 @@
       <c r="E906" t="inlineStr"/>
       <c r="F906" t="inlineStr"/>
       <c r="G906" t="inlineStr"/>
-      <c r="H906" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H906" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="907">
@@ -29739,10 +29683,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H908" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H908" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="909">
@@ -29773,10 +29715,8 @@
           <t>49.6</t>
         </is>
       </c>
-      <c r="H909" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H909" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="910">
@@ -29803,10 +29743,8 @@
       </c>
       <c r="F910" t="inlineStr"/>
       <c r="G910" t="inlineStr"/>
-      <c r="H910" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H910" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="911">
@@ -29833,10 +29771,8 @@
       </c>
       <c r="F911" t="inlineStr"/>
       <c r="G911" t="inlineStr"/>
-      <c r="H911" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H911" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="912">
@@ -29867,10 +29803,8 @@
           <t>10.2%</t>
         </is>
       </c>
-      <c r="H912" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H912" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="913">
@@ -29901,10 +29835,8 @@
           <t>-3.2%</t>
         </is>
       </c>
-      <c r="H913" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H913" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="914">
@@ -29939,10 +29871,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H914" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H914" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="915">
@@ -29973,10 +29903,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H915" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H915" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="916">
@@ -29999,10 +29927,8 @@
       <c r="E916" t="inlineStr"/>
       <c r="F916" t="inlineStr"/>
       <c r="G916" t="inlineStr"/>
-      <c r="H916" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H916" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="917">
@@ -30033,10 +29959,8 @@
           <t>€-162.0B</t>
         </is>
       </c>
-      <c r="H917" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H917" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="918">
@@ -30059,10 +29983,8 @@
       <c r="E918" t="inlineStr"/>
       <c r="F918" t="inlineStr"/>
       <c r="G918" t="inlineStr"/>
-      <c r="H918" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H918" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="919">
@@ -30097,10 +30019,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H919" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H919" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="920">
@@ -30131,10 +30051,8 @@
           <t>-3.3%</t>
         </is>
       </c>
-      <c r="H920" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H920" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="921">
@@ -30161,10 +30079,8 @@
       </c>
       <c r="F921" t="inlineStr"/>
       <c r="G921" t="inlineStr"/>
-      <c r="H921" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H921" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="922">
@@ -30191,10 +30107,8 @@
       </c>
       <c r="F922" t="inlineStr"/>
       <c r="G922" t="inlineStr"/>
-      <c r="H922" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H922" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="923">
@@ -30221,10 +30135,8 @@
       </c>
       <c r="F923" t="inlineStr"/>
       <c r="G923" t="inlineStr"/>
-      <c r="H923" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H923" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="924">
@@ -30251,10 +30163,8 @@
       </c>
       <c r="F924" t="inlineStr"/>
       <c r="G924" t="inlineStr"/>
-      <c r="H924" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H924" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="925">
@@ -30277,10 +30187,8 @@
       <c r="E925" t="inlineStr"/>
       <c r="F925" t="inlineStr"/>
       <c r="G925" t="inlineStr"/>
-      <c r="H925" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H925" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="926">
@@ -30315,10 +30223,8 @@
           <t>102</t>
         </is>
       </c>
-      <c r="H926" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H926" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="927">
@@ -30349,10 +30255,8 @@
           <t>$615.0B</t>
         </is>
       </c>
-      <c r="H927" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H927" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="928">
@@ -30387,10 +30291,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H928" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H928" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="929">
@@ -30425,10 +30327,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H929" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H929" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="930">
@@ -30463,10 +30363,8 @@
           <t>3.5%</t>
         </is>
       </c>
-      <c r="H930" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H930" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="931">
@@ -30497,10 +30395,8 @@
           <t>146.8</t>
         </is>
       </c>
-      <c r="H931" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H931" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="932">
@@ -30531,10 +30427,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H932" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H932" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="933">
@@ -30565,10 +30459,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H933" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H933" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="934">
@@ -30603,10 +30495,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H934" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H934" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="935">
@@ -30633,10 +30523,8 @@
       </c>
       <c r="F935" t="inlineStr"/>
       <c r="G935" t="inlineStr"/>
-      <c r="H935" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H935" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="936">
@@ -30659,10 +30547,8 @@
       <c r="E936" t="inlineStr"/>
       <c r="F936" t="inlineStr"/>
       <c r="G936" t="inlineStr"/>
-      <c r="H936" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H936" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="937">
@@ -30697,10 +30583,8 @@
           <t>54.2</t>
         </is>
       </c>
-      <c r="H937" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H937" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="938">
@@ -30727,10 +30611,8 @@
       </c>
       <c r="F938" t="inlineStr"/>
       <c r="G938" t="inlineStr"/>
-      <c r="H938" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H938" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="939">
@@ -30765,10 +30647,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H939" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H939" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="940">
@@ -30803,10 +30683,8 @@
           <t>116.0%</t>
         </is>
       </c>
-      <c r="H940" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H940" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="941">
@@ -30829,10 +30707,8 @@
       <c r="E941" t="inlineStr"/>
       <c r="F941" t="inlineStr"/>
       <c r="G941" t="inlineStr"/>
-      <c r="H941" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H941" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="942">
@@ -30863,10 +30739,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H942" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H942" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="943">
@@ -30897,10 +30771,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H943" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H943" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="944">
@@ -30927,10 +30799,8 @@
       </c>
       <c r="F944" t="inlineStr"/>
       <c r="G944" t="inlineStr"/>
-      <c r="H944" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H944" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="945">
@@ -30961,10 +30831,8 @@
           <t>3</t>
         </is>
       </c>
-      <c r="H945" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H945" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="946">
@@ -30987,10 +30855,8 @@
       <c r="E946" t="inlineStr"/>
       <c r="F946" t="inlineStr"/>
       <c r="G946" t="inlineStr"/>
-      <c r="H946" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H946" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="947">
@@ -31025,10 +30891,8 @@
           <t>$ 3.7B</t>
         </is>
       </c>
-      <c r="H947" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H947" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="948">
@@ -31059,10 +30923,8 @@
         </is>
       </c>
       <c r="G948" t="inlineStr"/>
-      <c r="H948" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H948" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="949">
@@ -31093,10 +30955,8 @@
         </is>
       </c>
       <c r="G949" t="inlineStr"/>
-      <c r="H949" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H949" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="950">
@@ -31119,10 +30979,8 @@
       </c>
       <c r="F950" t="inlineStr"/>
       <c r="G950" t="inlineStr"/>
-      <c r="H950" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H950" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="951">
@@ -31153,10 +31011,8 @@
           <t>CNY690.0B</t>
         </is>
       </c>
-      <c r="H951" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H951" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="952">
@@ -31183,10 +31039,8 @@
         </is>
       </c>
       <c r="G952" t="inlineStr"/>
-      <c r="H952" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H952" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="953">
@@ -31217,10 +31071,8 @@
           <t>7.5%</t>
         </is>
       </c>
-      <c r="H953" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H953" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="954">
@@ -31251,10 +31103,8 @@
           <t>CNY1850.0B</t>
         </is>
       </c>
-      <c r="H954" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H954" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="955">
@@ -31281,10 +31131,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H955" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H955" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="956">
@@ -31311,10 +31159,8 @@
           <t>-2.5%</t>
         </is>
       </c>
-      <c r="H956" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H956" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="957">
@@ -31337,10 +31183,8 @@
       </c>
       <c r="F957" t="inlineStr"/>
       <c r="G957" t="inlineStr"/>
-      <c r="H957" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H957" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="958">
@@ -31389,10 +31233,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H959" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H959" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="960">
@@ -31427,10 +31269,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H960" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H960" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="961">
@@ -31461,10 +31301,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H961" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H961" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="962">
@@ -31499,10 +31337,8 @@
           <t>2.7%</t>
         </is>
       </c>
-      <c r="H962" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H962" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="963">
@@ -31537,10 +31373,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H963" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H963" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="964">
@@ -31575,10 +31409,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H964" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H964" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="965">
@@ -31613,10 +31445,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H965" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H965" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="966">
@@ -31647,10 +31477,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H966" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H966" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="967">
@@ -31681,10 +31509,8 @@
           <t>2.1%</t>
         </is>
       </c>
-      <c r="H967" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H967" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="968">
@@ -31719,10 +31545,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H968" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H968" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="969">
@@ -31753,10 +31577,8 @@
           <t>-1%</t>
         </is>
       </c>
-      <c r="H969" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H969" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="970">
@@ -31791,10 +31613,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H970" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H970" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="971">
@@ -31825,10 +31645,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H971" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H971" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="972">
@@ -31863,10 +31681,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H972" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H972" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="973">
@@ -31901,10 +31717,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H973" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H973" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="974">
@@ -31935,10 +31749,8 @@
           <t>10%</t>
         </is>
       </c>
-      <c r="H974" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H974" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="975">
@@ -31973,10 +31785,8 @@
           <t>6%</t>
         </is>
       </c>
-      <c r="H975" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H975" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="976">
@@ -32011,10 +31821,8 @@
           <t>5.25%</t>
         </is>
       </c>
-      <c r="H976" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H976" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="977">
@@ -32049,10 +31857,8 @@
           <t>6.75%</t>
         </is>
       </c>
-      <c r="H977" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H977" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="978">
@@ -32087,10 +31893,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H978" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H978" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="979">
@@ -32125,10 +31929,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H979" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H979" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="980">
@@ -32163,10 +31965,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H980" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H980" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="981">
@@ -32201,10 +32001,8 @@
           <t>1.8%</t>
         </is>
       </c>
-      <c r="H981" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H981" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="982">
@@ -32227,10 +32025,8 @@
       <c r="E982" t="inlineStr"/>
       <c r="F982" t="inlineStr"/>
       <c r="G982" t="inlineStr"/>
-      <c r="H982" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H982" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="983">
@@ -32265,10 +32061,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H983" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H983" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="984">
@@ -32303,10 +32097,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H984" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H984" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="985">
@@ -32341,10 +32133,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H985" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H985" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="986">
@@ -32379,10 +32169,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H986" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H986" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="987">
@@ -32417,10 +32205,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H987" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H987" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="988">
@@ -32443,10 +32229,8 @@
       <c r="E988" t="inlineStr"/>
       <c r="F988" t="inlineStr"/>
       <c r="G988" t="inlineStr"/>
-      <c r="H988" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H988" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="989">
@@ -32481,10 +32265,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H989" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H989" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="990">
@@ -32519,10 +32301,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H990" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H990" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="991">
@@ -32557,10 +32337,8 @@
           <t>-1.5%</t>
         </is>
       </c>
-      <c r="H991" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H991" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="992">
@@ -32587,10 +32365,8 @@
       </c>
       <c r="F992" t="inlineStr"/>
       <c r="G992" t="inlineStr"/>
-      <c r="H992" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H992" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="993">
@@ -32617,10 +32393,8 @@
       </c>
       <c r="F993" t="inlineStr"/>
       <c r="G993" t="inlineStr"/>
-      <c r="H993" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H993" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="994">
@@ -32651,10 +32425,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H994" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H994" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="995">
@@ -32685,10 +32457,8 @@
           <t>-5.0%</t>
         </is>
       </c>
-      <c r="H995" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H995" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="996">
@@ -32715,10 +32485,8 @@
       </c>
       <c r="F996" t="inlineStr"/>
       <c r="G996" t="inlineStr"/>
-      <c r="H996" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H996" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="997">
@@ -32745,10 +32513,8 @@
       </c>
       <c r="F997" t="inlineStr"/>
       <c r="G997" t="inlineStr"/>
-      <c r="H997" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H997" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="998">
@@ -32775,10 +32541,8 @@
       </c>
       <c r="F998" t="inlineStr"/>
       <c r="G998" t="inlineStr"/>
-      <c r="H998" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H998" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="999">
@@ -32805,10 +32569,8 @@
       </c>
       <c r="F999" t="inlineStr"/>
       <c r="G999" t="inlineStr"/>
-      <c r="H999" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H999" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1000">
@@ -32835,10 +32597,8 @@
       </c>
       <c r="F1000" t="inlineStr"/>
       <c r="G1000" t="inlineStr"/>
-      <c r="H1000" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1000" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1001">
@@ -32873,10 +32633,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1001" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1001" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1002">
@@ -32903,10 +32661,8 @@
       </c>
       <c r="F1002" t="inlineStr"/>
       <c r="G1002" t="inlineStr"/>
-      <c r="H1002" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1002" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1003">
@@ -32941,10 +32697,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H1003" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1003" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1004">
@@ -32979,10 +32733,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1004" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1004" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1005">
@@ -33017,10 +32769,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H1005" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1005" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1006">
@@ -33055,10 +32805,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1006" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1006" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1007">
@@ -33093,10 +32841,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H1007" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1007" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1008">
@@ -33127,10 +32873,8 @@
           <t>315.6</t>
         </is>
       </c>
-      <c r="H1008" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1008" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1009">
@@ -33161,10 +32905,8 @@
           <t>317.4</t>
         </is>
       </c>
-      <c r="H1009" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1009" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1010">
@@ -33199,10 +32941,8 @@
           <t>3.1</t>
         </is>
       </c>
-      <c r="H1010" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1010" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1011">
@@ -33225,10 +32965,8 @@
       <c r="E1011" t="inlineStr"/>
       <c r="F1011" t="inlineStr"/>
       <c r="G1011" t="inlineStr"/>
-      <c r="H1011" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1011" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1012">
@@ -33251,10 +32989,8 @@
       <c r="E1012" t="inlineStr"/>
       <c r="F1012" t="inlineStr"/>
       <c r="G1012" t="inlineStr"/>
-      <c r="H1012" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1012" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1013">
@@ -33281,10 +33017,8 @@
       </c>
       <c r="F1013" t="inlineStr"/>
       <c r="G1013" t="inlineStr"/>
-      <c r="H1013" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1013" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1014">
@@ -33311,10 +33045,8 @@
       </c>
       <c r="F1014" t="inlineStr"/>
       <c r="G1014" t="inlineStr"/>
-      <c r="H1014" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1014" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1015">
@@ -33341,10 +33073,8 @@
       </c>
       <c r="F1015" t="inlineStr"/>
       <c r="G1015" t="inlineStr"/>
-      <c r="H1015" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1015" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1016">
@@ -33371,10 +33101,8 @@
       </c>
       <c r="F1016" t="inlineStr"/>
       <c r="G1016" t="inlineStr"/>
-      <c r="H1016" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1016" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1017">
@@ -33401,10 +33129,8 @@
       </c>
       <c r="F1017" t="inlineStr"/>
       <c r="G1017" t="inlineStr"/>
-      <c r="H1017" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1017" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1018">
@@ -33431,10 +33157,8 @@
       </c>
       <c r="F1018" t="inlineStr"/>
       <c r="G1018" t="inlineStr"/>
-      <c r="H1018" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1018" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1019">
@@ -33461,10 +33185,8 @@
       </c>
       <c r="F1019" t="inlineStr"/>
       <c r="G1019" t="inlineStr"/>
-      <c r="H1019" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1019" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1020">
@@ -33491,10 +33213,8 @@
       </c>
       <c r="F1020" t="inlineStr"/>
       <c r="G1020" t="inlineStr"/>
-      <c r="H1020" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1020" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1021">
@@ -33521,10 +33241,8 @@
       </c>
       <c r="F1021" t="inlineStr"/>
       <c r="G1021" t="inlineStr"/>
-      <c r="H1021" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1021" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1022">
@@ -33559,10 +33277,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1022" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1022" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1023">
@@ -33597,10 +33313,8 @@
           <t>9.5%</t>
         </is>
       </c>
-      <c r="H1023" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1023" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1024">
@@ -33623,10 +33337,8 @@
       <c r="E1024" t="inlineStr"/>
       <c r="F1024" t="inlineStr"/>
       <c r="G1024" t="inlineStr"/>
-      <c r="H1024" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1024" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1025">
@@ -33653,10 +33365,8 @@
       </c>
       <c r="F1025" t="inlineStr"/>
       <c r="G1025" t="inlineStr"/>
-      <c r="H1025" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1025" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1026">
@@ -33687,10 +33397,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H1026" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1026" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1027">
@@ -33717,10 +33425,8 @@
       </c>
       <c r="F1027" t="inlineStr"/>
       <c r="G1027" t="inlineStr"/>
-      <c r="H1027" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1027" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1028">
@@ -33743,10 +33449,8 @@
       <c r="E1028" t="inlineStr"/>
       <c r="F1028" t="inlineStr"/>
       <c r="G1028" t="inlineStr"/>
-      <c r="H1028" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1028" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1029">
@@ -33769,10 +33473,8 @@
       <c r="E1029" t="inlineStr"/>
       <c r="F1029" t="inlineStr"/>
       <c r="G1029" t="inlineStr"/>
-      <c r="H1029" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1029" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1030">
@@ -33795,10 +33497,8 @@
       <c r="E1030" t="inlineStr"/>
       <c r="F1030" t="inlineStr"/>
       <c r="G1030" t="inlineStr"/>
-      <c r="H1030" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1030" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1031">
@@ -33829,10 +33529,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H1031" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1031" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1032">
@@ -33867,10 +33565,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1032" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1032" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1033">
@@ -33905,10 +33601,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H1033" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1033" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1034">
@@ -33943,10 +33637,8 @@
           <t>26.0%</t>
         </is>
       </c>
-      <c r="H1034" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1034" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1035">
@@ -33981,10 +33673,8 @@
           <t>3.9%</t>
         </is>
       </c>
-      <c r="H1035" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1035" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1036">
@@ -34019,10 +33709,8 @@
           <t>25.1K</t>
         </is>
       </c>
-      <c r="H1036" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1036" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1037">
@@ -34049,10 +33737,8 @@
       </c>
       <c r="F1037" t="inlineStr"/>
       <c r="G1037" t="inlineStr"/>
-      <c r="H1037" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1037" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1038">
@@ -34079,10 +33765,8 @@
       </c>
       <c r="F1038" t="inlineStr"/>
       <c r="G1038" t="inlineStr"/>
-      <c r="H1038" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1038" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1039">
@@ -34117,10 +33801,8 @@
           <t>66.8%</t>
         </is>
       </c>
-      <c r="H1039" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1039" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1040">
@@ -34155,10 +33837,8 @@
           <t>2.75%</t>
         </is>
       </c>
-      <c r="H1040" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1040" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1041">
@@ -34185,10 +33865,8 @@
       </c>
       <c r="F1041" t="inlineStr"/>
       <c r="G1041" t="inlineStr"/>
-      <c r="H1041" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1041" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1042">
@@ -34215,10 +33893,8 @@
       </c>
       <c r="F1042" t="inlineStr"/>
       <c r="G1042" t="inlineStr"/>
-      <c r="H1042" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1042" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1043">
@@ -34245,10 +33921,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1043" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1043" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1044">
@@ -34275,10 +33949,8 @@
           <t>2%</t>
         </is>
       </c>
-      <c r="H1044" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1044" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1045">
@@ -34305,10 +33977,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H1045" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1045" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1046">
@@ -34331,10 +34001,8 @@
       </c>
       <c r="F1046" t="inlineStr"/>
       <c r="G1046" t="inlineStr"/>
-      <c r="H1046" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1046" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1047">
@@ -34353,10 +34021,8 @@
       <c r="E1047" t="inlineStr"/>
       <c r="F1047" t="inlineStr"/>
       <c r="G1047" t="inlineStr"/>
-      <c r="H1047" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1047" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1048">
@@ -34383,10 +34049,8 @@
           <t>$ -38.0B</t>
         </is>
       </c>
-      <c r="H1048" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1048" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1049">
@@ -34413,10 +34077,8 @@
           <t>$ 32.5B</t>
         </is>
       </c>
-      <c r="H1049" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1049" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1050">
@@ -34443,10 +34105,8 @@
           <t>$ 70.5B</t>
         </is>
       </c>
-      <c r="H1050" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1050" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1051">
@@ -34487,10 +34147,8 @@
       </c>
       <c r="F1052" t="inlineStr"/>
       <c r="G1052" t="inlineStr"/>
-      <c r="H1052" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1052" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1053">
@@ -34525,10 +34183,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1053" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1053" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1054">
@@ -34563,10 +34219,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H1054" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1054" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1055">
@@ -34601,10 +34255,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H1055" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1055" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1056">
@@ -34639,10 +34291,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H1056" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1056" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1057">
@@ -34677,10 +34327,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1057" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1057" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1058">
@@ -34711,10 +34359,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1058" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1058" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1059">
@@ -34749,10 +34395,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1059" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1059" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1060">
@@ -34787,10 +34431,8 @@
           <t>£-17.0B</t>
         </is>
       </c>
-      <c r="H1060" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1060" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1061">
@@ -34821,10 +34463,8 @@
           <t>£-6.8B</t>
         </is>
       </c>
-      <c r="H1061" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1061" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1062">
@@ -34859,10 +34499,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1062" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1062" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1063">
@@ -34897,10 +34535,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1063" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1063" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1064">
@@ -34931,10 +34567,8 @@
           <t>£-3.9B</t>
         </is>
       </c>
-      <c r="H1064" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1064" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1065">
@@ -34965,10 +34599,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1065" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1065" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1066">
@@ -35003,10 +34635,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H1066" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1066" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1067">
@@ -35041,10 +34671,8 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H1067" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1067" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1068">
@@ -35079,10 +34707,8 @@
           <t>€3.2B</t>
         </is>
       </c>
-      <c r="H1068" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1068" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1069">
@@ -35117,10 +34743,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1069" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1069" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1070">
@@ -35155,10 +34779,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H1070" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1070" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1071">
@@ -35193,10 +34815,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1071" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1071" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1072">
@@ -35231,10 +34851,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H1072" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1072" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1073">
@@ -35257,10 +34875,8 @@
       <c r="E1073" t="inlineStr"/>
       <c r="F1073" t="inlineStr"/>
       <c r="G1073" t="inlineStr"/>
-      <c r="H1073" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1073" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1074">
@@ -35287,10 +34903,8 @@
       </c>
       <c r="F1074" t="inlineStr"/>
       <c r="G1074" t="inlineStr"/>
-      <c r="H1074" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1074" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1075">
@@ -35313,10 +34927,8 @@
       <c r="E1075" t="inlineStr"/>
       <c r="F1075" t="inlineStr"/>
       <c r="G1075" t="inlineStr"/>
-      <c r="H1075" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1075" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1076">
@@ -35343,10 +34955,8 @@
       </c>
       <c r="F1076" t="inlineStr"/>
       <c r="G1076" t="inlineStr"/>
-      <c r="H1076" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1076" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1077">
@@ -35381,10 +34991,8 @@
           <t>€1.8B</t>
         </is>
       </c>
-      <c r="H1077" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1077" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1078">
@@ -35411,10 +35019,8 @@
       </c>
       <c r="F1078" t="inlineStr"/>
       <c r="G1078" t="inlineStr"/>
-      <c r="H1078" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1078" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1079">
@@ -35449,10 +35055,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1079" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1079" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1080">
@@ -35475,10 +35079,8 @@
       <c r="E1080" t="inlineStr"/>
       <c r="F1080" t="inlineStr"/>
       <c r="G1080" t="inlineStr"/>
-      <c r="H1080" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1080" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1081">
@@ -35509,10 +35111,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1081" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1081" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1082">
@@ -35547,10 +35147,8 @@
           <t>240.0K</t>
         </is>
       </c>
-      <c r="H1082" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1082" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1083">
@@ -35585,10 +35183,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1083" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1083" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1084">
@@ -35623,10 +35219,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1084" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1084" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1085">
@@ -35661,10 +35255,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1085" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1085" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1086">
@@ -35699,10 +35291,8 @@
           <t>209.0K</t>
         </is>
       </c>
-      <c r="H1086" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1086" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1087">
@@ -35737,10 +35327,8 @@
           <t>-10</t>
         </is>
       </c>
-      <c r="H1087" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1087" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1088">
@@ -35775,10 +35363,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1088" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1088" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1089">
@@ -35809,10 +35395,8 @@
           <t>1870.0K</t>
         </is>
       </c>
-      <c r="H1089" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1089" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1090">
@@ -35843,10 +35427,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H1090" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1090" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1091">
@@ -35877,10 +35459,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1091" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1091" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1092">
@@ -35911,10 +35491,8 @@
           <t>215.0K</t>
         </is>
       </c>
-      <c r="H1092" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1092" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1093">
@@ -35941,10 +35519,8 @@
       </c>
       <c r="F1093" t="inlineStr"/>
       <c r="G1093" t="inlineStr"/>
-      <c r="H1093" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1093" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1094">
@@ -35971,10 +35547,8 @@
       </c>
       <c r="F1094" t="inlineStr"/>
       <c r="G1094" t="inlineStr"/>
-      <c r="H1094" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1094" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1095">
@@ -36001,10 +35575,8 @@
       </c>
       <c r="F1095" t="inlineStr"/>
       <c r="G1095" t="inlineStr"/>
-      <c r="H1095" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1095" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1096">
@@ -36031,10 +35603,8 @@
       </c>
       <c r="F1096" t="inlineStr"/>
       <c r="G1096" t="inlineStr"/>
-      <c r="H1096" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1096" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1097">
@@ -36061,10 +35631,8 @@
       </c>
       <c r="F1097" t="inlineStr"/>
       <c r="G1097" t="inlineStr"/>
-      <c r="H1097" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1097" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1098">
@@ -36095,10 +35663,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1098" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1098" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1099">
@@ -36129,10 +35695,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H1099" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1099" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1100">
@@ -36167,10 +35731,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1100" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1100" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1101">
@@ -36205,10 +35767,8 @@
           <t>45</t>
         </is>
       </c>
-      <c r="H1101" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1101" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1102">
@@ -36243,10 +35803,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1102" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1102" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1103">
@@ -36273,10 +35831,8 @@
       </c>
       <c r="F1103" t="inlineStr"/>
       <c r="G1103" t="inlineStr"/>
-      <c r="H1103" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1103" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1104">
@@ -36303,10 +35859,8 @@
       </c>
       <c r="F1104" t="inlineStr"/>
       <c r="G1104" t="inlineStr"/>
-      <c r="H1104" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1104" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1105">
@@ -36333,10 +35887,8 @@
       </c>
       <c r="F1105" t="inlineStr"/>
       <c r="G1105" t="inlineStr"/>
-      <c r="H1105" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1105" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1106">
@@ -36363,10 +35915,8 @@
       </c>
       <c r="F1106" t="inlineStr"/>
       <c r="G1106" t="inlineStr"/>
-      <c r="H1106" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1106" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1107">
@@ -36393,10 +35943,8 @@
       </c>
       <c r="F1107" t="inlineStr"/>
       <c r="G1107" t="inlineStr"/>
-      <c r="H1107" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1107" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1108">
@@ -36419,10 +35967,8 @@
       <c r="E1108" t="inlineStr"/>
       <c r="F1108" t="inlineStr"/>
       <c r="G1108" t="inlineStr"/>
-      <c r="H1108" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1108" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1109">
@@ -36449,10 +35995,8 @@
       </c>
       <c r="F1109" t="inlineStr"/>
       <c r="G1109" t="inlineStr"/>
-      <c r="H1109" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1109" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1110">
@@ -36479,10 +36023,8 @@
       </c>
       <c r="F1110" t="inlineStr"/>
       <c r="G1110" t="inlineStr"/>
-      <c r="H1110" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1110" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1111">
@@ -36509,10 +36051,8 @@
       </c>
       <c r="F1111" t="inlineStr"/>
       <c r="G1111" t="inlineStr"/>
-      <c r="H1111" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1111" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1112">
@@ -36543,10 +36083,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1112" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1112" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1113">
@@ -36581,10 +36119,8 @@
           <t>7.5%</t>
         </is>
       </c>
-      <c r="H1113" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1113" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1114">
@@ -36611,10 +36147,8 @@
       </c>
       <c r="F1114" t="inlineStr"/>
       <c r="G1114" t="inlineStr"/>
-      <c r="H1114" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1114" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1115">
@@ -36645,10 +36179,8 @@
           <t>-5.8%</t>
         </is>
       </c>
-      <c r="H1115" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1115" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1116">
@@ -36679,10 +36211,8 @@
           <t>$ 3.6B</t>
         </is>
       </c>
-      <c r="H1116" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1116" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1117">
@@ -36717,10 +36247,8 @@
           <t>5%</t>
         </is>
       </c>
-      <c r="H1117" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1117" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1118">
@@ -36755,10 +36283,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="H1118" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1118" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1119">
@@ -36793,10 +36319,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H1119" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1119" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1120">
@@ -36831,10 +36355,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H1120" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1120" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1121">
@@ -36869,10 +36391,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1121" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1121" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1122">
@@ -36903,10 +36423,8 @@
           <t>75.3%</t>
         </is>
       </c>
-      <c r="H1122" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1122" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1123">
@@ -36941,10 +36459,8 @@
           <t>5.00%</t>
         </is>
       </c>
-      <c r="H1123" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1123" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1124">
@@ -36971,96 +36487,98 @@
       </c>
       <c r="F1124" t="inlineStr"/>
       <c r="G1124" t="inlineStr"/>
-      <c r="H1124" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1124" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1125">
       <c r="A1125" t="inlineStr">
         <is>
-          <t>Friday January 17 2025</t>
-        </is>
-      </c>
-      <c r="B1125" t="inlineStr"/>
-      <c r="C1125" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B1125" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1125" t="inlineStr">
+        <is>
+          <t>Building Permits MoM PrelDEC</t>
+        </is>
+      </c>
       <c r="D1125" t="inlineStr"/>
-      <c r="E1125" t="inlineStr"/>
+      <c r="E1125" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="F1125" t="inlineStr"/>
-      <c r="G1125" t="inlineStr"/>
-      <c r="H1125" t="inlineStr"/>
+      <c r="G1125" t="inlineStr">
+        <is>
+          <t>-0.9%</t>
+        </is>
+      </c>
+      <c r="H1125" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1126">
       <c r="A1126" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1126" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1126" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Housing Starts MoMDEC</t>
         </is>
       </c>
       <c r="D1126" t="inlineStr"/>
       <c r="E1126" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F1126" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>-1.8%</t>
+        </is>
+      </c>
+      <c r="F1126" t="inlineStr"/>
       <c r="G1126" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H1126" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1127">
       <c r="A1127" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1127" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>IF</t>
         </is>
       </c>
       <c r="C1127" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>IMF/World Economic Outlook</t>
         </is>
       </c>
       <c r="D1127" t="inlineStr"/>
-      <c r="E1127" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F1127" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="G1127" t="inlineStr">
-        <is>
-          <t>2.1%</t>
-        </is>
-      </c>
+      <c r="E1127" t="inlineStr"/>
+      <c r="F1127" t="inlineStr"/>
+      <c r="G1127" t="inlineStr"/>
       <c r="H1127" t="inlineStr">
         <is>
           <t>2</t>
@@ -37070,71 +36588,71 @@
     <row r="1128">
       <c r="A1128" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1128" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1128" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel MoMDEC</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D1128" t="inlineStr"/>
       <c r="E1128" t="inlineStr">
         <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="F1128" t="inlineStr">
+        <is>
           <t>0.3%</t>
         </is>
       </c>
-      <c r="F1128" t="inlineStr">
+      <c r="G1128" t="inlineStr">
         <is>
           <t>0.1%</t>
         </is>
       </c>
-      <c r="G1128" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
       <c r="H1128" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1129">
       <c r="A1129" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1129" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1129" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel YoYDEC</t>
+          <t>Capacity UtilizationDEC</t>
         </is>
       </c>
       <c r="D1129" t="inlineStr"/>
       <c r="E1129" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>76.8%</t>
         </is>
       </c>
       <c r="F1129" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>76.9%</t>
         </is>
       </c>
       <c r="G1129" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>76.9%</t>
         </is>
       </c>
       <c r="H1129" t="inlineStr">
@@ -37146,29 +36664,29 @@
     <row r="1130">
       <c r="A1130" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1130" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1130" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D1130" t="inlineStr"/>
       <c r="E1130" t="inlineStr">
         <is>
-          <t>€32B</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="F1130" t="inlineStr"/>
       <c r="G1130" t="inlineStr">
         <is>
-          <t>€33.0B</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="H1130" t="inlineStr">
@@ -37180,31 +36698,35 @@
     <row r="1131">
       <c r="A1131" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1131" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1131" t="inlineStr">
         <is>
-          <t>Current Account s.aNOV</t>
+          <t>Manufacturing Production MoMDEC</t>
         </is>
       </c>
       <c r="D1131" t="inlineStr"/>
       <c r="E1131" t="inlineStr">
         <is>
-          <t>€33.5B</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1131" t="inlineStr">
         <is>
-          <t>€28B</t>
-        </is>
-      </c>
-      <c r="G1131" t="inlineStr"/>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="G1131" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H1131" t="inlineStr">
         <is>
           <t>3</t>
@@ -37214,107 +36736,91 @@
     <row r="1132">
       <c r="A1132" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1132" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1132" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Manufacturing Production YoYDEC</t>
         </is>
       </c>
       <c r="D1132" t="inlineStr"/>
       <c r="E1132" t="inlineStr">
         <is>
-          <t>€-3.93B</t>
+          <t>-1%</t>
         </is>
       </c>
       <c r="F1132" t="inlineStr"/>
       <c r="G1132" t="inlineStr">
         <is>
-          <t>€-4.2B</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="H1132" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1133">
       <c r="A1133" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1133" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1133" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>Baker Hughes Oil Rig CountJAN/17</t>
         </is>
       </c>
       <c r="D1133" t="inlineStr"/>
       <c r="E1133" t="inlineStr">
         <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="F1133" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="G1133" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
+          <t>480</t>
+        </is>
+      </c>
+      <c r="F1133" t="inlineStr"/>
+      <c r="G1133" t="inlineStr"/>
       <c r="H1133" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1134">
       <c r="A1134" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1134" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1134" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FinalDEC</t>
+          <t>Baker Hughes Total Rigs CountJAN/17</t>
         </is>
       </c>
       <c r="D1134" t="inlineStr"/>
       <c r="E1134" t="inlineStr">
         <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F1134" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="G1134" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+          <t>584</t>
+        </is>
+      </c>
+      <c r="F1134" t="inlineStr"/>
+      <c r="G1134" t="inlineStr"/>
       <c r="H1134" t="inlineStr">
         <is>
           <t>3</t>
@@ -37324,73 +36830,57 @@
     <row r="1135">
       <c r="A1135" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1135" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1135" t="inlineStr">
         <is>
-          <t>CPI FinalDEC</t>
+          <t>Net Long-term TIC FlowsNOV</t>
         </is>
       </c>
       <c r="D1135" t="inlineStr"/>
       <c r="E1135" t="inlineStr">
         <is>
-          <t>126.62</t>
-        </is>
-      </c>
-      <c r="F1135" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
-      <c r="G1135" t="inlineStr">
-        <is>
-          <t>127.08</t>
-        </is>
-      </c>
+          <t>$152.3B</t>
+        </is>
+      </c>
+      <c r="F1135" t="inlineStr"/>
+      <c r="G1135" t="inlineStr"/>
       <c r="H1135" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1136">
       <c r="A1136" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1136" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1136" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FinalDEC</t>
+          <t>Foreign Bond InvestmentNOV</t>
         </is>
       </c>
       <c r="D1136" t="inlineStr"/>
       <c r="E1136" t="inlineStr">
         <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F1136" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G1136" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>$92.1B</t>
+        </is>
+      </c>
+      <c r="F1136" t="inlineStr"/>
+      <c r="G1136" t="inlineStr"/>
       <c r="H1136" t="inlineStr">
         <is>
           <t>3</t>
@@ -37400,21 +36890,25 @@
     <row r="1137">
       <c r="A1137" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1137" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1137" t="inlineStr">
         <is>
-          <t>Bundesbank Nagel Speech</t>
+          <t>Overall Net Capital FlowsNOV</t>
         </is>
       </c>
       <c r="D1137" t="inlineStr"/>
-      <c r="E1137" t="inlineStr"/>
+      <c r="E1137" t="inlineStr">
+        <is>
+          <t>$203.6B</t>
+        </is>
+      </c>
       <c r="F1137" t="inlineStr"/>
       <c r="G1137" t="inlineStr"/>
       <c r="H1137" t="inlineStr">
@@ -37424,33 +36918,25 @@
       </c>
     </row>
     <row r="1138">
-      <c r="A1138" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
+      <c r="A1138" t="inlineStr"/>
       <c r="B1138" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1138" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>50-Year KTB Auction</t>
         </is>
       </c>
       <c r="D1138" t="inlineStr"/>
       <c r="E1138" t="inlineStr">
         <is>
-          <t>€5628M</t>
+          <t>2.40%</t>
         </is>
       </c>
       <c r="F1138" t="inlineStr"/>
-      <c r="G1138" t="inlineStr">
-        <is>
-          <t>€2900.0M</t>
-        </is>
-      </c>
+      <c r="G1138" t="inlineStr"/>
       <c r="H1138" t="inlineStr">
         <is>
           <t>3</t>
@@ -37460,169 +36946,165 @@
     <row r="1139">
       <c r="A1139" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1139" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C1139" t="inlineStr">
-        <is>
-          <t>ECB Cipollone Speech</t>
-        </is>
-      </c>
+          <t>Sunday January 19 2025</t>
+        </is>
+      </c>
+      <c r="B1139" t="inlineStr"/>
+      <c r="C1139" t="inlineStr"/>
       <c r="D1139" t="inlineStr"/>
       <c r="E1139" t="inlineStr"/>
       <c r="F1139" t="inlineStr"/>
       <c r="G1139" t="inlineStr"/>
-      <c r="H1139" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1139" t="inlineStr"/>
     </row>
     <row r="1140">
       <c r="A1140" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1140" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1140" t="inlineStr">
         <is>
-          <t>Bank Loan Growth YoYJAN/03</t>
+          <t>Machinery Orders MoMNOV</t>
         </is>
       </c>
       <c r="D1140" t="inlineStr"/>
       <c r="E1140" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>2.1%</t>
         </is>
       </c>
       <c r="F1140" t="inlineStr"/>
-      <c r="G1140" t="inlineStr"/>
+      <c r="G1140" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1140" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1141">
       <c r="A1141" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1141" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1141" t="inlineStr">
         <is>
-          <t>Deposit Growth YoYJAN/03</t>
+          <t>Machinery Orders YoYNOV</t>
         </is>
       </c>
       <c r="D1141" t="inlineStr"/>
       <c r="E1141" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>5.6%</t>
         </is>
       </c>
       <c r="F1141" t="inlineStr"/>
-      <c r="G1141" t="inlineStr"/>
+      <c r="G1141" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
       <c r="H1141" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1142">
       <c r="A1142" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1142" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1142" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/10</t>
+          <t>Loan Prime Rate 1Y</t>
         </is>
       </c>
       <c r="D1142" t="inlineStr"/>
       <c r="E1142" t="inlineStr">
         <is>
-          <t>$634.59B</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="F1142" t="inlineStr"/>
       <c r="G1142" t="inlineStr"/>
       <c r="H1142" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1143">
       <c r="A1143" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1143" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1143" t="inlineStr">
         <is>
-          <t>Foreign Securities PurchasesNOV</t>
+          <t>Loan Prime Rate 5YJAN</t>
         </is>
       </c>
       <c r="D1143" t="inlineStr"/>
       <c r="E1143" t="inlineStr">
         <is>
-          <t>C$21.55B</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="F1143" t="inlineStr"/>
       <c r="G1143" t="inlineStr"/>
       <c r="H1143" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1144">
       <c r="A1144" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1144" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1144" t="inlineStr">
         <is>
-          <t>Foreign Securities Purchases by CanadiansNOV</t>
+          <t>Capacity Utilization MoMNOV</t>
         </is>
       </c>
       <c r="D1144" t="inlineStr"/>
       <c r="E1144" t="inlineStr">
         <is>
-          <t>C$-2.65B</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F1144" t="inlineStr"/>
@@ -37636,203 +37118,167 @@
     <row r="1145">
       <c r="A1145" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1145" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1145" t="inlineStr">
         <is>
-          <t>Building Permits PrelDEC</t>
+          <t>Industrial Production MoM FinalNOV</t>
         </is>
       </c>
       <c r="D1145" t="inlineStr"/>
       <c r="E1145" t="inlineStr">
         <is>
-          <t>1.493M</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F1145" t="inlineStr">
         <is>
-          <t>1.46M</t>
+          <t>-2.3%</t>
         </is>
       </c>
       <c r="G1145" t="inlineStr">
         <is>
-          <t>1.48M</t>
+          <t>-2.3%</t>
         </is>
       </c>
       <c r="H1145" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1146">
       <c r="A1146" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1146" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1146" t="inlineStr">
         <is>
-          <t>Housing StartsDEC</t>
+          <t>Industrial Production YoY FinalNOV</t>
         </is>
       </c>
       <c r="D1146" t="inlineStr"/>
       <c r="E1146" t="inlineStr">
         <is>
-          <t>1.289M</t>
-        </is>
-      </c>
-      <c r="F1146" t="inlineStr">
-        <is>
-          <t>1.32M</t>
-        </is>
-      </c>
+          <t>1.4%</t>
+        </is>
+      </c>
+      <c r="F1146" t="inlineStr"/>
       <c r="G1146" t="inlineStr">
         <is>
-          <t>1.32M</t>
+          <t>-2.8%</t>
         </is>
       </c>
       <c r="H1146" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1147">
       <c r="A1147" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1147" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1147" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelDEC</t>
+          <t>Tertiary Industry Index MoMNOV</t>
         </is>
       </c>
       <c r="D1147" t="inlineStr"/>
       <c r="E1147" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F1147" t="inlineStr"/>
-      <c r="G1147" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
+      <c r="G1147" t="inlineStr"/>
       <c r="H1147" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1148">
-      <c r="A1148" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A1148" t="inlineStr"/>
       <c r="B1148" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1148" t="inlineStr">
         <is>
-          <t>Housing Starts MoMDEC</t>
+          <t>Eurogroup Meeting</t>
         </is>
       </c>
       <c r="D1148" t="inlineStr"/>
-      <c r="E1148" t="inlineStr">
-        <is>
-          <t>-1.8%</t>
-        </is>
-      </c>
+      <c r="E1148" t="inlineStr"/>
       <c r="F1148" t="inlineStr"/>
-      <c r="G1148" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
+      <c r="G1148" t="inlineStr"/>
       <c r="H1148" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1149">
       <c r="A1149" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1149" t="inlineStr">
-        <is>
-          <t>IF</t>
-        </is>
-      </c>
-      <c r="C1149" t="inlineStr">
-        <is>
-          <t>IMF/World Economic Outlook</t>
-        </is>
-      </c>
+          <t>Monday January 20 2025</t>
+        </is>
+      </c>
+      <c r="B1149" t="inlineStr"/>
+      <c r="C1149" t="inlineStr"/>
       <c r="D1149" t="inlineStr"/>
       <c r="E1149" t="inlineStr"/>
       <c r="F1149" t="inlineStr"/>
       <c r="G1149" t="inlineStr"/>
-      <c r="H1149" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="H1149" t="inlineStr"/>
     </row>
     <row r="1150">
       <c r="A1150" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1150" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1150" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1150" t="inlineStr"/>
       <c r="E1150" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F1150" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="F1150" t="inlineStr"/>
       <c r="G1150" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1150" t="inlineStr">
@@ -37844,33 +37290,29 @@
     <row r="1151">
       <c r="A1151" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1151" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1151" t="inlineStr">
         <is>
-          <t>Capacity UtilizationDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1151" t="inlineStr"/>
       <c r="E1151" t="inlineStr">
         <is>
-          <t>76.8%</t>
-        </is>
-      </c>
-      <c r="F1151" t="inlineStr">
-        <is>
-          <t>76.9%</t>
-        </is>
-      </c>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F1151" t="inlineStr"/>
       <c r="G1151" t="inlineStr">
         <is>
-          <t>76.9%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="H1151" t="inlineStr">
@@ -37882,29 +37324,29 @@
     <row r="1152">
       <c r="A1152" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>04:15 AM</t>
         </is>
       </c>
       <c r="B1152" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1152" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D1152" t="inlineStr"/>
       <c r="E1152" t="inlineStr">
         <is>
-          <t>-0.9%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="F1152" t="inlineStr"/>
       <c r="G1152" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1152" t="inlineStr">
@@ -37916,17 +37358,17 @@
     <row r="1153">
       <c r="A1153" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1153" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1153" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMDEC</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D1153" t="inlineStr"/>
@@ -37935,16 +37377,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="F1153" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1153" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="F1153" t="inlineStr"/>
+      <c r="G1153" t="inlineStr"/>
       <c r="H1153" t="inlineStr">
         <is>
           <t>3</t>
@@ -37954,31 +37388,23 @@
     <row r="1154">
       <c r="A1154" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1154" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1154" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYDEC</t>
+          <t>3-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D1154" t="inlineStr"/>
-      <c r="E1154" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
+      <c r="E1154" t="inlineStr"/>
       <c r="F1154" t="inlineStr"/>
-      <c r="G1154" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="G1154" t="inlineStr"/>
       <c r="H1154" t="inlineStr">
         <is>
           <t>3</t>
@@ -37988,25 +37414,21 @@
     <row r="1155">
       <c r="A1155" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1155" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1155" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/17</t>
+          <t>9-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D1155" t="inlineStr"/>
-      <c r="E1155" t="inlineStr">
-        <is>
-          <t>480</t>
-        </is>
-      </c>
+      <c r="E1155" t="inlineStr"/>
       <c r="F1155" t="inlineStr"/>
       <c r="G1155" t="inlineStr"/>
       <c r="H1155" t="inlineStr">
@@ -38018,23 +37440,23 @@
     <row r="1156">
       <c r="A1156" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1156" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1156" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/17</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D1156" t="inlineStr"/>
       <c r="E1156" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>$9.1B</t>
         </is>
       </c>
       <c r="F1156" t="inlineStr"/>
@@ -38048,53 +37470,57 @@
     <row r="1157">
       <c r="A1157" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1157" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1157" t="inlineStr">
         <is>
-          <t>Net Long-term TIC FlowsNOV</t>
+          <t>Current AccountQ4</t>
         </is>
       </c>
       <c r="D1157" t="inlineStr"/>
       <c r="E1157" t="inlineStr">
         <is>
-          <t>$152.3B</t>
+          <t>$9.1B</t>
         </is>
       </c>
       <c r="F1157" t="inlineStr"/>
-      <c r="G1157" t="inlineStr"/>
+      <c r="G1157" t="inlineStr">
+        <is>
+          <t>$ 10B</t>
+        </is>
+      </c>
       <c r="H1157" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1158">
       <c r="A1158" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1158" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1158" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentNOV</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1158" t="inlineStr"/>
       <c r="E1158" t="inlineStr">
         <is>
-          <t>$92.1B</t>
+          <t>2.489%</t>
         </is>
       </c>
       <c r="F1158" t="inlineStr"/>
@@ -38108,23 +37534,23 @@
     <row r="1159">
       <c r="A1159" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1159" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1159" t="inlineStr">
         <is>
-          <t>Overall Net Capital FlowsNOV</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1159" t="inlineStr"/>
       <c r="E1159" t="inlineStr">
         <is>
-          <t>$203.6B</t>
+          <t>2.691%</t>
         </is>
       </c>
       <c r="F1159" t="inlineStr"/>
@@ -38136,21 +37562,25 @@
       </c>
     </row>
     <row r="1160">
-      <c r="A1160" t="inlineStr"/>
+      <c r="A1160" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B1160" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1160" t="inlineStr">
         <is>
-          <t>50-Year KTB Auction</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1160" t="inlineStr"/>
       <c r="E1160" t="inlineStr">
         <is>
-          <t>2.40%</t>
+          <t>2.593%</t>
         </is>
       </c>
       <c r="F1160" t="inlineStr"/>
@@ -38164,169 +37594,189 @@
     <row r="1161">
       <c r="A1161" t="inlineStr">
         <is>
-          <t>Sunday January 19 2025</t>
-        </is>
-      </c>
-      <c r="B1161" t="inlineStr"/>
-      <c r="C1161" t="inlineStr"/>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B1161" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C1161" t="inlineStr">
+        <is>
+          <t>BoC Business Outlook Survey</t>
+        </is>
+      </c>
       <c r="D1161" t="inlineStr"/>
       <c r="E1161" t="inlineStr"/>
       <c r="F1161" t="inlineStr"/>
       <c r="G1161" t="inlineStr"/>
-      <c r="H1161" t="inlineStr"/>
+      <c r="H1161" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1162">
       <c r="A1162" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1162" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1162" t="inlineStr">
         <is>
-          <t>Machinery Orders MoMNOV</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1162" t="inlineStr"/>
       <c r="E1162" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="F1162" t="inlineStr"/>
       <c r="G1162" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="H1162" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1163">
       <c r="A1163" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1163" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1163" t="inlineStr">
         <is>
-          <t>Machinery Orders YoYNOV</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1163" t="inlineStr"/>
       <c r="E1163" t="inlineStr">
         <is>
-          <t>5.6%</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="F1163" t="inlineStr"/>
       <c r="G1163" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>4.4%</t>
         </is>
       </c>
       <c r="H1163" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1164">
       <c r="A1164" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1164" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1164" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 1Y</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D1164" t="inlineStr"/>
       <c r="E1164" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>$1234M</t>
         </is>
       </c>
       <c r="F1164" t="inlineStr"/>
-      <c r="G1164" t="inlineStr"/>
+      <c r="G1164" t="inlineStr">
+        <is>
+          <t>$ 1463M</t>
+        </is>
+      </c>
       <c r="H1164" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1165">
       <c r="A1165" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1165" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1165" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 5YJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1165" t="inlineStr"/>
-      <c r="E1165" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
+      <c r="E1165" t="inlineStr"/>
       <c r="F1165" t="inlineStr"/>
-      <c r="G1165" t="inlineStr"/>
+      <c r="G1165" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1165" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1166">
       <c r="A1166" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1166" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1166" t="inlineStr">
         <is>
-          <t>Capacity Utilization MoMNOV</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1166" t="inlineStr"/>
       <c r="E1166" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F1166" t="inlineStr"/>
-      <c r="G1166" t="inlineStr"/>
+      <c r="G1166" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
       <c r="H1166" t="inlineStr">
         <is>
           <t>3</t>
@@ -38336,7 +37786,7 @@
     <row r="1167">
       <c r="A1167" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B1167" t="inlineStr">
@@ -38346,25 +37796,17 @@
       </c>
       <c r="C1167" t="inlineStr">
         <is>
-          <t>Industrial Production MoM FinalNOV</t>
+          <t>40-Year JGB Auction</t>
         </is>
       </c>
       <c r="D1167" t="inlineStr"/>
       <c r="E1167" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F1167" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
-      <c r="G1167" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
+          <t>2.550%</t>
+        </is>
+      </c>
+      <c r="F1167" t="inlineStr"/>
+      <c r="G1167" t="inlineStr"/>
       <c r="H1167" t="inlineStr">
         <is>
           <t>3</t>
@@ -38372,33 +37814,25 @@
       </c>
     </row>
     <row r="1168">
-      <c r="A1168" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
+      <c r="A1168" t="inlineStr"/>
       <c r="B1168" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1168" t="inlineStr">
         <is>
-          <t>Industrial Production YoY FinalNOV</t>
+          <t>10-Year KTB Auction</t>
         </is>
       </c>
       <c r="D1168" t="inlineStr"/>
       <c r="E1168" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>2.665%</t>
         </is>
       </c>
       <c r="F1168" t="inlineStr"/>
-      <c r="G1168" t="inlineStr">
-        <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
+      <c r="G1168" t="inlineStr"/>
       <c r="H1168" t="inlineStr">
         <is>
           <t>3</t>
@@ -38406,25 +37840,21 @@
       </c>
     </row>
     <row r="1169">
-      <c r="A1169" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
+      <c r="A1169" t="inlineStr"/>
       <c r="B1169" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1169" t="inlineStr">
         <is>
-          <t>Tertiary Industry Index MoMNOV</t>
+          <t>FDI (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D1169" t="inlineStr"/>
       <c r="E1169" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>-27.9%</t>
         </is>
       </c>
       <c r="F1169" t="inlineStr"/>
@@ -38439,18 +37869,26 @@
       <c r="A1170" t="inlineStr"/>
       <c r="B1170" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1170" t="inlineStr">
         <is>
-          <t>Eurogroup Meeting</t>
+          <t>Consumer ConfidenceDEC</t>
         </is>
       </c>
       <c r="D1170" t="inlineStr"/>
-      <c r="E1170" t="inlineStr"/>
+      <c r="E1170" t="inlineStr">
+        <is>
+          <t>80.6</t>
+        </is>
+      </c>
       <c r="F1170" t="inlineStr"/>
-      <c r="G1170" t="inlineStr"/>
+      <c r="G1170" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
       <c r="H1170" t="inlineStr">
         <is>
           <t>3</t>
@@ -38458,81 +37896,81 @@
       </c>
     </row>
     <row r="1171">
-      <c r="A1171" t="inlineStr">
-        <is>
-          <t>Monday January 20 2025</t>
-        </is>
-      </c>
-      <c r="B1171" t="inlineStr"/>
-      <c r="C1171" t="inlineStr"/>
+      <c r="A1171" t="inlineStr"/>
+      <c r="B1171" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C1171" t="inlineStr">
+        <is>
+          <t>Leading Indicator MoMDEC</t>
+        </is>
+      </c>
       <c r="D1171" t="inlineStr"/>
-      <c r="E1171" t="inlineStr"/>
+      <c r="E1171" t="inlineStr">
+        <is>
+          <t>1.44%</t>
+        </is>
+      </c>
       <c r="F1171" t="inlineStr"/>
-      <c r="G1171" t="inlineStr"/>
-      <c r="H1171" t="inlineStr"/>
+      <c r="G1171" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
+      <c r="H1171" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1172">
-      <c r="A1172" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
+      <c r="A1172" t="inlineStr"/>
       <c r="B1172" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1172" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Central Government DebtDEC</t>
         </is>
       </c>
       <c r="D1172" t="inlineStr"/>
       <c r="E1172" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>TRY9.005T</t>
         </is>
       </c>
       <c r="F1172" t="inlineStr"/>
       <c r="G1172" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>TRY 9.0T</t>
         </is>
       </c>
       <c r="H1172" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1173">
-      <c r="A1173" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
+      <c r="A1173" t="inlineStr"/>
       <c r="B1173" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1173" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>ECOFIN Meeting</t>
         </is>
       </c>
       <c r="D1173" t="inlineStr"/>
-      <c r="E1173" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="E1173" t="inlineStr"/>
       <c r="F1173" t="inlineStr"/>
-      <c r="G1173" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
+      <c r="G1173" t="inlineStr"/>
       <c r="H1173" t="inlineStr">
         <is>
           <t>3</t>
@@ -38542,59 +37980,35 @@
     <row r="1174">
       <c r="A1174" t="inlineStr">
         <is>
-          <t>04:15 AM</t>
-        </is>
-      </c>
-      <c r="B1174" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1174" t="inlineStr">
-        <is>
-          <t>Construction Output YoYNOV</t>
-        </is>
-      </c>
+          <t>Tuesday January 21 2025</t>
+        </is>
+      </c>
+      <c r="B1174" t="inlineStr"/>
+      <c r="C1174" t="inlineStr"/>
       <c r="D1174" t="inlineStr"/>
-      <c r="E1174" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
+      <c r="E1174" t="inlineStr"/>
       <c r="F1174" t="inlineStr"/>
-      <c r="G1174" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="H1174" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1174" t="inlineStr"/>
+      <c r="H1174" t="inlineStr"/>
     </row>
     <row r="1175">
       <c r="A1175" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1175" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1175" t="inlineStr">
         <is>
-          <t>Construction Output YoYNOV</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1175" t="inlineStr"/>
-      <c r="E1175" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1175" t="inlineStr"/>
       <c r="F1175" t="inlineStr"/>
       <c r="G1175" t="inlineStr"/>
       <c r="H1175" t="inlineStr">
@@ -38606,17 +38020,17 @@
     <row r="1176">
       <c r="A1176" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1176" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1176" t="inlineStr">
         <is>
-          <t>3-Month Bubill Auction</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1176" t="inlineStr"/>
@@ -38632,147 +38046,159 @@
     <row r="1177">
       <c r="A1177" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1177" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1177" t="inlineStr">
         <is>
-          <t>9-Month Bubill Auction</t>
+          <t>New Car Registrations YoYDEC</t>
         </is>
       </c>
       <c r="D1177" t="inlineStr"/>
-      <c r="E1177" t="inlineStr"/>
+      <c r="E1177" t="inlineStr">
+        <is>
+          <t>-1.9%</t>
+        </is>
+      </c>
       <c r="F1177" t="inlineStr"/>
       <c r="G1177" t="inlineStr"/>
       <c r="H1177" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1178">
       <c r="A1178" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1178" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1178" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Unemployment RateNOV</t>
         </is>
       </c>
       <c r="D1178" t="inlineStr"/>
       <c r="E1178" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F1178" t="inlineStr"/>
-      <c r="G1178" t="inlineStr"/>
+      <c r="G1178" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="H1178" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1179">
       <c r="A1179" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1179" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1179" t="inlineStr">
         <is>
-          <t>Current AccountQ4</t>
+          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D1179" t="inlineStr"/>
       <c r="E1179" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F1179" t="inlineStr"/>
       <c r="G1179" t="inlineStr">
         <is>
-          <t>$ 10B</t>
+          <t>4.9%</t>
         </is>
       </c>
       <c r="H1179" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1180">
       <c r="A1180" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1180" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1180" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>Employment ChangeNOV</t>
         </is>
       </c>
       <c r="D1180" t="inlineStr"/>
       <c r="E1180" t="inlineStr">
         <is>
-          <t>2.489%</t>
+          <t>173K</t>
         </is>
       </c>
       <c r="F1180" t="inlineStr"/>
       <c r="G1180" t="inlineStr"/>
       <c r="H1180" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1181">
       <c r="A1181" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1181" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1181" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D1181" t="inlineStr"/>
       <c r="E1181" t="inlineStr">
         <is>
-          <t>2.691%</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F1181" t="inlineStr"/>
-      <c r="G1181" t="inlineStr"/>
+      <c r="G1181" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
       <c r="H1181" t="inlineStr">
         <is>
           <t>3</t>
@@ -38782,27 +38208,31 @@
     <row r="1182">
       <c r="A1182" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1182" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1182" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>Claimant Count ChangeDEC</t>
         </is>
       </c>
       <c r="D1182" t="inlineStr"/>
       <c r="E1182" t="inlineStr">
         <is>
-          <t>2.593%</t>
+          <t>0.3K</t>
         </is>
       </c>
       <c r="F1182" t="inlineStr"/>
-      <c r="G1182" t="inlineStr"/>
+      <c r="G1182" t="inlineStr">
+        <is>
+          <t>-5K</t>
+        </is>
+      </c>
       <c r="H1182" t="inlineStr">
         <is>
           <t>3</t>
@@ -38812,57 +38242,61 @@
     <row r="1183">
       <c r="A1183" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1183" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1183" t="inlineStr">
         <is>
-          <t>BoC Business Outlook Survey</t>
+          <t>HMRC Payrolls ChangeDEC</t>
         </is>
       </c>
       <c r="D1183" t="inlineStr"/>
-      <c r="E1183" t="inlineStr"/>
+      <c r="E1183" t="inlineStr">
+        <is>
+          <t>-35K</t>
+        </is>
+      </c>
       <c r="F1183" t="inlineStr"/>
-      <c r="G1183" t="inlineStr"/>
+      <c r="G1183" t="inlineStr">
+        <is>
+          <t>20K</t>
+        </is>
+      </c>
       <c r="H1183" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1184">
       <c r="A1184" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1184" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1184" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Gold Production YoYNOV</t>
         </is>
       </c>
       <c r="D1184" t="inlineStr"/>
       <c r="E1184" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>-3.4%</t>
         </is>
       </c>
       <c r="F1184" t="inlineStr"/>
-      <c r="G1184" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G1184" t="inlineStr"/>
       <c r="H1184" t="inlineStr">
         <is>
           <t>3</t>
@@ -38872,31 +38306,27 @@
     <row r="1185">
       <c r="A1185" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1185" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1185" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Mining Production MoMNOV</t>
         </is>
       </c>
       <c r="D1185" t="inlineStr"/>
       <c r="E1185" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F1185" t="inlineStr"/>
-      <c r="G1185" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
+      <c r="G1185" t="inlineStr"/>
       <c r="H1185" t="inlineStr">
         <is>
           <t>3</t>
@@ -38906,31 +38336,27 @@
     <row r="1186">
       <c r="A1186" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1186" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1186" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Mining Production YoYNOV</t>
         </is>
       </c>
       <c r="D1186" t="inlineStr"/>
       <c r="E1186" t="inlineStr">
         <is>
-          <t>$1234M</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F1186" t="inlineStr"/>
-      <c r="G1186" t="inlineStr">
-        <is>
-          <t>$ 1463M</t>
-        </is>
-      </c>
+      <c r="G1186" t="inlineStr"/>
       <c r="H1186" t="inlineStr">
         <is>
           <t>3</t>
@@ -38940,87 +38366,83 @@
     <row r="1187">
       <c r="A1187" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1187" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1187" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D1187" t="inlineStr"/>
-      <c r="E1187" t="inlineStr"/>
+      <c r="E1187" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
       <c r="F1187" t="inlineStr"/>
-      <c r="G1187" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G1187" t="inlineStr"/>
       <c r="H1187" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1188">
       <c r="A1188" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1188" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1188" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>ZEW Economic Sentiment IndexJAN</t>
         </is>
       </c>
       <c r="D1188" t="inlineStr"/>
       <c r="E1188" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>15.7</t>
         </is>
       </c>
       <c r="F1188" t="inlineStr"/>
-      <c r="G1188" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="G1188" t="inlineStr"/>
       <c r="H1188" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1189">
       <c r="A1189" t="inlineStr">
         <is>
-          <t>10:35 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1189" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1189" t="inlineStr">
         <is>
-          <t>40-Year JGB Auction</t>
+          <t>ZEW Current ConditionsJAN</t>
         </is>
       </c>
       <c r="D1189" t="inlineStr"/>
       <c r="E1189" t="inlineStr">
         <is>
-          <t>2.550%</t>
+          <t>-93.1</t>
         </is>
       </c>
       <c r="F1189" t="inlineStr"/>
@@ -39032,23 +38454,23 @@
       </c>
     </row>
     <row r="1190">
-      <c r="A1190" t="inlineStr"/>
+      <c r="A1190" t="inlineStr">
+        <is>
+          <t>05:30 AM</t>
+        </is>
+      </c>
       <c r="B1190" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1190" t="inlineStr">
         <is>
-          <t>10-Year KTB Auction</t>
+          <t>Bund/g Auction</t>
         </is>
       </c>
       <c r="D1190" t="inlineStr"/>
-      <c r="E1190" t="inlineStr">
-        <is>
-          <t>2.665%</t>
-        </is>
-      </c>
+      <c r="E1190" t="inlineStr"/>
       <c r="F1190" t="inlineStr"/>
       <c r="G1190" t="inlineStr"/>
       <c r="H1190" t="inlineStr">
@@ -39058,21 +38480,25 @@
       </c>
     </row>
     <row r="1191">
-      <c r="A1191" t="inlineStr"/>
+      <c r="A1191" t="inlineStr">
+        <is>
+          <t>07:00 AM</t>
+        </is>
+      </c>
       <c r="B1191" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1191" t="inlineStr">
         <is>
-          <t>FDI (YTD) YoYDEC</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D1191" t="inlineStr"/>
       <c r="E1191" t="inlineStr">
         <is>
-          <t>-27.9%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F1191" t="inlineStr"/>
@@ -39084,29 +38510,29 @@
       </c>
     </row>
     <row r="1192">
-      <c r="A1192" t="inlineStr"/>
+      <c r="A1192" t="inlineStr">
+        <is>
+          <t>07:00 AM</t>
+        </is>
+      </c>
       <c r="B1192" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1192" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceDEC</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1192" t="inlineStr"/>
       <c r="E1192" t="inlineStr">
         <is>
-          <t>80.6</t>
+          <t>-1.2%</t>
         </is>
       </c>
       <c r="F1192" t="inlineStr"/>
-      <c r="G1192" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
+      <c r="G1192" t="inlineStr"/>
       <c r="H1192" t="inlineStr">
         <is>
           <t>3</t>
@@ -39114,121 +38540,165 @@
       </c>
     </row>
     <row r="1193">
-      <c r="A1193" t="inlineStr"/>
+      <c r="A1193" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B1193" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1193" t="inlineStr">
         <is>
-          <t>Leading Indicator MoMDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1193" t="inlineStr"/>
       <c r="E1193" t="inlineStr">
         <is>
-          <t>1.44%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="F1193" t="inlineStr"/>
       <c r="G1193" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="H1193" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1194">
-      <c r="A1194" t="inlineStr"/>
+      <c r="A1194" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B1194" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1194" t="inlineStr">
         <is>
-          <t>Central Government DebtDEC</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1194" t="inlineStr"/>
       <c r="E1194" t="inlineStr">
         <is>
-          <t>TRY9.005T</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F1194" t="inlineStr"/>
       <c r="G1194" t="inlineStr">
         <is>
-          <t>TRY 9.0T</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="H1194" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1195">
-      <c r="A1195" t="inlineStr"/>
+      <c r="A1195" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B1195" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1195" t="inlineStr">
         <is>
-          <t>ECOFIN Meeting</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1195" t="inlineStr"/>
-      <c r="E1195" t="inlineStr"/>
+      <c r="E1195" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="F1195" t="inlineStr"/>
-      <c r="G1195" t="inlineStr"/>
+      <c r="G1195" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1195" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1196">
       <c r="A1196" t="inlineStr">
         <is>
-          <t>Tuesday January 21 2025</t>
-        </is>
-      </c>
-      <c r="B1196" t="inlineStr"/>
-      <c r="C1196" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B1196" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C1196" t="inlineStr">
+        <is>
+          <t>Core Inflation Rate MoMDEC</t>
+        </is>
+      </c>
       <c r="D1196" t="inlineStr"/>
       <c r="E1196" t="inlineStr"/>
       <c r="F1196" t="inlineStr"/>
-      <c r="G1196" t="inlineStr"/>
-      <c r="H1196" t="inlineStr"/>
+      <c r="G1196" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="H1196" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1197">
       <c r="A1197" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1197" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1197" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>CPI Median YoYDEC</t>
         </is>
       </c>
       <c r="D1197" t="inlineStr"/>
-      <c r="E1197" t="inlineStr"/>
+      <c r="E1197" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="F1197" t="inlineStr"/>
-      <c r="G1197" t="inlineStr"/>
+      <c r="G1197" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
       <c r="H1197" t="inlineStr">
         <is>
           <t>3</t>
@@ -39238,23 +38708,31 @@
     <row r="1198">
       <c r="A1198" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1198" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1198" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>CPI Trimmed-Mean YoYDEC</t>
         </is>
       </c>
       <c r="D1198" t="inlineStr"/>
-      <c r="E1198" t="inlineStr"/>
+      <c r="E1198" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="F1198" t="inlineStr"/>
-      <c r="G1198" t="inlineStr"/>
+      <c r="G1198" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H1198" t="inlineStr">
         <is>
           <t>3</t>
@@ -39264,198 +38742,162 @@
     <row r="1199">
       <c r="A1199" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:55 AM</t>
         </is>
       </c>
       <c r="B1199" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1199" t="inlineStr">
         <is>
-          <t>New Car Registrations YoYDEC</t>
+          <t>Redbook YoYJAN/18</t>
         </is>
       </c>
       <c r="D1199" t="inlineStr"/>
-      <c r="E1199" t="inlineStr">
-        <is>
-          <t>-1.9%</t>
-        </is>
-      </c>
+      <c r="E1199" t="inlineStr"/>
       <c r="F1199" t="inlineStr"/>
       <c r="G1199" t="inlineStr"/>
       <c r="H1199" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1200">
       <c r="A1200" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1200" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1200" t="inlineStr">
         <is>
-          <t>Unemployment RateNOV</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1200" t="inlineStr"/>
       <c r="E1200" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>4.225%</t>
         </is>
       </c>
       <c r="F1200" t="inlineStr"/>
-      <c r="G1200" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="G1200" t="inlineStr"/>
       <c r="H1200" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1201">
       <c r="A1201" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1201" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1201" t="inlineStr">
         <is>
-          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
+          <t>52-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1201" t="inlineStr"/>
-      <c r="E1201" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="E1201" t="inlineStr"/>
       <c r="F1201" t="inlineStr"/>
-      <c r="G1201" t="inlineStr">
-        <is>
-          <t>4.9%</t>
-        </is>
-      </c>
+      <c r="G1201" t="inlineStr"/>
       <c r="H1201" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1202">
       <c r="A1202" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1202" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1202" t="inlineStr">
         <is>
-          <t>Employment ChangeNOV</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1202" t="inlineStr"/>
       <c r="E1202" t="inlineStr">
         <is>
-          <t>173K</t>
+          <t>4.180%</t>
         </is>
       </c>
       <c r="F1202" t="inlineStr"/>
       <c r="G1202" t="inlineStr"/>
       <c r="H1202" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1203">
       <c r="A1203" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1203" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1203" t="inlineStr">
         <is>
-          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1203" t="inlineStr"/>
       <c r="E1203" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>88.4</t>
         </is>
       </c>
       <c r="F1203" t="inlineStr"/>
       <c r="G1203" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H1203" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1204">
       <c r="A1204" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1204" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C1204" t="inlineStr">
-        <is>
-          <t>Claimant Count ChangeDEC</t>
-        </is>
-      </c>
+          <t>Wednesday January 22 2025</t>
+        </is>
+      </c>
+      <c r="B1204" t="inlineStr"/>
+      <c r="C1204" t="inlineStr"/>
       <c r="D1204" t="inlineStr"/>
-      <c r="E1204" t="inlineStr">
-        <is>
-          <t>0.3K</t>
-        </is>
-      </c>
+      <c r="E1204" t="inlineStr"/>
       <c r="F1204" t="inlineStr"/>
-      <c r="G1204" t="inlineStr">
-        <is>
-          <t>-5K</t>
-        </is>
-      </c>
-      <c r="H1204" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1204" t="inlineStr"/>
+      <c r="H1204" t="inlineStr"/>
     </row>
     <row r="1205">
       <c r="A1205" t="inlineStr">
@@ -39470,19 +38912,19 @@
       </c>
       <c r="C1205" t="inlineStr">
         <is>
-          <t>HMRC Payrolls ChangeDEC</t>
+          <t>Public Sector Net Borrowing Ex BanksDEC</t>
         </is>
       </c>
       <c r="D1205" t="inlineStr"/>
       <c r="E1205" t="inlineStr">
         <is>
-          <t>-35K</t>
+          <t>£-11.25B</t>
         </is>
       </c>
       <c r="F1205" t="inlineStr"/>
       <c r="G1205" t="inlineStr">
         <is>
-          <t>20K</t>
+          <t>£ -11.3B</t>
         </is>
       </c>
       <c r="H1205" t="inlineStr">
@@ -39494,7 +38936,7 @@
     <row r="1206">
       <c r="A1206" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1206" t="inlineStr">
@@ -39504,27 +38946,31 @@
       </c>
       <c r="C1206" t="inlineStr">
         <is>
-          <t>Gold Production YoYNOV</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1206" t="inlineStr"/>
       <c r="E1206" t="inlineStr">
         <is>
-          <t>-3.4%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F1206" t="inlineStr"/>
-      <c r="G1206" t="inlineStr"/>
+      <c r="G1206" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H1206" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1207">
       <c r="A1207" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1207" t="inlineStr">
@@ -39534,27 +38980,31 @@
       </c>
       <c r="C1207" t="inlineStr">
         <is>
-          <t>Mining Production MoMNOV</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1207" t="inlineStr"/>
       <c r="E1207" t="inlineStr">
         <is>
-          <t>-3%</t>
+          <t>2.9%</t>
         </is>
       </c>
       <c r="F1207" t="inlineStr"/>
-      <c r="G1207" t="inlineStr"/>
+      <c r="G1207" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
       <c r="H1207" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1208">
       <c r="A1208" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1208" t="inlineStr">
@@ -39564,17 +39014,21 @@
       </c>
       <c r="C1208" t="inlineStr">
         <is>
-          <t>Mining Production YoYNOV</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1208" t="inlineStr"/>
       <c r="E1208" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F1208" t="inlineStr"/>
-      <c r="G1208" t="inlineStr"/>
+      <c r="G1208" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1208" t="inlineStr">
         <is>
           <t>3</t>
@@ -39584,37 +39038,41 @@
     <row r="1209">
       <c r="A1209" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1209" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1209" t="inlineStr">
         <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1209" t="inlineStr"/>
       <c r="E1209" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="F1209" t="inlineStr"/>
-      <c r="G1209" t="inlineStr"/>
+      <c r="G1209" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="H1209" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1210">
       <c r="A1210" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1210" t="inlineStr">
@@ -39624,47 +39082,47 @@
       </c>
       <c r="C1210" t="inlineStr">
         <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
+          <t>15-Year Bund Auction</t>
         </is>
       </c>
       <c r="D1210" t="inlineStr"/>
-      <c r="E1210" t="inlineStr">
-        <is>
-          <t>15.7</t>
-        </is>
-      </c>
+      <c r="E1210" t="inlineStr"/>
       <c r="F1210" t="inlineStr"/>
       <c r="G1210" t="inlineStr"/>
       <c r="H1210" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1211">
       <c r="A1211" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1211" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1211" t="inlineStr">
         <is>
-          <t>ZEW Current ConditionsJAN</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D1211" t="inlineStr"/>
       <c r="E1211" t="inlineStr">
         <is>
-          <t>-93.1</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F1211" t="inlineStr"/>
-      <c r="G1211" t="inlineStr"/>
+      <c r="G1211" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H1211" t="inlineStr">
         <is>
           <t>3</t>
@@ -39674,21 +39132,25 @@
     <row r="1212">
       <c r="A1212" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1212" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1212" t="inlineStr">
         <is>
-          <t>Bund/g Auction</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1212" t="inlineStr"/>
-      <c r="E1212" t="inlineStr"/>
+      <c r="E1212" t="inlineStr">
+        <is>
+          <t>6.3%</t>
+        </is>
+      </c>
       <c r="F1212" t="inlineStr"/>
       <c r="G1212" t="inlineStr"/>
       <c r="H1212" t="inlineStr">
@@ -39700,25 +39162,21 @@
     <row r="1213">
       <c r="A1213" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>06:10 AM</t>
         </is>
       </c>
       <c r="B1213" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1213" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1213" t="inlineStr"/>
-      <c r="E1213" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
+      <c r="E1213" t="inlineStr"/>
       <c r="F1213" t="inlineStr"/>
       <c r="G1213" t="inlineStr"/>
       <c r="H1213" t="inlineStr">
@@ -39730,25 +39188,21 @@
     <row r="1214">
       <c r="A1214" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>06:10 AM</t>
         </is>
       </c>
       <c r="B1214" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1214" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1214" t="inlineStr"/>
-      <c r="E1214" t="inlineStr">
-        <is>
-          <t>-1.2%</t>
-        </is>
-      </c>
+      <c r="E1214" t="inlineStr"/>
       <c r="F1214" t="inlineStr"/>
       <c r="G1214" t="inlineStr"/>
       <c r="H1214" t="inlineStr">
@@ -39760,65 +39214,53 @@
     <row r="1215">
       <c r="A1215" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1215" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1215" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>M3 Money Supply YoYJAN/10</t>
         </is>
       </c>
       <c r="D1215" t="inlineStr"/>
       <c r="E1215" t="inlineStr">
         <is>
-          <t>1,9%</t>
+          <t>9.3%</t>
         </is>
       </c>
       <c r="F1215" t="inlineStr"/>
-      <c r="G1215" t="inlineStr">
-        <is>
-          <t>1.8%</t>
-        </is>
-      </c>
+      <c r="G1215" t="inlineStr"/>
       <c r="H1215" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1216">
       <c r="A1216" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1216" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1216" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>MBA 30-Year Mortgage RateJAN/17</t>
         </is>
       </c>
       <c r="D1216" t="inlineStr"/>
-      <c r="E1216" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+      <c r="E1216" t="inlineStr"/>
       <c r="F1216" t="inlineStr"/>
-      <c r="G1216" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
+      <c r="G1216" t="inlineStr"/>
       <c r="H1216" t="inlineStr">
         <is>
           <t>2</t>
@@ -39828,61 +39270,49 @@
     <row r="1217">
       <c r="A1217" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1217" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1217" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>MBA Mortgage ApplicationsJAN/17</t>
         </is>
       </c>
       <c r="D1217" t="inlineStr"/>
-      <c r="E1217" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+      <c r="E1217" t="inlineStr"/>
       <c r="F1217" t="inlineStr"/>
-      <c r="G1217" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1217" t="inlineStr"/>
       <c r="H1217" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1218">
       <c r="A1218" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1218" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1218" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMDEC</t>
+          <t>MBA Mortgage Market IndexJAN/17</t>
         </is>
       </c>
       <c r="D1218" t="inlineStr"/>
       <c r="E1218" t="inlineStr"/>
       <c r="F1218" t="inlineStr"/>
-      <c r="G1218" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1218" t="inlineStr"/>
       <c r="H1218" t="inlineStr">
         <is>
           <t>3</t>
@@ -39892,31 +39322,23 @@
     <row r="1219">
       <c r="A1219" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1219" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1219" t="inlineStr">
         <is>
-          <t>CPI Median YoYDEC</t>
+          <t>MBA Mortgage Refinance IndexJAN/17</t>
         </is>
       </c>
       <c r="D1219" t="inlineStr"/>
-      <c r="E1219" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+      <c r="E1219" t="inlineStr"/>
       <c r="F1219" t="inlineStr"/>
-      <c r="G1219" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="G1219" t="inlineStr"/>
       <c r="H1219" t="inlineStr">
         <is>
           <t>3</t>
@@ -39926,31 +39348,23 @@
     <row r="1220">
       <c r="A1220" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1220" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1220" t="inlineStr">
         <is>
-          <t>CPI Trimmed-Mean YoYDEC</t>
+          <t>MBA Purchase IndexJAN/17</t>
         </is>
       </c>
       <c r="D1220" t="inlineStr"/>
-      <c r="E1220" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="E1220" t="inlineStr"/>
       <c r="F1220" t="inlineStr"/>
-      <c r="G1220" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+      <c r="G1220" t="inlineStr"/>
       <c r="H1220" t="inlineStr">
         <is>
           <t>3</t>
@@ -39960,23 +39374,31 @@
     <row r="1221">
       <c r="A1221" t="inlineStr">
         <is>
-          <t>08:55 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1221" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1221" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/18</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1221" t="inlineStr"/>
-      <c r="E1221" t="inlineStr"/>
+      <c r="E1221" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="F1221" t="inlineStr"/>
-      <c r="G1221" t="inlineStr"/>
+      <c r="G1221" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1221" t="inlineStr">
         <is>
           <t>3</t>
@@ -39986,27 +39408,31 @@
     <row r="1222">
       <c r="A1222" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1222" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1222" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Raw Materials Prices MoMDEC</t>
         </is>
       </c>
       <c r="D1222" t="inlineStr"/>
       <c r="E1222" t="inlineStr">
         <is>
-          <t>4.225%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="F1222" t="inlineStr"/>
-      <c r="G1222" t="inlineStr"/>
+      <c r="G1222" t="inlineStr">
+        <is>
+          <t>1.0%</t>
+        </is>
+      </c>
       <c r="H1222" t="inlineStr">
         <is>
           <t>3</t>
@@ -40016,23 +39442,31 @@
     <row r="1223">
       <c r="A1223" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1223" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1223" t="inlineStr">
         <is>
-          <t>52-Week Bill Auction</t>
+          <t>Raw Materials Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1223" t="inlineStr"/>
-      <c r="E1223" t="inlineStr"/>
+      <c r="E1223" t="inlineStr">
+        <is>
+          <t>2%</t>
+        </is>
+      </c>
       <c r="F1223" t="inlineStr"/>
-      <c r="G1223" t="inlineStr"/>
+      <c r="G1223" t="inlineStr">
+        <is>
+          <t>-2.8%</t>
+        </is>
+      </c>
       <c r="H1223" t="inlineStr">
         <is>
           <t>3</t>
@@ -40042,7 +39476,7 @@
     <row r="1224">
       <c r="A1224" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1224" t="inlineStr">
@@ -40052,13 +39486,13 @@
       </c>
       <c r="C1224" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>CB Leading Index MoMDEC</t>
         </is>
       </c>
       <c r="D1224" t="inlineStr"/>
       <c r="E1224" t="inlineStr">
         <is>
-          <t>4.180%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F1224" t="inlineStr"/>
@@ -40072,77 +39506,81 @@
     <row r="1225">
       <c r="A1225" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1225" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1225" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1225" t="inlineStr"/>
-      <c r="E1225" t="inlineStr">
-        <is>
-          <t>88.4</t>
-        </is>
-      </c>
+      <c r="E1225" t="inlineStr"/>
       <c r="F1225" t="inlineStr"/>
-      <c r="G1225" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
+      <c r="G1225" t="inlineStr"/>
       <c r="H1225" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1226">
       <c r="A1226" t="inlineStr">
         <is>
-          <t>Wednesday January 22 2025</t>
-        </is>
-      </c>
-      <c r="B1226" t="inlineStr"/>
-      <c r="C1226" t="inlineStr"/>
+          <t>01:00 PM</t>
+        </is>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>20-Year Bond Auction</t>
+        </is>
+      </c>
       <c r="D1226" t="inlineStr"/>
       <c r="E1226" t="inlineStr"/>
       <c r="F1226" t="inlineStr"/>
       <c r="G1226" t="inlineStr"/>
-      <c r="H1226" t="inlineStr"/>
+      <c r="H1226" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1227">
       <c r="A1227" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1227" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1227" t="inlineStr">
         <is>
-          <t>Public Sector Net Borrowing Ex BanksDEC</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1227" t="inlineStr"/>
       <c r="E1227" t="inlineStr">
         <is>
-          <t>£-11.25B</t>
+          <t>127.1%</t>
         </is>
       </c>
       <c r="F1227" t="inlineStr"/>
       <c r="G1227" t="inlineStr">
         <is>
-          <t>£ -11.3B</t>
+          <t>115.0%</t>
         </is>
       </c>
       <c r="H1227" t="inlineStr">
@@ -40154,29 +39592,25 @@
     <row r="1228">
       <c r="A1228" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1228" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1228" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1228" t="inlineStr"/>
-      <c r="E1228" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+      <c r="E1228" t="inlineStr"/>
       <c r="F1228" t="inlineStr"/>
       <c r="G1228" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>60</t>
         </is>
       </c>
       <c r="H1228" t="inlineStr">
@@ -40188,31 +39622,23 @@
     <row r="1229">
       <c r="A1229" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1229" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1229" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>API Crude Oil Stock ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1229" t="inlineStr"/>
-      <c r="E1229" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
+      <c r="E1229" t="inlineStr"/>
       <c r="F1229" t="inlineStr"/>
-      <c r="G1229" t="inlineStr">
-        <is>
-          <t>3.0%</t>
-        </is>
-      </c>
+      <c r="G1229" t="inlineStr"/>
       <c r="H1229" t="inlineStr">
         <is>
           <t>2</t>
@@ -40222,63 +39648,63 @@
     <row r="1230">
       <c r="A1230" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1230" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1230" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMDEC</t>
+          <t>GDP Growth Rate QoQ AdvQ4</t>
         </is>
       </c>
       <c r="D1230" t="inlineStr"/>
       <c r="E1230" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F1230" t="inlineStr"/>
       <c r="G1230" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1230" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1231">
       <c r="A1231" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1231" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1231" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>GDP Growth Rate YoY AdvQ4</t>
         </is>
       </c>
       <c r="D1231" t="inlineStr"/>
       <c r="E1231" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="F1231" t="inlineStr"/>
       <c r="G1231" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H1231" t="inlineStr">
@@ -40290,85 +39716,85 @@
     <row r="1232">
       <c r="A1232" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1232" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1232" t="inlineStr">
         <is>
-          <t>15-Year Bund Auction</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D1232" t="inlineStr"/>
-      <c r="E1232" t="inlineStr"/>
+      <c r="E1232" t="inlineStr">
+        <is>
+          <t>¥-117.6B</t>
+        </is>
+      </c>
       <c r="F1232" t="inlineStr"/>
-      <c r="G1232" t="inlineStr"/>
+      <c r="G1232" t="inlineStr">
+        <is>
+          <t>¥ 100B</t>
+        </is>
+      </c>
       <c r="H1232" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1233">
       <c r="A1233" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1233" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1233" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>Exports YoYDEC</t>
         </is>
       </c>
       <c r="D1233" t="inlineStr"/>
       <c r="E1233" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>3.8%</t>
         </is>
       </c>
       <c r="F1233" t="inlineStr"/>
-      <c r="G1233" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G1233" t="inlineStr"/>
       <c r="H1233" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1234">
       <c r="A1234" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1234" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1234" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>Foreign Bond InvestmentJAN/18</t>
         </is>
       </c>
       <c r="D1234" t="inlineStr"/>
-      <c r="E1234" t="inlineStr">
-        <is>
-          <t>6.3%</t>
-        </is>
-      </c>
+      <c r="E1234" t="inlineStr"/>
       <c r="F1234" t="inlineStr"/>
       <c r="G1234" t="inlineStr"/>
       <c r="H1234" t="inlineStr">
@@ -40380,21 +39806,25 @@
     <row r="1235">
       <c r="A1235" t="inlineStr">
         <is>
-          <t>06:10 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1235" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1235" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Imports YoYDEC</t>
         </is>
       </c>
       <c r="D1235" t="inlineStr"/>
-      <c r="E1235" t="inlineStr"/>
+      <c r="E1235" t="inlineStr">
+        <is>
+          <t>-3.8%</t>
+        </is>
+      </c>
       <c r="F1235" t="inlineStr"/>
       <c r="G1235" t="inlineStr"/>
       <c r="H1235" t="inlineStr">
@@ -40406,17 +39836,17 @@
     <row r="1236">
       <c r="A1236" t="inlineStr">
         <is>
-          <t>06:10 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1236" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1236" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Stock Investment by ForeignersJAN/18</t>
         </is>
       </c>
       <c r="D1236" t="inlineStr"/>
@@ -40432,73 +39862,81 @@
     <row r="1237">
       <c r="A1237" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1237" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1237" t="inlineStr">
         <is>
-          <t>M3 Money Supply YoYJAN/10</t>
+          <t>NAB Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D1237" t="inlineStr"/>
       <c r="E1237" t="inlineStr">
         <is>
-          <t>9.3%</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="F1237" t="inlineStr"/>
-      <c r="G1237" t="inlineStr"/>
+      <c r="G1237" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="H1237" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1238">
       <c r="A1238" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1238" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C1238" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJAN/17</t>
+          <t>M2 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D1238" t="inlineStr"/>
-      <c r="E1238" t="inlineStr"/>
+      <c r="E1238" t="inlineStr">
+        <is>
+          <t>7%</t>
+        </is>
+      </c>
       <c r="F1238" t="inlineStr"/>
       <c r="G1238" t="inlineStr"/>
       <c r="H1238" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1239">
       <c r="A1239" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B1239" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1239" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJAN/17</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1239" t="inlineStr"/>
@@ -40514,47 +39952,39 @@
     <row r="1240">
       <c r="A1240" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1240" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1240" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexJAN/17</t>
-        </is>
-      </c>
+          <t>Thursday January 23 2025</t>
+        </is>
+      </c>
+      <c r="B1240" t="inlineStr"/>
+      <c r="C1240" t="inlineStr"/>
       <c r="D1240" t="inlineStr"/>
       <c r="E1240" t="inlineStr"/>
       <c r="F1240" t="inlineStr"/>
       <c r="G1240" t="inlineStr"/>
-      <c r="H1240" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1240" t="inlineStr"/>
     </row>
     <row r="1241">
       <c r="A1241" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1241" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1241" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexJAN/17</t>
+          <t>1-Year T-Bill Auction</t>
         </is>
       </c>
       <c r="D1241" t="inlineStr"/>
-      <c r="E1241" t="inlineStr"/>
+      <c r="E1241" t="inlineStr">
+        <is>
+          <t>2.71%</t>
+        </is>
+      </c>
       <c r="F1241" t="inlineStr"/>
       <c r="G1241" t="inlineStr"/>
       <c r="H1241" t="inlineStr">
@@ -40566,23 +39996,31 @@
     <row r="1242">
       <c r="A1242" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1242" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1242" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexJAN/17</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1242" t="inlineStr"/>
-      <c r="E1242" t="inlineStr"/>
+      <c r="E1242" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
       <c r="F1242" t="inlineStr"/>
-      <c r="G1242" t="inlineStr"/>
+      <c r="G1242" t="inlineStr">
+        <is>
+          <t>2.5%</t>
+        </is>
+      </c>
       <c r="H1242" t="inlineStr">
         <is>
           <t>3</t>
@@ -40592,23 +40030,23 @@
     <row r="1243">
       <c r="A1243" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1243" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1243" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D1243" t="inlineStr"/>
       <c r="E1243" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="F1243" t="inlineStr"/>
@@ -40626,29 +40064,29 @@
     <row r="1244">
       <c r="A1244" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1244" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1244" t="inlineStr">
         <is>
-          <t>Raw Materials Prices MoMDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D1244" t="inlineStr"/>
       <c r="E1244" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F1244" t="inlineStr"/>
       <c r="G1244" t="inlineStr">
         <is>
-          <t>1.0%</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="H1244" t="inlineStr">
@@ -40660,31 +40098,27 @@
     <row r="1245">
       <c r="A1245" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1245" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1245" t="inlineStr">
         <is>
-          <t>Raw Materials Prices YoYDEC</t>
+          <t>Leading Business Cycle Indicator MoMNOV</t>
         </is>
       </c>
       <c r="D1245" t="inlineStr"/>
       <c r="E1245" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="F1245" t="inlineStr"/>
-      <c r="G1245" t="inlineStr">
-        <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
+      <c r="G1245" t="inlineStr"/>
       <c r="H1245" t="inlineStr">
         <is>
           <t>3</t>
@@ -40694,77 +40128,85 @@
     <row r="1246">
       <c r="A1246" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1246" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1246" t="inlineStr">
         <is>
-          <t>CB Leading Index MoMDEC</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1246" t="inlineStr"/>
       <c r="E1246" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>81.3</t>
         </is>
       </c>
       <c r="F1246" t="inlineStr"/>
       <c r="G1246" t="inlineStr"/>
       <c r="H1246" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1247">
       <c r="A1247" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B1247" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1247" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1247" t="inlineStr"/>
-      <c r="E1247" t="inlineStr"/>
+      <c r="E1247" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
       <c r="F1247" t="inlineStr"/>
       <c r="G1247" t="inlineStr"/>
       <c r="H1247" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1248">
       <c r="A1248" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B1248" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1248" t="inlineStr">
         <is>
-          <t>20-Year Bond Auction</t>
+          <t>Business Climate IndicatorJAN</t>
         </is>
       </c>
       <c r="D1248" t="inlineStr"/>
-      <c r="E1248" t="inlineStr"/>
+      <c r="E1248" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
       <c r="F1248" t="inlineStr"/>
       <c r="G1248" t="inlineStr"/>
       <c r="H1248" t="inlineStr">
@@ -40776,31 +40218,23 @@
     <row r="1249">
       <c r="A1249" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1249" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1249" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>OAT Auction</t>
         </is>
       </c>
       <c r="D1249" t="inlineStr"/>
-      <c r="E1249" t="inlineStr">
-        <is>
-          <t>127.1%</t>
-        </is>
-      </c>
+      <c r="E1249" t="inlineStr"/>
       <c r="F1249" t="inlineStr"/>
-      <c r="G1249" t="inlineStr">
-        <is>
-          <t>115.0%</t>
-        </is>
-      </c>
+      <c r="G1249" t="inlineStr"/>
       <c r="H1249" t="inlineStr">
         <is>
           <t>3</t>
@@ -40810,47 +40244,47 @@
     <row r="1250">
       <c r="A1250" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1250" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1250" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>4-Year Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D1250" t="inlineStr"/>
-      <c r="E1250" t="inlineStr"/>
+      <c r="E1250" t="inlineStr">
+        <is>
+          <t>4.499%</t>
+        </is>
+      </c>
       <c r="F1250" t="inlineStr"/>
-      <c r="G1250" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
+      <c r="G1250" t="inlineStr"/>
       <c r="H1250" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1251">
       <c r="A1251" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1251" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1251" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/17</t>
+          <t>Index-Linked OAT Auction</t>
         </is>
       </c>
       <c r="D1251" t="inlineStr"/>
@@ -40859,72 +40293,60 @@
       <c r="G1251" t="inlineStr"/>
       <c r="H1251" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1252">
       <c r="A1252" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1252" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1252" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQ AdvQ4</t>
+          <t>OATi Auction</t>
         </is>
       </c>
       <c r="D1252" t="inlineStr"/>
-      <c r="E1252" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="E1252" t="inlineStr"/>
       <c r="F1252" t="inlineStr"/>
-      <c r="G1252" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1252" t="inlineStr"/>
       <c r="H1252" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1253">
       <c r="A1253" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1253" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1253" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoY AdvQ4</t>
+          <t>Building Permits YoYNOV</t>
         </is>
       </c>
       <c r="D1253" t="inlineStr"/>
       <c r="E1253" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>21.6%</t>
         </is>
       </c>
       <c r="F1253" t="inlineStr"/>
-      <c r="G1253" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
+      <c r="G1253" t="inlineStr"/>
       <c r="H1253" t="inlineStr">
         <is>
           <t>3</t>
@@ -40934,57 +40356,53 @@
     <row r="1254">
       <c r="A1254" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1254" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1254" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Overnight Borrowing RateJAN</t>
         </is>
       </c>
       <c r="D1254" t="inlineStr"/>
       <c r="E1254" t="inlineStr">
         <is>
-          <t>¥-117.6B</t>
+          <t>46%</t>
         </is>
       </c>
       <c r="F1254" t="inlineStr"/>
-      <c r="G1254" t="inlineStr">
-        <is>
-          <t>¥ 100B</t>
-        </is>
-      </c>
+      <c r="G1254" t="inlineStr"/>
       <c r="H1254" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1255">
       <c r="A1255" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1255" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1255" t="inlineStr">
         <is>
-          <t>Exports YoYDEC</t>
+          <t>TCMB Interest Rate Decision</t>
         </is>
       </c>
       <c r="D1255" t="inlineStr"/>
       <c r="E1255" t="inlineStr">
         <is>
-          <t>3.8%</t>
+          <t>47.5%</t>
         </is>
       </c>
       <c r="F1255" t="inlineStr"/>
@@ -40998,21 +40416,25 @@
     <row r="1256">
       <c r="A1256" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1256" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1256" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentJAN/18</t>
+          <t>Overnight Lending RateJAN</t>
         </is>
       </c>
       <c r="D1256" t="inlineStr"/>
-      <c r="E1256" t="inlineStr"/>
+      <c r="E1256" t="inlineStr">
+        <is>
+          <t>49%</t>
+        </is>
+      </c>
       <c r="F1256" t="inlineStr"/>
       <c r="G1256" t="inlineStr"/>
       <c r="H1256" t="inlineStr">
@@ -41024,25 +40446,21 @@
     <row r="1257">
       <c r="A1257" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1257" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1257" t="inlineStr">
         <is>
-          <t>Imports YoYDEC</t>
+          <t>Foreign Exchange ReservesJAN/17</t>
         </is>
       </c>
       <c r="D1257" t="inlineStr"/>
-      <c r="E1257" t="inlineStr">
-        <is>
-          <t>-3.8%</t>
-        </is>
-      </c>
+      <c r="E1257" t="inlineStr"/>
       <c r="F1257" t="inlineStr"/>
       <c r="G1257" t="inlineStr"/>
       <c r="H1257" t="inlineStr">
@@ -41054,21 +40472,25 @@
     <row r="1258">
       <c r="A1258" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1258" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1258" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersJAN/18</t>
+          <t>Mid-month Core Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D1258" t="inlineStr"/>
-      <c r="E1258" t="inlineStr"/>
+      <c r="E1258" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="F1258" t="inlineStr"/>
       <c r="G1258" t="inlineStr"/>
       <c r="H1258" t="inlineStr">
@@ -41080,57 +40502,53 @@
     <row r="1259">
       <c r="A1259" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1259" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1259" t="inlineStr">
         <is>
-          <t>NAB Business ConfidenceDEC</t>
+          <t>Mid-month Core Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D1259" t="inlineStr"/>
       <c r="E1259" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>3.62%</t>
         </is>
       </c>
       <c r="F1259" t="inlineStr"/>
-      <c r="G1259" t="inlineStr">
+      <c r="G1259" t="inlineStr"/>
+      <c r="H1259" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="H1259" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1260">
       <c r="A1260" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1260" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1260" t="inlineStr">
         <is>
-          <t>M2 Money Supply YoYDEC</t>
+          <t>Mid-month Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D1260" t="inlineStr"/>
       <c r="E1260" t="inlineStr">
         <is>
-          <t>7%</t>
+          <t>0.42%</t>
         </is>
       </c>
       <c r="F1260" t="inlineStr"/>
@@ -41144,21 +40562,25 @@
     <row r="1261">
       <c r="A1261" t="inlineStr">
         <is>
-          <t>10:35 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1261" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1261" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Mid-month Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D1261" t="inlineStr"/>
-      <c r="E1261" t="inlineStr"/>
+      <c r="E1261" t="inlineStr">
+        <is>
+          <t>4.44%</t>
+        </is>
+      </c>
       <c r="F1261" t="inlineStr"/>
       <c r="G1261" t="inlineStr"/>
       <c r="H1261" t="inlineStr">
@@ -41170,107 +40592,115 @@
     <row r="1262">
       <c r="A1262" t="inlineStr">
         <is>
-          <t>Thursday January 23 2025</t>
-        </is>
-      </c>
-      <c r="B1262" t="inlineStr"/>
-      <c r="C1262" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B1262" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C1262" t="inlineStr">
+        <is>
+          <t>Retail Sales Ex Autos MoMNOV</t>
+        </is>
+      </c>
       <c r="D1262" t="inlineStr"/>
       <c r="E1262" t="inlineStr"/>
       <c r="F1262" t="inlineStr"/>
       <c r="G1262" t="inlineStr"/>
-      <c r="H1262" t="inlineStr"/>
+      <c r="H1262" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1263">
       <c r="A1263" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1263" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1263" t="inlineStr">
         <is>
-          <t>1-Year T-Bill Auction</t>
+          <t>Retail Sales MoM FinalNOV</t>
         </is>
       </c>
       <c r="D1263" t="inlineStr"/>
       <c r="E1263" t="inlineStr">
         <is>
-          <t>2.71%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="F1263" t="inlineStr"/>
-      <c r="G1263" t="inlineStr"/>
+      <c r="G1263" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
       <c r="H1263" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1264">
       <c r="A1264" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1264" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1264" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>Retail Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1264" t="inlineStr"/>
-      <c r="E1264" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="E1264" t="inlineStr"/>
       <c r="F1264" t="inlineStr"/>
-      <c r="G1264" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
+      <c r="G1264" t="inlineStr"/>
       <c r="H1264" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1265">
       <c r="A1265" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1265" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1265" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D1265" t="inlineStr"/>
       <c r="E1265" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="F1265" t="inlineStr"/>
       <c r="G1265" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="H1265" t="inlineStr">
@@ -41282,59 +40712,47 @@
     <row r="1266">
       <c r="A1266" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1266" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1266" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Initial Jobless ClaimsJAN/18</t>
         </is>
       </c>
       <c r="D1266" t="inlineStr"/>
-      <c r="E1266" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+      <c r="E1266" t="inlineStr"/>
       <c r="F1266" t="inlineStr"/>
-      <c r="G1266" t="inlineStr">
-        <is>
-          <t>1.8%</t>
-        </is>
-      </c>
+      <c r="G1266" t="inlineStr"/>
       <c r="H1266" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1267">
       <c r="A1267" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1267" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1267" t="inlineStr">
         <is>
-          <t>Leading Business Cycle Indicator MoMNOV</t>
+          <t>Continuing Jobless ClaimsJAN/11</t>
         </is>
       </c>
       <c r="D1267" t="inlineStr"/>
-      <c r="E1267" t="inlineStr">
-        <is>
-          <t>1.1%</t>
-        </is>
-      </c>
+      <c r="E1267" t="inlineStr"/>
       <c r="F1267" t="inlineStr"/>
       <c r="G1267" t="inlineStr"/>
       <c r="H1267" t="inlineStr">
@@ -41346,53 +40764,49 @@
     <row r="1268">
       <c r="A1268" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1268" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1268" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>Jobless Claims 4-week AverageJAN/18</t>
         </is>
       </c>
       <c r="D1268" t="inlineStr"/>
-      <c r="E1268" t="inlineStr">
-        <is>
-          <t>81.3</t>
-        </is>
-      </c>
+      <c r="E1268" t="inlineStr"/>
       <c r="F1268" t="inlineStr"/>
       <c r="G1268" t="inlineStr"/>
       <c r="H1268" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1269">
       <c r="A1269" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1269" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1269" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>Consumer Confidence FlashJAN</t>
         </is>
       </c>
       <c r="D1269" t="inlineStr"/>
       <c r="E1269" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>-14.5</t>
         </is>
       </c>
       <c r="F1269" t="inlineStr"/>
@@ -41406,25 +40820,21 @@
     <row r="1270">
       <c r="A1270" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1270" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1270" t="inlineStr">
         <is>
-          <t>Business Climate IndicatorJAN</t>
+          <t>EIA Natural Gas Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1270" t="inlineStr"/>
-      <c r="E1270" t="inlineStr">
-        <is>
-          <t>94</t>
-        </is>
-      </c>
+      <c r="E1270" t="inlineStr"/>
       <c r="F1270" t="inlineStr"/>
       <c r="G1270" t="inlineStr"/>
       <c r="H1270" t="inlineStr">
@@ -41436,17 +40846,17 @@
     <row r="1271">
       <c r="A1271" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1271" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1271" t="inlineStr">
         <is>
-          <t>OAT Auction</t>
+          <t>EIA Crude Oil Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1271" t="inlineStr"/>
@@ -41455,54 +40865,50 @@
       <c r="G1271" t="inlineStr"/>
       <c r="H1271" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1272">
       <c r="A1272" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1272" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1272" t="inlineStr">
         <is>
-          <t>4-Year Treasury Gilt Auction</t>
+          <t>EIA Gasoline Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1272" t="inlineStr"/>
-      <c r="E1272" t="inlineStr">
-        <is>
-          <t>4.499%</t>
-        </is>
-      </c>
+      <c r="E1272" t="inlineStr"/>
       <c r="F1272" t="inlineStr"/>
       <c r="G1272" t="inlineStr"/>
       <c r="H1272" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1273">
       <c r="A1273" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1273" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1273" t="inlineStr">
         <is>
-          <t>Index-Linked OAT Auction</t>
+          <t>EIA Crude Oil Imports ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1273" t="inlineStr"/>
@@ -41518,17 +40924,17 @@
     <row r="1274">
       <c r="A1274" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1274" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1274" t="inlineStr">
         <is>
-          <t>OATi Auction</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1274" t="inlineStr"/>
@@ -41544,25 +40950,21 @@
     <row r="1275">
       <c r="A1275" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1275" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1275" t="inlineStr">
         <is>
-          <t>Building Permits YoYNOV</t>
+          <t>EIA Distillate Fuel Production ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1275" t="inlineStr"/>
-      <c r="E1275" t="inlineStr">
-        <is>
-          <t>21.6%</t>
-        </is>
-      </c>
+      <c r="E1275" t="inlineStr"/>
       <c r="F1275" t="inlineStr"/>
       <c r="G1275" t="inlineStr"/>
       <c r="H1275" t="inlineStr">
@@ -41574,85 +40976,73 @@
     <row r="1276">
       <c r="A1276" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1276" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1276" t="inlineStr">
         <is>
-          <t>Overnight Borrowing RateJAN</t>
+          <t>EIA Distillate Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1276" t="inlineStr"/>
-      <c r="E1276" t="inlineStr">
-        <is>
-          <t>46%</t>
-        </is>
-      </c>
+      <c r="E1276" t="inlineStr"/>
       <c r="F1276" t="inlineStr"/>
       <c r="G1276" t="inlineStr"/>
       <c r="H1276" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1277">
       <c r="A1277" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1277" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1277" t="inlineStr">
         <is>
-          <t>TCMB Interest Rate Decision</t>
+          <t>EIA Gasoline Production ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1277" t="inlineStr"/>
-      <c r="E1277" t="inlineStr">
-        <is>
-          <t>47.5%</t>
-        </is>
-      </c>
+      <c r="E1277" t="inlineStr"/>
       <c r="F1277" t="inlineStr"/>
       <c r="G1277" t="inlineStr"/>
       <c r="H1277" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1278">
       <c r="A1278" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1278" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1278" t="inlineStr">
         <is>
-          <t>Overnight Lending RateJAN</t>
+          <t>EIA Heating Oil Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1278" t="inlineStr"/>
-      <c r="E1278" t="inlineStr">
-        <is>
-          <t>49%</t>
-        </is>
-      </c>
+      <c r="E1278" t="inlineStr"/>
       <c r="F1278" t="inlineStr"/>
       <c r="G1278" t="inlineStr"/>
       <c r="H1278" t="inlineStr">
@@ -41664,17 +41054,17 @@
     <row r="1279">
       <c r="A1279" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1279" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1279" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/17</t>
+          <t>EIA Refinery Crude Runs ChangeJAN/17</t>
         </is>
       </c>
       <c r="D1279" t="inlineStr"/>
@@ -41690,25 +41080,21 @@
     <row r="1280">
       <c r="A1280" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1280" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1280" t="inlineStr">
         <is>
-          <t>Mid-month Core Inflation Rate MoMJAN</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1280" t="inlineStr"/>
-      <c r="E1280" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="E1280" t="inlineStr"/>
       <c r="F1280" t="inlineStr"/>
       <c r="G1280" t="inlineStr"/>
       <c r="H1280" t="inlineStr">
@@ -41720,25 +41106,21 @@
     <row r="1281">
       <c r="A1281" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1281" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1281" t="inlineStr">
         <is>
-          <t>Mid-month Core Inflation Rate YoYJAN</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1281" t="inlineStr"/>
-      <c r="E1281" t="inlineStr">
-        <is>
-          <t>3.62%</t>
-        </is>
-      </c>
+      <c r="E1281" t="inlineStr"/>
       <c r="F1281" t="inlineStr"/>
       <c r="G1281" t="inlineStr"/>
       <c r="H1281" t="inlineStr">
@@ -41750,23 +41132,23 @@
     <row r="1282">
       <c r="A1282" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1282" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1282" t="inlineStr">
         <is>
-          <t>Mid-month Inflation Rate MoMJAN</t>
+          <t>30-Year Bond Auction</t>
         </is>
       </c>
       <c r="D1282" t="inlineStr"/>
       <c r="E1282" t="inlineStr">
         <is>
-          <t>0.42%</t>
+          <t>3.25%</t>
         </is>
       </c>
       <c r="F1282" t="inlineStr"/>
@@ -41780,25 +41162,21 @@
     <row r="1283">
       <c r="A1283" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1283" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1283" t="inlineStr">
         <is>
-          <t>Mid-month Inflation Rate YoYJAN</t>
+          <t>15-Year Mortgage RateJAN/23</t>
         </is>
       </c>
       <c r="D1283" t="inlineStr"/>
-      <c r="E1283" t="inlineStr">
-        <is>
-          <t>4.44%</t>
-        </is>
-      </c>
+      <c r="E1283" t="inlineStr"/>
       <c r="F1283" t="inlineStr"/>
       <c r="G1283" t="inlineStr"/>
       <c r="H1283" t="inlineStr">
@@ -41810,17 +41188,17 @@
     <row r="1284">
       <c r="A1284" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1284" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1284" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Autos MoMNOV</t>
+          <t>30-Year Mortgage RateJAN/23</t>
         </is>
       </c>
       <c r="D1284" t="inlineStr"/>
@@ -41829,58 +41207,54 @@
       <c r="G1284" t="inlineStr"/>
       <c r="H1284" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1285">
       <c r="A1285" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1285" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1285" t="inlineStr">
         <is>
-          <t>Retail Sales MoM FinalNOV</t>
+          <t>10-Year TIPS Auction</t>
         </is>
       </c>
       <c r="D1285" t="inlineStr"/>
       <c r="E1285" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>2.071%</t>
         </is>
       </c>
       <c r="F1285" t="inlineStr"/>
-      <c r="G1285" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
+      <c r="G1285" t="inlineStr"/>
       <c r="H1285" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1286">
       <c r="A1286" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1286" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1286" t="inlineStr">
         <is>
-          <t>Retail Sales MoM PrelDEC</t>
+          <t>Economic Activity YoYNOV</t>
         </is>
       </c>
       <c r="D1286" t="inlineStr"/>
@@ -41889,38 +41263,30 @@
       <c r="G1286" t="inlineStr"/>
       <c r="H1286" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1287">
-      <c r="A1287" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A1287" t="inlineStr"/>
       <c r="B1287" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1287" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>20-Year KTB Auction</t>
         </is>
       </c>
       <c r="D1287" t="inlineStr"/>
       <c r="E1287" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>2.750%</t>
         </is>
       </c>
       <c r="F1287" t="inlineStr"/>
-      <c r="G1287" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+      <c r="G1287" t="inlineStr"/>
       <c r="H1287" t="inlineStr">
         <is>
           <t>3</t>
@@ -41928,610 +41294,26 @@
       </c>
     </row>
     <row r="1288">
-      <c r="A1288" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A1288" t="inlineStr"/>
       <c r="B1288" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1288" t="inlineStr">
         <is>
-          <t>Initial Jobless ClaimsJAN/18</t>
+          <t>Federal Tax RevenuesDEC</t>
         </is>
       </c>
       <c r="D1288" t="inlineStr"/>
       <c r="E1288" t="inlineStr"/>
       <c r="F1288" t="inlineStr"/>
-      <c r="G1288" t="inlineStr"/>
+      <c r="G1288" t="inlineStr">
+        <is>
+          <t>BRL 255.1B</t>
+        </is>
+      </c>
       <c r="H1288" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1289">
-      <c r="A1289" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1289" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1289" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsJAN/11</t>
-        </is>
-      </c>
-      <c r="D1289" t="inlineStr"/>
-      <c r="E1289" t="inlineStr"/>
-      <c r="F1289" t="inlineStr"/>
-      <c r="G1289" t="inlineStr"/>
-      <c r="H1289" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1290">
-      <c r="A1290" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1290" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1290" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageJAN/18</t>
-        </is>
-      </c>
-      <c r="D1290" t="inlineStr"/>
-      <c r="E1290" t="inlineStr"/>
-      <c r="F1290" t="inlineStr"/>
-      <c r="G1290" t="inlineStr"/>
-      <c r="H1290" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1291">
-      <c r="A1291" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1291" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C1291" t="inlineStr">
-        <is>
-          <t>Consumer Confidence FlashJAN</t>
-        </is>
-      </c>
-      <c r="D1291" t="inlineStr"/>
-      <c r="E1291" t="inlineStr">
-        <is>
-          <t>-14.5</t>
-        </is>
-      </c>
-      <c r="F1291" t="inlineStr"/>
-      <c r="G1291" t="inlineStr"/>
-      <c r="H1291" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1292">
-      <c r="A1292" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1292" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1292" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeJAN/17</t>
-        </is>
-      </c>
-      <c r="D1292" t="inlineStr"/>
-      <c r="E1292" t="inlineStr"/>
-      <c r="F1292" t="inlineStr"/>
-      <c r="G1292" t="inlineStr"/>
-      <c r="H1292" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1293">
-      <c r="A1293" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1293" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1293" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeJAN/17</t>
-        </is>
-      </c>
-      <c r="D1293" t="inlineStr"/>
-      <c r="E1293" t="inlineStr"/>
-      <c r="F1293" t="inlineStr"/>
-      <c r="G1293" t="inlineStr"/>
-      <c r="H1293" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1294">
-      <c r="A1294" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1294" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1294" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeJAN/17</t>
-        </is>
-      </c>
-      <c r="D1294" t="inlineStr"/>
-      <c r="E1294" t="inlineStr"/>
-      <c r="F1294" t="inlineStr"/>
-      <c r="G1294" t="inlineStr"/>
-      <c r="H1294" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1295">
-      <c r="A1295" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1295" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1295" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeJAN/17</t>
-        </is>
-      </c>
-      <c r="D1295" t="inlineStr"/>
-      <c r="E1295" t="inlineStr"/>
-      <c r="F1295" t="inlineStr"/>
-      <c r="G1295" t="inlineStr"/>
-      <c r="H1295" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1296">
-      <c r="A1296" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1296" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1296" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJAN/17</t>
-        </is>
-      </c>
-      <c r="D1296" t="inlineStr"/>
-      <c r="E1296" t="inlineStr"/>
-      <c r="F1296" t="inlineStr"/>
-      <c r="G1296" t="inlineStr"/>
-      <c r="H1296" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1297">
-      <c r="A1297" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1297" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1297" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeJAN/17</t>
-        </is>
-      </c>
-      <c r="D1297" t="inlineStr"/>
-      <c r="E1297" t="inlineStr"/>
-      <c r="F1297" t="inlineStr"/>
-      <c r="G1297" t="inlineStr"/>
-      <c r="H1297" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1298">
-      <c r="A1298" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1298" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1298" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeJAN/17</t>
-        </is>
-      </c>
-      <c r="D1298" t="inlineStr"/>
-      <c r="E1298" t="inlineStr"/>
-      <c r="F1298" t="inlineStr"/>
-      <c r="G1298" t="inlineStr"/>
-      <c r="H1298" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1299">
-      <c r="A1299" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1299" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1299" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeJAN/17</t>
-        </is>
-      </c>
-      <c r="D1299" t="inlineStr"/>
-      <c r="E1299" t="inlineStr"/>
-      <c r="F1299" t="inlineStr"/>
-      <c r="G1299" t="inlineStr"/>
-      <c r="H1299" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1300">
-      <c r="A1300" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1300" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1300" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeJAN/17</t>
-        </is>
-      </c>
-      <c r="D1300" t="inlineStr"/>
-      <c r="E1300" t="inlineStr"/>
-      <c r="F1300" t="inlineStr"/>
-      <c r="G1300" t="inlineStr"/>
-      <c r="H1300" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1301">
-      <c r="A1301" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1301" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1301" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeJAN/17</t>
-        </is>
-      </c>
-      <c r="D1301" t="inlineStr"/>
-      <c r="E1301" t="inlineStr"/>
-      <c r="F1301" t="inlineStr"/>
-      <c r="G1301" t="inlineStr"/>
-      <c r="H1301" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1302">
-      <c r="A1302" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B1302" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1302" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1302" t="inlineStr"/>
-      <c r="E1302" t="inlineStr"/>
-      <c r="F1302" t="inlineStr"/>
-      <c r="G1302" t="inlineStr"/>
-      <c r="H1302" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1303">
-      <c r="A1303" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B1303" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1303" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1303" t="inlineStr"/>
-      <c r="E1303" t="inlineStr"/>
-      <c r="F1303" t="inlineStr"/>
-      <c r="G1303" t="inlineStr"/>
-      <c r="H1303" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1304">
-      <c r="A1304" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1304" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1304" t="inlineStr">
-        <is>
-          <t>30-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="D1304" t="inlineStr"/>
-      <c r="E1304" t="inlineStr">
-        <is>
-          <t>3.25%</t>
-        </is>
-      </c>
-      <c r="F1304" t="inlineStr"/>
-      <c r="G1304" t="inlineStr"/>
-      <c r="H1304" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1305">
-      <c r="A1305" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1305" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1305" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateJAN/23</t>
-        </is>
-      </c>
-      <c r="D1305" t="inlineStr"/>
-      <c r="E1305" t="inlineStr"/>
-      <c r="F1305" t="inlineStr"/>
-      <c r="G1305" t="inlineStr"/>
-      <c r="H1305" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1306">
-      <c r="A1306" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1306" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1306" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateJAN/23</t>
-        </is>
-      </c>
-      <c r="D1306" t="inlineStr"/>
-      <c r="E1306" t="inlineStr"/>
-      <c r="F1306" t="inlineStr"/>
-      <c r="G1306" t="inlineStr"/>
-      <c r="H1306" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1307">
-      <c r="A1307" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B1307" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1307" t="inlineStr">
-        <is>
-          <t>10-Year TIPS Auction</t>
-        </is>
-      </c>
-      <c r="D1307" t="inlineStr"/>
-      <c r="E1307" t="inlineStr">
-        <is>
-          <t>2.071%</t>
-        </is>
-      </c>
-      <c r="F1307" t="inlineStr"/>
-      <c r="G1307" t="inlineStr"/>
-      <c r="H1307" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1308">
-      <c r="A1308" t="inlineStr">
-        <is>
-          <t>02:00 PM</t>
-        </is>
-      </c>
-      <c r="B1308" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C1308" t="inlineStr">
-        <is>
-          <t>Economic Activity YoYNOV</t>
-        </is>
-      </c>
-      <c r="D1308" t="inlineStr"/>
-      <c r="E1308" t="inlineStr"/>
-      <c r="F1308" t="inlineStr"/>
-      <c r="G1308" t="inlineStr"/>
-      <c r="H1308" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1309">
-      <c r="A1309" t="inlineStr"/>
-      <c r="B1309" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C1309" t="inlineStr">
-        <is>
-          <t>20-Year KTB Auction</t>
-        </is>
-      </c>
-      <c r="D1309" t="inlineStr"/>
-      <c r="E1309" t="inlineStr">
-        <is>
-          <t>2.750%</t>
-        </is>
-      </c>
-      <c r="F1309" t="inlineStr"/>
-      <c r="G1309" t="inlineStr"/>
-      <c r="H1309" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1310">
-      <c r="A1310" t="inlineStr"/>
-      <c r="B1310" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C1310" t="inlineStr">
-        <is>
-          <t>Federal Tax RevenuesDEC</t>
-        </is>
-      </c>
-      <c r="D1310" t="inlineStr"/>
-      <c r="E1310" t="inlineStr"/>
-      <c r="F1310" t="inlineStr"/>
-      <c r="G1310" t="inlineStr">
-        <is>
-          <t>BRL 255.1B</t>
-        </is>
-      </c>
-      <c r="H1310" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-23.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1288"/>
+  <dimension ref="A1:H1310"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28737,8 +28737,10 @@
       </c>
       <c r="F879" t="inlineStr"/>
       <c r="G879" t="inlineStr"/>
-      <c r="H879" t="n">
-        <v>3</v>
+      <c r="H879" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="880">
@@ -28773,8 +28775,10 @@
           <t>6.4%</t>
         </is>
       </c>
-      <c r="H880" t="n">
-        <v>3</v>
+      <c r="H880" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="881">
@@ -28809,8 +28813,10 @@
           <t>-19.0%</t>
         </is>
       </c>
-      <c r="H881" t="n">
-        <v>3</v>
+      <c r="H881" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="882">
@@ -28845,8 +28851,10 @@
           <t>-4.0%</t>
         </is>
       </c>
-      <c r="H882" t="n">
-        <v>3</v>
+      <c r="H882" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="883">
@@ -28885,8 +28893,10 @@
           <t>$-3.4B</t>
         </is>
       </c>
-      <c r="H883" t="n">
-        <v>3</v>
+      <c r="H883" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="884">
@@ -28921,8 +28931,10 @@
           <t>0%</t>
         </is>
       </c>
-      <c r="H884" t="n">
-        <v>3</v>
+      <c r="H884" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="885">
@@ -28957,8 +28969,10 @@
           <t>14.1%</t>
         </is>
       </c>
-      <c r="H885" t="n">
-        <v>3</v>
+      <c r="H885" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="886">
@@ -28989,8 +29003,10 @@
       </c>
       <c r="F886" t="inlineStr"/>
       <c r="G886" t="inlineStr"/>
-      <c r="H886" t="n">
-        <v>3</v>
+      <c r="H886" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="887">
@@ -29021,8 +29037,10 @@
       </c>
       <c r="F887" t="inlineStr"/>
       <c r="G887" t="inlineStr"/>
-      <c r="H887" t="n">
-        <v>3</v>
+      <c r="H887" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="888">
@@ -29053,8 +29071,10 @@
       </c>
       <c r="F888" t="inlineStr"/>
       <c r="G888" t="inlineStr"/>
-      <c r="H888" t="n">
-        <v>3</v>
+      <c r="H888" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="889">
@@ -29093,8 +29113,10 @@
           <t>5.2%</t>
         </is>
       </c>
-      <c r="H889" t="n">
-        <v>2</v>
+      <c r="H889" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="890">
@@ -29129,8 +29151,10 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H890" t="n">
-        <v>3</v>
+      <c r="H890" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="891">
@@ -29161,8 +29185,10 @@
       </c>
       <c r="F891" t="inlineStr"/>
       <c r="G891" t="inlineStr"/>
-      <c r="H891" t="n">
-        <v>3</v>
+      <c r="H891" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="892">
@@ -29193,8 +29219,10 @@
       </c>
       <c r="F892" t="inlineStr"/>
       <c r="G892" t="inlineStr"/>
-      <c r="H892" t="n">
-        <v>3</v>
+      <c r="H892" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="893">
@@ -29225,8 +29253,10 @@
       </c>
       <c r="F893" t="inlineStr"/>
       <c r="G893" t="inlineStr"/>
-      <c r="H893" t="n">
-        <v>3</v>
+      <c r="H893" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="894">
@@ -29257,8 +29287,10 @@
       </c>
       <c r="F894" t="inlineStr"/>
       <c r="G894" t="inlineStr"/>
-      <c r="H894" t="n">
-        <v>3</v>
+      <c r="H894" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="895">
@@ -29293,8 +29325,10 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H895" t="n">
-        <v>3</v>
+      <c r="H895" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="896">
@@ -29325,8 +29359,10 @@
       </c>
       <c r="F896" t="inlineStr"/>
       <c r="G896" t="inlineStr"/>
-      <c r="H896" t="n">
-        <v>3</v>
+      <c r="H896" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="897">
@@ -29357,14 +29393,16 @@
       </c>
       <c r="F897" t="inlineStr"/>
       <c r="G897" t="inlineStr"/>
-      <c r="H897" t="n">
-        <v>3</v>
+      <c r="H897" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="898">
       <c r="A898" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B898" t="inlineStr">
@@ -29393,8 +29431,10 @@
           <t>$-220.0B</t>
         </is>
       </c>
-      <c r="H898" t="n">
-        <v>2</v>
+      <c r="H898" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="899">
@@ -29421,8 +29461,10 @@
       </c>
       <c r="F899" t="inlineStr"/>
       <c r="G899" t="inlineStr"/>
-      <c r="H899" t="n">
-        <v>1</v>
+      <c r="H899" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="900">
@@ -29449,8 +29491,10 @@
       </c>
       <c r="F900" t="inlineStr"/>
       <c r="G900" t="inlineStr"/>
-      <c r="H900" t="n">
-        <v>1</v>
+      <c r="H900" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="901">
@@ -29485,8 +29529,10 @@
           <t>¥1990.0B</t>
         </is>
       </c>
-      <c r="H901" t="n">
-        <v>2</v>
+      <c r="H901" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="902">
@@ -29521,8 +29567,10 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H902" t="n">
-        <v>3</v>
+      <c r="H902" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="903">
@@ -29553,8 +29601,10 @@
         </is>
       </c>
       <c r="G903" t="inlineStr"/>
-      <c r="H903" t="n">
-        <v>3</v>
+      <c r="H903" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="904">
@@ -29585,8 +29635,10 @@
         </is>
       </c>
       <c r="G904" t="inlineStr"/>
-      <c r="H904" t="n">
-        <v>3</v>
+      <c r="H904" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="905">
@@ -29613,8 +29665,10 @@
       </c>
       <c r="F905" t="inlineStr"/>
       <c r="G905" t="inlineStr"/>
-      <c r="H905" t="n">
-        <v>3</v>
+      <c r="H905" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="906">
@@ -29633,8 +29687,10 @@
       <c r="E906" t="inlineStr"/>
       <c r="F906" t="inlineStr"/>
       <c r="G906" t="inlineStr"/>
-      <c r="H906" t="n">
-        <v>3</v>
+      <c r="H906" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="907">
@@ -29683,8 +29739,10 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H908" t="n">
-        <v>3</v>
+      <c r="H908" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="909">
@@ -29715,8 +29773,10 @@
           <t>49.6</t>
         </is>
       </c>
-      <c r="H909" t="n">
-        <v>3</v>
+      <c r="H909" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="910">
@@ -29743,8 +29803,10 @@
       </c>
       <c r="F910" t="inlineStr"/>
       <c r="G910" t="inlineStr"/>
-      <c r="H910" t="n">
-        <v>3</v>
+      <c r="H910" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="911">
@@ -29771,8 +29833,10 @@
       </c>
       <c r="F911" t="inlineStr"/>
       <c r="G911" t="inlineStr"/>
-      <c r="H911" t="n">
-        <v>3</v>
+      <c r="H911" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="912">
@@ -29803,8 +29867,10 @@
           <t>10.2%</t>
         </is>
       </c>
-      <c r="H912" t="n">
-        <v>3</v>
+      <c r="H912" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="913">
@@ -29835,8 +29901,10 @@
           <t>-3.2%</t>
         </is>
       </c>
-      <c r="H913" t="n">
-        <v>3</v>
+      <c r="H913" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="914">
@@ -29871,8 +29939,10 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H914" t="n">
-        <v>3</v>
+      <c r="H914" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="915">
@@ -29903,8 +29973,10 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H915" t="n">
-        <v>3</v>
+      <c r="H915" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="916">
@@ -29927,8 +29999,10 @@
       <c r="E916" t="inlineStr"/>
       <c r="F916" t="inlineStr"/>
       <c r="G916" t="inlineStr"/>
-      <c r="H916" t="n">
-        <v>3</v>
+      <c r="H916" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="917">
@@ -29959,8 +30033,10 @@
           <t>€-162.0B</t>
         </is>
       </c>
-      <c r="H917" t="n">
-        <v>3</v>
+      <c r="H917" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="918">
@@ -29983,8 +30059,10 @@
       <c r="E918" t="inlineStr"/>
       <c r="F918" t="inlineStr"/>
       <c r="G918" t="inlineStr"/>
-      <c r="H918" t="n">
-        <v>3</v>
+      <c r="H918" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="919">
@@ -30019,8 +30097,10 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H919" t="n">
-        <v>2</v>
+      <c r="H919" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="920">
@@ -30051,8 +30131,10 @@
           <t>-3.3%</t>
         </is>
       </c>
-      <c r="H920" t="n">
-        <v>3</v>
+      <c r="H920" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="921">
@@ -30079,8 +30161,10 @@
       </c>
       <c r="F921" t="inlineStr"/>
       <c r="G921" t="inlineStr"/>
-      <c r="H921" t="n">
-        <v>3</v>
+      <c r="H921" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="922">
@@ -30107,8 +30191,10 @@
       </c>
       <c r="F922" t="inlineStr"/>
       <c r="G922" t="inlineStr"/>
-      <c r="H922" t="n">
-        <v>3</v>
+      <c r="H922" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="923">
@@ -30135,8 +30221,10 @@
       </c>
       <c r="F923" t="inlineStr"/>
       <c r="G923" t="inlineStr"/>
-      <c r="H923" t="n">
-        <v>3</v>
+      <c r="H923" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="924">
@@ -30163,8 +30251,10 @@
       </c>
       <c r="F924" t="inlineStr"/>
       <c r="G924" t="inlineStr"/>
-      <c r="H924" t="n">
-        <v>3</v>
+      <c r="H924" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="925">
@@ -30187,8 +30277,10 @@
       <c r="E925" t="inlineStr"/>
       <c r="F925" t="inlineStr"/>
       <c r="G925" t="inlineStr"/>
-      <c r="H925" t="n">
-        <v>3</v>
+      <c r="H925" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="926">
@@ -30223,8 +30315,10 @@
           <t>102</t>
         </is>
       </c>
-      <c r="H926" t="n">
-        <v>3</v>
+      <c r="H926" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="927">
@@ -30255,8 +30349,10 @@
           <t>$615.0B</t>
         </is>
       </c>
-      <c r="H927" t="n">
-        <v>3</v>
+      <c r="H927" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="928">
@@ -30291,8 +30387,10 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H928" t="n">
-        <v>1</v>
+      <c r="H928" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="929">
@@ -30327,8 +30425,10 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H929" t="n">
-        <v>2</v>
+      <c r="H929" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="930">
@@ -30363,8 +30463,10 @@
           <t>3.5%</t>
         </is>
       </c>
-      <c r="H930" t="n">
-        <v>3</v>
+      <c r="H930" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="931">
@@ -30395,8 +30497,10 @@
           <t>146.8</t>
         </is>
       </c>
-      <c r="H931" t="n">
-        <v>3</v>
+      <c r="H931" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="932">
@@ -30427,8 +30531,10 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H932" t="n">
-        <v>3</v>
+      <c r="H932" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="933">
@@ -30459,8 +30565,10 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H933" t="n">
-        <v>3</v>
+      <c r="H933" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="934">
@@ -30495,8 +30603,10 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H934" t="n">
-        <v>3</v>
+      <c r="H934" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="935">
@@ -30523,8 +30633,10 @@
       </c>
       <c r="F935" t="inlineStr"/>
       <c r="G935" t="inlineStr"/>
-      <c r="H935" t="n">
-        <v>3</v>
+      <c r="H935" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="936">
@@ -30547,8 +30659,10 @@
       <c r="E936" t="inlineStr"/>
       <c r="F936" t="inlineStr"/>
       <c r="G936" t="inlineStr"/>
-      <c r="H936" t="n">
-        <v>2</v>
+      <c r="H936" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="937">
@@ -30583,8 +30697,10 @@
           <t>54.2</t>
         </is>
       </c>
-      <c r="H937" t="n">
-        <v>3</v>
+      <c r="H937" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="938">
@@ -30611,8 +30727,10 @@
       </c>
       <c r="F938" t="inlineStr"/>
       <c r="G938" t="inlineStr"/>
-      <c r="H938" t="n">
-        <v>3</v>
+      <c r="H938" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="939">
@@ -30647,8 +30765,10 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H939" t="n">
-        <v>3</v>
+      <c r="H939" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="940">
@@ -30683,8 +30803,10 @@
           <t>116.0%</t>
         </is>
       </c>
-      <c r="H940" t="n">
-        <v>3</v>
+      <c r="H940" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="941">
@@ -30707,8 +30829,10 @@
       <c r="E941" t="inlineStr"/>
       <c r="F941" t="inlineStr"/>
       <c r="G941" t="inlineStr"/>
-      <c r="H941" t="n">
-        <v>2</v>
+      <c r="H941" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="942">
@@ -30739,8 +30863,10 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H942" t="n">
-        <v>3</v>
+      <c r="H942" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="943">
@@ -30771,8 +30897,10 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H943" t="n">
-        <v>3</v>
+      <c r="H943" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="944">
@@ -30799,8 +30927,10 @@
       </c>
       <c r="F944" t="inlineStr"/>
       <c r="G944" t="inlineStr"/>
-      <c r="H944" t="n">
-        <v>2</v>
+      <c r="H944" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="945">
@@ -30831,8 +30961,10 @@
           <t>3</t>
         </is>
       </c>
-      <c r="H945" t="n">
-        <v>3</v>
+      <c r="H945" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="946">
@@ -30855,8 +30987,10 @@
       <c r="E946" t="inlineStr"/>
       <c r="F946" t="inlineStr"/>
       <c r="G946" t="inlineStr"/>
-      <c r="H946" t="n">
-        <v>3</v>
+      <c r="H946" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="947">
@@ -30891,8 +31025,10 @@
           <t>$ 3.7B</t>
         </is>
       </c>
-      <c r="H947" t="n">
-        <v>2</v>
+      <c r="H947" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="948">
@@ -30923,8 +31059,10 @@
         </is>
       </c>
       <c r="G948" t="inlineStr"/>
-      <c r="H948" t="n">
-        <v>3</v>
+      <c r="H948" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="949">
@@ -30955,8 +31093,10 @@
         </is>
       </c>
       <c r="G949" t="inlineStr"/>
-      <c r="H949" t="n">
-        <v>3</v>
+      <c r="H949" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="950">
@@ -30979,8 +31119,10 @@
       </c>
       <c r="F950" t="inlineStr"/>
       <c r="G950" t="inlineStr"/>
-      <c r="H950" t="n">
-        <v>3</v>
+      <c r="H950" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="951">
@@ -31011,8 +31153,10 @@
           <t>CNY690.0B</t>
         </is>
       </c>
-      <c r="H951" t="n">
-        <v>3</v>
+      <c r="H951" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="952">
@@ -31039,8 +31183,10 @@
         </is>
       </c>
       <c r="G952" t="inlineStr"/>
-      <c r="H952" t="n">
-        <v>3</v>
+      <c r="H952" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="953">
@@ -31071,8 +31217,10 @@
           <t>7.5%</t>
         </is>
       </c>
-      <c r="H953" t="n">
-        <v>3</v>
+      <c r="H953" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="954">
@@ -31103,8 +31251,10 @@
           <t>CNY1850.0B</t>
         </is>
       </c>
-      <c r="H954" t="n">
-        <v>3</v>
+      <c r="H954" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="955">
@@ -31131,8 +31281,10 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H955" t="n">
-        <v>3</v>
+      <c r="H955" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="956">
@@ -31159,8 +31311,10 @@
           <t>-2.5%</t>
         </is>
       </c>
-      <c r="H956" t="n">
-        <v>3</v>
+      <c r="H956" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="957">
@@ -31183,8 +31337,10 @@
       </c>
       <c r="F957" t="inlineStr"/>
       <c r="G957" t="inlineStr"/>
-      <c r="H957" t="n">
-        <v>3</v>
+      <c r="H957" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="958">
@@ -31233,8 +31389,10 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H959" t="n">
-        <v>3</v>
+      <c r="H959" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="960">
@@ -31269,8 +31427,10 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H960" t="n">
-        <v>2</v>
+      <c r="H960" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="961">
@@ -31301,8 +31461,10 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H961" t="n">
-        <v>2</v>
+      <c r="H961" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="962">
@@ -31337,8 +31499,10 @@
           <t>2.7%</t>
         </is>
       </c>
-      <c r="H962" t="n">
-        <v>1</v>
+      <c r="H962" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="963">
@@ -31373,8 +31537,10 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H963" t="n">
-        <v>2</v>
+      <c r="H963" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="964">
@@ -31409,8 +31575,10 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H964" t="n">
-        <v>2</v>
+      <c r="H964" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="965">
@@ -31445,8 +31613,10 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H965" t="n">
-        <v>3</v>
+      <c r="H965" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="966">
@@ -31477,8 +31647,10 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H966" t="n">
-        <v>3</v>
+      <c r="H966" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="967">
@@ -31509,8 +31681,10 @@
           <t>2.1%</t>
         </is>
       </c>
-      <c r="H967" t="n">
-        <v>3</v>
+      <c r="H967" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="968">
@@ -31545,8 +31719,10 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H968" t="n">
-        <v>3</v>
+      <c r="H968" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="969">
@@ -31577,8 +31753,10 @@
           <t>-1%</t>
         </is>
       </c>
-      <c r="H969" t="n">
-        <v>3</v>
+      <c r="H969" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="970">
@@ -31613,8 +31791,10 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H970" t="n">
-        <v>3</v>
+      <c r="H970" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="971">
@@ -31645,8 +31825,10 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H971" t="n">
-        <v>3</v>
+      <c r="H971" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="972">
@@ -31681,8 +31863,10 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H972" t="n">
-        <v>3</v>
+      <c r="H972" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="973">
@@ -31717,8 +31901,10 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H973" t="n">
-        <v>3</v>
+      <c r="H973" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="974">
@@ -31749,8 +31935,10 @@
           <t>10%</t>
         </is>
       </c>
-      <c r="H974" t="n">
-        <v>3</v>
+      <c r="H974" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="975">
@@ -31785,8 +31973,10 @@
           <t>6%</t>
         </is>
       </c>
-      <c r="H975" t="n">
-        <v>2</v>
+      <c r="H975" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="976">
@@ -31821,8 +32011,10 @@
           <t>5.25%</t>
         </is>
       </c>
-      <c r="H976" t="n">
-        <v>3</v>
+      <c r="H976" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="977">
@@ -31857,8 +32049,10 @@
           <t>6.75%</t>
         </is>
       </c>
-      <c r="H977" t="n">
-        <v>3</v>
+      <c r="H977" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="978">
@@ -31893,8 +32087,10 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H978" t="n">
-        <v>2</v>
+      <c r="H978" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="979">
@@ -31929,8 +32125,10 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H979" t="n">
-        <v>2</v>
+      <c r="H979" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="980">
@@ -31965,8 +32163,10 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H980" t="n">
-        <v>3</v>
+      <c r="H980" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="981">
@@ -32001,8 +32201,10 @@
           <t>1.8%</t>
         </is>
       </c>
-      <c r="H981" t="n">
-        <v>3</v>
+      <c r="H981" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="982">
@@ -32025,8 +32227,10 @@
       <c r="E982" t="inlineStr"/>
       <c r="F982" t="inlineStr"/>
       <c r="G982" t="inlineStr"/>
-      <c r="H982" t="n">
-        <v>3</v>
+      <c r="H982" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="983">
@@ -32061,8 +32265,10 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H983" t="n">
-        <v>3</v>
+      <c r="H983" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="984">
@@ -32097,8 +32303,10 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H984" t="n">
-        <v>3</v>
+      <c r="H984" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="985">
@@ -32133,8 +32341,10 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H985" t="n">
-        <v>3</v>
+      <c r="H985" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="986">
@@ -32169,8 +32379,10 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H986" t="n">
-        <v>3</v>
+      <c r="H986" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="987">
@@ -32205,8 +32417,10 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H987" t="n">
-        <v>3</v>
+      <c r="H987" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="988">
@@ -32229,8 +32443,10 @@
       <c r="E988" t="inlineStr"/>
       <c r="F988" t="inlineStr"/>
       <c r="G988" t="inlineStr"/>
-      <c r="H988" t="n">
-        <v>2</v>
+      <c r="H988" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="989">
@@ -32265,8 +32481,10 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H989" t="n">
-        <v>1</v>
+      <c r="H989" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="990">
@@ -32301,8 +32519,10 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H990" t="n">
-        <v>2</v>
+      <c r="H990" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="991">
@@ -32337,8 +32557,10 @@
           <t>-1.5%</t>
         </is>
       </c>
-      <c r="H991" t="n">
-        <v>3</v>
+      <c r="H991" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="992">
@@ -32365,8 +32587,10 @@
       </c>
       <c r="F992" t="inlineStr"/>
       <c r="G992" t="inlineStr"/>
-      <c r="H992" t="n">
-        <v>3</v>
+      <c r="H992" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="993">
@@ -32393,8 +32617,10 @@
       </c>
       <c r="F993" t="inlineStr"/>
       <c r="G993" t="inlineStr"/>
-      <c r="H993" t="n">
-        <v>3</v>
+      <c r="H993" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="994">
@@ -32425,8 +32651,10 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H994" t="n">
-        <v>3</v>
+      <c r="H994" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="995">
@@ -32457,8 +32685,10 @@
           <t>-5.0%</t>
         </is>
       </c>
-      <c r="H995" t="n">
-        <v>3</v>
+      <c r="H995" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="996">
@@ -32485,8 +32715,10 @@
       </c>
       <c r="F996" t="inlineStr"/>
       <c r="G996" t="inlineStr"/>
-      <c r="H996" t="n">
-        <v>2</v>
+      <c r="H996" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="997">
@@ -32513,8 +32745,10 @@
       </c>
       <c r="F997" t="inlineStr"/>
       <c r="G997" t="inlineStr"/>
-      <c r="H997" t="n">
-        <v>3</v>
+      <c r="H997" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="998">
@@ -32541,8 +32775,10 @@
       </c>
       <c r="F998" t="inlineStr"/>
       <c r="G998" t="inlineStr"/>
-      <c r="H998" t="n">
-        <v>3</v>
+      <c r="H998" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="999">
@@ -32569,8 +32805,10 @@
       </c>
       <c r="F999" t="inlineStr"/>
       <c r="G999" t="inlineStr"/>
-      <c r="H999" t="n">
-        <v>3</v>
+      <c r="H999" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1000">
@@ -32597,8 +32835,10 @@
       </c>
       <c r="F1000" t="inlineStr"/>
       <c r="G1000" t="inlineStr"/>
-      <c r="H1000" t="n">
-        <v>3</v>
+      <c r="H1000" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1001">
@@ -32633,8 +32873,10 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1001" t="n">
-        <v>3</v>
+      <c r="H1001" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1002">
@@ -32661,8 +32903,10 @@
       </c>
       <c r="F1002" t="inlineStr"/>
       <c r="G1002" t="inlineStr"/>
-      <c r="H1002" t="n">
-        <v>3</v>
+      <c r="H1002" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1003">
@@ -32697,8 +32941,10 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H1003" t="n">
-        <v>3</v>
+      <c r="H1003" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1004">
@@ -32733,8 +32979,10 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1004" t="n">
-        <v>1</v>
+      <c r="H1004" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="1005">
@@ -32769,8 +33017,10 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H1005" t="n">
-        <v>1</v>
+      <c r="H1005" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="1006">
@@ -32805,8 +33055,10 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1006" t="n">
-        <v>1</v>
+      <c r="H1006" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="1007">
@@ -32841,8 +33093,10 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H1007" t="n">
-        <v>1</v>
+      <c r="H1007" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="1008">
@@ -32873,8 +33127,10 @@
           <t>315.6</t>
         </is>
       </c>
-      <c r="H1008" t="n">
-        <v>2</v>
+      <c r="H1008" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1009">
@@ -32905,8 +33161,10 @@
           <t>317.4</t>
         </is>
       </c>
-      <c r="H1009" t="n">
-        <v>2</v>
+      <c r="H1009" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1010">
@@ -32941,8 +33199,10 @@
           <t>3.1</t>
         </is>
       </c>
-      <c r="H1010" t="n">
-        <v>2</v>
+      <c r="H1010" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1011">
@@ -32965,8 +33225,10 @@
       <c r="E1011" t="inlineStr"/>
       <c r="F1011" t="inlineStr"/>
       <c r="G1011" t="inlineStr"/>
-      <c r="H1011" t="n">
-        <v>2</v>
+      <c r="H1011" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1012">
@@ -32989,8 +33251,10 @@
       <c r="E1012" t="inlineStr"/>
       <c r="F1012" t="inlineStr"/>
       <c r="G1012" t="inlineStr"/>
-      <c r="H1012" t="n">
-        <v>2</v>
+      <c r="H1012" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1013">
@@ -33017,8 +33281,10 @@
       </c>
       <c r="F1013" t="inlineStr"/>
       <c r="G1013" t="inlineStr"/>
-      <c r="H1013" t="n">
-        <v>2</v>
+      <c r="H1013" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1014">
@@ -33045,8 +33311,10 @@
       </c>
       <c r="F1014" t="inlineStr"/>
       <c r="G1014" t="inlineStr"/>
-      <c r="H1014" t="n">
-        <v>2</v>
+      <c r="H1014" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1015">
@@ -33073,8 +33341,10 @@
       </c>
       <c r="F1015" t="inlineStr"/>
       <c r="G1015" t="inlineStr"/>
-      <c r="H1015" t="n">
-        <v>3</v>
+      <c r="H1015" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1016">
@@ -33101,8 +33371,10 @@
       </c>
       <c r="F1016" t="inlineStr"/>
       <c r="G1016" t="inlineStr"/>
-      <c r="H1016" t="n">
-        <v>3</v>
+      <c r="H1016" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1017">
@@ -33129,8 +33401,10 @@
       </c>
       <c r="F1017" t="inlineStr"/>
       <c r="G1017" t="inlineStr"/>
-      <c r="H1017" t="n">
-        <v>3</v>
+      <c r="H1017" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1018">
@@ -33157,8 +33431,10 @@
       </c>
       <c r="F1018" t="inlineStr"/>
       <c r="G1018" t="inlineStr"/>
-      <c r="H1018" t="n">
-        <v>3</v>
+      <c r="H1018" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1019">
@@ -33185,8 +33461,10 @@
       </c>
       <c r="F1019" t="inlineStr"/>
       <c r="G1019" t="inlineStr"/>
-      <c r="H1019" t="n">
-        <v>3</v>
+      <c r="H1019" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1020">
@@ -33213,8 +33491,10 @@
       </c>
       <c r="F1020" t="inlineStr"/>
       <c r="G1020" t="inlineStr"/>
-      <c r="H1020" t="n">
-        <v>3</v>
+      <c r="H1020" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1021">
@@ -33241,8 +33521,10 @@
       </c>
       <c r="F1021" t="inlineStr"/>
       <c r="G1021" t="inlineStr"/>
-      <c r="H1021" t="n">
-        <v>3</v>
+      <c r="H1021" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1022">
@@ -33277,8 +33559,10 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1022" t="n">
-        <v>2</v>
+      <c r="H1022" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1023">
@@ -33313,8 +33597,10 @@
           <t>9.5%</t>
         </is>
       </c>
-      <c r="H1023" t="n">
-        <v>2</v>
+      <c r="H1023" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1024">
@@ -33337,8 +33623,10 @@
       <c r="E1024" t="inlineStr"/>
       <c r="F1024" t="inlineStr"/>
       <c r="G1024" t="inlineStr"/>
-      <c r="H1024" t="n">
-        <v>2</v>
+      <c r="H1024" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1025">
@@ -33365,8 +33653,10 @@
       </c>
       <c r="F1025" t="inlineStr"/>
       <c r="G1025" t="inlineStr"/>
-      <c r="H1025" t="n">
-        <v>3</v>
+      <c r="H1025" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1026">
@@ -33397,8 +33687,10 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H1026" t="n">
-        <v>2</v>
+      <c r="H1026" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1027">
@@ -33425,8 +33717,10 @@
       </c>
       <c r="F1027" t="inlineStr"/>
       <c r="G1027" t="inlineStr"/>
-      <c r="H1027" t="n">
-        <v>3</v>
+      <c r="H1027" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1028">
@@ -33449,8 +33743,10 @@
       <c r="E1028" t="inlineStr"/>
       <c r="F1028" t="inlineStr"/>
       <c r="G1028" t="inlineStr"/>
-      <c r="H1028" t="n">
-        <v>2</v>
+      <c r="H1028" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1029">
@@ -33473,8 +33769,10 @@
       <c r="E1029" t="inlineStr"/>
       <c r="F1029" t="inlineStr"/>
       <c r="G1029" t="inlineStr"/>
-      <c r="H1029" t="n">
-        <v>3</v>
+      <c r="H1029" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1030">
@@ -33497,8 +33795,10 @@
       <c r="E1030" t="inlineStr"/>
       <c r="F1030" t="inlineStr"/>
       <c r="G1030" t="inlineStr"/>
-      <c r="H1030" t="n">
-        <v>3</v>
+      <c r="H1030" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1031">
@@ -33529,8 +33829,10 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H1031" t="n">
-        <v>2</v>
+      <c r="H1031" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1032">
@@ -33565,8 +33867,10 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1032" t="n">
-        <v>3</v>
+      <c r="H1032" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1033">
@@ -33601,8 +33905,10 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H1033" t="n">
-        <v>3</v>
+      <c r="H1033" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1034">
@@ -33637,8 +33943,10 @@
           <t>26.0%</t>
         </is>
       </c>
-      <c r="H1034" t="n">
-        <v>2</v>
+      <c r="H1034" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1035">
@@ -33673,8 +33981,10 @@
           <t>3.9%</t>
         </is>
       </c>
-      <c r="H1035" t="n">
-        <v>1</v>
+      <c r="H1035" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="1036">
@@ -33709,8 +34019,10 @@
           <t>25.1K</t>
         </is>
       </c>
-      <c r="H1036" t="n">
-        <v>2</v>
+      <c r="H1036" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1037">
@@ -33737,8 +34049,10 @@
       </c>
       <c r="F1037" t="inlineStr"/>
       <c r="G1037" t="inlineStr"/>
-      <c r="H1037" t="n">
-        <v>2</v>
+      <c r="H1037" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1038">
@@ -33765,8 +34079,10 @@
       </c>
       <c r="F1038" t="inlineStr"/>
       <c r="G1038" t="inlineStr"/>
-      <c r="H1038" t="n">
-        <v>3</v>
+      <c r="H1038" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1039">
@@ -33801,8 +34117,10 @@
           <t>66.8%</t>
         </is>
       </c>
-      <c r="H1039" t="n">
-        <v>3</v>
+      <c r="H1039" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1040">
@@ -33837,8 +34155,10 @@
           <t>2.75%</t>
         </is>
       </c>
-      <c r="H1040" t="n">
-        <v>2</v>
+      <c r="H1040" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1041">
@@ -33865,8 +34185,10 @@
       </c>
       <c r="F1041" t="inlineStr"/>
       <c r="G1041" t="inlineStr"/>
-      <c r="H1041" t="n">
-        <v>3</v>
+      <c r="H1041" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1042">
@@ -33893,8 +34215,10 @@
       </c>
       <c r="F1042" t="inlineStr"/>
       <c r="G1042" t="inlineStr"/>
-      <c r="H1042" t="n">
-        <v>3</v>
+      <c r="H1042" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1043">
@@ -33921,8 +34245,10 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1043" t="n">
-        <v>3</v>
+      <c r="H1043" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1044">
@@ -33949,8 +34275,10 @@
           <t>2%</t>
         </is>
       </c>
-      <c r="H1044" t="n">
-        <v>3</v>
+      <c r="H1044" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1045">
@@ -33977,8 +34305,10 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H1045" t="n">
-        <v>3</v>
+      <c r="H1045" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1046">
@@ -34001,8 +34331,10 @@
       </c>
       <c r="F1046" t="inlineStr"/>
       <c r="G1046" t="inlineStr"/>
-      <c r="H1046" t="n">
-        <v>3</v>
+      <c r="H1046" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1047">
@@ -34021,8 +34353,10 @@
       <c r="E1047" t="inlineStr"/>
       <c r="F1047" t="inlineStr"/>
       <c r="G1047" t="inlineStr"/>
-      <c r="H1047" t="n">
-        <v>3</v>
+      <c r="H1047" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1048">
@@ -34049,8 +34383,10 @@
           <t>$ -38.0B</t>
         </is>
       </c>
-      <c r="H1048" t="n">
-        <v>3</v>
+      <c r="H1048" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1049">
@@ -34077,8 +34413,10 @@
           <t>$ 32.5B</t>
         </is>
       </c>
-      <c r="H1049" t="n">
-        <v>3</v>
+      <c r="H1049" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1050">
@@ -34105,8 +34443,10 @@
           <t>$ 70.5B</t>
         </is>
       </c>
-      <c r="H1050" t="n">
-        <v>3</v>
+      <c r="H1050" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1051">
@@ -34147,8 +34487,10 @@
       </c>
       <c r="F1052" t="inlineStr"/>
       <c r="G1052" t="inlineStr"/>
-      <c r="H1052" t="n">
-        <v>3</v>
+      <c r="H1052" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1053">
@@ -34183,8 +34525,10 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1053" t="n">
-        <v>2</v>
+      <c r="H1053" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1054">
@@ -34219,8 +34563,10 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H1054" t="n">
-        <v>2</v>
+      <c r="H1054" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1055">
@@ -34255,8 +34601,10 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H1055" t="n">
-        <v>3</v>
+      <c r="H1055" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1056">
@@ -34291,8 +34639,10 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H1056" t="n">
-        <v>3</v>
+      <c r="H1056" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1057">
@@ -34327,8 +34677,10 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1057" t="n">
-        <v>1</v>
+      <c r="H1057" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="1058">
@@ -34359,8 +34711,10 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1058" t="n">
-        <v>1</v>
+      <c r="H1058" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="1059">
@@ -34395,8 +34749,10 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1059" t="n">
-        <v>2</v>
+      <c r="H1059" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1060">
@@ -34431,8 +34787,10 @@
           <t>£-17.0B</t>
         </is>
       </c>
-      <c r="H1060" t="n">
-        <v>2</v>
+      <c r="H1060" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1061">
@@ -34463,8 +34821,10 @@
           <t>£-6.8B</t>
         </is>
       </c>
-      <c r="H1061" t="n">
-        <v>2</v>
+      <c r="H1061" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1062">
@@ -34499,8 +34859,10 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1062" t="n">
-        <v>2</v>
+      <c r="H1062" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1063">
@@ -34535,8 +34897,10 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1063" t="n">
-        <v>2</v>
+      <c r="H1063" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1064">
@@ -34567,8 +34931,10 @@
           <t>£-3.9B</t>
         </is>
       </c>
-      <c r="H1064" t="n">
-        <v>3</v>
+      <c r="H1064" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1065">
@@ -34599,8 +34965,10 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1065" t="n">
-        <v>3</v>
+      <c r="H1065" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1066">
@@ -34635,8 +35003,10 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H1066" t="n">
-        <v>3</v>
+      <c r="H1066" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1067">
@@ -34671,8 +35041,10 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H1067" t="n">
-        <v>3</v>
+      <c r="H1067" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1068">
@@ -34707,8 +35079,10 @@
           <t>€3.2B</t>
         </is>
       </c>
-      <c r="H1068" t="n">
-        <v>2</v>
+      <c r="H1068" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1069">
@@ -34743,8 +35117,10 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1069" t="n">
-        <v>2</v>
+      <c r="H1069" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1070">
@@ -34779,8 +35155,10 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H1070" t="n">
-        <v>2</v>
+      <c r="H1070" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1071">
@@ -34815,8 +35193,10 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1071" t="n">
-        <v>3</v>
+      <c r="H1071" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1072">
@@ -34851,8 +35231,10 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H1072" t="n">
-        <v>3</v>
+      <c r="H1072" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1073">
@@ -34875,8 +35257,10 @@
       <c r="E1073" t="inlineStr"/>
       <c r="F1073" t="inlineStr"/>
       <c r="G1073" t="inlineStr"/>
-      <c r="H1073" t="n">
-        <v>3</v>
+      <c r="H1073" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1074">
@@ -34903,8 +35287,10 @@
       </c>
       <c r="F1074" t="inlineStr"/>
       <c r="G1074" t="inlineStr"/>
-      <c r="H1074" t="n">
-        <v>3</v>
+      <c r="H1074" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1075">
@@ -34927,8 +35313,10 @@
       <c r="E1075" t="inlineStr"/>
       <c r="F1075" t="inlineStr"/>
       <c r="G1075" t="inlineStr"/>
-      <c r="H1075" t="n">
-        <v>3</v>
+      <c r="H1075" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1076">
@@ -34955,8 +35343,10 @@
       </c>
       <c r="F1076" t="inlineStr"/>
       <c r="G1076" t="inlineStr"/>
-      <c r="H1076" t="n">
-        <v>3</v>
+      <c r="H1076" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1077">
@@ -34991,8 +35381,10 @@
           <t>€1.8B</t>
         </is>
       </c>
-      <c r="H1077" t="n">
-        <v>2</v>
+      <c r="H1077" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1078">
@@ -35019,8 +35411,10 @@
       </c>
       <c r="F1078" t="inlineStr"/>
       <c r="G1078" t="inlineStr"/>
-      <c r="H1078" t="n">
-        <v>3</v>
+      <c r="H1078" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1079">
@@ -35055,8 +35449,10 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1079" t="n">
-        <v>3</v>
+      <c r="H1079" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1080">
@@ -35079,8 +35475,10 @@
       <c r="E1080" t="inlineStr"/>
       <c r="F1080" t="inlineStr"/>
       <c r="G1080" t="inlineStr"/>
-      <c r="H1080" t="n">
-        <v>2</v>
+      <c r="H1080" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1081">
@@ -35111,8 +35509,10 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1081" t="n">
-        <v>3</v>
+      <c r="H1081" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1082">
@@ -35147,8 +35547,10 @@
           <t>240.0K</t>
         </is>
       </c>
-      <c r="H1082" t="n">
-        <v>2</v>
+      <c r="H1082" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1083">
@@ -35183,8 +35585,10 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1083" t="n">
-        <v>1</v>
+      <c r="H1083" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="1084">
@@ -35219,8 +35623,10 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1084" t="n">
-        <v>2</v>
+      <c r="H1084" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1085">
@@ -35255,8 +35661,10 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1085" t="n">
-        <v>2</v>
+      <c r="H1085" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1086">
@@ -35291,8 +35699,10 @@
           <t>209.0K</t>
         </is>
       </c>
-      <c r="H1086" t="n">
-        <v>2</v>
+      <c r="H1086" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1087">
@@ -35327,8 +35737,10 @@
           <t>-10</t>
         </is>
       </c>
-      <c r="H1087" t="n">
-        <v>2</v>
+      <c r="H1087" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1088">
@@ -35363,8 +35775,10 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1088" t="n">
-        <v>2</v>
+      <c r="H1088" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1089">
@@ -35395,8 +35809,10 @@
           <t>1870.0K</t>
         </is>
       </c>
-      <c r="H1089" t="n">
-        <v>3</v>
+      <c r="H1089" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1090">
@@ -35427,8 +35843,10 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H1090" t="n">
-        <v>3</v>
+      <c r="H1090" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1091">
@@ -35459,8 +35877,10 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1091" t="n">
-        <v>3</v>
+      <c r="H1091" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1092">
@@ -35491,8 +35911,10 @@
           <t>215.0K</t>
         </is>
       </c>
-      <c r="H1092" t="n">
-        <v>3</v>
+      <c r="H1092" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1093">
@@ -35519,8 +35941,10 @@
       </c>
       <c r="F1093" t="inlineStr"/>
       <c r="G1093" t="inlineStr"/>
-      <c r="H1093" t="n">
-        <v>3</v>
+      <c r="H1093" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1094">
@@ -35547,8 +35971,10 @@
       </c>
       <c r="F1094" t="inlineStr"/>
       <c r="G1094" t="inlineStr"/>
-      <c r="H1094" t="n">
-        <v>3</v>
+      <c r="H1094" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1095">
@@ -35575,8 +36001,10 @@
       </c>
       <c r="F1095" t="inlineStr"/>
       <c r="G1095" t="inlineStr"/>
-      <c r="H1095" t="n">
-        <v>3</v>
+      <c r="H1095" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1096">
@@ -35603,8 +36031,10 @@
       </c>
       <c r="F1096" t="inlineStr"/>
       <c r="G1096" t="inlineStr"/>
-      <c r="H1096" t="n">
-        <v>3</v>
+      <c r="H1096" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1097">
@@ -35631,8 +36061,10 @@
       </c>
       <c r="F1097" t="inlineStr"/>
       <c r="G1097" t="inlineStr"/>
-      <c r="H1097" t="n">
-        <v>3</v>
+      <c r="H1097" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1098">
@@ -35663,8 +36095,10 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1098" t="n">
-        <v>3</v>
+      <c r="H1098" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1099">
@@ -35695,8 +36129,10 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H1099" t="n">
-        <v>3</v>
+      <c r="H1099" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1100">
@@ -35731,8 +36167,10 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1100" t="n">
-        <v>2</v>
+      <c r="H1100" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1101">
@@ -35767,8 +36205,10 @@
           <t>45</t>
         </is>
       </c>
-      <c r="H1101" t="n">
-        <v>2</v>
+      <c r="H1101" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1102">
@@ -35803,8 +36243,10 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1102" t="n">
-        <v>3</v>
+      <c r="H1102" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1103">
@@ -35831,8 +36273,10 @@
       </c>
       <c r="F1103" t="inlineStr"/>
       <c r="G1103" t="inlineStr"/>
-      <c r="H1103" t="n">
-        <v>3</v>
+      <c r="H1103" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1104">
@@ -35859,8 +36303,10 @@
       </c>
       <c r="F1104" t="inlineStr"/>
       <c r="G1104" t="inlineStr"/>
-      <c r="H1104" t="n">
-        <v>3</v>
+      <c r="H1104" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1105">
@@ -35887,8 +36333,10 @@
       </c>
       <c r="F1105" t="inlineStr"/>
       <c r="G1105" t="inlineStr"/>
-      <c r="H1105" t="n">
-        <v>3</v>
+      <c r="H1105" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1106">
@@ -35915,8 +36363,10 @@
       </c>
       <c r="F1106" t="inlineStr"/>
       <c r="G1106" t="inlineStr"/>
-      <c r="H1106" t="n">
-        <v>3</v>
+      <c r="H1106" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1107">
@@ -35943,8 +36393,10 @@
       </c>
       <c r="F1107" t="inlineStr"/>
       <c r="G1107" t="inlineStr"/>
-      <c r="H1107" t="n">
-        <v>3</v>
+      <c r="H1107" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1108">
@@ -35967,8 +36419,10 @@
       <c r="E1108" t="inlineStr"/>
       <c r="F1108" t="inlineStr"/>
       <c r="G1108" t="inlineStr"/>
-      <c r="H1108" t="n">
-        <v>2</v>
+      <c r="H1108" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1109">
@@ -35995,8 +36449,10 @@
       </c>
       <c r="F1109" t="inlineStr"/>
       <c r="G1109" t="inlineStr"/>
-      <c r="H1109" t="n">
-        <v>3</v>
+      <c r="H1109" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1110">
@@ -36023,8 +36479,10 @@
       </c>
       <c r="F1110" t="inlineStr"/>
       <c r="G1110" t="inlineStr"/>
-      <c r="H1110" t="n">
-        <v>3</v>
+      <c r="H1110" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1111">
@@ -36051,8 +36509,10 @@
       </c>
       <c r="F1111" t="inlineStr"/>
       <c r="G1111" t="inlineStr"/>
-      <c r="H1111" t="n">
-        <v>3</v>
+      <c r="H1111" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1112">
@@ -36083,8 +36543,10 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1112" t="n">
-        <v>3</v>
+      <c r="H1112" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1113">
@@ -36119,8 +36581,10 @@
           <t>7.5%</t>
         </is>
       </c>
-      <c r="H1113" t="n">
-        <v>3</v>
+      <c r="H1113" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1114">
@@ -36147,8 +36611,10 @@
       </c>
       <c r="F1114" t="inlineStr"/>
       <c r="G1114" t="inlineStr"/>
-      <c r="H1114" t="n">
-        <v>3</v>
+      <c r="H1114" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1115">
@@ -36179,8 +36645,10 @@
           <t>-5.8%</t>
         </is>
       </c>
-      <c r="H1115" t="n">
-        <v>2</v>
+      <c r="H1115" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1116">
@@ -36211,8 +36679,10 @@
           <t>$ 3.6B</t>
         </is>
       </c>
-      <c r="H1116" t="n">
-        <v>3</v>
+      <c r="H1116" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1117">
@@ -36247,8 +36717,10 @@
           <t>5%</t>
         </is>
       </c>
-      <c r="H1117" t="n">
-        <v>1</v>
+      <c r="H1117" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="1118">
@@ -36283,8 +36755,10 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="H1118" t="n">
-        <v>1</v>
+      <c r="H1118" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="1119">
@@ -36319,8 +36793,10 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H1119" t="n">
-        <v>1</v>
+      <c r="H1119" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="1120">
@@ -36355,8 +36831,10 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H1120" t="n">
-        <v>2</v>
+      <c r="H1120" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1121">
@@ -36391,8 +36869,10 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1121" t="n">
-        <v>2</v>
+      <c r="H1121" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="1122">
@@ -36423,8 +36903,10 @@
           <t>75.3%</t>
         </is>
       </c>
-      <c r="H1122" t="n">
-        <v>3</v>
+      <c r="H1122" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1123">
@@ -36459,8 +36941,10 @@
           <t>5.00%</t>
         </is>
       </c>
-      <c r="H1123" t="n">
-        <v>3</v>
+      <c r="H1123" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1124">
@@ -36487,98 +36971,96 @@
       </c>
       <c r="F1124" t="inlineStr"/>
       <c r="G1124" t="inlineStr"/>
-      <c r="H1124" t="n">
-        <v>3</v>
+      <c r="H1124" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="1125">
       <c r="A1125" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1125" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1125" t="inlineStr">
-        <is>
-          <t>Building Permits MoM PrelDEC</t>
-        </is>
-      </c>
+          <t>Friday January 17 2025</t>
+        </is>
+      </c>
+      <c r="B1125" t="inlineStr"/>
+      <c r="C1125" t="inlineStr"/>
       <c r="D1125" t="inlineStr"/>
-      <c r="E1125" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="E1125" t="inlineStr"/>
       <c r="F1125" t="inlineStr"/>
-      <c r="G1125" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="H1125" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G1125" t="inlineStr"/>
+      <c r="H1125" t="inlineStr"/>
     </row>
     <row r="1126">
       <c r="A1126" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1126" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1126" t="inlineStr">
         <is>
-          <t>Housing Starts MoMDEC</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1126" t="inlineStr"/>
       <c r="E1126" t="inlineStr">
         <is>
-          <t>-1.8%</t>
-        </is>
-      </c>
-      <c r="F1126" t="inlineStr"/>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="F1126" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="G1126" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H1126" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1127">
       <c r="A1127" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1127" t="inlineStr">
         <is>
-          <t>IF</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1127" t="inlineStr">
         <is>
-          <t>IMF/World Economic Outlook</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D1127" t="inlineStr"/>
-      <c r="E1127" t="inlineStr"/>
-      <c r="F1127" t="inlineStr"/>
-      <c r="G1127" t="inlineStr"/>
+      <c r="E1127" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="F1127" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="G1127" t="inlineStr">
+        <is>
+          <t>2.1%</t>
+        </is>
+      </c>
       <c r="H1127" t="inlineStr">
         <is>
           <t>2</t>
@@ -36588,71 +37070,71 @@
     <row r="1128">
       <c r="A1128" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1128" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1128" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>Retail Sales ex Fuel MoMDEC</t>
         </is>
       </c>
       <c r="D1128" t="inlineStr"/>
       <c r="E1128" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F1128" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="G1128" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H1128" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1129">
       <c r="A1129" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1129" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1129" t="inlineStr">
         <is>
-          <t>Capacity UtilizationDEC</t>
+          <t>Retail Sales ex Fuel YoYDEC</t>
         </is>
       </c>
       <c r="D1129" t="inlineStr"/>
       <c r="E1129" t="inlineStr">
         <is>
-          <t>76.8%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F1129" t="inlineStr">
         <is>
-          <t>76.9%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="G1129" t="inlineStr">
         <is>
-          <t>76.9%</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="H1129" t="inlineStr">
@@ -36664,29 +37146,29 @@
     <row r="1130">
       <c r="A1130" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1130" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1130" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D1130" t="inlineStr"/>
       <c r="E1130" t="inlineStr">
         <is>
-          <t>-0.9%</t>
+          <t>€32B</t>
         </is>
       </c>
       <c r="F1130" t="inlineStr"/>
       <c r="G1130" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>€33.0B</t>
         </is>
       </c>
       <c r="H1130" t="inlineStr">
@@ -36698,35 +37180,31 @@
     <row r="1131">
       <c r="A1131" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1131" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1131" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMDEC</t>
+          <t>Current Account s.aNOV</t>
         </is>
       </c>
       <c r="D1131" t="inlineStr"/>
       <c r="E1131" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>€33.5B</t>
         </is>
       </c>
       <c r="F1131" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1131" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>€28B</t>
+        </is>
+      </c>
+      <c r="G1131" t="inlineStr"/>
       <c r="H1131" t="inlineStr">
         <is>
           <t>3</t>
@@ -36736,91 +37214,107 @@
     <row r="1132">
       <c r="A1132" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1132" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1132" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYDEC</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D1132" t="inlineStr"/>
       <c r="E1132" t="inlineStr">
         <is>
-          <t>-1%</t>
+          <t>€-3.93B</t>
         </is>
       </c>
       <c r="F1132" t="inlineStr"/>
       <c r="G1132" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>€-4.2B</t>
         </is>
       </c>
       <c r="H1132" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1133">
       <c r="A1133" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1133" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1133" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/17</t>
+          <t>Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D1133" t="inlineStr"/>
       <c r="E1133" t="inlineStr">
         <is>
-          <t>480</t>
-        </is>
-      </c>
-      <c r="F1133" t="inlineStr"/>
-      <c r="G1133" t="inlineStr"/>
+          <t>2.2%</t>
+        </is>
+      </c>
+      <c r="F1133" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="G1133" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
       <c r="H1133" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1134">
       <c r="A1134" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1134" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1134" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/17</t>
+          <t>Core Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D1134" t="inlineStr"/>
       <c r="E1134" t="inlineStr">
         <is>
-          <t>584</t>
-        </is>
-      </c>
-      <c r="F1134" t="inlineStr"/>
-      <c r="G1134" t="inlineStr"/>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="F1134" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="G1134" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="H1134" t="inlineStr">
         <is>
           <t>3</t>
@@ -36830,57 +37324,73 @@
     <row r="1135">
       <c r="A1135" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1135" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1135" t="inlineStr">
         <is>
-          <t>Net Long-term TIC FlowsNOV</t>
+          <t>CPI FinalDEC</t>
         </is>
       </c>
       <c r="D1135" t="inlineStr"/>
       <c r="E1135" t="inlineStr">
         <is>
-          <t>$152.3B</t>
-        </is>
-      </c>
-      <c r="F1135" t="inlineStr"/>
-      <c r="G1135" t="inlineStr"/>
+          <t>126.62</t>
+        </is>
+      </c>
+      <c r="F1135" t="inlineStr">
+        <is>
+          <t>127.08</t>
+        </is>
+      </c>
+      <c r="G1135" t="inlineStr">
+        <is>
+          <t>127.08</t>
+        </is>
+      </c>
       <c r="H1135" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1136">
       <c r="A1136" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1136" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1136" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentNOV</t>
+          <t>Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D1136" t="inlineStr"/>
       <c r="E1136" t="inlineStr">
         <is>
-          <t>$92.1B</t>
-        </is>
-      </c>
-      <c r="F1136" t="inlineStr"/>
-      <c r="G1136" t="inlineStr"/>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="F1136" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="G1136" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H1136" t="inlineStr">
         <is>
           <t>3</t>
@@ -36890,25 +37400,21 @@
     <row r="1137">
       <c r="A1137" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1137" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1137" t="inlineStr">
         <is>
-          <t>Overall Net Capital FlowsNOV</t>
+          <t>Bundesbank Nagel Speech</t>
         </is>
       </c>
       <c r="D1137" t="inlineStr"/>
-      <c r="E1137" t="inlineStr">
-        <is>
-          <t>$203.6B</t>
-        </is>
-      </c>
+      <c r="E1137" t="inlineStr"/>
       <c r="F1137" t="inlineStr"/>
       <c r="G1137" t="inlineStr"/>
       <c r="H1137" t="inlineStr">
@@ -36918,25 +37424,33 @@
       </c>
     </row>
     <row r="1138">
-      <c r="A1138" t="inlineStr"/>
+      <c r="A1138" t="inlineStr">
+        <is>
+          <t>05:00 AM</t>
+        </is>
+      </c>
       <c r="B1138" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1138" t="inlineStr">
         <is>
-          <t>50-Year KTB Auction</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D1138" t="inlineStr"/>
       <c r="E1138" t="inlineStr">
         <is>
-          <t>2.40%</t>
+          <t>€5628M</t>
         </is>
       </c>
       <c r="F1138" t="inlineStr"/>
-      <c r="G1138" t="inlineStr"/>
+      <c r="G1138" t="inlineStr">
+        <is>
+          <t>€2900.0M</t>
+        </is>
+      </c>
       <c r="H1138" t="inlineStr">
         <is>
           <t>3</t>
@@ -36946,165 +37460,169 @@
     <row r="1139">
       <c r="A1139" t="inlineStr">
         <is>
-          <t>Sunday January 19 2025</t>
-        </is>
-      </c>
-      <c r="B1139" t="inlineStr"/>
-      <c r="C1139" t="inlineStr"/>
+          <t>06:00 AM</t>
+        </is>
+      </c>
+      <c r="B1139" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C1139" t="inlineStr">
+        <is>
+          <t>ECB Cipollone Speech</t>
+        </is>
+      </c>
       <c r="D1139" t="inlineStr"/>
       <c r="E1139" t="inlineStr"/>
       <c r="F1139" t="inlineStr"/>
       <c r="G1139" t="inlineStr"/>
-      <c r="H1139" t="inlineStr"/>
+      <c r="H1139" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1140">
       <c r="A1140" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1140" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1140" t="inlineStr">
         <is>
-          <t>Machinery Orders MoMNOV</t>
+          <t>Bank Loan Growth YoYJAN/03</t>
         </is>
       </c>
       <c r="D1140" t="inlineStr"/>
       <c r="E1140" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>11.5%</t>
         </is>
       </c>
       <c r="F1140" t="inlineStr"/>
-      <c r="G1140" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1140" t="inlineStr"/>
       <c r="H1140" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1141">
       <c r="A1141" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1141" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1141" t="inlineStr">
         <is>
-          <t>Machinery Orders YoYNOV</t>
+          <t>Deposit Growth YoYJAN/03</t>
         </is>
       </c>
       <c r="D1141" t="inlineStr"/>
       <c r="E1141" t="inlineStr">
         <is>
-          <t>5.6%</t>
+          <t>11.5%</t>
         </is>
       </c>
       <c r="F1141" t="inlineStr"/>
-      <c r="G1141" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
+      <c r="G1141" t="inlineStr"/>
       <c r="H1141" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1142">
       <c r="A1142" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1142" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1142" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 1Y</t>
+          <t>Foreign Exchange ReservesJAN/10</t>
         </is>
       </c>
       <c r="D1142" t="inlineStr"/>
       <c r="E1142" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>$634.59B</t>
         </is>
       </c>
       <c r="F1142" t="inlineStr"/>
       <c r="G1142" t="inlineStr"/>
       <c r="H1142" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1143">
       <c r="A1143" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1143" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1143" t="inlineStr">
         <is>
-          <t>Loan Prime Rate 5YJAN</t>
+          <t>Foreign Securities PurchasesNOV</t>
         </is>
       </c>
       <c r="D1143" t="inlineStr"/>
       <c r="E1143" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>C$21.55B</t>
         </is>
       </c>
       <c r="F1143" t="inlineStr"/>
       <c r="G1143" t="inlineStr"/>
       <c r="H1143" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1144">
       <c r="A1144" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1144" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1144" t="inlineStr">
         <is>
-          <t>Capacity Utilization MoMNOV</t>
+          <t>Foreign Securities Purchases by CanadiansNOV</t>
         </is>
       </c>
       <c r="D1144" t="inlineStr"/>
       <c r="E1144" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>C$-2.65B</t>
         </is>
       </c>
       <c r="F1144" t="inlineStr"/>
@@ -37118,167 +37636,203 @@
     <row r="1145">
       <c r="A1145" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1145" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1145" t="inlineStr">
         <is>
-          <t>Industrial Production MoM FinalNOV</t>
+          <t>Building Permits PrelDEC</t>
         </is>
       </c>
       <c r="D1145" t="inlineStr"/>
       <c r="E1145" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>1.493M</t>
         </is>
       </c>
       <c r="F1145" t="inlineStr">
         <is>
-          <t>-2.3%</t>
+          <t>1.46M</t>
         </is>
       </c>
       <c r="G1145" t="inlineStr">
         <is>
-          <t>-2.3%</t>
+          <t>1.48M</t>
         </is>
       </c>
       <c r="H1145" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1146">
       <c r="A1146" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1146" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1146" t="inlineStr">
         <is>
-          <t>Industrial Production YoY FinalNOV</t>
+          <t>Housing StartsDEC</t>
         </is>
       </c>
       <c r="D1146" t="inlineStr"/>
       <c r="E1146" t="inlineStr">
         <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="F1146" t="inlineStr"/>
+          <t>1.289M</t>
+        </is>
+      </c>
+      <c r="F1146" t="inlineStr">
+        <is>
+          <t>1.32M</t>
+        </is>
+      </c>
       <c r="G1146" t="inlineStr">
         <is>
-          <t>-2.8%</t>
+          <t>1.32M</t>
         </is>
       </c>
       <c r="H1146" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1147">
       <c r="A1147" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1147" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1147" t="inlineStr">
         <is>
-          <t>Tertiary Industry Index MoMNOV</t>
+          <t>Building Permits MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1147" t="inlineStr"/>
       <c r="E1147" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F1147" t="inlineStr"/>
-      <c r="G1147" t="inlineStr"/>
+      <c r="G1147" t="inlineStr">
+        <is>
+          <t>-0.9%</t>
+        </is>
+      </c>
       <c r="H1147" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1148">
-      <c r="A1148" t="inlineStr"/>
+      <c r="A1148" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B1148" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1148" t="inlineStr">
         <is>
-          <t>Eurogroup Meeting</t>
+          <t>Housing Starts MoMDEC</t>
         </is>
       </c>
       <c r="D1148" t="inlineStr"/>
-      <c r="E1148" t="inlineStr"/>
+      <c r="E1148" t="inlineStr">
+        <is>
+          <t>-1.8%</t>
+        </is>
+      </c>
       <c r="F1148" t="inlineStr"/>
-      <c r="G1148" t="inlineStr"/>
+      <c r="G1148" t="inlineStr">
+        <is>
+          <t>2%</t>
+        </is>
+      </c>
       <c r="H1148" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1149">
       <c r="A1149" t="inlineStr">
         <is>
-          <t>Monday January 20 2025</t>
-        </is>
-      </c>
-      <c r="B1149" t="inlineStr"/>
-      <c r="C1149" t="inlineStr"/>
+          <t>09:00 AM</t>
+        </is>
+      </c>
+      <c r="B1149" t="inlineStr">
+        <is>
+          <t>IF</t>
+        </is>
+      </c>
+      <c r="C1149" t="inlineStr">
+        <is>
+          <t>IMF/World Economic Outlook</t>
+        </is>
+      </c>
       <c r="D1149" t="inlineStr"/>
       <c r="E1149" t="inlineStr"/>
       <c r="F1149" t="inlineStr"/>
       <c r="G1149" t="inlineStr"/>
-      <c r="H1149" t="inlineStr"/>
+      <c r="H1149" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1150">
       <c r="A1150" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1150" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1150" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D1150" t="inlineStr"/>
       <c r="E1150" t="inlineStr">
         <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F1150" t="inlineStr"/>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="F1150" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="G1150" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="H1150" t="inlineStr">
@@ -37290,29 +37844,33 @@
     <row r="1151">
       <c r="A1151" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1151" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1151" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Capacity UtilizationDEC</t>
         </is>
       </c>
       <c r="D1151" t="inlineStr"/>
       <c r="E1151" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F1151" t="inlineStr"/>
+          <t>76.8%</t>
+        </is>
+      </c>
+      <c r="F1151" t="inlineStr">
+        <is>
+          <t>76.9%</t>
+        </is>
+      </c>
       <c r="G1151" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>76.9%</t>
         </is>
       </c>
       <c r="H1151" t="inlineStr">
@@ -37324,29 +37882,29 @@
     <row r="1152">
       <c r="A1152" t="inlineStr">
         <is>
-          <t>04:15 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1152" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1152" t="inlineStr">
         <is>
-          <t>Construction Output YoYNOV</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D1152" t="inlineStr"/>
       <c r="E1152" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="F1152" t="inlineStr"/>
       <c r="G1152" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="H1152" t="inlineStr">
@@ -37358,17 +37916,17 @@
     <row r="1153">
       <c r="A1153" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1153" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1153" t="inlineStr">
         <is>
-          <t>Construction Output YoYNOV</t>
+          <t>Manufacturing Production MoMDEC</t>
         </is>
       </c>
       <c r="D1153" t="inlineStr"/>
@@ -37377,8 +37935,16 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="F1153" t="inlineStr"/>
-      <c r="G1153" t="inlineStr"/>
+      <c r="F1153" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="G1153" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H1153" t="inlineStr">
         <is>
           <t>3</t>
@@ -37388,23 +37954,31 @@
     <row r="1154">
       <c r="A1154" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B1154" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1154" t="inlineStr">
         <is>
-          <t>3-Month Bubill Auction</t>
+          <t>Manufacturing Production YoYDEC</t>
         </is>
       </c>
       <c r="D1154" t="inlineStr"/>
-      <c r="E1154" t="inlineStr"/>
+      <c r="E1154" t="inlineStr">
+        <is>
+          <t>-1%</t>
+        </is>
+      </c>
       <c r="F1154" t="inlineStr"/>
-      <c r="G1154" t="inlineStr"/>
+      <c r="G1154" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="H1154" t="inlineStr">
         <is>
           <t>3</t>
@@ -37414,21 +37988,25 @@
     <row r="1155">
       <c r="A1155" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1155" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1155" t="inlineStr">
         <is>
-          <t>9-Month Bubill Auction</t>
+          <t>Baker Hughes Oil Rig CountJAN/17</t>
         </is>
       </c>
       <c r="D1155" t="inlineStr"/>
-      <c r="E1155" t="inlineStr"/>
+      <c r="E1155" t="inlineStr">
+        <is>
+          <t>480</t>
+        </is>
+      </c>
       <c r="F1155" t="inlineStr"/>
       <c r="G1155" t="inlineStr"/>
       <c r="H1155" t="inlineStr">
@@ -37440,23 +38018,23 @@
     <row r="1156">
       <c r="A1156" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1156" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1156" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Baker Hughes Total Rigs CountJAN/17</t>
         </is>
       </c>
       <c r="D1156" t="inlineStr"/>
       <c r="E1156" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>584</t>
         </is>
       </c>
       <c r="F1156" t="inlineStr"/>
@@ -37470,57 +38048,53 @@
     <row r="1157">
       <c r="A1157" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1157" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1157" t="inlineStr">
         <is>
-          <t>Current AccountQ4</t>
+          <t>Net Long-term TIC FlowsNOV</t>
         </is>
       </c>
       <c r="D1157" t="inlineStr"/>
       <c r="E1157" t="inlineStr">
         <is>
-          <t>$9.1B</t>
+          <t>$152.3B</t>
         </is>
       </c>
       <c r="F1157" t="inlineStr"/>
-      <c r="G1157" t="inlineStr">
-        <is>
-          <t>$ 10B</t>
-        </is>
-      </c>
+      <c r="G1157" t="inlineStr"/>
       <c r="H1157" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1158">
       <c r="A1158" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1158" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1158" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>Foreign Bond InvestmentNOV</t>
         </is>
       </c>
       <c r="D1158" t="inlineStr"/>
       <c r="E1158" t="inlineStr">
         <is>
-          <t>2.489%</t>
+          <t>$92.1B</t>
         </is>
       </c>
       <c r="F1158" t="inlineStr"/>
@@ -37534,23 +38108,23 @@
     <row r="1159">
       <c r="A1159" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1159" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1159" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>Overall Net Capital FlowsNOV</t>
         </is>
       </c>
       <c r="D1159" t="inlineStr"/>
       <c r="E1159" t="inlineStr">
         <is>
-          <t>2.691%</t>
+          <t>$203.6B</t>
         </is>
       </c>
       <c r="F1159" t="inlineStr"/>
@@ -37562,25 +38136,21 @@
       </c>
     </row>
     <row r="1160">
-      <c r="A1160" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
+      <c r="A1160" t="inlineStr"/>
       <c r="B1160" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1160" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>50-Year KTB Auction</t>
         </is>
       </c>
       <c r="D1160" t="inlineStr"/>
       <c r="E1160" t="inlineStr">
         <is>
-          <t>2.593%</t>
+          <t>2.40%</t>
         </is>
       </c>
       <c r="F1160" t="inlineStr"/>
@@ -37594,189 +38164,169 @@
     <row r="1161">
       <c r="A1161" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1161" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1161" t="inlineStr">
-        <is>
-          <t>BoC Business Outlook Survey</t>
-        </is>
-      </c>
+          <t>Sunday January 19 2025</t>
+        </is>
+      </c>
+      <c r="B1161" t="inlineStr"/>
+      <c r="C1161" t="inlineStr"/>
       <c r="D1161" t="inlineStr"/>
       <c r="E1161" t="inlineStr"/>
       <c r="F1161" t="inlineStr"/>
       <c r="G1161" t="inlineStr"/>
-      <c r="H1161" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="H1161" t="inlineStr"/>
     </row>
     <row r="1162">
       <c r="A1162" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1162" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1162" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Machinery Orders MoMNOV</t>
         </is>
       </c>
       <c r="D1162" t="inlineStr"/>
       <c r="E1162" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>2.1%</t>
         </is>
       </c>
       <c r="F1162" t="inlineStr"/>
       <c r="G1162" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1162" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1163">
       <c r="A1163" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B1163" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1163" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Machinery Orders YoYNOV</t>
         </is>
       </c>
       <c r="D1163" t="inlineStr"/>
       <c r="E1163" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>5.6%</t>
         </is>
       </c>
       <c r="F1163" t="inlineStr"/>
       <c r="G1163" t="inlineStr">
         <is>
-          <t>4.4%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="H1163" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1164">
       <c r="A1164" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1164" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1164" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Loan Prime Rate 1Y</t>
         </is>
       </c>
       <c r="D1164" t="inlineStr"/>
       <c r="E1164" t="inlineStr">
         <is>
-          <t>$1234M</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="F1164" t="inlineStr"/>
-      <c r="G1164" t="inlineStr">
-        <is>
-          <t>$ 1463M</t>
-        </is>
-      </c>
+      <c r="G1164" t="inlineStr"/>
       <c r="H1164" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1165">
       <c r="A1165" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1165" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1165" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Loan Prime Rate 5YJAN</t>
         </is>
       </c>
       <c r="D1165" t="inlineStr"/>
-      <c r="E1165" t="inlineStr"/>
+      <c r="E1165" t="inlineStr">
+        <is>
+          <t>3.6%</t>
+        </is>
+      </c>
       <c r="F1165" t="inlineStr"/>
-      <c r="G1165" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G1165" t="inlineStr"/>
       <c r="H1165" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1166">
       <c r="A1166" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1166" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1166" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Capacity Utilization MoMNOV</t>
         </is>
       </c>
       <c r="D1166" t="inlineStr"/>
       <c r="E1166" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F1166" t="inlineStr"/>
-      <c r="G1166" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="G1166" t="inlineStr"/>
       <c r="H1166" t="inlineStr">
         <is>
           <t>3</t>
@@ -37786,7 +38336,7 @@
     <row r="1167">
       <c r="A1167" t="inlineStr">
         <is>
-          <t>10:35 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1167" t="inlineStr">
@@ -37796,17 +38346,25 @@
       </c>
       <c r="C1167" t="inlineStr">
         <is>
-          <t>40-Year JGB Auction</t>
+          <t>Industrial Production MoM FinalNOV</t>
         </is>
       </c>
       <c r="D1167" t="inlineStr"/>
       <c r="E1167" t="inlineStr">
         <is>
-          <t>2.550%</t>
-        </is>
-      </c>
-      <c r="F1167" t="inlineStr"/>
-      <c r="G1167" t="inlineStr"/>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="F1167" t="inlineStr">
+        <is>
+          <t>-2.3%</t>
+        </is>
+      </c>
+      <c r="G1167" t="inlineStr">
+        <is>
+          <t>-2.3%</t>
+        </is>
+      </c>
       <c r="H1167" t="inlineStr">
         <is>
           <t>3</t>
@@ -37814,25 +38372,33 @@
       </c>
     </row>
     <row r="1168">
-      <c r="A1168" t="inlineStr"/>
+      <c r="A1168" t="inlineStr">
+        <is>
+          <t>11:30 PM</t>
+        </is>
+      </c>
       <c r="B1168" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1168" t="inlineStr">
         <is>
-          <t>10-Year KTB Auction</t>
+          <t>Industrial Production YoY FinalNOV</t>
         </is>
       </c>
       <c r="D1168" t="inlineStr"/>
       <c r="E1168" t="inlineStr">
         <is>
-          <t>2.665%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F1168" t="inlineStr"/>
-      <c r="G1168" t="inlineStr"/>
+      <c r="G1168" t="inlineStr">
+        <is>
+          <t>-2.8%</t>
+        </is>
+      </c>
       <c r="H1168" t="inlineStr">
         <is>
           <t>3</t>
@@ -37840,21 +38406,25 @@
       </c>
     </row>
     <row r="1169">
-      <c r="A1169" t="inlineStr"/>
+      <c r="A1169" t="inlineStr">
+        <is>
+          <t>11:30 PM</t>
+        </is>
+      </c>
       <c r="B1169" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1169" t="inlineStr">
         <is>
-          <t>FDI (YTD) YoYDEC</t>
+          <t>Tertiary Industry Index MoMNOV</t>
         </is>
       </c>
       <c r="D1169" t="inlineStr"/>
       <c r="E1169" t="inlineStr">
         <is>
-          <t>-27.9%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F1169" t="inlineStr"/>
@@ -37869,26 +38439,18 @@
       <c r="A1170" t="inlineStr"/>
       <c r="B1170" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1170" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceDEC</t>
+          <t>Eurogroup Meeting</t>
         </is>
       </c>
       <c r="D1170" t="inlineStr"/>
-      <c r="E1170" t="inlineStr">
-        <is>
-          <t>80.6</t>
-        </is>
-      </c>
+      <c r="E1170" t="inlineStr"/>
       <c r="F1170" t="inlineStr"/>
-      <c r="G1170" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
+      <c r="G1170" t="inlineStr"/>
       <c r="H1170" t="inlineStr">
         <is>
           <t>3</t>
@@ -37896,81 +38458,81 @@
       </c>
     </row>
     <row r="1171">
-      <c r="A1171" t="inlineStr"/>
-      <c r="B1171" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C1171" t="inlineStr">
-        <is>
-          <t>Leading Indicator MoMDEC</t>
-        </is>
-      </c>
+      <c r="A1171" t="inlineStr">
+        <is>
+          <t>Monday January 20 2025</t>
+        </is>
+      </c>
+      <c r="B1171" t="inlineStr"/>
+      <c r="C1171" t="inlineStr"/>
       <c r="D1171" t="inlineStr"/>
-      <c r="E1171" t="inlineStr">
-        <is>
-          <t>1.44%</t>
-        </is>
-      </c>
+      <c r="E1171" t="inlineStr"/>
       <c r="F1171" t="inlineStr"/>
-      <c r="G1171" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="H1171" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1171" t="inlineStr"/>
+      <c r="H1171" t="inlineStr"/>
     </row>
     <row r="1172">
-      <c r="A1172" t="inlineStr"/>
+      <c r="A1172" t="inlineStr">
+        <is>
+          <t>02:00 AM</t>
+        </is>
+      </c>
       <c r="B1172" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1172" t="inlineStr">
         <is>
-          <t>Central Government DebtDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1172" t="inlineStr"/>
       <c r="E1172" t="inlineStr">
         <is>
-          <t>TRY9.005T</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F1172" t="inlineStr"/>
       <c r="G1172" t="inlineStr">
         <is>
-          <t>TRY 9.0T</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1172" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1173">
-      <c r="A1173" t="inlineStr"/>
+      <c r="A1173" t="inlineStr">
+        <is>
+          <t>02:00 AM</t>
+        </is>
+      </c>
       <c r="B1173" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1173" t="inlineStr">
         <is>
-          <t>ECOFIN Meeting</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1173" t="inlineStr"/>
-      <c r="E1173" t="inlineStr"/>
+      <c r="E1173" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="F1173" t="inlineStr"/>
-      <c r="G1173" t="inlineStr"/>
+      <c r="G1173" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
       <c r="H1173" t="inlineStr">
         <is>
           <t>3</t>
@@ -37980,35 +38542,59 @@
     <row r="1174">
       <c r="A1174" t="inlineStr">
         <is>
-          <t>Tuesday January 21 2025</t>
-        </is>
-      </c>
-      <c r="B1174" t="inlineStr"/>
-      <c r="C1174" t="inlineStr"/>
+          <t>04:15 AM</t>
+        </is>
+      </c>
+      <c r="B1174" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="C1174" t="inlineStr">
+        <is>
+          <t>Construction Output YoYNOV</t>
+        </is>
+      </c>
       <c r="D1174" t="inlineStr"/>
-      <c r="E1174" t="inlineStr"/>
+      <c r="E1174" t="inlineStr">
+        <is>
+          <t>3.4%</t>
+        </is>
+      </c>
       <c r="F1174" t="inlineStr"/>
-      <c r="G1174" t="inlineStr"/>
-      <c r="H1174" t="inlineStr"/>
+      <c r="G1174" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="H1174" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1175">
       <c r="A1175" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1175" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1175" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D1175" t="inlineStr"/>
-      <c r="E1175" t="inlineStr"/>
+      <c r="E1175" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F1175" t="inlineStr"/>
       <c r="G1175" t="inlineStr"/>
       <c r="H1175" t="inlineStr">
@@ -38020,17 +38606,17 @@
     <row r="1176">
       <c r="A1176" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1176" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1176" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>3-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D1176" t="inlineStr"/>
@@ -38046,159 +38632,147 @@
     <row r="1177">
       <c r="A1177" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1177" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1177" t="inlineStr">
         <is>
-          <t>New Car Registrations YoYDEC</t>
+          <t>9-Month Bubill Auction</t>
         </is>
       </c>
       <c r="D1177" t="inlineStr"/>
-      <c r="E1177" t="inlineStr">
-        <is>
-          <t>-1.9%</t>
-        </is>
-      </c>
+      <c r="E1177" t="inlineStr"/>
       <c r="F1177" t="inlineStr"/>
       <c r="G1177" t="inlineStr"/>
       <c r="H1177" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1178">
       <c r="A1178" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1178" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1178" t="inlineStr">
         <is>
-          <t>Unemployment RateNOV</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D1178" t="inlineStr"/>
       <c r="E1178" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>$9.1B</t>
         </is>
       </c>
       <c r="F1178" t="inlineStr"/>
-      <c r="G1178" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="G1178" t="inlineStr"/>
       <c r="H1178" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1179">
       <c r="A1179" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1179" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1179" t="inlineStr">
         <is>
-          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
+          <t>Current AccountQ4</t>
         </is>
       </c>
       <c r="D1179" t="inlineStr"/>
       <c r="E1179" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>$9.1B</t>
         </is>
       </c>
       <c r="F1179" t="inlineStr"/>
       <c r="G1179" t="inlineStr">
         <is>
-          <t>4.9%</t>
+          <t>$ 10B</t>
         </is>
       </c>
       <c r="H1179" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1180">
       <c r="A1180" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1180" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1180" t="inlineStr">
         <is>
-          <t>Employment ChangeNOV</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1180" t="inlineStr"/>
       <c r="E1180" t="inlineStr">
         <is>
-          <t>173K</t>
+          <t>2.489%</t>
         </is>
       </c>
       <c r="F1180" t="inlineStr"/>
       <c r="G1180" t="inlineStr"/>
       <c r="H1180" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1181">
       <c r="A1181" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1181" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1181" t="inlineStr">
         <is>
-          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1181" t="inlineStr"/>
       <c r="E1181" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>2.691%</t>
         </is>
       </c>
       <c r="F1181" t="inlineStr"/>
-      <c r="G1181" t="inlineStr">
-        <is>
-          <t>5.0%</t>
-        </is>
-      </c>
+      <c r="G1181" t="inlineStr"/>
       <c r="H1181" t="inlineStr">
         <is>
           <t>3</t>
@@ -38208,31 +38782,27 @@
     <row r="1182">
       <c r="A1182" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1182" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1182" t="inlineStr">
         <is>
-          <t>Claimant Count ChangeDEC</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1182" t="inlineStr"/>
       <c r="E1182" t="inlineStr">
         <is>
-          <t>0.3K</t>
+          <t>2.593%</t>
         </is>
       </c>
       <c r="F1182" t="inlineStr"/>
-      <c r="G1182" t="inlineStr">
-        <is>
-          <t>-5K</t>
-        </is>
-      </c>
+      <c r="G1182" t="inlineStr"/>
       <c r="H1182" t="inlineStr">
         <is>
           <t>3</t>
@@ -38242,61 +38812,57 @@
     <row r="1183">
       <c r="A1183" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1183" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1183" t="inlineStr">
         <is>
-          <t>HMRC Payrolls ChangeDEC</t>
+          <t>BoC Business Outlook Survey</t>
         </is>
       </c>
       <c r="D1183" t="inlineStr"/>
-      <c r="E1183" t="inlineStr">
-        <is>
-          <t>-35K</t>
-        </is>
-      </c>
+      <c r="E1183" t="inlineStr"/>
       <c r="F1183" t="inlineStr"/>
-      <c r="G1183" t="inlineStr">
-        <is>
-          <t>20K</t>
-        </is>
-      </c>
+      <c r="G1183" t="inlineStr"/>
       <c r="H1183" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1184">
       <c r="A1184" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1184" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1184" t="inlineStr">
         <is>
-          <t>Gold Production YoYNOV</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1184" t="inlineStr"/>
       <c r="E1184" t="inlineStr">
         <is>
-          <t>-3.4%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="F1184" t="inlineStr"/>
-      <c r="G1184" t="inlineStr"/>
+      <c r="G1184" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H1184" t="inlineStr">
         <is>
           <t>3</t>
@@ -38306,27 +38872,31 @@
     <row r="1185">
       <c r="A1185" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1185" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1185" t="inlineStr">
         <is>
-          <t>Mining Production MoMNOV</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1185" t="inlineStr"/>
       <c r="E1185" t="inlineStr">
         <is>
-          <t>-3%</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="F1185" t="inlineStr"/>
-      <c r="G1185" t="inlineStr"/>
+      <c r="G1185" t="inlineStr">
+        <is>
+          <t>4.4%</t>
+        </is>
+      </c>
       <c r="H1185" t="inlineStr">
         <is>
           <t>3</t>
@@ -38336,27 +38906,31 @@
     <row r="1186">
       <c r="A1186" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1186" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1186" t="inlineStr">
         <is>
-          <t>Mining Production YoYNOV</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D1186" t="inlineStr"/>
       <c r="E1186" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>$1234M</t>
         </is>
       </c>
       <c r="F1186" t="inlineStr"/>
-      <c r="G1186" t="inlineStr"/>
+      <c r="G1186" t="inlineStr">
+        <is>
+          <t>$ 1463M</t>
+        </is>
+      </c>
       <c r="H1186" t="inlineStr">
         <is>
           <t>3</t>
@@ -38366,83 +38940,87 @@
     <row r="1187">
       <c r="A1187" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1187" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1187" t="inlineStr">
         <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1187" t="inlineStr"/>
-      <c r="E1187" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
+      <c r="E1187" t="inlineStr"/>
       <c r="F1187" t="inlineStr"/>
-      <c r="G1187" t="inlineStr"/>
+      <c r="G1187" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1187" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1188">
       <c r="A1188" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1188" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1188" t="inlineStr">
         <is>
-          <t>ZEW Economic Sentiment IndexJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1188" t="inlineStr"/>
       <c r="E1188" t="inlineStr">
         <is>
-          <t>15.7</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F1188" t="inlineStr"/>
-      <c r="G1188" t="inlineStr"/>
+      <c r="G1188" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
       <c r="H1188" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1189">
       <c r="A1189" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B1189" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1189" t="inlineStr">
         <is>
-          <t>ZEW Current ConditionsJAN</t>
+          <t>40-Year JGB Auction</t>
         </is>
       </c>
       <c r="D1189" t="inlineStr"/>
       <c r="E1189" t="inlineStr">
         <is>
-          <t>-93.1</t>
+          <t>2.550%</t>
         </is>
       </c>
       <c r="F1189" t="inlineStr"/>
@@ -38454,23 +39032,23 @@
       </c>
     </row>
     <row r="1190">
-      <c r="A1190" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
+      <c r="A1190" t="inlineStr"/>
       <c r="B1190" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1190" t="inlineStr">
         <is>
-          <t>Bund/g Auction</t>
+          <t>10-Year KTB Auction</t>
         </is>
       </c>
       <c r="D1190" t="inlineStr"/>
-      <c r="E1190" t="inlineStr"/>
+      <c r="E1190" t="inlineStr">
+        <is>
+          <t>2.665%</t>
+        </is>
+      </c>
       <c r="F1190" t="inlineStr"/>
       <c r="G1190" t="inlineStr"/>
       <c r="H1190" t="inlineStr">
@@ -38480,25 +39058,21 @@
       </c>
     </row>
     <row r="1191">
-      <c r="A1191" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
+      <c r="A1191" t="inlineStr"/>
       <c r="B1191" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1191" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>FDI (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D1191" t="inlineStr"/>
       <c r="E1191" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>-27.9%</t>
         </is>
       </c>
       <c r="F1191" t="inlineStr"/>
@@ -38510,29 +39084,29 @@
       </c>
     </row>
     <row r="1192">
-      <c r="A1192" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
+      <c r="A1192" t="inlineStr"/>
       <c r="B1192" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1192" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>Consumer ConfidenceDEC</t>
         </is>
       </c>
       <c r="D1192" t="inlineStr"/>
       <c r="E1192" t="inlineStr">
         <is>
-          <t>-1.2%</t>
+          <t>80.6</t>
         </is>
       </c>
       <c r="F1192" t="inlineStr"/>
-      <c r="G1192" t="inlineStr"/>
+      <c r="G1192" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
       <c r="H1192" t="inlineStr">
         <is>
           <t>3</t>
@@ -38540,165 +39114,121 @@
       </c>
     </row>
     <row r="1193">
-      <c r="A1193" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A1193" t="inlineStr"/>
       <c r="B1193" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1193" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Leading Indicator MoMDEC</t>
         </is>
       </c>
       <c r="D1193" t="inlineStr"/>
       <c r="E1193" t="inlineStr">
         <is>
-          <t>1,9%</t>
+          <t>1.44%</t>
         </is>
       </c>
       <c r="F1193" t="inlineStr"/>
       <c r="G1193" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="H1193" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1194">
-      <c r="A1194" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A1194" t="inlineStr"/>
       <c r="B1194" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1194" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>Central Government DebtDEC</t>
         </is>
       </c>
       <c r="D1194" t="inlineStr"/>
       <c r="E1194" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>TRY9.005T</t>
         </is>
       </c>
       <c r="F1194" t="inlineStr"/>
       <c r="G1194" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>TRY 9.0T</t>
         </is>
       </c>
       <c r="H1194" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1195">
-      <c r="A1195" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A1195" t="inlineStr"/>
       <c r="B1195" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C1195" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>ECOFIN Meeting</t>
         </is>
       </c>
       <c r="D1195" t="inlineStr"/>
-      <c r="E1195" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+      <c r="E1195" t="inlineStr"/>
       <c r="F1195" t="inlineStr"/>
-      <c r="G1195" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1195" t="inlineStr"/>
       <c r="H1195" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1196">
       <c r="A1196" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1196" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1196" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate MoMDEC</t>
-        </is>
-      </c>
+          <t>Tuesday January 21 2025</t>
+        </is>
+      </c>
+      <c r="B1196" t="inlineStr"/>
+      <c r="C1196" t="inlineStr"/>
       <c r="D1196" t="inlineStr"/>
       <c r="E1196" t="inlineStr"/>
       <c r="F1196" t="inlineStr"/>
-      <c r="G1196" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H1196" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1196" t="inlineStr"/>
+      <c r="H1196" t="inlineStr"/>
     </row>
     <row r="1197">
       <c r="A1197" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1197" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1197" t="inlineStr">
         <is>
-          <t>CPI Median YoYDEC</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1197" t="inlineStr"/>
-      <c r="E1197" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+      <c r="E1197" t="inlineStr"/>
       <c r="F1197" t="inlineStr"/>
-      <c r="G1197" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="G1197" t="inlineStr"/>
       <c r="H1197" t="inlineStr">
         <is>
           <t>3</t>
@@ -38708,31 +39238,23 @@
     <row r="1198">
       <c r="A1198" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1198" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1198" t="inlineStr">
         <is>
-          <t>CPI Trimmed-Mean YoYDEC</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1198" t="inlineStr"/>
-      <c r="E1198" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="E1198" t="inlineStr"/>
       <c r="F1198" t="inlineStr"/>
-      <c r="G1198" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+      <c r="G1198" t="inlineStr"/>
       <c r="H1198" t="inlineStr">
         <is>
           <t>3</t>
@@ -38742,162 +39264,198 @@
     <row r="1199">
       <c r="A1199" t="inlineStr">
         <is>
-          <t>08:55 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1199" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1199" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/18</t>
+          <t>New Car Registrations YoYDEC</t>
         </is>
       </c>
       <c r="D1199" t="inlineStr"/>
-      <c r="E1199" t="inlineStr"/>
+      <c r="E1199" t="inlineStr">
+        <is>
+          <t>-1.9%</t>
+        </is>
+      </c>
       <c r="F1199" t="inlineStr"/>
       <c r="G1199" t="inlineStr"/>
       <c r="H1199" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1200">
       <c r="A1200" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1200" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1200" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Unemployment RateNOV</t>
         </is>
       </c>
       <c r="D1200" t="inlineStr"/>
       <c r="E1200" t="inlineStr">
         <is>
-          <t>4.225%</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F1200" t="inlineStr"/>
-      <c r="G1200" t="inlineStr"/>
+      <c r="G1200" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="H1200" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1201">
       <c r="A1201" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1201" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1201" t="inlineStr">
         <is>
-          <t>52-Week Bill Auction</t>
+          <t>Average Earnings incl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D1201" t="inlineStr"/>
-      <c r="E1201" t="inlineStr"/>
+      <c r="E1201" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="F1201" t="inlineStr"/>
-      <c r="G1201" t="inlineStr"/>
+      <c r="G1201" t="inlineStr">
+        <is>
+          <t>4.9%</t>
+        </is>
+      </c>
       <c r="H1201" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1202">
       <c r="A1202" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1202" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1202" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Employment ChangeNOV</t>
         </is>
       </c>
       <c r="D1202" t="inlineStr"/>
       <c r="E1202" t="inlineStr">
         <is>
-          <t>4.180%</t>
+          <t>173K</t>
         </is>
       </c>
       <c r="F1202" t="inlineStr"/>
       <c r="G1202" t="inlineStr"/>
       <c r="H1202" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1203">
       <c r="A1203" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1203" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1203" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>Average Earnings excl. Bonus (3Mo/Yr)NOV</t>
         </is>
       </c>
       <c r="D1203" t="inlineStr"/>
       <c r="E1203" t="inlineStr">
         <is>
-          <t>88.4</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F1203" t="inlineStr"/>
       <c r="G1203" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="H1203" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1204">
       <c r="A1204" t="inlineStr">
         <is>
-          <t>Wednesday January 22 2025</t>
-        </is>
-      </c>
-      <c r="B1204" t="inlineStr"/>
-      <c r="C1204" t="inlineStr"/>
+          <t>02:00 AM</t>
+        </is>
+      </c>
+      <c r="B1204" t="inlineStr">
+        <is>
+          <t>GB</t>
+        </is>
+      </c>
+      <c r="C1204" t="inlineStr">
+        <is>
+          <t>Claimant Count ChangeDEC</t>
+        </is>
+      </c>
       <c r="D1204" t="inlineStr"/>
-      <c r="E1204" t="inlineStr"/>
+      <c r="E1204" t="inlineStr">
+        <is>
+          <t>0.3K</t>
+        </is>
+      </c>
       <c r="F1204" t="inlineStr"/>
-      <c r="G1204" t="inlineStr"/>
-      <c r="H1204" t="inlineStr"/>
+      <c r="G1204" t="inlineStr">
+        <is>
+          <t>-5K</t>
+        </is>
+      </c>
+      <c r="H1204" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1205">
       <c r="A1205" t="inlineStr">
@@ -38912,19 +39470,19 @@
       </c>
       <c r="C1205" t="inlineStr">
         <is>
-          <t>Public Sector Net Borrowing Ex BanksDEC</t>
+          <t>HMRC Payrolls ChangeDEC</t>
         </is>
       </c>
       <c r="D1205" t="inlineStr"/>
       <c r="E1205" t="inlineStr">
         <is>
-          <t>£-11.25B</t>
+          <t>-35K</t>
         </is>
       </c>
       <c r="F1205" t="inlineStr"/>
       <c r="G1205" t="inlineStr">
         <is>
-          <t>£ -11.3B</t>
+          <t>20K</t>
         </is>
       </c>
       <c r="H1205" t="inlineStr">
@@ -38936,7 +39494,7 @@
     <row r="1206">
       <c r="A1206" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B1206" t="inlineStr">
@@ -38946,31 +39504,27 @@
       </c>
       <c r="C1206" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Gold Production YoYNOV</t>
         </is>
       </c>
       <c r="D1206" t="inlineStr"/>
       <c r="E1206" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>-3.4%</t>
         </is>
       </c>
       <c r="F1206" t="inlineStr"/>
-      <c r="G1206" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G1206" t="inlineStr"/>
       <c r="H1206" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1207">
       <c r="A1207" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r